--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\mogo_doc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="143">
   <si>
     <t>No</t>
   </si>
@@ -655,6 +655,40 @@
   <si>
     <t>【房东PC/App】房型彻底删除</t>
     <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>拉卡拉配置文件.txt</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东App增加拉卡拉的接口配置</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口访问</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -948,7 +982,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1125,6 +1159,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1481,7 +1524,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -6515,10 +6558,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7430,20 +7473,44 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="1" customFormat="1" ht="16.5">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+    <row r="4" spans="1:13" s="61" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="60">
+        <v>1</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="60" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="M4" s="60"/>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A5" s="5"/>
@@ -7518,7 +7585,7 @@
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
-      <c r="M9" s="8"/>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
@@ -7527,7 +7594,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -7610,32 +7677,20 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" s="1" customFormat="1" ht="16.5">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE5:JE1048576 TA5:TA1048576 ACW5:ACW1048576 AMS5:AMS1048576 AWO5:AWO1048576 BGK5:BGK1048576 BQG5:BQG1048576 CAC5:CAC1048576 CJY5:CJY1048576 CTU5:CTU1048576 DDQ5:DDQ1048576 DNM5:DNM1048576 DXI5:DXI1048576 EHE5:EHE1048576 ERA5:ERA1048576 FAW5:FAW1048576 FKS5:FKS1048576 FUO5:FUO1048576 GEK5:GEK1048576 GOG5:GOG1048576 GYC5:GYC1048576 HHY5:HHY1048576 HRU5:HRU1048576 IBQ5:IBQ1048576 ILM5:ILM1048576 IVI5:IVI1048576 JFE5:JFE1048576 JPA5:JPA1048576 JYW5:JYW1048576 KIS5:KIS1048576 KSO5:KSO1048576 LCK5:LCK1048576 LMG5:LMG1048576 LWC5:LWC1048576 MFY5:MFY1048576 MPU5:MPU1048576 MZQ5:MZQ1048576 NJM5:NJM1048576 NTI5:NTI1048576 ODE5:ODE1048576 ONA5:ONA1048576 OWW5:OWW1048576 PGS5:PGS1048576 PQO5:PQO1048576 QAK5:QAK1048576 QKG5:QKG1048576 QUC5:QUC1048576 RDY5:RDY1048576 RNU5:RNU1048576 RXQ5:RXQ1048576 SHM5:SHM1048576 SRI5:SRI1048576 TBE5:TBE1048576 TLA5:TLA1048576 TUW5:TUW1048576 UES5:UES1048576 UOO5:UOO1048576 UYK5:UYK1048576 VIG5:VIG1048576 VSC5:VSC1048576 WBY5:WBY1048576 WLU5:WLU1048576 WVQ5:WVQ1048576 WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I3 I5:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16 F65540:F65552 F131076:F131088 F196612:F196624 F262148:F262160 F327684:F327696 F393220:F393232 F458756:F458768 F524292:F524304 F589828:F589840 F655364:F655376 F720900:F720912 F786436:F786448 F851972:F851984 F917508:F917520 F983044:F983056 JB4:JB16 JB65540:JB65552 JB131076:JB131088 JB196612:JB196624 JB262148:JB262160 JB327684:JB327696 JB393220:JB393232 JB458756:JB458768 JB524292:JB524304 JB589828:JB589840 JB655364:JB655376 JB720900:JB720912 JB786436:JB786448 JB851972:JB851984 JB917508:JB917520 JB983044:JB983056 SX4:SX16 SX65540:SX65552 SX131076:SX131088 SX196612:SX196624 SX262148:SX262160 SX327684:SX327696 SX393220:SX393232 SX458756:SX458768 SX524292:SX524304 SX589828:SX589840 SX655364:SX655376 SX720900:SX720912 SX786436:SX786448 SX851972:SX851984 SX917508:SX917520 SX983044:SX983056 ACT4:ACT16 ACT65540:ACT65552 ACT131076:ACT131088 ACT196612:ACT196624 ACT262148:ACT262160 ACT327684:ACT327696 ACT393220:ACT393232 ACT458756:ACT458768 ACT524292:ACT524304 ACT589828:ACT589840 ACT655364:ACT655376 ACT720900:ACT720912 ACT786436:ACT786448 ACT851972:ACT851984 ACT917508:ACT917520 ACT983044:ACT983056 AMP4:AMP16 AMP65540:AMP65552 AMP131076:AMP131088 AMP196612:AMP196624 AMP262148:AMP262160 AMP327684:AMP327696 AMP393220:AMP393232 AMP458756:AMP458768 AMP524292:AMP524304 AMP589828:AMP589840 AMP655364:AMP655376 AMP720900:AMP720912 AMP786436:AMP786448 AMP851972:AMP851984 AMP917508:AMP917520 AMP983044:AMP983056 AWL4:AWL16 AWL65540:AWL65552 AWL131076:AWL131088 AWL196612:AWL196624 AWL262148:AWL262160 AWL327684:AWL327696 AWL393220:AWL393232 AWL458756:AWL458768 AWL524292:AWL524304 AWL589828:AWL589840 AWL655364:AWL655376 AWL720900:AWL720912 AWL786436:AWL786448 AWL851972:AWL851984 AWL917508:AWL917520 AWL983044:AWL983056 BGH4:BGH16 BGH65540:BGH65552 BGH131076:BGH131088 BGH196612:BGH196624 BGH262148:BGH262160 BGH327684:BGH327696 BGH393220:BGH393232 BGH458756:BGH458768 BGH524292:BGH524304 BGH589828:BGH589840 BGH655364:BGH655376 BGH720900:BGH720912 BGH786436:BGH786448 BGH851972:BGH851984 BGH917508:BGH917520 BGH983044:BGH983056 BQD4:BQD16 BQD65540:BQD65552 BQD131076:BQD131088 BQD196612:BQD196624 BQD262148:BQD262160 BQD327684:BQD327696 BQD393220:BQD393232 BQD458756:BQD458768 BQD524292:BQD524304 BQD589828:BQD589840 BQD655364:BQD655376 BQD720900:BQD720912 BQD786436:BQD786448 BQD851972:BQD851984 BQD917508:BQD917520 BQD983044:BQD983056 BZZ4:BZZ16 BZZ65540:BZZ65552 BZZ131076:BZZ131088 BZZ196612:BZZ196624 BZZ262148:BZZ262160 BZZ327684:BZZ327696 BZZ393220:BZZ393232 BZZ458756:BZZ458768 BZZ524292:BZZ524304 BZZ589828:BZZ589840 BZZ655364:BZZ655376 BZZ720900:BZZ720912 BZZ786436:BZZ786448 BZZ851972:BZZ851984 BZZ917508:BZZ917520 BZZ983044:BZZ983056 CJV4:CJV16 CJV65540:CJV65552 CJV131076:CJV131088 CJV196612:CJV196624 CJV262148:CJV262160 CJV327684:CJV327696 CJV393220:CJV393232 CJV458756:CJV458768 CJV524292:CJV524304 CJV589828:CJV589840 CJV655364:CJV655376 CJV720900:CJV720912 CJV786436:CJV786448 CJV851972:CJV851984 CJV917508:CJV917520 CJV983044:CJV983056 CTR4:CTR16 CTR65540:CTR65552 CTR131076:CTR131088 CTR196612:CTR196624 CTR262148:CTR262160 CTR327684:CTR327696 CTR393220:CTR393232 CTR458756:CTR458768 CTR524292:CTR524304 CTR589828:CTR589840 CTR655364:CTR655376 CTR720900:CTR720912 CTR786436:CTR786448 CTR851972:CTR851984 CTR917508:CTR917520 CTR983044:CTR983056 DDN4:DDN16 DDN65540:DDN65552 DDN131076:DDN131088 DDN196612:DDN196624 DDN262148:DDN262160 DDN327684:DDN327696 DDN393220:DDN393232 DDN458756:DDN458768 DDN524292:DDN524304 DDN589828:DDN589840 DDN655364:DDN655376 DDN720900:DDN720912 DDN786436:DDN786448 DDN851972:DDN851984 DDN917508:DDN917520 DDN983044:DDN983056 DNJ4:DNJ16 DNJ65540:DNJ65552 DNJ131076:DNJ131088 DNJ196612:DNJ196624 DNJ262148:DNJ262160 DNJ327684:DNJ327696 DNJ393220:DNJ393232 DNJ458756:DNJ458768 DNJ524292:DNJ524304 DNJ589828:DNJ589840 DNJ655364:DNJ655376 DNJ720900:DNJ720912 DNJ786436:DNJ786448 DNJ851972:DNJ851984 DNJ917508:DNJ917520 DNJ983044:DNJ983056 DXF4:DXF16 DXF65540:DXF65552 DXF131076:DXF131088 DXF196612:DXF196624 DXF262148:DXF262160 DXF327684:DXF327696 DXF393220:DXF393232 DXF458756:DXF458768 DXF524292:DXF524304 DXF589828:DXF589840 DXF655364:DXF655376 DXF720900:DXF720912 DXF786436:DXF786448 DXF851972:DXF851984 DXF917508:DXF917520 DXF983044:DXF983056 EHB4:EHB16 EHB65540:EHB65552 EHB131076:EHB131088 EHB196612:EHB196624 EHB262148:EHB262160 EHB327684:EHB327696 EHB393220:EHB393232 EHB458756:EHB458768 EHB524292:EHB524304 EHB589828:EHB589840 EHB655364:EHB655376 EHB720900:EHB720912 EHB786436:EHB786448 EHB851972:EHB851984 EHB917508:EHB917520 EHB983044:EHB983056 EQX4:EQX16 EQX65540:EQX65552 EQX131076:EQX131088 EQX196612:EQX196624 EQX262148:EQX262160 EQX327684:EQX327696 EQX393220:EQX393232 EQX458756:EQX458768 EQX524292:EQX524304 EQX589828:EQX589840 EQX655364:EQX655376 EQX720900:EQX720912 EQX786436:EQX786448 EQX851972:EQX851984 EQX917508:EQX917520 EQX983044:EQX983056 FAT4:FAT16 FAT65540:FAT65552 FAT131076:FAT131088 FAT196612:FAT196624 FAT262148:FAT262160 FAT327684:FAT327696 FAT393220:FAT393232 FAT458756:FAT458768 FAT524292:FAT524304 FAT589828:FAT589840 FAT655364:FAT655376 FAT720900:FAT720912 FAT786436:FAT786448 FAT851972:FAT851984 FAT917508:FAT917520 FAT983044:FAT983056 FKP4:FKP16 FKP65540:FKP65552 FKP131076:FKP131088 FKP196612:FKP196624 FKP262148:FKP262160 FKP327684:FKP327696 FKP393220:FKP393232 FKP458756:FKP458768 FKP524292:FKP524304 FKP589828:FKP589840 FKP655364:FKP655376 FKP720900:FKP720912 FKP786436:FKP786448 FKP851972:FKP851984 FKP917508:FKP917520 FKP983044:FKP983056 FUL4:FUL16 FUL65540:FUL65552 FUL131076:FUL131088 FUL196612:FUL196624 FUL262148:FUL262160 FUL327684:FUL327696 FUL393220:FUL393232 FUL458756:FUL458768 FUL524292:FUL524304 FUL589828:FUL589840 FUL655364:FUL655376 FUL720900:FUL720912 FUL786436:FUL786448 FUL851972:FUL851984 FUL917508:FUL917520 FUL983044:FUL983056 GEH4:GEH16 GEH65540:GEH65552 GEH131076:GEH131088 GEH196612:GEH196624 GEH262148:GEH262160 GEH327684:GEH327696 GEH393220:GEH393232 GEH458756:GEH458768 GEH524292:GEH524304 GEH589828:GEH589840 GEH655364:GEH655376 GEH720900:GEH720912 GEH786436:GEH786448 GEH851972:GEH851984 GEH917508:GEH917520 GEH983044:GEH983056 GOD4:GOD16 GOD65540:GOD65552 GOD131076:GOD131088 GOD196612:GOD196624 GOD262148:GOD262160 GOD327684:GOD327696 GOD393220:GOD393232 GOD458756:GOD458768 GOD524292:GOD524304 GOD589828:GOD589840 GOD655364:GOD655376 GOD720900:GOD720912 GOD786436:GOD786448 GOD851972:GOD851984 GOD917508:GOD917520 GOD983044:GOD983056 GXZ4:GXZ16 GXZ65540:GXZ65552 GXZ131076:GXZ131088 GXZ196612:GXZ196624 GXZ262148:GXZ262160 GXZ327684:GXZ327696 GXZ393220:GXZ393232 GXZ458756:GXZ458768 GXZ524292:GXZ524304 GXZ589828:GXZ589840 GXZ655364:GXZ655376 GXZ720900:GXZ720912 GXZ786436:GXZ786448 GXZ851972:GXZ851984 GXZ917508:GXZ917520 GXZ983044:GXZ983056 HHV4:HHV16 HHV65540:HHV65552 HHV131076:HHV131088 HHV196612:HHV196624 HHV262148:HHV262160 HHV327684:HHV327696 HHV393220:HHV393232 HHV458756:HHV458768 HHV524292:HHV524304 HHV589828:HHV589840 HHV655364:HHV655376 HHV720900:HHV720912 HHV786436:HHV786448 HHV851972:HHV851984 HHV917508:HHV917520 HHV983044:HHV983056 HRR4:HRR16 HRR65540:HRR65552 HRR131076:HRR131088 HRR196612:HRR196624 HRR262148:HRR262160 HRR327684:HRR327696 HRR393220:HRR393232 HRR458756:HRR458768 HRR524292:HRR524304 HRR589828:HRR589840 HRR655364:HRR655376 HRR720900:HRR720912 HRR786436:HRR786448 HRR851972:HRR851984 HRR917508:HRR917520 HRR983044:HRR983056 IBN4:IBN16 IBN65540:IBN65552 IBN131076:IBN131088 IBN196612:IBN196624 IBN262148:IBN262160 IBN327684:IBN327696 IBN393220:IBN393232 IBN458756:IBN458768 IBN524292:IBN524304 IBN589828:IBN589840 IBN655364:IBN655376 IBN720900:IBN720912 IBN786436:IBN786448 IBN851972:IBN851984 IBN917508:IBN917520 IBN983044:IBN983056 ILJ4:ILJ16 ILJ65540:ILJ65552 ILJ131076:ILJ131088 ILJ196612:ILJ196624 ILJ262148:ILJ262160 ILJ327684:ILJ327696 ILJ393220:ILJ393232 ILJ458756:ILJ458768 ILJ524292:ILJ524304 ILJ589828:ILJ589840 ILJ655364:ILJ655376 ILJ720900:ILJ720912 ILJ786436:ILJ786448 ILJ851972:ILJ851984 ILJ917508:ILJ917520 ILJ983044:ILJ983056 IVF4:IVF16 IVF65540:IVF65552 IVF131076:IVF131088 IVF196612:IVF196624 IVF262148:IVF262160 IVF327684:IVF327696 IVF393220:IVF393232 IVF458756:IVF458768 IVF524292:IVF524304 IVF589828:IVF589840 IVF655364:IVF655376 IVF720900:IVF720912 IVF786436:IVF786448 IVF851972:IVF851984 IVF917508:IVF917520 IVF983044:IVF983056 JFB4:JFB16 JFB65540:JFB65552 JFB131076:JFB131088 JFB196612:JFB196624 JFB262148:JFB262160 JFB327684:JFB327696 JFB393220:JFB393232 JFB458756:JFB458768 JFB524292:JFB524304 JFB589828:JFB589840 JFB655364:JFB655376 JFB720900:JFB720912 JFB786436:JFB786448 JFB851972:JFB851984 JFB917508:JFB917520 JFB983044:JFB983056 JOX4:JOX16 JOX65540:JOX65552 JOX131076:JOX131088 JOX196612:JOX196624 JOX262148:JOX262160 JOX327684:JOX327696 JOX393220:JOX393232 JOX458756:JOX458768 JOX524292:JOX524304 JOX589828:JOX589840 JOX655364:JOX655376 JOX720900:JOX720912 JOX786436:JOX786448 JOX851972:JOX851984 JOX917508:JOX917520 JOX983044:JOX983056 JYT4:JYT16 JYT65540:JYT65552 JYT131076:JYT131088 JYT196612:JYT196624 JYT262148:JYT262160 JYT327684:JYT327696 JYT393220:JYT393232 JYT458756:JYT458768 JYT524292:JYT524304 JYT589828:JYT589840 JYT655364:JYT655376 JYT720900:JYT720912 JYT786436:JYT786448 JYT851972:JYT851984 JYT917508:JYT917520 JYT983044:JYT983056 KIP4:KIP16 KIP65540:KIP65552 KIP131076:KIP131088 KIP196612:KIP196624 KIP262148:KIP262160 KIP327684:KIP327696 KIP393220:KIP393232 KIP458756:KIP458768 KIP524292:KIP524304 KIP589828:KIP589840 KIP655364:KIP655376 KIP720900:KIP720912 KIP786436:KIP786448 KIP851972:KIP851984 KIP917508:KIP917520 KIP983044:KIP983056 KSL4:KSL16 KSL65540:KSL65552 KSL131076:KSL131088 KSL196612:KSL196624 KSL262148:KSL262160 KSL327684:KSL327696 KSL393220:KSL393232 KSL458756:KSL458768 KSL524292:KSL524304 KSL589828:KSL589840 KSL655364:KSL655376 KSL720900:KSL720912 KSL786436:KSL786448 KSL851972:KSL851984 KSL917508:KSL917520 KSL983044:KSL983056 LCH4:LCH16 LCH65540:LCH65552 LCH131076:LCH131088 LCH196612:LCH196624 LCH262148:LCH262160 LCH327684:LCH327696 LCH393220:LCH393232 LCH458756:LCH458768 LCH524292:LCH524304 LCH589828:LCH589840 LCH655364:LCH655376 LCH720900:LCH720912 LCH786436:LCH786448 LCH851972:LCH851984 LCH917508:LCH917520 LCH983044:LCH983056 LMD4:LMD16 LMD65540:LMD65552 LMD131076:LMD131088 LMD196612:LMD196624 LMD262148:LMD262160 LMD327684:LMD327696 LMD393220:LMD393232 LMD458756:LMD458768 LMD524292:LMD524304 LMD589828:LMD589840 LMD655364:LMD655376 LMD720900:LMD720912 LMD786436:LMD786448 LMD851972:LMD851984 LMD917508:LMD917520 LMD983044:LMD983056 LVZ4:LVZ16 LVZ65540:LVZ65552 LVZ131076:LVZ131088 LVZ196612:LVZ196624 LVZ262148:LVZ262160 LVZ327684:LVZ327696 LVZ393220:LVZ393232 LVZ458756:LVZ458768 LVZ524292:LVZ524304 LVZ589828:LVZ589840 LVZ655364:LVZ655376 LVZ720900:LVZ720912 LVZ786436:LVZ786448 LVZ851972:LVZ851984 LVZ917508:LVZ917520 LVZ983044:LVZ983056 MFV4:MFV16 MFV65540:MFV65552 MFV131076:MFV131088 MFV196612:MFV196624 MFV262148:MFV262160 MFV327684:MFV327696 MFV393220:MFV393232 MFV458756:MFV458768 MFV524292:MFV524304 MFV589828:MFV589840 MFV655364:MFV655376 MFV720900:MFV720912 MFV786436:MFV786448 MFV851972:MFV851984 MFV917508:MFV917520 MFV983044:MFV983056 MPR4:MPR16 MPR65540:MPR65552 MPR131076:MPR131088 MPR196612:MPR196624 MPR262148:MPR262160 MPR327684:MPR327696 MPR393220:MPR393232 MPR458756:MPR458768 MPR524292:MPR524304 MPR589828:MPR589840 MPR655364:MPR655376 MPR720900:MPR720912 MPR786436:MPR786448 MPR851972:MPR851984 MPR917508:MPR917520 MPR983044:MPR983056 MZN4:MZN16 MZN65540:MZN65552 MZN131076:MZN131088 MZN196612:MZN196624 MZN262148:MZN262160 MZN327684:MZN327696 MZN393220:MZN393232 MZN458756:MZN458768 MZN524292:MZN524304 MZN589828:MZN589840 MZN655364:MZN655376 MZN720900:MZN720912 MZN786436:MZN786448 MZN851972:MZN851984 MZN917508:MZN917520 MZN983044:MZN983056 NJJ4:NJJ16 NJJ65540:NJJ65552 NJJ131076:NJJ131088 NJJ196612:NJJ196624 NJJ262148:NJJ262160 NJJ327684:NJJ327696 NJJ393220:NJJ393232 NJJ458756:NJJ458768 NJJ524292:NJJ524304 NJJ589828:NJJ589840 NJJ655364:NJJ655376 NJJ720900:NJJ720912 NJJ786436:NJJ786448 NJJ851972:NJJ851984 NJJ917508:NJJ917520 NJJ983044:NJJ983056 NTF4:NTF16 NTF65540:NTF65552 NTF131076:NTF131088 NTF196612:NTF196624 NTF262148:NTF262160 NTF327684:NTF327696 NTF393220:NTF393232 NTF458756:NTF458768 NTF524292:NTF524304 NTF589828:NTF589840 NTF655364:NTF655376 NTF720900:NTF720912 NTF786436:NTF786448 NTF851972:NTF851984 NTF917508:NTF917520 NTF983044:NTF983056 ODB4:ODB16 ODB65540:ODB65552 ODB131076:ODB131088 ODB196612:ODB196624 ODB262148:ODB262160 ODB327684:ODB327696 ODB393220:ODB393232 ODB458756:ODB458768 ODB524292:ODB524304 ODB589828:ODB589840 ODB655364:ODB655376 ODB720900:ODB720912 ODB786436:ODB786448 ODB851972:ODB851984 ODB917508:ODB917520 ODB983044:ODB983056 OMX4:OMX16 OMX65540:OMX65552 OMX131076:OMX131088 OMX196612:OMX196624 OMX262148:OMX262160 OMX327684:OMX327696 OMX393220:OMX393232 OMX458756:OMX458768 OMX524292:OMX524304 OMX589828:OMX589840 OMX655364:OMX655376 OMX720900:OMX720912 OMX786436:OMX786448 OMX851972:OMX851984 OMX917508:OMX917520 OMX983044:OMX983056 OWT4:OWT16 OWT65540:OWT65552 OWT131076:OWT131088 OWT196612:OWT196624 OWT262148:OWT262160 OWT327684:OWT327696 OWT393220:OWT393232 OWT458756:OWT458768 OWT524292:OWT524304 OWT589828:OWT589840 OWT655364:OWT655376 OWT720900:OWT720912 OWT786436:OWT786448 OWT851972:OWT851984 OWT917508:OWT917520 OWT983044:OWT983056 PGP4:PGP16 PGP65540:PGP65552 PGP131076:PGP131088 PGP196612:PGP196624 PGP262148:PGP262160 PGP327684:PGP327696 PGP393220:PGP393232 PGP458756:PGP458768 PGP524292:PGP524304 PGP589828:PGP589840 PGP655364:PGP655376 PGP720900:PGP720912 PGP786436:PGP786448 PGP851972:PGP851984 PGP917508:PGP917520 PGP983044:PGP983056 PQL4:PQL16 PQL65540:PQL65552 PQL131076:PQL131088 PQL196612:PQL196624 PQL262148:PQL262160 PQL327684:PQL327696 PQL393220:PQL393232 PQL458756:PQL458768 PQL524292:PQL524304 PQL589828:PQL589840 PQL655364:PQL655376 PQL720900:PQL720912 PQL786436:PQL786448 PQL851972:PQL851984 PQL917508:PQL917520 PQL983044:PQL983056 QAH4:QAH16 QAH65540:QAH65552 QAH131076:QAH131088 QAH196612:QAH196624 QAH262148:QAH262160 QAH327684:QAH327696 QAH393220:QAH393232 QAH458756:QAH458768 QAH524292:QAH524304 QAH589828:QAH589840 QAH655364:QAH655376 QAH720900:QAH720912 QAH786436:QAH786448 QAH851972:QAH851984 QAH917508:QAH917520 QAH983044:QAH983056 QKD4:QKD16 QKD65540:QKD65552 QKD131076:QKD131088 QKD196612:QKD196624 QKD262148:QKD262160 QKD327684:QKD327696 QKD393220:QKD393232 QKD458756:QKD458768 QKD524292:QKD524304 QKD589828:QKD589840 QKD655364:QKD655376 QKD720900:QKD720912 QKD786436:QKD786448 QKD851972:QKD851984 QKD917508:QKD917520 QKD983044:QKD983056 QTZ4:QTZ16 QTZ65540:QTZ65552 QTZ131076:QTZ131088 QTZ196612:QTZ196624 QTZ262148:QTZ262160 QTZ327684:QTZ327696 QTZ393220:QTZ393232 QTZ458756:QTZ458768 QTZ524292:QTZ524304 QTZ589828:QTZ589840 QTZ655364:QTZ655376 QTZ720900:QTZ720912 QTZ786436:QTZ786448 QTZ851972:QTZ851984 QTZ917508:QTZ917520 QTZ983044:QTZ983056 RDV4:RDV16 RDV65540:RDV65552 RDV131076:RDV131088 RDV196612:RDV196624 RDV262148:RDV262160 RDV327684:RDV327696 RDV393220:RDV393232 RDV458756:RDV458768 RDV524292:RDV524304 RDV589828:RDV589840 RDV655364:RDV655376 RDV720900:RDV720912 RDV786436:RDV786448 RDV851972:RDV851984 RDV917508:RDV917520 RDV983044:RDV983056 RNR4:RNR16 RNR65540:RNR65552 RNR131076:RNR131088 RNR196612:RNR196624 RNR262148:RNR262160 RNR327684:RNR327696 RNR393220:RNR393232 RNR458756:RNR458768 RNR524292:RNR524304 RNR589828:RNR589840 RNR655364:RNR655376 RNR720900:RNR720912 RNR786436:RNR786448 RNR851972:RNR851984 RNR917508:RNR917520 RNR983044:RNR983056 RXN4:RXN16 RXN65540:RXN65552 RXN131076:RXN131088 RXN196612:RXN196624 RXN262148:RXN262160 RXN327684:RXN327696 RXN393220:RXN393232 RXN458756:RXN458768 RXN524292:RXN524304 RXN589828:RXN589840 RXN655364:RXN655376 RXN720900:RXN720912 RXN786436:RXN786448 RXN851972:RXN851984 RXN917508:RXN917520 RXN983044:RXN983056 SHJ4:SHJ16 SHJ65540:SHJ65552 SHJ131076:SHJ131088 SHJ196612:SHJ196624 SHJ262148:SHJ262160 SHJ327684:SHJ327696 SHJ393220:SHJ393232 SHJ458756:SHJ458768 SHJ524292:SHJ524304 SHJ589828:SHJ589840 SHJ655364:SHJ655376 SHJ720900:SHJ720912 SHJ786436:SHJ786448 SHJ851972:SHJ851984 SHJ917508:SHJ917520 SHJ983044:SHJ983056 SRF4:SRF16 SRF65540:SRF65552 SRF131076:SRF131088 SRF196612:SRF196624 SRF262148:SRF262160 SRF327684:SRF327696 SRF393220:SRF393232 SRF458756:SRF458768 SRF524292:SRF524304 SRF589828:SRF589840 SRF655364:SRF655376 SRF720900:SRF720912 SRF786436:SRF786448 SRF851972:SRF851984 SRF917508:SRF917520 SRF983044:SRF983056 TBB4:TBB16 TBB65540:TBB65552 TBB131076:TBB131088 TBB196612:TBB196624 TBB262148:TBB262160 TBB327684:TBB327696 TBB393220:TBB393232 TBB458756:TBB458768 TBB524292:TBB524304 TBB589828:TBB589840 TBB655364:TBB655376 TBB720900:TBB720912 TBB786436:TBB786448 TBB851972:TBB851984 TBB917508:TBB917520 TBB983044:TBB983056 TKX4:TKX16 TKX65540:TKX65552 TKX131076:TKX131088 TKX196612:TKX196624 TKX262148:TKX262160 TKX327684:TKX327696 TKX393220:TKX393232 TKX458756:TKX458768 TKX524292:TKX524304 TKX589828:TKX589840 TKX655364:TKX655376 TKX720900:TKX720912 TKX786436:TKX786448 TKX851972:TKX851984 TKX917508:TKX917520 TKX983044:TKX983056 TUT4:TUT16 TUT65540:TUT65552 TUT131076:TUT131088 TUT196612:TUT196624 TUT262148:TUT262160 TUT327684:TUT327696 TUT393220:TUT393232 TUT458756:TUT458768 TUT524292:TUT524304 TUT589828:TUT589840 TUT655364:TUT655376 TUT720900:TUT720912 TUT786436:TUT786448 TUT851972:TUT851984 TUT917508:TUT917520 TUT983044:TUT983056 UEP4:UEP16 UEP65540:UEP65552 UEP131076:UEP131088 UEP196612:UEP196624 UEP262148:UEP262160 UEP327684:UEP327696 UEP393220:UEP393232 UEP458756:UEP458768 UEP524292:UEP524304 UEP589828:UEP589840 UEP655364:UEP655376 UEP720900:UEP720912 UEP786436:UEP786448 UEP851972:UEP851984 UEP917508:UEP917520 UEP983044:UEP983056 UOL4:UOL16 UOL65540:UOL65552 UOL131076:UOL131088 UOL196612:UOL196624 UOL262148:UOL262160 UOL327684:UOL327696 UOL393220:UOL393232 UOL458756:UOL458768 UOL524292:UOL524304 UOL589828:UOL589840 UOL655364:UOL655376 UOL720900:UOL720912 UOL786436:UOL786448 UOL851972:UOL851984 UOL917508:UOL917520 UOL983044:UOL983056 UYH4:UYH16 UYH65540:UYH65552 UYH131076:UYH131088 UYH196612:UYH196624 UYH262148:UYH262160 UYH327684:UYH327696 UYH393220:UYH393232 UYH458756:UYH458768 UYH524292:UYH524304 UYH589828:UYH589840 UYH655364:UYH655376 UYH720900:UYH720912 UYH786436:UYH786448 UYH851972:UYH851984 UYH917508:UYH917520 UYH983044:UYH983056 VID4:VID16 VID65540:VID65552 VID131076:VID131088 VID196612:VID196624 VID262148:VID262160 VID327684:VID327696 VID393220:VID393232 VID458756:VID458768 VID524292:VID524304 VID589828:VID589840 VID655364:VID655376 VID720900:VID720912 VID786436:VID786448 VID851972:VID851984 VID917508:VID917520 VID983044:VID983056 VRZ4:VRZ16 VRZ65540:VRZ65552 VRZ131076:VRZ131088 VRZ196612:VRZ196624 VRZ262148:VRZ262160 VRZ327684:VRZ327696 VRZ393220:VRZ393232 VRZ458756:VRZ458768 VRZ524292:VRZ524304 VRZ589828:VRZ589840 VRZ655364:VRZ655376 VRZ720900:VRZ720912 VRZ786436:VRZ786448 VRZ851972:VRZ851984 VRZ917508:VRZ917520 VRZ983044:VRZ983056 WBV4:WBV16 WBV65540:WBV65552 WBV131076:WBV131088 WBV196612:WBV196624 WBV262148:WBV262160 WBV327684:WBV327696 WBV393220:WBV393232 WBV458756:WBV458768 WBV524292:WBV524304 WBV589828:WBV589840 WBV655364:WBV655376 WBV720900:WBV720912 WBV786436:WBV786448 WBV851972:WBV851984 WBV917508:WBV917520 WBV983044:WBV983056 WLR4:WLR16 WLR65540:WLR65552 WLR131076:WLR131088 WLR196612:WLR196624 WLR262148:WLR262160 WLR327684:WLR327696 WLR393220:WLR393232 WLR458756:WLR458768 WLR524292:WLR524304 WLR589828:WLR589840 WLR655364:WLR655376 WLR720900:WLR720912 WLR786436:WLR786448 WLR851972:WLR851984 WLR917508:WLR917520 WLR983044:WLR983056 WVN4:WVN16 WVN65540:WVN65552 WVN131076:WVN131088 WVN196612:WVN196624 WVN262148:WVN262160 WVN327684:WVN327696 WVN393220:WVN393232 WVN458756:WVN458768 WVN524292:WVN524304 WVN589828:WVN589840 WVN655364:WVN655376 WVN720900:WVN720912 WVN786436:WVN786448 WVN851972:WVN851984 WVN917508:WVN917520 WVN983044:WVN983056">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 F131075:F131087 F196611:F196623 F262147:F262159 F327683:F327695 F393219:F393231 F458755:F458767 F524291:F524303 F589827:F589839 F655363:F655375 F720899:F720911 F786435:F786447 F851971:F851983 F917507:F917519 F983043:F983055 JB65539:JB65551 JB131075:JB131087 JB196611:JB196623 JB262147:JB262159 JB327683:JB327695 JB393219:JB393231 JB458755:JB458767 JB524291:JB524303 JB589827:JB589839 JB655363:JB655375 JB720899:JB720911 JB786435:JB786447 JB851971:JB851983 JB917507:JB917519 JB983043:JB983055 SX65539:SX65551 SX131075:SX131087 SX196611:SX196623 SX262147:SX262159 SX327683:SX327695 SX393219:SX393231 SX458755:SX458767 SX524291:SX524303 SX589827:SX589839 SX655363:SX655375 SX720899:SX720911 SX786435:SX786447 SX851971:SX851983 SX917507:SX917519 SX983043:SX983055 ACT65539:ACT65551 ACT131075:ACT131087 ACT196611:ACT196623 ACT262147:ACT262159 ACT327683:ACT327695 ACT393219:ACT393231 ACT458755:ACT458767 ACT524291:ACT524303 ACT589827:ACT589839 ACT655363:ACT655375 ACT720899:ACT720911 ACT786435:ACT786447 ACT851971:ACT851983 ACT917507:ACT917519 ACT983043:ACT983055 AMP65539:AMP65551 AMP131075:AMP131087 AMP196611:AMP196623 AMP262147:AMP262159 AMP327683:AMP327695 AMP393219:AMP393231 AMP458755:AMP458767 AMP524291:AMP524303 AMP589827:AMP589839 AMP655363:AMP655375 AMP720899:AMP720911 AMP786435:AMP786447 AMP851971:AMP851983 AMP917507:AMP917519 AMP983043:AMP983055 AWL65539:AWL65551 AWL131075:AWL131087 AWL196611:AWL196623 AWL262147:AWL262159 AWL327683:AWL327695 AWL393219:AWL393231 AWL458755:AWL458767 AWL524291:AWL524303 AWL589827:AWL589839 AWL655363:AWL655375 AWL720899:AWL720911 AWL786435:AWL786447 AWL851971:AWL851983 AWL917507:AWL917519 AWL983043:AWL983055 BGH65539:BGH65551 BGH131075:BGH131087 BGH196611:BGH196623 BGH262147:BGH262159 BGH327683:BGH327695 BGH393219:BGH393231 BGH458755:BGH458767 BGH524291:BGH524303 BGH589827:BGH589839 BGH655363:BGH655375 BGH720899:BGH720911 BGH786435:BGH786447 BGH851971:BGH851983 BGH917507:BGH917519 BGH983043:BGH983055 BQD65539:BQD65551 BQD131075:BQD131087 BQD196611:BQD196623 BQD262147:BQD262159 BQD327683:BQD327695 BQD393219:BQD393231 BQD458755:BQD458767 BQD524291:BQD524303 BQD589827:BQD589839 BQD655363:BQD655375 BQD720899:BQD720911 BQD786435:BQD786447 BQD851971:BQD851983 BQD917507:BQD917519 BQD983043:BQD983055 BZZ65539:BZZ65551 BZZ131075:BZZ131087 BZZ196611:BZZ196623 BZZ262147:BZZ262159 BZZ327683:BZZ327695 BZZ393219:BZZ393231 BZZ458755:BZZ458767 BZZ524291:BZZ524303 BZZ589827:BZZ589839 BZZ655363:BZZ655375 BZZ720899:BZZ720911 BZZ786435:BZZ786447 BZZ851971:BZZ851983 BZZ917507:BZZ917519 BZZ983043:BZZ983055 CJV65539:CJV65551 CJV131075:CJV131087 CJV196611:CJV196623 CJV262147:CJV262159 CJV327683:CJV327695 CJV393219:CJV393231 CJV458755:CJV458767 CJV524291:CJV524303 CJV589827:CJV589839 CJV655363:CJV655375 CJV720899:CJV720911 CJV786435:CJV786447 CJV851971:CJV851983 CJV917507:CJV917519 CJV983043:CJV983055 CTR65539:CTR65551 CTR131075:CTR131087 CTR196611:CTR196623 CTR262147:CTR262159 CTR327683:CTR327695 CTR393219:CTR393231 CTR458755:CTR458767 CTR524291:CTR524303 CTR589827:CTR589839 CTR655363:CTR655375 CTR720899:CTR720911 CTR786435:CTR786447 CTR851971:CTR851983 CTR917507:CTR917519 CTR983043:CTR983055 DDN65539:DDN65551 DDN131075:DDN131087 DDN196611:DDN196623 DDN262147:DDN262159 DDN327683:DDN327695 DDN393219:DDN393231 DDN458755:DDN458767 DDN524291:DDN524303 DDN589827:DDN589839 DDN655363:DDN655375 DDN720899:DDN720911 DDN786435:DDN786447 DDN851971:DDN851983 DDN917507:DDN917519 DDN983043:DDN983055 DNJ65539:DNJ65551 DNJ131075:DNJ131087 DNJ196611:DNJ196623 DNJ262147:DNJ262159 DNJ327683:DNJ327695 DNJ393219:DNJ393231 DNJ458755:DNJ458767 DNJ524291:DNJ524303 DNJ589827:DNJ589839 DNJ655363:DNJ655375 DNJ720899:DNJ720911 DNJ786435:DNJ786447 DNJ851971:DNJ851983 DNJ917507:DNJ917519 DNJ983043:DNJ983055 DXF65539:DXF65551 DXF131075:DXF131087 DXF196611:DXF196623 DXF262147:DXF262159 DXF327683:DXF327695 DXF393219:DXF393231 DXF458755:DXF458767 DXF524291:DXF524303 DXF589827:DXF589839 DXF655363:DXF655375 DXF720899:DXF720911 DXF786435:DXF786447 DXF851971:DXF851983 DXF917507:DXF917519 DXF983043:DXF983055 EHB65539:EHB65551 EHB131075:EHB131087 EHB196611:EHB196623 EHB262147:EHB262159 EHB327683:EHB327695 EHB393219:EHB393231 EHB458755:EHB458767 EHB524291:EHB524303 EHB589827:EHB589839 EHB655363:EHB655375 EHB720899:EHB720911 EHB786435:EHB786447 EHB851971:EHB851983 EHB917507:EHB917519 EHB983043:EHB983055 EQX65539:EQX65551 EQX131075:EQX131087 EQX196611:EQX196623 EQX262147:EQX262159 EQX327683:EQX327695 EQX393219:EQX393231 EQX458755:EQX458767 EQX524291:EQX524303 EQX589827:EQX589839 EQX655363:EQX655375 EQX720899:EQX720911 EQX786435:EQX786447 EQX851971:EQX851983 EQX917507:EQX917519 EQX983043:EQX983055 FAT65539:FAT65551 FAT131075:FAT131087 FAT196611:FAT196623 FAT262147:FAT262159 FAT327683:FAT327695 FAT393219:FAT393231 FAT458755:FAT458767 FAT524291:FAT524303 FAT589827:FAT589839 FAT655363:FAT655375 FAT720899:FAT720911 FAT786435:FAT786447 FAT851971:FAT851983 FAT917507:FAT917519 FAT983043:FAT983055 FKP65539:FKP65551 FKP131075:FKP131087 FKP196611:FKP196623 FKP262147:FKP262159 FKP327683:FKP327695 FKP393219:FKP393231 FKP458755:FKP458767 FKP524291:FKP524303 FKP589827:FKP589839 FKP655363:FKP655375 FKP720899:FKP720911 FKP786435:FKP786447 FKP851971:FKP851983 FKP917507:FKP917519 FKP983043:FKP983055 FUL65539:FUL65551 FUL131075:FUL131087 FUL196611:FUL196623 FUL262147:FUL262159 FUL327683:FUL327695 FUL393219:FUL393231 FUL458755:FUL458767 FUL524291:FUL524303 FUL589827:FUL589839 FUL655363:FUL655375 FUL720899:FUL720911 FUL786435:FUL786447 FUL851971:FUL851983 FUL917507:FUL917519 FUL983043:FUL983055 GEH65539:GEH65551 GEH131075:GEH131087 GEH196611:GEH196623 GEH262147:GEH262159 GEH327683:GEH327695 GEH393219:GEH393231 GEH458755:GEH458767 GEH524291:GEH524303 GEH589827:GEH589839 GEH655363:GEH655375 GEH720899:GEH720911 GEH786435:GEH786447 GEH851971:GEH851983 GEH917507:GEH917519 GEH983043:GEH983055 GOD65539:GOD65551 GOD131075:GOD131087 GOD196611:GOD196623 GOD262147:GOD262159 GOD327683:GOD327695 GOD393219:GOD393231 GOD458755:GOD458767 GOD524291:GOD524303 GOD589827:GOD589839 GOD655363:GOD655375 GOD720899:GOD720911 GOD786435:GOD786447 GOD851971:GOD851983 GOD917507:GOD917519 GOD983043:GOD983055 GXZ65539:GXZ65551 GXZ131075:GXZ131087 GXZ196611:GXZ196623 GXZ262147:GXZ262159 GXZ327683:GXZ327695 GXZ393219:GXZ393231 GXZ458755:GXZ458767 GXZ524291:GXZ524303 GXZ589827:GXZ589839 GXZ655363:GXZ655375 GXZ720899:GXZ720911 GXZ786435:GXZ786447 GXZ851971:GXZ851983 GXZ917507:GXZ917519 GXZ983043:GXZ983055 HHV65539:HHV65551 HHV131075:HHV131087 HHV196611:HHV196623 HHV262147:HHV262159 HHV327683:HHV327695 HHV393219:HHV393231 HHV458755:HHV458767 HHV524291:HHV524303 HHV589827:HHV589839 HHV655363:HHV655375 HHV720899:HHV720911 HHV786435:HHV786447 HHV851971:HHV851983 HHV917507:HHV917519 HHV983043:HHV983055 HRR65539:HRR65551 HRR131075:HRR131087 HRR196611:HRR196623 HRR262147:HRR262159 HRR327683:HRR327695 HRR393219:HRR393231 HRR458755:HRR458767 HRR524291:HRR524303 HRR589827:HRR589839 HRR655363:HRR655375 HRR720899:HRR720911 HRR786435:HRR786447 HRR851971:HRR851983 HRR917507:HRR917519 HRR983043:HRR983055 IBN65539:IBN65551 IBN131075:IBN131087 IBN196611:IBN196623 IBN262147:IBN262159 IBN327683:IBN327695 IBN393219:IBN393231 IBN458755:IBN458767 IBN524291:IBN524303 IBN589827:IBN589839 IBN655363:IBN655375 IBN720899:IBN720911 IBN786435:IBN786447 IBN851971:IBN851983 IBN917507:IBN917519 IBN983043:IBN983055 ILJ65539:ILJ65551 ILJ131075:ILJ131087 ILJ196611:ILJ196623 ILJ262147:ILJ262159 ILJ327683:ILJ327695 ILJ393219:ILJ393231 ILJ458755:ILJ458767 ILJ524291:ILJ524303 ILJ589827:ILJ589839 ILJ655363:ILJ655375 ILJ720899:ILJ720911 ILJ786435:ILJ786447 ILJ851971:ILJ851983 ILJ917507:ILJ917519 ILJ983043:ILJ983055 IVF65539:IVF65551 IVF131075:IVF131087 IVF196611:IVF196623 IVF262147:IVF262159 IVF327683:IVF327695 IVF393219:IVF393231 IVF458755:IVF458767 IVF524291:IVF524303 IVF589827:IVF589839 IVF655363:IVF655375 IVF720899:IVF720911 IVF786435:IVF786447 IVF851971:IVF851983 IVF917507:IVF917519 IVF983043:IVF983055 JFB65539:JFB65551 JFB131075:JFB131087 JFB196611:JFB196623 JFB262147:JFB262159 JFB327683:JFB327695 JFB393219:JFB393231 JFB458755:JFB458767 JFB524291:JFB524303 JFB589827:JFB589839 JFB655363:JFB655375 JFB720899:JFB720911 JFB786435:JFB786447 JFB851971:JFB851983 JFB917507:JFB917519 JFB983043:JFB983055 JOX65539:JOX65551 JOX131075:JOX131087 JOX196611:JOX196623 JOX262147:JOX262159 JOX327683:JOX327695 JOX393219:JOX393231 JOX458755:JOX458767 JOX524291:JOX524303 JOX589827:JOX589839 JOX655363:JOX655375 JOX720899:JOX720911 JOX786435:JOX786447 JOX851971:JOX851983 JOX917507:JOX917519 JOX983043:JOX983055 JYT65539:JYT65551 JYT131075:JYT131087 JYT196611:JYT196623 JYT262147:JYT262159 JYT327683:JYT327695 JYT393219:JYT393231 JYT458755:JYT458767 JYT524291:JYT524303 JYT589827:JYT589839 JYT655363:JYT655375 JYT720899:JYT720911 JYT786435:JYT786447 JYT851971:JYT851983 JYT917507:JYT917519 JYT983043:JYT983055 KIP65539:KIP65551 KIP131075:KIP131087 KIP196611:KIP196623 KIP262147:KIP262159 KIP327683:KIP327695 KIP393219:KIP393231 KIP458755:KIP458767 KIP524291:KIP524303 KIP589827:KIP589839 KIP655363:KIP655375 KIP720899:KIP720911 KIP786435:KIP786447 KIP851971:KIP851983 KIP917507:KIP917519 KIP983043:KIP983055 KSL65539:KSL65551 KSL131075:KSL131087 KSL196611:KSL196623 KSL262147:KSL262159 KSL327683:KSL327695 KSL393219:KSL393231 KSL458755:KSL458767 KSL524291:KSL524303 KSL589827:KSL589839 KSL655363:KSL655375 KSL720899:KSL720911 KSL786435:KSL786447 KSL851971:KSL851983 KSL917507:KSL917519 KSL983043:KSL983055 LCH65539:LCH65551 LCH131075:LCH131087 LCH196611:LCH196623 LCH262147:LCH262159 LCH327683:LCH327695 LCH393219:LCH393231 LCH458755:LCH458767 LCH524291:LCH524303 LCH589827:LCH589839 LCH655363:LCH655375 LCH720899:LCH720911 LCH786435:LCH786447 LCH851971:LCH851983 LCH917507:LCH917519 LCH983043:LCH983055 LMD65539:LMD65551 LMD131075:LMD131087 LMD196611:LMD196623 LMD262147:LMD262159 LMD327683:LMD327695 LMD393219:LMD393231 LMD458755:LMD458767 LMD524291:LMD524303 LMD589827:LMD589839 LMD655363:LMD655375 LMD720899:LMD720911 LMD786435:LMD786447 LMD851971:LMD851983 LMD917507:LMD917519 LMD983043:LMD983055 LVZ65539:LVZ65551 LVZ131075:LVZ131087 LVZ196611:LVZ196623 LVZ262147:LVZ262159 LVZ327683:LVZ327695 LVZ393219:LVZ393231 LVZ458755:LVZ458767 LVZ524291:LVZ524303 LVZ589827:LVZ589839 LVZ655363:LVZ655375 LVZ720899:LVZ720911 LVZ786435:LVZ786447 LVZ851971:LVZ851983 LVZ917507:LVZ917519 LVZ983043:LVZ983055 MFV65539:MFV65551 MFV131075:MFV131087 MFV196611:MFV196623 MFV262147:MFV262159 MFV327683:MFV327695 MFV393219:MFV393231 MFV458755:MFV458767 MFV524291:MFV524303 MFV589827:MFV589839 MFV655363:MFV655375 MFV720899:MFV720911 MFV786435:MFV786447 MFV851971:MFV851983 MFV917507:MFV917519 MFV983043:MFV983055 MPR65539:MPR65551 MPR131075:MPR131087 MPR196611:MPR196623 MPR262147:MPR262159 MPR327683:MPR327695 MPR393219:MPR393231 MPR458755:MPR458767 MPR524291:MPR524303 MPR589827:MPR589839 MPR655363:MPR655375 MPR720899:MPR720911 MPR786435:MPR786447 MPR851971:MPR851983 MPR917507:MPR917519 MPR983043:MPR983055 MZN65539:MZN65551 MZN131075:MZN131087 MZN196611:MZN196623 MZN262147:MZN262159 MZN327683:MZN327695 MZN393219:MZN393231 MZN458755:MZN458767 MZN524291:MZN524303 MZN589827:MZN589839 MZN655363:MZN655375 MZN720899:MZN720911 MZN786435:MZN786447 MZN851971:MZN851983 MZN917507:MZN917519 MZN983043:MZN983055 NJJ65539:NJJ65551 NJJ131075:NJJ131087 NJJ196611:NJJ196623 NJJ262147:NJJ262159 NJJ327683:NJJ327695 NJJ393219:NJJ393231 NJJ458755:NJJ458767 NJJ524291:NJJ524303 NJJ589827:NJJ589839 NJJ655363:NJJ655375 NJJ720899:NJJ720911 NJJ786435:NJJ786447 NJJ851971:NJJ851983 NJJ917507:NJJ917519 NJJ983043:NJJ983055 NTF65539:NTF65551 NTF131075:NTF131087 NTF196611:NTF196623 NTF262147:NTF262159 NTF327683:NTF327695 NTF393219:NTF393231 NTF458755:NTF458767 NTF524291:NTF524303 NTF589827:NTF589839 NTF655363:NTF655375 NTF720899:NTF720911 NTF786435:NTF786447 NTF851971:NTF851983 NTF917507:NTF917519 NTF983043:NTF983055 ODB65539:ODB65551 ODB131075:ODB131087 ODB196611:ODB196623 ODB262147:ODB262159 ODB327683:ODB327695 ODB393219:ODB393231 ODB458755:ODB458767 ODB524291:ODB524303 ODB589827:ODB589839 ODB655363:ODB655375 ODB720899:ODB720911 ODB786435:ODB786447 ODB851971:ODB851983 ODB917507:ODB917519 ODB983043:ODB983055 OMX65539:OMX65551 OMX131075:OMX131087 OMX196611:OMX196623 OMX262147:OMX262159 OMX327683:OMX327695 OMX393219:OMX393231 OMX458755:OMX458767 OMX524291:OMX524303 OMX589827:OMX589839 OMX655363:OMX655375 OMX720899:OMX720911 OMX786435:OMX786447 OMX851971:OMX851983 OMX917507:OMX917519 OMX983043:OMX983055 OWT65539:OWT65551 OWT131075:OWT131087 OWT196611:OWT196623 OWT262147:OWT262159 OWT327683:OWT327695 OWT393219:OWT393231 OWT458755:OWT458767 OWT524291:OWT524303 OWT589827:OWT589839 OWT655363:OWT655375 OWT720899:OWT720911 OWT786435:OWT786447 OWT851971:OWT851983 OWT917507:OWT917519 OWT983043:OWT983055 PGP65539:PGP65551 PGP131075:PGP131087 PGP196611:PGP196623 PGP262147:PGP262159 PGP327683:PGP327695 PGP393219:PGP393231 PGP458755:PGP458767 PGP524291:PGP524303 PGP589827:PGP589839 PGP655363:PGP655375 PGP720899:PGP720911 PGP786435:PGP786447 PGP851971:PGP851983 PGP917507:PGP917519 PGP983043:PGP983055 PQL65539:PQL65551 PQL131075:PQL131087 PQL196611:PQL196623 PQL262147:PQL262159 PQL327683:PQL327695 PQL393219:PQL393231 PQL458755:PQL458767 PQL524291:PQL524303 PQL589827:PQL589839 PQL655363:PQL655375 PQL720899:PQL720911 PQL786435:PQL786447 PQL851971:PQL851983 PQL917507:PQL917519 PQL983043:PQL983055 QAH65539:QAH65551 QAH131075:QAH131087 QAH196611:QAH196623 QAH262147:QAH262159 QAH327683:QAH327695 QAH393219:QAH393231 QAH458755:QAH458767 QAH524291:QAH524303 QAH589827:QAH589839 QAH655363:QAH655375 QAH720899:QAH720911 QAH786435:QAH786447 QAH851971:QAH851983 QAH917507:QAH917519 QAH983043:QAH983055 QKD65539:QKD65551 QKD131075:QKD131087 QKD196611:QKD196623 QKD262147:QKD262159 QKD327683:QKD327695 QKD393219:QKD393231 QKD458755:QKD458767 QKD524291:QKD524303 QKD589827:QKD589839 QKD655363:QKD655375 QKD720899:QKD720911 QKD786435:QKD786447 QKD851971:QKD851983 QKD917507:QKD917519 QKD983043:QKD983055 QTZ65539:QTZ65551 QTZ131075:QTZ131087 QTZ196611:QTZ196623 QTZ262147:QTZ262159 QTZ327683:QTZ327695 QTZ393219:QTZ393231 QTZ458755:QTZ458767 QTZ524291:QTZ524303 QTZ589827:QTZ589839 QTZ655363:QTZ655375 QTZ720899:QTZ720911 QTZ786435:QTZ786447 QTZ851971:QTZ851983 QTZ917507:QTZ917519 QTZ983043:QTZ983055 RDV65539:RDV65551 RDV131075:RDV131087 RDV196611:RDV196623 RDV262147:RDV262159 RDV327683:RDV327695 RDV393219:RDV393231 RDV458755:RDV458767 RDV524291:RDV524303 RDV589827:RDV589839 RDV655363:RDV655375 RDV720899:RDV720911 RDV786435:RDV786447 RDV851971:RDV851983 RDV917507:RDV917519 RDV983043:RDV983055 RNR65539:RNR65551 RNR131075:RNR131087 RNR196611:RNR196623 RNR262147:RNR262159 RNR327683:RNR327695 RNR393219:RNR393231 RNR458755:RNR458767 RNR524291:RNR524303 RNR589827:RNR589839 RNR655363:RNR655375 RNR720899:RNR720911 RNR786435:RNR786447 RNR851971:RNR851983 RNR917507:RNR917519 RNR983043:RNR983055 RXN65539:RXN65551 RXN131075:RXN131087 RXN196611:RXN196623 RXN262147:RXN262159 RXN327683:RXN327695 RXN393219:RXN393231 RXN458755:RXN458767 RXN524291:RXN524303 RXN589827:RXN589839 RXN655363:RXN655375 RXN720899:RXN720911 RXN786435:RXN786447 RXN851971:RXN851983 RXN917507:RXN917519 RXN983043:RXN983055 SHJ65539:SHJ65551 SHJ131075:SHJ131087 SHJ196611:SHJ196623 SHJ262147:SHJ262159 SHJ327683:SHJ327695 SHJ393219:SHJ393231 SHJ458755:SHJ458767 SHJ524291:SHJ524303 SHJ589827:SHJ589839 SHJ655363:SHJ655375 SHJ720899:SHJ720911 SHJ786435:SHJ786447 SHJ851971:SHJ851983 SHJ917507:SHJ917519 SHJ983043:SHJ983055 SRF65539:SRF65551 SRF131075:SRF131087 SRF196611:SRF196623 SRF262147:SRF262159 SRF327683:SRF327695 SRF393219:SRF393231 SRF458755:SRF458767 SRF524291:SRF524303 SRF589827:SRF589839 SRF655363:SRF655375 SRF720899:SRF720911 SRF786435:SRF786447 SRF851971:SRF851983 SRF917507:SRF917519 SRF983043:SRF983055 TBB65539:TBB65551 TBB131075:TBB131087 TBB196611:TBB196623 TBB262147:TBB262159 TBB327683:TBB327695 TBB393219:TBB393231 TBB458755:TBB458767 TBB524291:TBB524303 TBB589827:TBB589839 TBB655363:TBB655375 TBB720899:TBB720911 TBB786435:TBB786447 TBB851971:TBB851983 TBB917507:TBB917519 TBB983043:TBB983055 TKX65539:TKX65551 TKX131075:TKX131087 TKX196611:TKX196623 TKX262147:TKX262159 TKX327683:TKX327695 TKX393219:TKX393231 TKX458755:TKX458767 TKX524291:TKX524303 TKX589827:TKX589839 TKX655363:TKX655375 TKX720899:TKX720911 TKX786435:TKX786447 TKX851971:TKX851983 TKX917507:TKX917519 TKX983043:TKX983055 TUT65539:TUT65551 TUT131075:TUT131087 TUT196611:TUT196623 TUT262147:TUT262159 TUT327683:TUT327695 TUT393219:TUT393231 TUT458755:TUT458767 TUT524291:TUT524303 TUT589827:TUT589839 TUT655363:TUT655375 TUT720899:TUT720911 TUT786435:TUT786447 TUT851971:TUT851983 TUT917507:TUT917519 TUT983043:TUT983055 UEP65539:UEP65551 UEP131075:UEP131087 UEP196611:UEP196623 UEP262147:UEP262159 UEP327683:UEP327695 UEP393219:UEP393231 UEP458755:UEP458767 UEP524291:UEP524303 UEP589827:UEP589839 UEP655363:UEP655375 UEP720899:UEP720911 UEP786435:UEP786447 UEP851971:UEP851983 UEP917507:UEP917519 UEP983043:UEP983055 UOL65539:UOL65551 UOL131075:UOL131087 UOL196611:UOL196623 UOL262147:UOL262159 UOL327683:UOL327695 UOL393219:UOL393231 UOL458755:UOL458767 UOL524291:UOL524303 UOL589827:UOL589839 UOL655363:UOL655375 UOL720899:UOL720911 UOL786435:UOL786447 UOL851971:UOL851983 UOL917507:UOL917519 UOL983043:UOL983055 UYH65539:UYH65551 UYH131075:UYH131087 UYH196611:UYH196623 UYH262147:UYH262159 UYH327683:UYH327695 UYH393219:UYH393231 UYH458755:UYH458767 UYH524291:UYH524303 UYH589827:UYH589839 UYH655363:UYH655375 UYH720899:UYH720911 UYH786435:UYH786447 UYH851971:UYH851983 UYH917507:UYH917519 UYH983043:UYH983055 VID65539:VID65551 VID131075:VID131087 VID196611:VID196623 VID262147:VID262159 VID327683:VID327695 VID393219:VID393231 VID458755:VID458767 VID524291:VID524303 VID589827:VID589839 VID655363:VID655375 VID720899:VID720911 VID786435:VID786447 VID851971:VID851983 VID917507:VID917519 VID983043:VID983055 VRZ65539:VRZ65551 VRZ131075:VRZ131087 VRZ196611:VRZ196623 VRZ262147:VRZ262159 VRZ327683:VRZ327695 VRZ393219:VRZ393231 VRZ458755:VRZ458767 VRZ524291:VRZ524303 VRZ589827:VRZ589839 VRZ655363:VRZ655375 VRZ720899:VRZ720911 VRZ786435:VRZ786447 VRZ851971:VRZ851983 VRZ917507:VRZ917519 VRZ983043:VRZ983055 WBV65539:WBV65551 WBV131075:WBV131087 WBV196611:WBV196623 WBV262147:WBV262159 WBV327683:WBV327695 WBV393219:WBV393231 WBV458755:WBV458767 WBV524291:WBV524303 WBV589827:WBV589839 WBV655363:WBV655375 WBV720899:WBV720911 WBV786435:WBV786447 WBV851971:WBV851983 WBV917507:WBV917519 WBV983043:WBV983055 WLR65539:WLR65551 WLR131075:WLR131087 WLR196611:WLR196623 WLR262147:WLR262159 WLR327683:WLR327695 WLR393219:WLR393231 WLR458755:WLR458767 WLR524291:WLR524303 WLR589827:WLR589839 WLR655363:WLR655375 WLR720899:WLR720911 WLR786435:WLR786447 WLR851971:WLR851983 WLR917507:WLR917519 WLR983043:WLR983055 WVN983043:WVN983055 WVN65539:WVN65551 WVN131075:WVN131087 WVN196611:WVN196623 WVN262147:WVN262159 WVN327683:WVN327695 WVN393219:WVN393231 WVN458755:WVN458767 WVN524291:WVN524303 WVN589827:WVN589839 WVN655363:WVN655375 WVN720899:WVN720911 WVN786435:WVN786447 WVN851971:WVN851983 WVN917507:WVN917519 F4:F15 JB4:JB15 SX4:SX15 ACT4:ACT15 AMP4:AMP15 AWL4:AWL15 BGH4:BGH15 BQD4:BQD15 BZZ4:BZZ15 CJV4:CJV15 CTR4:CTR15 DDN4:DDN15 DNJ4:DNJ15 DXF4:DXF15 EHB4:EHB15 EQX4:EQX15 FAT4:FAT15 FKP4:FKP15 FUL4:FUL15 GEH4:GEH15 GOD4:GOD15 GXZ4:GXZ15 HHV4:HHV15 HRR4:HRR15 IBN4:IBN15 ILJ4:ILJ15 IVF4:IVF15 JFB4:JFB15 JOX4:JOX15 JYT4:JYT15 KIP4:KIP15 KSL4:KSL15 LCH4:LCH15 LMD4:LMD15 LVZ4:LVZ15 MFV4:MFV15 MPR4:MPR15 MZN4:MZN15 NJJ4:NJJ15 NTF4:NTF15 ODB4:ODB15 OMX4:OMX15 OWT4:OWT15 PGP4:PGP15 PQL4:PQL15 QAH4:QAH15 QKD4:QKD15 QTZ4:QTZ15 RDV4:RDV15 RNR4:RNR15 RXN4:RXN15 SHJ4:SHJ15 SRF4:SRF15 TBB4:TBB15 TKX4:TKX15 TUT4:TUT15 UEP4:UEP15 UOL4:UOL15 UYH4:UYH15 VID4:VID15 VRZ4:VRZ15 WBV4:WBV15 WLR4:WLR15 WVN4:WVN15">
       <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 WVQ4">
+      <formula1>"开发环境,测试环境,生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,15 @@
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
-    <sheet name="需要修改的配置文件" sheetId="3" r:id="rId3"/>
+    <sheet name="(公测)需要修改的配置文件" sheetId="4" r:id="rId3"/>
+    <sheet name="(生产)需要修改的配置文件" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="184">
   <si>
     <t>No</t>
   </si>
@@ -675,20 +676,245 @@
     <t>生产环境</t>
   </si>
   <si>
-    <t>拉卡拉配置文件.txt</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东App增加拉卡拉的接口配置</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
-    <t>接口访问</t>
-    <phoneticPr fontId="14" type="noConversion"/>
-  </si>
-  <si>
     <t>黄展明</t>
     <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉卡拉配置相关</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>钉钉的访问key配置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增短信通道，账号信息配置</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙周麟</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta/配置文件/systemconfig_JpushKey配置.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改租客app和房东app的级光推送标识</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>公测环境</t>
+  </si>
+  <si>
+    <t>公测环境</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>#API-jpush
+sysconfig.renter_masterSecret=f0df7913daddaae26ee9a489
+sysconfig.renter_appkey=6b331b104d0f47b7d6be8522
+sysconfig.partner_masterSecret=dc66b95f399cc455d93559fe
+sysconfig.partner_appkey=78434d02fd2f879a359f8331</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、partner、bs、bs-elastic、lts、mesg、partnerpc、renterpc、payapi</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>mesg</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#房东App正式环境配置增加
+sysconfig.LAKALA_MERNO=SL2015070100001
+sysconfig.LAKALA_URL=https://121.14.103.74:9001//gateway/apply.do
+sysconfig.LAKALA_URL_UPLOAD=http://121.14.103.74:9002//gateway/imgupload.do
+sysconfig.LAKALA_KEY=5502453538673A2399F9ADE1BA849558
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#DingTalk 公测环境
+sysconfig.dingtalk_corpid=BC349BE40FAB767D8C9FE9719BBCDE88EDC6846DE8753B9345AEF752AE154FE0
+sysconfig.dingtalk_corpsecret=FAB0874282D2E40AF9379A8ECA456F329046ACD3920FB4CDCF9CEF4476B3EE68B7541B0D5DEF4917D3C157508467E92D23A9AC6C7BC4B3551DA56C50CE62ACF04788530961C1743A441BD5B44098A04F
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#房东App正式环境配置增加
+sysconfig.LAKALA_MERNO=SL2015070100001
+sysconfig.LAKALA_URL=https://xd.lakala.com.cn:9001//CreditLoanGateWay/apply.do
+sysconfig.LAKALA_URL_UPLOAD=http://xd.lakala.com.cn:9002//CreditLoanGateWay/imgupload.do
+sysconfig.LAKALA_KEY=5502453538673A2399F9ADE1BA849558
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#DingTalk  正式环境
+sysconfig.dingtalk_corpid =838AA5611960DDC3AED16D6470A4B21BB321400DFF1FD3ED39377504D1D80206
+sysconfig.dingtalk_corpsecret =43CD8EBBF4F75696CB5F15E8CD51F105380ABD0DCB2E0B604AD495E0329E400CA8B3D1EE4B981255AFB829614032F214178474C80FD7C0251C15FD97FA6B071E4788530961C1743A441BD5B44098A04F
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#消息独立发送包增加配置
+sysconfig.haobo_req_url=http://101.227.68.49:7891/mt
+sysconfig.haobo_account=92CB3CF630074130D96D030606976467
+sysconfig.haobo_password=E77392F1B198C4D2E6E01BCF4A4AE930
+#生产环境
+#sysconfig.mesgEnvir=pro
+#公测环境
+sysconfig.mesgEnvir=pubtest
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">#环境变量设置
+sysconfig.environment=demo
+</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有的部署包的systemconfig文件</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Beta/配置文件/systemconfig_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>环境设置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.txt</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta/配置文件/systemconfig_昊博短信通道配置.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta/配置文件/systemconfig_BS系统钉钉配置文件.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Beta/配置文件/systemconfig_拉卡拉配置文件.txt</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>调整环境变量为d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>emo</t>
+    </r>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig_拉卡拉配置文件.txt</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig_BS系统钉钉配置文件.txt</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -982,7 +1208,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1148,6 +1374,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1160,14 +1410,50 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6558,10 +6844,1263 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" customWidth="1"/>
+    <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="7" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.25" style="80" customWidth="1"/>
+    <col min="5" max="5" width="46.75" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="62" customWidth="1"/>
+    <col min="8" max="8" width="25.75" style="78" customWidth="1"/>
+    <col min="9" max="9" width="13.625" customWidth="1"/>
+    <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="9" style="3" customWidth="1"/>
+    <col min="13" max="13" width="17.75" customWidth="1"/>
+    <col min="257" max="257" width="3.875" customWidth="1"/>
+    <col min="258" max="258" width="10.125" customWidth="1"/>
+    <col min="259" max="259" width="7" customWidth="1"/>
+    <col min="260" max="260" width="12.25" customWidth="1"/>
+    <col min="261" max="261" width="21" customWidth="1"/>
+    <col min="262" max="262" width="9.125" customWidth="1"/>
+    <col min="263" max="263" width="82.25" customWidth="1"/>
+    <col min="264" max="264" width="25.75" customWidth="1"/>
+    <col min="265" max="265" width="13.625" customWidth="1"/>
+    <col min="266" max="266" width="9.875" customWidth="1"/>
+    <col min="267" max="267" width="10.125" customWidth="1"/>
+    <col min="268" max="268" width="9" customWidth="1"/>
+    <col min="269" max="269" width="17.75" customWidth="1"/>
+    <col min="513" max="513" width="3.875" customWidth="1"/>
+    <col min="514" max="514" width="10.125" customWidth="1"/>
+    <col min="515" max="515" width="7" customWidth="1"/>
+    <col min="516" max="516" width="12.25" customWidth="1"/>
+    <col min="517" max="517" width="21" customWidth="1"/>
+    <col min="518" max="518" width="9.125" customWidth="1"/>
+    <col min="519" max="519" width="82.25" customWidth="1"/>
+    <col min="520" max="520" width="25.75" customWidth="1"/>
+    <col min="521" max="521" width="13.625" customWidth="1"/>
+    <col min="522" max="522" width="9.875" customWidth="1"/>
+    <col min="523" max="523" width="10.125" customWidth="1"/>
+    <col min="524" max="524" width="9" customWidth="1"/>
+    <col min="525" max="525" width="17.75" customWidth="1"/>
+    <col min="769" max="769" width="3.875" customWidth="1"/>
+    <col min="770" max="770" width="10.125" customWidth="1"/>
+    <col min="771" max="771" width="7" customWidth="1"/>
+    <col min="772" max="772" width="12.25" customWidth="1"/>
+    <col min="773" max="773" width="21" customWidth="1"/>
+    <col min="774" max="774" width="9.125" customWidth="1"/>
+    <col min="775" max="775" width="82.25" customWidth="1"/>
+    <col min="776" max="776" width="25.75" customWidth="1"/>
+    <col min="777" max="777" width="13.625" customWidth="1"/>
+    <col min="778" max="778" width="9.875" customWidth="1"/>
+    <col min="779" max="779" width="10.125" customWidth="1"/>
+    <col min="780" max="780" width="9" customWidth="1"/>
+    <col min="781" max="781" width="17.75" customWidth="1"/>
+    <col min="1025" max="1025" width="3.875" customWidth="1"/>
+    <col min="1026" max="1026" width="10.125" customWidth="1"/>
+    <col min="1027" max="1027" width="7" customWidth="1"/>
+    <col min="1028" max="1028" width="12.25" customWidth="1"/>
+    <col min="1029" max="1029" width="21" customWidth="1"/>
+    <col min="1030" max="1030" width="9.125" customWidth="1"/>
+    <col min="1031" max="1031" width="82.25" customWidth="1"/>
+    <col min="1032" max="1032" width="25.75" customWidth="1"/>
+    <col min="1033" max="1033" width="13.625" customWidth="1"/>
+    <col min="1034" max="1034" width="9.875" customWidth="1"/>
+    <col min="1035" max="1035" width="10.125" customWidth="1"/>
+    <col min="1036" max="1036" width="9" customWidth="1"/>
+    <col min="1037" max="1037" width="17.75" customWidth="1"/>
+    <col min="1281" max="1281" width="3.875" customWidth="1"/>
+    <col min="1282" max="1282" width="10.125" customWidth="1"/>
+    <col min="1283" max="1283" width="7" customWidth="1"/>
+    <col min="1284" max="1284" width="12.25" customWidth="1"/>
+    <col min="1285" max="1285" width="21" customWidth="1"/>
+    <col min="1286" max="1286" width="9.125" customWidth="1"/>
+    <col min="1287" max="1287" width="82.25" customWidth="1"/>
+    <col min="1288" max="1288" width="25.75" customWidth="1"/>
+    <col min="1289" max="1289" width="13.625" customWidth="1"/>
+    <col min="1290" max="1290" width="9.875" customWidth="1"/>
+    <col min="1291" max="1291" width="10.125" customWidth="1"/>
+    <col min="1292" max="1292" width="9" customWidth="1"/>
+    <col min="1293" max="1293" width="17.75" customWidth="1"/>
+    <col min="1537" max="1537" width="3.875" customWidth="1"/>
+    <col min="1538" max="1538" width="10.125" customWidth="1"/>
+    <col min="1539" max="1539" width="7" customWidth="1"/>
+    <col min="1540" max="1540" width="12.25" customWidth="1"/>
+    <col min="1541" max="1541" width="21" customWidth="1"/>
+    <col min="1542" max="1542" width="9.125" customWidth="1"/>
+    <col min="1543" max="1543" width="82.25" customWidth="1"/>
+    <col min="1544" max="1544" width="25.75" customWidth="1"/>
+    <col min="1545" max="1545" width="13.625" customWidth="1"/>
+    <col min="1546" max="1546" width="9.875" customWidth="1"/>
+    <col min="1547" max="1547" width="10.125" customWidth="1"/>
+    <col min="1548" max="1548" width="9" customWidth="1"/>
+    <col min="1549" max="1549" width="17.75" customWidth="1"/>
+    <col min="1793" max="1793" width="3.875" customWidth="1"/>
+    <col min="1794" max="1794" width="10.125" customWidth="1"/>
+    <col min="1795" max="1795" width="7" customWidth="1"/>
+    <col min="1796" max="1796" width="12.25" customWidth="1"/>
+    <col min="1797" max="1797" width="21" customWidth="1"/>
+    <col min="1798" max="1798" width="9.125" customWidth="1"/>
+    <col min="1799" max="1799" width="82.25" customWidth="1"/>
+    <col min="1800" max="1800" width="25.75" customWidth="1"/>
+    <col min="1801" max="1801" width="13.625" customWidth="1"/>
+    <col min="1802" max="1802" width="9.875" customWidth="1"/>
+    <col min="1803" max="1803" width="10.125" customWidth="1"/>
+    <col min="1804" max="1804" width="9" customWidth="1"/>
+    <col min="1805" max="1805" width="17.75" customWidth="1"/>
+    <col min="2049" max="2049" width="3.875" customWidth="1"/>
+    <col min="2050" max="2050" width="10.125" customWidth="1"/>
+    <col min="2051" max="2051" width="7" customWidth="1"/>
+    <col min="2052" max="2052" width="12.25" customWidth="1"/>
+    <col min="2053" max="2053" width="21" customWidth="1"/>
+    <col min="2054" max="2054" width="9.125" customWidth="1"/>
+    <col min="2055" max="2055" width="82.25" customWidth="1"/>
+    <col min="2056" max="2056" width="25.75" customWidth="1"/>
+    <col min="2057" max="2057" width="13.625" customWidth="1"/>
+    <col min="2058" max="2058" width="9.875" customWidth="1"/>
+    <col min="2059" max="2059" width="10.125" customWidth="1"/>
+    <col min="2060" max="2060" width="9" customWidth="1"/>
+    <col min="2061" max="2061" width="17.75" customWidth="1"/>
+    <col min="2305" max="2305" width="3.875" customWidth="1"/>
+    <col min="2306" max="2306" width="10.125" customWidth="1"/>
+    <col min="2307" max="2307" width="7" customWidth="1"/>
+    <col min="2308" max="2308" width="12.25" customWidth="1"/>
+    <col min="2309" max="2309" width="21" customWidth="1"/>
+    <col min="2310" max="2310" width="9.125" customWidth="1"/>
+    <col min="2311" max="2311" width="82.25" customWidth="1"/>
+    <col min="2312" max="2312" width="25.75" customWidth="1"/>
+    <col min="2313" max="2313" width="13.625" customWidth="1"/>
+    <col min="2314" max="2314" width="9.875" customWidth="1"/>
+    <col min="2315" max="2315" width="10.125" customWidth="1"/>
+    <col min="2316" max="2316" width="9" customWidth="1"/>
+    <col min="2317" max="2317" width="17.75" customWidth="1"/>
+    <col min="2561" max="2561" width="3.875" customWidth="1"/>
+    <col min="2562" max="2562" width="10.125" customWidth="1"/>
+    <col min="2563" max="2563" width="7" customWidth="1"/>
+    <col min="2564" max="2564" width="12.25" customWidth="1"/>
+    <col min="2565" max="2565" width="21" customWidth="1"/>
+    <col min="2566" max="2566" width="9.125" customWidth="1"/>
+    <col min="2567" max="2567" width="82.25" customWidth="1"/>
+    <col min="2568" max="2568" width="25.75" customWidth="1"/>
+    <col min="2569" max="2569" width="13.625" customWidth="1"/>
+    <col min="2570" max="2570" width="9.875" customWidth="1"/>
+    <col min="2571" max="2571" width="10.125" customWidth="1"/>
+    <col min="2572" max="2572" width="9" customWidth="1"/>
+    <col min="2573" max="2573" width="17.75" customWidth="1"/>
+    <col min="2817" max="2817" width="3.875" customWidth="1"/>
+    <col min="2818" max="2818" width="10.125" customWidth="1"/>
+    <col min="2819" max="2819" width="7" customWidth="1"/>
+    <col min="2820" max="2820" width="12.25" customWidth="1"/>
+    <col min="2821" max="2821" width="21" customWidth="1"/>
+    <col min="2822" max="2822" width="9.125" customWidth="1"/>
+    <col min="2823" max="2823" width="82.25" customWidth="1"/>
+    <col min="2824" max="2824" width="25.75" customWidth="1"/>
+    <col min="2825" max="2825" width="13.625" customWidth="1"/>
+    <col min="2826" max="2826" width="9.875" customWidth="1"/>
+    <col min="2827" max="2827" width="10.125" customWidth="1"/>
+    <col min="2828" max="2828" width="9" customWidth="1"/>
+    <col min="2829" max="2829" width="17.75" customWidth="1"/>
+    <col min="3073" max="3073" width="3.875" customWidth="1"/>
+    <col min="3074" max="3074" width="10.125" customWidth="1"/>
+    <col min="3075" max="3075" width="7" customWidth="1"/>
+    <col min="3076" max="3076" width="12.25" customWidth="1"/>
+    <col min="3077" max="3077" width="21" customWidth="1"/>
+    <col min="3078" max="3078" width="9.125" customWidth="1"/>
+    <col min="3079" max="3079" width="82.25" customWidth="1"/>
+    <col min="3080" max="3080" width="25.75" customWidth="1"/>
+    <col min="3081" max="3081" width="13.625" customWidth="1"/>
+    <col min="3082" max="3082" width="9.875" customWidth="1"/>
+    <col min="3083" max="3083" width="10.125" customWidth="1"/>
+    <col min="3084" max="3084" width="9" customWidth="1"/>
+    <col min="3085" max="3085" width="17.75" customWidth="1"/>
+    <col min="3329" max="3329" width="3.875" customWidth="1"/>
+    <col min="3330" max="3330" width="10.125" customWidth="1"/>
+    <col min="3331" max="3331" width="7" customWidth="1"/>
+    <col min="3332" max="3332" width="12.25" customWidth="1"/>
+    <col min="3333" max="3333" width="21" customWidth="1"/>
+    <col min="3334" max="3334" width="9.125" customWidth="1"/>
+    <col min="3335" max="3335" width="82.25" customWidth="1"/>
+    <col min="3336" max="3336" width="25.75" customWidth="1"/>
+    <col min="3337" max="3337" width="13.625" customWidth="1"/>
+    <col min="3338" max="3338" width="9.875" customWidth="1"/>
+    <col min="3339" max="3339" width="10.125" customWidth="1"/>
+    <col min="3340" max="3340" width="9" customWidth="1"/>
+    <col min="3341" max="3341" width="17.75" customWidth="1"/>
+    <col min="3585" max="3585" width="3.875" customWidth="1"/>
+    <col min="3586" max="3586" width="10.125" customWidth="1"/>
+    <col min="3587" max="3587" width="7" customWidth="1"/>
+    <col min="3588" max="3588" width="12.25" customWidth="1"/>
+    <col min="3589" max="3589" width="21" customWidth="1"/>
+    <col min="3590" max="3590" width="9.125" customWidth="1"/>
+    <col min="3591" max="3591" width="82.25" customWidth="1"/>
+    <col min="3592" max="3592" width="25.75" customWidth="1"/>
+    <col min="3593" max="3593" width="13.625" customWidth="1"/>
+    <col min="3594" max="3594" width="9.875" customWidth="1"/>
+    <col min="3595" max="3595" width="10.125" customWidth="1"/>
+    <col min="3596" max="3596" width="9" customWidth="1"/>
+    <col min="3597" max="3597" width="17.75" customWidth="1"/>
+    <col min="3841" max="3841" width="3.875" customWidth="1"/>
+    <col min="3842" max="3842" width="10.125" customWidth="1"/>
+    <col min="3843" max="3843" width="7" customWidth="1"/>
+    <col min="3844" max="3844" width="12.25" customWidth="1"/>
+    <col min="3845" max="3845" width="21" customWidth="1"/>
+    <col min="3846" max="3846" width="9.125" customWidth="1"/>
+    <col min="3847" max="3847" width="82.25" customWidth="1"/>
+    <col min="3848" max="3848" width="25.75" customWidth="1"/>
+    <col min="3849" max="3849" width="13.625" customWidth="1"/>
+    <col min="3850" max="3850" width="9.875" customWidth="1"/>
+    <col min="3851" max="3851" width="10.125" customWidth="1"/>
+    <col min="3852" max="3852" width="9" customWidth="1"/>
+    <col min="3853" max="3853" width="17.75" customWidth="1"/>
+    <col min="4097" max="4097" width="3.875" customWidth="1"/>
+    <col min="4098" max="4098" width="10.125" customWidth="1"/>
+    <col min="4099" max="4099" width="7" customWidth="1"/>
+    <col min="4100" max="4100" width="12.25" customWidth="1"/>
+    <col min="4101" max="4101" width="21" customWidth="1"/>
+    <col min="4102" max="4102" width="9.125" customWidth="1"/>
+    <col min="4103" max="4103" width="82.25" customWidth="1"/>
+    <col min="4104" max="4104" width="25.75" customWidth="1"/>
+    <col min="4105" max="4105" width="13.625" customWidth="1"/>
+    <col min="4106" max="4106" width="9.875" customWidth="1"/>
+    <col min="4107" max="4107" width="10.125" customWidth="1"/>
+    <col min="4108" max="4108" width="9" customWidth="1"/>
+    <col min="4109" max="4109" width="17.75" customWidth="1"/>
+    <col min="4353" max="4353" width="3.875" customWidth="1"/>
+    <col min="4354" max="4354" width="10.125" customWidth="1"/>
+    <col min="4355" max="4355" width="7" customWidth="1"/>
+    <col min="4356" max="4356" width="12.25" customWidth="1"/>
+    <col min="4357" max="4357" width="21" customWidth="1"/>
+    <col min="4358" max="4358" width="9.125" customWidth="1"/>
+    <col min="4359" max="4359" width="82.25" customWidth="1"/>
+    <col min="4360" max="4360" width="25.75" customWidth="1"/>
+    <col min="4361" max="4361" width="13.625" customWidth="1"/>
+    <col min="4362" max="4362" width="9.875" customWidth="1"/>
+    <col min="4363" max="4363" width="10.125" customWidth="1"/>
+    <col min="4364" max="4364" width="9" customWidth="1"/>
+    <col min="4365" max="4365" width="17.75" customWidth="1"/>
+    <col min="4609" max="4609" width="3.875" customWidth="1"/>
+    <col min="4610" max="4610" width="10.125" customWidth="1"/>
+    <col min="4611" max="4611" width="7" customWidth="1"/>
+    <col min="4612" max="4612" width="12.25" customWidth="1"/>
+    <col min="4613" max="4613" width="21" customWidth="1"/>
+    <col min="4614" max="4614" width="9.125" customWidth="1"/>
+    <col min="4615" max="4615" width="82.25" customWidth="1"/>
+    <col min="4616" max="4616" width="25.75" customWidth="1"/>
+    <col min="4617" max="4617" width="13.625" customWidth="1"/>
+    <col min="4618" max="4618" width="9.875" customWidth="1"/>
+    <col min="4619" max="4619" width="10.125" customWidth="1"/>
+    <col min="4620" max="4620" width="9" customWidth="1"/>
+    <col min="4621" max="4621" width="17.75" customWidth="1"/>
+    <col min="4865" max="4865" width="3.875" customWidth="1"/>
+    <col min="4866" max="4866" width="10.125" customWidth="1"/>
+    <col min="4867" max="4867" width="7" customWidth="1"/>
+    <col min="4868" max="4868" width="12.25" customWidth="1"/>
+    <col min="4869" max="4869" width="21" customWidth="1"/>
+    <col min="4870" max="4870" width="9.125" customWidth="1"/>
+    <col min="4871" max="4871" width="82.25" customWidth="1"/>
+    <col min="4872" max="4872" width="25.75" customWidth="1"/>
+    <col min="4873" max="4873" width="13.625" customWidth="1"/>
+    <col min="4874" max="4874" width="9.875" customWidth="1"/>
+    <col min="4875" max="4875" width="10.125" customWidth="1"/>
+    <col min="4876" max="4876" width="9" customWidth="1"/>
+    <col min="4877" max="4877" width="17.75" customWidth="1"/>
+    <col min="5121" max="5121" width="3.875" customWidth="1"/>
+    <col min="5122" max="5122" width="10.125" customWidth="1"/>
+    <col min="5123" max="5123" width="7" customWidth="1"/>
+    <col min="5124" max="5124" width="12.25" customWidth="1"/>
+    <col min="5125" max="5125" width="21" customWidth="1"/>
+    <col min="5126" max="5126" width="9.125" customWidth="1"/>
+    <col min="5127" max="5127" width="82.25" customWidth="1"/>
+    <col min="5128" max="5128" width="25.75" customWidth="1"/>
+    <col min="5129" max="5129" width="13.625" customWidth="1"/>
+    <col min="5130" max="5130" width="9.875" customWidth="1"/>
+    <col min="5131" max="5131" width="10.125" customWidth="1"/>
+    <col min="5132" max="5132" width="9" customWidth="1"/>
+    <col min="5133" max="5133" width="17.75" customWidth="1"/>
+    <col min="5377" max="5377" width="3.875" customWidth="1"/>
+    <col min="5378" max="5378" width="10.125" customWidth="1"/>
+    <col min="5379" max="5379" width="7" customWidth="1"/>
+    <col min="5380" max="5380" width="12.25" customWidth="1"/>
+    <col min="5381" max="5381" width="21" customWidth="1"/>
+    <col min="5382" max="5382" width="9.125" customWidth="1"/>
+    <col min="5383" max="5383" width="82.25" customWidth="1"/>
+    <col min="5384" max="5384" width="25.75" customWidth="1"/>
+    <col min="5385" max="5385" width="13.625" customWidth="1"/>
+    <col min="5386" max="5386" width="9.875" customWidth="1"/>
+    <col min="5387" max="5387" width="10.125" customWidth="1"/>
+    <col min="5388" max="5388" width="9" customWidth="1"/>
+    <col min="5389" max="5389" width="17.75" customWidth="1"/>
+    <col min="5633" max="5633" width="3.875" customWidth="1"/>
+    <col min="5634" max="5634" width="10.125" customWidth="1"/>
+    <col min="5635" max="5635" width="7" customWidth="1"/>
+    <col min="5636" max="5636" width="12.25" customWidth="1"/>
+    <col min="5637" max="5637" width="21" customWidth="1"/>
+    <col min="5638" max="5638" width="9.125" customWidth="1"/>
+    <col min="5639" max="5639" width="82.25" customWidth="1"/>
+    <col min="5640" max="5640" width="25.75" customWidth="1"/>
+    <col min="5641" max="5641" width="13.625" customWidth="1"/>
+    <col min="5642" max="5642" width="9.875" customWidth="1"/>
+    <col min="5643" max="5643" width="10.125" customWidth="1"/>
+    <col min="5644" max="5644" width="9" customWidth="1"/>
+    <col min="5645" max="5645" width="17.75" customWidth="1"/>
+    <col min="5889" max="5889" width="3.875" customWidth="1"/>
+    <col min="5890" max="5890" width="10.125" customWidth="1"/>
+    <col min="5891" max="5891" width="7" customWidth="1"/>
+    <col min="5892" max="5892" width="12.25" customWidth="1"/>
+    <col min="5893" max="5893" width="21" customWidth="1"/>
+    <col min="5894" max="5894" width="9.125" customWidth="1"/>
+    <col min="5895" max="5895" width="82.25" customWidth="1"/>
+    <col min="5896" max="5896" width="25.75" customWidth="1"/>
+    <col min="5897" max="5897" width="13.625" customWidth="1"/>
+    <col min="5898" max="5898" width="9.875" customWidth="1"/>
+    <col min="5899" max="5899" width="10.125" customWidth="1"/>
+    <col min="5900" max="5900" width="9" customWidth="1"/>
+    <col min="5901" max="5901" width="17.75" customWidth="1"/>
+    <col min="6145" max="6145" width="3.875" customWidth="1"/>
+    <col min="6146" max="6146" width="10.125" customWidth="1"/>
+    <col min="6147" max="6147" width="7" customWidth="1"/>
+    <col min="6148" max="6148" width="12.25" customWidth="1"/>
+    <col min="6149" max="6149" width="21" customWidth="1"/>
+    <col min="6150" max="6150" width="9.125" customWidth="1"/>
+    <col min="6151" max="6151" width="82.25" customWidth="1"/>
+    <col min="6152" max="6152" width="25.75" customWidth="1"/>
+    <col min="6153" max="6153" width="13.625" customWidth="1"/>
+    <col min="6154" max="6154" width="9.875" customWidth="1"/>
+    <col min="6155" max="6155" width="10.125" customWidth="1"/>
+    <col min="6156" max="6156" width="9" customWidth="1"/>
+    <col min="6157" max="6157" width="17.75" customWidth="1"/>
+    <col min="6401" max="6401" width="3.875" customWidth="1"/>
+    <col min="6402" max="6402" width="10.125" customWidth="1"/>
+    <col min="6403" max="6403" width="7" customWidth="1"/>
+    <col min="6404" max="6404" width="12.25" customWidth="1"/>
+    <col min="6405" max="6405" width="21" customWidth="1"/>
+    <col min="6406" max="6406" width="9.125" customWidth="1"/>
+    <col min="6407" max="6407" width="82.25" customWidth="1"/>
+    <col min="6408" max="6408" width="25.75" customWidth="1"/>
+    <col min="6409" max="6409" width="13.625" customWidth="1"/>
+    <col min="6410" max="6410" width="9.875" customWidth="1"/>
+    <col min="6411" max="6411" width="10.125" customWidth="1"/>
+    <col min="6412" max="6412" width="9" customWidth="1"/>
+    <col min="6413" max="6413" width="17.75" customWidth="1"/>
+    <col min="6657" max="6657" width="3.875" customWidth="1"/>
+    <col min="6658" max="6658" width="10.125" customWidth="1"/>
+    <col min="6659" max="6659" width="7" customWidth="1"/>
+    <col min="6660" max="6660" width="12.25" customWidth="1"/>
+    <col min="6661" max="6661" width="21" customWidth="1"/>
+    <col min="6662" max="6662" width="9.125" customWidth="1"/>
+    <col min="6663" max="6663" width="82.25" customWidth="1"/>
+    <col min="6664" max="6664" width="25.75" customWidth="1"/>
+    <col min="6665" max="6665" width="13.625" customWidth="1"/>
+    <col min="6666" max="6666" width="9.875" customWidth="1"/>
+    <col min="6667" max="6667" width="10.125" customWidth="1"/>
+    <col min="6668" max="6668" width="9" customWidth="1"/>
+    <col min="6669" max="6669" width="17.75" customWidth="1"/>
+    <col min="6913" max="6913" width="3.875" customWidth="1"/>
+    <col min="6914" max="6914" width="10.125" customWidth="1"/>
+    <col min="6915" max="6915" width="7" customWidth="1"/>
+    <col min="6916" max="6916" width="12.25" customWidth="1"/>
+    <col min="6917" max="6917" width="21" customWidth="1"/>
+    <col min="6918" max="6918" width="9.125" customWidth="1"/>
+    <col min="6919" max="6919" width="82.25" customWidth="1"/>
+    <col min="6920" max="6920" width="25.75" customWidth="1"/>
+    <col min="6921" max="6921" width="13.625" customWidth="1"/>
+    <col min="6922" max="6922" width="9.875" customWidth="1"/>
+    <col min="6923" max="6923" width="10.125" customWidth="1"/>
+    <col min="6924" max="6924" width="9" customWidth="1"/>
+    <col min="6925" max="6925" width="17.75" customWidth="1"/>
+    <col min="7169" max="7169" width="3.875" customWidth="1"/>
+    <col min="7170" max="7170" width="10.125" customWidth="1"/>
+    <col min="7171" max="7171" width="7" customWidth="1"/>
+    <col min="7172" max="7172" width="12.25" customWidth="1"/>
+    <col min="7173" max="7173" width="21" customWidth="1"/>
+    <col min="7174" max="7174" width="9.125" customWidth="1"/>
+    <col min="7175" max="7175" width="82.25" customWidth="1"/>
+    <col min="7176" max="7176" width="25.75" customWidth="1"/>
+    <col min="7177" max="7177" width="13.625" customWidth="1"/>
+    <col min="7178" max="7178" width="9.875" customWidth="1"/>
+    <col min="7179" max="7179" width="10.125" customWidth="1"/>
+    <col min="7180" max="7180" width="9" customWidth="1"/>
+    <col min="7181" max="7181" width="17.75" customWidth="1"/>
+    <col min="7425" max="7425" width="3.875" customWidth="1"/>
+    <col min="7426" max="7426" width="10.125" customWidth="1"/>
+    <col min="7427" max="7427" width="7" customWidth="1"/>
+    <col min="7428" max="7428" width="12.25" customWidth="1"/>
+    <col min="7429" max="7429" width="21" customWidth="1"/>
+    <col min="7430" max="7430" width="9.125" customWidth="1"/>
+    <col min="7431" max="7431" width="82.25" customWidth="1"/>
+    <col min="7432" max="7432" width="25.75" customWidth="1"/>
+    <col min="7433" max="7433" width="13.625" customWidth="1"/>
+    <col min="7434" max="7434" width="9.875" customWidth="1"/>
+    <col min="7435" max="7435" width="10.125" customWidth="1"/>
+    <col min="7436" max="7436" width="9" customWidth="1"/>
+    <col min="7437" max="7437" width="17.75" customWidth="1"/>
+    <col min="7681" max="7681" width="3.875" customWidth="1"/>
+    <col min="7682" max="7682" width="10.125" customWidth="1"/>
+    <col min="7683" max="7683" width="7" customWidth="1"/>
+    <col min="7684" max="7684" width="12.25" customWidth="1"/>
+    <col min="7685" max="7685" width="21" customWidth="1"/>
+    <col min="7686" max="7686" width="9.125" customWidth="1"/>
+    <col min="7687" max="7687" width="82.25" customWidth="1"/>
+    <col min="7688" max="7688" width="25.75" customWidth="1"/>
+    <col min="7689" max="7689" width="13.625" customWidth="1"/>
+    <col min="7690" max="7690" width="9.875" customWidth="1"/>
+    <col min="7691" max="7691" width="10.125" customWidth="1"/>
+    <col min="7692" max="7692" width="9" customWidth="1"/>
+    <col min="7693" max="7693" width="17.75" customWidth="1"/>
+    <col min="7937" max="7937" width="3.875" customWidth="1"/>
+    <col min="7938" max="7938" width="10.125" customWidth="1"/>
+    <col min="7939" max="7939" width="7" customWidth="1"/>
+    <col min="7940" max="7940" width="12.25" customWidth="1"/>
+    <col min="7941" max="7941" width="21" customWidth="1"/>
+    <col min="7942" max="7942" width="9.125" customWidth="1"/>
+    <col min="7943" max="7943" width="82.25" customWidth="1"/>
+    <col min="7944" max="7944" width="25.75" customWidth="1"/>
+    <col min="7945" max="7945" width="13.625" customWidth="1"/>
+    <col min="7946" max="7946" width="9.875" customWidth="1"/>
+    <col min="7947" max="7947" width="10.125" customWidth="1"/>
+    <col min="7948" max="7948" width="9" customWidth="1"/>
+    <col min="7949" max="7949" width="17.75" customWidth="1"/>
+    <col min="8193" max="8193" width="3.875" customWidth="1"/>
+    <col min="8194" max="8194" width="10.125" customWidth="1"/>
+    <col min="8195" max="8195" width="7" customWidth="1"/>
+    <col min="8196" max="8196" width="12.25" customWidth="1"/>
+    <col min="8197" max="8197" width="21" customWidth="1"/>
+    <col min="8198" max="8198" width="9.125" customWidth="1"/>
+    <col min="8199" max="8199" width="82.25" customWidth="1"/>
+    <col min="8200" max="8200" width="25.75" customWidth="1"/>
+    <col min="8201" max="8201" width="13.625" customWidth="1"/>
+    <col min="8202" max="8202" width="9.875" customWidth="1"/>
+    <col min="8203" max="8203" width="10.125" customWidth="1"/>
+    <col min="8204" max="8204" width="9" customWidth="1"/>
+    <col min="8205" max="8205" width="17.75" customWidth="1"/>
+    <col min="8449" max="8449" width="3.875" customWidth="1"/>
+    <col min="8450" max="8450" width="10.125" customWidth="1"/>
+    <col min="8451" max="8451" width="7" customWidth="1"/>
+    <col min="8452" max="8452" width="12.25" customWidth="1"/>
+    <col min="8453" max="8453" width="21" customWidth="1"/>
+    <col min="8454" max="8454" width="9.125" customWidth="1"/>
+    <col min="8455" max="8455" width="82.25" customWidth="1"/>
+    <col min="8456" max="8456" width="25.75" customWidth="1"/>
+    <col min="8457" max="8457" width="13.625" customWidth="1"/>
+    <col min="8458" max="8458" width="9.875" customWidth="1"/>
+    <col min="8459" max="8459" width="10.125" customWidth="1"/>
+    <col min="8460" max="8460" width="9" customWidth="1"/>
+    <col min="8461" max="8461" width="17.75" customWidth="1"/>
+    <col min="8705" max="8705" width="3.875" customWidth="1"/>
+    <col min="8706" max="8706" width="10.125" customWidth="1"/>
+    <col min="8707" max="8707" width="7" customWidth="1"/>
+    <col min="8708" max="8708" width="12.25" customWidth="1"/>
+    <col min="8709" max="8709" width="21" customWidth="1"/>
+    <col min="8710" max="8710" width="9.125" customWidth="1"/>
+    <col min="8711" max="8711" width="82.25" customWidth="1"/>
+    <col min="8712" max="8712" width="25.75" customWidth="1"/>
+    <col min="8713" max="8713" width="13.625" customWidth="1"/>
+    <col min="8714" max="8714" width="9.875" customWidth="1"/>
+    <col min="8715" max="8715" width="10.125" customWidth="1"/>
+    <col min="8716" max="8716" width="9" customWidth="1"/>
+    <col min="8717" max="8717" width="17.75" customWidth="1"/>
+    <col min="8961" max="8961" width="3.875" customWidth="1"/>
+    <col min="8962" max="8962" width="10.125" customWidth="1"/>
+    <col min="8963" max="8963" width="7" customWidth="1"/>
+    <col min="8964" max="8964" width="12.25" customWidth="1"/>
+    <col min="8965" max="8965" width="21" customWidth="1"/>
+    <col min="8966" max="8966" width="9.125" customWidth="1"/>
+    <col min="8967" max="8967" width="82.25" customWidth="1"/>
+    <col min="8968" max="8968" width="25.75" customWidth="1"/>
+    <col min="8969" max="8969" width="13.625" customWidth="1"/>
+    <col min="8970" max="8970" width="9.875" customWidth="1"/>
+    <col min="8971" max="8971" width="10.125" customWidth="1"/>
+    <col min="8972" max="8972" width="9" customWidth="1"/>
+    <col min="8973" max="8973" width="17.75" customWidth="1"/>
+    <col min="9217" max="9217" width="3.875" customWidth="1"/>
+    <col min="9218" max="9218" width="10.125" customWidth="1"/>
+    <col min="9219" max="9219" width="7" customWidth="1"/>
+    <col min="9220" max="9220" width="12.25" customWidth="1"/>
+    <col min="9221" max="9221" width="21" customWidth="1"/>
+    <col min="9222" max="9222" width="9.125" customWidth="1"/>
+    <col min="9223" max="9223" width="82.25" customWidth="1"/>
+    <col min="9224" max="9224" width="25.75" customWidth="1"/>
+    <col min="9225" max="9225" width="13.625" customWidth="1"/>
+    <col min="9226" max="9226" width="9.875" customWidth="1"/>
+    <col min="9227" max="9227" width="10.125" customWidth="1"/>
+    <col min="9228" max="9228" width="9" customWidth="1"/>
+    <col min="9229" max="9229" width="17.75" customWidth="1"/>
+    <col min="9473" max="9473" width="3.875" customWidth="1"/>
+    <col min="9474" max="9474" width="10.125" customWidth="1"/>
+    <col min="9475" max="9475" width="7" customWidth="1"/>
+    <col min="9476" max="9476" width="12.25" customWidth="1"/>
+    <col min="9477" max="9477" width="21" customWidth="1"/>
+    <col min="9478" max="9478" width="9.125" customWidth="1"/>
+    <col min="9479" max="9479" width="82.25" customWidth="1"/>
+    <col min="9480" max="9480" width="25.75" customWidth="1"/>
+    <col min="9481" max="9481" width="13.625" customWidth="1"/>
+    <col min="9482" max="9482" width="9.875" customWidth="1"/>
+    <col min="9483" max="9483" width="10.125" customWidth="1"/>
+    <col min="9484" max="9484" width="9" customWidth="1"/>
+    <col min="9485" max="9485" width="17.75" customWidth="1"/>
+    <col min="9729" max="9729" width="3.875" customWidth="1"/>
+    <col min="9730" max="9730" width="10.125" customWidth="1"/>
+    <col min="9731" max="9731" width="7" customWidth="1"/>
+    <col min="9732" max="9732" width="12.25" customWidth="1"/>
+    <col min="9733" max="9733" width="21" customWidth="1"/>
+    <col min="9734" max="9734" width="9.125" customWidth="1"/>
+    <col min="9735" max="9735" width="82.25" customWidth="1"/>
+    <col min="9736" max="9736" width="25.75" customWidth="1"/>
+    <col min="9737" max="9737" width="13.625" customWidth="1"/>
+    <col min="9738" max="9738" width="9.875" customWidth="1"/>
+    <col min="9739" max="9739" width="10.125" customWidth="1"/>
+    <col min="9740" max="9740" width="9" customWidth="1"/>
+    <col min="9741" max="9741" width="17.75" customWidth="1"/>
+    <col min="9985" max="9985" width="3.875" customWidth="1"/>
+    <col min="9986" max="9986" width="10.125" customWidth="1"/>
+    <col min="9987" max="9987" width="7" customWidth="1"/>
+    <col min="9988" max="9988" width="12.25" customWidth="1"/>
+    <col min="9989" max="9989" width="21" customWidth="1"/>
+    <col min="9990" max="9990" width="9.125" customWidth="1"/>
+    <col min="9991" max="9991" width="82.25" customWidth="1"/>
+    <col min="9992" max="9992" width="25.75" customWidth="1"/>
+    <col min="9993" max="9993" width="13.625" customWidth="1"/>
+    <col min="9994" max="9994" width="9.875" customWidth="1"/>
+    <col min="9995" max="9995" width="10.125" customWidth="1"/>
+    <col min="9996" max="9996" width="9" customWidth="1"/>
+    <col min="9997" max="9997" width="17.75" customWidth="1"/>
+    <col min="10241" max="10241" width="3.875" customWidth="1"/>
+    <col min="10242" max="10242" width="10.125" customWidth="1"/>
+    <col min="10243" max="10243" width="7" customWidth="1"/>
+    <col min="10244" max="10244" width="12.25" customWidth="1"/>
+    <col min="10245" max="10245" width="21" customWidth="1"/>
+    <col min="10246" max="10246" width="9.125" customWidth="1"/>
+    <col min="10247" max="10247" width="82.25" customWidth="1"/>
+    <col min="10248" max="10248" width="25.75" customWidth="1"/>
+    <col min="10249" max="10249" width="13.625" customWidth="1"/>
+    <col min="10250" max="10250" width="9.875" customWidth="1"/>
+    <col min="10251" max="10251" width="10.125" customWidth="1"/>
+    <col min="10252" max="10252" width="9" customWidth="1"/>
+    <col min="10253" max="10253" width="17.75" customWidth="1"/>
+    <col min="10497" max="10497" width="3.875" customWidth="1"/>
+    <col min="10498" max="10498" width="10.125" customWidth="1"/>
+    <col min="10499" max="10499" width="7" customWidth="1"/>
+    <col min="10500" max="10500" width="12.25" customWidth="1"/>
+    <col min="10501" max="10501" width="21" customWidth="1"/>
+    <col min="10502" max="10502" width="9.125" customWidth="1"/>
+    <col min="10503" max="10503" width="82.25" customWidth="1"/>
+    <col min="10504" max="10504" width="25.75" customWidth="1"/>
+    <col min="10505" max="10505" width="13.625" customWidth="1"/>
+    <col min="10506" max="10506" width="9.875" customWidth="1"/>
+    <col min="10507" max="10507" width="10.125" customWidth="1"/>
+    <col min="10508" max="10508" width="9" customWidth="1"/>
+    <col min="10509" max="10509" width="17.75" customWidth="1"/>
+    <col min="10753" max="10753" width="3.875" customWidth="1"/>
+    <col min="10754" max="10754" width="10.125" customWidth="1"/>
+    <col min="10755" max="10755" width="7" customWidth="1"/>
+    <col min="10756" max="10756" width="12.25" customWidth="1"/>
+    <col min="10757" max="10757" width="21" customWidth="1"/>
+    <col min="10758" max="10758" width="9.125" customWidth="1"/>
+    <col min="10759" max="10759" width="82.25" customWidth="1"/>
+    <col min="10760" max="10760" width="25.75" customWidth="1"/>
+    <col min="10761" max="10761" width="13.625" customWidth="1"/>
+    <col min="10762" max="10762" width="9.875" customWidth="1"/>
+    <col min="10763" max="10763" width="10.125" customWidth="1"/>
+    <col min="10764" max="10764" width="9" customWidth="1"/>
+    <col min="10765" max="10765" width="17.75" customWidth="1"/>
+    <col min="11009" max="11009" width="3.875" customWidth="1"/>
+    <col min="11010" max="11010" width="10.125" customWidth="1"/>
+    <col min="11011" max="11011" width="7" customWidth="1"/>
+    <col min="11012" max="11012" width="12.25" customWidth="1"/>
+    <col min="11013" max="11013" width="21" customWidth="1"/>
+    <col min="11014" max="11014" width="9.125" customWidth="1"/>
+    <col min="11015" max="11015" width="82.25" customWidth="1"/>
+    <col min="11016" max="11016" width="25.75" customWidth="1"/>
+    <col min="11017" max="11017" width="13.625" customWidth="1"/>
+    <col min="11018" max="11018" width="9.875" customWidth="1"/>
+    <col min="11019" max="11019" width="10.125" customWidth="1"/>
+    <col min="11020" max="11020" width="9" customWidth="1"/>
+    <col min="11021" max="11021" width="17.75" customWidth="1"/>
+    <col min="11265" max="11265" width="3.875" customWidth="1"/>
+    <col min="11266" max="11266" width="10.125" customWidth="1"/>
+    <col min="11267" max="11267" width="7" customWidth="1"/>
+    <col min="11268" max="11268" width="12.25" customWidth="1"/>
+    <col min="11269" max="11269" width="21" customWidth="1"/>
+    <col min="11270" max="11270" width="9.125" customWidth="1"/>
+    <col min="11271" max="11271" width="82.25" customWidth="1"/>
+    <col min="11272" max="11272" width="25.75" customWidth="1"/>
+    <col min="11273" max="11273" width="13.625" customWidth="1"/>
+    <col min="11274" max="11274" width="9.875" customWidth="1"/>
+    <col min="11275" max="11275" width="10.125" customWidth="1"/>
+    <col min="11276" max="11276" width="9" customWidth="1"/>
+    <col min="11277" max="11277" width="17.75" customWidth="1"/>
+    <col min="11521" max="11521" width="3.875" customWidth="1"/>
+    <col min="11522" max="11522" width="10.125" customWidth="1"/>
+    <col min="11523" max="11523" width="7" customWidth="1"/>
+    <col min="11524" max="11524" width="12.25" customWidth="1"/>
+    <col min="11525" max="11525" width="21" customWidth="1"/>
+    <col min="11526" max="11526" width="9.125" customWidth="1"/>
+    <col min="11527" max="11527" width="82.25" customWidth="1"/>
+    <col min="11528" max="11528" width="25.75" customWidth="1"/>
+    <col min="11529" max="11529" width="13.625" customWidth="1"/>
+    <col min="11530" max="11530" width="9.875" customWidth="1"/>
+    <col min="11531" max="11531" width="10.125" customWidth="1"/>
+    <col min="11532" max="11532" width="9" customWidth="1"/>
+    <col min="11533" max="11533" width="17.75" customWidth="1"/>
+    <col min="11777" max="11777" width="3.875" customWidth="1"/>
+    <col min="11778" max="11778" width="10.125" customWidth="1"/>
+    <col min="11779" max="11779" width="7" customWidth="1"/>
+    <col min="11780" max="11780" width="12.25" customWidth="1"/>
+    <col min="11781" max="11781" width="21" customWidth="1"/>
+    <col min="11782" max="11782" width="9.125" customWidth="1"/>
+    <col min="11783" max="11783" width="82.25" customWidth="1"/>
+    <col min="11784" max="11784" width="25.75" customWidth="1"/>
+    <col min="11785" max="11785" width="13.625" customWidth="1"/>
+    <col min="11786" max="11786" width="9.875" customWidth="1"/>
+    <col min="11787" max="11787" width="10.125" customWidth="1"/>
+    <col min="11788" max="11788" width="9" customWidth="1"/>
+    <col min="11789" max="11789" width="17.75" customWidth="1"/>
+    <col min="12033" max="12033" width="3.875" customWidth="1"/>
+    <col min="12034" max="12034" width="10.125" customWidth="1"/>
+    <col min="12035" max="12035" width="7" customWidth="1"/>
+    <col min="12036" max="12036" width="12.25" customWidth="1"/>
+    <col min="12037" max="12037" width="21" customWidth="1"/>
+    <col min="12038" max="12038" width="9.125" customWidth="1"/>
+    <col min="12039" max="12039" width="82.25" customWidth="1"/>
+    <col min="12040" max="12040" width="25.75" customWidth="1"/>
+    <col min="12041" max="12041" width="13.625" customWidth="1"/>
+    <col min="12042" max="12042" width="9.875" customWidth="1"/>
+    <col min="12043" max="12043" width="10.125" customWidth="1"/>
+    <col min="12044" max="12044" width="9" customWidth="1"/>
+    <col min="12045" max="12045" width="17.75" customWidth="1"/>
+    <col min="12289" max="12289" width="3.875" customWidth="1"/>
+    <col min="12290" max="12290" width="10.125" customWidth="1"/>
+    <col min="12291" max="12291" width="7" customWidth="1"/>
+    <col min="12292" max="12292" width="12.25" customWidth="1"/>
+    <col min="12293" max="12293" width="21" customWidth="1"/>
+    <col min="12294" max="12294" width="9.125" customWidth="1"/>
+    <col min="12295" max="12295" width="82.25" customWidth="1"/>
+    <col min="12296" max="12296" width="25.75" customWidth="1"/>
+    <col min="12297" max="12297" width="13.625" customWidth="1"/>
+    <col min="12298" max="12298" width="9.875" customWidth="1"/>
+    <col min="12299" max="12299" width="10.125" customWidth="1"/>
+    <col min="12300" max="12300" width="9" customWidth="1"/>
+    <col min="12301" max="12301" width="17.75" customWidth="1"/>
+    <col min="12545" max="12545" width="3.875" customWidth="1"/>
+    <col min="12546" max="12546" width="10.125" customWidth="1"/>
+    <col min="12547" max="12547" width="7" customWidth="1"/>
+    <col min="12548" max="12548" width="12.25" customWidth="1"/>
+    <col min="12549" max="12549" width="21" customWidth="1"/>
+    <col min="12550" max="12550" width="9.125" customWidth="1"/>
+    <col min="12551" max="12551" width="82.25" customWidth="1"/>
+    <col min="12552" max="12552" width="25.75" customWidth="1"/>
+    <col min="12553" max="12553" width="13.625" customWidth="1"/>
+    <col min="12554" max="12554" width="9.875" customWidth="1"/>
+    <col min="12555" max="12555" width="10.125" customWidth="1"/>
+    <col min="12556" max="12556" width="9" customWidth="1"/>
+    <col min="12557" max="12557" width="17.75" customWidth="1"/>
+    <col min="12801" max="12801" width="3.875" customWidth="1"/>
+    <col min="12802" max="12802" width="10.125" customWidth="1"/>
+    <col min="12803" max="12803" width="7" customWidth="1"/>
+    <col min="12804" max="12804" width="12.25" customWidth="1"/>
+    <col min="12805" max="12805" width="21" customWidth="1"/>
+    <col min="12806" max="12806" width="9.125" customWidth="1"/>
+    <col min="12807" max="12807" width="82.25" customWidth="1"/>
+    <col min="12808" max="12808" width="25.75" customWidth="1"/>
+    <col min="12809" max="12809" width="13.625" customWidth="1"/>
+    <col min="12810" max="12810" width="9.875" customWidth="1"/>
+    <col min="12811" max="12811" width="10.125" customWidth="1"/>
+    <col min="12812" max="12812" width="9" customWidth="1"/>
+    <col min="12813" max="12813" width="17.75" customWidth="1"/>
+    <col min="13057" max="13057" width="3.875" customWidth="1"/>
+    <col min="13058" max="13058" width="10.125" customWidth="1"/>
+    <col min="13059" max="13059" width="7" customWidth="1"/>
+    <col min="13060" max="13060" width="12.25" customWidth="1"/>
+    <col min="13061" max="13061" width="21" customWidth="1"/>
+    <col min="13062" max="13062" width="9.125" customWidth="1"/>
+    <col min="13063" max="13063" width="82.25" customWidth="1"/>
+    <col min="13064" max="13064" width="25.75" customWidth="1"/>
+    <col min="13065" max="13065" width="13.625" customWidth="1"/>
+    <col min="13066" max="13066" width="9.875" customWidth="1"/>
+    <col min="13067" max="13067" width="10.125" customWidth="1"/>
+    <col min="13068" max="13068" width="9" customWidth="1"/>
+    <col min="13069" max="13069" width="17.75" customWidth="1"/>
+    <col min="13313" max="13313" width="3.875" customWidth="1"/>
+    <col min="13314" max="13314" width="10.125" customWidth="1"/>
+    <col min="13315" max="13315" width="7" customWidth="1"/>
+    <col min="13316" max="13316" width="12.25" customWidth="1"/>
+    <col min="13317" max="13317" width="21" customWidth="1"/>
+    <col min="13318" max="13318" width="9.125" customWidth="1"/>
+    <col min="13319" max="13319" width="82.25" customWidth="1"/>
+    <col min="13320" max="13320" width="25.75" customWidth="1"/>
+    <col min="13321" max="13321" width="13.625" customWidth="1"/>
+    <col min="13322" max="13322" width="9.875" customWidth="1"/>
+    <col min="13323" max="13323" width="10.125" customWidth="1"/>
+    <col min="13324" max="13324" width="9" customWidth="1"/>
+    <col min="13325" max="13325" width="17.75" customWidth="1"/>
+    <col min="13569" max="13569" width="3.875" customWidth="1"/>
+    <col min="13570" max="13570" width="10.125" customWidth="1"/>
+    <col min="13571" max="13571" width="7" customWidth="1"/>
+    <col min="13572" max="13572" width="12.25" customWidth="1"/>
+    <col min="13573" max="13573" width="21" customWidth="1"/>
+    <col min="13574" max="13574" width="9.125" customWidth="1"/>
+    <col min="13575" max="13575" width="82.25" customWidth="1"/>
+    <col min="13576" max="13576" width="25.75" customWidth="1"/>
+    <col min="13577" max="13577" width="13.625" customWidth="1"/>
+    <col min="13578" max="13578" width="9.875" customWidth="1"/>
+    <col min="13579" max="13579" width="10.125" customWidth="1"/>
+    <col min="13580" max="13580" width="9" customWidth="1"/>
+    <col min="13581" max="13581" width="17.75" customWidth="1"/>
+    <col min="13825" max="13825" width="3.875" customWidth="1"/>
+    <col min="13826" max="13826" width="10.125" customWidth="1"/>
+    <col min="13827" max="13827" width="7" customWidth="1"/>
+    <col min="13828" max="13828" width="12.25" customWidth="1"/>
+    <col min="13829" max="13829" width="21" customWidth="1"/>
+    <col min="13830" max="13830" width="9.125" customWidth="1"/>
+    <col min="13831" max="13831" width="82.25" customWidth="1"/>
+    <col min="13832" max="13832" width="25.75" customWidth="1"/>
+    <col min="13833" max="13833" width="13.625" customWidth="1"/>
+    <col min="13834" max="13834" width="9.875" customWidth="1"/>
+    <col min="13835" max="13835" width="10.125" customWidth="1"/>
+    <col min="13836" max="13836" width="9" customWidth="1"/>
+    <col min="13837" max="13837" width="17.75" customWidth="1"/>
+    <col min="14081" max="14081" width="3.875" customWidth="1"/>
+    <col min="14082" max="14082" width="10.125" customWidth="1"/>
+    <col min="14083" max="14083" width="7" customWidth="1"/>
+    <col min="14084" max="14084" width="12.25" customWidth="1"/>
+    <col min="14085" max="14085" width="21" customWidth="1"/>
+    <col min="14086" max="14086" width="9.125" customWidth="1"/>
+    <col min="14087" max="14087" width="82.25" customWidth="1"/>
+    <col min="14088" max="14088" width="25.75" customWidth="1"/>
+    <col min="14089" max="14089" width="13.625" customWidth="1"/>
+    <col min="14090" max="14090" width="9.875" customWidth="1"/>
+    <col min="14091" max="14091" width="10.125" customWidth="1"/>
+    <col min="14092" max="14092" width="9" customWidth="1"/>
+    <col min="14093" max="14093" width="17.75" customWidth="1"/>
+    <col min="14337" max="14337" width="3.875" customWidth="1"/>
+    <col min="14338" max="14338" width="10.125" customWidth="1"/>
+    <col min="14339" max="14339" width="7" customWidth="1"/>
+    <col min="14340" max="14340" width="12.25" customWidth="1"/>
+    <col min="14341" max="14341" width="21" customWidth="1"/>
+    <col min="14342" max="14342" width="9.125" customWidth="1"/>
+    <col min="14343" max="14343" width="82.25" customWidth="1"/>
+    <col min="14344" max="14344" width="25.75" customWidth="1"/>
+    <col min="14345" max="14345" width="13.625" customWidth="1"/>
+    <col min="14346" max="14346" width="9.875" customWidth="1"/>
+    <col min="14347" max="14347" width="10.125" customWidth="1"/>
+    <col min="14348" max="14348" width="9" customWidth="1"/>
+    <col min="14349" max="14349" width="17.75" customWidth="1"/>
+    <col min="14593" max="14593" width="3.875" customWidth="1"/>
+    <col min="14594" max="14594" width="10.125" customWidth="1"/>
+    <col min="14595" max="14595" width="7" customWidth="1"/>
+    <col min="14596" max="14596" width="12.25" customWidth="1"/>
+    <col min="14597" max="14597" width="21" customWidth="1"/>
+    <col min="14598" max="14598" width="9.125" customWidth="1"/>
+    <col min="14599" max="14599" width="82.25" customWidth="1"/>
+    <col min="14600" max="14600" width="25.75" customWidth="1"/>
+    <col min="14601" max="14601" width="13.625" customWidth="1"/>
+    <col min="14602" max="14602" width="9.875" customWidth="1"/>
+    <col min="14603" max="14603" width="10.125" customWidth="1"/>
+    <col min="14604" max="14604" width="9" customWidth="1"/>
+    <col min="14605" max="14605" width="17.75" customWidth="1"/>
+    <col min="14849" max="14849" width="3.875" customWidth="1"/>
+    <col min="14850" max="14850" width="10.125" customWidth="1"/>
+    <col min="14851" max="14851" width="7" customWidth="1"/>
+    <col min="14852" max="14852" width="12.25" customWidth="1"/>
+    <col min="14853" max="14853" width="21" customWidth="1"/>
+    <col min="14854" max="14854" width="9.125" customWidth="1"/>
+    <col min="14855" max="14855" width="82.25" customWidth="1"/>
+    <col min="14856" max="14856" width="25.75" customWidth="1"/>
+    <col min="14857" max="14857" width="13.625" customWidth="1"/>
+    <col min="14858" max="14858" width="9.875" customWidth="1"/>
+    <col min="14859" max="14859" width="10.125" customWidth="1"/>
+    <col min="14860" max="14860" width="9" customWidth="1"/>
+    <col min="14861" max="14861" width="17.75" customWidth="1"/>
+    <col min="15105" max="15105" width="3.875" customWidth="1"/>
+    <col min="15106" max="15106" width="10.125" customWidth="1"/>
+    <col min="15107" max="15107" width="7" customWidth="1"/>
+    <col min="15108" max="15108" width="12.25" customWidth="1"/>
+    <col min="15109" max="15109" width="21" customWidth="1"/>
+    <col min="15110" max="15110" width="9.125" customWidth="1"/>
+    <col min="15111" max="15111" width="82.25" customWidth="1"/>
+    <col min="15112" max="15112" width="25.75" customWidth="1"/>
+    <col min="15113" max="15113" width="13.625" customWidth="1"/>
+    <col min="15114" max="15114" width="9.875" customWidth="1"/>
+    <col min="15115" max="15115" width="10.125" customWidth="1"/>
+    <col min="15116" max="15116" width="9" customWidth="1"/>
+    <col min="15117" max="15117" width="17.75" customWidth="1"/>
+    <col min="15361" max="15361" width="3.875" customWidth="1"/>
+    <col min="15362" max="15362" width="10.125" customWidth="1"/>
+    <col min="15363" max="15363" width="7" customWidth="1"/>
+    <col min="15364" max="15364" width="12.25" customWidth="1"/>
+    <col min="15365" max="15365" width="21" customWidth="1"/>
+    <col min="15366" max="15366" width="9.125" customWidth="1"/>
+    <col min="15367" max="15367" width="82.25" customWidth="1"/>
+    <col min="15368" max="15368" width="25.75" customWidth="1"/>
+    <col min="15369" max="15369" width="13.625" customWidth="1"/>
+    <col min="15370" max="15370" width="9.875" customWidth="1"/>
+    <col min="15371" max="15371" width="10.125" customWidth="1"/>
+    <col min="15372" max="15372" width="9" customWidth="1"/>
+    <col min="15373" max="15373" width="17.75" customWidth="1"/>
+    <col min="15617" max="15617" width="3.875" customWidth="1"/>
+    <col min="15618" max="15618" width="10.125" customWidth="1"/>
+    <col min="15619" max="15619" width="7" customWidth="1"/>
+    <col min="15620" max="15620" width="12.25" customWidth="1"/>
+    <col min="15621" max="15621" width="21" customWidth="1"/>
+    <col min="15622" max="15622" width="9.125" customWidth="1"/>
+    <col min="15623" max="15623" width="82.25" customWidth="1"/>
+    <col min="15624" max="15624" width="25.75" customWidth="1"/>
+    <col min="15625" max="15625" width="13.625" customWidth="1"/>
+    <col min="15626" max="15626" width="9.875" customWidth="1"/>
+    <col min="15627" max="15627" width="10.125" customWidth="1"/>
+    <col min="15628" max="15628" width="9" customWidth="1"/>
+    <col min="15629" max="15629" width="17.75" customWidth="1"/>
+    <col min="15873" max="15873" width="3.875" customWidth="1"/>
+    <col min="15874" max="15874" width="10.125" customWidth="1"/>
+    <col min="15875" max="15875" width="7" customWidth="1"/>
+    <col min="15876" max="15876" width="12.25" customWidth="1"/>
+    <col min="15877" max="15877" width="21" customWidth="1"/>
+    <col min="15878" max="15878" width="9.125" customWidth="1"/>
+    <col min="15879" max="15879" width="82.25" customWidth="1"/>
+    <col min="15880" max="15880" width="25.75" customWidth="1"/>
+    <col min="15881" max="15881" width="13.625" customWidth="1"/>
+    <col min="15882" max="15882" width="9.875" customWidth="1"/>
+    <col min="15883" max="15883" width="10.125" customWidth="1"/>
+    <col min="15884" max="15884" width="9" customWidth="1"/>
+    <col min="15885" max="15885" width="17.75" customWidth="1"/>
+    <col min="16129" max="16129" width="3.875" customWidth="1"/>
+    <col min="16130" max="16130" width="10.125" customWidth="1"/>
+    <col min="16131" max="16131" width="7" customWidth="1"/>
+    <col min="16132" max="16132" width="12.25" customWidth="1"/>
+    <col min="16133" max="16133" width="21" customWidth="1"/>
+    <col min="16134" max="16134" width="9.125" customWidth="1"/>
+    <col min="16135" max="16135" width="82.25" customWidth="1"/>
+    <col min="16136" max="16136" width="25.75" customWidth="1"/>
+    <col min="16137" max="16137" width="13.625" customWidth="1"/>
+    <col min="16138" max="16138" width="9.875" customWidth="1"/>
+    <col min="16139" max="16139" width="10.125" customWidth="1"/>
+    <col min="16140" max="16140" width="9" customWidth="1"/>
+    <col min="16141" max="16141" width="17.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="76" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="74" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="72">
+        <v>1</v>
+      </c>
+      <c r="B4" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="J4" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="K4" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="72" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="72"/>
+    </row>
+    <row r="5" spans="1:19" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:19" s="74" customFormat="1" ht="26.25" customHeight="1">
+      <c r="A6" s="72">
+        <v>3</v>
+      </c>
+      <c r="B6" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>141</v>
+      </c>
+      <c r="G6" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="77" t="s">
+        <v>147</v>
+      </c>
+      <c r="I6" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="M6" s="72"/>
+    </row>
+    <row r="7" spans="1:19" s="1" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A7" s="5">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="81" t="s">
+        <v>181</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:19" s="1" customFormat="1" ht="120" customHeight="1">
+      <c r="A8" s="5">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" s="72" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="S11" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="S12" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="S13" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="S14" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="1" customFormat="1" ht="16.5">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M2"/>
+  </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ6 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 WVQ4 WLU6 JE6 TA6 ACW6 AMS6 AWO6 BGK6 BQG6 CAC6 CJY6 CTU6 DDQ6 DNM6 DXI6 EHE6 ERA6 FAW6 FKS6 FUO6 GEK6 GOG6 GYC6 HHY6 HRU6 IBQ6 ILM6 IVI6 JFE6 JPA6 JYW6 KIS6 KSO6 LCK6 LMG6 LWC6 MFY6 MPU6 MZQ6 NJM6 NTI6 ODE6 ONA6 OWW6 PGS6 PQO6 QAK6 QKG6 QUC6 RDY6 RNU6 RXQ6 SHM6 SRI6 TBE6 TLA6 TUW6 UES6 UOO6 UYK6 VIG6 VSC6 WBY6">
+      <formula1>"开发环境,测试环境,生产环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 F131075:F131087 F196611:F196623 F262147:F262159 F327683:F327695 F393219:F393231 F458755:F458767 F524291:F524303 F589827:F589839 F655363:F655375 F720899:F720911 F786435:F786447 F851971:F851983 F917507:F917519 F983043:F983055 JB65539:JB65551 JB131075:JB131087 JB196611:JB196623 JB262147:JB262159 JB327683:JB327695 JB393219:JB393231 JB458755:JB458767 JB524291:JB524303 JB589827:JB589839 JB655363:JB655375 JB720899:JB720911 JB786435:JB786447 JB851971:JB851983 JB917507:JB917519 JB983043:JB983055 SX65539:SX65551 SX131075:SX131087 SX196611:SX196623 SX262147:SX262159 SX327683:SX327695 SX393219:SX393231 SX458755:SX458767 SX524291:SX524303 SX589827:SX589839 SX655363:SX655375 SX720899:SX720911 SX786435:SX786447 SX851971:SX851983 SX917507:SX917519 SX983043:SX983055 ACT65539:ACT65551 ACT131075:ACT131087 ACT196611:ACT196623 ACT262147:ACT262159 ACT327683:ACT327695 ACT393219:ACT393231 ACT458755:ACT458767 ACT524291:ACT524303 ACT589827:ACT589839 ACT655363:ACT655375 ACT720899:ACT720911 ACT786435:ACT786447 ACT851971:ACT851983 ACT917507:ACT917519 ACT983043:ACT983055 AMP65539:AMP65551 AMP131075:AMP131087 AMP196611:AMP196623 AMP262147:AMP262159 AMP327683:AMP327695 AMP393219:AMP393231 AMP458755:AMP458767 AMP524291:AMP524303 AMP589827:AMP589839 AMP655363:AMP655375 AMP720899:AMP720911 AMP786435:AMP786447 AMP851971:AMP851983 AMP917507:AMP917519 AMP983043:AMP983055 AWL65539:AWL65551 AWL131075:AWL131087 AWL196611:AWL196623 AWL262147:AWL262159 AWL327683:AWL327695 AWL393219:AWL393231 AWL458755:AWL458767 AWL524291:AWL524303 AWL589827:AWL589839 AWL655363:AWL655375 AWL720899:AWL720911 AWL786435:AWL786447 AWL851971:AWL851983 AWL917507:AWL917519 AWL983043:AWL983055 BGH65539:BGH65551 BGH131075:BGH131087 BGH196611:BGH196623 BGH262147:BGH262159 BGH327683:BGH327695 BGH393219:BGH393231 BGH458755:BGH458767 BGH524291:BGH524303 BGH589827:BGH589839 BGH655363:BGH655375 BGH720899:BGH720911 BGH786435:BGH786447 BGH851971:BGH851983 BGH917507:BGH917519 BGH983043:BGH983055 BQD65539:BQD65551 BQD131075:BQD131087 BQD196611:BQD196623 BQD262147:BQD262159 BQD327683:BQD327695 BQD393219:BQD393231 BQD458755:BQD458767 BQD524291:BQD524303 BQD589827:BQD589839 BQD655363:BQD655375 BQD720899:BQD720911 BQD786435:BQD786447 BQD851971:BQD851983 BQD917507:BQD917519 BQD983043:BQD983055 BZZ65539:BZZ65551 BZZ131075:BZZ131087 BZZ196611:BZZ196623 BZZ262147:BZZ262159 BZZ327683:BZZ327695 BZZ393219:BZZ393231 BZZ458755:BZZ458767 BZZ524291:BZZ524303 BZZ589827:BZZ589839 BZZ655363:BZZ655375 BZZ720899:BZZ720911 BZZ786435:BZZ786447 BZZ851971:BZZ851983 BZZ917507:BZZ917519 BZZ983043:BZZ983055 CJV65539:CJV65551 CJV131075:CJV131087 CJV196611:CJV196623 CJV262147:CJV262159 CJV327683:CJV327695 CJV393219:CJV393231 CJV458755:CJV458767 CJV524291:CJV524303 CJV589827:CJV589839 CJV655363:CJV655375 CJV720899:CJV720911 CJV786435:CJV786447 CJV851971:CJV851983 CJV917507:CJV917519 CJV983043:CJV983055 CTR65539:CTR65551 CTR131075:CTR131087 CTR196611:CTR196623 CTR262147:CTR262159 CTR327683:CTR327695 CTR393219:CTR393231 CTR458755:CTR458767 CTR524291:CTR524303 CTR589827:CTR589839 CTR655363:CTR655375 CTR720899:CTR720911 CTR786435:CTR786447 CTR851971:CTR851983 CTR917507:CTR917519 CTR983043:CTR983055 DDN65539:DDN65551 DDN131075:DDN131087 DDN196611:DDN196623 DDN262147:DDN262159 DDN327683:DDN327695 DDN393219:DDN393231 DDN458755:DDN458767 DDN524291:DDN524303 DDN589827:DDN589839 DDN655363:DDN655375 DDN720899:DDN720911 DDN786435:DDN786447 DDN851971:DDN851983 DDN917507:DDN917519 DDN983043:DDN983055 DNJ65539:DNJ65551 DNJ131075:DNJ131087 DNJ196611:DNJ196623 DNJ262147:DNJ262159 DNJ327683:DNJ327695 DNJ393219:DNJ393231 DNJ458755:DNJ458767 DNJ524291:DNJ524303 DNJ589827:DNJ589839 DNJ655363:DNJ655375 DNJ720899:DNJ720911 DNJ786435:DNJ786447 DNJ851971:DNJ851983 DNJ917507:DNJ917519 DNJ983043:DNJ983055 DXF65539:DXF65551 DXF131075:DXF131087 DXF196611:DXF196623 DXF262147:DXF262159 DXF327683:DXF327695 DXF393219:DXF393231 DXF458755:DXF458767 DXF524291:DXF524303 DXF589827:DXF589839 DXF655363:DXF655375 DXF720899:DXF720911 DXF786435:DXF786447 DXF851971:DXF851983 DXF917507:DXF917519 DXF983043:DXF983055 EHB65539:EHB65551 EHB131075:EHB131087 EHB196611:EHB196623 EHB262147:EHB262159 EHB327683:EHB327695 EHB393219:EHB393231 EHB458755:EHB458767 EHB524291:EHB524303 EHB589827:EHB589839 EHB655363:EHB655375 EHB720899:EHB720911 EHB786435:EHB786447 EHB851971:EHB851983 EHB917507:EHB917519 EHB983043:EHB983055 EQX65539:EQX65551 EQX131075:EQX131087 EQX196611:EQX196623 EQX262147:EQX262159 EQX327683:EQX327695 EQX393219:EQX393231 EQX458755:EQX458767 EQX524291:EQX524303 EQX589827:EQX589839 EQX655363:EQX655375 EQX720899:EQX720911 EQX786435:EQX786447 EQX851971:EQX851983 EQX917507:EQX917519 EQX983043:EQX983055 FAT65539:FAT65551 FAT131075:FAT131087 FAT196611:FAT196623 FAT262147:FAT262159 FAT327683:FAT327695 FAT393219:FAT393231 FAT458755:FAT458767 FAT524291:FAT524303 FAT589827:FAT589839 FAT655363:FAT655375 FAT720899:FAT720911 FAT786435:FAT786447 FAT851971:FAT851983 FAT917507:FAT917519 FAT983043:FAT983055 FKP65539:FKP65551 FKP131075:FKP131087 FKP196611:FKP196623 FKP262147:FKP262159 FKP327683:FKP327695 FKP393219:FKP393231 FKP458755:FKP458767 FKP524291:FKP524303 FKP589827:FKP589839 FKP655363:FKP655375 FKP720899:FKP720911 FKP786435:FKP786447 FKP851971:FKP851983 FKP917507:FKP917519 FKP983043:FKP983055 FUL65539:FUL65551 FUL131075:FUL131087 FUL196611:FUL196623 FUL262147:FUL262159 FUL327683:FUL327695 FUL393219:FUL393231 FUL458755:FUL458767 FUL524291:FUL524303 FUL589827:FUL589839 FUL655363:FUL655375 FUL720899:FUL720911 FUL786435:FUL786447 FUL851971:FUL851983 FUL917507:FUL917519 FUL983043:FUL983055 GEH65539:GEH65551 GEH131075:GEH131087 GEH196611:GEH196623 GEH262147:GEH262159 GEH327683:GEH327695 GEH393219:GEH393231 GEH458755:GEH458767 GEH524291:GEH524303 GEH589827:GEH589839 GEH655363:GEH655375 GEH720899:GEH720911 GEH786435:GEH786447 GEH851971:GEH851983 GEH917507:GEH917519 GEH983043:GEH983055 GOD65539:GOD65551 GOD131075:GOD131087 GOD196611:GOD196623 GOD262147:GOD262159 GOD327683:GOD327695 GOD393219:GOD393231 GOD458755:GOD458767 GOD524291:GOD524303 GOD589827:GOD589839 GOD655363:GOD655375 GOD720899:GOD720911 GOD786435:GOD786447 GOD851971:GOD851983 GOD917507:GOD917519 GOD983043:GOD983055 GXZ65539:GXZ65551 GXZ131075:GXZ131087 GXZ196611:GXZ196623 GXZ262147:GXZ262159 GXZ327683:GXZ327695 GXZ393219:GXZ393231 GXZ458755:GXZ458767 GXZ524291:GXZ524303 GXZ589827:GXZ589839 GXZ655363:GXZ655375 GXZ720899:GXZ720911 GXZ786435:GXZ786447 GXZ851971:GXZ851983 GXZ917507:GXZ917519 GXZ983043:GXZ983055 HHV65539:HHV65551 HHV131075:HHV131087 HHV196611:HHV196623 HHV262147:HHV262159 HHV327683:HHV327695 HHV393219:HHV393231 HHV458755:HHV458767 HHV524291:HHV524303 HHV589827:HHV589839 HHV655363:HHV655375 HHV720899:HHV720911 HHV786435:HHV786447 HHV851971:HHV851983 HHV917507:HHV917519 HHV983043:HHV983055 HRR65539:HRR65551 HRR131075:HRR131087 HRR196611:HRR196623 HRR262147:HRR262159 HRR327683:HRR327695 HRR393219:HRR393231 HRR458755:HRR458767 HRR524291:HRR524303 HRR589827:HRR589839 HRR655363:HRR655375 HRR720899:HRR720911 HRR786435:HRR786447 HRR851971:HRR851983 HRR917507:HRR917519 HRR983043:HRR983055 IBN65539:IBN65551 IBN131075:IBN131087 IBN196611:IBN196623 IBN262147:IBN262159 IBN327683:IBN327695 IBN393219:IBN393231 IBN458755:IBN458767 IBN524291:IBN524303 IBN589827:IBN589839 IBN655363:IBN655375 IBN720899:IBN720911 IBN786435:IBN786447 IBN851971:IBN851983 IBN917507:IBN917519 IBN983043:IBN983055 ILJ65539:ILJ65551 ILJ131075:ILJ131087 ILJ196611:ILJ196623 ILJ262147:ILJ262159 ILJ327683:ILJ327695 ILJ393219:ILJ393231 ILJ458755:ILJ458767 ILJ524291:ILJ524303 ILJ589827:ILJ589839 ILJ655363:ILJ655375 ILJ720899:ILJ720911 ILJ786435:ILJ786447 ILJ851971:ILJ851983 ILJ917507:ILJ917519 ILJ983043:ILJ983055 IVF65539:IVF65551 IVF131075:IVF131087 IVF196611:IVF196623 IVF262147:IVF262159 IVF327683:IVF327695 IVF393219:IVF393231 IVF458755:IVF458767 IVF524291:IVF524303 IVF589827:IVF589839 IVF655363:IVF655375 IVF720899:IVF720911 IVF786435:IVF786447 IVF851971:IVF851983 IVF917507:IVF917519 IVF983043:IVF983055 JFB65539:JFB65551 JFB131075:JFB131087 JFB196611:JFB196623 JFB262147:JFB262159 JFB327683:JFB327695 JFB393219:JFB393231 JFB458755:JFB458767 JFB524291:JFB524303 JFB589827:JFB589839 JFB655363:JFB655375 JFB720899:JFB720911 JFB786435:JFB786447 JFB851971:JFB851983 JFB917507:JFB917519 JFB983043:JFB983055 JOX65539:JOX65551 JOX131075:JOX131087 JOX196611:JOX196623 JOX262147:JOX262159 JOX327683:JOX327695 JOX393219:JOX393231 JOX458755:JOX458767 JOX524291:JOX524303 JOX589827:JOX589839 JOX655363:JOX655375 JOX720899:JOX720911 JOX786435:JOX786447 JOX851971:JOX851983 JOX917507:JOX917519 JOX983043:JOX983055 JYT65539:JYT65551 JYT131075:JYT131087 JYT196611:JYT196623 JYT262147:JYT262159 JYT327683:JYT327695 JYT393219:JYT393231 JYT458755:JYT458767 JYT524291:JYT524303 JYT589827:JYT589839 JYT655363:JYT655375 JYT720899:JYT720911 JYT786435:JYT786447 JYT851971:JYT851983 JYT917507:JYT917519 JYT983043:JYT983055 KIP65539:KIP65551 KIP131075:KIP131087 KIP196611:KIP196623 KIP262147:KIP262159 KIP327683:KIP327695 KIP393219:KIP393231 KIP458755:KIP458767 KIP524291:KIP524303 KIP589827:KIP589839 KIP655363:KIP655375 KIP720899:KIP720911 KIP786435:KIP786447 KIP851971:KIP851983 KIP917507:KIP917519 KIP983043:KIP983055 KSL65539:KSL65551 KSL131075:KSL131087 KSL196611:KSL196623 KSL262147:KSL262159 KSL327683:KSL327695 KSL393219:KSL393231 KSL458755:KSL458767 KSL524291:KSL524303 KSL589827:KSL589839 KSL655363:KSL655375 KSL720899:KSL720911 KSL786435:KSL786447 KSL851971:KSL851983 KSL917507:KSL917519 KSL983043:KSL983055 LCH65539:LCH65551 LCH131075:LCH131087 LCH196611:LCH196623 LCH262147:LCH262159 LCH327683:LCH327695 LCH393219:LCH393231 LCH458755:LCH458767 LCH524291:LCH524303 LCH589827:LCH589839 LCH655363:LCH655375 LCH720899:LCH720911 LCH786435:LCH786447 LCH851971:LCH851983 LCH917507:LCH917519 LCH983043:LCH983055 LMD65539:LMD65551 LMD131075:LMD131087 LMD196611:LMD196623 LMD262147:LMD262159 LMD327683:LMD327695 LMD393219:LMD393231 LMD458755:LMD458767 LMD524291:LMD524303 LMD589827:LMD589839 LMD655363:LMD655375 LMD720899:LMD720911 LMD786435:LMD786447 LMD851971:LMD851983 LMD917507:LMD917519 LMD983043:LMD983055 LVZ65539:LVZ65551 LVZ131075:LVZ131087 LVZ196611:LVZ196623 LVZ262147:LVZ262159 LVZ327683:LVZ327695 LVZ393219:LVZ393231 LVZ458755:LVZ458767 LVZ524291:LVZ524303 LVZ589827:LVZ589839 LVZ655363:LVZ655375 LVZ720899:LVZ720911 LVZ786435:LVZ786447 LVZ851971:LVZ851983 LVZ917507:LVZ917519 LVZ983043:LVZ983055 MFV65539:MFV65551 MFV131075:MFV131087 MFV196611:MFV196623 MFV262147:MFV262159 MFV327683:MFV327695 MFV393219:MFV393231 MFV458755:MFV458767 MFV524291:MFV524303 MFV589827:MFV589839 MFV655363:MFV655375 MFV720899:MFV720911 MFV786435:MFV786447 MFV851971:MFV851983 MFV917507:MFV917519 MFV983043:MFV983055 MPR65539:MPR65551 MPR131075:MPR131087 MPR196611:MPR196623 MPR262147:MPR262159 MPR327683:MPR327695 MPR393219:MPR393231 MPR458755:MPR458767 MPR524291:MPR524303 MPR589827:MPR589839 MPR655363:MPR655375 MPR720899:MPR720911 MPR786435:MPR786447 MPR851971:MPR851983 MPR917507:MPR917519 MPR983043:MPR983055 MZN65539:MZN65551 MZN131075:MZN131087 MZN196611:MZN196623 MZN262147:MZN262159 MZN327683:MZN327695 MZN393219:MZN393231 MZN458755:MZN458767 MZN524291:MZN524303 MZN589827:MZN589839 MZN655363:MZN655375 MZN720899:MZN720911 MZN786435:MZN786447 MZN851971:MZN851983 MZN917507:MZN917519 MZN983043:MZN983055 NJJ65539:NJJ65551 NJJ131075:NJJ131087 NJJ196611:NJJ196623 NJJ262147:NJJ262159 NJJ327683:NJJ327695 NJJ393219:NJJ393231 NJJ458755:NJJ458767 NJJ524291:NJJ524303 NJJ589827:NJJ589839 NJJ655363:NJJ655375 NJJ720899:NJJ720911 NJJ786435:NJJ786447 NJJ851971:NJJ851983 NJJ917507:NJJ917519 NJJ983043:NJJ983055 NTF65539:NTF65551 NTF131075:NTF131087 NTF196611:NTF196623 NTF262147:NTF262159 NTF327683:NTF327695 NTF393219:NTF393231 NTF458755:NTF458767 NTF524291:NTF524303 NTF589827:NTF589839 NTF655363:NTF655375 NTF720899:NTF720911 NTF786435:NTF786447 NTF851971:NTF851983 NTF917507:NTF917519 NTF983043:NTF983055 ODB65539:ODB65551 ODB131075:ODB131087 ODB196611:ODB196623 ODB262147:ODB262159 ODB327683:ODB327695 ODB393219:ODB393231 ODB458755:ODB458767 ODB524291:ODB524303 ODB589827:ODB589839 ODB655363:ODB655375 ODB720899:ODB720911 ODB786435:ODB786447 ODB851971:ODB851983 ODB917507:ODB917519 ODB983043:ODB983055 OMX65539:OMX65551 OMX131075:OMX131087 OMX196611:OMX196623 OMX262147:OMX262159 OMX327683:OMX327695 OMX393219:OMX393231 OMX458755:OMX458767 OMX524291:OMX524303 OMX589827:OMX589839 OMX655363:OMX655375 OMX720899:OMX720911 OMX786435:OMX786447 OMX851971:OMX851983 OMX917507:OMX917519 OMX983043:OMX983055 OWT65539:OWT65551 OWT131075:OWT131087 OWT196611:OWT196623 OWT262147:OWT262159 OWT327683:OWT327695 OWT393219:OWT393231 OWT458755:OWT458767 OWT524291:OWT524303 OWT589827:OWT589839 OWT655363:OWT655375 OWT720899:OWT720911 OWT786435:OWT786447 OWT851971:OWT851983 OWT917507:OWT917519 OWT983043:OWT983055 PGP65539:PGP65551 PGP131075:PGP131087 PGP196611:PGP196623 PGP262147:PGP262159 PGP327683:PGP327695 PGP393219:PGP393231 PGP458755:PGP458767 PGP524291:PGP524303 PGP589827:PGP589839 PGP655363:PGP655375 PGP720899:PGP720911 PGP786435:PGP786447 PGP851971:PGP851983 PGP917507:PGP917519 PGP983043:PGP983055 PQL65539:PQL65551 PQL131075:PQL131087 PQL196611:PQL196623 PQL262147:PQL262159 PQL327683:PQL327695 PQL393219:PQL393231 PQL458755:PQL458767 PQL524291:PQL524303 PQL589827:PQL589839 PQL655363:PQL655375 PQL720899:PQL720911 PQL786435:PQL786447 PQL851971:PQL851983 PQL917507:PQL917519 PQL983043:PQL983055 QAH65539:QAH65551 QAH131075:QAH131087 QAH196611:QAH196623 QAH262147:QAH262159 QAH327683:QAH327695 QAH393219:QAH393231 QAH458755:QAH458767 QAH524291:QAH524303 QAH589827:QAH589839 QAH655363:QAH655375 QAH720899:QAH720911 QAH786435:QAH786447 QAH851971:QAH851983 QAH917507:QAH917519 QAH983043:QAH983055 QKD65539:QKD65551 QKD131075:QKD131087 QKD196611:QKD196623 QKD262147:QKD262159 QKD327683:QKD327695 QKD393219:QKD393231 QKD458755:QKD458767 QKD524291:QKD524303 QKD589827:QKD589839 QKD655363:QKD655375 QKD720899:QKD720911 QKD786435:QKD786447 QKD851971:QKD851983 QKD917507:QKD917519 QKD983043:QKD983055 QTZ65539:QTZ65551 QTZ131075:QTZ131087 QTZ196611:QTZ196623 QTZ262147:QTZ262159 QTZ327683:QTZ327695 QTZ393219:QTZ393231 QTZ458755:QTZ458767 QTZ524291:QTZ524303 QTZ589827:QTZ589839 QTZ655363:QTZ655375 QTZ720899:QTZ720911 QTZ786435:QTZ786447 QTZ851971:QTZ851983 QTZ917507:QTZ917519 QTZ983043:QTZ983055 RDV65539:RDV65551 RDV131075:RDV131087 RDV196611:RDV196623 RDV262147:RDV262159 RDV327683:RDV327695 RDV393219:RDV393231 RDV458755:RDV458767 RDV524291:RDV524303 RDV589827:RDV589839 RDV655363:RDV655375 RDV720899:RDV720911 RDV786435:RDV786447 RDV851971:RDV851983 RDV917507:RDV917519 RDV983043:RDV983055 RNR65539:RNR65551 RNR131075:RNR131087 RNR196611:RNR196623 RNR262147:RNR262159 RNR327683:RNR327695 RNR393219:RNR393231 RNR458755:RNR458767 RNR524291:RNR524303 RNR589827:RNR589839 RNR655363:RNR655375 RNR720899:RNR720911 RNR786435:RNR786447 RNR851971:RNR851983 RNR917507:RNR917519 RNR983043:RNR983055 RXN65539:RXN65551 RXN131075:RXN131087 RXN196611:RXN196623 RXN262147:RXN262159 RXN327683:RXN327695 RXN393219:RXN393231 RXN458755:RXN458767 RXN524291:RXN524303 RXN589827:RXN589839 RXN655363:RXN655375 RXN720899:RXN720911 RXN786435:RXN786447 RXN851971:RXN851983 RXN917507:RXN917519 RXN983043:RXN983055 SHJ65539:SHJ65551 SHJ131075:SHJ131087 SHJ196611:SHJ196623 SHJ262147:SHJ262159 SHJ327683:SHJ327695 SHJ393219:SHJ393231 SHJ458755:SHJ458767 SHJ524291:SHJ524303 SHJ589827:SHJ589839 SHJ655363:SHJ655375 SHJ720899:SHJ720911 SHJ786435:SHJ786447 SHJ851971:SHJ851983 SHJ917507:SHJ917519 SHJ983043:SHJ983055 SRF65539:SRF65551 SRF131075:SRF131087 SRF196611:SRF196623 SRF262147:SRF262159 SRF327683:SRF327695 SRF393219:SRF393231 SRF458755:SRF458767 SRF524291:SRF524303 SRF589827:SRF589839 SRF655363:SRF655375 SRF720899:SRF720911 SRF786435:SRF786447 SRF851971:SRF851983 SRF917507:SRF917519 SRF983043:SRF983055 TBB65539:TBB65551 TBB131075:TBB131087 TBB196611:TBB196623 TBB262147:TBB262159 TBB327683:TBB327695 TBB393219:TBB393231 TBB458755:TBB458767 TBB524291:TBB524303 TBB589827:TBB589839 TBB655363:TBB655375 TBB720899:TBB720911 TBB786435:TBB786447 TBB851971:TBB851983 TBB917507:TBB917519 TBB983043:TBB983055 TKX65539:TKX65551 TKX131075:TKX131087 TKX196611:TKX196623 TKX262147:TKX262159 TKX327683:TKX327695 TKX393219:TKX393231 TKX458755:TKX458767 TKX524291:TKX524303 TKX589827:TKX589839 TKX655363:TKX655375 TKX720899:TKX720911 TKX786435:TKX786447 TKX851971:TKX851983 TKX917507:TKX917519 TKX983043:TKX983055 TUT65539:TUT65551 TUT131075:TUT131087 TUT196611:TUT196623 TUT262147:TUT262159 TUT327683:TUT327695 TUT393219:TUT393231 TUT458755:TUT458767 TUT524291:TUT524303 TUT589827:TUT589839 TUT655363:TUT655375 TUT720899:TUT720911 TUT786435:TUT786447 TUT851971:TUT851983 TUT917507:TUT917519 TUT983043:TUT983055 UEP65539:UEP65551 UEP131075:UEP131087 UEP196611:UEP196623 UEP262147:UEP262159 UEP327683:UEP327695 UEP393219:UEP393231 UEP458755:UEP458767 UEP524291:UEP524303 UEP589827:UEP589839 UEP655363:UEP655375 UEP720899:UEP720911 UEP786435:UEP786447 UEP851971:UEP851983 UEP917507:UEP917519 UEP983043:UEP983055 UOL65539:UOL65551 UOL131075:UOL131087 UOL196611:UOL196623 UOL262147:UOL262159 UOL327683:UOL327695 UOL393219:UOL393231 UOL458755:UOL458767 UOL524291:UOL524303 UOL589827:UOL589839 UOL655363:UOL655375 UOL720899:UOL720911 UOL786435:UOL786447 UOL851971:UOL851983 UOL917507:UOL917519 UOL983043:UOL983055 UYH65539:UYH65551 UYH131075:UYH131087 UYH196611:UYH196623 UYH262147:UYH262159 UYH327683:UYH327695 UYH393219:UYH393231 UYH458755:UYH458767 UYH524291:UYH524303 UYH589827:UYH589839 UYH655363:UYH655375 UYH720899:UYH720911 UYH786435:UYH786447 UYH851971:UYH851983 UYH917507:UYH917519 UYH983043:UYH983055 VID65539:VID65551 VID131075:VID131087 VID196611:VID196623 VID262147:VID262159 VID327683:VID327695 VID393219:VID393231 VID458755:VID458767 VID524291:VID524303 VID589827:VID589839 VID655363:VID655375 VID720899:VID720911 VID786435:VID786447 VID851971:VID851983 VID917507:VID917519 VID983043:VID983055 VRZ65539:VRZ65551 VRZ131075:VRZ131087 VRZ196611:VRZ196623 VRZ262147:VRZ262159 VRZ327683:VRZ327695 VRZ393219:VRZ393231 VRZ458755:VRZ458767 VRZ524291:VRZ524303 VRZ589827:VRZ589839 VRZ655363:VRZ655375 VRZ720899:VRZ720911 VRZ786435:VRZ786447 VRZ851971:VRZ851983 VRZ917507:VRZ917519 VRZ983043:VRZ983055 WBV65539:WBV65551 WBV131075:WBV131087 WBV196611:WBV196623 WBV262147:WBV262159 WBV327683:WBV327695 WBV393219:WBV393231 WBV458755:WBV458767 WBV524291:WBV524303 WBV589827:WBV589839 WBV655363:WBV655375 WBV720899:WBV720911 WBV786435:WBV786447 WBV851971:WBV851983 WBV917507:WBV917519 WBV983043:WBV983055 WLR65539:WLR65551 WLR131075:WLR131087 WLR196611:WLR196623 WLR262147:WLR262159 WLR327683:WLR327695 WLR393219:WLR393231 WLR458755:WLR458767 WLR524291:WLR524303 WLR589827:WLR589839 WLR655363:WLR655375 WLR720899:WLR720911 WLR786435:WLR786447 WLR851971:WLR851983 WLR917507:WLR917519 WLR983043:WLR983055 WVN983043:WVN983055 WVN65539:WVN65551 WVN131075:WVN131087 WVN196611:WVN196623 WVN262147:WVN262159 WVN327683:WVN327695 WVN393219:WVN393231 WVN458755:WVN458767 WVN524291:WVN524303 WVN589827:WVN589839 WVN655363:WVN655375 WVN720899:WVN720911 WVN786435:WVN786447 WVN851971:WVN851983 WVN917507:WVN917519 WVN4:WVN15 WLR4:WLR15 WBV4:WBV15 VRZ4:VRZ15 VID4:VID15 UYH4:UYH15 UOL4:UOL15 UEP4:UEP15 TUT4:TUT15 TKX4:TKX15 TBB4:TBB15 SRF4:SRF15 SHJ4:SHJ15 RXN4:RXN15 RNR4:RNR15 RDV4:RDV15 QTZ4:QTZ15 QKD4:QKD15 QAH4:QAH15 PQL4:PQL15 PGP4:PGP15 OWT4:OWT15 OMX4:OMX15 ODB4:ODB15 NTF4:NTF15 NJJ4:NJJ15 MZN4:MZN15 MPR4:MPR15 MFV4:MFV15 LVZ4:LVZ15 LMD4:LMD15 LCH4:LCH15 KSL4:KSL15 KIP4:KIP15 JYT4:JYT15 JOX4:JOX15 JFB4:JFB15 IVF4:IVF15 ILJ4:ILJ15 IBN4:IBN15 HRR4:HRR15 HHV4:HHV15 GXZ4:GXZ15 GOD4:GOD15 GEH4:GEH15 FUL4:FUL15 FKP4:FKP15 FAT4:FAT15 EQX4:EQX15 EHB4:EHB15 DXF4:DXF15 DNJ4:DNJ15 DDN4:DDN15 CTR4:CTR15 CJV4:CJV15 BZZ4:BZZ15 BQD4:BQD15 BGH4:BGH15 AWL4:AWL15 AMP4:AMP15 ACT4:ACT15 SX4:SX15 JB4:JB15 F4:F15">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="TA7:TA1048576 ACW7:ACW1048576 AMS7:AMS1048576 AWO7:AWO1048576 BGK7:BGK1048576 BQG7:BQG1048576 CAC7:CAC1048576 CJY7:CJY1048576 CTU7:CTU1048576 DDQ7:DDQ1048576 DNM7:DNM1048576 DXI7:DXI1048576 EHE7:EHE1048576 ERA7:ERA1048576 FAW7:FAW1048576 FKS7:FKS1048576 FUO7:FUO1048576 GEK7:GEK1048576 GOG7:GOG1048576 GYC7:GYC1048576 HHY7:HHY1048576 HRU7:HRU1048576 IBQ7:IBQ1048576 ILM7:ILM1048576 IVI7:IVI1048576 JFE7:JFE1048576 JPA7:JPA1048576 JYW7:JYW1048576 KIS7:KIS1048576 KSO7:KSO1048576 LCK7:LCK1048576 LMG7:LMG1048576 LWC7:LWC1048576 MFY7:MFY1048576 MPU7:MPU1048576 MZQ7:MZQ1048576 NJM7:NJM1048576 NTI7:NTI1048576 ODE7:ODE1048576 ONA7:ONA1048576 OWW7:OWW1048576 PGS7:PGS1048576 PQO7:PQO1048576 QAK7:QAK1048576 QKG7:QKG1048576 QUC7:QUC1048576 RDY7:RDY1048576 RNU7:RNU1048576 RXQ7:RXQ1048576 SHM7:SHM1048576 SRI7:SRI1048576 TBE7:TBE1048576 TLA7:TLA1048576 TUW7:TUW1048576 UES7:UES1048576 UOO7:UOO1048576 UYK7:UYK1048576 VIG7:VIG1048576 VSC7:VSC1048576 WBY7:WBY1048576 WLU7:WLU1048576 WVQ7:WVQ1048576 JE5 WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I3 JE7:JE1048576 WVQ5 WLU5 WBY5 VSC5 VIG5 UYK5 UOO5 UES5 TUW5 TLA5 TBE5 SRI5 SHM5 RXQ5 RNU5 RDY5 QUC5 QKG5 QAK5 PQO5 PGS5 OWW5 ONA5 ODE5 NTI5 NJM5 MZQ5 MPU5 MFY5 LWC5 LMG5 LCK5 KSO5 KIS5 JYW5 JPA5 JFE5 IVI5 ILM5 IBQ5 HRU5 HHY5 GYC5 GOG5 GEK5 FUO5 FKS5 FAW5 ERA5 EHE5 DXI5 DNM5 DDQ5 CTU5 CJY5 CAC5 BQG5 BGK5 AWO5 AMS5 ACW5 TA5 I9:I1048576">
+      <formula1>"生产环境,测试环境,开发环境"</formula1>
+    </dataValidation>
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I8">
+      <formula1>$S$11:$S$14</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6570,9 +8109,9 @@
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="7" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="82.25" style="2" customWidth="1"/>
+    <col min="7" max="7" width="91.5" style="71" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
@@ -7401,36 +8940,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="63" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="56"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="58"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
@@ -7451,7 +8990,7 @@
       <c r="F3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="67" t="s">
         <v>46</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -7473,58 +9012,82 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="61" customFormat="1" ht="24.95" customHeight="1">
-      <c r="A4" s="60">
+    <row r="4" spans="1:13" s="57" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="55" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="55" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="56" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="G4" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="I4" s="56" t="s">
+        <v>166</v>
+      </c>
+      <c r="J4" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="F4" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="K4" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="L4" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="M4" s="56"/>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A5" s="5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="60" t="s">
+      <c r="E5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="I4" s="60" t="s">
+      <c r="G5" s="69" t="s">
+        <v>173</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="M4" s="60"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="16.5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
+      <c r="J5" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="L5" s="55" t="s">
+        <v>151</v>
+      </c>
       <c r="M5" s="8"/>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5">
@@ -7534,7 +9097,7 @@
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="G6" s="69"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -7549,7 +9112,7 @@
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="G7" s="69"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -7564,7 +9127,7 @@
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="G8" s="69"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -7579,7 +9142,7 @@
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -7594,7 +9157,7 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -7609,7 +9172,7 @@
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="70"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -7624,7 +9187,7 @@
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="70"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -7639,7 +9202,7 @@
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="70"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -7654,7 +9217,7 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7669,7 +9232,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="170">
   <si>
     <t>No</t>
   </si>
@@ -632,6 +632,26 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>配置BS权限</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎结构变更，重新数据初始化等</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限改动见目录 BS权限/新增--修改--删除--权限配置表.xlsx</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1146,6 +1166,54 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1196,54 +1264,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1600,90 +1620,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="79" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="80" customWidth="1"/>
-    <col min="3" max="3" width="15" style="79" customWidth="1"/>
-    <col min="4" max="4" width="18" style="79" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="79" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="80" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="79" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="80" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="80" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="79" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="79" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="79" customWidth="1"/>
-    <col min="13" max="14" width="10" style="80" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="80" customWidth="1"/>
-    <col min="16" max="16" width="12" style="78" customWidth="1"/>
-    <col min="17" max="17" width="17" style="78" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="78" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="62" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="63" customWidth="1"/>
+    <col min="3" max="3" width="15" style="62" customWidth="1"/>
+    <col min="4" max="4" width="18" style="62" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="62" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="63" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="62" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="63" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="63" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="62" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="62" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="62" customWidth="1"/>
+    <col min="13" max="14" width="10" style="63" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="63" customWidth="1"/>
+    <col min="16" max="16" width="12" style="61" customWidth="1"/>
+    <col min="17" max="17" width="17" style="61" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="61" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="63" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="77"/>
+    <col min="21" max="16384" width="9" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="66" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:20" s="49" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="48" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2422,12 +2442,12 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="67" t="s">
+      <c r="S18" s="50" t="s">
         <v>156</v>
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="69" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="52" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32">
         <v>18</v>
       </c>
@@ -2477,7 +2497,7 @@
         <v>164</v>
       </c>
       <c r="S19" s="17"/>
-      <c r="T19" s="68"/>
+      <c r="T19" s="51"/>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="32"/>
@@ -2832,3219 +2852,3219 @@
       <c r="T35" s="20"/>
     </row>
     <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="70"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="71"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="53"/>
+      <c r="K36" s="53"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="54"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="71"/>
+      <c r="S36" s="54"/>
       <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="70"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="53"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="71"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="53"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="53"/>
+      <c r="K37" s="53"/>
+      <c r="L37" s="53"/>
+      <c r="M37" s="53"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="54"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="71"/>
+      <c r="S37" s="54"/>
       <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
-      <c r="B38" s="74"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="23"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="75"/>
+      <c r="F38" s="58"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="59"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="74"/>
+      <c r="N38" s="58"/>
+      <c r="O38" s="57"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="74"/>
+      <c r="S38" s="57"/>
     </row>
     <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="23"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="75"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="59"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="74"/>
+      <c r="N39" s="58"/>
+      <c r="O39" s="57"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23"/>
-      <c r="S39" s="74"/>
+      <c r="S39" s="57"/>
     </row>
     <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
-      <c r="B40" s="74"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="23"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="75"/>
+      <c r="F40" s="58"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="59"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="74"/>
+      <c r="N40" s="58"/>
+      <c r="O40" s="57"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="74"/>
+      <c r="S40" s="57"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
-      <c r="B41" s="74"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="23"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="75"/>
+      <c r="F41" s="58"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="76"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="59"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="74"/>
+      <c r="N41" s="58"/>
+      <c r="O41" s="57"/>
       <c r="P41" s="23"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
-      <c r="S41" s="74"/>
+      <c r="S41" s="57"/>
     </row>
     <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
-      <c r="B42" s="74"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="23"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="75"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="59"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="74"/>
+      <c r="N42" s="58"/>
+      <c r="O42" s="57"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
-      <c r="S42" s="74"/>
+      <c r="S42" s="57"/>
     </row>
     <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
-      <c r="B43" s="74"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="23"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="75"/>
+      <c r="F43" s="58"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="59"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="74"/>
+      <c r="N43" s="58"/>
+      <c r="O43" s="57"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
-      <c r="S43" s="74"/>
+      <c r="S43" s="57"/>
     </row>
     <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
-      <c r="B44" s="74"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="23"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="75"/>
+      <c r="F44" s="58"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="59"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="74"/>
+      <c r="N44" s="58"/>
+      <c r="O44" s="57"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
-      <c r="S44" s="74"/>
+      <c r="S44" s="57"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
-      <c r="B45" s="74"/>
+      <c r="B45" s="57"/>
       <c r="C45" s="23"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="75"/>
+      <c r="F45" s="58"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="76"/>
+      <c r="H45" s="58"/>
+      <c r="I45" s="59"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="74"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="57"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="74"/>
+      <c r="S45" s="57"/>
     </row>
     <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
-      <c r="B46" s="74"/>
+      <c r="B46" s="57"/>
       <c r="C46" s="23"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="75"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="23"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="59"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="74"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="57"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
-      <c r="S46" s="74"/>
+      <c r="S46" s="57"/>
     </row>
     <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
-      <c r="B47" s="74"/>
+      <c r="B47" s="57"/>
       <c r="C47" s="23"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="75"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="59"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="74"/>
+      <c r="N47" s="58"/>
+      <c r="O47" s="57"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
       <c r="R47" s="23"/>
-      <c r="S47" s="74"/>
+      <c r="S47" s="57"/>
     </row>
     <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
-      <c r="B48" s="74"/>
+      <c r="B48" s="57"/>
       <c r="C48" s="23"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="75"/>
+      <c r="F48" s="58"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
+      <c r="H48" s="58"/>
+      <c r="I48" s="59"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="74"/>
+      <c r="N48" s="58"/>
+      <c r="O48" s="57"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
       <c r="R48" s="23"/>
-      <c r="S48" s="74"/>
+      <c r="S48" s="57"/>
     </row>
     <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
-      <c r="B49" s="74"/>
+      <c r="B49" s="57"/>
       <c r="C49" s="23"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="75"/>
+      <c r="F49" s="58"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
+      <c r="H49" s="58"/>
+      <c r="I49" s="59"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="74"/>
+      <c r="N49" s="58"/>
+      <c r="O49" s="57"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="23"/>
-      <c r="S49" s="74"/>
+      <c r="S49" s="57"/>
     </row>
     <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
-      <c r="B50" s="74"/>
+      <c r="B50" s="57"/>
       <c r="C50" s="23"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="75"/>
+      <c r="F50" s="58"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="76"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="59"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="74"/>
+      <c r="N50" s="58"/>
+      <c r="O50" s="57"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
       <c r="R50" s="23"/>
-      <c r="S50" s="74"/>
+      <c r="S50" s="57"/>
     </row>
     <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
-      <c r="B51" s="74"/>
+      <c r="B51" s="57"/>
       <c r="C51" s="23"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="75"/>
+      <c r="F51" s="58"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
+      <c r="H51" s="58"/>
+      <c r="I51" s="59"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="74"/>
+      <c r="N51" s="58"/>
+      <c r="O51" s="57"/>
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
       <c r="R51" s="23"/>
-      <c r="S51" s="74"/>
+      <c r="S51" s="57"/>
     </row>
     <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
-      <c r="B52" s="74"/>
+      <c r="B52" s="57"/>
       <c r="C52" s="23"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="75"/>
+      <c r="F52" s="58"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="76"/>
+      <c r="H52" s="58"/>
+      <c r="I52" s="59"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="74"/>
+      <c r="N52" s="58"/>
+      <c r="O52" s="57"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
-      <c r="S52" s="74"/>
+      <c r="S52" s="57"/>
     </row>
     <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
-      <c r="B53" s="74"/>
+      <c r="B53" s="57"/>
       <c r="C53" s="23"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="75"/>
+      <c r="F53" s="58"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
+      <c r="H53" s="58"/>
+      <c r="I53" s="59"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="74"/>
+      <c r="N53" s="58"/>
+      <c r="O53" s="57"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
       <c r="R53" s="23"/>
-      <c r="S53" s="74"/>
+      <c r="S53" s="57"/>
     </row>
     <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
-      <c r="B54" s="74"/>
+      <c r="B54" s="57"/>
       <c r="C54" s="23"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="75"/>
+      <c r="F54" s="58"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="76"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="59"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="74"/>
+      <c r="N54" s="58"/>
+      <c r="O54" s="57"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
       <c r="R54" s="23"/>
-      <c r="S54" s="74"/>
+      <c r="S54" s="57"/>
     </row>
     <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
-      <c r="B55" s="74"/>
+      <c r="B55" s="57"/>
       <c r="C55" s="23"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="75"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="76"/>
+      <c r="H55" s="58"/>
+      <c r="I55" s="59"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="74"/>
+      <c r="N55" s="58"/>
+      <c r="O55" s="57"/>
       <c r="P55" s="23"/>
       <c r="Q55" s="23"/>
       <c r="R55" s="23"/>
-      <c r="S55" s="74"/>
+      <c r="S55" s="57"/>
     </row>
     <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
-      <c r="B56" s="74"/>
+      <c r="B56" s="57"/>
       <c r="C56" s="23"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="75"/>
+      <c r="F56" s="58"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="76"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="59"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="74"/>
+      <c r="N56" s="58"/>
+      <c r="O56" s="57"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
       <c r="R56" s="23"/>
-      <c r="S56" s="74"/>
+      <c r="S56" s="57"/>
     </row>
     <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="57"/>
       <c r="C57" s="23"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
-      <c r="F57" s="75"/>
+      <c r="F57" s="58"/>
       <c r="G57" s="23"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="59"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="74"/>
+      <c r="N57" s="58"/>
+      <c r="O57" s="57"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="23"/>
       <c r="R57" s="23"/>
-      <c r="S57" s="74"/>
+      <c r="S57" s="57"/>
     </row>
     <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
-      <c r="B58" s="74"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="23"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="F58" s="75"/>
+      <c r="F58" s="58"/>
       <c r="G58" s="23"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="59"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="74"/>
+      <c r="N58" s="58"/>
+      <c r="O58" s="57"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
-      <c r="S58" s="74"/>
+      <c r="S58" s="57"/>
     </row>
     <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
-      <c r="B59" s="74"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="23"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="75"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="59"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="74"/>
+      <c r="N59" s="58"/>
+      <c r="O59" s="57"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
-      <c r="S59" s="74"/>
+      <c r="S59" s="57"/>
     </row>
     <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
-      <c r="B60" s="74"/>
+      <c r="B60" s="57"/>
       <c r="C60" s="23"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="75"/>
+      <c r="F60" s="58"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="76"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="59"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="74"/>
+      <c r="N60" s="58"/>
+      <c r="O60" s="57"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
       <c r="R60" s="23"/>
-      <c r="S60" s="74"/>
+      <c r="S60" s="57"/>
     </row>
     <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
-      <c r="B61" s="74"/>
+      <c r="B61" s="57"/>
       <c r="C61" s="23"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="75"/>
+      <c r="F61" s="58"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="76"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="59"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="74"/>
+      <c r="N61" s="58"/>
+      <c r="O61" s="57"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
       <c r="R61" s="23"/>
-      <c r="S61" s="74"/>
+      <c r="S61" s="57"/>
     </row>
     <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
-      <c r="B62" s="74"/>
+      <c r="B62" s="57"/>
       <c r="C62" s="23"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="75"/>
+      <c r="F62" s="58"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="76"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="59"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="74"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="57"/>
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
-      <c r="S62" s="74"/>
+      <c r="S62" s="57"/>
     </row>
     <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
-      <c r="B63" s="74"/>
+      <c r="B63" s="57"/>
       <c r="C63" s="23"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="75"/>
+      <c r="F63" s="58"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="76"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="59"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="74"/>
+      <c r="N63" s="58"/>
+      <c r="O63" s="57"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
       <c r="R63" s="23"/>
-      <c r="S63" s="74"/>
+      <c r="S63" s="57"/>
     </row>
     <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
-      <c r="B64" s="74"/>
+      <c r="B64" s="57"/>
       <c r="C64" s="23"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="75"/>
+      <c r="F64" s="58"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="76"/>
+      <c r="H64" s="58"/>
+      <c r="I64" s="59"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="74"/>
+      <c r="N64" s="58"/>
+      <c r="O64" s="57"/>
       <c r="P64" s="23"/>
       <c r="Q64" s="23"/>
       <c r="R64" s="23"/>
-      <c r="S64" s="74"/>
+      <c r="S64" s="57"/>
     </row>
     <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
-      <c r="B65" s="74"/>
+      <c r="B65" s="57"/>
       <c r="C65" s="23"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="75"/>
+      <c r="F65" s="58"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="76"/>
+      <c r="H65" s="58"/>
+      <c r="I65" s="59"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="74"/>
+      <c r="N65" s="58"/>
+      <c r="O65" s="57"/>
       <c r="P65" s="23"/>
       <c r="Q65" s="23"/>
       <c r="R65" s="23"/>
-      <c r="S65" s="74"/>
+      <c r="S65" s="57"/>
     </row>
     <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
-      <c r="B66" s="74"/>
+      <c r="B66" s="57"/>
       <c r="C66" s="23"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="75"/>
+      <c r="F66" s="58"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="59"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="74"/>
+      <c r="N66" s="58"/>
+      <c r="O66" s="57"/>
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
       <c r="R66" s="23"/>
-      <c r="S66" s="74"/>
+      <c r="S66" s="57"/>
     </row>
     <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
-      <c r="B67" s="74"/>
+      <c r="B67" s="57"/>
       <c r="C67" s="23"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="75"/>
+      <c r="F67" s="58"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="76"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="59"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="74"/>
+      <c r="N67" s="58"/>
+      <c r="O67" s="57"/>
       <c r="P67" s="23"/>
       <c r="Q67" s="23"/>
       <c r="R67" s="23"/>
-      <c r="S67" s="74"/>
+      <c r="S67" s="57"/>
     </row>
     <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
-      <c r="B68" s="74"/>
+      <c r="B68" s="57"/>
       <c r="C68" s="23"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="75"/>
+      <c r="F68" s="58"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="76"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="59"/>
       <c r="J68" s="23"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="74"/>
+      <c r="N68" s="58"/>
+      <c r="O68" s="57"/>
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
-      <c r="S68" s="74"/>
+      <c r="S68" s="57"/>
     </row>
     <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
-      <c r="B69" s="74"/>
+      <c r="B69" s="57"/>
       <c r="C69" s="23"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="75"/>
+      <c r="F69" s="58"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="76"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="59"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="74"/>
+      <c r="N69" s="58"/>
+      <c r="O69" s="57"/>
       <c r="P69" s="23"/>
       <c r="Q69" s="23"/>
       <c r="R69" s="23"/>
-      <c r="S69" s="74"/>
+      <c r="S69" s="57"/>
     </row>
     <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
-      <c r="B70" s="74"/>
+      <c r="B70" s="57"/>
       <c r="C70" s="23"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-      <c r="F70" s="75"/>
+      <c r="F70" s="58"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="76"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="59"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="74"/>
+      <c r="N70" s="58"/>
+      <c r="O70" s="57"/>
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
       <c r="R70" s="23"/>
-      <c r="S70" s="74"/>
+      <c r="S70" s="57"/>
     </row>
     <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
-      <c r="B71" s="74"/>
+      <c r="B71" s="57"/>
       <c r="C71" s="23"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="75"/>
+      <c r="F71" s="58"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="76"/>
+      <c r="H71" s="58"/>
+      <c r="I71" s="59"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="74"/>
+      <c r="N71" s="58"/>
+      <c r="O71" s="57"/>
       <c r="P71" s="23"/>
       <c r="Q71" s="23"/>
       <c r="R71" s="23"/>
-      <c r="S71" s="74"/>
+      <c r="S71" s="57"/>
     </row>
     <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
-      <c r="B72" s="74"/>
+      <c r="B72" s="57"/>
       <c r="C72" s="23"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="75"/>
+      <c r="F72" s="58"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="76"/>
+      <c r="H72" s="58"/>
+      <c r="I72" s="59"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="74"/>
+      <c r="N72" s="58"/>
+      <c r="O72" s="57"/>
       <c r="P72" s="23"/>
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
-      <c r="S72" s="74"/>
+      <c r="S72" s="57"/>
     </row>
     <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
-      <c r="B73" s="74"/>
+      <c r="B73" s="57"/>
       <c r="C73" s="23"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="75"/>
+      <c r="F73" s="58"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="76"/>
+      <c r="H73" s="58"/>
+      <c r="I73" s="59"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
       <c r="M73" s="23"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="74"/>
+      <c r="N73" s="58"/>
+      <c r="O73" s="57"/>
       <c r="P73" s="23"/>
       <c r="Q73" s="23"/>
       <c r="R73" s="23"/>
-      <c r="S73" s="74"/>
+      <c r="S73" s="57"/>
     </row>
     <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
-      <c r="B74" s="74"/>
+      <c r="B74" s="57"/>
       <c r="C74" s="23"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="75"/>
+      <c r="F74" s="58"/>
       <c r="G74" s="23"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="76"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="59"/>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
       <c r="M74" s="23"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="74"/>
+      <c r="N74" s="58"/>
+      <c r="O74" s="57"/>
       <c r="P74" s="23"/>
       <c r="Q74" s="23"/>
       <c r="R74" s="23"/>
-      <c r="S74" s="74"/>
+      <c r="S74" s="57"/>
     </row>
     <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
-      <c r="B75" s="74"/>
+      <c r="B75" s="57"/>
       <c r="C75" s="23"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="75"/>
+      <c r="F75" s="58"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="76"/>
+      <c r="H75" s="58"/>
+      <c r="I75" s="59"/>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="74"/>
+      <c r="N75" s="58"/>
+      <c r="O75" s="57"/>
       <c r="P75" s="23"/>
       <c r="Q75" s="23"/>
       <c r="R75" s="23"/>
-      <c r="S75" s="74"/>
+      <c r="S75" s="57"/>
     </row>
     <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
-      <c r="B76" s="74"/>
+      <c r="B76" s="57"/>
       <c r="C76" s="23"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="75"/>
+      <c r="F76" s="58"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="76"/>
+      <c r="H76" s="58"/>
+      <c r="I76" s="59"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
       <c r="M76" s="23"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="74"/>
+      <c r="N76" s="58"/>
+      <c r="O76" s="57"/>
       <c r="P76" s="23"/>
       <c r="Q76" s="23"/>
       <c r="R76" s="23"/>
-      <c r="S76" s="74"/>
+      <c r="S76" s="57"/>
     </row>
     <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
-      <c r="B77" s="74"/>
+      <c r="B77" s="57"/>
       <c r="C77" s="23"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="75"/>
+      <c r="F77" s="58"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="76"/>
+      <c r="H77" s="58"/>
+      <c r="I77" s="59"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
       <c r="M77" s="23"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="74"/>
+      <c r="N77" s="58"/>
+      <c r="O77" s="57"/>
       <c r="P77" s="23"/>
       <c r="Q77" s="23"/>
       <c r="R77" s="23"/>
-      <c r="S77" s="74"/>
+      <c r="S77" s="57"/>
     </row>
     <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
-      <c r="B78" s="74"/>
+      <c r="B78" s="57"/>
       <c r="C78" s="23"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-      <c r="F78" s="75"/>
+      <c r="F78" s="58"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="76"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="59"/>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
       <c r="M78" s="23"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="74"/>
+      <c r="N78" s="58"/>
+      <c r="O78" s="57"/>
       <c r="P78" s="23"/>
       <c r="Q78" s="23"/>
       <c r="R78" s="23"/>
-      <c r="S78" s="74"/>
+      <c r="S78" s="57"/>
     </row>
     <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
-      <c r="B79" s="74"/>
+      <c r="B79" s="57"/>
       <c r="C79" s="23"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="75"/>
+      <c r="F79" s="58"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="76"/>
+      <c r="H79" s="58"/>
+      <c r="I79" s="59"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="74"/>
+      <c r="N79" s="58"/>
+      <c r="O79" s="57"/>
       <c r="P79" s="23"/>
       <c r="Q79" s="23"/>
       <c r="R79" s="23"/>
-      <c r="S79" s="74"/>
+      <c r="S79" s="57"/>
     </row>
     <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="23"/>
-      <c r="B80" s="74"/>
+      <c r="B80" s="57"/>
       <c r="C80" s="23"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="75"/>
+      <c r="F80" s="58"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="76"/>
+      <c r="H80" s="58"/>
+      <c r="I80" s="59"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="74"/>
+      <c r="N80" s="58"/>
+      <c r="O80" s="57"/>
       <c r="P80" s="23"/>
       <c r="Q80" s="23"/>
       <c r="R80" s="23"/>
-      <c r="S80" s="74"/>
+      <c r="S80" s="57"/>
     </row>
     <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="23"/>
-      <c r="B81" s="74"/>
+      <c r="B81" s="57"/>
       <c r="C81" s="23"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
-      <c r="F81" s="75"/>
+      <c r="F81" s="58"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="76"/>
+      <c r="H81" s="58"/>
+      <c r="I81" s="59"/>
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
       <c r="M81" s="23"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="74"/>
+      <c r="N81" s="58"/>
+      <c r="O81" s="57"/>
       <c r="P81" s="23"/>
       <c r="Q81" s="23"/>
       <c r="R81" s="23"/>
-      <c r="S81" s="74"/>
+      <c r="S81" s="57"/>
     </row>
     <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
-      <c r="B82" s="74"/>
+      <c r="B82" s="57"/>
       <c r="C82" s="23"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
-      <c r="F82" s="75"/>
+      <c r="F82" s="58"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="76"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="59"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
       <c r="M82" s="23"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="74"/>
+      <c r="N82" s="58"/>
+      <c r="O82" s="57"/>
       <c r="P82" s="23"/>
       <c r="Q82" s="23"/>
       <c r="R82" s="23"/>
-      <c r="S82" s="74"/>
+      <c r="S82" s="57"/>
     </row>
     <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
-      <c r="B83" s="74"/>
+      <c r="B83" s="57"/>
       <c r="C83" s="23"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
-      <c r="F83" s="75"/>
+      <c r="F83" s="58"/>
       <c r="G83" s="23"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="76"/>
+      <c r="H83" s="58"/>
+      <c r="I83" s="59"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="74"/>
+      <c r="N83" s="58"/>
+      <c r="O83" s="57"/>
       <c r="P83" s="23"/>
       <c r="Q83" s="23"/>
       <c r="R83" s="23"/>
-      <c r="S83" s="74"/>
+      <c r="S83" s="57"/>
     </row>
     <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
-      <c r="B84" s="74"/>
+      <c r="B84" s="57"/>
       <c r="C84" s="23"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="75"/>
+      <c r="F84" s="58"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="76"/>
+      <c r="H84" s="58"/>
+      <c r="I84" s="59"/>
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="74"/>
+      <c r="N84" s="58"/>
+      <c r="O84" s="57"/>
       <c r="P84" s="23"/>
       <c r="Q84" s="23"/>
       <c r="R84" s="23"/>
-      <c r="S84" s="74"/>
+      <c r="S84" s="57"/>
     </row>
     <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
-      <c r="B85" s="74"/>
+      <c r="B85" s="57"/>
       <c r="C85" s="23"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-      <c r="F85" s="75"/>
+      <c r="F85" s="58"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="76"/>
+      <c r="H85" s="58"/>
+      <c r="I85" s="59"/>
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="74"/>
+      <c r="N85" s="58"/>
+      <c r="O85" s="57"/>
       <c r="P85" s="23"/>
       <c r="Q85" s="23"/>
       <c r="R85" s="23"/>
-      <c r="S85" s="74"/>
+      <c r="S85" s="57"/>
     </row>
     <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
-      <c r="B86" s="74"/>
+      <c r="B86" s="57"/>
       <c r="C86" s="23"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
-      <c r="F86" s="75"/>
+      <c r="F86" s="58"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="76"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="59"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
       <c r="M86" s="23"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="74"/>
+      <c r="N86" s="58"/>
+      <c r="O86" s="57"/>
       <c r="P86" s="23"/>
       <c r="Q86" s="23"/>
       <c r="R86" s="23"/>
-      <c r="S86" s="74"/>
+      <c r="S86" s="57"/>
     </row>
     <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
-      <c r="B87" s="74"/>
+      <c r="B87" s="57"/>
       <c r="C87" s="23"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-      <c r="F87" s="75"/>
+      <c r="F87" s="58"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="76"/>
+      <c r="H87" s="58"/>
+      <c r="I87" s="59"/>
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="74"/>
+      <c r="N87" s="58"/>
+      <c r="O87" s="57"/>
       <c r="P87" s="23"/>
       <c r="Q87" s="23"/>
       <c r="R87" s="23"/>
-      <c r="S87" s="74"/>
+      <c r="S87" s="57"/>
     </row>
     <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
-      <c r="B88" s="74"/>
+      <c r="B88" s="57"/>
       <c r="C88" s="23"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-      <c r="F88" s="75"/>
+      <c r="F88" s="58"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="76"/>
+      <c r="H88" s="58"/>
+      <c r="I88" s="59"/>
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
       <c r="M88" s="23"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="74"/>
+      <c r="N88" s="58"/>
+      <c r="O88" s="57"/>
       <c r="P88" s="23"/>
       <c r="Q88" s="23"/>
       <c r="R88" s="23"/>
-      <c r="S88" s="74"/>
+      <c r="S88" s="57"/>
     </row>
     <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="23"/>
-      <c r="B89" s="74"/>
+      <c r="B89" s="57"/>
       <c r="C89" s="23"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-      <c r="F89" s="75"/>
+      <c r="F89" s="58"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="75"/>
-      <c r="I89" s="76"/>
+      <c r="H89" s="58"/>
+      <c r="I89" s="59"/>
       <c r="J89" s="23"/>
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
       <c r="M89" s="23"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="74"/>
+      <c r="N89" s="58"/>
+      <c r="O89" s="57"/>
       <c r="P89" s="23"/>
       <c r="Q89" s="23"/>
       <c r="R89" s="23"/>
-      <c r="S89" s="74"/>
+      <c r="S89" s="57"/>
     </row>
     <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
-      <c r="B90" s="74"/>
+      <c r="B90" s="57"/>
       <c r="C90" s="23"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-      <c r="F90" s="75"/>
+      <c r="F90" s="58"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="76"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="59"/>
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
       <c r="M90" s="23"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="74"/>
+      <c r="N90" s="58"/>
+      <c r="O90" s="57"/>
       <c r="P90" s="23"/>
       <c r="Q90" s="23"/>
       <c r="R90" s="23"/>
-      <c r="S90" s="74"/>
+      <c r="S90" s="57"/>
     </row>
     <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
-      <c r="B91" s="74"/>
+      <c r="B91" s="57"/>
       <c r="C91" s="23"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="F91" s="75"/>
+      <c r="F91" s="58"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="76"/>
+      <c r="H91" s="58"/>
+      <c r="I91" s="59"/>
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
       <c r="M91" s="23"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="74"/>
+      <c r="N91" s="58"/>
+      <c r="O91" s="57"/>
       <c r="P91" s="23"/>
       <c r="Q91" s="23"/>
       <c r="R91" s="23"/>
-      <c r="S91" s="74"/>
+      <c r="S91" s="57"/>
     </row>
     <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
-      <c r="B92" s="74"/>
+      <c r="B92" s="57"/>
       <c r="C92" s="23"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
-      <c r="F92" s="75"/>
+      <c r="F92" s="58"/>
       <c r="G92" s="23"/>
-      <c r="H92" s="75"/>
-      <c r="I92" s="76"/>
+      <c r="H92" s="58"/>
+      <c r="I92" s="59"/>
       <c r="J92" s="23"/>
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
       <c r="M92" s="23"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="74"/>
+      <c r="N92" s="58"/>
+      <c r="O92" s="57"/>
       <c r="P92" s="23"/>
       <c r="Q92" s="23"/>
       <c r="R92" s="23"/>
-      <c r="S92" s="74"/>
+      <c r="S92" s="57"/>
     </row>
     <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
-      <c r="B93" s="74"/>
+      <c r="B93" s="57"/>
       <c r="C93" s="23"/>
       <c r="D93" s="15"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="75"/>
+      <c r="F93" s="58"/>
       <c r="G93" s="23"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="76"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="59"/>
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
       <c r="M93" s="23"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="74"/>
+      <c r="N93" s="58"/>
+      <c r="O93" s="57"/>
       <c r="P93" s="23"/>
       <c r="Q93" s="23"/>
       <c r="R93" s="23"/>
-      <c r="S93" s="74"/>
+      <c r="S93" s="57"/>
     </row>
     <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
-      <c r="B94" s="74"/>
+      <c r="B94" s="57"/>
       <c r="C94" s="23"/>
       <c r="D94" s="15"/>
       <c r="E94" s="23"/>
-      <c r="F94" s="75"/>
+      <c r="F94" s="58"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="76"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="59"/>
       <c r="J94" s="23"/>
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
       <c r="M94" s="23"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="74"/>
+      <c r="N94" s="58"/>
+      <c r="O94" s="57"/>
       <c r="P94" s="23"/>
       <c r="Q94" s="23"/>
       <c r="R94" s="23"/>
-      <c r="S94" s="74"/>
+      <c r="S94" s="57"/>
     </row>
     <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
-      <c r="B95" s="74"/>
+      <c r="B95" s="57"/>
       <c r="C95" s="23"/>
       <c r="D95" s="15"/>
       <c r="E95" s="23"/>
-      <c r="F95" s="75"/>
+      <c r="F95" s="58"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="76"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="59"/>
       <c r="J95" s="23"/>
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
       <c r="M95" s="23"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="74"/>
+      <c r="N95" s="58"/>
+      <c r="O95" s="57"/>
       <c r="P95" s="23"/>
       <c r="Q95" s="23"/>
       <c r="R95" s="23"/>
-      <c r="S95" s="74"/>
+      <c r="S95" s="57"/>
     </row>
     <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="23"/>
-      <c r="B96" s="74"/>
+      <c r="B96" s="57"/>
       <c r="C96" s="23"/>
       <c r="D96" s="15"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="75"/>
+      <c r="F96" s="58"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="76"/>
+      <c r="H96" s="58"/>
+      <c r="I96" s="59"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
       <c r="M96" s="23"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="74"/>
+      <c r="N96" s="58"/>
+      <c r="O96" s="57"/>
       <c r="P96" s="23"/>
       <c r="Q96" s="23"/>
       <c r="R96" s="23"/>
-      <c r="S96" s="74"/>
+      <c r="S96" s="57"/>
     </row>
     <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="23"/>
-      <c r="B97" s="74"/>
+      <c r="B97" s="57"/>
       <c r="C97" s="23"/>
       <c r="D97" s="15"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="75"/>
+      <c r="F97" s="58"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="76"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="59"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
       <c r="M97" s="23"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="74"/>
+      <c r="N97" s="58"/>
+      <c r="O97" s="57"/>
       <c r="P97" s="23"/>
       <c r="Q97" s="23"/>
       <c r="R97" s="23"/>
-      <c r="S97" s="74"/>
+      <c r="S97" s="57"/>
     </row>
     <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
-      <c r="B98" s="74"/>
+      <c r="B98" s="57"/>
       <c r="C98" s="23"/>
       <c r="D98" s="15"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="75"/>
+      <c r="F98" s="58"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="75"/>
-      <c r="I98" s="76"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="59"/>
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
       <c r="M98" s="23"/>
-      <c r="N98" s="75"/>
-      <c r="O98" s="74"/>
+      <c r="N98" s="58"/>
+      <c r="O98" s="57"/>
       <c r="P98" s="23"/>
       <c r="Q98" s="23"/>
       <c r="R98" s="23"/>
-      <c r="S98" s="74"/>
+      <c r="S98" s="57"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
-      <c r="B99" s="74"/>
+      <c r="B99" s="57"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="75"/>
+      <c r="F99" s="58"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="76"/>
+      <c r="H99" s="58"/>
+      <c r="I99" s="59"/>
       <c r="J99" s="23"/>
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
       <c r="M99" s="23"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="74"/>
+      <c r="N99" s="58"/>
+      <c r="O99" s="57"/>
       <c r="P99" s="23"/>
       <c r="Q99" s="23"/>
       <c r="R99" s="23"/>
-      <c r="S99" s="74"/>
+      <c r="S99" s="57"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
-      <c r="B100" s="74"/>
+      <c r="B100" s="57"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="75"/>
+      <c r="F100" s="58"/>
       <c r="G100" s="23"/>
-      <c r="H100" s="75"/>
-      <c r="I100" s="76"/>
+      <c r="H100" s="58"/>
+      <c r="I100" s="59"/>
       <c r="J100" s="23"/>
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
       <c r="M100" s="23"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="74"/>
+      <c r="N100" s="58"/>
+      <c r="O100" s="57"/>
       <c r="P100" s="23"/>
       <c r="Q100" s="23"/>
       <c r="R100" s="23"/>
-      <c r="S100" s="74"/>
+      <c r="S100" s="57"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
-      <c r="B101" s="74"/>
+      <c r="B101" s="57"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
-      <c r="F101" s="75"/>
+      <c r="F101" s="58"/>
       <c r="G101" s="23"/>
-      <c r="H101" s="75"/>
-      <c r="I101" s="76"/>
+      <c r="H101" s="58"/>
+      <c r="I101" s="59"/>
       <c r="J101" s="23"/>
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
       <c r="M101" s="23"/>
-      <c r="N101" s="75"/>
-      <c r="O101" s="74"/>
+      <c r="N101" s="58"/>
+      <c r="O101" s="57"/>
       <c r="P101" s="23"/>
       <c r="Q101" s="23"/>
       <c r="R101" s="23"/>
-      <c r="S101" s="74"/>
+      <c r="S101" s="57"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
-      <c r="B102" s="74"/>
+      <c r="B102" s="57"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
-      <c r="F102" s="75"/>
+      <c r="F102" s="58"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="75"/>
-      <c r="I102" s="76"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="59"/>
       <c r="J102" s="23"/>
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
       <c r="M102" s="23"/>
-      <c r="N102" s="75"/>
-      <c r="O102" s="74"/>
+      <c r="N102" s="58"/>
+      <c r="O102" s="57"/>
       <c r="P102" s="23"/>
       <c r="Q102" s="23"/>
       <c r="R102" s="23"/>
-      <c r="S102" s="74"/>
+      <c r="S102" s="57"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
-      <c r="B103" s="74"/>
+      <c r="B103" s="57"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
-      <c r="F103" s="75"/>
+      <c r="F103" s="58"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="75"/>
-      <c r="I103" s="76"/>
+      <c r="H103" s="58"/>
+      <c r="I103" s="59"/>
       <c r="J103" s="23"/>
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
       <c r="M103" s="23"/>
-      <c r="N103" s="75"/>
-      <c r="O103" s="74"/>
+      <c r="N103" s="58"/>
+      <c r="O103" s="57"/>
       <c r="P103" s="23"/>
       <c r="Q103" s="23"/>
       <c r="R103" s="23"/>
-      <c r="S103" s="74"/>
+      <c r="S103" s="57"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="23"/>
-      <c r="B104" s="74"/>
+      <c r="B104" s="57"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
-      <c r="F104" s="75"/>
+      <c r="F104" s="58"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="75"/>
-      <c r="I104" s="76"/>
+      <c r="H104" s="58"/>
+      <c r="I104" s="59"/>
       <c r="J104" s="23"/>
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
-      <c r="N104" s="75"/>
-      <c r="O104" s="74"/>
+      <c r="N104" s="58"/>
+      <c r="O104" s="57"/>
       <c r="P104" s="23"/>
       <c r="Q104" s="23"/>
       <c r="R104" s="23"/>
-      <c r="S104" s="74"/>
+      <c r="S104" s="57"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="23"/>
-      <c r="B105" s="74"/>
+      <c r="B105" s="57"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="75"/>
+      <c r="F105" s="58"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="76"/>
+      <c r="H105" s="58"/>
+      <c r="I105" s="59"/>
       <c r="J105" s="23"/>
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
       <c r="M105" s="23"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="74"/>
+      <c r="N105" s="58"/>
+      <c r="O105" s="57"/>
       <c r="P105" s="23"/>
       <c r="Q105" s="23"/>
       <c r="R105" s="23"/>
-      <c r="S105" s="74"/>
+      <c r="S105" s="57"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
-      <c r="B106" s="74"/>
+      <c r="B106" s="57"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="75"/>
+      <c r="F106" s="58"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="75"/>
-      <c r="I106" s="76"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="59"/>
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
       <c r="L106" s="23"/>
       <c r="M106" s="23"/>
-      <c r="N106" s="75"/>
-      <c r="O106" s="74"/>
+      <c r="N106" s="58"/>
+      <c r="O106" s="57"/>
       <c r="P106" s="23"/>
       <c r="Q106" s="23"/>
       <c r="R106" s="23"/>
-      <c r="S106" s="74"/>
+      <c r="S106" s="57"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
-      <c r="B107" s="74"/>
+      <c r="B107" s="57"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
-      <c r="F107" s="75"/>
+      <c r="F107" s="58"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="75"/>
-      <c r="I107" s="76"/>
+      <c r="H107" s="58"/>
+      <c r="I107" s="59"/>
       <c r="J107" s="23"/>
       <c r="K107" s="23"/>
       <c r="L107" s="23"/>
       <c r="M107" s="23"/>
-      <c r="N107" s="75"/>
-      <c r="O107" s="74"/>
+      <c r="N107" s="58"/>
+      <c r="O107" s="57"/>
       <c r="P107" s="23"/>
       <c r="Q107" s="23"/>
       <c r="R107" s="23"/>
-      <c r="S107" s="74"/>
+      <c r="S107" s="57"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
-      <c r="B108" s="74"/>
+      <c r="B108" s="57"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
-      <c r="F108" s="75"/>
+      <c r="F108" s="58"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="76"/>
+      <c r="H108" s="58"/>
+      <c r="I108" s="59"/>
       <c r="J108" s="23"/>
       <c r="K108" s="23"/>
       <c r="L108" s="23"/>
       <c r="M108" s="23"/>
-      <c r="N108" s="75"/>
-      <c r="O108" s="74"/>
+      <c r="N108" s="58"/>
+      <c r="O108" s="57"/>
       <c r="P108" s="23"/>
       <c r="Q108" s="23"/>
       <c r="R108" s="23"/>
-      <c r="S108" s="74"/>
+      <c r="S108" s="57"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
-      <c r="B109" s="74"/>
+      <c r="B109" s="57"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
-      <c r="F109" s="75"/>
+      <c r="F109" s="58"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="76"/>
+      <c r="H109" s="58"/>
+      <c r="I109" s="59"/>
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
       <c r="L109" s="23"/>
       <c r="M109" s="23"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="74"/>
+      <c r="N109" s="58"/>
+      <c r="O109" s="57"/>
       <c r="P109" s="23"/>
       <c r="Q109" s="23"/>
       <c r="R109" s="23"/>
-      <c r="S109" s="74"/>
+      <c r="S109" s="57"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
-      <c r="B110" s="74"/>
+      <c r="B110" s="57"/>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="75"/>
+      <c r="F110" s="58"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="75"/>
-      <c r="I110" s="76"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="59"/>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
       <c r="M110" s="23"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="74"/>
+      <c r="N110" s="58"/>
+      <c r="O110" s="57"/>
       <c r="P110" s="23"/>
       <c r="Q110" s="23"/>
       <c r="R110" s="23"/>
-      <c r="S110" s="74"/>
+      <c r="S110" s="57"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
-      <c r="B111" s="74"/>
+      <c r="B111" s="57"/>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
-      <c r="F111" s="75"/>
+      <c r="F111" s="58"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="76"/>
+      <c r="H111" s="58"/>
+      <c r="I111" s="59"/>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
       <c r="M111" s="23"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="74"/>
+      <c r="N111" s="58"/>
+      <c r="O111" s="57"/>
       <c r="P111" s="23"/>
       <c r="Q111" s="23"/>
       <c r="R111" s="23"/>
-      <c r="S111" s="74"/>
+      <c r="S111" s="57"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="23"/>
-      <c r="B112" s="74"/>
+      <c r="B112" s="57"/>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
-      <c r="F112" s="75"/>
+      <c r="F112" s="58"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="75"/>
-      <c r="I112" s="76"/>
+      <c r="H112" s="58"/>
+      <c r="I112" s="59"/>
       <c r="J112" s="23"/>
       <c r="K112" s="23"/>
       <c r="L112" s="23"/>
       <c r="M112" s="23"/>
-      <c r="N112" s="75"/>
-      <c r="O112" s="74"/>
+      <c r="N112" s="58"/>
+      <c r="O112" s="57"/>
       <c r="P112" s="23"/>
       <c r="Q112" s="23"/>
       <c r="R112" s="23"/>
-      <c r="S112" s="74"/>
+      <c r="S112" s="57"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
-      <c r="B113" s="74"/>
+      <c r="B113" s="57"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
-      <c r="F113" s="75"/>
+      <c r="F113" s="58"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="75"/>
-      <c r="I113" s="76"/>
+      <c r="H113" s="58"/>
+      <c r="I113" s="59"/>
       <c r="J113" s="23"/>
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
       <c r="M113" s="23"/>
-      <c r="N113" s="75"/>
-      <c r="O113" s="74"/>
+      <c r="N113" s="58"/>
+      <c r="O113" s="57"/>
       <c r="P113" s="23"/>
       <c r="Q113" s="23"/>
       <c r="R113" s="23"/>
-      <c r="S113" s="74"/>
+      <c r="S113" s="57"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
-      <c r="B114" s="74"/>
+      <c r="B114" s="57"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
-      <c r="F114" s="75"/>
+      <c r="F114" s="58"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="75"/>
-      <c r="I114" s="76"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="59"/>
       <c r="J114" s="23"/>
       <c r="K114" s="23"/>
       <c r="L114" s="23"/>
       <c r="M114" s="23"/>
-      <c r="N114" s="75"/>
-      <c r="O114" s="74"/>
+      <c r="N114" s="58"/>
+      <c r="O114" s="57"/>
       <c r="P114" s="23"/>
       <c r="Q114" s="23"/>
       <c r="R114" s="23"/>
-      <c r="S114" s="74"/>
+      <c r="S114" s="57"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
-      <c r="B115" s="74"/>
+      <c r="B115" s="57"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
-      <c r="F115" s="75"/>
+      <c r="F115" s="58"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="75"/>
-      <c r="I115" s="76"/>
+      <c r="H115" s="58"/>
+      <c r="I115" s="59"/>
       <c r="J115" s="23"/>
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
       <c r="M115" s="23"/>
-      <c r="N115" s="75"/>
-      <c r="O115" s="74"/>
+      <c r="N115" s="58"/>
+      <c r="O115" s="57"/>
       <c r="P115" s="23"/>
       <c r="Q115" s="23"/>
       <c r="R115" s="23"/>
-      <c r="S115" s="74"/>
+      <c r="S115" s="57"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
-      <c r="B116" s="74"/>
+      <c r="B116" s="57"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
-      <c r="F116" s="75"/>
+      <c r="F116" s="58"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="75"/>
-      <c r="I116" s="76"/>
+      <c r="H116" s="58"/>
+      <c r="I116" s="59"/>
       <c r="J116" s="23"/>
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
       <c r="M116" s="23"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="74"/>
+      <c r="N116" s="58"/>
+      <c r="O116" s="57"/>
       <c r="P116" s="23"/>
       <c r="Q116" s="23"/>
       <c r="R116" s="23"/>
-      <c r="S116" s="74"/>
+      <c r="S116" s="57"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
-      <c r="B117" s="74"/>
+      <c r="B117" s="57"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
-      <c r="F117" s="75"/>
+      <c r="F117" s="58"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="75"/>
-      <c r="I117" s="76"/>
+      <c r="H117" s="58"/>
+      <c r="I117" s="59"/>
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
       <c r="M117" s="23"/>
-      <c r="N117" s="75"/>
-      <c r="O117" s="74"/>
+      <c r="N117" s="58"/>
+      <c r="O117" s="57"/>
       <c r="P117" s="23"/>
       <c r="Q117" s="23"/>
       <c r="R117" s="23"/>
-      <c r="S117" s="74"/>
+      <c r="S117" s="57"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
-      <c r="B118" s="74"/>
+      <c r="B118" s="57"/>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
-      <c r="F118" s="75"/>
+      <c r="F118" s="58"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="75"/>
-      <c r="I118" s="76"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="59"/>
       <c r="J118" s="23"/>
       <c r="K118" s="23"/>
       <c r="L118" s="23"/>
       <c r="M118" s="23"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="74"/>
+      <c r="N118" s="58"/>
+      <c r="O118" s="57"/>
       <c r="P118" s="23"/>
       <c r="Q118" s="23"/>
       <c r="R118" s="23"/>
-      <c r="S118" s="74"/>
+      <c r="S118" s="57"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
-      <c r="B119" s="74"/>
+      <c r="B119" s="57"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
-      <c r="F119" s="75"/>
+      <c r="F119" s="58"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="76"/>
+      <c r="H119" s="58"/>
+      <c r="I119" s="59"/>
       <c r="J119" s="23"/>
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="74"/>
+      <c r="N119" s="58"/>
+      <c r="O119" s="57"/>
       <c r="P119" s="23"/>
       <c r="Q119" s="23"/>
       <c r="R119" s="23"/>
-      <c r="S119" s="74"/>
+      <c r="S119" s="57"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
-      <c r="B120" s="74"/>
+      <c r="B120" s="57"/>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
-      <c r="F120" s="75"/>
+      <c r="F120" s="58"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="75"/>
-      <c r="I120" s="76"/>
+      <c r="H120" s="58"/>
+      <c r="I120" s="59"/>
       <c r="J120" s="23"/>
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
       <c r="M120" s="23"/>
-      <c r="N120" s="75"/>
-      <c r="O120" s="74"/>
+      <c r="N120" s="58"/>
+      <c r="O120" s="57"/>
       <c r="P120" s="23"/>
       <c r="Q120" s="23"/>
       <c r="R120" s="23"/>
-      <c r="S120" s="74"/>
+      <c r="S120" s="57"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="23"/>
-      <c r="B121" s="74"/>
+      <c r="B121" s="57"/>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
-      <c r="F121" s="75"/>
+      <c r="F121" s="58"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="76"/>
+      <c r="H121" s="58"/>
+      <c r="I121" s="59"/>
       <c r="J121" s="23"/>
       <c r="K121" s="23"/>
       <c r="L121" s="23"/>
       <c r="M121" s="23"/>
-      <c r="N121" s="75"/>
-      <c r="O121" s="74"/>
+      <c r="N121" s="58"/>
+      <c r="O121" s="57"/>
       <c r="P121" s="23"/>
       <c r="Q121" s="23"/>
       <c r="R121" s="23"/>
-      <c r="S121" s="74"/>
+      <c r="S121" s="57"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
-      <c r="B122" s="74"/>
+      <c r="B122" s="57"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
-      <c r="F122" s="75"/>
+      <c r="F122" s="58"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="76"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="59"/>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="23"/>
       <c r="M122" s="23"/>
-      <c r="N122" s="75"/>
-      <c r="O122" s="74"/>
+      <c r="N122" s="58"/>
+      <c r="O122" s="57"/>
       <c r="P122" s="23"/>
       <c r="Q122" s="23"/>
       <c r="R122" s="23"/>
-      <c r="S122" s="74"/>
+      <c r="S122" s="57"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
-      <c r="B123" s="74"/>
+      <c r="B123" s="57"/>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
-      <c r="F123" s="75"/>
+      <c r="F123" s="58"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="75"/>
-      <c r="I123" s="76"/>
+      <c r="H123" s="58"/>
+      <c r="I123" s="59"/>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
       <c r="M123" s="23"/>
-      <c r="N123" s="75"/>
-      <c r="O123" s="74"/>
+      <c r="N123" s="58"/>
+      <c r="O123" s="57"/>
       <c r="P123" s="23"/>
       <c r="Q123" s="23"/>
       <c r="R123" s="23"/>
-      <c r="S123" s="74"/>
+      <c r="S123" s="57"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
-      <c r="B124" s="74"/>
+      <c r="B124" s="57"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
-      <c r="F124" s="75"/>
+      <c r="F124" s="58"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="75"/>
-      <c r="I124" s="76"/>
+      <c r="H124" s="58"/>
+      <c r="I124" s="59"/>
       <c r="J124" s="23"/>
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
       <c r="M124" s="23"/>
-      <c r="N124" s="75"/>
-      <c r="O124" s="74"/>
+      <c r="N124" s="58"/>
+      <c r="O124" s="57"/>
       <c r="P124" s="23"/>
       <c r="Q124" s="23"/>
       <c r="R124" s="23"/>
-      <c r="S124" s="74"/>
+      <c r="S124" s="57"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
-      <c r="B125" s="74"/>
+      <c r="B125" s="57"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
-      <c r="F125" s="75"/>
+      <c r="F125" s="58"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="75"/>
-      <c r="I125" s="76"/>
+      <c r="H125" s="58"/>
+      <c r="I125" s="59"/>
       <c r="J125" s="23"/>
       <c r="K125" s="23"/>
       <c r="L125" s="23"/>
       <c r="M125" s="23"/>
-      <c r="N125" s="75"/>
-      <c r="O125" s="74"/>
+      <c r="N125" s="58"/>
+      <c r="O125" s="57"/>
       <c r="P125" s="23"/>
       <c r="Q125" s="23"/>
       <c r="R125" s="23"/>
-      <c r="S125" s="74"/>
+      <c r="S125" s="57"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
-      <c r="B126" s="74"/>
+      <c r="B126" s="57"/>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
-      <c r="F126" s="75"/>
+      <c r="F126" s="58"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="75"/>
-      <c r="I126" s="76"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="59"/>
       <c r="J126" s="23"/>
       <c r="K126" s="23"/>
       <c r="L126" s="23"/>
       <c r="M126" s="23"/>
-      <c r="N126" s="75"/>
-      <c r="O126" s="74"/>
+      <c r="N126" s="58"/>
+      <c r="O126" s="57"/>
       <c r="P126" s="23"/>
       <c r="Q126" s="23"/>
       <c r="R126" s="23"/>
-      <c r="S126" s="74"/>
+      <c r="S126" s="57"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
-      <c r="B127" s="74"/>
+      <c r="B127" s="57"/>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
-      <c r="F127" s="75"/>
+      <c r="F127" s="58"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="75"/>
-      <c r="I127" s="76"/>
+      <c r="H127" s="58"/>
+      <c r="I127" s="59"/>
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
-      <c r="N127" s="75"/>
-      <c r="O127" s="74"/>
+      <c r="N127" s="58"/>
+      <c r="O127" s="57"/>
       <c r="P127" s="23"/>
       <c r="Q127" s="23"/>
       <c r="R127" s="23"/>
-      <c r="S127" s="74"/>
+      <c r="S127" s="57"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
-      <c r="B128" s="74"/>
+      <c r="B128" s="57"/>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
-      <c r="F128" s="75"/>
+      <c r="F128" s="58"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="75"/>
-      <c r="I128" s="76"/>
+      <c r="H128" s="58"/>
+      <c r="I128" s="59"/>
       <c r="J128" s="23"/>
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
-      <c r="N128" s="75"/>
-      <c r="O128" s="74"/>
+      <c r="N128" s="58"/>
+      <c r="O128" s="57"/>
       <c r="P128" s="23"/>
       <c r="Q128" s="23"/>
       <c r="R128" s="23"/>
-      <c r="S128" s="74"/>
+      <c r="S128" s="57"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
-      <c r="B129" s="74"/>
+      <c r="B129" s="57"/>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
-      <c r="F129" s="75"/>
+      <c r="F129" s="58"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="75"/>
-      <c r="I129" s="76"/>
+      <c r="H129" s="58"/>
+      <c r="I129" s="59"/>
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
-      <c r="N129" s="75"/>
-      <c r="O129" s="74"/>
+      <c r="N129" s="58"/>
+      <c r="O129" s="57"/>
       <c r="P129" s="23"/>
       <c r="Q129" s="23"/>
       <c r="R129" s="23"/>
-      <c r="S129" s="74"/>
+      <c r="S129" s="57"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
-      <c r="B130" s="74"/>
+      <c r="B130" s="57"/>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
-      <c r="F130" s="75"/>
+      <c r="F130" s="58"/>
       <c r="G130" s="23"/>
-      <c r="H130" s="75"/>
-      <c r="I130" s="76"/>
+      <c r="H130" s="58"/>
+      <c r="I130" s="59"/>
       <c r="J130" s="23"/>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
-      <c r="N130" s="75"/>
-      <c r="O130" s="74"/>
+      <c r="N130" s="58"/>
+      <c r="O130" s="57"/>
       <c r="P130" s="23"/>
       <c r="Q130" s="23"/>
       <c r="R130" s="23"/>
-      <c r="S130" s="74"/>
+      <c r="S130" s="57"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
-      <c r="B131" s="74"/>
+      <c r="B131" s="57"/>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
-      <c r="F131" s="75"/>
+      <c r="F131" s="58"/>
       <c r="G131" s="23"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="76"/>
+      <c r="H131" s="58"/>
+      <c r="I131" s="59"/>
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="74"/>
+      <c r="N131" s="58"/>
+      <c r="O131" s="57"/>
       <c r="P131" s="23"/>
       <c r="Q131" s="23"/>
       <c r="R131" s="23"/>
-      <c r="S131" s="74"/>
+      <c r="S131" s="57"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
-      <c r="B132" s="74"/>
+      <c r="B132" s="57"/>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
-      <c r="F132" s="75"/>
+      <c r="F132" s="58"/>
       <c r="G132" s="23"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="76"/>
+      <c r="H132" s="58"/>
+      <c r="I132" s="59"/>
       <c r="J132" s="23"/>
       <c r="K132" s="23"/>
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="74"/>
+      <c r="N132" s="58"/>
+      <c r="O132" s="57"/>
       <c r="P132" s="23"/>
       <c r="Q132" s="23"/>
       <c r="R132" s="23"/>
-      <c r="S132" s="74"/>
+      <c r="S132" s="57"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
-      <c r="B133" s="74"/>
+      <c r="B133" s="57"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
-      <c r="F133" s="75"/>
+      <c r="F133" s="58"/>
       <c r="G133" s="23"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="76"/>
+      <c r="H133" s="58"/>
+      <c r="I133" s="59"/>
       <c r="J133" s="23"/>
       <c r="K133" s="23"/>
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="74"/>
+      <c r="N133" s="58"/>
+      <c r="O133" s="57"/>
       <c r="P133" s="23"/>
       <c r="Q133" s="23"/>
       <c r="R133" s="23"/>
-      <c r="S133" s="74"/>
+      <c r="S133" s="57"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
-      <c r="B134" s="74"/>
+      <c r="B134" s="57"/>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
-      <c r="F134" s="75"/>
+      <c r="F134" s="58"/>
       <c r="G134" s="23"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="76"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="59"/>
       <c r="J134" s="23"/>
       <c r="K134" s="23"/>
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
-      <c r="N134" s="75"/>
-      <c r="O134" s="74"/>
+      <c r="N134" s="58"/>
+      <c r="O134" s="57"/>
       <c r="P134" s="23"/>
       <c r="Q134" s="23"/>
       <c r="R134" s="23"/>
-      <c r="S134" s="74"/>
+      <c r="S134" s="57"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
-      <c r="B135" s="74"/>
+      <c r="B135" s="57"/>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
-      <c r="F135" s="75"/>
+      <c r="F135" s="58"/>
       <c r="G135" s="23"/>
-      <c r="H135" s="75"/>
-      <c r="I135" s="76"/>
+      <c r="H135" s="58"/>
+      <c r="I135" s="59"/>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
-      <c r="N135" s="75"/>
-      <c r="O135" s="74"/>
+      <c r="N135" s="58"/>
+      <c r="O135" s="57"/>
       <c r="P135" s="23"/>
       <c r="Q135" s="23"/>
       <c r="R135" s="23"/>
-      <c r="S135" s="74"/>
+      <c r="S135" s="57"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
-      <c r="B136" s="74"/>
+      <c r="B136" s="57"/>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
-      <c r="F136" s="75"/>
+      <c r="F136" s="58"/>
       <c r="G136" s="23"/>
-      <c r="H136" s="75"/>
-      <c r="I136" s="76"/>
+      <c r="H136" s="58"/>
+      <c r="I136" s="59"/>
       <c r="J136" s="23"/>
       <c r="K136" s="23"/>
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
-      <c r="N136" s="75"/>
-      <c r="O136" s="74"/>
+      <c r="N136" s="58"/>
+      <c r="O136" s="57"/>
       <c r="P136" s="23"/>
       <c r="Q136" s="23"/>
       <c r="R136" s="23"/>
-      <c r="S136" s="74"/>
+      <c r="S136" s="57"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
-      <c r="B137" s="74"/>
+      <c r="B137" s="57"/>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
-      <c r="F137" s="75"/>
+      <c r="F137" s="58"/>
       <c r="G137" s="23"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="76"/>
+      <c r="H137" s="58"/>
+      <c r="I137" s="59"/>
       <c r="J137" s="23"/>
       <c r="K137" s="23"/>
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
-      <c r="N137" s="75"/>
-      <c r="O137" s="74"/>
+      <c r="N137" s="58"/>
+      <c r="O137" s="57"/>
       <c r="P137" s="23"/>
       <c r="Q137" s="23"/>
       <c r="R137" s="23"/>
-      <c r="S137" s="74"/>
+      <c r="S137" s="57"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
-      <c r="B138" s="74"/>
+      <c r="B138" s="57"/>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
-      <c r="F138" s="75"/>
+      <c r="F138" s="58"/>
       <c r="G138" s="23"/>
-      <c r="H138" s="75"/>
-      <c r="I138" s="76"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="59"/>
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
-      <c r="N138" s="75"/>
-      <c r="O138" s="74"/>
+      <c r="N138" s="58"/>
+      <c r="O138" s="57"/>
       <c r="P138" s="23"/>
       <c r="Q138" s="23"/>
       <c r="R138" s="23"/>
-      <c r="S138" s="74"/>
+      <c r="S138" s="57"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
-      <c r="B139" s="74"/>
+      <c r="B139" s="57"/>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
-      <c r="F139" s="75"/>
+      <c r="F139" s="58"/>
       <c r="G139" s="23"/>
-      <c r="H139" s="75"/>
-      <c r="I139" s="76"/>
+      <c r="H139" s="58"/>
+      <c r="I139" s="59"/>
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
-      <c r="N139" s="75"/>
-      <c r="O139" s="74"/>
+      <c r="N139" s="58"/>
+      <c r="O139" s="57"/>
       <c r="P139" s="23"/>
       <c r="Q139" s="23"/>
       <c r="R139" s="23"/>
-      <c r="S139" s="74"/>
+      <c r="S139" s="57"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
-      <c r="B140" s="74"/>
+      <c r="B140" s="57"/>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
-      <c r="F140" s="75"/>
+      <c r="F140" s="58"/>
       <c r="G140" s="23"/>
-      <c r="H140" s="75"/>
-      <c r="I140" s="76"/>
+      <c r="H140" s="58"/>
+      <c r="I140" s="59"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
-      <c r="N140" s="75"/>
-      <c r="O140" s="74"/>
+      <c r="N140" s="58"/>
+      <c r="O140" s="57"/>
       <c r="P140" s="23"/>
       <c r="Q140" s="23"/>
       <c r="R140" s="23"/>
-      <c r="S140" s="74"/>
+      <c r="S140" s="57"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
-      <c r="B141" s="74"/>
+      <c r="B141" s="57"/>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
-      <c r="F141" s="75"/>
+      <c r="F141" s="58"/>
       <c r="G141" s="23"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="76"/>
+      <c r="H141" s="58"/>
+      <c r="I141" s="59"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
-      <c r="N141" s="75"/>
-      <c r="O141" s="74"/>
+      <c r="N141" s="58"/>
+      <c r="O141" s="57"/>
       <c r="P141" s="23"/>
       <c r="Q141" s="23"/>
       <c r="R141" s="23"/>
-      <c r="S141" s="74"/>
+      <c r="S141" s="57"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
-      <c r="B142" s="74"/>
+      <c r="B142" s="57"/>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
-      <c r="F142" s="75"/>
+      <c r="F142" s="58"/>
       <c r="G142" s="23"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="76"/>
+      <c r="H142" s="58"/>
+      <c r="I142" s="59"/>
       <c r="J142" s="23"/>
       <c r="K142" s="23"/>
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
-      <c r="N142" s="75"/>
-      <c r="O142" s="74"/>
+      <c r="N142" s="58"/>
+      <c r="O142" s="57"/>
       <c r="P142" s="23"/>
       <c r="Q142" s="23"/>
       <c r="R142" s="23"/>
-      <c r="S142" s="74"/>
+      <c r="S142" s="57"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
-      <c r="B143" s="74"/>
+      <c r="B143" s="57"/>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
-      <c r="F143" s="75"/>
+      <c r="F143" s="58"/>
       <c r="G143" s="23"/>
-      <c r="H143" s="75"/>
-      <c r="I143" s="76"/>
+      <c r="H143" s="58"/>
+      <c r="I143" s="59"/>
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
-      <c r="N143" s="75"/>
-      <c r="O143" s="74"/>
+      <c r="N143" s="58"/>
+      <c r="O143" s="57"/>
       <c r="P143" s="23"/>
       <c r="Q143" s="23"/>
       <c r="R143" s="23"/>
-      <c r="S143" s="74"/>
+      <c r="S143" s="57"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="23"/>
-      <c r="B144" s="74"/>
+      <c r="B144" s="57"/>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
-      <c r="F144" s="75"/>
+      <c r="F144" s="58"/>
       <c r="G144" s="23"/>
-      <c r="H144" s="75"/>
-      <c r="I144" s="76"/>
+      <c r="H144" s="58"/>
+      <c r="I144" s="59"/>
       <c r="J144" s="23"/>
       <c r="K144" s="23"/>
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
-      <c r="N144" s="75"/>
-      <c r="O144" s="74"/>
+      <c r="N144" s="58"/>
+      <c r="O144" s="57"/>
       <c r="P144" s="23"/>
       <c r="Q144" s="23"/>
       <c r="R144" s="23"/>
-      <c r="S144" s="74"/>
+      <c r="S144" s="57"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="23"/>
-      <c r="B145" s="74"/>
+      <c r="B145" s="57"/>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
-      <c r="F145" s="75"/>
+      <c r="F145" s="58"/>
       <c r="G145" s="23"/>
-      <c r="H145" s="75"/>
-      <c r="I145" s="76"/>
+      <c r="H145" s="58"/>
+      <c r="I145" s="59"/>
       <c r="J145" s="23"/>
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
-      <c r="N145" s="75"/>
-      <c r="O145" s="74"/>
+      <c r="N145" s="58"/>
+      <c r="O145" s="57"/>
       <c r="P145" s="23"/>
       <c r="Q145" s="23"/>
       <c r="R145" s="23"/>
-      <c r="S145" s="74"/>
+      <c r="S145" s="57"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
-      <c r="B146" s="74"/>
+      <c r="B146" s="57"/>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
-      <c r="F146" s="75"/>
+      <c r="F146" s="58"/>
       <c r="G146" s="23"/>
-      <c r="H146" s="75"/>
-      <c r="I146" s="76"/>
+      <c r="H146" s="58"/>
+      <c r="I146" s="59"/>
       <c r="J146" s="23"/>
       <c r="K146" s="23"/>
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
-      <c r="N146" s="75"/>
-      <c r="O146" s="74"/>
+      <c r="N146" s="58"/>
+      <c r="O146" s="57"/>
       <c r="P146" s="23"/>
       <c r="Q146" s="23"/>
       <c r="R146" s="23"/>
-      <c r="S146" s="74"/>
+      <c r="S146" s="57"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
-      <c r="B147" s="74"/>
+      <c r="B147" s="57"/>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
-      <c r="F147" s="75"/>
+      <c r="F147" s="58"/>
       <c r="G147" s="23"/>
-      <c r="H147" s="75"/>
-      <c r="I147" s="76"/>
+      <c r="H147" s="58"/>
+      <c r="I147" s="59"/>
       <c r="J147" s="23"/>
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
-      <c r="N147" s="75"/>
-      <c r="O147" s="74"/>
+      <c r="N147" s="58"/>
+      <c r="O147" s="57"/>
       <c r="P147" s="23"/>
       <c r="Q147" s="23"/>
       <c r="R147" s="23"/>
-      <c r="S147" s="74"/>
+      <c r="S147" s="57"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
-      <c r="B148" s="74"/>
+      <c r="B148" s="57"/>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
-      <c r="F148" s="75"/>
+      <c r="F148" s="58"/>
       <c r="G148" s="23"/>
-      <c r="H148" s="75"/>
-      <c r="I148" s="76"/>
+      <c r="H148" s="58"/>
+      <c r="I148" s="59"/>
       <c r="J148" s="23"/>
       <c r="K148" s="23"/>
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
-      <c r="N148" s="75"/>
-      <c r="O148" s="74"/>
+      <c r="N148" s="58"/>
+      <c r="O148" s="57"/>
       <c r="P148" s="23"/>
       <c r="Q148" s="23"/>
       <c r="R148" s="23"/>
-      <c r="S148" s="74"/>
+      <c r="S148" s="57"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
-      <c r="B149" s="74"/>
+      <c r="B149" s="57"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
-      <c r="F149" s="75"/>
+      <c r="F149" s="58"/>
       <c r="G149" s="23"/>
-      <c r="H149" s="75"/>
-      <c r="I149" s="76"/>
+      <c r="H149" s="58"/>
+      <c r="I149" s="59"/>
       <c r="J149" s="23"/>
       <c r="K149" s="23"/>
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
-      <c r="N149" s="75"/>
-      <c r="O149" s="74"/>
+      <c r="N149" s="58"/>
+      <c r="O149" s="57"/>
       <c r="P149" s="23"/>
       <c r="Q149" s="23"/>
       <c r="R149" s="23"/>
-      <c r="S149" s="74"/>
+      <c r="S149" s="57"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
-      <c r="B150" s="74"/>
+      <c r="B150" s="57"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
-      <c r="F150" s="75"/>
+      <c r="F150" s="58"/>
       <c r="G150" s="23"/>
-      <c r="H150" s="75"/>
-      <c r="I150" s="76"/>
+      <c r="H150" s="58"/>
+      <c r="I150" s="59"/>
       <c r="J150" s="23"/>
       <c r="K150" s="23"/>
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
-      <c r="N150" s="75"/>
-      <c r="O150" s="74"/>
+      <c r="N150" s="58"/>
+      <c r="O150" s="57"/>
       <c r="P150" s="23"/>
       <c r="Q150" s="23"/>
       <c r="R150" s="23"/>
-      <c r="S150" s="74"/>
+      <c r="S150" s="57"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
-      <c r="B151" s="74"/>
+      <c r="B151" s="57"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
-      <c r="F151" s="75"/>
+      <c r="F151" s="58"/>
       <c r="G151" s="23"/>
-      <c r="H151" s="75"/>
-      <c r="I151" s="76"/>
+      <c r="H151" s="58"/>
+      <c r="I151" s="59"/>
       <c r="J151" s="23"/>
       <c r="K151" s="23"/>
       <c r="L151" s="23"/>
       <c r="M151" s="23"/>
-      <c r="N151" s="75"/>
-      <c r="O151" s="74"/>
+      <c r="N151" s="58"/>
+      <c r="O151" s="57"/>
       <c r="P151" s="23"/>
       <c r="Q151" s="23"/>
       <c r="R151" s="23"/>
-      <c r="S151" s="74"/>
+      <c r="S151" s="57"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
-      <c r="B152" s="74"/>
+      <c r="B152" s="57"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
-      <c r="F152" s="75"/>
+      <c r="F152" s="58"/>
       <c r="G152" s="23"/>
-      <c r="H152" s="75"/>
-      <c r="I152" s="76"/>
+      <c r="H152" s="58"/>
+      <c r="I152" s="59"/>
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
       <c r="M152" s="23"/>
-      <c r="N152" s="75"/>
-      <c r="O152" s="74"/>
+      <c r="N152" s="58"/>
+      <c r="O152" s="57"/>
       <c r="P152" s="23"/>
       <c r="Q152" s="23"/>
       <c r="R152" s="23"/>
-      <c r="S152" s="74"/>
+      <c r="S152" s="57"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="23"/>
-      <c r="B153" s="74"/>
+      <c r="B153" s="57"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
-      <c r="F153" s="75"/>
+      <c r="F153" s="58"/>
       <c r="G153" s="23"/>
-      <c r="H153" s="75"/>
-      <c r="I153" s="76"/>
+      <c r="H153" s="58"/>
+      <c r="I153" s="59"/>
       <c r="J153" s="23"/>
       <c r="K153" s="23"/>
       <c r="L153" s="23"/>
       <c r="M153" s="23"/>
-      <c r="N153" s="75"/>
-      <c r="O153" s="74"/>
+      <c r="N153" s="58"/>
+      <c r="O153" s="57"/>
       <c r="P153" s="23"/>
       <c r="Q153" s="23"/>
       <c r="R153" s="23"/>
-      <c r="S153" s="74"/>
+      <c r="S153" s="57"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
-      <c r="B154" s="74"/>
+      <c r="B154" s="57"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
-      <c r="F154" s="75"/>
+      <c r="F154" s="58"/>
       <c r="G154" s="23"/>
-      <c r="H154" s="75"/>
-      <c r="I154" s="76"/>
+      <c r="H154" s="58"/>
+      <c r="I154" s="59"/>
       <c r="J154" s="23"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
-      <c r="N154" s="75"/>
-      <c r="O154" s="74"/>
+      <c r="N154" s="58"/>
+      <c r="O154" s="57"/>
       <c r="P154" s="23"/>
       <c r="Q154" s="23"/>
       <c r="R154" s="23"/>
-      <c r="S154" s="74"/>
+      <c r="S154" s="57"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
-      <c r="B155" s="74"/>
+      <c r="B155" s="57"/>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
-      <c r="F155" s="75"/>
+      <c r="F155" s="58"/>
       <c r="G155" s="23"/>
-      <c r="H155" s="75"/>
-      <c r="I155" s="76"/>
+      <c r="H155" s="58"/>
+      <c r="I155" s="59"/>
       <c r="J155" s="23"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
-      <c r="N155" s="75"/>
-      <c r="O155" s="74"/>
+      <c r="N155" s="58"/>
+      <c r="O155" s="57"/>
       <c r="P155" s="23"/>
       <c r="Q155" s="23"/>
       <c r="R155" s="23"/>
-      <c r="S155" s="74"/>
+      <c r="S155" s="57"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
-      <c r="B156" s="74"/>
+      <c r="B156" s="57"/>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
-      <c r="F156" s="75"/>
+      <c r="F156" s="58"/>
       <c r="G156" s="23"/>
-      <c r="H156" s="75"/>
-      <c r="I156" s="76"/>
+      <c r="H156" s="58"/>
+      <c r="I156" s="59"/>
       <c r="J156" s="23"/>
       <c r="K156" s="23"/>
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
-      <c r="N156" s="75"/>
-      <c r="O156" s="74"/>
+      <c r="N156" s="58"/>
+      <c r="O156" s="57"/>
       <c r="P156" s="23"/>
       <c r="Q156" s="23"/>
       <c r="R156" s="23"/>
-      <c r="S156" s="74"/>
+      <c r="S156" s="57"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
-      <c r="B157" s="74"/>
+      <c r="B157" s="57"/>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
-      <c r="F157" s="75"/>
+      <c r="F157" s="58"/>
       <c r="G157" s="23"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="76"/>
+      <c r="H157" s="58"/>
+      <c r="I157" s="59"/>
       <c r="J157" s="23"/>
       <c r="K157" s="23"/>
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
-      <c r="N157" s="75"/>
-      <c r="O157" s="74"/>
+      <c r="N157" s="58"/>
+      <c r="O157" s="57"/>
       <c r="P157" s="23"/>
       <c r="Q157" s="23"/>
       <c r="R157" s="23"/>
-      <c r="S157" s="74"/>
+      <c r="S157" s="57"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
-      <c r="B158" s="74"/>
+      <c r="B158" s="57"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
-      <c r="F158" s="75"/>
+      <c r="F158" s="58"/>
       <c r="G158" s="23"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="76"/>
+      <c r="H158" s="58"/>
+      <c r="I158" s="59"/>
       <c r="J158" s="23"/>
       <c r="K158" s="23"/>
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
-      <c r="N158" s="75"/>
-      <c r="O158" s="74"/>
+      <c r="N158" s="58"/>
+      <c r="O158" s="57"/>
       <c r="P158" s="23"/>
       <c r="Q158" s="23"/>
       <c r="R158" s="23"/>
-      <c r="S158" s="74"/>
+      <c r="S158" s="57"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="23"/>
-      <c r="B159" s="74"/>
+      <c r="B159" s="57"/>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
-      <c r="F159" s="75"/>
+      <c r="F159" s="58"/>
       <c r="G159" s="23"/>
-      <c r="H159" s="75"/>
-      <c r="I159" s="76"/>
+      <c r="H159" s="58"/>
+      <c r="I159" s="59"/>
       <c r="J159" s="23"/>
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
       <c r="M159" s="23"/>
-      <c r="N159" s="75"/>
-      <c r="O159" s="74"/>
-      <c r="S159" s="74"/>
+      <c r="N159" s="58"/>
+      <c r="O159" s="57"/>
+      <c r="S159" s="57"/>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="23"/>
-      <c r="B160" s="74"/>
+      <c r="B160" s="57"/>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
-      <c r="F160" s="75"/>
+      <c r="F160" s="58"/>
       <c r="G160" s="23"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="76"/>
+      <c r="H160" s="58"/>
+      <c r="I160" s="59"/>
       <c r="J160" s="23"/>
       <c r="K160" s="23"/>
       <c r="L160" s="23"/>
       <c r="M160" s="23"/>
-      <c r="N160" s="75"/>
-      <c r="O160" s="74"/>
-      <c r="S160" s="74"/>
+      <c r="N160" s="58"/>
+      <c r="O160" s="57"/>
+      <c r="S160" s="57"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
-      <c r="B161" s="74"/>
+      <c r="B161" s="57"/>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
-      <c r="F161" s="75"/>
+      <c r="F161" s="58"/>
       <c r="G161" s="23"/>
-      <c r="H161" s="75"/>
-      <c r="I161" s="76"/>
+      <c r="H161" s="58"/>
+      <c r="I161" s="59"/>
       <c r="J161" s="23"/>
       <c r="K161" s="23"/>
       <c r="L161" s="23"/>
       <c r="M161" s="23"/>
-      <c r="N161" s="75"/>
-      <c r="O161" s="74"/>
-      <c r="S161" s="74"/>
+      <c r="N161" s="58"/>
+      <c r="O161" s="57"/>
+      <c r="S161" s="57"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
-      <c r="B162" s="74"/>
+      <c r="B162" s="57"/>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
-      <c r="F162" s="75"/>
+      <c r="F162" s="58"/>
       <c r="G162" s="23"/>
-      <c r="H162" s="75"/>
-      <c r="I162" s="76"/>
+      <c r="H162" s="58"/>
+      <c r="I162" s="59"/>
       <c r="J162" s="23"/>
       <c r="K162" s="23"/>
       <c r="L162" s="23"/>
       <c r="M162" s="23"/>
-      <c r="N162" s="75"/>
-      <c r="O162" s="74"/>
-      <c r="S162" s="74"/>
+      <c r="N162" s="58"/>
+      <c r="O162" s="57"/>
+      <c r="S162" s="57"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
-      <c r="B163" s="74"/>
+      <c r="B163" s="57"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
-      <c r="F163" s="75"/>
+      <c r="F163" s="58"/>
       <c r="G163" s="23"/>
-      <c r="H163" s="75"/>
-      <c r="I163" s="76"/>
+      <c r="H163" s="58"/>
+      <c r="I163" s="59"/>
       <c r="J163" s="23"/>
       <c r="K163" s="23"/>
       <c r="L163" s="23"/>
       <c r="M163" s="23"/>
-      <c r="N163" s="75"/>
-      <c r="O163" s="74"/>
-      <c r="S163" s="74"/>
+      <c r="N163" s="58"/>
+      <c r="O163" s="57"/>
+      <c r="S163" s="57"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
-      <c r="B164" s="74"/>
+      <c r="B164" s="57"/>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
-      <c r="F164" s="75"/>
+      <c r="F164" s="58"/>
       <c r="G164" s="23"/>
-      <c r="H164" s="75"/>
-      <c r="I164" s="76"/>
+      <c r="H164" s="58"/>
+      <c r="I164" s="59"/>
       <c r="J164" s="23"/>
       <c r="K164" s="23"/>
       <c r="L164" s="23"/>
       <c r="M164" s="23"/>
-      <c r="N164" s="75"/>
-      <c r="O164" s="74"/>
-      <c r="S164" s="74"/>
+      <c r="N164" s="58"/>
+      <c r="O164" s="57"/>
+      <c r="S164" s="57"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
-      <c r="B165" s="74"/>
+      <c r="B165" s="57"/>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
-      <c r="F165" s="75"/>
+      <c r="F165" s="58"/>
       <c r="G165" s="23"/>
-      <c r="H165" s="75"/>
-      <c r="I165" s="76"/>
+      <c r="H165" s="58"/>
+      <c r="I165" s="59"/>
       <c r="J165" s="23"/>
       <c r="K165" s="23"/>
       <c r="L165" s="23"/>
       <c r="M165" s="23"/>
-      <c r="N165" s="75"/>
-      <c r="O165" s="74"/>
-      <c r="S165" s="74"/>
+      <c r="N165" s="58"/>
+      <c r="O165" s="57"/>
+      <c r="S165" s="57"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
-      <c r="B166" s="74"/>
+      <c r="B166" s="57"/>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
-      <c r="F166" s="75"/>
+      <c r="F166" s="58"/>
       <c r="G166" s="23"/>
-      <c r="H166" s="75"/>
-      <c r="I166" s="76"/>
+      <c r="H166" s="58"/>
+      <c r="I166" s="59"/>
       <c r="J166" s="23"/>
       <c r="K166" s="23"/>
       <c r="L166" s="23"/>
       <c r="M166" s="23"/>
-      <c r="N166" s="75"/>
-      <c r="O166" s="74"/>
-      <c r="S166" s="74"/>
+      <c r="N166" s="58"/>
+      <c r="O166" s="57"/>
+      <c r="S166" s="57"/>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
-      <c r="B167" s="74"/>
+      <c r="B167" s="57"/>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
-      <c r="F167" s="75"/>
+      <c r="F167" s="58"/>
       <c r="G167" s="23"/>
-      <c r="H167" s="75"/>
-      <c r="I167" s="76"/>
+      <c r="H167" s="58"/>
+      <c r="I167" s="59"/>
       <c r="J167" s="23"/>
       <c r="K167" s="23"/>
       <c r="L167" s="23"/>
       <c r="M167" s="23"/>
-      <c r="N167" s="75"/>
-      <c r="O167" s="74"/>
-      <c r="S167" s="74"/>
+      <c r="N167" s="58"/>
+      <c r="O167" s="57"/>
+      <c r="S167" s="57"/>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
-      <c r="B168" s="74"/>
+      <c r="B168" s="57"/>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
-      <c r="F168" s="75"/>
+      <c r="F168" s="58"/>
       <c r="G168" s="23"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="76"/>
+      <c r="H168" s="58"/>
+      <c r="I168" s="59"/>
       <c r="J168" s="23"/>
       <c r="K168" s="23"/>
       <c r="L168" s="23"/>
       <c r="M168" s="23"/>
-      <c r="N168" s="75"/>
-      <c r="O168" s="74"/>
-      <c r="S168" s="74"/>
+      <c r="N168" s="58"/>
+      <c r="O168" s="57"/>
+      <c r="S168" s="57"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
-      <c r="B169" s="74"/>
+      <c r="B169" s="57"/>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
       <c r="E169" s="23"/>
-      <c r="F169" s="75"/>
+      <c r="F169" s="58"/>
       <c r="G169" s="23"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="76"/>
+      <c r="H169" s="58"/>
+      <c r="I169" s="59"/>
       <c r="J169" s="23"/>
       <c r="K169" s="23"/>
       <c r="L169" s="23"/>
       <c r="M169" s="23"/>
-      <c r="N169" s="75"/>
-      <c r="O169" s="74"/>
-      <c r="S169" s="74"/>
+      <c r="N169" s="58"/>
+      <c r="O169" s="57"/>
+      <c r="S169" s="57"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
-      <c r="B170" s="74"/>
+      <c r="B170" s="57"/>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
-      <c r="F170" s="75"/>
+      <c r="F170" s="58"/>
       <c r="G170" s="23"/>
-      <c r="H170" s="75"/>
-      <c r="I170" s="76"/>
+      <c r="H170" s="58"/>
+      <c r="I170" s="59"/>
       <c r="J170" s="23"/>
       <c r="K170" s="23"/>
       <c r="L170" s="23"/>
       <c r="M170" s="23"/>
-      <c r="N170" s="75"/>
-      <c r="O170" s="74"/>
-      <c r="S170" s="74"/>
+      <c r="N170" s="58"/>
+      <c r="O170" s="57"/>
+      <c r="S170" s="57"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
-      <c r="B171" s="74"/>
+      <c r="B171" s="57"/>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
       <c r="E171" s="23"/>
-      <c r="F171" s="75"/>
+      <c r="F171" s="58"/>
       <c r="G171" s="23"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="76"/>
+      <c r="H171" s="58"/>
+      <c r="I171" s="59"/>
       <c r="J171" s="23"/>
       <c r="K171" s="23"/>
       <c r="L171" s="23"/>
       <c r="M171" s="23"/>
-      <c r="N171" s="75"/>
-      <c r="O171" s="74"/>
-      <c r="S171" s="74"/>
+      <c r="N171" s="58"/>
+      <c r="O171" s="57"/>
+      <c r="S171" s="57"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
-      <c r="B172" s="74"/>
+      <c r="B172" s="57"/>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
-      <c r="F172" s="75"/>
+      <c r="F172" s="58"/>
       <c r="G172" s="23"/>
-      <c r="H172" s="75"/>
-      <c r="I172" s="76"/>
+      <c r="H172" s="58"/>
+      <c r="I172" s="59"/>
       <c r="J172" s="23"/>
       <c r="K172" s="23"/>
       <c r="L172" s="23"/>
       <c r="M172" s="23"/>
-      <c r="N172" s="75"/>
-      <c r="O172" s="74"/>
-      <c r="S172" s="74"/>
+      <c r="N172" s="58"/>
+      <c r="O172" s="57"/>
+      <c r="S172" s="57"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="23"/>
-      <c r="B173" s="74"/>
+      <c r="B173" s="57"/>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
-      <c r="F173" s="75"/>
+      <c r="F173" s="58"/>
       <c r="G173" s="23"/>
-      <c r="H173" s="75"/>
-      <c r="I173" s="76"/>
+      <c r="H173" s="58"/>
+      <c r="I173" s="59"/>
       <c r="J173" s="23"/>
       <c r="K173" s="23"/>
       <c r="L173" s="23"/>
       <c r="M173" s="23"/>
-      <c r="N173" s="75"/>
-      <c r="O173" s="74"/>
-      <c r="S173" s="74"/>
+      <c r="N173" s="58"/>
+      <c r="O173" s="57"/>
+      <c r="S173" s="57"/>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="23"/>
-      <c r="B174" s="74"/>
+      <c r="B174" s="57"/>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
-      <c r="F174" s="75"/>
+      <c r="F174" s="58"/>
       <c r="G174" s="23"/>
-      <c r="H174" s="75"/>
-      <c r="I174" s="76"/>
+      <c r="H174" s="58"/>
+      <c r="I174" s="59"/>
       <c r="J174" s="23"/>
       <c r="K174" s="23"/>
       <c r="L174" s="23"/>
       <c r="M174" s="23"/>
-      <c r="N174" s="75"/>
-      <c r="O174" s="74"/>
-      <c r="S174" s="74"/>
+      <c r="N174" s="58"/>
+      <c r="O174" s="57"/>
+      <c r="S174" s="57"/>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="23"/>
-      <c r="B175" s="74"/>
+      <c r="B175" s="57"/>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
-      <c r="F175" s="75"/>
+      <c r="F175" s="58"/>
       <c r="G175" s="23"/>
-      <c r="H175" s="75"/>
-      <c r="I175" s="76"/>
+      <c r="H175" s="58"/>
+      <c r="I175" s="59"/>
       <c r="J175" s="23"/>
       <c r="K175" s="23"/>
       <c r="L175" s="23"/>
       <c r="M175" s="23"/>
-      <c r="N175" s="75"/>
-      <c r="O175" s="74"/>
-      <c r="S175" s="74"/>
+      <c r="N175" s="58"/>
+      <c r="O175" s="57"/>
+      <c r="S175" s="57"/>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="23"/>
-      <c r="B176" s="74"/>
+      <c r="B176" s="57"/>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
-      <c r="F176" s="75"/>
+      <c r="F176" s="58"/>
       <c r="G176" s="23"/>
-      <c r="H176" s="75"/>
-      <c r="I176" s="76"/>
+      <c r="H176" s="58"/>
+      <c r="I176" s="59"/>
       <c r="J176" s="23"/>
       <c r="K176" s="23"/>
       <c r="L176" s="23"/>
       <c r="M176" s="23"/>
-      <c r="N176" s="75"/>
-      <c r="O176" s="74"/>
-      <c r="S176" s="74"/>
+      <c r="N176" s="58"/>
+      <c r="O176" s="57"/>
+      <c r="S176" s="57"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="23"/>
-      <c r="B177" s="74"/>
+      <c r="B177" s="57"/>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
-      <c r="F177" s="75"/>
+      <c r="F177" s="58"/>
       <c r="G177" s="23"/>
-      <c r="H177" s="75"/>
-      <c r="I177" s="76"/>
+      <c r="H177" s="58"/>
+      <c r="I177" s="59"/>
       <c r="J177" s="23"/>
       <c r="K177" s="23"/>
       <c r="L177" s="23"/>
       <c r="M177" s="23"/>
-      <c r="N177" s="75"/>
-      <c r="O177" s="74"/>
-      <c r="S177" s="74"/>
+      <c r="N177" s="58"/>
+      <c r="O177" s="57"/>
+      <c r="S177" s="57"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="23"/>
-      <c r="B178" s="74"/>
+      <c r="B178" s="57"/>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
-      <c r="F178" s="75"/>
+      <c r="F178" s="58"/>
       <c r="G178" s="23"/>
-      <c r="H178" s="75"/>
-      <c r="I178" s="76"/>
+      <c r="H178" s="58"/>
+      <c r="I178" s="59"/>
       <c r="J178" s="23"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
-      <c r="N178" s="75"/>
-      <c r="O178" s="74"/>
-      <c r="S178" s="74"/>
+      <c r="N178" s="58"/>
+      <c r="O178" s="57"/>
+      <c r="S178" s="57"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="23"/>
-      <c r="B179" s="74"/>
+      <c r="B179" s="57"/>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
       <c r="E179" s="23"/>
-      <c r="F179" s="75"/>
+      <c r="F179" s="58"/>
       <c r="G179" s="23"/>
-      <c r="H179" s="75"/>
-      <c r="I179" s="76"/>
+      <c r="H179" s="58"/>
+      <c r="I179" s="59"/>
       <c r="J179" s="23"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
-      <c r="N179" s="75"/>
-      <c r="O179" s="74"/>
-      <c r="S179" s="74"/>
+      <c r="N179" s="58"/>
+      <c r="O179" s="57"/>
+      <c r="S179" s="57"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="23"/>
-      <c r="B180" s="74"/>
+      <c r="B180" s="57"/>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
-      <c r="F180" s="75"/>
+      <c r="F180" s="58"/>
       <c r="G180" s="23"/>
-      <c r="H180" s="75"/>
-      <c r="I180" s="76"/>
+      <c r="H180" s="58"/>
+      <c r="I180" s="59"/>
       <c r="J180" s="23"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
-      <c r="N180" s="75"/>
-      <c r="O180" s="74"/>
-      <c r="S180" s="74"/>
+      <c r="N180" s="58"/>
+      <c r="O180" s="57"/>
+      <c r="S180" s="57"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="23"/>
-      <c r="B181" s="74"/>
+      <c r="B181" s="57"/>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
-      <c r="F181" s="75"/>
+      <c r="F181" s="58"/>
       <c r="G181" s="23"/>
-      <c r="H181" s="75"/>
-      <c r="I181" s="76"/>
+      <c r="H181" s="58"/>
+      <c r="I181" s="59"/>
       <c r="J181" s="23"/>
       <c r="K181" s="23"/>
       <c r="L181" s="23"/>
       <c r="M181" s="23"/>
-      <c r="N181" s="75"/>
-      <c r="O181" s="74"/>
-      <c r="S181" s="74"/>
+      <c r="N181" s="58"/>
+      <c r="O181" s="57"/>
+      <c r="S181" s="57"/>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="23"/>
-      <c r="B182" s="74"/>
+      <c r="B182" s="57"/>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
-      <c r="F182" s="75"/>
+      <c r="F182" s="58"/>
       <c r="G182" s="23"/>
-      <c r="H182" s="75"/>
-      <c r="I182" s="76"/>
+      <c r="H182" s="58"/>
+      <c r="I182" s="59"/>
       <c r="J182" s="23"/>
       <c r="K182" s="23"/>
       <c r="L182" s="23"/>
       <c r="M182" s="23"/>
-      <c r="N182" s="75"/>
-      <c r="O182" s="74"/>
-      <c r="S182" s="74"/>
+      <c r="N182" s="58"/>
+      <c r="O182" s="57"/>
+      <c r="S182" s="57"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="23"/>
-      <c r="B183" s="74"/>
+      <c r="B183" s="57"/>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
       <c r="E183" s="23"/>
-      <c r="F183" s="75"/>
+      <c r="F183" s="58"/>
       <c r="G183" s="23"/>
-      <c r="H183" s="75"/>
-      <c r="I183" s="76"/>
+      <c r="H183" s="58"/>
+      <c r="I183" s="59"/>
       <c r="J183" s="23"/>
       <c r="K183" s="23"/>
       <c r="L183" s="23"/>
       <c r="M183" s="23"/>
-      <c r="N183" s="75"/>
-      <c r="O183" s="74"/>
-      <c r="S183" s="74"/>
+      <c r="N183" s="58"/>
+      <c r="O183" s="57"/>
+      <c r="S183" s="57"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="23"/>
-      <c r="B184" s="74"/>
+      <c r="B184" s="57"/>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
-      <c r="F184" s="75"/>
+      <c r="F184" s="58"/>
       <c r="G184" s="23"/>
-      <c r="H184" s="75"/>
-      <c r="I184" s="76"/>
+      <c r="H184" s="58"/>
+      <c r="I184" s="59"/>
       <c r="J184" s="23"/>
       <c r="K184" s="23"/>
       <c r="L184" s="23"/>
       <c r="M184" s="23"/>
-      <c r="N184" s="75"/>
-      <c r="O184" s="74"/>
-      <c r="S184" s="74"/>
+      <c r="N184" s="58"/>
+      <c r="O184" s="57"/>
+      <c r="S184" s="57"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="23"/>
-      <c r="B185" s="74"/>
+      <c r="B185" s="57"/>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
-      <c r="F185" s="75"/>
+      <c r="F185" s="58"/>
       <c r="G185" s="23"/>
-      <c r="H185" s="75"/>
-      <c r="I185" s="76"/>
+      <c r="H185" s="58"/>
+      <c r="I185" s="59"/>
       <c r="J185" s="23"/>
       <c r="K185" s="23"/>
       <c r="L185" s="23"/>
       <c r="M185" s="23"/>
-      <c r="N185" s="75"/>
-      <c r="O185" s="74"/>
-      <c r="S185" s="74"/>
+      <c r="N185" s="58"/>
+      <c r="O185" s="57"/>
+      <c r="S185" s="57"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="23"/>
-      <c r="B186" s="74"/>
+      <c r="B186" s="57"/>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
-      <c r="F186" s="75"/>
+      <c r="F186" s="58"/>
       <c r="G186" s="23"/>
-      <c r="H186" s="75"/>
-      <c r="I186" s="76"/>
+      <c r="H186" s="58"/>
+      <c r="I186" s="59"/>
       <c r="J186" s="23"/>
       <c r="K186" s="23"/>
       <c r="L186" s="23"/>
       <c r="M186" s="23"/>
-      <c r="N186" s="75"/>
-      <c r="O186" s="74"/>
-      <c r="S186" s="74"/>
+      <c r="N186" s="58"/>
+      <c r="O186" s="57"/>
+      <c r="S186" s="57"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="23"/>
-      <c r="B187" s="74"/>
+      <c r="B187" s="57"/>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
-      <c r="F187" s="75"/>
+      <c r="F187" s="58"/>
       <c r="G187" s="23"/>
-      <c r="H187" s="75"/>
-      <c r="I187" s="76"/>
+      <c r="H187" s="58"/>
+      <c r="I187" s="59"/>
       <c r="J187" s="23"/>
       <c r="K187" s="23"/>
       <c r="L187" s="23"/>
       <c r="M187" s="23"/>
-      <c r="N187" s="75"/>
-      <c r="O187" s="74"/>
-      <c r="S187" s="74"/>
+      <c r="N187" s="58"/>
+      <c r="O187" s="57"/>
+      <c r="S187" s="57"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="23"/>
-      <c r="B188" s="74"/>
+      <c r="B188" s="57"/>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
-      <c r="F188" s="75"/>
+      <c r="F188" s="58"/>
       <c r="G188" s="23"/>
-      <c r="H188" s="75"/>
-      <c r="I188" s="76"/>
+      <c r="H188" s="58"/>
+      <c r="I188" s="59"/>
       <c r="J188" s="23"/>
       <c r="K188" s="23"/>
       <c r="L188" s="23"/>
       <c r="M188" s="23"/>
-      <c r="N188" s="75"/>
-      <c r="O188" s="74"/>
-      <c r="S188" s="74"/>
+      <c r="N188" s="58"/>
+      <c r="O188" s="57"/>
+      <c r="S188" s="57"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="23"/>
-      <c r="B189" s="74"/>
+      <c r="B189" s="57"/>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
       <c r="E189" s="23"/>
-      <c r="F189" s="75"/>
+      <c r="F189" s="58"/>
       <c r="G189" s="23"/>
-      <c r="H189" s="75"/>
-      <c r="I189" s="76"/>
+      <c r="H189" s="58"/>
+      <c r="I189" s="59"/>
       <c r="J189" s="23"/>
       <c r="K189" s="23"/>
       <c r="L189" s="23"/>
       <c r="M189" s="23"/>
-      <c r="N189" s="75"/>
-      <c r="O189" s="74"/>
-      <c r="S189" s="74"/>
+      <c r="N189" s="58"/>
+      <c r="O189" s="57"/>
+      <c r="S189" s="57"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="23"/>
-      <c r="B190" s="74"/>
+      <c r="B190" s="57"/>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
-      <c r="F190" s="75"/>
+      <c r="F190" s="58"/>
       <c r="G190" s="23"/>
-      <c r="H190" s="75"/>
-      <c r="I190" s="76"/>
+      <c r="H190" s="58"/>
+      <c r="I190" s="59"/>
       <c r="J190" s="23"/>
       <c r="K190" s="23"/>
       <c r="L190" s="23"/>
       <c r="M190" s="23"/>
-      <c r="N190" s="75"/>
-      <c r="O190" s="74"/>
-      <c r="S190" s="74"/>
+      <c r="N190" s="58"/>
+      <c r="O190" s="57"/>
+      <c r="S190" s="57"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="23"/>
-      <c r="B191" s="74"/>
+      <c r="B191" s="57"/>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
       <c r="E191" s="23"/>
-      <c r="F191" s="75"/>
+      <c r="F191" s="58"/>
       <c r="G191" s="23"/>
-      <c r="H191" s="75"/>
-      <c r="I191" s="76"/>
+      <c r="H191" s="58"/>
+      <c r="I191" s="59"/>
       <c r="J191" s="23"/>
       <c r="K191" s="23"/>
       <c r="L191" s="23"/>
       <c r="M191" s="23"/>
-      <c r="N191" s="75"/>
-      <c r="O191" s="74"/>
-      <c r="S191" s="74"/>
+      <c r="N191" s="58"/>
+      <c r="O191" s="57"/>
+      <c r="S191" s="57"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="23"/>
-      <c r="B192" s="74"/>
+      <c r="B192" s="57"/>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
-      <c r="F192" s="75"/>
+      <c r="F192" s="58"/>
       <c r="G192" s="23"/>
-      <c r="H192" s="75"/>
-      <c r="I192" s="76"/>
+      <c r="H192" s="58"/>
+      <c r="I192" s="59"/>
       <c r="J192" s="23"/>
       <c r="K192" s="23"/>
       <c r="L192" s="23"/>
       <c r="M192" s="23"/>
-      <c r="N192" s="75"/>
-      <c r="O192" s="74"/>
-      <c r="S192" s="74"/>
+      <c r="N192" s="58"/>
+      <c r="O192" s="57"/>
+      <c r="S192" s="57"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="23"/>
-      <c r="B193" s="74"/>
+      <c r="B193" s="57"/>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
       <c r="E193" s="23"/>
-      <c r="F193" s="75"/>
+      <c r="F193" s="58"/>
       <c r="G193" s="23"/>
-      <c r="H193" s="75"/>
-      <c r="I193" s="76"/>
+      <c r="H193" s="58"/>
+      <c r="I193" s="59"/>
       <c r="J193" s="23"/>
       <c r="K193" s="23"/>
       <c r="L193" s="23"/>
       <c r="M193" s="23"/>
-      <c r="N193" s="75"/>
-      <c r="O193" s="74"/>
-      <c r="S193" s="74"/>
+      <c r="N193" s="58"/>
+      <c r="O193" s="57"/>
+      <c r="S193" s="57"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6898,36 +6918,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
+      <c r="M2" s="67"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -7409,10 +7429,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7420,7 +7440,7 @@
     <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="34" customWidth="1"/>
     <col min="3" max="3" width="21.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="34" customWidth="1"/>
+    <col min="4" max="4" width="51.25" style="34" customWidth="1"/>
     <col min="5" max="5" width="38" style="34" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="34" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="34" bestFit="1" customWidth="1"/>
@@ -7430,17 +7450,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
     </row>
     <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
@@ -7472,7 +7492,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="62">
+      <c r="A3" s="78">
         <v>1</v>
       </c>
       <c r="B3" s="45" t="s">
@@ -7493,7 +7513,7 @@
       <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
+      <c r="A4" s="79"/>
       <c r="B4" s="45" t="s">
         <v>96</v>
       </c>
@@ -7512,7 +7532,7 @@
       <c r="I4" s="46"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="45" t="s">
         <v>97</v>
       </c>
@@ -7531,13 +7551,13 @@
       <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="57">
+      <c r="A6" s="73">
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="75" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="37" t="s">
@@ -7552,9 +7572,9 @@
       <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="37" t="s">
         <v>75</v>
       </c>
@@ -7567,9 +7587,9 @@
       <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="37" t="s">
@@ -7586,9 +7606,9 @@
       <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
       <c r="D9" s="37" t="s">
         <v>101</v>
       </c>
@@ -7603,9 +7623,9 @@
       <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
       <c r="D10" s="37" t="s">
         <v>102</v>
       </c>
@@ -7620,9 +7640,9 @@
       <c r="I10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="37" t="s">
         <v>103</v>
       </c>
@@ -7637,9 +7657,9 @@
       <c r="I11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="75"/>
       <c r="D12" s="37" t="s">
         <v>103</v>
       </c>
@@ -7688,10 +7708,10 @@
       <c r="I14" s="37"/>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
+      <c r="A15" s="76">
         <v>3</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="77" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="42" t="s">
@@ -7711,9 +7731,9 @@
       <c r="I15" s="41"/>
     </row>
     <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="52" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="68" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="40" t="s">
@@ -7728,9 +7748,9 @@
       <c r="I16" s="41"/>
     </row>
     <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="53"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="69"/>
       <c r="D17" s="41" t="s">
         <v>81</v>
       </c>
@@ -7743,9 +7763,9 @@
       <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="54"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="41" t="s">
         <v>93</v>
       </c>
@@ -7758,8 +7778,8 @@
       <c r="I18" s="41"/>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
       <c r="C19" s="44" t="s">
         <v>76</v>
       </c>
@@ -7777,8 +7797,8 @@
       <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
       <c r="C20" s="42" t="s">
         <v>89</v>
       </c>
@@ -7794,21 +7814,55 @@
       <c r="I20" s="41"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="42" t="s">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="D21" s="40" t="s">
-        <v>84</v>
+        <v>167</v>
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="42" t="s">
-        <v>85</v>
+        <v>168</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="42"/>
       <c r="I21" s="41"/>
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+    </row>
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="D23" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7818,8 +7872,8 @@
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="B15:B23"/>
     <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,12 +12,12 @@
     <sheet name="数据修复" sheetId="2" r:id="rId3"/>
     <sheet name="上线准备执行方案" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="205">
   <si>
     <t>No</t>
   </si>
@@ -632,13 +627,179 @@
   </si>
   <si>
     <t>否</t>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、renter、renterPC、lts</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置同步房源的线程数量</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、lts</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.TEM_IMAGE_PATH=/data/script/tmp</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为存放房源封面的临时路径</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷传盛</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>“配置文件\systemconfig_bs_renter_renterpc.properties”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>“配置文件\systemconfig.properties”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig_BS系统钉钉配置文件.txt</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>sysconfig.dingtalk_corpid =838AA5611960DDC3AED16D6470A4B21BB321400DFF1FD3ED39377504D1D80206
+sysconfig.dingtalk_corpsecret =43CD8EBBF4F75696CB5F15E8CD51F105380ABD0DCB2E0B604AD495E0329E400CA8B3D1EE4B981255AFB829614032F214178474C80FD7C0251C15FD97FA6B071E4788530961C1743A441BD5B44098A04F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用钉钉的接口需要配置的参数</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>“配置文件\systemconfig_BS系统钉钉配置文件.txt”</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig_bs_renter_renterpc.properties</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VJYC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>#jyc
+sysconfig.jyc_merchantNumber=M107000001
+sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
+sysconfig.jyc_env=test</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于JYC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试环境</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>顾宝碗</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>#jyc
+sysconfig.jyc_merchantNumber=聚有财实际配置
+sysconfig.jyc_merchantName=聚有财实际配置
+sysconfig.jyc_env=pro</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#jyc
+sysconfig.jyc_merchantNumber=M107000001
+sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
+sysconfig.jyc_env=mock</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>开发环境</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -787,6 +948,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1003,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1076,9 +1244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1087,9 +1252,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1146,6 +1308,54 @@
     <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1197,53 +1407,14 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1258,6 +1429,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1277,7 +1516,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1597,98 +1836,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="79" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="80" customWidth="1"/>
-    <col min="3" max="3" width="15" style="79" customWidth="1"/>
-    <col min="4" max="4" width="18" style="79" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="79" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="80" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="79" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="80" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="80" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="79" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="79" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="79" customWidth="1"/>
-    <col min="13" max="14" width="10" style="80" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="80" customWidth="1"/>
-    <col min="16" max="16" width="12" style="78" customWidth="1"/>
-    <col min="17" max="17" width="17" style="78" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="78" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="80" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="60" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="61" customWidth="1"/>
+    <col min="3" max="3" width="15" style="60" customWidth="1"/>
+    <col min="4" max="4" width="18" style="60" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="60" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="61" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="60" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="61" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="61" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="60" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="60" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="60" customWidth="1"/>
+    <col min="13" max="14" width="10" style="61" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="61" customWidth="1"/>
+    <col min="16" max="16" width="12" style="59" customWidth="1"/>
+    <col min="17" max="17" width="17" style="59" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="59" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="61" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="77"/>
+    <col min="21" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="66" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:20" s="47" customFormat="1" ht="27">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="65" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="65" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="65" t="s">
+      <c r="K1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="65" t="s">
+      <c r="L1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="65" t="s">
+      <c r="M1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="65" t="s">
+      <c r="N1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="65" t="s">
+      <c r="O1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="65" t="s">
+      <c r="P1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="65" t="s">
+      <c r="Q1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="65" t="s">
+      <c r="R1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="65" t="s">
+      <c r="S1" s="46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="32">
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
@@ -1731,8 +1970,8 @@
       <c r="S2" s="19"/>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="32">
+    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="30">
         <v>2</v>
       </c>
       <c r="B3" s="22" t="s">
@@ -1775,8 +2014,8 @@
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="32">
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="30">
         <v>3</v>
       </c>
       <c r="B4" s="22" t="s">
@@ -1817,8 +2056,8 @@
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="32">
+    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="30">
         <v>4</v>
       </c>
       <c r="B5" s="22" t="s">
@@ -1859,8 +2098,8 @@
       <c r="S5" s="19"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="32">
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="30">
         <v>5</v>
       </c>
       <c r="B6" s="22" t="s">
@@ -1901,11 +2140,11 @@
       <c r="S6" s="19"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A7" s="32">
+    <row r="7" spans="1:20" s="21" customFormat="1" ht="33">
+      <c r="A7" s="30">
         <v>6</v>
       </c>
-      <c r="B7" s="33" t="s">
+      <c r="B7" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1943,11 +2182,11 @@
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A8" s="32">
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="33">
+      <c r="A8" s="30">
         <v>7</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="31" t="s">
         <v>127</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1985,11 +2224,11 @@
       <c r="S8" s="19"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A9" s="32">
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="33">
+      <c r="A9" s="30">
         <v>8</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="31" t="s">
         <v>130</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -2027,11 +2266,11 @@
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A10" s="32">
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="33">
+      <c r="A10" s="30">
         <v>9</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="31" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -2069,11 +2308,11 @@
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A11" s="32">
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="33">
+      <c r="A11" s="30">
         <v>10</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -2111,8 +2350,8 @@
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="32">
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A12" s="30">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
@@ -2155,8 +2394,8 @@
       <c r="S12" s="19"/>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="32">
+    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A13" s="30">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
@@ -2199,8 +2438,8 @@
       <c r="S13" s="19"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="32">
+    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A14" s="30">
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
@@ -2243,8 +2482,8 @@
       <c r="S14" s="19"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="32">
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A15" s="30">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
@@ -2287,8 +2526,8 @@
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="32">
+    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A16" s="30">
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
@@ -2331,8 +2570,8 @@
       <c r="S16" s="19"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="32">
+    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+      <c r="A17" s="30">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
@@ -2375,11 +2614,11 @@
       <c r="S17" s="19"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="32">
+    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1">
+      <c r="A18" s="30">
         <v>17</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="31" t="s">
         <v>150</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -2422,13 +2661,13 @@
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="67" t="s">
+      <c r="S18" s="48" t="s">
         <v>156</v>
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="69" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="32">
+    <row r="19" spans="1:20" s="50" customFormat="1" ht="23.25" customHeight="1">
+      <c r="A19" s="30">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
@@ -2477,11 +2716,11 @@
         <v>164</v>
       </c>
       <c r="S19" s="17"/>
-      <c r="T19" s="68"/>
-    </row>
-    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="32"/>
-      <c r="B20" s="33"/>
+      <c r="T19" s="49"/>
+    </row>
+    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -2501,9 +2740,9 @@
       <c r="S20" s="19"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="32"/>
-      <c r="B21" s="33"/>
+    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
@@ -2523,9 +2762,9 @@
       <c r="S21" s="19"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="32"/>
-      <c r="B22" s="33"/>
+    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -2545,9 +2784,9 @@
       <c r="S22" s="19"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
+    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A23" s="30"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="15"/>
@@ -2567,9 +2806,9 @@
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="32"/>
-      <c r="B24" s="33"/>
+    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -2589,9 +2828,9 @@
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A25" s="30"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -2611,9 +2850,9 @@
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="32"/>
-      <c r="B26" s="33"/>
+    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A26" s="30"/>
+      <c r="B26" s="31"/>
       <c r="C26" s="15"/>
       <c r="D26" s="15"/>
       <c r="E26" s="15"/>
@@ -2633,9 +2872,9 @@
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="32"/>
-      <c r="B27" s="33"/>
+    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="15"/>
       <c r="D27" s="15"/>
       <c r="E27" s="15"/>
@@ -2655,9 +2894,9 @@
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="32"/>
-      <c r="B28" s="33"/>
+    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="15"/>
       <c r="D28" s="15"/>
       <c r="E28" s="15"/>
@@ -2677,9 +2916,9 @@
       <c r="S28" s="19"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33"/>
+    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15"/>
@@ -2699,9 +2938,9 @@
       <c r="S29" s="19"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A30" s="32"/>
-      <c r="B30" s="33"/>
+    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
@@ -2721,9 +2960,9 @@
       <c r="S30" s="19"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A31" s="32"/>
-      <c r="B31" s="33"/>
+    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15"/>
@@ -2743,9 +2982,9 @@
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
+    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
       <c r="C32" s="15"/>
       <c r="D32" s="15"/>
       <c r="E32" s="15"/>
@@ -2765,9 +3004,9 @@
       <c r="S32" s="19"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
+    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
       <c r="E33" s="15"/>
@@ -2787,9 +3026,9 @@
       <c r="S33" s="19"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
+    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
@@ -2809,9 +3048,9 @@
       <c r="S34" s="19"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
+    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
@@ -2831,3220 +3070,3220 @@
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="70"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="70"/>
+    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="51"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="70"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="71"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="52"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="71"/>
+      <c r="S36" s="52"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="70"/>
+    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5">
+      <c r="A37" s="51"/>
+      <c r="B37" s="52"/>
+      <c r="C37" s="51"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="73"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="72"/>
-      <c r="O37" s="71"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="53"/>
+      <c r="O37" s="52"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="71"/>
+      <c r="S37" s="52"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="23"/>
-      <c r="B38" s="74"/>
+      <c r="B38" s="55"/>
       <c r="C38" s="23"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="75"/>
+      <c r="F38" s="56"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="76"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="57"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="75"/>
-      <c r="O38" s="74"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="55"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="74"/>
-    </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S38" s="55"/>
+    </row>
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="23"/>
-      <c r="B39" s="74"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="23"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="75"/>
+      <c r="F39" s="56"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="76"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="57"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
-      <c r="N39" s="75"/>
-      <c r="O39" s="74"/>
+      <c r="N39" s="56"/>
+      <c r="O39" s="55"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23"/>
-      <c r="S39" s="74"/>
-    </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S39" s="55"/>
+    </row>
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="23"/>
-      <c r="B40" s="74"/>
+      <c r="B40" s="55"/>
       <c r="C40" s="23"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="75"/>
+      <c r="F40" s="56"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="76"/>
+      <c r="H40" s="56"/>
+      <c r="I40" s="57"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
-      <c r="N40" s="75"/>
-      <c r="O40" s="74"/>
+      <c r="N40" s="56"/>
+      <c r="O40" s="55"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="74"/>
-    </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S40" s="55"/>
+    </row>
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="23"/>
-      <c r="B41" s="74"/>
+      <c r="B41" s="55"/>
       <c r="C41" s="23"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="75"/>
+      <c r="F41" s="56"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="76"/>
+      <c r="H41" s="56"/>
+      <c r="I41" s="57"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
-      <c r="N41" s="75"/>
-      <c r="O41" s="74"/>
+      <c r="N41" s="56"/>
+      <c r="O41" s="55"/>
       <c r="P41" s="23"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
-      <c r="S41" s="74"/>
-    </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S41" s="55"/>
+    </row>
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="23"/>
-      <c r="B42" s="74"/>
+      <c r="B42" s="55"/>
       <c r="C42" s="23"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="75"/>
+      <c r="F42" s="56"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="76"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="57"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
-      <c r="N42" s="75"/>
-      <c r="O42" s="74"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="55"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
-      <c r="S42" s="74"/>
-    </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S42" s="55"/>
+    </row>
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="23"/>
-      <c r="B43" s="74"/>
+      <c r="B43" s="55"/>
       <c r="C43" s="23"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="75"/>
+      <c r="F43" s="56"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="76"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="57"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="75"/>
-      <c r="O43" s="74"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="55"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
-      <c r="S43" s="74"/>
-    </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S43" s="55"/>
+    </row>
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="23"/>
-      <c r="B44" s="74"/>
+      <c r="B44" s="55"/>
       <c r="C44" s="23"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="75"/>
+      <c r="F44" s="56"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="76"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="57"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="75"/>
-      <c r="O44" s="74"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="55"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
-      <c r="S44" s="74"/>
-    </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S44" s="55"/>
+    </row>
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="23"/>
-      <c r="B45" s="74"/>
+      <c r="B45" s="55"/>
       <c r="C45" s="23"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="75"/>
+      <c r="F45" s="56"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="75"/>
-      <c r="I45" s="76"/>
+      <c r="H45" s="56"/>
+      <c r="I45" s="57"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
-      <c r="N45" s="75"/>
-      <c r="O45" s="74"/>
+      <c r="N45" s="56"/>
+      <c r="O45" s="55"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="74"/>
-    </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S45" s="55"/>
+    </row>
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="23"/>
-      <c r="B46" s="74"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="23"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="75"/>
+      <c r="F46" s="56"/>
       <c r="G46" s="23"/>
-      <c r="H46" s="75"/>
-      <c r="I46" s="76"/>
+      <c r="H46" s="56"/>
+      <c r="I46" s="57"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="74"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="55"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
-      <c r="S46" s="74"/>
-    </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S46" s="55"/>
+    </row>
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="23"/>
-      <c r="B47" s="74"/>
+      <c r="B47" s="55"/>
       <c r="C47" s="23"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="75"/>
+      <c r="F47" s="56"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="75"/>
-      <c r="I47" s="76"/>
+      <c r="H47" s="56"/>
+      <c r="I47" s="57"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
-      <c r="N47" s="75"/>
-      <c r="O47" s="74"/>
+      <c r="N47" s="56"/>
+      <c r="O47" s="55"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
       <c r="R47" s="23"/>
-      <c r="S47" s="74"/>
-    </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S47" s="55"/>
+    </row>
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="23"/>
-      <c r="B48" s="74"/>
+      <c r="B48" s="55"/>
       <c r="C48" s="23"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="75"/>
+      <c r="F48" s="56"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="75"/>
-      <c r="I48" s="76"/>
+      <c r="H48" s="56"/>
+      <c r="I48" s="57"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
-      <c r="N48" s="75"/>
-      <c r="O48" s="74"/>
+      <c r="N48" s="56"/>
+      <c r="O48" s="55"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
       <c r="R48" s="23"/>
-      <c r="S48" s="74"/>
-    </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S48" s="55"/>
+    </row>
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="23"/>
-      <c r="B49" s="74"/>
+      <c r="B49" s="55"/>
       <c r="C49" s="23"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="75"/>
+      <c r="F49" s="56"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="76"/>
+      <c r="H49" s="56"/>
+      <c r="I49" s="57"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
-      <c r="N49" s="75"/>
-      <c r="O49" s="74"/>
+      <c r="N49" s="56"/>
+      <c r="O49" s="55"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="23"/>
-      <c r="S49" s="74"/>
-    </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S49" s="55"/>
+    </row>
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="23"/>
-      <c r="B50" s="74"/>
+      <c r="B50" s="55"/>
       <c r="C50" s="23"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="75"/>
+      <c r="F50" s="56"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="75"/>
-      <c r="I50" s="76"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="57"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
-      <c r="N50" s="75"/>
-      <c r="O50" s="74"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="55"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
       <c r="R50" s="23"/>
-      <c r="S50" s="74"/>
-    </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S50" s="55"/>
+    </row>
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="23"/>
-      <c r="B51" s="74"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="23"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="75"/>
+      <c r="F51" s="56"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="75"/>
-      <c r="I51" s="76"/>
+      <c r="H51" s="56"/>
+      <c r="I51" s="57"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="74"/>
+      <c r="N51" s="56"/>
+      <c r="O51" s="55"/>
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
       <c r="R51" s="23"/>
-      <c r="S51" s="74"/>
-    </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S51" s="55"/>
+    </row>
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="23"/>
-      <c r="B52" s="74"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="23"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="75"/>
+      <c r="F52" s="56"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="75"/>
-      <c r="I52" s="76"/>
+      <c r="H52" s="56"/>
+      <c r="I52" s="57"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
-      <c r="N52" s="75"/>
-      <c r="O52" s="74"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="55"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
-      <c r="S52" s="74"/>
-    </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S52" s="55"/>
+    </row>
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="23"/>
-      <c r="B53" s="74"/>
+      <c r="B53" s="55"/>
       <c r="C53" s="23"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="75"/>
+      <c r="F53" s="56"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="75"/>
-      <c r="I53" s="76"/>
+      <c r="H53" s="56"/>
+      <c r="I53" s="57"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
-      <c r="N53" s="75"/>
-      <c r="O53" s="74"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="55"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
       <c r="R53" s="23"/>
-      <c r="S53" s="74"/>
-    </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S53" s="55"/>
+    </row>
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="23"/>
-      <c r="B54" s="74"/>
+      <c r="B54" s="55"/>
       <c r="C54" s="23"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="75"/>
+      <c r="F54" s="56"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="75"/>
-      <c r="I54" s="76"/>
+      <c r="H54" s="56"/>
+      <c r="I54" s="57"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
-      <c r="N54" s="75"/>
-      <c r="O54" s="74"/>
+      <c r="N54" s="56"/>
+      <c r="O54" s="55"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
       <c r="R54" s="23"/>
-      <c r="S54" s="74"/>
-    </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S54" s="55"/>
+    </row>
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="23"/>
-      <c r="B55" s="74"/>
+      <c r="B55" s="55"/>
       <c r="C55" s="23"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="75"/>
+      <c r="F55" s="56"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="76"/>
+      <c r="H55" s="56"/>
+      <c r="I55" s="57"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
-      <c r="N55" s="75"/>
-      <c r="O55" s="74"/>
+      <c r="N55" s="56"/>
+      <c r="O55" s="55"/>
       <c r="P55" s="23"/>
       <c r="Q55" s="23"/>
       <c r="R55" s="23"/>
-      <c r="S55" s="74"/>
-    </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S55" s="55"/>
+    </row>
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="23"/>
-      <c r="B56" s="74"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="23"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="75"/>
+      <c r="F56" s="56"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="75"/>
-      <c r="I56" s="76"/>
+      <c r="H56" s="56"/>
+      <c r="I56" s="57"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
-      <c r="N56" s="75"/>
-      <c r="O56" s="74"/>
+      <c r="N56" s="56"/>
+      <c r="O56" s="55"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
       <c r="R56" s="23"/>
-      <c r="S56" s="74"/>
-    </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S56" s="55"/>
+    </row>
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="23"/>
-      <c r="B57" s="74"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="23"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
-      <c r="F57" s="75"/>
+      <c r="F57" s="56"/>
       <c r="G57" s="23"/>
-      <c r="H57" s="75"/>
-      <c r="I57" s="76"/>
+      <c r="H57" s="56"/>
+      <c r="I57" s="57"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
-      <c r="N57" s="75"/>
-      <c r="O57" s="74"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="55"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="23"/>
       <c r="R57" s="23"/>
-      <c r="S57" s="74"/>
-    </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S57" s="55"/>
+    </row>
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="23"/>
-      <c r="B58" s="74"/>
+      <c r="B58" s="55"/>
       <c r="C58" s="23"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="F58" s="75"/>
+      <c r="F58" s="56"/>
       <c r="G58" s="23"/>
-      <c r="H58" s="75"/>
-      <c r="I58" s="76"/>
+      <c r="H58" s="56"/>
+      <c r="I58" s="57"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
-      <c r="N58" s="75"/>
-      <c r="O58" s="74"/>
+      <c r="N58" s="56"/>
+      <c r="O58" s="55"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
-      <c r="S58" s="74"/>
-    </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S58" s="55"/>
+    </row>
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="23"/>
-      <c r="B59" s="74"/>
+      <c r="B59" s="55"/>
       <c r="C59" s="23"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="75"/>
+      <c r="F59" s="56"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="75"/>
-      <c r="I59" s="76"/>
+      <c r="H59" s="56"/>
+      <c r="I59" s="57"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
-      <c r="N59" s="75"/>
-      <c r="O59" s="74"/>
+      <c r="N59" s="56"/>
+      <c r="O59" s="55"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
-      <c r="S59" s="74"/>
-    </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S59" s="55"/>
+    </row>
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="23"/>
-      <c r="B60" s="74"/>
+      <c r="B60" s="55"/>
       <c r="C60" s="23"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="75"/>
+      <c r="F60" s="56"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="75"/>
-      <c r="I60" s="76"/>
+      <c r="H60" s="56"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
-      <c r="N60" s="75"/>
-      <c r="O60" s="74"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="55"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
       <c r="R60" s="23"/>
-      <c r="S60" s="74"/>
-    </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S60" s="55"/>
+    </row>
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="23"/>
-      <c r="B61" s="74"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="23"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="75"/>
+      <c r="F61" s="56"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="75"/>
-      <c r="I61" s="76"/>
+      <c r="H61" s="56"/>
+      <c r="I61" s="57"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
-      <c r="N61" s="75"/>
-      <c r="O61" s="74"/>
+      <c r="N61" s="56"/>
+      <c r="O61" s="55"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
       <c r="R61" s="23"/>
-      <c r="S61" s="74"/>
-    </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S61" s="55"/>
+    </row>
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="23"/>
-      <c r="B62" s="74"/>
+      <c r="B62" s="55"/>
       <c r="C62" s="23"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="75"/>
+      <c r="F62" s="56"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="75"/>
-      <c r="I62" s="76"/>
+      <c r="H62" s="56"/>
+      <c r="I62" s="57"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
-      <c r="N62" s="75"/>
-      <c r="O62" s="74"/>
+      <c r="N62" s="56"/>
+      <c r="O62" s="55"/>
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
-      <c r="S62" s="74"/>
-    </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S62" s="55"/>
+    </row>
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="23"/>
-      <c r="B63" s="74"/>
+      <c r="B63" s="55"/>
       <c r="C63" s="23"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="75"/>
+      <c r="F63" s="56"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="75"/>
-      <c r="I63" s="76"/>
+      <c r="H63" s="56"/>
+      <c r="I63" s="57"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
-      <c r="N63" s="75"/>
-      <c r="O63" s="74"/>
+      <c r="N63" s="56"/>
+      <c r="O63" s="55"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
       <c r="R63" s="23"/>
-      <c r="S63" s="74"/>
-    </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S63" s="55"/>
+    </row>
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="23"/>
-      <c r="B64" s="74"/>
+      <c r="B64" s="55"/>
       <c r="C64" s="23"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="75"/>
+      <c r="F64" s="56"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="75"/>
-      <c r="I64" s="76"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="57"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
-      <c r="N64" s="75"/>
-      <c r="O64" s="74"/>
+      <c r="N64" s="56"/>
+      <c r="O64" s="55"/>
       <c r="P64" s="23"/>
       <c r="Q64" s="23"/>
       <c r="R64" s="23"/>
-      <c r="S64" s="74"/>
-    </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S64" s="55"/>
+    </row>
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="23"/>
-      <c r="B65" s="74"/>
+      <c r="B65" s="55"/>
       <c r="C65" s="23"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="75"/>
+      <c r="F65" s="56"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="75"/>
-      <c r="I65" s="76"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="57"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
-      <c r="N65" s="75"/>
-      <c r="O65" s="74"/>
+      <c r="N65" s="56"/>
+      <c r="O65" s="55"/>
       <c r="P65" s="23"/>
       <c r="Q65" s="23"/>
       <c r="R65" s="23"/>
-      <c r="S65" s="74"/>
-    </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S65" s="55"/>
+    </row>
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="23"/>
-      <c r="B66" s="74"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="23"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="75"/>
+      <c r="F66" s="56"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="75"/>
-      <c r="I66" s="76"/>
+      <c r="H66" s="56"/>
+      <c r="I66" s="57"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
-      <c r="N66" s="75"/>
-      <c r="O66" s="74"/>
+      <c r="N66" s="56"/>
+      <c r="O66" s="55"/>
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
       <c r="R66" s="23"/>
-      <c r="S66" s="74"/>
-    </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S66" s="55"/>
+    </row>
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="23"/>
-      <c r="B67" s="74"/>
+      <c r="B67" s="55"/>
       <c r="C67" s="23"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="75"/>
+      <c r="F67" s="56"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="75"/>
-      <c r="I67" s="76"/>
+      <c r="H67" s="56"/>
+      <c r="I67" s="57"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
-      <c r="N67" s="75"/>
-      <c r="O67" s="74"/>
+      <c r="N67" s="56"/>
+      <c r="O67" s="55"/>
       <c r="P67" s="23"/>
       <c r="Q67" s="23"/>
       <c r="R67" s="23"/>
-      <c r="S67" s="74"/>
-    </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S67" s="55"/>
+    </row>
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="23"/>
-      <c r="B68" s="74"/>
+      <c r="B68" s="55"/>
       <c r="C68" s="23"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="75"/>
+      <c r="F68" s="56"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="75"/>
-      <c r="I68" s="76"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="57"/>
       <c r="J68" s="23"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
-      <c r="N68" s="75"/>
-      <c r="O68" s="74"/>
+      <c r="N68" s="56"/>
+      <c r="O68" s="55"/>
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
-      <c r="S68" s="74"/>
-    </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S68" s="55"/>
+    </row>
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="23"/>
-      <c r="B69" s="74"/>
+      <c r="B69" s="55"/>
       <c r="C69" s="23"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="75"/>
+      <c r="F69" s="56"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="75"/>
-      <c r="I69" s="76"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="57"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
-      <c r="N69" s="75"/>
-      <c r="O69" s="74"/>
+      <c r="N69" s="56"/>
+      <c r="O69" s="55"/>
       <c r="P69" s="23"/>
       <c r="Q69" s="23"/>
       <c r="R69" s="23"/>
-      <c r="S69" s="74"/>
-    </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S69" s="55"/>
+    </row>
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="23"/>
-      <c r="B70" s="74"/>
+      <c r="B70" s="55"/>
       <c r="C70" s="23"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-      <c r="F70" s="75"/>
+      <c r="F70" s="56"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="75"/>
-      <c r="I70" s="76"/>
+      <c r="H70" s="56"/>
+      <c r="I70" s="57"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
-      <c r="N70" s="75"/>
-      <c r="O70" s="74"/>
+      <c r="N70" s="56"/>
+      <c r="O70" s="55"/>
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
       <c r="R70" s="23"/>
-      <c r="S70" s="74"/>
-    </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S70" s="55"/>
+    </row>
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="23"/>
-      <c r="B71" s="74"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="23"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="75"/>
+      <c r="F71" s="56"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="75"/>
-      <c r="I71" s="76"/>
+      <c r="H71" s="56"/>
+      <c r="I71" s="57"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="75"/>
-      <c r="O71" s="74"/>
+      <c r="N71" s="56"/>
+      <c r="O71" s="55"/>
       <c r="P71" s="23"/>
       <c r="Q71" s="23"/>
       <c r="R71" s="23"/>
-      <c r="S71" s="74"/>
-    </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S71" s="55"/>
+    </row>
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="23"/>
-      <c r="B72" s="74"/>
+      <c r="B72" s="55"/>
       <c r="C72" s="23"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="75"/>
+      <c r="F72" s="56"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="75"/>
-      <c r="I72" s="76"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="57"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
-      <c r="N72" s="75"/>
-      <c r="O72" s="74"/>
+      <c r="N72" s="56"/>
+      <c r="O72" s="55"/>
       <c r="P72" s="23"/>
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
-      <c r="S72" s="74"/>
-    </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S72" s="55"/>
+    </row>
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="23"/>
-      <c r="B73" s="74"/>
+      <c r="B73" s="55"/>
       <c r="C73" s="23"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="75"/>
+      <c r="F73" s="56"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="75"/>
-      <c r="I73" s="76"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="57"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
       <c r="M73" s="23"/>
-      <c r="N73" s="75"/>
-      <c r="O73" s="74"/>
+      <c r="N73" s="56"/>
+      <c r="O73" s="55"/>
       <c r="P73" s="23"/>
       <c r="Q73" s="23"/>
       <c r="R73" s="23"/>
-      <c r="S73" s="74"/>
-    </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S73" s="55"/>
+    </row>
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="23"/>
-      <c r="B74" s="74"/>
+      <c r="B74" s="55"/>
       <c r="C74" s="23"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="75"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="23"/>
-      <c r="H74" s="75"/>
-      <c r="I74" s="76"/>
+      <c r="H74" s="56"/>
+      <c r="I74" s="57"/>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
       <c r="M74" s="23"/>
-      <c r="N74" s="75"/>
-      <c r="O74" s="74"/>
+      <c r="N74" s="56"/>
+      <c r="O74" s="55"/>
       <c r="P74" s="23"/>
       <c r="Q74" s="23"/>
       <c r="R74" s="23"/>
-      <c r="S74" s="74"/>
-    </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S74" s="55"/>
+    </row>
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="23"/>
-      <c r="B75" s="74"/>
+      <c r="B75" s="55"/>
       <c r="C75" s="23"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="75"/>
+      <c r="F75" s="56"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="76"/>
+      <c r="H75" s="56"/>
+      <c r="I75" s="57"/>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
-      <c r="N75" s="75"/>
-      <c r="O75" s="74"/>
+      <c r="N75" s="56"/>
+      <c r="O75" s="55"/>
       <c r="P75" s="23"/>
       <c r="Q75" s="23"/>
       <c r="R75" s="23"/>
-      <c r="S75" s="74"/>
-    </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S75" s="55"/>
+    </row>
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="23"/>
-      <c r="B76" s="74"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="23"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="75"/>
+      <c r="F76" s="56"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="76"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="57"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
       <c r="M76" s="23"/>
-      <c r="N76" s="75"/>
-      <c r="O76" s="74"/>
+      <c r="N76" s="56"/>
+      <c r="O76" s="55"/>
       <c r="P76" s="23"/>
       <c r="Q76" s="23"/>
       <c r="R76" s="23"/>
-      <c r="S76" s="74"/>
-    </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S76" s="55"/>
+    </row>
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="23"/>
-      <c r="B77" s="74"/>
+      <c r="B77" s="55"/>
       <c r="C77" s="23"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="75"/>
+      <c r="F77" s="56"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="75"/>
-      <c r="I77" s="76"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="57"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
       <c r="M77" s="23"/>
-      <c r="N77" s="75"/>
-      <c r="O77" s="74"/>
+      <c r="N77" s="56"/>
+      <c r="O77" s="55"/>
       <c r="P77" s="23"/>
       <c r="Q77" s="23"/>
       <c r="R77" s="23"/>
-      <c r="S77" s="74"/>
-    </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S77" s="55"/>
+    </row>
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="23"/>
-      <c r="B78" s="74"/>
+      <c r="B78" s="55"/>
       <c r="C78" s="23"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-      <c r="F78" s="75"/>
+      <c r="F78" s="56"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="75"/>
-      <c r="I78" s="76"/>
+      <c r="H78" s="56"/>
+      <c r="I78" s="57"/>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
       <c r="M78" s="23"/>
-      <c r="N78" s="75"/>
-      <c r="O78" s="74"/>
+      <c r="N78" s="56"/>
+      <c r="O78" s="55"/>
       <c r="P78" s="23"/>
       <c r="Q78" s="23"/>
       <c r="R78" s="23"/>
-      <c r="S78" s="74"/>
-    </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S78" s="55"/>
+    </row>
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="23"/>
-      <c r="B79" s="74"/>
+      <c r="B79" s="55"/>
       <c r="C79" s="23"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="75"/>
+      <c r="F79" s="56"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="75"/>
-      <c r="I79" s="76"/>
+      <c r="H79" s="56"/>
+      <c r="I79" s="57"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
-      <c r="N79" s="75"/>
-      <c r="O79" s="74"/>
+      <c r="N79" s="56"/>
+      <c r="O79" s="55"/>
       <c r="P79" s="23"/>
       <c r="Q79" s="23"/>
       <c r="R79" s="23"/>
-      <c r="S79" s="74"/>
-    </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S79" s="55"/>
+    </row>
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="23"/>
-      <c r="B80" s="74"/>
+      <c r="B80" s="55"/>
       <c r="C80" s="23"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="75"/>
+      <c r="F80" s="56"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="75"/>
-      <c r="I80" s="76"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="57"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="75"/>
-      <c r="O80" s="74"/>
+      <c r="N80" s="56"/>
+      <c r="O80" s="55"/>
       <c r="P80" s="23"/>
       <c r="Q80" s="23"/>
       <c r="R80" s="23"/>
-      <c r="S80" s="74"/>
-    </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S80" s="55"/>
+    </row>
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="23"/>
-      <c r="B81" s="74"/>
+      <c r="B81" s="55"/>
       <c r="C81" s="23"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
-      <c r="F81" s="75"/>
+      <c r="F81" s="56"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="75"/>
-      <c r="I81" s="76"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="57"/>
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
       <c r="M81" s="23"/>
-      <c r="N81" s="75"/>
-      <c r="O81" s="74"/>
+      <c r="N81" s="56"/>
+      <c r="O81" s="55"/>
       <c r="P81" s="23"/>
       <c r="Q81" s="23"/>
       <c r="R81" s="23"/>
-      <c r="S81" s="74"/>
-    </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S81" s="55"/>
+    </row>
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="23"/>
-      <c r="B82" s="74"/>
+      <c r="B82" s="55"/>
       <c r="C82" s="23"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
-      <c r="F82" s="75"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="75"/>
-      <c r="I82" s="76"/>
+      <c r="H82" s="56"/>
+      <c r="I82" s="57"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
       <c r="M82" s="23"/>
-      <c r="N82" s="75"/>
-      <c r="O82" s="74"/>
+      <c r="N82" s="56"/>
+      <c r="O82" s="55"/>
       <c r="P82" s="23"/>
       <c r="Q82" s="23"/>
       <c r="R82" s="23"/>
-      <c r="S82" s="74"/>
-    </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S82" s="55"/>
+    </row>
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="23"/>
-      <c r="B83" s="74"/>
+      <c r="B83" s="55"/>
       <c r="C83" s="23"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
-      <c r="F83" s="75"/>
+      <c r="F83" s="56"/>
       <c r="G83" s="23"/>
-      <c r="H83" s="75"/>
-      <c r="I83" s="76"/>
+      <c r="H83" s="56"/>
+      <c r="I83" s="57"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
-      <c r="N83" s="75"/>
-      <c r="O83" s="74"/>
+      <c r="N83" s="56"/>
+      <c r="O83" s="55"/>
       <c r="P83" s="23"/>
       <c r="Q83" s="23"/>
       <c r="R83" s="23"/>
-      <c r="S83" s="74"/>
-    </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S83" s="55"/>
+    </row>
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="23"/>
-      <c r="B84" s="74"/>
+      <c r="B84" s="55"/>
       <c r="C84" s="23"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="75"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="75"/>
-      <c r="I84" s="76"/>
+      <c r="H84" s="56"/>
+      <c r="I84" s="57"/>
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
-      <c r="N84" s="75"/>
-      <c r="O84" s="74"/>
+      <c r="N84" s="56"/>
+      <c r="O84" s="55"/>
       <c r="P84" s="23"/>
       <c r="Q84" s="23"/>
       <c r="R84" s="23"/>
-      <c r="S84" s="74"/>
-    </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S84" s="55"/>
+    </row>
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="23"/>
-      <c r="B85" s="74"/>
+      <c r="B85" s="55"/>
       <c r="C85" s="23"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-      <c r="F85" s="75"/>
+      <c r="F85" s="56"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="75"/>
-      <c r="I85" s="76"/>
+      <c r="H85" s="56"/>
+      <c r="I85" s="57"/>
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
-      <c r="N85" s="75"/>
-      <c r="O85" s="74"/>
+      <c r="N85" s="56"/>
+      <c r="O85" s="55"/>
       <c r="P85" s="23"/>
       <c r="Q85" s="23"/>
       <c r="R85" s="23"/>
-      <c r="S85" s="74"/>
-    </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S85" s="55"/>
+    </row>
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="23"/>
-      <c r="B86" s="74"/>
+      <c r="B86" s="55"/>
       <c r="C86" s="23"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
-      <c r="F86" s="75"/>
+      <c r="F86" s="56"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="75"/>
-      <c r="I86" s="76"/>
+      <c r="H86" s="56"/>
+      <c r="I86" s="57"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
       <c r="M86" s="23"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="74"/>
+      <c r="N86" s="56"/>
+      <c r="O86" s="55"/>
       <c r="P86" s="23"/>
       <c r="Q86" s="23"/>
       <c r="R86" s="23"/>
-      <c r="S86" s="74"/>
-    </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S86" s="55"/>
+    </row>
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="23"/>
-      <c r="B87" s="74"/>
+      <c r="B87" s="55"/>
       <c r="C87" s="23"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-      <c r="F87" s="75"/>
+      <c r="F87" s="56"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="75"/>
-      <c r="I87" s="76"/>
+      <c r="H87" s="56"/>
+      <c r="I87" s="57"/>
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
-      <c r="N87" s="75"/>
-      <c r="O87" s="74"/>
+      <c r="N87" s="56"/>
+      <c r="O87" s="55"/>
       <c r="P87" s="23"/>
       <c r="Q87" s="23"/>
       <c r="R87" s="23"/>
-      <c r="S87" s="74"/>
-    </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S87" s="55"/>
+    </row>
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="23"/>
-      <c r="B88" s="74"/>
+      <c r="B88" s="55"/>
       <c r="C88" s="23"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-      <c r="F88" s="75"/>
+      <c r="F88" s="56"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="76"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="57"/>
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
       <c r="M88" s="23"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="74"/>
+      <c r="N88" s="56"/>
+      <c r="O88" s="55"/>
       <c r="P88" s="23"/>
       <c r="Q88" s="23"/>
       <c r="R88" s="23"/>
-      <c r="S88" s="74"/>
-    </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S88" s="55"/>
+    </row>
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="23"/>
-      <c r="B89" s="74"/>
+      <c r="B89" s="55"/>
       <c r="C89" s="23"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-      <c r="F89" s="75"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="75"/>
-      <c r="I89" s="76"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="57"/>
       <c r="J89" s="23"/>
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
       <c r="M89" s="23"/>
-      <c r="N89" s="75"/>
-      <c r="O89" s="74"/>
+      <c r="N89" s="56"/>
+      <c r="O89" s="55"/>
       <c r="P89" s="23"/>
       <c r="Q89" s="23"/>
       <c r="R89" s="23"/>
-      <c r="S89" s="74"/>
-    </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S89" s="55"/>
+    </row>
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="23"/>
-      <c r="B90" s="74"/>
+      <c r="B90" s="55"/>
       <c r="C90" s="23"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-      <c r="F90" s="75"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="75"/>
-      <c r="I90" s="76"/>
+      <c r="H90" s="56"/>
+      <c r="I90" s="57"/>
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
       <c r="M90" s="23"/>
-      <c r="N90" s="75"/>
-      <c r="O90" s="74"/>
+      <c r="N90" s="56"/>
+      <c r="O90" s="55"/>
       <c r="P90" s="23"/>
       <c r="Q90" s="23"/>
       <c r="R90" s="23"/>
-      <c r="S90" s="74"/>
-    </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S90" s="55"/>
+    </row>
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="23"/>
-      <c r="B91" s="74"/>
+      <c r="B91" s="55"/>
       <c r="C91" s="23"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="F91" s="75"/>
+      <c r="F91" s="56"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="75"/>
-      <c r="I91" s="76"/>
+      <c r="H91" s="56"/>
+      <c r="I91" s="57"/>
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
       <c r="M91" s="23"/>
-      <c r="N91" s="75"/>
-      <c r="O91" s="74"/>
+      <c r="N91" s="56"/>
+      <c r="O91" s="55"/>
       <c r="P91" s="23"/>
       <c r="Q91" s="23"/>
       <c r="R91" s="23"/>
-      <c r="S91" s="74"/>
-    </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S91" s="55"/>
+    </row>
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="23"/>
-      <c r="B92" s="74"/>
+      <c r="B92" s="55"/>
       <c r="C92" s="23"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
-      <c r="F92" s="75"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="23"/>
-      <c r="H92" s="75"/>
-      <c r="I92" s="76"/>
+      <c r="H92" s="56"/>
+      <c r="I92" s="57"/>
       <c r="J92" s="23"/>
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
       <c r="M92" s="23"/>
-      <c r="N92" s="75"/>
-      <c r="O92" s="74"/>
+      <c r="N92" s="56"/>
+      <c r="O92" s="55"/>
       <c r="P92" s="23"/>
       <c r="Q92" s="23"/>
       <c r="R92" s="23"/>
-      <c r="S92" s="74"/>
-    </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S92" s="55"/>
+    </row>
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="23"/>
-      <c r="B93" s="74"/>
+      <c r="B93" s="55"/>
       <c r="C93" s="23"/>
       <c r="D93" s="15"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="75"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="23"/>
-      <c r="H93" s="75"/>
-      <c r="I93" s="76"/>
+      <c r="H93" s="56"/>
+      <c r="I93" s="57"/>
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
       <c r="M93" s="23"/>
-      <c r="N93" s="75"/>
-      <c r="O93" s="74"/>
+      <c r="N93" s="56"/>
+      <c r="O93" s="55"/>
       <c r="P93" s="23"/>
       <c r="Q93" s="23"/>
       <c r="R93" s="23"/>
-      <c r="S93" s="74"/>
-    </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S93" s="55"/>
+    </row>
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="23"/>
-      <c r="B94" s="74"/>
+      <c r="B94" s="55"/>
       <c r="C94" s="23"/>
       <c r="D94" s="15"/>
       <c r="E94" s="23"/>
-      <c r="F94" s="75"/>
+      <c r="F94" s="56"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="75"/>
-      <c r="I94" s="76"/>
+      <c r="H94" s="56"/>
+      <c r="I94" s="57"/>
       <c r="J94" s="23"/>
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
       <c r="M94" s="23"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="74"/>
+      <c r="N94" s="56"/>
+      <c r="O94" s="55"/>
       <c r="P94" s="23"/>
       <c r="Q94" s="23"/>
       <c r="R94" s="23"/>
-      <c r="S94" s="74"/>
-    </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S94" s="55"/>
+    </row>
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="23"/>
-      <c r="B95" s="74"/>
+      <c r="B95" s="55"/>
       <c r="C95" s="23"/>
       <c r="D95" s="15"/>
       <c r="E95" s="23"/>
-      <c r="F95" s="75"/>
+      <c r="F95" s="56"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="75"/>
-      <c r="I95" s="76"/>
+      <c r="H95" s="56"/>
+      <c r="I95" s="57"/>
       <c r="J95" s="23"/>
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
       <c r="M95" s="23"/>
-      <c r="N95" s="75"/>
-      <c r="O95" s="74"/>
+      <c r="N95" s="56"/>
+      <c r="O95" s="55"/>
       <c r="P95" s="23"/>
       <c r="Q95" s="23"/>
       <c r="R95" s="23"/>
-      <c r="S95" s="74"/>
-    </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S95" s="55"/>
+    </row>
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="23"/>
-      <c r="B96" s="74"/>
+      <c r="B96" s="55"/>
       <c r="C96" s="23"/>
       <c r="D96" s="15"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="75"/>
+      <c r="F96" s="56"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="75"/>
-      <c r="I96" s="76"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="57"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
       <c r="M96" s="23"/>
-      <c r="N96" s="75"/>
-      <c r="O96" s="74"/>
+      <c r="N96" s="56"/>
+      <c r="O96" s="55"/>
       <c r="P96" s="23"/>
       <c r="Q96" s="23"/>
       <c r="R96" s="23"/>
-      <c r="S96" s="74"/>
-    </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S96" s="55"/>
+    </row>
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="23"/>
-      <c r="B97" s="74"/>
+      <c r="B97" s="55"/>
       <c r="C97" s="23"/>
       <c r="D97" s="15"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="75"/>
+      <c r="F97" s="56"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="75"/>
-      <c r="I97" s="76"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="57"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
       <c r="M97" s="23"/>
-      <c r="N97" s="75"/>
-      <c r="O97" s="74"/>
+      <c r="N97" s="56"/>
+      <c r="O97" s="55"/>
       <c r="P97" s="23"/>
       <c r="Q97" s="23"/>
       <c r="R97" s="23"/>
-      <c r="S97" s="74"/>
-    </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="S97" s="55"/>
+    </row>
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="23"/>
-      <c r="B98" s="74"/>
+      <c r="B98" s="55"/>
       <c r="C98" s="23"/>
       <c r="D98" s="15"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="75"/>
+      <c r="F98" s="56"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="75"/>
-      <c r="I98" s="76"/>
+      <c r="H98" s="56"/>
+      <c r="I98" s="57"/>
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
       <c r="M98" s="23"/>
-      <c r="N98" s="75"/>
-      <c r="O98" s="74"/>
+      <c r="N98" s="56"/>
+      <c r="O98" s="55"/>
       <c r="P98" s="23"/>
       <c r="Q98" s="23"/>
       <c r="R98" s="23"/>
-      <c r="S98" s="74"/>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S98" s="55"/>
+    </row>
+    <row r="99" spans="1:19">
       <c r="A99" s="23"/>
-      <c r="B99" s="74"/>
+      <c r="B99" s="55"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="75"/>
+      <c r="F99" s="56"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="75"/>
-      <c r="I99" s="76"/>
+      <c r="H99" s="56"/>
+      <c r="I99" s="57"/>
       <c r="J99" s="23"/>
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
       <c r="M99" s="23"/>
-      <c r="N99" s="75"/>
-      <c r="O99" s="74"/>
+      <c r="N99" s="56"/>
+      <c r="O99" s="55"/>
       <c r="P99" s="23"/>
       <c r="Q99" s="23"/>
       <c r="R99" s="23"/>
-      <c r="S99" s="74"/>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S99" s="55"/>
+    </row>
+    <row r="100" spans="1:19">
       <c r="A100" s="23"/>
-      <c r="B100" s="74"/>
+      <c r="B100" s="55"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="75"/>
+      <c r="F100" s="56"/>
       <c r="G100" s="23"/>
-      <c r="H100" s="75"/>
-      <c r="I100" s="76"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="57"/>
       <c r="J100" s="23"/>
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
       <c r="M100" s="23"/>
-      <c r="N100" s="75"/>
-      <c r="O100" s="74"/>
+      <c r="N100" s="56"/>
+      <c r="O100" s="55"/>
       <c r="P100" s="23"/>
       <c r="Q100" s="23"/>
       <c r="R100" s="23"/>
-      <c r="S100" s="74"/>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S100" s="55"/>
+    </row>
+    <row r="101" spans="1:19">
       <c r="A101" s="23"/>
-      <c r="B101" s="74"/>
+      <c r="B101" s="55"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
-      <c r="F101" s="75"/>
+      <c r="F101" s="56"/>
       <c r="G101" s="23"/>
-      <c r="H101" s="75"/>
-      <c r="I101" s="76"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="57"/>
       <c r="J101" s="23"/>
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
       <c r="M101" s="23"/>
-      <c r="N101" s="75"/>
-      <c r="O101" s="74"/>
+      <c r="N101" s="56"/>
+      <c r="O101" s="55"/>
       <c r="P101" s="23"/>
       <c r="Q101" s="23"/>
       <c r="R101" s="23"/>
-      <c r="S101" s="74"/>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S101" s="55"/>
+    </row>
+    <row r="102" spans="1:19">
       <c r="A102" s="23"/>
-      <c r="B102" s="74"/>
+      <c r="B102" s="55"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
-      <c r="F102" s="75"/>
+      <c r="F102" s="56"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="75"/>
-      <c r="I102" s="76"/>
+      <c r="H102" s="56"/>
+      <c r="I102" s="57"/>
       <c r="J102" s="23"/>
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
       <c r="M102" s="23"/>
-      <c r="N102" s="75"/>
-      <c r="O102" s="74"/>
+      <c r="N102" s="56"/>
+      <c r="O102" s="55"/>
       <c r="P102" s="23"/>
       <c r="Q102" s="23"/>
       <c r="R102" s="23"/>
-      <c r="S102" s="74"/>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S102" s="55"/>
+    </row>
+    <row r="103" spans="1:19">
       <c r="A103" s="23"/>
-      <c r="B103" s="74"/>
+      <c r="B103" s="55"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
-      <c r="F103" s="75"/>
+      <c r="F103" s="56"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="75"/>
-      <c r="I103" s="76"/>
+      <c r="H103" s="56"/>
+      <c r="I103" s="57"/>
       <c r="J103" s="23"/>
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
       <c r="M103" s="23"/>
-      <c r="N103" s="75"/>
-      <c r="O103" s="74"/>
+      <c r="N103" s="56"/>
+      <c r="O103" s="55"/>
       <c r="P103" s="23"/>
       <c r="Q103" s="23"/>
       <c r="R103" s="23"/>
-      <c r="S103" s="74"/>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S103" s="55"/>
+    </row>
+    <row r="104" spans="1:19">
       <c r="A104" s="23"/>
-      <c r="B104" s="74"/>
+      <c r="B104" s="55"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
-      <c r="F104" s="75"/>
+      <c r="F104" s="56"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="75"/>
-      <c r="I104" s="76"/>
+      <c r="H104" s="56"/>
+      <c r="I104" s="57"/>
       <c r="J104" s="23"/>
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
-      <c r="N104" s="75"/>
-      <c r="O104" s="74"/>
+      <c r="N104" s="56"/>
+      <c r="O104" s="55"/>
       <c r="P104" s="23"/>
       <c r="Q104" s="23"/>
       <c r="R104" s="23"/>
-      <c r="S104" s="74"/>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S104" s="55"/>
+    </row>
+    <row r="105" spans="1:19">
       <c r="A105" s="23"/>
-      <c r="B105" s="74"/>
+      <c r="B105" s="55"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="75"/>
+      <c r="F105" s="56"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="75"/>
-      <c r="I105" s="76"/>
+      <c r="H105" s="56"/>
+      <c r="I105" s="57"/>
       <c r="J105" s="23"/>
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
       <c r="M105" s="23"/>
-      <c r="N105" s="75"/>
-      <c r="O105" s="74"/>
+      <c r="N105" s="56"/>
+      <c r="O105" s="55"/>
       <c r="P105" s="23"/>
       <c r="Q105" s="23"/>
       <c r="R105" s="23"/>
-      <c r="S105" s="74"/>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S105" s="55"/>
+    </row>
+    <row r="106" spans="1:19">
       <c r="A106" s="23"/>
-      <c r="B106" s="74"/>
+      <c r="B106" s="55"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="75"/>
+      <c r="F106" s="56"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="75"/>
-      <c r="I106" s="76"/>
+      <c r="H106" s="56"/>
+      <c r="I106" s="57"/>
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
       <c r="L106" s="23"/>
       <c r="M106" s="23"/>
-      <c r="N106" s="75"/>
-      <c r="O106" s="74"/>
+      <c r="N106" s="56"/>
+      <c r="O106" s="55"/>
       <c r="P106" s="23"/>
       <c r="Q106" s="23"/>
       <c r="R106" s="23"/>
-      <c r="S106" s="74"/>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S106" s="55"/>
+    </row>
+    <row r="107" spans="1:19">
       <c r="A107" s="23"/>
-      <c r="B107" s="74"/>
+      <c r="B107" s="55"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
-      <c r="F107" s="75"/>
+      <c r="F107" s="56"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="75"/>
-      <c r="I107" s="76"/>
+      <c r="H107" s="56"/>
+      <c r="I107" s="57"/>
       <c r="J107" s="23"/>
       <c r="K107" s="23"/>
       <c r="L107" s="23"/>
       <c r="M107" s="23"/>
-      <c r="N107" s="75"/>
-      <c r="O107" s="74"/>
+      <c r="N107" s="56"/>
+      <c r="O107" s="55"/>
       <c r="P107" s="23"/>
       <c r="Q107" s="23"/>
       <c r="R107" s="23"/>
-      <c r="S107" s="74"/>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S107" s="55"/>
+    </row>
+    <row r="108" spans="1:19">
       <c r="A108" s="23"/>
-      <c r="B108" s="74"/>
+      <c r="B108" s="55"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
-      <c r="F108" s="75"/>
+      <c r="F108" s="56"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="75"/>
-      <c r="I108" s="76"/>
+      <c r="H108" s="56"/>
+      <c r="I108" s="57"/>
       <c r="J108" s="23"/>
       <c r="K108" s="23"/>
       <c r="L108" s="23"/>
       <c r="M108" s="23"/>
-      <c r="N108" s="75"/>
-      <c r="O108" s="74"/>
+      <c r="N108" s="56"/>
+      <c r="O108" s="55"/>
       <c r="P108" s="23"/>
       <c r="Q108" s="23"/>
       <c r="R108" s="23"/>
-      <c r="S108" s="74"/>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S108" s="55"/>
+    </row>
+    <row r="109" spans="1:19">
       <c r="A109" s="23"/>
-      <c r="B109" s="74"/>
+      <c r="B109" s="55"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
-      <c r="F109" s="75"/>
+      <c r="F109" s="56"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="75"/>
-      <c r="I109" s="76"/>
+      <c r="H109" s="56"/>
+      <c r="I109" s="57"/>
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
       <c r="L109" s="23"/>
       <c r="M109" s="23"/>
-      <c r="N109" s="75"/>
-      <c r="O109" s="74"/>
+      <c r="N109" s="56"/>
+      <c r="O109" s="55"/>
       <c r="P109" s="23"/>
       <c r="Q109" s="23"/>
       <c r="R109" s="23"/>
-      <c r="S109" s="74"/>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S109" s="55"/>
+    </row>
+    <row r="110" spans="1:19">
       <c r="A110" s="23"/>
-      <c r="B110" s="74"/>
+      <c r="B110" s="55"/>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="75"/>
+      <c r="F110" s="56"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="75"/>
-      <c r="I110" s="76"/>
+      <c r="H110" s="56"/>
+      <c r="I110" s="57"/>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
       <c r="M110" s="23"/>
-      <c r="N110" s="75"/>
-      <c r="O110" s="74"/>
+      <c r="N110" s="56"/>
+      <c r="O110" s="55"/>
       <c r="P110" s="23"/>
       <c r="Q110" s="23"/>
       <c r="R110" s="23"/>
-      <c r="S110" s="74"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S110" s="55"/>
+    </row>
+    <row r="111" spans="1:19">
       <c r="A111" s="23"/>
-      <c r="B111" s="74"/>
+      <c r="B111" s="55"/>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
-      <c r="F111" s="75"/>
+      <c r="F111" s="56"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="75"/>
-      <c r="I111" s="76"/>
+      <c r="H111" s="56"/>
+      <c r="I111" s="57"/>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
       <c r="M111" s="23"/>
-      <c r="N111" s="75"/>
-      <c r="O111" s="74"/>
+      <c r="N111" s="56"/>
+      <c r="O111" s="55"/>
       <c r="P111" s="23"/>
       <c r="Q111" s="23"/>
       <c r="R111" s="23"/>
-      <c r="S111" s="74"/>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S111" s="55"/>
+    </row>
+    <row r="112" spans="1:19">
       <c r="A112" s="23"/>
-      <c r="B112" s="74"/>
+      <c r="B112" s="55"/>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
-      <c r="F112" s="75"/>
+      <c r="F112" s="56"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="75"/>
-      <c r="I112" s="76"/>
+      <c r="H112" s="56"/>
+      <c r="I112" s="57"/>
       <c r="J112" s="23"/>
       <c r="K112" s="23"/>
       <c r="L112" s="23"/>
       <c r="M112" s="23"/>
-      <c r="N112" s="75"/>
-      <c r="O112" s="74"/>
+      <c r="N112" s="56"/>
+      <c r="O112" s="55"/>
       <c r="P112" s="23"/>
       <c r="Q112" s="23"/>
       <c r="R112" s="23"/>
-      <c r="S112" s="74"/>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S112" s="55"/>
+    </row>
+    <row r="113" spans="1:19">
       <c r="A113" s="23"/>
-      <c r="B113" s="74"/>
+      <c r="B113" s="55"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
-      <c r="F113" s="75"/>
+      <c r="F113" s="56"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="75"/>
-      <c r="I113" s="76"/>
+      <c r="H113" s="56"/>
+      <c r="I113" s="57"/>
       <c r="J113" s="23"/>
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
       <c r="M113" s="23"/>
-      <c r="N113" s="75"/>
-      <c r="O113" s="74"/>
+      <c r="N113" s="56"/>
+      <c r="O113" s="55"/>
       <c r="P113" s="23"/>
       <c r="Q113" s="23"/>
       <c r="R113" s="23"/>
-      <c r="S113" s="74"/>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S113" s="55"/>
+    </row>
+    <row r="114" spans="1:19">
       <c r="A114" s="23"/>
-      <c r="B114" s="74"/>
+      <c r="B114" s="55"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
-      <c r="F114" s="75"/>
+      <c r="F114" s="56"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="75"/>
-      <c r="I114" s="76"/>
+      <c r="H114" s="56"/>
+      <c r="I114" s="57"/>
       <c r="J114" s="23"/>
       <c r="K114" s="23"/>
       <c r="L114" s="23"/>
       <c r="M114" s="23"/>
-      <c r="N114" s="75"/>
-      <c r="O114" s="74"/>
+      <c r="N114" s="56"/>
+      <c r="O114" s="55"/>
       <c r="P114" s="23"/>
       <c r="Q114" s="23"/>
       <c r="R114" s="23"/>
-      <c r="S114" s="74"/>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S114" s="55"/>
+    </row>
+    <row r="115" spans="1:19">
       <c r="A115" s="23"/>
-      <c r="B115" s="74"/>
+      <c r="B115" s="55"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
-      <c r="F115" s="75"/>
+      <c r="F115" s="56"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="75"/>
-      <c r="I115" s="76"/>
+      <c r="H115" s="56"/>
+      <c r="I115" s="57"/>
       <c r="J115" s="23"/>
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
       <c r="M115" s="23"/>
-      <c r="N115" s="75"/>
-      <c r="O115" s="74"/>
+      <c r="N115" s="56"/>
+      <c r="O115" s="55"/>
       <c r="P115" s="23"/>
       <c r="Q115" s="23"/>
       <c r="R115" s="23"/>
-      <c r="S115" s="74"/>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S115" s="55"/>
+    </row>
+    <row r="116" spans="1:19">
       <c r="A116" s="23"/>
-      <c r="B116" s="74"/>
+      <c r="B116" s="55"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
-      <c r="F116" s="75"/>
+      <c r="F116" s="56"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="75"/>
-      <c r="I116" s="76"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="57"/>
       <c r="J116" s="23"/>
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
       <c r="M116" s="23"/>
-      <c r="N116" s="75"/>
-      <c r="O116" s="74"/>
+      <c r="N116" s="56"/>
+      <c r="O116" s="55"/>
       <c r="P116" s="23"/>
       <c r="Q116" s="23"/>
       <c r="R116" s="23"/>
-      <c r="S116" s="74"/>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S116" s="55"/>
+    </row>
+    <row r="117" spans="1:19">
       <c r="A117" s="23"/>
-      <c r="B117" s="74"/>
+      <c r="B117" s="55"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
-      <c r="F117" s="75"/>
+      <c r="F117" s="56"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="75"/>
-      <c r="I117" s="76"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="57"/>
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
       <c r="M117" s="23"/>
-      <c r="N117" s="75"/>
-      <c r="O117" s="74"/>
+      <c r="N117" s="56"/>
+      <c r="O117" s="55"/>
       <c r="P117" s="23"/>
       <c r="Q117" s="23"/>
       <c r="R117" s="23"/>
-      <c r="S117" s="74"/>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S117" s="55"/>
+    </row>
+    <row r="118" spans="1:19">
       <c r="A118" s="23"/>
-      <c r="B118" s="74"/>
+      <c r="B118" s="55"/>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
-      <c r="F118" s="75"/>
+      <c r="F118" s="56"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="75"/>
-      <c r="I118" s="76"/>
+      <c r="H118" s="56"/>
+      <c r="I118" s="57"/>
       <c r="J118" s="23"/>
       <c r="K118" s="23"/>
       <c r="L118" s="23"/>
       <c r="M118" s="23"/>
-      <c r="N118" s="75"/>
-      <c r="O118" s="74"/>
+      <c r="N118" s="56"/>
+      <c r="O118" s="55"/>
       <c r="P118" s="23"/>
       <c r="Q118" s="23"/>
       <c r="R118" s="23"/>
-      <c r="S118" s="74"/>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S118" s="55"/>
+    </row>
+    <row r="119" spans="1:19">
       <c r="A119" s="23"/>
-      <c r="B119" s="74"/>
+      <c r="B119" s="55"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
-      <c r="F119" s="75"/>
+      <c r="F119" s="56"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="75"/>
-      <c r="I119" s="76"/>
+      <c r="H119" s="56"/>
+      <c r="I119" s="57"/>
       <c r="J119" s="23"/>
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
-      <c r="N119" s="75"/>
-      <c r="O119" s="74"/>
+      <c r="N119" s="56"/>
+      <c r="O119" s="55"/>
       <c r="P119" s="23"/>
       <c r="Q119" s="23"/>
       <c r="R119" s="23"/>
-      <c r="S119" s="74"/>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S119" s="55"/>
+    </row>
+    <row r="120" spans="1:19">
       <c r="A120" s="23"/>
-      <c r="B120" s="74"/>
+      <c r="B120" s="55"/>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
-      <c r="F120" s="75"/>
+      <c r="F120" s="56"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="75"/>
-      <c r="I120" s="76"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="57"/>
       <c r="J120" s="23"/>
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
       <c r="M120" s="23"/>
-      <c r="N120" s="75"/>
-      <c r="O120" s="74"/>
+      <c r="N120" s="56"/>
+      <c r="O120" s="55"/>
       <c r="P120" s="23"/>
       <c r="Q120" s="23"/>
       <c r="R120" s="23"/>
-      <c r="S120" s="74"/>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S120" s="55"/>
+    </row>
+    <row r="121" spans="1:19">
       <c r="A121" s="23"/>
-      <c r="B121" s="74"/>
+      <c r="B121" s="55"/>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
-      <c r="F121" s="75"/>
+      <c r="F121" s="56"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="75"/>
-      <c r="I121" s="76"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="57"/>
       <c r="J121" s="23"/>
       <c r="K121" s="23"/>
       <c r="L121" s="23"/>
       <c r="M121" s="23"/>
-      <c r="N121" s="75"/>
-      <c r="O121" s="74"/>
+      <c r="N121" s="56"/>
+      <c r="O121" s="55"/>
       <c r="P121" s="23"/>
       <c r="Q121" s="23"/>
       <c r="R121" s="23"/>
-      <c r="S121" s="74"/>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S121" s="55"/>
+    </row>
+    <row r="122" spans="1:19">
       <c r="A122" s="23"/>
-      <c r="B122" s="74"/>
+      <c r="B122" s="55"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
-      <c r="F122" s="75"/>
+      <c r="F122" s="56"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="75"/>
-      <c r="I122" s="76"/>
+      <c r="H122" s="56"/>
+      <c r="I122" s="57"/>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="23"/>
       <c r="M122" s="23"/>
-      <c r="N122" s="75"/>
-      <c r="O122" s="74"/>
+      <c r="N122" s="56"/>
+      <c r="O122" s="55"/>
       <c r="P122" s="23"/>
       <c r="Q122" s="23"/>
       <c r="R122" s="23"/>
-      <c r="S122" s="74"/>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S122" s="55"/>
+    </row>
+    <row r="123" spans="1:19">
       <c r="A123" s="23"/>
-      <c r="B123" s="74"/>
+      <c r="B123" s="55"/>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
-      <c r="F123" s="75"/>
+      <c r="F123" s="56"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="75"/>
-      <c r="I123" s="76"/>
+      <c r="H123" s="56"/>
+      <c r="I123" s="57"/>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
       <c r="M123" s="23"/>
-      <c r="N123" s="75"/>
-      <c r="O123" s="74"/>
+      <c r="N123" s="56"/>
+      <c r="O123" s="55"/>
       <c r="P123" s="23"/>
       <c r="Q123" s="23"/>
       <c r="R123" s="23"/>
-      <c r="S123" s="74"/>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S123" s="55"/>
+    </row>
+    <row r="124" spans="1:19">
       <c r="A124" s="23"/>
-      <c r="B124" s="74"/>
+      <c r="B124" s="55"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
-      <c r="F124" s="75"/>
+      <c r="F124" s="56"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="75"/>
-      <c r="I124" s="76"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="57"/>
       <c r="J124" s="23"/>
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
       <c r="M124" s="23"/>
-      <c r="N124" s="75"/>
-      <c r="O124" s="74"/>
+      <c r="N124" s="56"/>
+      <c r="O124" s="55"/>
       <c r="P124" s="23"/>
       <c r="Q124" s="23"/>
       <c r="R124" s="23"/>
-      <c r="S124" s="74"/>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S124" s="55"/>
+    </row>
+    <row r="125" spans="1:19">
       <c r="A125" s="23"/>
-      <c r="B125" s="74"/>
+      <c r="B125" s="55"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
-      <c r="F125" s="75"/>
+      <c r="F125" s="56"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="75"/>
-      <c r="I125" s="76"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="57"/>
       <c r="J125" s="23"/>
       <c r="K125" s="23"/>
       <c r="L125" s="23"/>
       <c r="M125" s="23"/>
-      <c r="N125" s="75"/>
-      <c r="O125" s="74"/>
+      <c r="N125" s="56"/>
+      <c r="O125" s="55"/>
       <c r="P125" s="23"/>
       <c r="Q125" s="23"/>
       <c r="R125" s="23"/>
-      <c r="S125" s="74"/>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S125" s="55"/>
+    </row>
+    <row r="126" spans="1:19">
       <c r="A126" s="23"/>
-      <c r="B126" s="74"/>
+      <c r="B126" s="55"/>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
-      <c r="F126" s="75"/>
+      <c r="F126" s="56"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="75"/>
-      <c r="I126" s="76"/>
+      <c r="H126" s="56"/>
+      <c r="I126" s="57"/>
       <c r="J126" s="23"/>
       <c r="K126" s="23"/>
       <c r="L126" s="23"/>
       <c r="M126" s="23"/>
-      <c r="N126" s="75"/>
-      <c r="O126" s="74"/>
+      <c r="N126" s="56"/>
+      <c r="O126" s="55"/>
       <c r="P126" s="23"/>
       <c r="Q126" s="23"/>
       <c r="R126" s="23"/>
-      <c r="S126" s="74"/>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S126" s="55"/>
+    </row>
+    <row r="127" spans="1:19">
       <c r="A127" s="23"/>
-      <c r="B127" s="74"/>
+      <c r="B127" s="55"/>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
-      <c r="F127" s="75"/>
+      <c r="F127" s="56"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="75"/>
-      <c r="I127" s="76"/>
+      <c r="H127" s="56"/>
+      <c r="I127" s="57"/>
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
-      <c r="N127" s="75"/>
-      <c r="O127" s="74"/>
+      <c r="N127" s="56"/>
+      <c r="O127" s="55"/>
       <c r="P127" s="23"/>
       <c r="Q127" s="23"/>
       <c r="R127" s="23"/>
-      <c r="S127" s="74"/>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S127" s="55"/>
+    </row>
+    <row r="128" spans="1:19">
       <c r="A128" s="23"/>
-      <c r="B128" s="74"/>
+      <c r="B128" s="55"/>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
-      <c r="F128" s="75"/>
+      <c r="F128" s="56"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="75"/>
-      <c r="I128" s="76"/>
+      <c r="H128" s="56"/>
+      <c r="I128" s="57"/>
       <c r="J128" s="23"/>
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
-      <c r="N128" s="75"/>
-      <c r="O128" s="74"/>
+      <c r="N128" s="56"/>
+      <c r="O128" s="55"/>
       <c r="P128" s="23"/>
       <c r="Q128" s="23"/>
       <c r="R128" s="23"/>
-      <c r="S128" s="74"/>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S128" s="55"/>
+    </row>
+    <row r="129" spans="1:19">
       <c r="A129" s="23"/>
-      <c r="B129" s="74"/>
+      <c r="B129" s="55"/>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
-      <c r="F129" s="75"/>
+      <c r="F129" s="56"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="75"/>
-      <c r="I129" s="76"/>
+      <c r="H129" s="56"/>
+      <c r="I129" s="57"/>
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
-      <c r="N129" s="75"/>
-      <c r="O129" s="74"/>
+      <c r="N129" s="56"/>
+      <c r="O129" s="55"/>
       <c r="P129" s="23"/>
       <c r="Q129" s="23"/>
       <c r="R129" s="23"/>
-      <c r="S129" s="74"/>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S129" s="55"/>
+    </row>
+    <row r="130" spans="1:19">
       <c r="A130" s="23"/>
-      <c r="B130" s="74"/>
+      <c r="B130" s="55"/>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
-      <c r="F130" s="75"/>
+      <c r="F130" s="56"/>
       <c r="G130" s="23"/>
-      <c r="H130" s="75"/>
-      <c r="I130" s="76"/>
+      <c r="H130" s="56"/>
+      <c r="I130" s="57"/>
       <c r="J130" s="23"/>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
-      <c r="N130" s="75"/>
-      <c r="O130" s="74"/>
+      <c r="N130" s="56"/>
+      <c r="O130" s="55"/>
       <c r="P130" s="23"/>
       <c r="Q130" s="23"/>
       <c r="R130" s="23"/>
-      <c r="S130" s="74"/>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S130" s="55"/>
+    </row>
+    <row r="131" spans="1:19">
       <c r="A131" s="23"/>
-      <c r="B131" s="74"/>
+      <c r="B131" s="55"/>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
-      <c r="F131" s="75"/>
+      <c r="F131" s="56"/>
       <c r="G131" s="23"/>
-      <c r="H131" s="75"/>
-      <c r="I131" s="76"/>
+      <c r="H131" s="56"/>
+      <c r="I131" s="57"/>
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
-      <c r="N131" s="75"/>
-      <c r="O131" s="74"/>
+      <c r="N131" s="56"/>
+      <c r="O131" s="55"/>
       <c r="P131" s="23"/>
       <c r="Q131" s="23"/>
       <c r="R131" s="23"/>
-      <c r="S131" s="74"/>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S131" s="55"/>
+    </row>
+    <row r="132" spans="1:19">
       <c r="A132" s="23"/>
-      <c r="B132" s="74"/>
+      <c r="B132" s="55"/>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
-      <c r="F132" s="75"/>
+      <c r="F132" s="56"/>
       <c r="G132" s="23"/>
-      <c r="H132" s="75"/>
-      <c r="I132" s="76"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="57"/>
       <c r="J132" s="23"/>
       <c r="K132" s="23"/>
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
-      <c r="N132" s="75"/>
-      <c r="O132" s="74"/>
+      <c r="N132" s="56"/>
+      <c r="O132" s="55"/>
       <c r="P132" s="23"/>
       <c r="Q132" s="23"/>
       <c r="R132" s="23"/>
-      <c r="S132" s="74"/>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S132" s="55"/>
+    </row>
+    <row r="133" spans="1:19">
       <c r="A133" s="23"/>
-      <c r="B133" s="74"/>
+      <c r="B133" s="55"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
-      <c r="F133" s="75"/>
+      <c r="F133" s="56"/>
       <c r="G133" s="23"/>
-      <c r="H133" s="75"/>
-      <c r="I133" s="76"/>
+      <c r="H133" s="56"/>
+      <c r="I133" s="57"/>
       <c r="J133" s="23"/>
       <c r="K133" s="23"/>
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
-      <c r="N133" s="75"/>
-      <c r="O133" s="74"/>
+      <c r="N133" s="56"/>
+      <c r="O133" s="55"/>
       <c r="P133" s="23"/>
       <c r="Q133" s="23"/>
       <c r="R133" s="23"/>
-      <c r="S133" s="74"/>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S133" s="55"/>
+    </row>
+    <row r="134" spans="1:19">
       <c r="A134" s="23"/>
-      <c r="B134" s="74"/>
+      <c r="B134" s="55"/>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
-      <c r="F134" s="75"/>
+      <c r="F134" s="56"/>
       <c r="G134" s="23"/>
-      <c r="H134" s="75"/>
-      <c r="I134" s="76"/>
+      <c r="H134" s="56"/>
+      <c r="I134" s="57"/>
       <c r="J134" s="23"/>
       <c r="K134" s="23"/>
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
-      <c r="N134" s="75"/>
-      <c r="O134" s="74"/>
+      <c r="N134" s="56"/>
+      <c r="O134" s="55"/>
       <c r="P134" s="23"/>
       <c r="Q134" s="23"/>
       <c r="R134" s="23"/>
-      <c r="S134" s="74"/>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S134" s="55"/>
+    </row>
+    <row r="135" spans="1:19">
       <c r="A135" s="23"/>
-      <c r="B135" s="74"/>
+      <c r="B135" s="55"/>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
-      <c r="F135" s="75"/>
+      <c r="F135" s="56"/>
       <c r="G135" s="23"/>
-      <c r="H135" s="75"/>
-      <c r="I135" s="76"/>
+      <c r="H135" s="56"/>
+      <c r="I135" s="57"/>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
-      <c r="N135" s="75"/>
-      <c r="O135" s="74"/>
+      <c r="N135" s="56"/>
+      <c r="O135" s="55"/>
       <c r="P135" s="23"/>
       <c r="Q135" s="23"/>
       <c r="R135" s="23"/>
-      <c r="S135" s="74"/>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S135" s="55"/>
+    </row>
+    <row r="136" spans="1:19">
       <c r="A136" s="23"/>
-      <c r="B136" s="74"/>
+      <c r="B136" s="55"/>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
-      <c r="F136" s="75"/>
+      <c r="F136" s="56"/>
       <c r="G136" s="23"/>
-      <c r="H136" s="75"/>
-      <c r="I136" s="76"/>
+      <c r="H136" s="56"/>
+      <c r="I136" s="57"/>
       <c r="J136" s="23"/>
       <c r="K136" s="23"/>
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
-      <c r="N136" s="75"/>
-      <c r="O136" s="74"/>
+      <c r="N136" s="56"/>
+      <c r="O136" s="55"/>
       <c r="P136" s="23"/>
       <c r="Q136" s="23"/>
       <c r="R136" s="23"/>
-      <c r="S136" s="74"/>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S136" s="55"/>
+    </row>
+    <row r="137" spans="1:19">
       <c r="A137" s="23"/>
-      <c r="B137" s="74"/>
+      <c r="B137" s="55"/>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
-      <c r="F137" s="75"/>
+      <c r="F137" s="56"/>
       <c r="G137" s="23"/>
-      <c r="H137" s="75"/>
-      <c r="I137" s="76"/>
+      <c r="H137" s="56"/>
+      <c r="I137" s="57"/>
       <c r="J137" s="23"/>
       <c r="K137" s="23"/>
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
-      <c r="N137" s="75"/>
-      <c r="O137" s="74"/>
+      <c r="N137" s="56"/>
+      <c r="O137" s="55"/>
       <c r="P137" s="23"/>
       <c r="Q137" s="23"/>
       <c r="R137" s="23"/>
-      <c r="S137" s="74"/>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S137" s="55"/>
+    </row>
+    <row r="138" spans="1:19">
       <c r="A138" s="23"/>
-      <c r="B138" s="74"/>
+      <c r="B138" s="55"/>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
-      <c r="F138" s="75"/>
+      <c r="F138" s="56"/>
       <c r="G138" s="23"/>
-      <c r="H138" s="75"/>
-      <c r="I138" s="76"/>
+      <c r="H138" s="56"/>
+      <c r="I138" s="57"/>
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
-      <c r="N138" s="75"/>
-      <c r="O138" s="74"/>
+      <c r="N138" s="56"/>
+      <c r="O138" s="55"/>
       <c r="P138" s="23"/>
       <c r="Q138" s="23"/>
       <c r="R138" s="23"/>
-      <c r="S138" s="74"/>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S138" s="55"/>
+    </row>
+    <row r="139" spans="1:19">
       <c r="A139" s="23"/>
-      <c r="B139" s="74"/>
+      <c r="B139" s="55"/>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
-      <c r="F139" s="75"/>
+      <c r="F139" s="56"/>
       <c r="G139" s="23"/>
-      <c r="H139" s="75"/>
-      <c r="I139" s="76"/>
+      <c r="H139" s="56"/>
+      <c r="I139" s="57"/>
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
-      <c r="N139" s="75"/>
-      <c r="O139" s="74"/>
+      <c r="N139" s="56"/>
+      <c r="O139" s="55"/>
       <c r="P139" s="23"/>
       <c r="Q139" s="23"/>
       <c r="R139" s="23"/>
-      <c r="S139" s="74"/>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S139" s="55"/>
+    </row>
+    <row r="140" spans="1:19">
       <c r="A140" s="23"/>
-      <c r="B140" s="74"/>
+      <c r="B140" s="55"/>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
-      <c r="F140" s="75"/>
+      <c r="F140" s="56"/>
       <c r="G140" s="23"/>
-      <c r="H140" s="75"/>
-      <c r="I140" s="76"/>
+      <c r="H140" s="56"/>
+      <c r="I140" s="57"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
-      <c r="N140" s="75"/>
-      <c r="O140" s="74"/>
+      <c r="N140" s="56"/>
+      <c r="O140" s="55"/>
       <c r="P140" s="23"/>
       <c r="Q140" s="23"/>
       <c r="R140" s="23"/>
-      <c r="S140" s="74"/>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S140" s="55"/>
+    </row>
+    <row r="141" spans="1:19">
       <c r="A141" s="23"/>
-      <c r="B141" s="74"/>
+      <c r="B141" s="55"/>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
-      <c r="F141" s="75"/>
+      <c r="F141" s="56"/>
       <c r="G141" s="23"/>
-      <c r="H141" s="75"/>
-      <c r="I141" s="76"/>
+      <c r="H141" s="56"/>
+      <c r="I141" s="57"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
-      <c r="N141" s="75"/>
-      <c r="O141" s="74"/>
+      <c r="N141" s="56"/>
+      <c r="O141" s="55"/>
       <c r="P141" s="23"/>
       <c r="Q141" s="23"/>
       <c r="R141" s="23"/>
-      <c r="S141" s="74"/>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S141" s="55"/>
+    </row>
+    <row r="142" spans="1:19">
       <c r="A142" s="23"/>
-      <c r="B142" s="74"/>
+      <c r="B142" s="55"/>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
-      <c r="F142" s="75"/>
+      <c r="F142" s="56"/>
       <c r="G142" s="23"/>
-      <c r="H142" s="75"/>
-      <c r="I142" s="76"/>
+      <c r="H142" s="56"/>
+      <c r="I142" s="57"/>
       <c r="J142" s="23"/>
       <c r="K142" s="23"/>
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
-      <c r="N142" s="75"/>
-      <c r="O142" s="74"/>
+      <c r="N142" s="56"/>
+      <c r="O142" s="55"/>
       <c r="P142" s="23"/>
       <c r="Q142" s="23"/>
       <c r="R142" s="23"/>
-      <c r="S142" s="74"/>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S142" s="55"/>
+    </row>
+    <row r="143" spans="1:19">
       <c r="A143" s="23"/>
-      <c r="B143" s="74"/>
+      <c r="B143" s="55"/>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
-      <c r="F143" s="75"/>
+      <c r="F143" s="56"/>
       <c r="G143" s="23"/>
-      <c r="H143" s="75"/>
-      <c r="I143" s="76"/>
+      <c r="H143" s="56"/>
+      <c r="I143" s="57"/>
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
-      <c r="N143" s="75"/>
-      <c r="O143" s="74"/>
+      <c r="N143" s="56"/>
+      <c r="O143" s="55"/>
       <c r="P143" s="23"/>
       <c r="Q143" s="23"/>
       <c r="R143" s="23"/>
-      <c r="S143" s="74"/>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S143" s="55"/>
+    </row>
+    <row r="144" spans="1:19">
       <c r="A144" s="23"/>
-      <c r="B144" s="74"/>
+      <c r="B144" s="55"/>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
-      <c r="F144" s="75"/>
+      <c r="F144" s="56"/>
       <c r="G144" s="23"/>
-      <c r="H144" s="75"/>
-      <c r="I144" s="76"/>
+      <c r="H144" s="56"/>
+      <c r="I144" s="57"/>
       <c r="J144" s="23"/>
       <c r="K144" s="23"/>
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
-      <c r="N144" s="75"/>
-      <c r="O144" s="74"/>
+      <c r="N144" s="56"/>
+      <c r="O144" s="55"/>
       <c r="P144" s="23"/>
       <c r="Q144" s="23"/>
       <c r="R144" s="23"/>
-      <c r="S144" s="74"/>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S144" s="55"/>
+    </row>
+    <row r="145" spans="1:19">
       <c r="A145" s="23"/>
-      <c r="B145" s="74"/>
+      <c r="B145" s="55"/>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
-      <c r="F145" s="75"/>
+      <c r="F145" s="56"/>
       <c r="G145" s="23"/>
-      <c r="H145" s="75"/>
-      <c r="I145" s="76"/>
+      <c r="H145" s="56"/>
+      <c r="I145" s="57"/>
       <c r="J145" s="23"/>
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
-      <c r="N145" s="75"/>
-      <c r="O145" s="74"/>
+      <c r="N145" s="56"/>
+      <c r="O145" s="55"/>
       <c r="P145" s="23"/>
       <c r="Q145" s="23"/>
       <c r="R145" s="23"/>
-      <c r="S145" s="74"/>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S145" s="55"/>
+    </row>
+    <row r="146" spans="1:19">
       <c r="A146" s="23"/>
-      <c r="B146" s="74"/>
+      <c r="B146" s="55"/>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
-      <c r="F146" s="75"/>
+      <c r="F146" s="56"/>
       <c r="G146" s="23"/>
-      <c r="H146" s="75"/>
-      <c r="I146" s="76"/>
+      <c r="H146" s="56"/>
+      <c r="I146" s="57"/>
       <c r="J146" s="23"/>
       <c r="K146" s="23"/>
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
-      <c r="N146" s="75"/>
-      <c r="O146" s="74"/>
+      <c r="N146" s="56"/>
+      <c r="O146" s="55"/>
       <c r="P146" s="23"/>
       <c r="Q146" s="23"/>
       <c r="R146" s="23"/>
-      <c r="S146" s="74"/>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S146" s="55"/>
+    </row>
+    <row r="147" spans="1:19">
       <c r="A147" s="23"/>
-      <c r="B147" s="74"/>
+      <c r="B147" s="55"/>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
-      <c r="F147" s="75"/>
+      <c r="F147" s="56"/>
       <c r="G147" s="23"/>
-      <c r="H147" s="75"/>
-      <c r="I147" s="76"/>
+      <c r="H147" s="56"/>
+      <c r="I147" s="57"/>
       <c r="J147" s="23"/>
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
-      <c r="N147" s="75"/>
-      <c r="O147" s="74"/>
+      <c r="N147" s="56"/>
+      <c r="O147" s="55"/>
       <c r="P147" s="23"/>
       <c r="Q147" s="23"/>
       <c r="R147" s="23"/>
-      <c r="S147" s="74"/>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S147" s="55"/>
+    </row>
+    <row r="148" spans="1:19">
       <c r="A148" s="23"/>
-      <c r="B148" s="74"/>
+      <c r="B148" s="55"/>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
-      <c r="F148" s="75"/>
+      <c r="F148" s="56"/>
       <c r="G148" s="23"/>
-      <c r="H148" s="75"/>
-      <c r="I148" s="76"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="57"/>
       <c r="J148" s="23"/>
       <c r="K148" s="23"/>
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
-      <c r="N148" s="75"/>
-      <c r="O148" s="74"/>
+      <c r="N148" s="56"/>
+      <c r="O148" s="55"/>
       <c r="P148" s="23"/>
       <c r="Q148" s="23"/>
       <c r="R148" s="23"/>
-      <c r="S148" s="74"/>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S148" s="55"/>
+    </row>
+    <row r="149" spans="1:19">
       <c r="A149" s="23"/>
-      <c r="B149" s="74"/>
+      <c r="B149" s="55"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
-      <c r="F149" s="75"/>
+      <c r="F149" s="56"/>
       <c r="G149" s="23"/>
-      <c r="H149" s="75"/>
-      <c r="I149" s="76"/>
+      <c r="H149" s="56"/>
+      <c r="I149" s="57"/>
       <c r="J149" s="23"/>
       <c r="K149" s="23"/>
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
-      <c r="N149" s="75"/>
-      <c r="O149" s="74"/>
+      <c r="N149" s="56"/>
+      <c r="O149" s="55"/>
       <c r="P149" s="23"/>
       <c r="Q149" s="23"/>
       <c r="R149" s="23"/>
-      <c r="S149" s="74"/>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S149" s="55"/>
+    </row>
+    <row r="150" spans="1:19">
       <c r="A150" s="23"/>
-      <c r="B150" s="74"/>
+      <c r="B150" s="55"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
-      <c r="F150" s="75"/>
+      <c r="F150" s="56"/>
       <c r="G150" s="23"/>
-      <c r="H150" s="75"/>
-      <c r="I150" s="76"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="57"/>
       <c r="J150" s="23"/>
       <c r="K150" s="23"/>
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
-      <c r="N150" s="75"/>
-      <c r="O150" s="74"/>
+      <c r="N150" s="56"/>
+      <c r="O150" s="55"/>
       <c r="P150" s="23"/>
       <c r="Q150" s="23"/>
       <c r="R150" s="23"/>
-      <c r="S150" s="74"/>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S150" s="55"/>
+    </row>
+    <row r="151" spans="1:19">
       <c r="A151" s="23"/>
-      <c r="B151" s="74"/>
+      <c r="B151" s="55"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
-      <c r="F151" s="75"/>
+      <c r="F151" s="56"/>
       <c r="G151" s="23"/>
-      <c r="H151" s="75"/>
-      <c r="I151" s="76"/>
+      <c r="H151" s="56"/>
+      <c r="I151" s="57"/>
       <c r="J151" s="23"/>
       <c r="K151" s="23"/>
       <c r="L151" s="23"/>
       <c r="M151" s="23"/>
-      <c r="N151" s="75"/>
-      <c r="O151" s="74"/>
+      <c r="N151" s="56"/>
+      <c r="O151" s="55"/>
       <c r="P151" s="23"/>
       <c r="Q151" s="23"/>
       <c r="R151" s="23"/>
-      <c r="S151" s="74"/>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S151" s="55"/>
+    </row>
+    <row r="152" spans="1:19">
       <c r="A152" s="23"/>
-      <c r="B152" s="74"/>
+      <c r="B152" s="55"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
-      <c r="F152" s="75"/>
+      <c r="F152" s="56"/>
       <c r="G152" s="23"/>
-      <c r="H152" s="75"/>
-      <c r="I152" s="76"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="57"/>
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
       <c r="M152" s="23"/>
-      <c r="N152" s="75"/>
-      <c r="O152" s="74"/>
+      <c r="N152" s="56"/>
+      <c r="O152" s="55"/>
       <c r="P152" s="23"/>
       <c r="Q152" s="23"/>
       <c r="R152" s="23"/>
-      <c r="S152" s="74"/>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S152" s="55"/>
+    </row>
+    <row r="153" spans="1:19">
       <c r="A153" s="23"/>
-      <c r="B153" s="74"/>
+      <c r="B153" s="55"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
-      <c r="F153" s="75"/>
+      <c r="F153" s="56"/>
       <c r="G153" s="23"/>
-      <c r="H153" s="75"/>
-      <c r="I153" s="76"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="57"/>
       <c r="J153" s="23"/>
       <c r="K153" s="23"/>
       <c r="L153" s="23"/>
       <c r="M153" s="23"/>
-      <c r="N153" s="75"/>
-      <c r="O153" s="74"/>
+      <c r="N153" s="56"/>
+      <c r="O153" s="55"/>
       <c r="P153" s="23"/>
       <c r="Q153" s="23"/>
       <c r="R153" s="23"/>
-      <c r="S153" s="74"/>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S153" s="55"/>
+    </row>
+    <row r="154" spans="1:19">
       <c r="A154" s="23"/>
-      <c r="B154" s="74"/>
+      <c r="B154" s="55"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
-      <c r="F154" s="75"/>
+      <c r="F154" s="56"/>
       <c r="G154" s="23"/>
-      <c r="H154" s="75"/>
-      <c r="I154" s="76"/>
+      <c r="H154" s="56"/>
+      <c r="I154" s="57"/>
       <c r="J154" s="23"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
-      <c r="N154" s="75"/>
-      <c r="O154" s="74"/>
+      <c r="N154" s="56"/>
+      <c r="O154" s="55"/>
       <c r="P154" s="23"/>
       <c r="Q154" s="23"/>
       <c r="R154" s="23"/>
-      <c r="S154" s="74"/>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S154" s="55"/>
+    </row>
+    <row r="155" spans="1:19">
       <c r="A155" s="23"/>
-      <c r="B155" s="74"/>
+      <c r="B155" s="55"/>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
-      <c r="F155" s="75"/>
+      <c r="F155" s="56"/>
       <c r="G155" s="23"/>
-      <c r="H155" s="75"/>
-      <c r="I155" s="76"/>
+      <c r="H155" s="56"/>
+      <c r="I155" s="57"/>
       <c r="J155" s="23"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
-      <c r="N155" s="75"/>
-      <c r="O155" s="74"/>
+      <c r="N155" s="56"/>
+      <c r="O155" s="55"/>
       <c r="P155" s="23"/>
       <c r="Q155" s="23"/>
       <c r="R155" s="23"/>
-      <c r="S155" s="74"/>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S155" s="55"/>
+    </row>
+    <row r="156" spans="1:19">
       <c r="A156" s="23"/>
-      <c r="B156" s="74"/>
+      <c r="B156" s="55"/>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
-      <c r="F156" s="75"/>
+      <c r="F156" s="56"/>
       <c r="G156" s="23"/>
-      <c r="H156" s="75"/>
-      <c r="I156" s="76"/>
+      <c r="H156" s="56"/>
+      <c r="I156" s="57"/>
       <c r="J156" s="23"/>
       <c r="K156" s="23"/>
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
-      <c r="N156" s="75"/>
-      <c r="O156" s="74"/>
+      <c r="N156" s="56"/>
+      <c r="O156" s="55"/>
       <c r="P156" s="23"/>
       <c r="Q156" s="23"/>
       <c r="R156" s="23"/>
-      <c r="S156" s="74"/>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S156" s="55"/>
+    </row>
+    <row r="157" spans="1:19">
       <c r="A157" s="23"/>
-      <c r="B157" s="74"/>
+      <c r="B157" s="55"/>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
-      <c r="F157" s="75"/>
+      <c r="F157" s="56"/>
       <c r="G157" s="23"/>
-      <c r="H157" s="75"/>
-      <c r="I157" s="76"/>
+      <c r="H157" s="56"/>
+      <c r="I157" s="57"/>
       <c r="J157" s="23"/>
       <c r="K157" s="23"/>
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
-      <c r="N157" s="75"/>
-      <c r="O157" s="74"/>
+      <c r="N157" s="56"/>
+      <c r="O157" s="55"/>
       <c r="P157" s="23"/>
       <c r="Q157" s="23"/>
       <c r="R157" s="23"/>
-      <c r="S157" s="74"/>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S157" s="55"/>
+    </row>
+    <row r="158" spans="1:19">
       <c r="A158" s="23"/>
-      <c r="B158" s="74"/>
+      <c r="B158" s="55"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
-      <c r="F158" s="75"/>
+      <c r="F158" s="56"/>
       <c r="G158" s="23"/>
-      <c r="H158" s="75"/>
-      <c r="I158" s="76"/>
+      <c r="H158" s="56"/>
+      <c r="I158" s="57"/>
       <c r="J158" s="23"/>
       <c r="K158" s="23"/>
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
-      <c r="N158" s="75"/>
-      <c r="O158" s="74"/>
+      <c r="N158" s="56"/>
+      <c r="O158" s="55"/>
       <c r="P158" s="23"/>
       <c r="Q158" s="23"/>
       <c r="R158" s="23"/>
-      <c r="S158" s="74"/>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="S158" s="55"/>
+    </row>
+    <row r="159" spans="1:19">
       <c r="A159" s="23"/>
-      <c r="B159" s="74"/>
+      <c r="B159" s="55"/>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
-      <c r="F159" s="75"/>
+      <c r="F159" s="56"/>
       <c r="G159" s="23"/>
-      <c r="H159" s="75"/>
-      <c r="I159" s="76"/>
+      <c r="H159" s="56"/>
+      <c r="I159" s="57"/>
       <c r="J159" s="23"/>
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
       <c r="M159" s="23"/>
-      <c r="N159" s="75"/>
-      <c r="O159" s="74"/>
-      <c r="S159" s="74"/>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N159" s="56"/>
+      <c r="O159" s="55"/>
+      <c r="S159" s="55"/>
+    </row>
+    <row r="160" spans="1:19">
       <c r="A160" s="23"/>
-      <c r="B160" s="74"/>
+      <c r="B160" s="55"/>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
-      <c r="F160" s="75"/>
+      <c r="F160" s="56"/>
       <c r="G160" s="23"/>
-      <c r="H160" s="75"/>
-      <c r="I160" s="76"/>
+      <c r="H160" s="56"/>
+      <c r="I160" s="57"/>
       <c r="J160" s="23"/>
       <c r="K160" s="23"/>
       <c r="L160" s="23"/>
       <c r="M160" s="23"/>
-      <c r="N160" s="75"/>
-      <c r="O160" s="74"/>
-      <c r="S160" s="74"/>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N160" s="56"/>
+      <c r="O160" s="55"/>
+      <c r="S160" s="55"/>
+    </row>
+    <row r="161" spans="1:19">
       <c r="A161" s="23"/>
-      <c r="B161" s="74"/>
+      <c r="B161" s="55"/>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
-      <c r="F161" s="75"/>
+      <c r="F161" s="56"/>
       <c r="G161" s="23"/>
-      <c r="H161" s="75"/>
-      <c r="I161" s="76"/>
+      <c r="H161" s="56"/>
+      <c r="I161" s="57"/>
       <c r="J161" s="23"/>
       <c r="K161" s="23"/>
       <c r="L161" s="23"/>
       <c r="M161" s="23"/>
-      <c r="N161" s="75"/>
-      <c r="O161" s="74"/>
-      <c r="S161" s="74"/>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N161" s="56"/>
+      <c r="O161" s="55"/>
+      <c r="S161" s="55"/>
+    </row>
+    <row r="162" spans="1:19">
       <c r="A162" s="23"/>
-      <c r="B162" s="74"/>
+      <c r="B162" s="55"/>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
-      <c r="F162" s="75"/>
+      <c r="F162" s="56"/>
       <c r="G162" s="23"/>
-      <c r="H162" s="75"/>
-      <c r="I162" s="76"/>
+      <c r="H162" s="56"/>
+      <c r="I162" s="57"/>
       <c r="J162" s="23"/>
       <c r="K162" s="23"/>
       <c r="L162" s="23"/>
       <c r="M162" s="23"/>
-      <c r="N162" s="75"/>
-      <c r="O162" s="74"/>
-      <c r="S162" s="74"/>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N162" s="56"/>
+      <c r="O162" s="55"/>
+      <c r="S162" s="55"/>
+    </row>
+    <row r="163" spans="1:19">
       <c r="A163" s="23"/>
-      <c r="B163" s="74"/>
+      <c r="B163" s="55"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
-      <c r="F163" s="75"/>
+      <c r="F163" s="56"/>
       <c r="G163" s="23"/>
-      <c r="H163" s="75"/>
-      <c r="I163" s="76"/>
+      <c r="H163" s="56"/>
+      <c r="I163" s="57"/>
       <c r="J163" s="23"/>
       <c r="K163" s="23"/>
       <c r="L163" s="23"/>
       <c r="M163" s="23"/>
-      <c r="N163" s="75"/>
-      <c r="O163" s="74"/>
-      <c r="S163" s="74"/>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N163" s="56"/>
+      <c r="O163" s="55"/>
+      <c r="S163" s="55"/>
+    </row>
+    <row r="164" spans="1:19">
       <c r="A164" s="23"/>
-      <c r="B164" s="74"/>
+      <c r="B164" s="55"/>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
-      <c r="F164" s="75"/>
+      <c r="F164" s="56"/>
       <c r="G164" s="23"/>
-      <c r="H164" s="75"/>
-      <c r="I164" s="76"/>
+      <c r="H164" s="56"/>
+      <c r="I164" s="57"/>
       <c r="J164" s="23"/>
       <c r="K164" s="23"/>
       <c r="L164" s="23"/>
       <c r="M164" s="23"/>
-      <c r="N164" s="75"/>
-      <c r="O164" s="74"/>
-      <c r="S164" s="74"/>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N164" s="56"/>
+      <c r="O164" s="55"/>
+      <c r="S164" s="55"/>
+    </row>
+    <row r="165" spans="1:19">
       <c r="A165" s="23"/>
-      <c r="B165" s="74"/>
+      <c r="B165" s="55"/>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
-      <c r="F165" s="75"/>
+      <c r="F165" s="56"/>
       <c r="G165" s="23"/>
-      <c r="H165" s="75"/>
-      <c r="I165" s="76"/>
+      <c r="H165" s="56"/>
+      <c r="I165" s="57"/>
       <c r="J165" s="23"/>
       <c r="K165" s="23"/>
       <c r="L165" s="23"/>
       <c r="M165" s="23"/>
-      <c r="N165" s="75"/>
-      <c r="O165" s="74"/>
-      <c r="S165" s="74"/>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N165" s="56"/>
+      <c r="O165" s="55"/>
+      <c r="S165" s="55"/>
+    </row>
+    <row r="166" spans="1:19">
       <c r="A166" s="23"/>
-      <c r="B166" s="74"/>
+      <c r="B166" s="55"/>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
-      <c r="F166" s="75"/>
+      <c r="F166" s="56"/>
       <c r="G166" s="23"/>
-      <c r="H166" s="75"/>
-      <c r="I166" s="76"/>
+      <c r="H166" s="56"/>
+      <c r="I166" s="57"/>
       <c r="J166" s="23"/>
       <c r="K166" s="23"/>
       <c r="L166" s="23"/>
       <c r="M166" s="23"/>
-      <c r="N166" s="75"/>
-      <c r="O166" s="74"/>
-      <c r="S166" s="74"/>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N166" s="56"/>
+      <c r="O166" s="55"/>
+      <c r="S166" s="55"/>
+    </row>
+    <row r="167" spans="1:19">
       <c r="A167" s="23"/>
-      <c r="B167" s="74"/>
+      <c r="B167" s="55"/>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
-      <c r="F167" s="75"/>
+      <c r="F167" s="56"/>
       <c r="G167" s="23"/>
-      <c r="H167" s="75"/>
-      <c r="I167" s="76"/>
+      <c r="H167" s="56"/>
+      <c r="I167" s="57"/>
       <c r="J167" s="23"/>
       <c r="K167" s="23"/>
       <c r="L167" s="23"/>
       <c r="M167" s="23"/>
-      <c r="N167" s="75"/>
-      <c r="O167" s="74"/>
-      <c r="S167" s="74"/>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N167" s="56"/>
+      <c r="O167" s="55"/>
+      <c r="S167" s="55"/>
+    </row>
+    <row r="168" spans="1:19">
       <c r="A168" s="23"/>
-      <c r="B168" s="74"/>
+      <c r="B168" s="55"/>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
-      <c r="F168" s="75"/>
+      <c r="F168" s="56"/>
       <c r="G168" s="23"/>
-      <c r="H168" s="75"/>
-      <c r="I168" s="76"/>
+      <c r="H168" s="56"/>
+      <c r="I168" s="57"/>
       <c r="J168" s="23"/>
       <c r="K168" s="23"/>
       <c r="L168" s="23"/>
       <c r="M168" s="23"/>
-      <c r="N168" s="75"/>
-      <c r="O168" s="74"/>
-      <c r="S168" s="74"/>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N168" s="56"/>
+      <c r="O168" s="55"/>
+      <c r="S168" s="55"/>
+    </row>
+    <row r="169" spans="1:19">
       <c r="A169" s="23"/>
-      <c r="B169" s="74"/>
+      <c r="B169" s="55"/>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
       <c r="E169" s="23"/>
-      <c r="F169" s="75"/>
+      <c r="F169" s="56"/>
       <c r="G169" s="23"/>
-      <c r="H169" s="75"/>
-      <c r="I169" s="76"/>
+      <c r="H169" s="56"/>
+      <c r="I169" s="57"/>
       <c r="J169" s="23"/>
       <c r="K169" s="23"/>
       <c r="L169" s="23"/>
       <c r="M169" s="23"/>
-      <c r="N169" s="75"/>
-      <c r="O169" s="74"/>
-      <c r="S169" s="74"/>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N169" s="56"/>
+      <c r="O169" s="55"/>
+      <c r="S169" s="55"/>
+    </row>
+    <row r="170" spans="1:19">
       <c r="A170" s="23"/>
-      <c r="B170" s="74"/>
+      <c r="B170" s="55"/>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
-      <c r="F170" s="75"/>
+      <c r="F170" s="56"/>
       <c r="G170" s="23"/>
-      <c r="H170" s="75"/>
-      <c r="I170" s="76"/>
+      <c r="H170" s="56"/>
+      <c r="I170" s="57"/>
       <c r="J170" s="23"/>
       <c r="K170" s="23"/>
       <c r="L170" s="23"/>
       <c r="M170" s="23"/>
-      <c r="N170" s="75"/>
-      <c r="O170" s="74"/>
-      <c r="S170" s="74"/>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N170" s="56"/>
+      <c r="O170" s="55"/>
+      <c r="S170" s="55"/>
+    </row>
+    <row r="171" spans="1:19">
       <c r="A171" s="23"/>
-      <c r="B171" s="74"/>
+      <c r="B171" s="55"/>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
       <c r="E171" s="23"/>
-      <c r="F171" s="75"/>
+      <c r="F171" s="56"/>
       <c r="G171" s="23"/>
-      <c r="H171" s="75"/>
-      <c r="I171" s="76"/>
+      <c r="H171" s="56"/>
+      <c r="I171" s="57"/>
       <c r="J171" s="23"/>
       <c r="K171" s="23"/>
       <c r="L171" s="23"/>
       <c r="M171" s="23"/>
-      <c r="N171" s="75"/>
-      <c r="O171" s="74"/>
-      <c r="S171" s="74"/>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N171" s="56"/>
+      <c r="O171" s="55"/>
+      <c r="S171" s="55"/>
+    </row>
+    <row r="172" spans="1:19">
       <c r="A172" s="23"/>
-      <c r="B172" s="74"/>
+      <c r="B172" s="55"/>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
-      <c r="F172" s="75"/>
+      <c r="F172" s="56"/>
       <c r="G172" s="23"/>
-      <c r="H172" s="75"/>
-      <c r="I172" s="76"/>
+      <c r="H172" s="56"/>
+      <c r="I172" s="57"/>
       <c r="J172" s="23"/>
       <c r="K172" s="23"/>
       <c r="L172" s="23"/>
       <c r="M172" s="23"/>
-      <c r="N172" s="75"/>
-      <c r="O172" s="74"/>
-      <c r="S172" s="74"/>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N172" s="56"/>
+      <c r="O172" s="55"/>
+      <c r="S172" s="55"/>
+    </row>
+    <row r="173" spans="1:19">
       <c r="A173" s="23"/>
-      <c r="B173" s="74"/>
+      <c r="B173" s="55"/>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
-      <c r="F173" s="75"/>
+      <c r="F173" s="56"/>
       <c r="G173" s="23"/>
-      <c r="H173" s="75"/>
-      <c r="I173" s="76"/>
+      <c r="H173" s="56"/>
+      <c r="I173" s="57"/>
       <c r="J173" s="23"/>
       <c r="K173" s="23"/>
       <c r="L173" s="23"/>
       <c r="M173" s="23"/>
-      <c r="N173" s="75"/>
-      <c r="O173" s="74"/>
-      <c r="S173" s="74"/>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N173" s="56"/>
+      <c r="O173" s="55"/>
+      <c r="S173" s="55"/>
+    </row>
+    <row r="174" spans="1:19">
       <c r="A174" s="23"/>
-      <c r="B174" s="74"/>
+      <c r="B174" s="55"/>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
-      <c r="F174" s="75"/>
+      <c r="F174" s="56"/>
       <c r="G174" s="23"/>
-      <c r="H174" s="75"/>
-      <c r="I174" s="76"/>
+      <c r="H174" s="56"/>
+      <c r="I174" s="57"/>
       <c r="J174" s="23"/>
       <c r="K174" s="23"/>
       <c r="L174" s="23"/>
       <c r="M174" s="23"/>
-      <c r="N174" s="75"/>
-      <c r="O174" s="74"/>
-      <c r="S174" s="74"/>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N174" s="56"/>
+      <c r="O174" s="55"/>
+      <c r="S174" s="55"/>
+    </row>
+    <row r="175" spans="1:19">
       <c r="A175" s="23"/>
-      <c r="B175" s="74"/>
+      <c r="B175" s="55"/>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
-      <c r="F175" s="75"/>
+      <c r="F175" s="56"/>
       <c r="G175" s="23"/>
-      <c r="H175" s="75"/>
-      <c r="I175" s="76"/>
+      <c r="H175" s="56"/>
+      <c r="I175" s="57"/>
       <c r="J175" s="23"/>
       <c r="K175" s="23"/>
       <c r="L175" s="23"/>
       <c r="M175" s="23"/>
-      <c r="N175" s="75"/>
-      <c r="O175" s="74"/>
-      <c r="S175" s="74"/>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N175" s="56"/>
+      <c r="O175" s="55"/>
+      <c r="S175" s="55"/>
+    </row>
+    <row r="176" spans="1:19">
       <c r="A176" s="23"/>
-      <c r="B176" s="74"/>
+      <c r="B176" s="55"/>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
-      <c r="F176" s="75"/>
+      <c r="F176" s="56"/>
       <c r="G176" s="23"/>
-      <c r="H176" s="75"/>
-      <c r="I176" s="76"/>
+      <c r="H176" s="56"/>
+      <c r="I176" s="57"/>
       <c r="J176" s="23"/>
       <c r="K176" s="23"/>
       <c r="L176" s="23"/>
       <c r="M176" s="23"/>
-      <c r="N176" s="75"/>
-      <c r="O176" s="74"/>
-      <c r="S176" s="74"/>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N176" s="56"/>
+      <c r="O176" s="55"/>
+      <c r="S176" s="55"/>
+    </row>
+    <row r="177" spans="1:19">
       <c r="A177" s="23"/>
-      <c r="B177" s="74"/>
+      <c r="B177" s="55"/>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
-      <c r="F177" s="75"/>
+      <c r="F177" s="56"/>
       <c r="G177" s="23"/>
-      <c r="H177" s="75"/>
-      <c r="I177" s="76"/>
+      <c r="H177" s="56"/>
+      <c r="I177" s="57"/>
       <c r="J177" s="23"/>
       <c r="K177" s="23"/>
       <c r="L177" s="23"/>
       <c r="M177" s="23"/>
-      <c r="N177" s="75"/>
-      <c r="O177" s="74"/>
-      <c r="S177" s="74"/>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N177" s="56"/>
+      <c r="O177" s="55"/>
+      <c r="S177" s="55"/>
+    </row>
+    <row r="178" spans="1:19">
       <c r="A178" s="23"/>
-      <c r="B178" s="74"/>
+      <c r="B178" s="55"/>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
-      <c r="F178" s="75"/>
+      <c r="F178" s="56"/>
       <c r="G178" s="23"/>
-      <c r="H178" s="75"/>
-      <c r="I178" s="76"/>
+      <c r="H178" s="56"/>
+      <c r="I178" s="57"/>
       <c r="J178" s="23"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
-      <c r="N178" s="75"/>
-      <c r="O178" s="74"/>
-      <c r="S178" s="74"/>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N178" s="56"/>
+      <c r="O178" s="55"/>
+      <c r="S178" s="55"/>
+    </row>
+    <row r="179" spans="1:19">
       <c r="A179" s="23"/>
-      <c r="B179" s="74"/>
+      <c r="B179" s="55"/>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
       <c r="E179" s="23"/>
-      <c r="F179" s="75"/>
+      <c r="F179" s="56"/>
       <c r="G179" s="23"/>
-      <c r="H179" s="75"/>
-      <c r="I179" s="76"/>
+      <c r="H179" s="56"/>
+      <c r="I179" s="57"/>
       <c r="J179" s="23"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
-      <c r="N179" s="75"/>
-      <c r="O179" s="74"/>
-      <c r="S179" s="74"/>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N179" s="56"/>
+      <c r="O179" s="55"/>
+      <c r="S179" s="55"/>
+    </row>
+    <row r="180" spans="1:19">
       <c r="A180" s="23"/>
-      <c r="B180" s="74"/>
+      <c r="B180" s="55"/>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
-      <c r="F180" s="75"/>
+      <c r="F180" s="56"/>
       <c r="G180" s="23"/>
-      <c r="H180" s="75"/>
-      <c r="I180" s="76"/>
+      <c r="H180" s="56"/>
+      <c r="I180" s="57"/>
       <c r="J180" s="23"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
-      <c r="N180" s="75"/>
-      <c r="O180" s="74"/>
-      <c r="S180" s="74"/>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N180" s="56"/>
+      <c r="O180" s="55"/>
+      <c r="S180" s="55"/>
+    </row>
+    <row r="181" spans="1:19">
       <c r="A181" s="23"/>
-      <c r="B181" s="74"/>
+      <c r="B181" s="55"/>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
-      <c r="F181" s="75"/>
+      <c r="F181" s="56"/>
       <c r="G181" s="23"/>
-      <c r="H181" s="75"/>
-      <c r="I181" s="76"/>
+      <c r="H181" s="56"/>
+      <c r="I181" s="57"/>
       <c r="J181" s="23"/>
       <c r="K181" s="23"/>
       <c r="L181" s="23"/>
       <c r="M181" s="23"/>
-      <c r="N181" s="75"/>
-      <c r="O181" s="74"/>
-      <c r="S181" s="74"/>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N181" s="56"/>
+      <c r="O181" s="55"/>
+      <c r="S181" s="55"/>
+    </row>
+    <row r="182" spans="1:19">
       <c r="A182" s="23"/>
-      <c r="B182" s="74"/>
+      <c r="B182" s="55"/>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
-      <c r="F182" s="75"/>
+      <c r="F182" s="56"/>
       <c r="G182" s="23"/>
-      <c r="H182" s="75"/>
-      <c r="I182" s="76"/>
+      <c r="H182" s="56"/>
+      <c r="I182" s="57"/>
       <c r="J182" s="23"/>
       <c r="K182" s="23"/>
       <c r="L182" s="23"/>
       <c r="M182" s="23"/>
-      <c r="N182" s="75"/>
-      <c r="O182" s="74"/>
-      <c r="S182" s="74"/>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N182" s="56"/>
+      <c r="O182" s="55"/>
+      <c r="S182" s="55"/>
+    </row>
+    <row r="183" spans="1:19">
       <c r="A183" s="23"/>
-      <c r="B183" s="74"/>
+      <c r="B183" s="55"/>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
       <c r="E183" s="23"/>
-      <c r="F183" s="75"/>
+      <c r="F183" s="56"/>
       <c r="G183" s="23"/>
-      <c r="H183" s="75"/>
-      <c r="I183" s="76"/>
+      <c r="H183" s="56"/>
+      <c r="I183" s="57"/>
       <c r="J183" s="23"/>
       <c r="K183" s="23"/>
       <c r="L183" s="23"/>
       <c r="M183" s="23"/>
-      <c r="N183" s="75"/>
-      <c r="O183" s="74"/>
-      <c r="S183" s="74"/>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N183" s="56"/>
+      <c r="O183" s="55"/>
+      <c r="S183" s="55"/>
+    </row>
+    <row r="184" spans="1:19">
       <c r="A184" s="23"/>
-      <c r="B184" s="74"/>
+      <c r="B184" s="55"/>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
-      <c r="F184" s="75"/>
+      <c r="F184" s="56"/>
       <c r="G184" s="23"/>
-      <c r="H184" s="75"/>
-      <c r="I184" s="76"/>
+      <c r="H184" s="56"/>
+      <c r="I184" s="57"/>
       <c r="J184" s="23"/>
       <c r="K184" s="23"/>
       <c r="L184" s="23"/>
       <c r="M184" s="23"/>
-      <c r="N184" s="75"/>
-      <c r="O184" s="74"/>
-      <c r="S184" s="74"/>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N184" s="56"/>
+      <c r="O184" s="55"/>
+      <c r="S184" s="55"/>
+    </row>
+    <row r="185" spans="1:19">
       <c r="A185" s="23"/>
-      <c r="B185" s="74"/>
+      <c r="B185" s="55"/>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
-      <c r="F185" s="75"/>
+      <c r="F185" s="56"/>
       <c r="G185" s="23"/>
-      <c r="H185" s="75"/>
-      <c r="I185" s="76"/>
+      <c r="H185" s="56"/>
+      <c r="I185" s="57"/>
       <c r="J185" s="23"/>
       <c r="K185" s="23"/>
       <c r="L185" s="23"/>
       <c r="M185" s="23"/>
-      <c r="N185" s="75"/>
-      <c r="O185" s="74"/>
-      <c r="S185" s="74"/>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N185" s="56"/>
+      <c r="O185" s="55"/>
+      <c r="S185" s="55"/>
+    </row>
+    <row r="186" spans="1:19">
       <c r="A186" s="23"/>
-      <c r="B186" s="74"/>
+      <c r="B186" s="55"/>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
-      <c r="F186" s="75"/>
+      <c r="F186" s="56"/>
       <c r="G186" s="23"/>
-      <c r="H186" s="75"/>
-      <c r="I186" s="76"/>
+      <c r="H186" s="56"/>
+      <c r="I186" s="57"/>
       <c r="J186" s="23"/>
       <c r="K186" s="23"/>
       <c r="L186" s="23"/>
       <c r="M186" s="23"/>
-      <c r="N186" s="75"/>
-      <c r="O186" s="74"/>
-      <c r="S186" s="74"/>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N186" s="56"/>
+      <c r="O186" s="55"/>
+      <c r="S186" s="55"/>
+    </row>
+    <row r="187" spans="1:19">
       <c r="A187" s="23"/>
-      <c r="B187" s="74"/>
+      <c r="B187" s="55"/>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
-      <c r="F187" s="75"/>
+      <c r="F187" s="56"/>
       <c r="G187" s="23"/>
-      <c r="H187" s="75"/>
-      <c r="I187" s="76"/>
+      <c r="H187" s="56"/>
+      <c r="I187" s="57"/>
       <c r="J187" s="23"/>
       <c r="K187" s="23"/>
       <c r="L187" s="23"/>
       <c r="M187" s="23"/>
-      <c r="N187" s="75"/>
-      <c r="O187" s="74"/>
-      <c r="S187" s="74"/>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N187" s="56"/>
+      <c r="O187" s="55"/>
+      <c r="S187" s="55"/>
+    </row>
+    <row r="188" spans="1:19">
       <c r="A188" s="23"/>
-      <c r="B188" s="74"/>
+      <c r="B188" s="55"/>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
-      <c r="F188" s="75"/>
+      <c r="F188" s="56"/>
       <c r="G188" s="23"/>
-      <c r="H188" s="75"/>
-      <c r="I188" s="76"/>
+      <c r="H188" s="56"/>
+      <c r="I188" s="57"/>
       <c r="J188" s="23"/>
       <c r="K188" s="23"/>
       <c r="L188" s="23"/>
       <c r="M188" s="23"/>
-      <c r="N188" s="75"/>
-      <c r="O188" s="74"/>
-      <c r="S188" s="74"/>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N188" s="56"/>
+      <c r="O188" s="55"/>
+      <c r="S188" s="55"/>
+    </row>
+    <row r="189" spans="1:19">
       <c r="A189" s="23"/>
-      <c r="B189" s="74"/>
+      <c r="B189" s="55"/>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
       <c r="E189" s="23"/>
-      <c r="F189" s="75"/>
+      <c r="F189" s="56"/>
       <c r="G189" s="23"/>
-      <c r="H189" s="75"/>
-      <c r="I189" s="76"/>
+      <c r="H189" s="56"/>
+      <c r="I189" s="57"/>
       <c r="J189" s="23"/>
       <c r="K189" s="23"/>
       <c r="L189" s="23"/>
       <c r="M189" s="23"/>
-      <c r="N189" s="75"/>
-      <c r="O189" s="74"/>
-      <c r="S189" s="74"/>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N189" s="56"/>
+      <c r="O189" s="55"/>
+      <c r="S189" s="55"/>
+    </row>
+    <row r="190" spans="1:19">
       <c r="A190" s="23"/>
-      <c r="B190" s="74"/>
+      <c r="B190" s="55"/>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
-      <c r="F190" s="75"/>
+      <c r="F190" s="56"/>
       <c r="G190" s="23"/>
-      <c r="H190" s="75"/>
-      <c r="I190" s="76"/>
+      <c r="H190" s="56"/>
+      <c r="I190" s="57"/>
       <c r="J190" s="23"/>
       <c r="K190" s="23"/>
       <c r="L190" s="23"/>
       <c r="M190" s="23"/>
-      <c r="N190" s="75"/>
-      <c r="O190" s="74"/>
-      <c r="S190" s="74"/>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N190" s="56"/>
+      <c r="O190" s="55"/>
+      <c r="S190" s="55"/>
+    </row>
+    <row r="191" spans="1:19">
       <c r="A191" s="23"/>
-      <c r="B191" s="74"/>
+      <c r="B191" s="55"/>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
       <c r="E191" s="23"/>
-      <c r="F191" s="75"/>
+      <c r="F191" s="56"/>
       <c r="G191" s="23"/>
-      <c r="H191" s="75"/>
-      <c r="I191" s="76"/>
+      <c r="H191" s="56"/>
+      <c r="I191" s="57"/>
       <c r="J191" s="23"/>
       <c r="K191" s="23"/>
       <c r="L191" s="23"/>
       <c r="M191" s="23"/>
-      <c r="N191" s="75"/>
-      <c r="O191" s="74"/>
-      <c r="S191" s="74"/>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N191" s="56"/>
+      <c r="O191" s="55"/>
+      <c r="S191" s="55"/>
+    </row>
+    <row r="192" spans="1:19">
       <c r="A192" s="23"/>
-      <c r="B192" s="74"/>
+      <c r="B192" s="55"/>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
-      <c r="F192" s="75"/>
+      <c r="F192" s="56"/>
       <c r="G192" s="23"/>
-      <c r="H192" s="75"/>
-      <c r="I192" s="76"/>
+      <c r="H192" s="56"/>
+      <c r="I192" s="57"/>
       <c r="J192" s="23"/>
       <c r="K192" s="23"/>
       <c r="L192" s="23"/>
       <c r="M192" s="23"/>
-      <c r="N192" s="75"/>
-      <c r="O192" s="74"/>
-      <c r="S192" s="74"/>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="N192" s="56"/>
+      <c r="O192" s="55"/>
+      <c r="S192" s="55"/>
+    </row>
+    <row r="193" spans="1:19">
       <c r="A193" s="23"/>
-      <c r="B193" s="74"/>
+      <c r="B193" s="55"/>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
       <c r="E193" s="23"/>
-      <c r="F193" s="75"/>
+      <c r="F193" s="56"/>
       <c r="G193" s="23"/>
-      <c r="H193" s="75"/>
-      <c r="I193" s="76"/>
+      <c r="H193" s="56"/>
+      <c r="I193" s="57"/>
       <c r="J193" s="23"/>
       <c r="K193" s="23"/>
       <c r="L193" s="23"/>
       <c r="M193" s="23"/>
-      <c r="N193" s="75"/>
-      <c r="O193" s="74"/>
-      <c r="S193" s="74"/>
+      <c r="N193" s="56"/>
+      <c r="O193" s="55"/>
+      <c r="S193" s="55"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6054,22 +6293,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="91.5" style="31" customWidth="1"/>
+    <col min="7" max="7" width="59.875" style="29" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
@@ -6897,39 +7136,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:13">
+      <c r="A1" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="51"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="63"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="64"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="65"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -6948,7 +7187,7 @@
       <c r="F3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="26" t="s">
         <v>34</v>
       </c>
       <c r="H3" s="4" t="s">
@@ -6970,104 +7209,254 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="26" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A4" s="24">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A5" s="80">
+        <v>2</v>
+      </c>
+      <c r="B5" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G5" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="J5" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="81" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5">
+      <c r="A6" s="24">
+        <v>3</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="I6" s="81" t="s">
+        <v>178</v>
+      </c>
+      <c r="J6" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="L6" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="66">
+      <c r="A7" s="80">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="66">
+      <c r="A8" s="24">
+        <v>5</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>194</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G8" s="79" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="24" t="s">
+        <v>200</v>
+      </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="66">
+      <c r="A9" s="80">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G9" s="79" t="s">
+        <v>202</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="L9" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="28"/>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -7075,14 +7464,14 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="28"/>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -7090,14 +7479,14 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="28"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -7105,14 +7494,14 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
-      <c r="G13" s="30"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -7120,14 +7509,14 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="G14" s="30"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -7135,14 +7524,14 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="30"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -7156,13 +7545,13 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JE5:JE1048576 TA5:TA1048576 ACW5:ACW1048576 AMS5:AMS1048576 AWO5:AWO1048576 BGK5:BGK1048576 BQG5:BQG1048576 CAC5:CAC1048576 CJY5:CJY1048576 CTU5:CTU1048576 DDQ5:DDQ1048576 DNM5:DNM1048576 DXI5:DXI1048576 EHE5:EHE1048576 ERA5:ERA1048576 FAW5:FAW1048576 FKS5:FKS1048576 FUO5:FUO1048576 GEK5:GEK1048576 GOG5:GOG1048576 GYC5:GYC1048576 HHY5:HHY1048576 HRU5:HRU1048576 IBQ5:IBQ1048576 ILM5:ILM1048576 IVI5:IVI1048576 JFE5:JFE1048576 JPA5:JPA1048576 JYW5:JYW1048576 KIS5:KIS1048576 KSO5:KSO1048576 LCK5:LCK1048576 LMG5:LMG1048576 LWC5:LWC1048576 MFY5:MFY1048576 MPU5:MPU1048576 MZQ5:MZQ1048576 NJM5:NJM1048576 NTI5:NTI1048576 ODE5:ODE1048576 ONA5:ONA1048576 OWW5:OWW1048576 PGS5:PGS1048576 PQO5:PQO1048576 QAK5:QAK1048576 QKG5:QKG1048576 QUC5:QUC1048576 RDY5:RDY1048576 RNU5:RNU1048576 RXQ5:RXQ1048576 SHM5:SHM1048576 SRI5:SRI1048576 TBE5:TBE1048576 TLA5:TLA1048576 TUW5:TUW1048576 UES5:UES1048576 UOO5:UOO1048576 UYK5:UYK1048576 VIG5:VIG1048576 VSC5:VSC1048576 WBY5:WBY1048576 WLU5:WLU1048576 WVQ5:WVQ1048576 WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I3 I5:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576 TA5:TA1048576 ACW5:ACW1048576 AMS5:AMS1048576 AWO5:AWO1048576 BGK5:BGK1048576 BQG5:BQG1048576 CAC5:CAC1048576 CJY5:CJY1048576 CTU5:CTU1048576 DDQ5:DDQ1048576 DNM5:DNM1048576 DXI5:DXI1048576 EHE5:EHE1048576 ERA5:ERA1048576 FAW5:FAW1048576 FKS5:FKS1048576 FUO5:FUO1048576 GEK5:GEK1048576 GOG5:GOG1048576 GYC5:GYC1048576 HHY5:HHY1048576 HRU5:HRU1048576 IBQ5:IBQ1048576 ILM5:ILM1048576 IVI5:IVI1048576 JFE5:JFE1048576 JPA5:JPA1048576 JYW5:JYW1048576 KIS5:KIS1048576 KSO5:KSO1048576 LCK5:LCK1048576 LMG5:LMG1048576 LWC5:LWC1048576 MFY5:MFY1048576 MPU5:MPU1048576 MZQ5:MZQ1048576 NJM5:NJM1048576 NTI5:NTI1048576 ODE5:ODE1048576 ONA5:ONA1048576 OWW5:OWW1048576 PGS5:PGS1048576 PQO5:PQO1048576 QAK5:QAK1048576 QKG5:QKG1048576 QUC5:QUC1048576 RDY5:RDY1048576 RNU5:RNU1048576 RXQ5:RXQ1048576 SHM5:SHM1048576 SRI5:SRI1048576 TBE5:TBE1048576 TLA5:TLA1048576 TUW5:TUW1048576 UES5:UES1048576 UOO5:UOO1048576 UYK5:UYK1048576 VIG5:VIG1048576 VSC5:VSC1048576 WBY5:WBY1048576 WLU5:WLU1048576 WVQ5:WVQ1048576 WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I4 JE5:JE1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 F131075:F131087 F196611:F196623 F262147:F262159 F327683:F327695 F393219:F393231 F458755:F458767 F524291:F524303 F589827:F589839 F655363:F655375 F720899:F720911 F786435:F786447 F851971:F851983 F917507:F917519 F983043:F983055 JB65539:JB65551 JB131075:JB131087 JB196611:JB196623 JB262147:JB262159 JB327683:JB327695 JB393219:JB393231 JB458755:JB458767 JB524291:JB524303 JB589827:JB589839 JB655363:JB655375 JB720899:JB720911 JB786435:JB786447 JB851971:JB851983 JB917507:JB917519 JB983043:JB983055 SX65539:SX65551 SX131075:SX131087 SX196611:SX196623 SX262147:SX262159 SX327683:SX327695 SX393219:SX393231 SX458755:SX458767 SX524291:SX524303 SX589827:SX589839 SX655363:SX655375 SX720899:SX720911 SX786435:SX786447 SX851971:SX851983 SX917507:SX917519 SX983043:SX983055 ACT65539:ACT65551 ACT131075:ACT131087 ACT196611:ACT196623 ACT262147:ACT262159 ACT327683:ACT327695 ACT393219:ACT393231 ACT458755:ACT458767 ACT524291:ACT524303 ACT589827:ACT589839 ACT655363:ACT655375 ACT720899:ACT720911 ACT786435:ACT786447 ACT851971:ACT851983 ACT917507:ACT917519 ACT983043:ACT983055 AMP65539:AMP65551 AMP131075:AMP131087 AMP196611:AMP196623 AMP262147:AMP262159 AMP327683:AMP327695 AMP393219:AMP393231 AMP458755:AMP458767 AMP524291:AMP524303 AMP589827:AMP589839 AMP655363:AMP655375 AMP720899:AMP720911 AMP786435:AMP786447 AMP851971:AMP851983 AMP917507:AMP917519 AMP983043:AMP983055 AWL65539:AWL65551 AWL131075:AWL131087 AWL196611:AWL196623 AWL262147:AWL262159 AWL327683:AWL327695 AWL393219:AWL393231 AWL458755:AWL458767 AWL524291:AWL524303 AWL589827:AWL589839 AWL655363:AWL655375 AWL720899:AWL720911 AWL786435:AWL786447 AWL851971:AWL851983 AWL917507:AWL917519 AWL983043:AWL983055 BGH65539:BGH65551 BGH131075:BGH131087 BGH196611:BGH196623 BGH262147:BGH262159 BGH327683:BGH327695 BGH393219:BGH393231 BGH458755:BGH458767 BGH524291:BGH524303 BGH589827:BGH589839 BGH655363:BGH655375 BGH720899:BGH720911 BGH786435:BGH786447 BGH851971:BGH851983 BGH917507:BGH917519 BGH983043:BGH983055 BQD65539:BQD65551 BQD131075:BQD131087 BQD196611:BQD196623 BQD262147:BQD262159 BQD327683:BQD327695 BQD393219:BQD393231 BQD458755:BQD458767 BQD524291:BQD524303 BQD589827:BQD589839 BQD655363:BQD655375 BQD720899:BQD720911 BQD786435:BQD786447 BQD851971:BQD851983 BQD917507:BQD917519 BQD983043:BQD983055 BZZ65539:BZZ65551 BZZ131075:BZZ131087 BZZ196611:BZZ196623 BZZ262147:BZZ262159 BZZ327683:BZZ327695 BZZ393219:BZZ393231 BZZ458755:BZZ458767 BZZ524291:BZZ524303 BZZ589827:BZZ589839 BZZ655363:BZZ655375 BZZ720899:BZZ720911 BZZ786435:BZZ786447 BZZ851971:BZZ851983 BZZ917507:BZZ917519 BZZ983043:BZZ983055 CJV65539:CJV65551 CJV131075:CJV131087 CJV196611:CJV196623 CJV262147:CJV262159 CJV327683:CJV327695 CJV393219:CJV393231 CJV458755:CJV458767 CJV524291:CJV524303 CJV589827:CJV589839 CJV655363:CJV655375 CJV720899:CJV720911 CJV786435:CJV786447 CJV851971:CJV851983 CJV917507:CJV917519 CJV983043:CJV983055 CTR65539:CTR65551 CTR131075:CTR131087 CTR196611:CTR196623 CTR262147:CTR262159 CTR327683:CTR327695 CTR393219:CTR393231 CTR458755:CTR458767 CTR524291:CTR524303 CTR589827:CTR589839 CTR655363:CTR655375 CTR720899:CTR720911 CTR786435:CTR786447 CTR851971:CTR851983 CTR917507:CTR917519 CTR983043:CTR983055 DDN65539:DDN65551 DDN131075:DDN131087 DDN196611:DDN196623 DDN262147:DDN262159 DDN327683:DDN327695 DDN393219:DDN393231 DDN458755:DDN458767 DDN524291:DDN524303 DDN589827:DDN589839 DDN655363:DDN655375 DDN720899:DDN720911 DDN786435:DDN786447 DDN851971:DDN851983 DDN917507:DDN917519 DDN983043:DDN983055 DNJ65539:DNJ65551 DNJ131075:DNJ131087 DNJ196611:DNJ196623 DNJ262147:DNJ262159 DNJ327683:DNJ327695 DNJ393219:DNJ393231 DNJ458755:DNJ458767 DNJ524291:DNJ524303 DNJ589827:DNJ589839 DNJ655363:DNJ655375 DNJ720899:DNJ720911 DNJ786435:DNJ786447 DNJ851971:DNJ851983 DNJ917507:DNJ917519 DNJ983043:DNJ983055 DXF65539:DXF65551 DXF131075:DXF131087 DXF196611:DXF196623 DXF262147:DXF262159 DXF327683:DXF327695 DXF393219:DXF393231 DXF458755:DXF458767 DXF524291:DXF524303 DXF589827:DXF589839 DXF655363:DXF655375 DXF720899:DXF720911 DXF786435:DXF786447 DXF851971:DXF851983 DXF917507:DXF917519 DXF983043:DXF983055 EHB65539:EHB65551 EHB131075:EHB131087 EHB196611:EHB196623 EHB262147:EHB262159 EHB327683:EHB327695 EHB393219:EHB393231 EHB458755:EHB458767 EHB524291:EHB524303 EHB589827:EHB589839 EHB655363:EHB655375 EHB720899:EHB720911 EHB786435:EHB786447 EHB851971:EHB851983 EHB917507:EHB917519 EHB983043:EHB983055 EQX65539:EQX65551 EQX131075:EQX131087 EQX196611:EQX196623 EQX262147:EQX262159 EQX327683:EQX327695 EQX393219:EQX393231 EQX458755:EQX458767 EQX524291:EQX524303 EQX589827:EQX589839 EQX655363:EQX655375 EQX720899:EQX720911 EQX786435:EQX786447 EQX851971:EQX851983 EQX917507:EQX917519 EQX983043:EQX983055 FAT65539:FAT65551 FAT131075:FAT131087 FAT196611:FAT196623 FAT262147:FAT262159 FAT327683:FAT327695 FAT393219:FAT393231 FAT458755:FAT458767 FAT524291:FAT524303 FAT589827:FAT589839 FAT655363:FAT655375 FAT720899:FAT720911 FAT786435:FAT786447 FAT851971:FAT851983 FAT917507:FAT917519 FAT983043:FAT983055 FKP65539:FKP65551 FKP131075:FKP131087 FKP196611:FKP196623 FKP262147:FKP262159 FKP327683:FKP327695 FKP393219:FKP393231 FKP458755:FKP458767 FKP524291:FKP524303 FKP589827:FKP589839 FKP655363:FKP655375 FKP720899:FKP720911 FKP786435:FKP786447 FKP851971:FKP851983 FKP917507:FKP917519 FKP983043:FKP983055 FUL65539:FUL65551 FUL131075:FUL131087 FUL196611:FUL196623 FUL262147:FUL262159 FUL327683:FUL327695 FUL393219:FUL393231 FUL458755:FUL458767 FUL524291:FUL524303 FUL589827:FUL589839 FUL655363:FUL655375 FUL720899:FUL720911 FUL786435:FUL786447 FUL851971:FUL851983 FUL917507:FUL917519 FUL983043:FUL983055 GEH65539:GEH65551 GEH131075:GEH131087 GEH196611:GEH196623 GEH262147:GEH262159 GEH327683:GEH327695 GEH393219:GEH393231 GEH458755:GEH458767 GEH524291:GEH524303 GEH589827:GEH589839 GEH655363:GEH655375 GEH720899:GEH720911 GEH786435:GEH786447 GEH851971:GEH851983 GEH917507:GEH917519 GEH983043:GEH983055 GOD65539:GOD65551 GOD131075:GOD131087 GOD196611:GOD196623 GOD262147:GOD262159 GOD327683:GOD327695 GOD393219:GOD393231 GOD458755:GOD458767 GOD524291:GOD524303 GOD589827:GOD589839 GOD655363:GOD655375 GOD720899:GOD720911 GOD786435:GOD786447 GOD851971:GOD851983 GOD917507:GOD917519 GOD983043:GOD983055 GXZ65539:GXZ65551 GXZ131075:GXZ131087 GXZ196611:GXZ196623 GXZ262147:GXZ262159 GXZ327683:GXZ327695 GXZ393219:GXZ393231 GXZ458755:GXZ458767 GXZ524291:GXZ524303 GXZ589827:GXZ589839 GXZ655363:GXZ655375 GXZ720899:GXZ720911 GXZ786435:GXZ786447 GXZ851971:GXZ851983 GXZ917507:GXZ917519 GXZ983043:GXZ983055 HHV65539:HHV65551 HHV131075:HHV131087 HHV196611:HHV196623 HHV262147:HHV262159 HHV327683:HHV327695 HHV393219:HHV393231 HHV458755:HHV458767 HHV524291:HHV524303 HHV589827:HHV589839 HHV655363:HHV655375 HHV720899:HHV720911 HHV786435:HHV786447 HHV851971:HHV851983 HHV917507:HHV917519 HHV983043:HHV983055 HRR65539:HRR65551 HRR131075:HRR131087 HRR196611:HRR196623 HRR262147:HRR262159 HRR327683:HRR327695 HRR393219:HRR393231 HRR458755:HRR458767 HRR524291:HRR524303 HRR589827:HRR589839 HRR655363:HRR655375 HRR720899:HRR720911 HRR786435:HRR786447 HRR851971:HRR851983 HRR917507:HRR917519 HRR983043:HRR983055 IBN65539:IBN65551 IBN131075:IBN131087 IBN196611:IBN196623 IBN262147:IBN262159 IBN327683:IBN327695 IBN393219:IBN393231 IBN458755:IBN458767 IBN524291:IBN524303 IBN589827:IBN589839 IBN655363:IBN655375 IBN720899:IBN720911 IBN786435:IBN786447 IBN851971:IBN851983 IBN917507:IBN917519 IBN983043:IBN983055 ILJ65539:ILJ65551 ILJ131075:ILJ131087 ILJ196611:ILJ196623 ILJ262147:ILJ262159 ILJ327683:ILJ327695 ILJ393219:ILJ393231 ILJ458755:ILJ458767 ILJ524291:ILJ524303 ILJ589827:ILJ589839 ILJ655363:ILJ655375 ILJ720899:ILJ720911 ILJ786435:ILJ786447 ILJ851971:ILJ851983 ILJ917507:ILJ917519 ILJ983043:ILJ983055 IVF65539:IVF65551 IVF131075:IVF131087 IVF196611:IVF196623 IVF262147:IVF262159 IVF327683:IVF327695 IVF393219:IVF393231 IVF458755:IVF458767 IVF524291:IVF524303 IVF589827:IVF589839 IVF655363:IVF655375 IVF720899:IVF720911 IVF786435:IVF786447 IVF851971:IVF851983 IVF917507:IVF917519 IVF983043:IVF983055 JFB65539:JFB65551 JFB131075:JFB131087 JFB196611:JFB196623 JFB262147:JFB262159 JFB327683:JFB327695 JFB393219:JFB393231 JFB458755:JFB458767 JFB524291:JFB524303 JFB589827:JFB589839 JFB655363:JFB655375 JFB720899:JFB720911 JFB786435:JFB786447 JFB851971:JFB851983 JFB917507:JFB917519 JFB983043:JFB983055 JOX65539:JOX65551 JOX131075:JOX131087 JOX196611:JOX196623 JOX262147:JOX262159 JOX327683:JOX327695 JOX393219:JOX393231 JOX458755:JOX458767 JOX524291:JOX524303 JOX589827:JOX589839 JOX655363:JOX655375 JOX720899:JOX720911 JOX786435:JOX786447 JOX851971:JOX851983 JOX917507:JOX917519 JOX983043:JOX983055 JYT65539:JYT65551 JYT131075:JYT131087 JYT196611:JYT196623 JYT262147:JYT262159 JYT327683:JYT327695 JYT393219:JYT393231 JYT458755:JYT458767 JYT524291:JYT524303 JYT589827:JYT589839 JYT655363:JYT655375 JYT720899:JYT720911 JYT786435:JYT786447 JYT851971:JYT851983 JYT917507:JYT917519 JYT983043:JYT983055 KIP65539:KIP65551 KIP131075:KIP131087 KIP196611:KIP196623 KIP262147:KIP262159 KIP327683:KIP327695 KIP393219:KIP393231 KIP458755:KIP458767 KIP524291:KIP524303 KIP589827:KIP589839 KIP655363:KIP655375 KIP720899:KIP720911 KIP786435:KIP786447 KIP851971:KIP851983 KIP917507:KIP917519 KIP983043:KIP983055 KSL65539:KSL65551 KSL131075:KSL131087 KSL196611:KSL196623 KSL262147:KSL262159 KSL327683:KSL327695 KSL393219:KSL393231 KSL458755:KSL458767 KSL524291:KSL524303 KSL589827:KSL589839 KSL655363:KSL655375 KSL720899:KSL720911 KSL786435:KSL786447 KSL851971:KSL851983 KSL917507:KSL917519 KSL983043:KSL983055 LCH65539:LCH65551 LCH131075:LCH131087 LCH196611:LCH196623 LCH262147:LCH262159 LCH327683:LCH327695 LCH393219:LCH393231 LCH458755:LCH458767 LCH524291:LCH524303 LCH589827:LCH589839 LCH655363:LCH655375 LCH720899:LCH720911 LCH786435:LCH786447 LCH851971:LCH851983 LCH917507:LCH917519 LCH983043:LCH983055 LMD65539:LMD65551 LMD131075:LMD131087 LMD196611:LMD196623 LMD262147:LMD262159 LMD327683:LMD327695 LMD393219:LMD393231 LMD458755:LMD458767 LMD524291:LMD524303 LMD589827:LMD589839 LMD655363:LMD655375 LMD720899:LMD720911 LMD786435:LMD786447 LMD851971:LMD851983 LMD917507:LMD917519 LMD983043:LMD983055 LVZ65539:LVZ65551 LVZ131075:LVZ131087 LVZ196611:LVZ196623 LVZ262147:LVZ262159 LVZ327683:LVZ327695 LVZ393219:LVZ393231 LVZ458755:LVZ458767 LVZ524291:LVZ524303 LVZ589827:LVZ589839 LVZ655363:LVZ655375 LVZ720899:LVZ720911 LVZ786435:LVZ786447 LVZ851971:LVZ851983 LVZ917507:LVZ917519 LVZ983043:LVZ983055 MFV65539:MFV65551 MFV131075:MFV131087 MFV196611:MFV196623 MFV262147:MFV262159 MFV327683:MFV327695 MFV393219:MFV393231 MFV458755:MFV458767 MFV524291:MFV524303 MFV589827:MFV589839 MFV655363:MFV655375 MFV720899:MFV720911 MFV786435:MFV786447 MFV851971:MFV851983 MFV917507:MFV917519 MFV983043:MFV983055 MPR65539:MPR65551 MPR131075:MPR131087 MPR196611:MPR196623 MPR262147:MPR262159 MPR327683:MPR327695 MPR393219:MPR393231 MPR458755:MPR458767 MPR524291:MPR524303 MPR589827:MPR589839 MPR655363:MPR655375 MPR720899:MPR720911 MPR786435:MPR786447 MPR851971:MPR851983 MPR917507:MPR917519 MPR983043:MPR983055 MZN65539:MZN65551 MZN131075:MZN131087 MZN196611:MZN196623 MZN262147:MZN262159 MZN327683:MZN327695 MZN393219:MZN393231 MZN458755:MZN458767 MZN524291:MZN524303 MZN589827:MZN589839 MZN655363:MZN655375 MZN720899:MZN720911 MZN786435:MZN786447 MZN851971:MZN851983 MZN917507:MZN917519 MZN983043:MZN983055 NJJ65539:NJJ65551 NJJ131075:NJJ131087 NJJ196611:NJJ196623 NJJ262147:NJJ262159 NJJ327683:NJJ327695 NJJ393219:NJJ393231 NJJ458755:NJJ458767 NJJ524291:NJJ524303 NJJ589827:NJJ589839 NJJ655363:NJJ655375 NJJ720899:NJJ720911 NJJ786435:NJJ786447 NJJ851971:NJJ851983 NJJ917507:NJJ917519 NJJ983043:NJJ983055 NTF65539:NTF65551 NTF131075:NTF131087 NTF196611:NTF196623 NTF262147:NTF262159 NTF327683:NTF327695 NTF393219:NTF393231 NTF458755:NTF458767 NTF524291:NTF524303 NTF589827:NTF589839 NTF655363:NTF655375 NTF720899:NTF720911 NTF786435:NTF786447 NTF851971:NTF851983 NTF917507:NTF917519 NTF983043:NTF983055 ODB65539:ODB65551 ODB131075:ODB131087 ODB196611:ODB196623 ODB262147:ODB262159 ODB327683:ODB327695 ODB393219:ODB393231 ODB458755:ODB458767 ODB524291:ODB524303 ODB589827:ODB589839 ODB655363:ODB655375 ODB720899:ODB720911 ODB786435:ODB786447 ODB851971:ODB851983 ODB917507:ODB917519 ODB983043:ODB983055 OMX65539:OMX65551 OMX131075:OMX131087 OMX196611:OMX196623 OMX262147:OMX262159 OMX327683:OMX327695 OMX393219:OMX393231 OMX458755:OMX458767 OMX524291:OMX524303 OMX589827:OMX589839 OMX655363:OMX655375 OMX720899:OMX720911 OMX786435:OMX786447 OMX851971:OMX851983 OMX917507:OMX917519 OMX983043:OMX983055 OWT65539:OWT65551 OWT131075:OWT131087 OWT196611:OWT196623 OWT262147:OWT262159 OWT327683:OWT327695 OWT393219:OWT393231 OWT458755:OWT458767 OWT524291:OWT524303 OWT589827:OWT589839 OWT655363:OWT655375 OWT720899:OWT720911 OWT786435:OWT786447 OWT851971:OWT851983 OWT917507:OWT917519 OWT983043:OWT983055 PGP65539:PGP65551 PGP131075:PGP131087 PGP196611:PGP196623 PGP262147:PGP262159 PGP327683:PGP327695 PGP393219:PGP393231 PGP458755:PGP458767 PGP524291:PGP524303 PGP589827:PGP589839 PGP655363:PGP655375 PGP720899:PGP720911 PGP786435:PGP786447 PGP851971:PGP851983 PGP917507:PGP917519 PGP983043:PGP983055 PQL65539:PQL65551 PQL131075:PQL131087 PQL196611:PQL196623 PQL262147:PQL262159 PQL327683:PQL327695 PQL393219:PQL393231 PQL458755:PQL458767 PQL524291:PQL524303 PQL589827:PQL589839 PQL655363:PQL655375 PQL720899:PQL720911 PQL786435:PQL786447 PQL851971:PQL851983 PQL917507:PQL917519 PQL983043:PQL983055 QAH65539:QAH65551 QAH131075:QAH131087 QAH196611:QAH196623 QAH262147:QAH262159 QAH327683:QAH327695 QAH393219:QAH393231 QAH458755:QAH458767 QAH524291:QAH524303 QAH589827:QAH589839 QAH655363:QAH655375 QAH720899:QAH720911 QAH786435:QAH786447 QAH851971:QAH851983 QAH917507:QAH917519 QAH983043:QAH983055 QKD65539:QKD65551 QKD131075:QKD131087 QKD196611:QKD196623 QKD262147:QKD262159 QKD327683:QKD327695 QKD393219:QKD393231 QKD458755:QKD458767 QKD524291:QKD524303 QKD589827:QKD589839 QKD655363:QKD655375 QKD720899:QKD720911 QKD786435:QKD786447 QKD851971:QKD851983 QKD917507:QKD917519 QKD983043:QKD983055 QTZ65539:QTZ65551 QTZ131075:QTZ131087 QTZ196611:QTZ196623 QTZ262147:QTZ262159 QTZ327683:QTZ327695 QTZ393219:QTZ393231 QTZ458755:QTZ458767 QTZ524291:QTZ524303 QTZ589827:QTZ589839 QTZ655363:QTZ655375 QTZ720899:QTZ720911 QTZ786435:QTZ786447 QTZ851971:QTZ851983 QTZ917507:QTZ917519 QTZ983043:QTZ983055 RDV65539:RDV65551 RDV131075:RDV131087 RDV196611:RDV196623 RDV262147:RDV262159 RDV327683:RDV327695 RDV393219:RDV393231 RDV458755:RDV458767 RDV524291:RDV524303 RDV589827:RDV589839 RDV655363:RDV655375 RDV720899:RDV720911 RDV786435:RDV786447 RDV851971:RDV851983 RDV917507:RDV917519 RDV983043:RDV983055 RNR65539:RNR65551 RNR131075:RNR131087 RNR196611:RNR196623 RNR262147:RNR262159 RNR327683:RNR327695 RNR393219:RNR393231 RNR458755:RNR458767 RNR524291:RNR524303 RNR589827:RNR589839 RNR655363:RNR655375 RNR720899:RNR720911 RNR786435:RNR786447 RNR851971:RNR851983 RNR917507:RNR917519 RNR983043:RNR983055 RXN65539:RXN65551 RXN131075:RXN131087 RXN196611:RXN196623 RXN262147:RXN262159 RXN327683:RXN327695 RXN393219:RXN393231 RXN458755:RXN458767 RXN524291:RXN524303 RXN589827:RXN589839 RXN655363:RXN655375 RXN720899:RXN720911 RXN786435:RXN786447 RXN851971:RXN851983 RXN917507:RXN917519 RXN983043:RXN983055 SHJ65539:SHJ65551 SHJ131075:SHJ131087 SHJ196611:SHJ196623 SHJ262147:SHJ262159 SHJ327683:SHJ327695 SHJ393219:SHJ393231 SHJ458755:SHJ458767 SHJ524291:SHJ524303 SHJ589827:SHJ589839 SHJ655363:SHJ655375 SHJ720899:SHJ720911 SHJ786435:SHJ786447 SHJ851971:SHJ851983 SHJ917507:SHJ917519 SHJ983043:SHJ983055 SRF65539:SRF65551 SRF131075:SRF131087 SRF196611:SRF196623 SRF262147:SRF262159 SRF327683:SRF327695 SRF393219:SRF393231 SRF458755:SRF458767 SRF524291:SRF524303 SRF589827:SRF589839 SRF655363:SRF655375 SRF720899:SRF720911 SRF786435:SRF786447 SRF851971:SRF851983 SRF917507:SRF917519 SRF983043:SRF983055 TBB65539:TBB65551 TBB131075:TBB131087 TBB196611:TBB196623 TBB262147:TBB262159 TBB327683:TBB327695 TBB393219:TBB393231 TBB458755:TBB458767 TBB524291:TBB524303 TBB589827:TBB589839 TBB655363:TBB655375 TBB720899:TBB720911 TBB786435:TBB786447 TBB851971:TBB851983 TBB917507:TBB917519 TBB983043:TBB983055 TKX65539:TKX65551 TKX131075:TKX131087 TKX196611:TKX196623 TKX262147:TKX262159 TKX327683:TKX327695 TKX393219:TKX393231 TKX458755:TKX458767 TKX524291:TKX524303 TKX589827:TKX589839 TKX655363:TKX655375 TKX720899:TKX720911 TKX786435:TKX786447 TKX851971:TKX851983 TKX917507:TKX917519 TKX983043:TKX983055 TUT65539:TUT65551 TUT131075:TUT131087 TUT196611:TUT196623 TUT262147:TUT262159 TUT327683:TUT327695 TUT393219:TUT393231 TUT458755:TUT458767 TUT524291:TUT524303 TUT589827:TUT589839 TUT655363:TUT655375 TUT720899:TUT720911 TUT786435:TUT786447 TUT851971:TUT851983 TUT917507:TUT917519 TUT983043:TUT983055 UEP65539:UEP65551 UEP131075:UEP131087 UEP196611:UEP196623 UEP262147:UEP262159 UEP327683:UEP327695 UEP393219:UEP393231 UEP458755:UEP458767 UEP524291:UEP524303 UEP589827:UEP589839 UEP655363:UEP655375 UEP720899:UEP720911 UEP786435:UEP786447 UEP851971:UEP851983 UEP917507:UEP917519 UEP983043:UEP983055 UOL65539:UOL65551 UOL131075:UOL131087 UOL196611:UOL196623 UOL262147:UOL262159 UOL327683:UOL327695 UOL393219:UOL393231 UOL458755:UOL458767 UOL524291:UOL524303 UOL589827:UOL589839 UOL655363:UOL655375 UOL720899:UOL720911 UOL786435:UOL786447 UOL851971:UOL851983 UOL917507:UOL917519 UOL983043:UOL983055 UYH65539:UYH65551 UYH131075:UYH131087 UYH196611:UYH196623 UYH262147:UYH262159 UYH327683:UYH327695 UYH393219:UYH393231 UYH458755:UYH458767 UYH524291:UYH524303 UYH589827:UYH589839 UYH655363:UYH655375 UYH720899:UYH720911 UYH786435:UYH786447 UYH851971:UYH851983 UYH917507:UYH917519 UYH983043:UYH983055 VID65539:VID65551 VID131075:VID131087 VID196611:VID196623 VID262147:VID262159 VID327683:VID327695 VID393219:VID393231 VID458755:VID458767 VID524291:VID524303 VID589827:VID589839 VID655363:VID655375 VID720899:VID720911 VID786435:VID786447 VID851971:VID851983 VID917507:VID917519 VID983043:VID983055 VRZ65539:VRZ65551 VRZ131075:VRZ131087 VRZ196611:VRZ196623 VRZ262147:VRZ262159 VRZ327683:VRZ327695 VRZ393219:VRZ393231 VRZ458755:VRZ458767 VRZ524291:VRZ524303 VRZ589827:VRZ589839 VRZ655363:VRZ655375 VRZ720899:VRZ720911 VRZ786435:VRZ786447 VRZ851971:VRZ851983 VRZ917507:VRZ917519 VRZ983043:VRZ983055 WBV65539:WBV65551 WBV131075:WBV131087 WBV196611:WBV196623 WBV262147:WBV262159 WBV327683:WBV327695 WBV393219:WBV393231 WBV458755:WBV458767 WBV524291:WBV524303 WBV589827:WBV589839 WBV655363:WBV655375 WBV720899:WBV720911 WBV786435:WBV786447 WBV851971:WBV851983 WBV917507:WBV917519 WBV983043:WBV983055 WLR65539:WLR65551 WLR131075:WLR131087 WLR196611:WLR196623 WLR262147:WLR262159 WLR327683:WLR327695 WLR393219:WLR393231 WLR458755:WLR458767 WLR524291:WLR524303 WLR589827:WLR589839 WLR655363:WLR655375 WLR720899:WLR720911 WLR786435:WLR786447 WLR851971:WLR851983 WLR917507:WLR917519 WLR983043:WLR983055 WVN983043:WVN983055 WVN65539:WVN65551 WVN131075:WVN131087 WVN196611:WVN196623 WVN262147:WVN262159 WVN327683:WVN327695 WVN393219:WVN393231 WVN458755:WVN458767 WVN524291:WVN524303 WVN589827:WVN589839 WVN655363:WVN655375 WVN720899:WVN720911 WVN786435:WVN786447 WVN851971:WVN851983 WVN917507:WVN917519 F4:F15 JB4:JB15 SX4:SX15 ACT4:ACT15 AMP4:AMP15 AWL4:AWL15 BGH4:BGH15 BQD4:BQD15 BZZ4:BZZ15 CJV4:CJV15 CTR4:CTR15 DDN4:DDN15 DNJ4:DNJ15 DXF4:DXF15 EHB4:EHB15 EQX4:EQX15 FAT4:FAT15 FKP4:FKP15 FUL4:FUL15 GEH4:GEH15 GOD4:GOD15 GXZ4:GXZ15 HHV4:HHV15 HRR4:HRR15 IBN4:IBN15 ILJ4:ILJ15 IVF4:IVF15 JFB4:JFB15 JOX4:JOX15 JYT4:JYT15 KIP4:KIP15 KSL4:KSL15 LCH4:LCH15 LMD4:LMD15 LVZ4:LVZ15 MFV4:MFV15 MPR4:MPR15 MZN4:MZN15 NJJ4:NJJ15 NTF4:NTF15 ODB4:ODB15 OMX4:OMX15 OWT4:OWT15 PGP4:PGP15 PQL4:PQL15 QAH4:QAH15 QKD4:QKD15 QTZ4:QTZ15 RDV4:RDV15 RNR4:RNR15 RXN4:RXN15 SHJ4:SHJ15 SRF4:SRF15 TBB4:TBB15 TKX4:TKX15 TUT4:TUT15 UEP4:UEP15 UOL4:UOL15 UYH4:UYH15 VID4:VID15 VRZ4:VRZ15 WBV4:WBV15 WLR4:WLR15 WVN4:WVN15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 WVN917507:WVN917519 WVN851971:WVN851983 WVN786435:WVN786447 WVN720899:WVN720911 WVN655363:WVN655375 WVN589827:WVN589839 WVN524291:WVN524303 WVN458755:WVN458767 WVN393219:WVN393231 WVN327683:WVN327695 WVN262147:WVN262159 WVN196611:WVN196623 WVN131075:WVN131087 WVN65539:WVN65551 WVN983043:WVN983055 WLR983043:WLR983055 WLR917507:WLR917519 WLR851971:WLR851983 WLR786435:WLR786447 WLR720899:WLR720911 WLR655363:WLR655375 WLR589827:WLR589839 WLR524291:WLR524303 WLR458755:WLR458767 WLR393219:WLR393231 WLR327683:WLR327695 WLR262147:WLR262159 WLR196611:WLR196623 WLR131075:WLR131087 WLR65539:WLR65551 WBV983043:WBV983055 WBV917507:WBV917519 WBV851971:WBV851983 WBV786435:WBV786447 WBV720899:WBV720911 WBV655363:WBV655375 WBV589827:WBV589839 WBV524291:WBV524303 WBV458755:WBV458767 WBV393219:WBV393231 WBV327683:WBV327695 WBV262147:WBV262159 WBV196611:WBV196623 WBV131075:WBV131087 WBV65539:WBV65551 VRZ983043:VRZ983055 VRZ917507:VRZ917519 VRZ851971:VRZ851983 VRZ786435:VRZ786447 VRZ720899:VRZ720911 VRZ655363:VRZ655375 VRZ589827:VRZ589839 VRZ524291:VRZ524303 VRZ458755:VRZ458767 VRZ393219:VRZ393231 VRZ327683:VRZ327695 VRZ262147:VRZ262159 VRZ196611:VRZ196623 VRZ131075:VRZ131087 VRZ65539:VRZ65551 VID983043:VID983055 VID917507:VID917519 VID851971:VID851983 VID786435:VID786447 VID720899:VID720911 VID655363:VID655375 VID589827:VID589839 VID524291:VID524303 VID458755:VID458767 VID393219:VID393231 VID327683:VID327695 VID262147:VID262159 VID196611:VID196623 VID131075:VID131087 VID65539:VID65551 UYH983043:UYH983055 UYH917507:UYH917519 UYH851971:UYH851983 UYH786435:UYH786447 UYH720899:UYH720911 UYH655363:UYH655375 UYH589827:UYH589839 UYH524291:UYH524303 UYH458755:UYH458767 UYH393219:UYH393231 UYH327683:UYH327695 UYH262147:UYH262159 UYH196611:UYH196623 UYH131075:UYH131087 UYH65539:UYH65551 UOL983043:UOL983055 UOL917507:UOL917519 UOL851971:UOL851983 UOL786435:UOL786447 UOL720899:UOL720911 UOL655363:UOL655375 UOL589827:UOL589839 UOL524291:UOL524303 UOL458755:UOL458767 UOL393219:UOL393231 UOL327683:UOL327695 UOL262147:UOL262159 UOL196611:UOL196623 UOL131075:UOL131087 UOL65539:UOL65551 UEP983043:UEP983055 UEP917507:UEP917519 UEP851971:UEP851983 UEP786435:UEP786447 UEP720899:UEP720911 UEP655363:UEP655375 UEP589827:UEP589839 UEP524291:UEP524303 UEP458755:UEP458767 UEP393219:UEP393231 UEP327683:UEP327695 UEP262147:UEP262159 UEP196611:UEP196623 UEP131075:UEP131087 UEP65539:UEP65551 TUT983043:TUT983055 TUT917507:TUT917519 TUT851971:TUT851983 TUT786435:TUT786447 TUT720899:TUT720911 TUT655363:TUT655375 TUT589827:TUT589839 TUT524291:TUT524303 TUT458755:TUT458767 TUT393219:TUT393231 TUT327683:TUT327695 TUT262147:TUT262159 TUT196611:TUT196623 TUT131075:TUT131087 TUT65539:TUT65551 TKX983043:TKX983055 TKX917507:TKX917519 TKX851971:TKX851983 TKX786435:TKX786447 TKX720899:TKX720911 TKX655363:TKX655375 TKX589827:TKX589839 TKX524291:TKX524303 TKX458755:TKX458767 TKX393219:TKX393231 TKX327683:TKX327695 TKX262147:TKX262159 TKX196611:TKX196623 TKX131075:TKX131087 TKX65539:TKX65551 TBB983043:TBB983055 TBB917507:TBB917519 TBB851971:TBB851983 TBB786435:TBB786447 TBB720899:TBB720911 TBB655363:TBB655375 TBB589827:TBB589839 TBB524291:TBB524303 TBB458755:TBB458767 TBB393219:TBB393231 TBB327683:TBB327695 TBB262147:TBB262159 TBB196611:TBB196623 TBB131075:TBB131087 TBB65539:TBB65551 SRF983043:SRF983055 SRF917507:SRF917519 SRF851971:SRF851983 SRF786435:SRF786447 SRF720899:SRF720911 SRF655363:SRF655375 SRF589827:SRF589839 SRF524291:SRF524303 SRF458755:SRF458767 SRF393219:SRF393231 SRF327683:SRF327695 SRF262147:SRF262159 SRF196611:SRF196623 SRF131075:SRF131087 SRF65539:SRF65551 SHJ983043:SHJ983055 SHJ917507:SHJ917519 SHJ851971:SHJ851983 SHJ786435:SHJ786447 SHJ720899:SHJ720911 SHJ655363:SHJ655375 SHJ589827:SHJ589839 SHJ524291:SHJ524303 SHJ458755:SHJ458767 SHJ393219:SHJ393231 SHJ327683:SHJ327695 SHJ262147:SHJ262159 SHJ196611:SHJ196623 SHJ131075:SHJ131087 SHJ65539:SHJ65551 RXN983043:RXN983055 RXN917507:RXN917519 RXN851971:RXN851983 RXN786435:RXN786447 RXN720899:RXN720911 RXN655363:RXN655375 RXN589827:RXN589839 RXN524291:RXN524303 RXN458755:RXN458767 RXN393219:RXN393231 RXN327683:RXN327695 RXN262147:RXN262159 RXN196611:RXN196623 RXN131075:RXN131087 RXN65539:RXN65551 RNR983043:RNR983055 RNR917507:RNR917519 RNR851971:RNR851983 RNR786435:RNR786447 RNR720899:RNR720911 RNR655363:RNR655375 RNR589827:RNR589839 RNR524291:RNR524303 RNR458755:RNR458767 RNR393219:RNR393231 RNR327683:RNR327695 RNR262147:RNR262159 RNR196611:RNR196623 RNR131075:RNR131087 RNR65539:RNR65551 RDV983043:RDV983055 RDV917507:RDV917519 RDV851971:RDV851983 RDV786435:RDV786447 RDV720899:RDV720911 RDV655363:RDV655375 RDV589827:RDV589839 RDV524291:RDV524303 RDV458755:RDV458767 RDV393219:RDV393231 RDV327683:RDV327695 RDV262147:RDV262159 RDV196611:RDV196623 RDV131075:RDV131087 RDV65539:RDV65551 QTZ983043:QTZ983055 QTZ917507:QTZ917519 QTZ851971:QTZ851983 QTZ786435:QTZ786447 QTZ720899:QTZ720911 QTZ655363:QTZ655375 QTZ589827:QTZ589839 QTZ524291:QTZ524303 QTZ458755:QTZ458767 QTZ393219:QTZ393231 QTZ327683:QTZ327695 QTZ262147:QTZ262159 QTZ196611:QTZ196623 QTZ131075:QTZ131087 QTZ65539:QTZ65551 QKD983043:QKD983055 QKD917507:QKD917519 QKD851971:QKD851983 QKD786435:QKD786447 QKD720899:QKD720911 QKD655363:QKD655375 QKD589827:QKD589839 QKD524291:QKD524303 QKD458755:QKD458767 QKD393219:QKD393231 QKD327683:QKD327695 QKD262147:QKD262159 QKD196611:QKD196623 QKD131075:QKD131087 QKD65539:QKD65551 QAH983043:QAH983055 QAH917507:QAH917519 QAH851971:QAH851983 QAH786435:QAH786447 QAH720899:QAH720911 QAH655363:QAH655375 QAH589827:QAH589839 QAH524291:QAH524303 QAH458755:QAH458767 QAH393219:QAH393231 QAH327683:QAH327695 QAH262147:QAH262159 QAH196611:QAH196623 QAH131075:QAH131087 QAH65539:QAH65551 PQL983043:PQL983055 PQL917507:PQL917519 PQL851971:PQL851983 PQL786435:PQL786447 PQL720899:PQL720911 PQL655363:PQL655375 PQL589827:PQL589839 PQL524291:PQL524303 PQL458755:PQL458767 PQL393219:PQL393231 PQL327683:PQL327695 PQL262147:PQL262159 PQL196611:PQL196623 PQL131075:PQL131087 PQL65539:PQL65551 PGP983043:PGP983055 PGP917507:PGP917519 PGP851971:PGP851983 PGP786435:PGP786447 PGP720899:PGP720911 PGP655363:PGP655375 PGP589827:PGP589839 PGP524291:PGP524303 PGP458755:PGP458767 PGP393219:PGP393231 PGP327683:PGP327695 PGP262147:PGP262159 PGP196611:PGP196623 PGP131075:PGP131087 PGP65539:PGP65551 OWT983043:OWT983055 OWT917507:OWT917519 OWT851971:OWT851983 OWT786435:OWT786447 OWT720899:OWT720911 OWT655363:OWT655375 OWT589827:OWT589839 OWT524291:OWT524303 OWT458755:OWT458767 OWT393219:OWT393231 OWT327683:OWT327695 OWT262147:OWT262159 OWT196611:OWT196623 OWT131075:OWT131087 OWT65539:OWT65551 OMX983043:OMX983055 OMX917507:OMX917519 OMX851971:OMX851983 OMX786435:OMX786447 OMX720899:OMX720911 OMX655363:OMX655375 OMX589827:OMX589839 OMX524291:OMX524303 OMX458755:OMX458767 OMX393219:OMX393231 OMX327683:OMX327695 OMX262147:OMX262159 OMX196611:OMX196623 OMX131075:OMX131087 OMX65539:OMX65551 ODB983043:ODB983055 ODB917507:ODB917519 ODB851971:ODB851983 ODB786435:ODB786447 ODB720899:ODB720911 ODB655363:ODB655375 ODB589827:ODB589839 ODB524291:ODB524303 ODB458755:ODB458767 ODB393219:ODB393231 ODB327683:ODB327695 ODB262147:ODB262159 ODB196611:ODB196623 ODB131075:ODB131087 ODB65539:ODB65551 NTF983043:NTF983055 NTF917507:NTF917519 NTF851971:NTF851983 NTF786435:NTF786447 NTF720899:NTF720911 NTF655363:NTF655375 NTF589827:NTF589839 NTF524291:NTF524303 NTF458755:NTF458767 NTF393219:NTF393231 NTF327683:NTF327695 NTF262147:NTF262159 NTF196611:NTF196623 NTF131075:NTF131087 NTF65539:NTF65551 NJJ983043:NJJ983055 NJJ917507:NJJ917519 NJJ851971:NJJ851983 NJJ786435:NJJ786447 NJJ720899:NJJ720911 NJJ655363:NJJ655375 NJJ589827:NJJ589839 NJJ524291:NJJ524303 NJJ458755:NJJ458767 NJJ393219:NJJ393231 NJJ327683:NJJ327695 NJJ262147:NJJ262159 NJJ196611:NJJ196623 NJJ131075:NJJ131087 NJJ65539:NJJ65551 MZN983043:MZN983055 MZN917507:MZN917519 MZN851971:MZN851983 MZN786435:MZN786447 MZN720899:MZN720911 MZN655363:MZN655375 MZN589827:MZN589839 MZN524291:MZN524303 MZN458755:MZN458767 MZN393219:MZN393231 MZN327683:MZN327695 MZN262147:MZN262159 MZN196611:MZN196623 MZN131075:MZN131087 MZN65539:MZN65551 MPR983043:MPR983055 MPR917507:MPR917519 MPR851971:MPR851983 MPR786435:MPR786447 MPR720899:MPR720911 MPR655363:MPR655375 MPR589827:MPR589839 MPR524291:MPR524303 MPR458755:MPR458767 MPR393219:MPR393231 MPR327683:MPR327695 MPR262147:MPR262159 MPR196611:MPR196623 MPR131075:MPR131087 MPR65539:MPR65551 MFV983043:MFV983055 MFV917507:MFV917519 MFV851971:MFV851983 MFV786435:MFV786447 MFV720899:MFV720911 MFV655363:MFV655375 MFV589827:MFV589839 MFV524291:MFV524303 MFV458755:MFV458767 MFV393219:MFV393231 MFV327683:MFV327695 MFV262147:MFV262159 MFV196611:MFV196623 MFV131075:MFV131087 MFV65539:MFV65551 LVZ983043:LVZ983055 LVZ917507:LVZ917519 LVZ851971:LVZ851983 LVZ786435:LVZ786447 LVZ720899:LVZ720911 LVZ655363:LVZ655375 LVZ589827:LVZ589839 LVZ524291:LVZ524303 LVZ458755:LVZ458767 LVZ393219:LVZ393231 LVZ327683:LVZ327695 LVZ262147:LVZ262159 LVZ196611:LVZ196623 LVZ131075:LVZ131087 LVZ65539:LVZ65551 LMD983043:LMD983055 LMD917507:LMD917519 LMD851971:LMD851983 LMD786435:LMD786447 LMD720899:LMD720911 LMD655363:LMD655375 LMD589827:LMD589839 LMD524291:LMD524303 LMD458755:LMD458767 LMD393219:LMD393231 LMD327683:LMD327695 LMD262147:LMD262159 LMD196611:LMD196623 LMD131075:LMD131087 LMD65539:LMD65551 LCH983043:LCH983055 LCH917507:LCH917519 LCH851971:LCH851983 LCH786435:LCH786447 LCH720899:LCH720911 LCH655363:LCH655375 LCH589827:LCH589839 LCH524291:LCH524303 LCH458755:LCH458767 LCH393219:LCH393231 LCH327683:LCH327695 LCH262147:LCH262159 LCH196611:LCH196623 LCH131075:LCH131087 LCH65539:LCH65551 KSL983043:KSL983055 KSL917507:KSL917519 KSL851971:KSL851983 KSL786435:KSL786447 KSL720899:KSL720911 KSL655363:KSL655375 KSL589827:KSL589839 KSL524291:KSL524303 KSL458755:KSL458767 KSL393219:KSL393231 KSL327683:KSL327695 KSL262147:KSL262159 KSL196611:KSL196623 KSL131075:KSL131087 KSL65539:KSL65551 KIP983043:KIP983055 KIP917507:KIP917519 KIP851971:KIP851983 KIP786435:KIP786447 KIP720899:KIP720911 KIP655363:KIP655375 KIP589827:KIP589839 KIP524291:KIP524303 KIP458755:KIP458767 KIP393219:KIP393231 KIP327683:KIP327695 KIP262147:KIP262159 KIP196611:KIP196623 KIP131075:KIP131087 KIP65539:KIP65551 JYT983043:JYT983055 JYT917507:JYT917519 JYT851971:JYT851983 JYT786435:JYT786447 JYT720899:JYT720911 JYT655363:JYT655375 JYT589827:JYT589839 JYT524291:JYT524303 JYT458755:JYT458767 JYT393219:JYT393231 JYT327683:JYT327695 JYT262147:JYT262159 JYT196611:JYT196623 JYT131075:JYT131087 JYT65539:JYT65551 JOX983043:JOX983055 JOX917507:JOX917519 JOX851971:JOX851983 JOX786435:JOX786447 JOX720899:JOX720911 JOX655363:JOX655375 JOX589827:JOX589839 JOX524291:JOX524303 JOX458755:JOX458767 JOX393219:JOX393231 JOX327683:JOX327695 JOX262147:JOX262159 JOX196611:JOX196623 JOX131075:JOX131087 JOX65539:JOX65551 JFB983043:JFB983055 JFB917507:JFB917519 JFB851971:JFB851983 JFB786435:JFB786447 JFB720899:JFB720911 JFB655363:JFB655375 JFB589827:JFB589839 JFB524291:JFB524303 JFB458755:JFB458767 JFB393219:JFB393231 JFB327683:JFB327695 JFB262147:JFB262159 JFB196611:JFB196623 JFB131075:JFB131087 JFB65539:JFB65551 IVF983043:IVF983055 IVF917507:IVF917519 IVF851971:IVF851983 IVF786435:IVF786447 IVF720899:IVF720911 IVF655363:IVF655375 IVF589827:IVF589839 IVF524291:IVF524303 IVF458755:IVF458767 IVF393219:IVF393231 IVF327683:IVF327695 IVF262147:IVF262159 IVF196611:IVF196623 IVF131075:IVF131087 IVF65539:IVF65551 ILJ983043:ILJ983055 ILJ917507:ILJ917519 ILJ851971:ILJ851983 ILJ786435:ILJ786447 ILJ720899:ILJ720911 ILJ655363:ILJ655375 ILJ589827:ILJ589839 ILJ524291:ILJ524303 ILJ458755:ILJ458767 ILJ393219:ILJ393231 ILJ327683:ILJ327695 ILJ262147:ILJ262159 ILJ196611:ILJ196623 ILJ131075:ILJ131087 ILJ65539:ILJ65551 IBN983043:IBN983055 IBN917507:IBN917519 IBN851971:IBN851983 IBN786435:IBN786447 IBN720899:IBN720911 IBN655363:IBN655375 IBN589827:IBN589839 IBN524291:IBN524303 IBN458755:IBN458767 IBN393219:IBN393231 IBN327683:IBN327695 IBN262147:IBN262159 IBN196611:IBN196623 IBN131075:IBN131087 IBN65539:IBN65551 HRR983043:HRR983055 HRR917507:HRR917519 HRR851971:HRR851983 HRR786435:HRR786447 HRR720899:HRR720911 HRR655363:HRR655375 HRR589827:HRR589839 HRR524291:HRR524303 HRR458755:HRR458767 HRR393219:HRR393231 HRR327683:HRR327695 HRR262147:HRR262159 HRR196611:HRR196623 HRR131075:HRR131087 HRR65539:HRR65551 HHV983043:HHV983055 HHV917507:HHV917519 HHV851971:HHV851983 HHV786435:HHV786447 HHV720899:HHV720911 HHV655363:HHV655375 HHV589827:HHV589839 HHV524291:HHV524303 HHV458755:HHV458767 HHV393219:HHV393231 HHV327683:HHV327695 HHV262147:HHV262159 HHV196611:HHV196623 HHV131075:HHV131087 HHV65539:HHV65551 GXZ983043:GXZ983055 GXZ917507:GXZ917519 GXZ851971:GXZ851983 GXZ786435:GXZ786447 GXZ720899:GXZ720911 GXZ655363:GXZ655375 GXZ589827:GXZ589839 GXZ524291:GXZ524303 GXZ458755:GXZ458767 GXZ393219:GXZ393231 GXZ327683:GXZ327695 GXZ262147:GXZ262159 GXZ196611:GXZ196623 GXZ131075:GXZ131087 GXZ65539:GXZ65551 GOD983043:GOD983055 GOD917507:GOD917519 GOD851971:GOD851983 GOD786435:GOD786447 GOD720899:GOD720911 GOD655363:GOD655375 GOD589827:GOD589839 GOD524291:GOD524303 GOD458755:GOD458767 GOD393219:GOD393231 GOD327683:GOD327695 GOD262147:GOD262159 GOD196611:GOD196623 GOD131075:GOD131087 GOD65539:GOD65551 GEH983043:GEH983055 GEH917507:GEH917519 GEH851971:GEH851983 GEH786435:GEH786447 GEH720899:GEH720911 GEH655363:GEH655375 GEH589827:GEH589839 GEH524291:GEH524303 GEH458755:GEH458767 GEH393219:GEH393231 GEH327683:GEH327695 GEH262147:GEH262159 GEH196611:GEH196623 GEH131075:GEH131087 GEH65539:GEH65551 FUL983043:FUL983055 FUL917507:FUL917519 FUL851971:FUL851983 FUL786435:FUL786447 FUL720899:FUL720911 FUL655363:FUL655375 FUL589827:FUL589839 FUL524291:FUL524303 FUL458755:FUL458767 FUL393219:FUL393231 FUL327683:FUL327695 FUL262147:FUL262159 FUL196611:FUL196623 FUL131075:FUL131087 FUL65539:FUL65551 FKP983043:FKP983055 FKP917507:FKP917519 FKP851971:FKP851983 FKP786435:FKP786447 FKP720899:FKP720911 FKP655363:FKP655375 FKP589827:FKP589839 FKP524291:FKP524303 FKP458755:FKP458767 FKP393219:FKP393231 FKP327683:FKP327695 FKP262147:FKP262159 FKP196611:FKP196623 FKP131075:FKP131087 FKP65539:FKP65551 FAT983043:FAT983055 FAT917507:FAT917519 FAT851971:FAT851983 FAT786435:FAT786447 FAT720899:FAT720911 FAT655363:FAT655375 FAT589827:FAT589839 FAT524291:FAT524303 FAT458755:FAT458767 FAT393219:FAT393231 FAT327683:FAT327695 FAT262147:FAT262159 FAT196611:FAT196623 FAT131075:FAT131087 FAT65539:FAT65551 EQX983043:EQX983055 EQX917507:EQX917519 EQX851971:EQX851983 EQX786435:EQX786447 EQX720899:EQX720911 EQX655363:EQX655375 EQX589827:EQX589839 EQX524291:EQX524303 EQX458755:EQX458767 EQX393219:EQX393231 EQX327683:EQX327695 EQX262147:EQX262159 EQX196611:EQX196623 EQX131075:EQX131087 EQX65539:EQX65551 EHB983043:EHB983055 EHB917507:EHB917519 EHB851971:EHB851983 EHB786435:EHB786447 EHB720899:EHB720911 EHB655363:EHB655375 EHB589827:EHB589839 EHB524291:EHB524303 EHB458755:EHB458767 EHB393219:EHB393231 EHB327683:EHB327695 EHB262147:EHB262159 EHB196611:EHB196623 EHB131075:EHB131087 EHB65539:EHB65551 DXF983043:DXF983055 DXF917507:DXF917519 DXF851971:DXF851983 DXF786435:DXF786447 DXF720899:DXF720911 DXF655363:DXF655375 DXF589827:DXF589839 DXF524291:DXF524303 DXF458755:DXF458767 DXF393219:DXF393231 DXF327683:DXF327695 DXF262147:DXF262159 DXF196611:DXF196623 DXF131075:DXF131087 DXF65539:DXF65551 DNJ983043:DNJ983055 DNJ917507:DNJ917519 DNJ851971:DNJ851983 DNJ786435:DNJ786447 DNJ720899:DNJ720911 DNJ655363:DNJ655375 DNJ589827:DNJ589839 DNJ524291:DNJ524303 DNJ458755:DNJ458767 DNJ393219:DNJ393231 DNJ327683:DNJ327695 DNJ262147:DNJ262159 DNJ196611:DNJ196623 DNJ131075:DNJ131087 DNJ65539:DNJ65551 DDN983043:DDN983055 DDN917507:DDN917519 DDN851971:DDN851983 DDN786435:DDN786447 DDN720899:DDN720911 DDN655363:DDN655375 DDN589827:DDN589839 DDN524291:DDN524303 DDN458755:DDN458767 DDN393219:DDN393231 DDN327683:DDN327695 DDN262147:DDN262159 DDN196611:DDN196623 DDN131075:DDN131087 DDN65539:DDN65551 CTR983043:CTR983055 CTR917507:CTR917519 CTR851971:CTR851983 CTR786435:CTR786447 CTR720899:CTR720911 CTR655363:CTR655375 CTR589827:CTR589839 CTR524291:CTR524303 CTR458755:CTR458767 CTR393219:CTR393231 CTR327683:CTR327695 CTR262147:CTR262159 CTR196611:CTR196623 CTR131075:CTR131087 CTR65539:CTR65551 CJV983043:CJV983055 CJV917507:CJV917519 CJV851971:CJV851983 CJV786435:CJV786447 CJV720899:CJV720911 CJV655363:CJV655375 CJV589827:CJV589839 CJV524291:CJV524303 CJV458755:CJV458767 CJV393219:CJV393231 CJV327683:CJV327695 CJV262147:CJV262159 CJV196611:CJV196623 CJV131075:CJV131087 CJV65539:CJV65551 BZZ983043:BZZ983055 BZZ917507:BZZ917519 BZZ851971:BZZ851983 BZZ786435:BZZ786447 BZZ720899:BZZ720911 BZZ655363:BZZ655375 BZZ589827:BZZ589839 BZZ524291:BZZ524303 BZZ458755:BZZ458767 BZZ393219:BZZ393231 BZZ327683:BZZ327695 BZZ262147:BZZ262159 BZZ196611:BZZ196623 BZZ131075:BZZ131087 BZZ65539:BZZ65551 BQD983043:BQD983055 BQD917507:BQD917519 BQD851971:BQD851983 BQD786435:BQD786447 BQD720899:BQD720911 BQD655363:BQD655375 BQD589827:BQD589839 BQD524291:BQD524303 BQD458755:BQD458767 BQD393219:BQD393231 BQD327683:BQD327695 BQD262147:BQD262159 BQD196611:BQD196623 BQD131075:BQD131087 BQD65539:BQD65551 BGH983043:BGH983055 BGH917507:BGH917519 BGH851971:BGH851983 BGH786435:BGH786447 BGH720899:BGH720911 BGH655363:BGH655375 BGH589827:BGH589839 BGH524291:BGH524303 BGH458755:BGH458767 BGH393219:BGH393231 BGH327683:BGH327695 BGH262147:BGH262159 BGH196611:BGH196623 BGH131075:BGH131087 BGH65539:BGH65551 AWL983043:AWL983055 AWL917507:AWL917519 AWL851971:AWL851983 AWL786435:AWL786447 AWL720899:AWL720911 AWL655363:AWL655375 AWL589827:AWL589839 AWL524291:AWL524303 AWL458755:AWL458767 AWL393219:AWL393231 AWL327683:AWL327695 AWL262147:AWL262159 AWL196611:AWL196623 AWL131075:AWL131087 AWL65539:AWL65551 AMP983043:AMP983055 AMP917507:AMP917519 AMP851971:AMP851983 AMP786435:AMP786447 AMP720899:AMP720911 AMP655363:AMP655375 AMP589827:AMP589839 AMP524291:AMP524303 AMP458755:AMP458767 AMP393219:AMP393231 AMP327683:AMP327695 AMP262147:AMP262159 AMP196611:AMP196623 AMP131075:AMP131087 AMP65539:AMP65551 ACT983043:ACT983055 ACT917507:ACT917519 ACT851971:ACT851983 ACT786435:ACT786447 ACT720899:ACT720911 ACT655363:ACT655375 ACT589827:ACT589839 ACT524291:ACT524303 ACT458755:ACT458767 ACT393219:ACT393231 ACT327683:ACT327695 ACT262147:ACT262159 ACT196611:ACT196623 ACT131075:ACT131087 ACT65539:ACT65551 SX983043:SX983055 SX917507:SX917519 SX851971:SX851983 SX786435:SX786447 SX720899:SX720911 SX655363:SX655375 SX589827:SX589839 SX524291:SX524303 SX458755:SX458767 SX393219:SX393231 SX327683:SX327695 SX262147:SX262159 SX196611:SX196623 SX131075:SX131087 SX65539:SX65551 JB983043:JB983055 JB917507:JB917519 JB851971:JB851983 JB786435:JB786447 JB720899:JB720911 JB655363:JB655375 JB589827:JB589839 JB524291:JB524303 JB458755:JB458767 JB393219:JB393231 JB327683:JB327695 JB262147:JB262159 JB196611:JB196623 JB131075:JB131087 JB65539:JB65551 F983043:F983055 F917507:F917519 F851971:F851983 F786435:F786447 F720899:F720911 F655363:F655375 F589827:F589839 F524291:F524303 F458755:F458767 F393219:F393231 F327683:F327695 F262147:F262159 F196611:F196623 F131075:F131087 JB4:JB15 SX4:SX15 ACT4:ACT15 AMP4:AMP15 AWL4:AWL15 BGH4:BGH15 BQD4:BQD15 BZZ4:BZZ15 CJV4:CJV15 CTR4:CTR15 DDN4:DDN15 DNJ4:DNJ15 DXF4:DXF15 EHB4:EHB15 EQX4:EQX15 FAT4:FAT15 FKP4:FKP15 FUL4:FUL15 GEH4:GEH15 GOD4:GOD15 GXZ4:GXZ15 HHV4:HHV15 HRR4:HRR15 IBN4:IBN15 ILJ4:ILJ15 IVF4:IVF15 JFB4:JFB15 JOX4:JOX15 JYT4:JYT15 KIP4:KIP15 KSL4:KSL15 LCH4:LCH15 LMD4:LMD15 LVZ4:LVZ15 MFV4:MFV15 MPR4:MPR15 MZN4:MZN15 NJJ4:NJJ15 NTF4:NTF15 ODB4:ODB15 OMX4:OMX15 OWT4:OWT15 PGP4:PGP15 PQL4:PQL15 QAH4:QAH15 QKD4:QKD15 QTZ4:QTZ15 RDV4:RDV15 RNR4:RNR15 RXN4:RXN15 SHJ4:SHJ15 SRF4:SRF15 TBB4:TBB15 TKX4:TKX15 TUT4:TUT15 UEP4:UEP15 UOL4:UOL15 UYH4:UYH15 VID4:VID15 VRZ4:VRZ15 WBV4:WBV15 WLR4:WLR15 F4:F15 WVN4:WVN15">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 WVQ4">
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 I7:I9">
       <formula1>"开发环境,测试环境,生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7172,14 +7561,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -7190,7 +7579,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -7216,7 +7605,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="8" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7226,7 +7615,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7236,7 +7625,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7246,7 +7635,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7256,7 +7645,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7266,7 +7655,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7276,7 +7665,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7286,7 +7675,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7296,7 +7685,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7306,7 +7695,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7316,7 +7705,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7326,7 +7715,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7336,7 +7725,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -7346,7 +7735,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7356,7 +7745,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -7366,7 +7755,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -7376,7 +7765,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -7386,7 +7775,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7408,407 +7797,407 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.25" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="34" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="34" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="34" customWidth="1"/>
-    <col min="5" max="5" width="38" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="34" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="34" customWidth="1"/>
-    <col min="9" max="9" width="53.625" style="43" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="34"/>
+    <col min="1" max="1" width="10.25" style="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="32" customWidth="1"/>
+    <col min="3" max="3" width="21.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.25" style="32" customWidth="1"/>
+    <col min="5" max="5" width="38" style="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="32" customWidth="1"/>
+    <col min="9" max="9" width="53.625" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:9" ht="20.25">
+      <c r="A1" s="69" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="35" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25">
+      <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E2" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="F2" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="G2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="62">
+    <row r="3" spans="1:9" ht="17.25">
+      <c r="A3" s="76">
         <v>1</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="42" t="s">
+      <c r="E3" s="43"/>
+      <c r="F3" s="40" t="s">
         <v>91</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="46"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
-      <c r="B4" s="45" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:9" ht="17.25">
+      <c r="A4" s="77"/>
+      <c r="B4" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="45"/>
-      <c r="F4" s="42" t="s">
+      <c r="E4" s="43"/>
+      <c r="F4" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="46"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="64"/>
-      <c r="B5" s="45" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" ht="17.25">
+      <c r="A5" s="78"/>
+      <c r="B5" s="43" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="42" t="s">
+      <c r="D5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="42" t="s">
+      <c r="E5" s="43"/>
+      <c r="F5" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="57">
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="44"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5">
+      <c r="A6" s="71">
         <v>2</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="F6" s="39" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="37"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="58"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="37" t="s">
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="35"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5">
+      <c r="A7" s="72"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39" t="s">
+      <c r="E7" s="36"/>
+      <c r="F7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="58"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5">
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="38" t="s">
+      <c r="E8" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="58"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="37" t="s">
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="35"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5">
+      <c r="A9" s="72"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F9" s="39" t="s">
+      <c r="F9" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="37"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="37" t="s">
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5">
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="38" t="s">
+      <c r="E10" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F10" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="58"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="37" t="s">
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="35"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5">
+      <c r="A11" s="72"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="38" t="s">
+      <c r="E11" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="37" t="s">
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="35"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5">
+      <c r="A12" s="72"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="37"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="39" t="s">
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="35"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5">
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="47"/>
-      <c r="B14" s="47"/>
-      <c r="C14" s="39" t="s">
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="35"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5">
+      <c r="A14" s="45"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="36"/>
+      <c r="F14" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="37"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="60">
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5">
+      <c r="A15" s="74">
         <v>3</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="40" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="D15" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="41" t="s">
+      <c r="E15" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="F15" s="42" t="s">
+      <c r="F15" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="41"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="52" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5">
+      <c r="A16" s="74"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="66" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="40" t="s">
+      <c r="D16" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42" t="s">
+      <c r="E16" s="39"/>
+      <c r="F16" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="41"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="60"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="41" t="s">
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
+    </row>
+    <row r="17" spans="1:9" ht="16.5">
+      <c r="A17" s="74"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42" t="s">
+      <c r="E17" s="39"/>
+      <c r="F17" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="41"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="60"/>
-      <c r="B18" s="61"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="41" t="s">
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
+    </row>
+    <row r="18" spans="1:9" ht="16.5">
+      <c r="A18" s="74"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42" t="s">
+      <c r="E18" s="39"/>
+      <c r="F18" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="41"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="60"/>
-      <c r="B19" s="61"/>
-      <c r="C19" s="44" t="s">
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
+    </row>
+    <row r="19" spans="1:9" ht="16.5">
+      <c r="A19" s="74"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="39" t="s">
+      <c r="F19" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="37"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="60"/>
-      <c r="B20" s="61"/>
-      <c r="C20" s="42" t="s">
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" ht="16.5">
+      <c r="A20" s="74"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="42" t="s">
+      <c r="E20" s="38"/>
+      <c r="F20" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="41"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="60"/>
-      <c r="B21" s="61"/>
-      <c r="C21" s="42" t="s">
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
+    </row>
+    <row r="21" spans="1:9" ht="16.5">
+      <c r="A21" s="74"/>
+      <c r="B21" s="75"/>
+      <c r="C21" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="40" t="s">
+      <c r="D21" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="42" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="40" t="s">
         <v>85</v>
       </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="41"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
   </bookViews>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
   <si>
     <t>No</t>
   </si>
@@ -794,12 +799,75 @@
   <si>
     <t>开发环境</t>
   </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>极光组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>VJYC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#聚有财证书文件路径
+sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于JYC</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌斌</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>崔斌斌</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增聚有财合同模板  MogoBaoProtocolTemplet_JYC.vm ，放到现有合同模板目录下；
+新增聚有财合同模板图片  mogubao_jyc.jpeg ，放到现有合同模板图片目录下 "download/sample/"</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>茅寰寰</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄展明</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#房东App正式环境配置增加
+正式环境配置
+sysconfig.LAKALA_MERNO=SL2015070100001
+sysconfig.LAKALA_URL=https://xd.lakala.com.cn:9001//CreditLoanGateWay/apply.do
+sysconfig.LAKALA_URL_UPLOAD=http://xd.lakala.com.cn:9002//CreditLoanGateWay/imgupload.do
+sysconfig.LAKALA_KEY=5502453538673A2399F9ADE1BA849558</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1356,6 +1424,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1406,15 +1483,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1429,74 +1497,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1516,7 +1516,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1836,14 +1836,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="60" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="61" customWidth="1"/>
@@ -1867,7 +1867,7 @@
     <col min="21" max="16384" width="9" style="58"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="47" customFormat="1" ht="27">
+    <row r="1" spans="1:20" s="47" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1926,7 +1926,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1">
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -1970,7 +1970,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -2056,7 +2056,7 @@
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -2098,7 +2098,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="7" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -2182,7 +2182,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -2266,7 +2266,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -2350,7 +2350,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -2394,7 +2394,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
         <v>12</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30">
         <v>13</v>
       </c>
@@ -2482,7 +2482,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>14</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -2570,7 +2570,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -2614,7 +2614,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1">
+    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30">
         <v>17</v>
       </c>
@@ -2666,7 +2666,7 @@
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="50" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="1:20" s="50" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -2718,7 +2718,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="49"/>
     </row>
-    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="15"/>
@@ -2740,7 +2740,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="15"/>
@@ -2762,7 +2762,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="15"/>
@@ -2784,7 +2784,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="15"/>
@@ -2806,7 +2806,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="15"/>
@@ -2828,7 +2828,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="15"/>
@@ -2850,7 +2850,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="15"/>
@@ -2872,7 +2872,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="15"/>
@@ -2894,7 +2894,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="15"/>
@@ -2916,7 +2916,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="15"/>
@@ -2938,7 +2938,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="15"/>
@@ -2960,7 +2960,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="15"/>
@@ -2982,7 +2982,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="15"/>
@@ -3004,7 +3004,7 @@
       <c r="S32" s="19"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="15"/>
@@ -3026,7 +3026,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="31"/>
       <c r="C34" s="15"/>
@@ -3048,7 +3048,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="15"/>
@@ -3070,7 +3070,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="51"/>
       <c r="B36" s="52"/>
       <c r="C36" s="51"/>
@@ -3092,7 +3092,7 @@
       <c r="S36" s="52"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="51"/>
       <c r="B37" s="52"/>
       <c r="C37" s="51"/>
@@ -3114,7 +3114,7 @@
       <c r="S37" s="52"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
       <c r="B38" s="55"/>
       <c r="C38" s="23"/>
@@ -3135,7 +3135,7 @@
       <c r="R38" s="23"/>
       <c r="S38" s="55"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
       <c r="B39" s="55"/>
       <c r="C39" s="23"/>
@@ -3156,7 +3156,7 @@
       <c r="R39" s="23"/>
       <c r="S39" s="55"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
       <c r="B40" s="55"/>
       <c r="C40" s="23"/>
@@ -3177,7 +3177,7 @@
       <c r="R40" s="23"/>
       <c r="S40" s="55"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
       <c r="B41" s="55"/>
       <c r="C41" s="23"/>
@@ -3198,7 +3198,7 @@
       <c r="R41" s="23"/>
       <c r="S41" s="55"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
       <c r="B42" s="55"/>
       <c r="C42" s="23"/>
@@ -3219,7 +3219,7 @@
       <c r="R42" s="23"/>
       <c r="S42" s="55"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
       <c r="B43" s="55"/>
       <c r="C43" s="23"/>
@@ -3240,7 +3240,7 @@
       <c r="R43" s="23"/>
       <c r="S43" s="55"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
       <c r="B44" s="55"/>
       <c r="C44" s="23"/>
@@ -3261,7 +3261,7 @@
       <c r="R44" s="23"/>
       <c r="S44" s="55"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
       <c r="B45" s="55"/>
       <c r="C45" s="23"/>
@@ -3282,7 +3282,7 @@
       <c r="R45" s="23"/>
       <c r="S45" s="55"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
       <c r="B46" s="55"/>
       <c r="C46" s="23"/>
@@ -3303,7 +3303,7 @@
       <c r="R46" s="23"/>
       <c r="S46" s="55"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
       <c r="B47" s="55"/>
       <c r="C47" s="23"/>
@@ -3324,7 +3324,7 @@
       <c r="R47" s="23"/>
       <c r="S47" s="55"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
       <c r="B48" s="55"/>
       <c r="C48" s="23"/>
@@ -3345,7 +3345,7 @@
       <c r="R48" s="23"/>
       <c r="S48" s="55"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
       <c r="B49" s="55"/>
       <c r="C49" s="23"/>
@@ -3366,7 +3366,7 @@
       <c r="R49" s="23"/>
       <c r="S49" s="55"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
       <c r="B50" s="55"/>
       <c r="C50" s="23"/>
@@ -3387,7 +3387,7 @@
       <c r="R50" s="23"/>
       <c r="S50" s="55"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
       <c r="B51" s="55"/>
       <c r="C51" s="23"/>
@@ -3408,7 +3408,7 @@
       <c r="R51" s="23"/>
       <c r="S51" s="55"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
       <c r="B52" s="55"/>
       <c r="C52" s="23"/>
@@ -3429,7 +3429,7 @@
       <c r="R52" s="23"/>
       <c r="S52" s="55"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
       <c r="B53" s="55"/>
       <c r="C53" s="23"/>
@@ -3450,7 +3450,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="55"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
       <c r="B54" s="55"/>
       <c r="C54" s="23"/>
@@ -3471,7 +3471,7 @@
       <c r="R54" s="23"/>
       <c r="S54" s="55"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
       <c r="B55" s="55"/>
       <c r="C55" s="23"/>
@@ -3492,7 +3492,7 @@
       <c r="R55" s="23"/>
       <c r="S55" s="55"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
       <c r="B56" s="55"/>
       <c r="C56" s="23"/>
@@ -3513,7 +3513,7 @@
       <c r="R56" s="23"/>
       <c r="S56" s="55"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
       <c r="B57" s="55"/>
       <c r="C57" s="23"/>
@@ -3534,7 +3534,7 @@
       <c r="R57" s="23"/>
       <c r="S57" s="55"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
       <c r="B58" s="55"/>
       <c r="C58" s="23"/>
@@ -3555,7 +3555,7 @@
       <c r="R58" s="23"/>
       <c r="S58" s="55"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
       <c r="B59" s="55"/>
       <c r="C59" s="23"/>
@@ -3576,7 +3576,7 @@
       <c r="R59" s="23"/>
       <c r="S59" s="55"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
       <c r="B60" s="55"/>
       <c r="C60" s="23"/>
@@ -3597,7 +3597,7 @@
       <c r="R60" s="23"/>
       <c r="S60" s="55"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
       <c r="B61" s="55"/>
       <c r="C61" s="23"/>
@@ -3618,7 +3618,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="55"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
       <c r="B62" s="55"/>
       <c r="C62" s="23"/>
@@ -3639,7 +3639,7 @@
       <c r="R62" s="23"/>
       <c r="S62" s="55"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
       <c r="B63" s="55"/>
       <c r="C63" s="23"/>
@@ -3660,7 +3660,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="55"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
       <c r="B64" s="55"/>
       <c r="C64" s="23"/>
@@ -3681,7 +3681,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="55"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
       <c r="B65" s="55"/>
       <c r="C65" s="23"/>
@@ -3702,7 +3702,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="55"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
       <c r="B66" s="55"/>
       <c r="C66" s="23"/>
@@ -3723,7 +3723,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="55"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
       <c r="B67" s="55"/>
       <c r="C67" s="23"/>
@@ -3744,7 +3744,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="55"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
       <c r="B68" s="55"/>
       <c r="C68" s="23"/>
@@ -3765,7 +3765,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="55"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
       <c r="B69" s="55"/>
       <c r="C69" s="23"/>
@@ -3786,7 +3786,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="55"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="55"/>
       <c r="C70" s="23"/>
@@ -3807,7 +3807,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="55"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="55"/>
       <c r="C71" s="23"/>
@@ -3828,7 +3828,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="55"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="55"/>
       <c r="C72" s="23"/>
@@ -3849,7 +3849,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="55"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
       <c r="B73" s="55"/>
       <c r="C73" s="23"/>
@@ -3870,7 +3870,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="55"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="55"/>
       <c r="C74" s="23"/>
@@ -3891,7 +3891,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="55"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="55"/>
       <c r="C75" s="23"/>
@@ -3912,7 +3912,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="55"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="55"/>
       <c r="C76" s="23"/>
@@ -3933,7 +3933,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="55"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="55"/>
       <c r="C77" s="23"/>
@@ -3954,7 +3954,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="55"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="55"/>
       <c r="C78" s="23"/>
@@ -3975,7 +3975,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="55"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="55"/>
       <c r="C79" s="23"/>
@@ -3996,7 +3996,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="55"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="23"/>
       <c r="B80" s="55"/>
       <c r="C80" s="23"/>
@@ -4017,7 +4017,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="55"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="23"/>
       <c r="B81" s="55"/>
       <c r="C81" s="23"/>
@@ -4038,7 +4038,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="55"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
       <c r="B82" s="55"/>
       <c r="C82" s="23"/>
@@ -4059,7 +4059,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="55"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
       <c r="B83" s="55"/>
       <c r="C83" s="23"/>
@@ -4080,7 +4080,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="55"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
       <c r="B84" s="55"/>
       <c r="C84" s="23"/>
@@ -4101,7 +4101,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="55"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
       <c r="B85" s="55"/>
       <c r="C85" s="23"/>
@@ -4122,7 +4122,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="55"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
       <c r="B86" s="55"/>
       <c r="C86" s="23"/>
@@ -4143,7 +4143,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="55"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
       <c r="B87" s="55"/>
       <c r="C87" s="23"/>
@@ -4164,7 +4164,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="55"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
       <c r="B88" s="55"/>
       <c r="C88" s="23"/>
@@ -4185,7 +4185,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="55"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="23"/>
       <c r="B89" s="55"/>
       <c r="C89" s="23"/>
@@ -4206,7 +4206,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="55"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
       <c r="B90" s="55"/>
       <c r="C90" s="23"/>
@@ -4227,7 +4227,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="55"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
       <c r="B91" s="55"/>
       <c r="C91" s="23"/>
@@ -4248,7 +4248,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="55"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
       <c r="B92" s="55"/>
       <c r="C92" s="23"/>
@@ -4269,7 +4269,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="55"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
       <c r="B93" s="55"/>
       <c r="C93" s="23"/>
@@ -4290,7 +4290,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="55"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
       <c r="B94" s="55"/>
       <c r="C94" s="23"/>
@@ -4311,7 +4311,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="55"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
       <c r="B95" s="55"/>
       <c r="C95" s="23"/>
@@ -4332,7 +4332,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="55"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="23"/>
       <c r="B96" s="55"/>
       <c r="C96" s="23"/>
@@ -4353,7 +4353,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="55"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="23"/>
       <c r="B97" s="55"/>
       <c r="C97" s="23"/>
@@ -4374,7 +4374,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="55"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
       <c r="B98" s="55"/>
       <c r="C98" s="23"/>
@@ -4395,7 +4395,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="55"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
       <c r="B99" s="55"/>
       <c r="C99" s="23"/>
@@ -4416,7 +4416,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="55"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
       <c r="B100" s="55"/>
       <c r="C100" s="23"/>
@@ -4437,7 +4437,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="55"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
       <c r="B101" s="55"/>
       <c r="C101" s="23"/>
@@ -4458,7 +4458,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="55"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
       <c r="B102" s="55"/>
       <c r="C102" s="23"/>
@@ -4479,7 +4479,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="55"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
       <c r="B103" s="55"/>
       <c r="C103" s="23"/>
@@ -4500,7 +4500,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="55"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="23"/>
       <c r="B104" s="55"/>
       <c r="C104" s="23"/>
@@ -4521,7 +4521,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="55"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="23"/>
       <c r="B105" s="55"/>
       <c r="C105" s="23"/>
@@ -4542,7 +4542,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="55"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
       <c r="B106" s="55"/>
       <c r="C106" s="23"/>
@@ -4563,7 +4563,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="55"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
       <c r="B107" s="55"/>
       <c r="C107" s="23"/>
@@ -4584,7 +4584,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="55"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
       <c r="B108" s="55"/>
       <c r="C108" s="23"/>
@@ -4605,7 +4605,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="55"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
       <c r="B109" s="55"/>
       <c r="C109" s="23"/>
@@ -4626,7 +4626,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="55"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
       <c r="B110" s="55"/>
       <c r="C110" s="23"/>
@@ -4647,7 +4647,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="55"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
       <c r="B111" s="55"/>
       <c r="C111" s="23"/>
@@ -4668,7 +4668,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="55"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="23"/>
       <c r="B112" s="55"/>
       <c r="C112" s="23"/>
@@ -4689,7 +4689,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="55"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
       <c r="B113" s="55"/>
       <c r="C113" s="23"/>
@@ -4710,7 +4710,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="55"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
       <c r="B114" s="55"/>
       <c r="C114" s="23"/>
@@ -4731,7 +4731,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="55"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
       <c r="B115" s="55"/>
       <c r="C115" s="23"/>
@@ -4752,7 +4752,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="55"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
       <c r="B116" s="55"/>
       <c r="C116" s="23"/>
@@ -4773,7 +4773,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="55"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
       <c r="B117" s="55"/>
       <c r="C117" s="23"/>
@@ -4794,7 +4794,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="55"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
       <c r="B118" s="55"/>
       <c r="C118" s="23"/>
@@ -4815,7 +4815,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="55"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
       <c r="B119" s="55"/>
       <c r="C119" s="23"/>
@@ -4836,7 +4836,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="55"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
       <c r="B120" s="55"/>
       <c r="C120" s="23"/>
@@ -4857,7 +4857,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="55"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="23"/>
       <c r="B121" s="55"/>
       <c r="C121" s="23"/>
@@ -4878,7 +4878,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="55"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
       <c r="B122" s="55"/>
       <c r="C122" s="23"/>
@@ -4899,7 +4899,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="55"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
       <c r="B123" s="55"/>
       <c r="C123" s="23"/>
@@ -4920,7 +4920,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="55"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
       <c r="B124" s="55"/>
       <c r="C124" s="23"/>
@@ -4941,7 +4941,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="55"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="55"/>
       <c r="C125" s="23"/>
@@ -4962,7 +4962,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="55"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="55"/>
       <c r="C126" s="23"/>
@@ -4983,7 +4983,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="55"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="55"/>
       <c r="C127" s="23"/>
@@ -5004,7 +5004,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="55"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
       <c r="B128" s="55"/>
       <c r="C128" s="23"/>
@@ -5025,7 +5025,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="55"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
       <c r="B129" s="55"/>
       <c r="C129" s="23"/>
@@ -5046,7 +5046,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="55"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
       <c r="B130" s="55"/>
       <c r="C130" s="23"/>
@@ -5067,7 +5067,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="55"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
       <c r="B131" s="55"/>
       <c r="C131" s="23"/>
@@ -5088,7 +5088,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="55"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
       <c r="B132" s="55"/>
       <c r="C132" s="23"/>
@@ -5109,7 +5109,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="55"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
       <c r="B133" s="55"/>
       <c r="C133" s="23"/>
@@ -5130,7 +5130,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="55"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
       <c r="B134" s="55"/>
       <c r="C134" s="23"/>
@@ -5151,7 +5151,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="55"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
       <c r="B135" s="55"/>
       <c r="C135" s="23"/>
@@ -5172,7 +5172,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="55"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
       <c r="B136" s="55"/>
       <c r="C136" s="23"/>
@@ -5193,7 +5193,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="55"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
       <c r="B137" s="55"/>
       <c r="C137" s="23"/>
@@ -5214,7 +5214,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="55"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
       <c r="B138" s="55"/>
       <c r="C138" s="23"/>
@@ -5235,7 +5235,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="55"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
       <c r="B139" s="55"/>
       <c r="C139" s="23"/>
@@ -5256,7 +5256,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="55"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
       <c r="B140" s="55"/>
       <c r="C140" s="23"/>
@@ -5277,7 +5277,7 @@
       <c r="R140" s="23"/>
       <c r="S140" s="55"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
       <c r="B141" s="55"/>
       <c r="C141" s="23"/>
@@ -5298,7 +5298,7 @@
       <c r="R141" s="23"/>
       <c r="S141" s="55"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
       <c r="B142" s="55"/>
       <c r="C142" s="23"/>
@@ -5319,7 +5319,7 @@
       <c r="R142" s="23"/>
       <c r="S142" s="55"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
       <c r="B143" s="55"/>
       <c r="C143" s="23"/>
@@ -5340,7 +5340,7 @@
       <c r="R143" s="23"/>
       <c r="S143" s="55"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="23"/>
       <c r="B144" s="55"/>
       <c r="C144" s="23"/>
@@ -5361,7 +5361,7 @@
       <c r="R144" s="23"/>
       <c r="S144" s="55"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="23"/>
       <c r="B145" s="55"/>
       <c r="C145" s="23"/>
@@ -5382,7 +5382,7 @@
       <c r="R145" s="23"/>
       <c r="S145" s="55"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
       <c r="B146" s="55"/>
       <c r="C146" s="23"/>
@@ -5403,7 +5403,7 @@
       <c r="R146" s="23"/>
       <c r="S146" s="55"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
       <c r="B147" s="55"/>
       <c r="C147" s="23"/>
@@ -5424,7 +5424,7 @@
       <c r="R147" s="23"/>
       <c r="S147" s="55"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
       <c r="B148" s="55"/>
       <c r="C148" s="23"/>
@@ -5445,7 +5445,7 @@
       <c r="R148" s="23"/>
       <c r="S148" s="55"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
       <c r="B149" s="55"/>
       <c r="C149" s="23"/>
@@ -5466,7 +5466,7 @@
       <c r="R149" s="23"/>
       <c r="S149" s="55"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
       <c r="B150" s="55"/>
       <c r="C150" s="23"/>
@@ -5487,7 +5487,7 @@
       <c r="R150" s="23"/>
       <c r="S150" s="55"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
       <c r="B151" s="55"/>
       <c r="C151" s="23"/>
@@ -5508,7 +5508,7 @@
       <c r="R151" s="23"/>
       <c r="S151" s="55"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
       <c r="B152" s="55"/>
       <c r="C152" s="23"/>
@@ -5529,7 +5529,7 @@
       <c r="R152" s="23"/>
       <c r="S152" s="55"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="23"/>
       <c r="B153" s="55"/>
       <c r="C153" s="23"/>
@@ -5550,7 +5550,7 @@
       <c r="R153" s="23"/>
       <c r="S153" s="55"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
       <c r="B154" s="55"/>
       <c r="C154" s="23"/>
@@ -5571,7 +5571,7 @@
       <c r="R154" s="23"/>
       <c r="S154" s="55"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
       <c r="B155" s="55"/>
       <c r="C155" s="23"/>
@@ -5592,7 +5592,7 @@
       <c r="R155" s="23"/>
       <c r="S155" s="55"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
       <c r="B156" s="55"/>
       <c r="C156" s="23"/>
@@ -5613,7 +5613,7 @@
       <c r="R156" s="23"/>
       <c r="S156" s="55"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
       <c r="B157" s="55"/>
       <c r="C157" s="23"/>
@@ -5634,7 +5634,7 @@
       <c r="R157" s="23"/>
       <c r="S157" s="55"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
       <c r="B158" s="55"/>
       <c r="C158" s="23"/>
@@ -5655,7 +5655,7 @@
       <c r="R158" s="23"/>
       <c r="S158" s="55"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="23"/>
       <c r="B159" s="55"/>
       <c r="C159" s="23"/>
@@ -5673,7 +5673,7 @@
       <c r="O159" s="55"/>
       <c r="S159" s="55"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="23"/>
       <c r="B160" s="55"/>
       <c r="C160" s="23"/>
@@ -5691,7 +5691,7 @@
       <c r="O160" s="55"/>
       <c r="S160" s="55"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
       <c r="B161" s="55"/>
       <c r="C161" s="23"/>
@@ -5709,7 +5709,7 @@
       <c r="O161" s="55"/>
       <c r="S161" s="55"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
       <c r="B162" s="55"/>
       <c r="C162" s="23"/>
@@ -5727,7 +5727,7 @@
       <c r="O162" s="55"/>
       <c r="S162" s="55"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
       <c r="B163" s="55"/>
       <c r="C163" s="23"/>
@@ -5745,7 +5745,7 @@
       <c r="O163" s="55"/>
       <c r="S163" s="55"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
       <c r="B164" s="55"/>
       <c r="C164" s="23"/>
@@ -5763,7 +5763,7 @@
       <c r="O164" s="55"/>
       <c r="S164" s="55"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
       <c r="B165" s="55"/>
       <c r="C165" s="23"/>
@@ -5781,7 +5781,7 @@
       <c r="O165" s="55"/>
       <c r="S165" s="55"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
       <c r="B166" s="55"/>
       <c r="C166" s="23"/>
@@ -5799,7 +5799,7 @@
       <c r="O166" s="55"/>
       <c r="S166" s="55"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
       <c r="B167" s="55"/>
       <c r="C167" s="23"/>
@@ -5817,7 +5817,7 @@
       <c r="O167" s="55"/>
       <c r="S167" s="55"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
       <c r="B168" s="55"/>
       <c r="C168" s="23"/>
@@ -5835,7 +5835,7 @@
       <c r="O168" s="55"/>
       <c r="S168" s="55"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
       <c r="B169" s="55"/>
       <c r="C169" s="23"/>
@@ -5853,7 +5853,7 @@
       <c r="O169" s="55"/>
       <c r="S169" s="55"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
       <c r="B170" s="55"/>
       <c r="C170" s="23"/>
@@ -5871,7 +5871,7 @@
       <c r="O170" s="55"/>
       <c r="S170" s="55"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
       <c r="B171" s="55"/>
       <c r="C171" s="23"/>
@@ -5889,7 +5889,7 @@
       <c r="O171" s="55"/>
       <c r="S171" s="55"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
       <c r="B172" s="55"/>
       <c r="C172" s="23"/>
@@ -5907,7 +5907,7 @@
       <c r="O172" s="55"/>
       <c r="S172" s="55"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="23"/>
       <c r="B173" s="55"/>
       <c r="C173" s="23"/>
@@ -5925,7 +5925,7 @@
       <c r="O173" s="55"/>
       <c r="S173" s="55"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="23"/>
       <c r="B174" s="55"/>
       <c r="C174" s="23"/>
@@ -5943,7 +5943,7 @@
       <c r="O174" s="55"/>
       <c r="S174" s="55"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="23"/>
       <c r="B175" s="55"/>
       <c r="C175" s="23"/>
@@ -5961,7 +5961,7 @@
       <c r="O175" s="55"/>
       <c r="S175" s="55"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="23"/>
       <c r="B176" s="55"/>
       <c r="C176" s="23"/>
@@ -5979,7 +5979,7 @@
       <c r="O176" s="55"/>
       <c r="S176" s="55"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="23"/>
       <c r="B177" s="55"/>
       <c r="C177" s="23"/>
@@ -5997,7 +5997,7 @@
       <c r="O177" s="55"/>
       <c r="S177" s="55"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="23"/>
       <c r="B178" s="55"/>
       <c r="C178" s="23"/>
@@ -6015,7 +6015,7 @@
       <c r="O178" s="55"/>
       <c r="S178" s="55"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="23"/>
       <c r="B179" s="55"/>
       <c r="C179" s="23"/>
@@ -6033,7 +6033,7 @@
       <c r="O179" s="55"/>
       <c r="S179" s="55"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="23"/>
       <c r="B180" s="55"/>
       <c r="C180" s="23"/>
@@ -6051,7 +6051,7 @@
       <c r="O180" s="55"/>
       <c r="S180" s="55"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="23"/>
       <c r="B181" s="55"/>
       <c r="C181" s="23"/>
@@ -6069,7 +6069,7 @@
       <c r="O181" s="55"/>
       <c r="S181" s="55"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="23"/>
       <c r="B182" s="55"/>
       <c r="C182" s="23"/>
@@ -6087,7 +6087,7 @@
       <c r="O182" s="55"/>
       <c r="S182" s="55"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="23"/>
       <c r="B183" s="55"/>
       <c r="C183" s="23"/>
@@ -6105,7 +6105,7 @@
       <c r="O183" s="55"/>
       <c r="S183" s="55"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="23"/>
       <c r="B184" s="55"/>
       <c r="C184" s="23"/>
@@ -6123,7 +6123,7 @@
       <c r="O184" s="55"/>
       <c r="S184" s="55"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="23"/>
       <c r="B185" s="55"/>
       <c r="C185" s="23"/>
@@ -6141,7 +6141,7 @@
       <c r="O185" s="55"/>
       <c r="S185" s="55"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="23"/>
       <c r="B186" s="55"/>
       <c r="C186" s="23"/>
@@ -6159,7 +6159,7 @@
       <c r="O186" s="55"/>
       <c r="S186" s="55"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="23"/>
       <c r="B187" s="55"/>
       <c r="C187" s="23"/>
@@ -6177,7 +6177,7 @@
       <c r="O187" s="55"/>
       <c r="S187" s="55"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="23"/>
       <c r="B188" s="55"/>
       <c r="C188" s="23"/>
@@ -6195,7 +6195,7 @@
       <c r="O188" s="55"/>
       <c r="S188" s="55"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="23"/>
       <c r="B189" s="55"/>
       <c r="C189" s="23"/>
@@ -6213,7 +6213,7 @@
       <c r="O189" s="55"/>
       <c r="S189" s="55"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="23"/>
       <c r="B190" s="55"/>
       <c r="C190" s="23"/>
@@ -6231,7 +6231,7 @@
       <c r="O190" s="55"/>
       <c r="S190" s="55"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="23"/>
       <c r="B191" s="55"/>
       <c r="C191" s="23"/>
@@ -6249,7 +6249,7 @@
       <c r="O191" s="55"/>
       <c r="S191" s="55"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="23"/>
       <c r="B192" s="55"/>
       <c r="C192" s="23"/>
@@ -6267,7 +6267,7 @@
       <c r="O192" s="55"/>
       <c r="S192" s="55"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="23"/>
       <c r="B193" s="55"/>
       <c r="C193" s="23"/>
@@ -6293,14 +6293,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
@@ -7136,39 +7136,39 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="62" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="65"/>
-    </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
+    </row>
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -7228,7 +7228,7 @@
       <c r="F4" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="79" t="s">
+      <c r="G4" s="62" t="s">
         <v>169</v>
       </c>
       <c r="H4" s="24" t="s">
@@ -7250,52 +7250,52 @@
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A5" s="80">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="63">
         <v>2</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="64" t="s">
         <v>174</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="64" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="64" t="s">
         <v>167</v>
       </c>
       <c r="F5" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="64" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="J5" s="81" t="s">
+      <c r="J5" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="K5" s="81" t="s">
+      <c r="K5" s="64" t="s">
         <v>179</v>
       </c>
-      <c r="L5" s="81" t="s">
+      <c r="L5" s="64" t="s">
         <v>180</v>
       </c>
       <c r="M5" s="24" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="64" t="s">
         <v>174</v>
       </c>
       <c r="C6" s="24" t="s">
@@ -7316,24 +7316,24 @@
       <c r="H6" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="81" t="s">
+      <c r="I6" s="64" t="s">
         <v>178</v>
       </c>
-      <c r="J6" s="81" t="s">
+      <c r="J6" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="K6" s="81" t="s">
+      <c r="K6" s="64" t="s">
         <v>187</v>
       </c>
-      <c r="L6" s="81" t="s">
+      <c r="L6" s="64" t="s">
         <v>180</v>
       </c>
       <c r="M6" s="24" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="66">
-      <c r="A7" s="80">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A7" s="63">
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -7351,7 +7351,7 @@
       <c r="F7" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="62" t="s">
         <v>203</v>
       </c>
       <c r="H7" s="24" t="s">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="66">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -7384,13 +7384,13 @@
       <c r="D8" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="62" t="s">
         <v>194</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="62" t="s">
         <v>196</v>
       </c>
       <c r="H8" s="24" t="s">
@@ -7410,8 +7410,8 @@
       </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="66">
-      <c r="A9" s="80">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A9" s="63">
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -7429,7 +7429,7 @@
       <c r="F9" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="62" t="s">
         <v>202</v>
       </c>
       <c r="H9" s="24" t="s">
@@ -7449,52 +7449,124 @@
       </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="16.5">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A10" s="24">
+        <v>7</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>212</v>
+      </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="16.5">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A11" s="63">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="16.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A12" s="24">
+        <v>9</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>217</v>
+      </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -7509,7 +7581,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7524,7 +7596,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7545,13 +7617,13 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I10:I1048576 TA5:TA1048576 ACW5:ACW1048576 AMS5:AMS1048576 AWO5:AWO1048576 BGK5:BGK1048576 BQG5:BQG1048576 CAC5:CAC1048576 CJY5:CJY1048576 CTU5:CTU1048576 DDQ5:DDQ1048576 DNM5:DNM1048576 DXI5:DXI1048576 EHE5:EHE1048576 ERA5:ERA1048576 FAW5:FAW1048576 FKS5:FKS1048576 FUO5:FUO1048576 GEK5:GEK1048576 GOG5:GOG1048576 GYC5:GYC1048576 HHY5:HHY1048576 HRU5:HRU1048576 IBQ5:IBQ1048576 ILM5:ILM1048576 IVI5:IVI1048576 JFE5:JFE1048576 JPA5:JPA1048576 JYW5:JYW1048576 KIS5:KIS1048576 KSO5:KSO1048576 LCK5:LCK1048576 LMG5:LMG1048576 LWC5:LWC1048576 MFY5:MFY1048576 MPU5:MPU1048576 MZQ5:MZQ1048576 NJM5:NJM1048576 NTI5:NTI1048576 ODE5:ODE1048576 ONA5:ONA1048576 OWW5:OWW1048576 PGS5:PGS1048576 PQO5:PQO1048576 QAK5:QAK1048576 QKG5:QKG1048576 QUC5:QUC1048576 RDY5:RDY1048576 RNU5:RNU1048576 RXQ5:RXQ1048576 SHM5:SHM1048576 SRI5:SRI1048576 TBE5:TBE1048576 TLA5:TLA1048576 TUW5:TUW1048576 UES5:UES1048576 UOO5:UOO1048576 UYK5:UYK1048576 VIG5:VIG1048576 VSC5:VSC1048576 WBY5:WBY1048576 WLU5:WLU1048576 WVQ5:WVQ1048576 WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I4 JE5:JE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I4 JE5:JE1048576 WVQ5:WVQ1048576 WLU5:WLU1048576 WBY5:WBY1048576 VSC5:VSC1048576 VIG5:VIG1048576 UYK5:UYK1048576 UOO5:UOO1048576 UES5:UES1048576 TUW5:TUW1048576 TLA5:TLA1048576 TBE5:TBE1048576 SRI5:SRI1048576 SHM5:SHM1048576 RXQ5:RXQ1048576 RNU5:RNU1048576 RDY5:RDY1048576 QUC5:QUC1048576 QKG5:QKG1048576 QAK5:QAK1048576 PQO5:PQO1048576 PGS5:PGS1048576 OWW5:OWW1048576 ONA5:ONA1048576 ODE5:ODE1048576 NTI5:NTI1048576 NJM5:NJM1048576 MZQ5:MZQ1048576 MPU5:MPU1048576 MFY5:MFY1048576 LWC5:LWC1048576 LMG5:LMG1048576 LCK5:LCK1048576 KSO5:KSO1048576 KIS5:KIS1048576 JYW5:JYW1048576 JPA5:JPA1048576 JFE5:JFE1048576 IVI5:IVI1048576 ILM5:ILM1048576 IBQ5:IBQ1048576 HRU5:HRU1048576 HHY5:HHY1048576 GYC5:GYC1048576 GOG5:GOG1048576 GEK5:GEK1048576 FUO5:FUO1048576 FKS5:FKS1048576 FAW5:FAW1048576 ERA5:ERA1048576 EHE5:EHE1048576 DXI5:DXI1048576 DNM5:DNM1048576 DDQ5:DDQ1048576 CTU5:CTU1048576 CJY5:CJY1048576 CAC5:CAC1048576 BQG5:BQG1048576 BGK5:BGK1048576 AWO5:AWO1048576 AMS5:AMS1048576 ACW5:ACW1048576 TA5:TA1048576 I13:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 WVN917507:WVN917519 WVN851971:WVN851983 WVN786435:WVN786447 WVN720899:WVN720911 WVN655363:WVN655375 WVN589827:WVN589839 WVN524291:WVN524303 WVN458755:WVN458767 WVN393219:WVN393231 WVN327683:WVN327695 WVN262147:WVN262159 WVN196611:WVN196623 WVN131075:WVN131087 WVN65539:WVN65551 WVN983043:WVN983055 WLR983043:WLR983055 WLR917507:WLR917519 WLR851971:WLR851983 WLR786435:WLR786447 WLR720899:WLR720911 WLR655363:WLR655375 WLR589827:WLR589839 WLR524291:WLR524303 WLR458755:WLR458767 WLR393219:WLR393231 WLR327683:WLR327695 WLR262147:WLR262159 WLR196611:WLR196623 WLR131075:WLR131087 WLR65539:WLR65551 WBV983043:WBV983055 WBV917507:WBV917519 WBV851971:WBV851983 WBV786435:WBV786447 WBV720899:WBV720911 WBV655363:WBV655375 WBV589827:WBV589839 WBV524291:WBV524303 WBV458755:WBV458767 WBV393219:WBV393231 WBV327683:WBV327695 WBV262147:WBV262159 WBV196611:WBV196623 WBV131075:WBV131087 WBV65539:WBV65551 VRZ983043:VRZ983055 VRZ917507:VRZ917519 VRZ851971:VRZ851983 VRZ786435:VRZ786447 VRZ720899:VRZ720911 VRZ655363:VRZ655375 VRZ589827:VRZ589839 VRZ524291:VRZ524303 VRZ458755:VRZ458767 VRZ393219:VRZ393231 VRZ327683:VRZ327695 VRZ262147:VRZ262159 VRZ196611:VRZ196623 VRZ131075:VRZ131087 VRZ65539:VRZ65551 VID983043:VID983055 VID917507:VID917519 VID851971:VID851983 VID786435:VID786447 VID720899:VID720911 VID655363:VID655375 VID589827:VID589839 VID524291:VID524303 VID458755:VID458767 VID393219:VID393231 VID327683:VID327695 VID262147:VID262159 VID196611:VID196623 VID131075:VID131087 VID65539:VID65551 UYH983043:UYH983055 UYH917507:UYH917519 UYH851971:UYH851983 UYH786435:UYH786447 UYH720899:UYH720911 UYH655363:UYH655375 UYH589827:UYH589839 UYH524291:UYH524303 UYH458755:UYH458767 UYH393219:UYH393231 UYH327683:UYH327695 UYH262147:UYH262159 UYH196611:UYH196623 UYH131075:UYH131087 UYH65539:UYH65551 UOL983043:UOL983055 UOL917507:UOL917519 UOL851971:UOL851983 UOL786435:UOL786447 UOL720899:UOL720911 UOL655363:UOL655375 UOL589827:UOL589839 UOL524291:UOL524303 UOL458755:UOL458767 UOL393219:UOL393231 UOL327683:UOL327695 UOL262147:UOL262159 UOL196611:UOL196623 UOL131075:UOL131087 UOL65539:UOL65551 UEP983043:UEP983055 UEP917507:UEP917519 UEP851971:UEP851983 UEP786435:UEP786447 UEP720899:UEP720911 UEP655363:UEP655375 UEP589827:UEP589839 UEP524291:UEP524303 UEP458755:UEP458767 UEP393219:UEP393231 UEP327683:UEP327695 UEP262147:UEP262159 UEP196611:UEP196623 UEP131075:UEP131087 UEP65539:UEP65551 TUT983043:TUT983055 TUT917507:TUT917519 TUT851971:TUT851983 TUT786435:TUT786447 TUT720899:TUT720911 TUT655363:TUT655375 TUT589827:TUT589839 TUT524291:TUT524303 TUT458755:TUT458767 TUT393219:TUT393231 TUT327683:TUT327695 TUT262147:TUT262159 TUT196611:TUT196623 TUT131075:TUT131087 TUT65539:TUT65551 TKX983043:TKX983055 TKX917507:TKX917519 TKX851971:TKX851983 TKX786435:TKX786447 TKX720899:TKX720911 TKX655363:TKX655375 TKX589827:TKX589839 TKX524291:TKX524303 TKX458755:TKX458767 TKX393219:TKX393231 TKX327683:TKX327695 TKX262147:TKX262159 TKX196611:TKX196623 TKX131075:TKX131087 TKX65539:TKX65551 TBB983043:TBB983055 TBB917507:TBB917519 TBB851971:TBB851983 TBB786435:TBB786447 TBB720899:TBB720911 TBB655363:TBB655375 TBB589827:TBB589839 TBB524291:TBB524303 TBB458755:TBB458767 TBB393219:TBB393231 TBB327683:TBB327695 TBB262147:TBB262159 TBB196611:TBB196623 TBB131075:TBB131087 TBB65539:TBB65551 SRF983043:SRF983055 SRF917507:SRF917519 SRF851971:SRF851983 SRF786435:SRF786447 SRF720899:SRF720911 SRF655363:SRF655375 SRF589827:SRF589839 SRF524291:SRF524303 SRF458755:SRF458767 SRF393219:SRF393231 SRF327683:SRF327695 SRF262147:SRF262159 SRF196611:SRF196623 SRF131075:SRF131087 SRF65539:SRF65551 SHJ983043:SHJ983055 SHJ917507:SHJ917519 SHJ851971:SHJ851983 SHJ786435:SHJ786447 SHJ720899:SHJ720911 SHJ655363:SHJ655375 SHJ589827:SHJ589839 SHJ524291:SHJ524303 SHJ458755:SHJ458767 SHJ393219:SHJ393231 SHJ327683:SHJ327695 SHJ262147:SHJ262159 SHJ196611:SHJ196623 SHJ131075:SHJ131087 SHJ65539:SHJ65551 RXN983043:RXN983055 RXN917507:RXN917519 RXN851971:RXN851983 RXN786435:RXN786447 RXN720899:RXN720911 RXN655363:RXN655375 RXN589827:RXN589839 RXN524291:RXN524303 RXN458755:RXN458767 RXN393219:RXN393231 RXN327683:RXN327695 RXN262147:RXN262159 RXN196611:RXN196623 RXN131075:RXN131087 RXN65539:RXN65551 RNR983043:RNR983055 RNR917507:RNR917519 RNR851971:RNR851983 RNR786435:RNR786447 RNR720899:RNR720911 RNR655363:RNR655375 RNR589827:RNR589839 RNR524291:RNR524303 RNR458755:RNR458767 RNR393219:RNR393231 RNR327683:RNR327695 RNR262147:RNR262159 RNR196611:RNR196623 RNR131075:RNR131087 RNR65539:RNR65551 RDV983043:RDV983055 RDV917507:RDV917519 RDV851971:RDV851983 RDV786435:RDV786447 RDV720899:RDV720911 RDV655363:RDV655375 RDV589827:RDV589839 RDV524291:RDV524303 RDV458755:RDV458767 RDV393219:RDV393231 RDV327683:RDV327695 RDV262147:RDV262159 RDV196611:RDV196623 RDV131075:RDV131087 RDV65539:RDV65551 QTZ983043:QTZ983055 QTZ917507:QTZ917519 QTZ851971:QTZ851983 QTZ786435:QTZ786447 QTZ720899:QTZ720911 QTZ655363:QTZ655375 QTZ589827:QTZ589839 QTZ524291:QTZ524303 QTZ458755:QTZ458767 QTZ393219:QTZ393231 QTZ327683:QTZ327695 QTZ262147:QTZ262159 QTZ196611:QTZ196623 QTZ131075:QTZ131087 QTZ65539:QTZ65551 QKD983043:QKD983055 QKD917507:QKD917519 QKD851971:QKD851983 QKD786435:QKD786447 QKD720899:QKD720911 QKD655363:QKD655375 QKD589827:QKD589839 QKD524291:QKD524303 QKD458755:QKD458767 QKD393219:QKD393231 QKD327683:QKD327695 QKD262147:QKD262159 QKD196611:QKD196623 QKD131075:QKD131087 QKD65539:QKD65551 QAH983043:QAH983055 QAH917507:QAH917519 QAH851971:QAH851983 QAH786435:QAH786447 QAH720899:QAH720911 QAH655363:QAH655375 QAH589827:QAH589839 QAH524291:QAH524303 QAH458755:QAH458767 QAH393219:QAH393231 QAH327683:QAH327695 QAH262147:QAH262159 QAH196611:QAH196623 QAH131075:QAH131087 QAH65539:QAH65551 PQL983043:PQL983055 PQL917507:PQL917519 PQL851971:PQL851983 PQL786435:PQL786447 PQL720899:PQL720911 PQL655363:PQL655375 PQL589827:PQL589839 PQL524291:PQL524303 PQL458755:PQL458767 PQL393219:PQL393231 PQL327683:PQL327695 PQL262147:PQL262159 PQL196611:PQL196623 PQL131075:PQL131087 PQL65539:PQL65551 PGP983043:PGP983055 PGP917507:PGP917519 PGP851971:PGP851983 PGP786435:PGP786447 PGP720899:PGP720911 PGP655363:PGP655375 PGP589827:PGP589839 PGP524291:PGP524303 PGP458755:PGP458767 PGP393219:PGP393231 PGP327683:PGP327695 PGP262147:PGP262159 PGP196611:PGP196623 PGP131075:PGP131087 PGP65539:PGP65551 OWT983043:OWT983055 OWT917507:OWT917519 OWT851971:OWT851983 OWT786435:OWT786447 OWT720899:OWT720911 OWT655363:OWT655375 OWT589827:OWT589839 OWT524291:OWT524303 OWT458755:OWT458767 OWT393219:OWT393231 OWT327683:OWT327695 OWT262147:OWT262159 OWT196611:OWT196623 OWT131075:OWT131087 OWT65539:OWT65551 OMX983043:OMX983055 OMX917507:OMX917519 OMX851971:OMX851983 OMX786435:OMX786447 OMX720899:OMX720911 OMX655363:OMX655375 OMX589827:OMX589839 OMX524291:OMX524303 OMX458755:OMX458767 OMX393219:OMX393231 OMX327683:OMX327695 OMX262147:OMX262159 OMX196611:OMX196623 OMX131075:OMX131087 OMX65539:OMX65551 ODB983043:ODB983055 ODB917507:ODB917519 ODB851971:ODB851983 ODB786435:ODB786447 ODB720899:ODB720911 ODB655363:ODB655375 ODB589827:ODB589839 ODB524291:ODB524303 ODB458755:ODB458767 ODB393219:ODB393231 ODB327683:ODB327695 ODB262147:ODB262159 ODB196611:ODB196623 ODB131075:ODB131087 ODB65539:ODB65551 NTF983043:NTF983055 NTF917507:NTF917519 NTF851971:NTF851983 NTF786435:NTF786447 NTF720899:NTF720911 NTF655363:NTF655375 NTF589827:NTF589839 NTF524291:NTF524303 NTF458755:NTF458767 NTF393219:NTF393231 NTF327683:NTF327695 NTF262147:NTF262159 NTF196611:NTF196623 NTF131075:NTF131087 NTF65539:NTF65551 NJJ983043:NJJ983055 NJJ917507:NJJ917519 NJJ851971:NJJ851983 NJJ786435:NJJ786447 NJJ720899:NJJ720911 NJJ655363:NJJ655375 NJJ589827:NJJ589839 NJJ524291:NJJ524303 NJJ458755:NJJ458767 NJJ393219:NJJ393231 NJJ327683:NJJ327695 NJJ262147:NJJ262159 NJJ196611:NJJ196623 NJJ131075:NJJ131087 NJJ65539:NJJ65551 MZN983043:MZN983055 MZN917507:MZN917519 MZN851971:MZN851983 MZN786435:MZN786447 MZN720899:MZN720911 MZN655363:MZN655375 MZN589827:MZN589839 MZN524291:MZN524303 MZN458755:MZN458767 MZN393219:MZN393231 MZN327683:MZN327695 MZN262147:MZN262159 MZN196611:MZN196623 MZN131075:MZN131087 MZN65539:MZN65551 MPR983043:MPR983055 MPR917507:MPR917519 MPR851971:MPR851983 MPR786435:MPR786447 MPR720899:MPR720911 MPR655363:MPR655375 MPR589827:MPR589839 MPR524291:MPR524303 MPR458755:MPR458767 MPR393219:MPR393231 MPR327683:MPR327695 MPR262147:MPR262159 MPR196611:MPR196623 MPR131075:MPR131087 MPR65539:MPR65551 MFV983043:MFV983055 MFV917507:MFV917519 MFV851971:MFV851983 MFV786435:MFV786447 MFV720899:MFV720911 MFV655363:MFV655375 MFV589827:MFV589839 MFV524291:MFV524303 MFV458755:MFV458767 MFV393219:MFV393231 MFV327683:MFV327695 MFV262147:MFV262159 MFV196611:MFV196623 MFV131075:MFV131087 MFV65539:MFV65551 LVZ983043:LVZ983055 LVZ917507:LVZ917519 LVZ851971:LVZ851983 LVZ786435:LVZ786447 LVZ720899:LVZ720911 LVZ655363:LVZ655375 LVZ589827:LVZ589839 LVZ524291:LVZ524303 LVZ458755:LVZ458767 LVZ393219:LVZ393231 LVZ327683:LVZ327695 LVZ262147:LVZ262159 LVZ196611:LVZ196623 LVZ131075:LVZ131087 LVZ65539:LVZ65551 LMD983043:LMD983055 LMD917507:LMD917519 LMD851971:LMD851983 LMD786435:LMD786447 LMD720899:LMD720911 LMD655363:LMD655375 LMD589827:LMD589839 LMD524291:LMD524303 LMD458755:LMD458767 LMD393219:LMD393231 LMD327683:LMD327695 LMD262147:LMD262159 LMD196611:LMD196623 LMD131075:LMD131087 LMD65539:LMD65551 LCH983043:LCH983055 LCH917507:LCH917519 LCH851971:LCH851983 LCH786435:LCH786447 LCH720899:LCH720911 LCH655363:LCH655375 LCH589827:LCH589839 LCH524291:LCH524303 LCH458755:LCH458767 LCH393219:LCH393231 LCH327683:LCH327695 LCH262147:LCH262159 LCH196611:LCH196623 LCH131075:LCH131087 LCH65539:LCH65551 KSL983043:KSL983055 KSL917507:KSL917519 KSL851971:KSL851983 KSL786435:KSL786447 KSL720899:KSL720911 KSL655363:KSL655375 KSL589827:KSL589839 KSL524291:KSL524303 KSL458755:KSL458767 KSL393219:KSL393231 KSL327683:KSL327695 KSL262147:KSL262159 KSL196611:KSL196623 KSL131075:KSL131087 KSL65539:KSL65551 KIP983043:KIP983055 KIP917507:KIP917519 KIP851971:KIP851983 KIP786435:KIP786447 KIP720899:KIP720911 KIP655363:KIP655375 KIP589827:KIP589839 KIP524291:KIP524303 KIP458755:KIP458767 KIP393219:KIP393231 KIP327683:KIP327695 KIP262147:KIP262159 KIP196611:KIP196623 KIP131075:KIP131087 KIP65539:KIP65551 JYT983043:JYT983055 JYT917507:JYT917519 JYT851971:JYT851983 JYT786435:JYT786447 JYT720899:JYT720911 JYT655363:JYT655375 JYT589827:JYT589839 JYT524291:JYT524303 JYT458755:JYT458767 JYT393219:JYT393231 JYT327683:JYT327695 JYT262147:JYT262159 JYT196611:JYT196623 JYT131075:JYT131087 JYT65539:JYT65551 JOX983043:JOX983055 JOX917507:JOX917519 JOX851971:JOX851983 JOX786435:JOX786447 JOX720899:JOX720911 JOX655363:JOX655375 JOX589827:JOX589839 JOX524291:JOX524303 JOX458755:JOX458767 JOX393219:JOX393231 JOX327683:JOX327695 JOX262147:JOX262159 JOX196611:JOX196623 JOX131075:JOX131087 JOX65539:JOX65551 JFB983043:JFB983055 JFB917507:JFB917519 JFB851971:JFB851983 JFB786435:JFB786447 JFB720899:JFB720911 JFB655363:JFB655375 JFB589827:JFB589839 JFB524291:JFB524303 JFB458755:JFB458767 JFB393219:JFB393231 JFB327683:JFB327695 JFB262147:JFB262159 JFB196611:JFB196623 JFB131075:JFB131087 JFB65539:JFB65551 IVF983043:IVF983055 IVF917507:IVF917519 IVF851971:IVF851983 IVF786435:IVF786447 IVF720899:IVF720911 IVF655363:IVF655375 IVF589827:IVF589839 IVF524291:IVF524303 IVF458755:IVF458767 IVF393219:IVF393231 IVF327683:IVF327695 IVF262147:IVF262159 IVF196611:IVF196623 IVF131075:IVF131087 IVF65539:IVF65551 ILJ983043:ILJ983055 ILJ917507:ILJ917519 ILJ851971:ILJ851983 ILJ786435:ILJ786447 ILJ720899:ILJ720911 ILJ655363:ILJ655375 ILJ589827:ILJ589839 ILJ524291:ILJ524303 ILJ458755:ILJ458767 ILJ393219:ILJ393231 ILJ327683:ILJ327695 ILJ262147:ILJ262159 ILJ196611:ILJ196623 ILJ131075:ILJ131087 ILJ65539:ILJ65551 IBN983043:IBN983055 IBN917507:IBN917519 IBN851971:IBN851983 IBN786435:IBN786447 IBN720899:IBN720911 IBN655363:IBN655375 IBN589827:IBN589839 IBN524291:IBN524303 IBN458755:IBN458767 IBN393219:IBN393231 IBN327683:IBN327695 IBN262147:IBN262159 IBN196611:IBN196623 IBN131075:IBN131087 IBN65539:IBN65551 HRR983043:HRR983055 HRR917507:HRR917519 HRR851971:HRR851983 HRR786435:HRR786447 HRR720899:HRR720911 HRR655363:HRR655375 HRR589827:HRR589839 HRR524291:HRR524303 HRR458755:HRR458767 HRR393219:HRR393231 HRR327683:HRR327695 HRR262147:HRR262159 HRR196611:HRR196623 HRR131075:HRR131087 HRR65539:HRR65551 HHV983043:HHV983055 HHV917507:HHV917519 HHV851971:HHV851983 HHV786435:HHV786447 HHV720899:HHV720911 HHV655363:HHV655375 HHV589827:HHV589839 HHV524291:HHV524303 HHV458755:HHV458767 HHV393219:HHV393231 HHV327683:HHV327695 HHV262147:HHV262159 HHV196611:HHV196623 HHV131075:HHV131087 HHV65539:HHV65551 GXZ983043:GXZ983055 GXZ917507:GXZ917519 GXZ851971:GXZ851983 GXZ786435:GXZ786447 GXZ720899:GXZ720911 GXZ655363:GXZ655375 GXZ589827:GXZ589839 GXZ524291:GXZ524303 GXZ458755:GXZ458767 GXZ393219:GXZ393231 GXZ327683:GXZ327695 GXZ262147:GXZ262159 GXZ196611:GXZ196623 GXZ131075:GXZ131087 GXZ65539:GXZ65551 GOD983043:GOD983055 GOD917507:GOD917519 GOD851971:GOD851983 GOD786435:GOD786447 GOD720899:GOD720911 GOD655363:GOD655375 GOD589827:GOD589839 GOD524291:GOD524303 GOD458755:GOD458767 GOD393219:GOD393231 GOD327683:GOD327695 GOD262147:GOD262159 GOD196611:GOD196623 GOD131075:GOD131087 GOD65539:GOD65551 GEH983043:GEH983055 GEH917507:GEH917519 GEH851971:GEH851983 GEH786435:GEH786447 GEH720899:GEH720911 GEH655363:GEH655375 GEH589827:GEH589839 GEH524291:GEH524303 GEH458755:GEH458767 GEH393219:GEH393231 GEH327683:GEH327695 GEH262147:GEH262159 GEH196611:GEH196623 GEH131075:GEH131087 GEH65539:GEH65551 FUL983043:FUL983055 FUL917507:FUL917519 FUL851971:FUL851983 FUL786435:FUL786447 FUL720899:FUL720911 FUL655363:FUL655375 FUL589827:FUL589839 FUL524291:FUL524303 FUL458755:FUL458767 FUL393219:FUL393231 FUL327683:FUL327695 FUL262147:FUL262159 FUL196611:FUL196623 FUL131075:FUL131087 FUL65539:FUL65551 FKP983043:FKP983055 FKP917507:FKP917519 FKP851971:FKP851983 FKP786435:FKP786447 FKP720899:FKP720911 FKP655363:FKP655375 FKP589827:FKP589839 FKP524291:FKP524303 FKP458755:FKP458767 FKP393219:FKP393231 FKP327683:FKP327695 FKP262147:FKP262159 FKP196611:FKP196623 FKP131075:FKP131087 FKP65539:FKP65551 FAT983043:FAT983055 FAT917507:FAT917519 FAT851971:FAT851983 FAT786435:FAT786447 FAT720899:FAT720911 FAT655363:FAT655375 FAT589827:FAT589839 FAT524291:FAT524303 FAT458755:FAT458767 FAT393219:FAT393231 FAT327683:FAT327695 FAT262147:FAT262159 FAT196611:FAT196623 FAT131075:FAT131087 FAT65539:FAT65551 EQX983043:EQX983055 EQX917507:EQX917519 EQX851971:EQX851983 EQX786435:EQX786447 EQX720899:EQX720911 EQX655363:EQX655375 EQX589827:EQX589839 EQX524291:EQX524303 EQX458755:EQX458767 EQX393219:EQX393231 EQX327683:EQX327695 EQX262147:EQX262159 EQX196611:EQX196623 EQX131075:EQX131087 EQX65539:EQX65551 EHB983043:EHB983055 EHB917507:EHB917519 EHB851971:EHB851983 EHB786435:EHB786447 EHB720899:EHB720911 EHB655363:EHB655375 EHB589827:EHB589839 EHB524291:EHB524303 EHB458755:EHB458767 EHB393219:EHB393231 EHB327683:EHB327695 EHB262147:EHB262159 EHB196611:EHB196623 EHB131075:EHB131087 EHB65539:EHB65551 DXF983043:DXF983055 DXF917507:DXF917519 DXF851971:DXF851983 DXF786435:DXF786447 DXF720899:DXF720911 DXF655363:DXF655375 DXF589827:DXF589839 DXF524291:DXF524303 DXF458755:DXF458767 DXF393219:DXF393231 DXF327683:DXF327695 DXF262147:DXF262159 DXF196611:DXF196623 DXF131075:DXF131087 DXF65539:DXF65551 DNJ983043:DNJ983055 DNJ917507:DNJ917519 DNJ851971:DNJ851983 DNJ786435:DNJ786447 DNJ720899:DNJ720911 DNJ655363:DNJ655375 DNJ589827:DNJ589839 DNJ524291:DNJ524303 DNJ458755:DNJ458767 DNJ393219:DNJ393231 DNJ327683:DNJ327695 DNJ262147:DNJ262159 DNJ196611:DNJ196623 DNJ131075:DNJ131087 DNJ65539:DNJ65551 DDN983043:DDN983055 DDN917507:DDN917519 DDN851971:DDN851983 DDN786435:DDN786447 DDN720899:DDN720911 DDN655363:DDN655375 DDN589827:DDN589839 DDN524291:DDN524303 DDN458755:DDN458767 DDN393219:DDN393231 DDN327683:DDN327695 DDN262147:DDN262159 DDN196611:DDN196623 DDN131075:DDN131087 DDN65539:DDN65551 CTR983043:CTR983055 CTR917507:CTR917519 CTR851971:CTR851983 CTR786435:CTR786447 CTR720899:CTR720911 CTR655363:CTR655375 CTR589827:CTR589839 CTR524291:CTR524303 CTR458755:CTR458767 CTR393219:CTR393231 CTR327683:CTR327695 CTR262147:CTR262159 CTR196611:CTR196623 CTR131075:CTR131087 CTR65539:CTR65551 CJV983043:CJV983055 CJV917507:CJV917519 CJV851971:CJV851983 CJV786435:CJV786447 CJV720899:CJV720911 CJV655363:CJV655375 CJV589827:CJV589839 CJV524291:CJV524303 CJV458755:CJV458767 CJV393219:CJV393231 CJV327683:CJV327695 CJV262147:CJV262159 CJV196611:CJV196623 CJV131075:CJV131087 CJV65539:CJV65551 BZZ983043:BZZ983055 BZZ917507:BZZ917519 BZZ851971:BZZ851983 BZZ786435:BZZ786447 BZZ720899:BZZ720911 BZZ655363:BZZ655375 BZZ589827:BZZ589839 BZZ524291:BZZ524303 BZZ458755:BZZ458767 BZZ393219:BZZ393231 BZZ327683:BZZ327695 BZZ262147:BZZ262159 BZZ196611:BZZ196623 BZZ131075:BZZ131087 BZZ65539:BZZ65551 BQD983043:BQD983055 BQD917507:BQD917519 BQD851971:BQD851983 BQD786435:BQD786447 BQD720899:BQD720911 BQD655363:BQD655375 BQD589827:BQD589839 BQD524291:BQD524303 BQD458755:BQD458767 BQD393219:BQD393231 BQD327683:BQD327695 BQD262147:BQD262159 BQD196611:BQD196623 BQD131075:BQD131087 BQD65539:BQD65551 BGH983043:BGH983055 BGH917507:BGH917519 BGH851971:BGH851983 BGH786435:BGH786447 BGH720899:BGH720911 BGH655363:BGH655375 BGH589827:BGH589839 BGH524291:BGH524303 BGH458755:BGH458767 BGH393219:BGH393231 BGH327683:BGH327695 BGH262147:BGH262159 BGH196611:BGH196623 BGH131075:BGH131087 BGH65539:BGH65551 AWL983043:AWL983055 AWL917507:AWL917519 AWL851971:AWL851983 AWL786435:AWL786447 AWL720899:AWL720911 AWL655363:AWL655375 AWL589827:AWL589839 AWL524291:AWL524303 AWL458755:AWL458767 AWL393219:AWL393231 AWL327683:AWL327695 AWL262147:AWL262159 AWL196611:AWL196623 AWL131075:AWL131087 AWL65539:AWL65551 AMP983043:AMP983055 AMP917507:AMP917519 AMP851971:AMP851983 AMP786435:AMP786447 AMP720899:AMP720911 AMP655363:AMP655375 AMP589827:AMP589839 AMP524291:AMP524303 AMP458755:AMP458767 AMP393219:AMP393231 AMP327683:AMP327695 AMP262147:AMP262159 AMP196611:AMP196623 AMP131075:AMP131087 AMP65539:AMP65551 ACT983043:ACT983055 ACT917507:ACT917519 ACT851971:ACT851983 ACT786435:ACT786447 ACT720899:ACT720911 ACT655363:ACT655375 ACT589827:ACT589839 ACT524291:ACT524303 ACT458755:ACT458767 ACT393219:ACT393231 ACT327683:ACT327695 ACT262147:ACT262159 ACT196611:ACT196623 ACT131075:ACT131087 ACT65539:ACT65551 SX983043:SX983055 SX917507:SX917519 SX851971:SX851983 SX786435:SX786447 SX720899:SX720911 SX655363:SX655375 SX589827:SX589839 SX524291:SX524303 SX458755:SX458767 SX393219:SX393231 SX327683:SX327695 SX262147:SX262159 SX196611:SX196623 SX131075:SX131087 SX65539:SX65551 JB983043:JB983055 JB917507:JB917519 JB851971:JB851983 JB786435:JB786447 JB720899:JB720911 JB655363:JB655375 JB589827:JB589839 JB524291:JB524303 JB458755:JB458767 JB393219:JB393231 JB327683:JB327695 JB262147:JB262159 JB196611:JB196623 JB131075:JB131087 JB65539:JB65551 F983043:F983055 F917507:F917519 F851971:F851983 F786435:F786447 F720899:F720911 F655363:F655375 F589827:F589839 F524291:F524303 F458755:F458767 F393219:F393231 F327683:F327695 F262147:F262159 F196611:F196623 F131075:F131087 JB4:JB15 SX4:SX15 ACT4:ACT15 AMP4:AMP15 AWL4:AWL15 BGH4:BGH15 BQD4:BQD15 BZZ4:BZZ15 CJV4:CJV15 CTR4:CTR15 DDN4:DDN15 DNJ4:DNJ15 DXF4:DXF15 EHB4:EHB15 EQX4:EQX15 FAT4:FAT15 FKP4:FKP15 FUL4:FUL15 GEH4:GEH15 GOD4:GOD15 GXZ4:GXZ15 HHV4:HHV15 HRR4:HRR15 IBN4:IBN15 ILJ4:ILJ15 IVF4:IVF15 JFB4:JFB15 JOX4:JOX15 JYT4:JYT15 KIP4:KIP15 KSL4:KSL15 LCH4:LCH15 LMD4:LMD15 LVZ4:LVZ15 MFV4:MFV15 MPR4:MPR15 MZN4:MZN15 NJJ4:NJJ15 NTF4:NTF15 ODB4:ODB15 OMX4:OMX15 OWT4:OWT15 PGP4:PGP15 PQL4:PQL15 QAH4:QAH15 QKD4:QKD15 QTZ4:QTZ15 RDV4:RDV15 RNR4:RNR15 RXN4:RXN15 SHJ4:SHJ15 SRF4:SRF15 TBB4:TBB15 TKX4:TKX15 TUT4:TUT15 UEP4:UEP15 UOL4:UOL15 UYH4:UYH15 VID4:VID15 VRZ4:VRZ15 WBV4:WBV15 WLR4:WLR15 F4:F15 WVN4:WVN15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 WVN917507:WVN917519 WVN851971:WVN851983 WVN786435:WVN786447 WVN720899:WVN720911 WVN655363:WVN655375 WVN589827:WVN589839 WVN524291:WVN524303 WVN458755:WVN458767 WVN393219:WVN393231 WVN327683:WVN327695 WVN262147:WVN262159 WVN196611:WVN196623 WVN131075:WVN131087 WVN65539:WVN65551 WVN983043:WVN983055 WLR983043:WLR983055 WLR917507:WLR917519 WLR851971:WLR851983 WLR786435:WLR786447 WLR720899:WLR720911 WLR655363:WLR655375 WLR589827:WLR589839 WLR524291:WLR524303 WLR458755:WLR458767 WLR393219:WLR393231 WLR327683:WLR327695 WLR262147:WLR262159 WLR196611:WLR196623 WLR131075:WLR131087 WLR65539:WLR65551 WBV983043:WBV983055 WBV917507:WBV917519 WBV851971:WBV851983 WBV786435:WBV786447 WBV720899:WBV720911 WBV655363:WBV655375 WBV589827:WBV589839 WBV524291:WBV524303 WBV458755:WBV458767 WBV393219:WBV393231 WBV327683:WBV327695 WBV262147:WBV262159 WBV196611:WBV196623 WBV131075:WBV131087 WBV65539:WBV65551 VRZ983043:VRZ983055 VRZ917507:VRZ917519 VRZ851971:VRZ851983 VRZ786435:VRZ786447 VRZ720899:VRZ720911 VRZ655363:VRZ655375 VRZ589827:VRZ589839 VRZ524291:VRZ524303 VRZ458755:VRZ458767 VRZ393219:VRZ393231 VRZ327683:VRZ327695 VRZ262147:VRZ262159 VRZ196611:VRZ196623 VRZ131075:VRZ131087 VRZ65539:VRZ65551 VID983043:VID983055 VID917507:VID917519 VID851971:VID851983 VID786435:VID786447 VID720899:VID720911 VID655363:VID655375 VID589827:VID589839 VID524291:VID524303 VID458755:VID458767 VID393219:VID393231 VID327683:VID327695 VID262147:VID262159 VID196611:VID196623 VID131075:VID131087 VID65539:VID65551 UYH983043:UYH983055 UYH917507:UYH917519 UYH851971:UYH851983 UYH786435:UYH786447 UYH720899:UYH720911 UYH655363:UYH655375 UYH589827:UYH589839 UYH524291:UYH524303 UYH458755:UYH458767 UYH393219:UYH393231 UYH327683:UYH327695 UYH262147:UYH262159 UYH196611:UYH196623 UYH131075:UYH131087 UYH65539:UYH65551 UOL983043:UOL983055 UOL917507:UOL917519 UOL851971:UOL851983 UOL786435:UOL786447 UOL720899:UOL720911 UOL655363:UOL655375 UOL589827:UOL589839 UOL524291:UOL524303 UOL458755:UOL458767 UOL393219:UOL393231 UOL327683:UOL327695 UOL262147:UOL262159 UOL196611:UOL196623 UOL131075:UOL131087 UOL65539:UOL65551 UEP983043:UEP983055 UEP917507:UEP917519 UEP851971:UEP851983 UEP786435:UEP786447 UEP720899:UEP720911 UEP655363:UEP655375 UEP589827:UEP589839 UEP524291:UEP524303 UEP458755:UEP458767 UEP393219:UEP393231 UEP327683:UEP327695 UEP262147:UEP262159 UEP196611:UEP196623 UEP131075:UEP131087 UEP65539:UEP65551 TUT983043:TUT983055 TUT917507:TUT917519 TUT851971:TUT851983 TUT786435:TUT786447 TUT720899:TUT720911 TUT655363:TUT655375 TUT589827:TUT589839 TUT524291:TUT524303 TUT458755:TUT458767 TUT393219:TUT393231 TUT327683:TUT327695 TUT262147:TUT262159 TUT196611:TUT196623 TUT131075:TUT131087 TUT65539:TUT65551 TKX983043:TKX983055 TKX917507:TKX917519 TKX851971:TKX851983 TKX786435:TKX786447 TKX720899:TKX720911 TKX655363:TKX655375 TKX589827:TKX589839 TKX524291:TKX524303 TKX458755:TKX458767 TKX393219:TKX393231 TKX327683:TKX327695 TKX262147:TKX262159 TKX196611:TKX196623 TKX131075:TKX131087 TKX65539:TKX65551 TBB983043:TBB983055 TBB917507:TBB917519 TBB851971:TBB851983 TBB786435:TBB786447 TBB720899:TBB720911 TBB655363:TBB655375 TBB589827:TBB589839 TBB524291:TBB524303 TBB458755:TBB458767 TBB393219:TBB393231 TBB327683:TBB327695 TBB262147:TBB262159 TBB196611:TBB196623 TBB131075:TBB131087 TBB65539:TBB65551 SRF983043:SRF983055 SRF917507:SRF917519 SRF851971:SRF851983 SRF786435:SRF786447 SRF720899:SRF720911 SRF655363:SRF655375 SRF589827:SRF589839 SRF524291:SRF524303 SRF458755:SRF458767 SRF393219:SRF393231 SRF327683:SRF327695 SRF262147:SRF262159 SRF196611:SRF196623 SRF131075:SRF131087 SRF65539:SRF65551 SHJ983043:SHJ983055 SHJ917507:SHJ917519 SHJ851971:SHJ851983 SHJ786435:SHJ786447 SHJ720899:SHJ720911 SHJ655363:SHJ655375 SHJ589827:SHJ589839 SHJ524291:SHJ524303 SHJ458755:SHJ458767 SHJ393219:SHJ393231 SHJ327683:SHJ327695 SHJ262147:SHJ262159 SHJ196611:SHJ196623 SHJ131075:SHJ131087 SHJ65539:SHJ65551 RXN983043:RXN983055 RXN917507:RXN917519 RXN851971:RXN851983 RXN786435:RXN786447 RXN720899:RXN720911 RXN655363:RXN655375 RXN589827:RXN589839 RXN524291:RXN524303 RXN458755:RXN458767 RXN393219:RXN393231 RXN327683:RXN327695 RXN262147:RXN262159 RXN196611:RXN196623 RXN131075:RXN131087 RXN65539:RXN65551 RNR983043:RNR983055 RNR917507:RNR917519 RNR851971:RNR851983 RNR786435:RNR786447 RNR720899:RNR720911 RNR655363:RNR655375 RNR589827:RNR589839 RNR524291:RNR524303 RNR458755:RNR458767 RNR393219:RNR393231 RNR327683:RNR327695 RNR262147:RNR262159 RNR196611:RNR196623 RNR131075:RNR131087 RNR65539:RNR65551 RDV983043:RDV983055 RDV917507:RDV917519 RDV851971:RDV851983 RDV786435:RDV786447 RDV720899:RDV720911 RDV655363:RDV655375 RDV589827:RDV589839 RDV524291:RDV524303 RDV458755:RDV458767 RDV393219:RDV393231 RDV327683:RDV327695 RDV262147:RDV262159 RDV196611:RDV196623 RDV131075:RDV131087 RDV65539:RDV65551 QTZ983043:QTZ983055 QTZ917507:QTZ917519 QTZ851971:QTZ851983 QTZ786435:QTZ786447 QTZ720899:QTZ720911 QTZ655363:QTZ655375 QTZ589827:QTZ589839 QTZ524291:QTZ524303 QTZ458755:QTZ458767 QTZ393219:QTZ393231 QTZ327683:QTZ327695 QTZ262147:QTZ262159 QTZ196611:QTZ196623 QTZ131075:QTZ131087 QTZ65539:QTZ65551 QKD983043:QKD983055 QKD917507:QKD917519 QKD851971:QKD851983 QKD786435:QKD786447 QKD720899:QKD720911 QKD655363:QKD655375 QKD589827:QKD589839 QKD524291:QKD524303 QKD458755:QKD458767 QKD393219:QKD393231 QKD327683:QKD327695 QKD262147:QKD262159 QKD196611:QKD196623 QKD131075:QKD131087 QKD65539:QKD65551 QAH983043:QAH983055 QAH917507:QAH917519 QAH851971:QAH851983 QAH786435:QAH786447 QAH720899:QAH720911 QAH655363:QAH655375 QAH589827:QAH589839 QAH524291:QAH524303 QAH458755:QAH458767 QAH393219:QAH393231 QAH327683:QAH327695 QAH262147:QAH262159 QAH196611:QAH196623 QAH131075:QAH131087 QAH65539:QAH65551 PQL983043:PQL983055 PQL917507:PQL917519 PQL851971:PQL851983 PQL786435:PQL786447 PQL720899:PQL720911 PQL655363:PQL655375 PQL589827:PQL589839 PQL524291:PQL524303 PQL458755:PQL458767 PQL393219:PQL393231 PQL327683:PQL327695 PQL262147:PQL262159 PQL196611:PQL196623 PQL131075:PQL131087 PQL65539:PQL65551 PGP983043:PGP983055 PGP917507:PGP917519 PGP851971:PGP851983 PGP786435:PGP786447 PGP720899:PGP720911 PGP655363:PGP655375 PGP589827:PGP589839 PGP524291:PGP524303 PGP458755:PGP458767 PGP393219:PGP393231 PGP327683:PGP327695 PGP262147:PGP262159 PGP196611:PGP196623 PGP131075:PGP131087 PGP65539:PGP65551 OWT983043:OWT983055 OWT917507:OWT917519 OWT851971:OWT851983 OWT786435:OWT786447 OWT720899:OWT720911 OWT655363:OWT655375 OWT589827:OWT589839 OWT524291:OWT524303 OWT458755:OWT458767 OWT393219:OWT393231 OWT327683:OWT327695 OWT262147:OWT262159 OWT196611:OWT196623 OWT131075:OWT131087 OWT65539:OWT65551 OMX983043:OMX983055 OMX917507:OMX917519 OMX851971:OMX851983 OMX786435:OMX786447 OMX720899:OMX720911 OMX655363:OMX655375 OMX589827:OMX589839 OMX524291:OMX524303 OMX458755:OMX458767 OMX393219:OMX393231 OMX327683:OMX327695 OMX262147:OMX262159 OMX196611:OMX196623 OMX131075:OMX131087 OMX65539:OMX65551 ODB983043:ODB983055 ODB917507:ODB917519 ODB851971:ODB851983 ODB786435:ODB786447 ODB720899:ODB720911 ODB655363:ODB655375 ODB589827:ODB589839 ODB524291:ODB524303 ODB458755:ODB458767 ODB393219:ODB393231 ODB327683:ODB327695 ODB262147:ODB262159 ODB196611:ODB196623 ODB131075:ODB131087 ODB65539:ODB65551 NTF983043:NTF983055 NTF917507:NTF917519 NTF851971:NTF851983 NTF786435:NTF786447 NTF720899:NTF720911 NTF655363:NTF655375 NTF589827:NTF589839 NTF524291:NTF524303 NTF458755:NTF458767 NTF393219:NTF393231 NTF327683:NTF327695 NTF262147:NTF262159 NTF196611:NTF196623 NTF131075:NTF131087 NTF65539:NTF65551 NJJ983043:NJJ983055 NJJ917507:NJJ917519 NJJ851971:NJJ851983 NJJ786435:NJJ786447 NJJ720899:NJJ720911 NJJ655363:NJJ655375 NJJ589827:NJJ589839 NJJ524291:NJJ524303 NJJ458755:NJJ458767 NJJ393219:NJJ393231 NJJ327683:NJJ327695 NJJ262147:NJJ262159 NJJ196611:NJJ196623 NJJ131075:NJJ131087 NJJ65539:NJJ65551 MZN983043:MZN983055 MZN917507:MZN917519 MZN851971:MZN851983 MZN786435:MZN786447 MZN720899:MZN720911 MZN655363:MZN655375 MZN589827:MZN589839 MZN524291:MZN524303 MZN458755:MZN458767 MZN393219:MZN393231 MZN327683:MZN327695 MZN262147:MZN262159 MZN196611:MZN196623 MZN131075:MZN131087 MZN65539:MZN65551 MPR983043:MPR983055 MPR917507:MPR917519 MPR851971:MPR851983 MPR786435:MPR786447 MPR720899:MPR720911 MPR655363:MPR655375 MPR589827:MPR589839 MPR524291:MPR524303 MPR458755:MPR458767 MPR393219:MPR393231 MPR327683:MPR327695 MPR262147:MPR262159 MPR196611:MPR196623 MPR131075:MPR131087 MPR65539:MPR65551 MFV983043:MFV983055 MFV917507:MFV917519 MFV851971:MFV851983 MFV786435:MFV786447 MFV720899:MFV720911 MFV655363:MFV655375 MFV589827:MFV589839 MFV524291:MFV524303 MFV458755:MFV458767 MFV393219:MFV393231 MFV327683:MFV327695 MFV262147:MFV262159 MFV196611:MFV196623 MFV131075:MFV131087 MFV65539:MFV65551 LVZ983043:LVZ983055 LVZ917507:LVZ917519 LVZ851971:LVZ851983 LVZ786435:LVZ786447 LVZ720899:LVZ720911 LVZ655363:LVZ655375 LVZ589827:LVZ589839 LVZ524291:LVZ524303 LVZ458755:LVZ458767 LVZ393219:LVZ393231 LVZ327683:LVZ327695 LVZ262147:LVZ262159 LVZ196611:LVZ196623 LVZ131075:LVZ131087 LVZ65539:LVZ65551 LMD983043:LMD983055 LMD917507:LMD917519 LMD851971:LMD851983 LMD786435:LMD786447 LMD720899:LMD720911 LMD655363:LMD655375 LMD589827:LMD589839 LMD524291:LMD524303 LMD458755:LMD458767 LMD393219:LMD393231 LMD327683:LMD327695 LMD262147:LMD262159 LMD196611:LMD196623 LMD131075:LMD131087 LMD65539:LMD65551 LCH983043:LCH983055 LCH917507:LCH917519 LCH851971:LCH851983 LCH786435:LCH786447 LCH720899:LCH720911 LCH655363:LCH655375 LCH589827:LCH589839 LCH524291:LCH524303 LCH458755:LCH458767 LCH393219:LCH393231 LCH327683:LCH327695 LCH262147:LCH262159 LCH196611:LCH196623 LCH131075:LCH131087 LCH65539:LCH65551 KSL983043:KSL983055 KSL917507:KSL917519 KSL851971:KSL851983 KSL786435:KSL786447 KSL720899:KSL720911 KSL655363:KSL655375 KSL589827:KSL589839 KSL524291:KSL524303 KSL458755:KSL458767 KSL393219:KSL393231 KSL327683:KSL327695 KSL262147:KSL262159 KSL196611:KSL196623 KSL131075:KSL131087 KSL65539:KSL65551 KIP983043:KIP983055 KIP917507:KIP917519 KIP851971:KIP851983 KIP786435:KIP786447 KIP720899:KIP720911 KIP655363:KIP655375 KIP589827:KIP589839 KIP524291:KIP524303 KIP458755:KIP458767 KIP393219:KIP393231 KIP327683:KIP327695 KIP262147:KIP262159 KIP196611:KIP196623 KIP131075:KIP131087 KIP65539:KIP65551 JYT983043:JYT983055 JYT917507:JYT917519 JYT851971:JYT851983 JYT786435:JYT786447 JYT720899:JYT720911 JYT655363:JYT655375 JYT589827:JYT589839 JYT524291:JYT524303 JYT458755:JYT458767 JYT393219:JYT393231 JYT327683:JYT327695 JYT262147:JYT262159 JYT196611:JYT196623 JYT131075:JYT131087 JYT65539:JYT65551 JOX983043:JOX983055 JOX917507:JOX917519 JOX851971:JOX851983 JOX786435:JOX786447 JOX720899:JOX720911 JOX655363:JOX655375 JOX589827:JOX589839 JOX524291:JOX524303 JOX458755:JOX458767 JOX393219:JOX393231 JOX327683:JOX327695 JOX262147:JOX262159 JOX196611:JOX196623 JOX131075:JOX131087 JOX65539:JOX65551 JFB983043:JFB983055 JFB917507:JFB917519 JFB851971:JFB851983 JFB786435:JFB786447 JFB720899:JFB720911 JFB655363:JFB655375 JFB589827:JFB589839 JFB524291:JFB524303 JFB458755:JFB458767 JFB393219:JFB393231 JFB327683:JFB327695 JFB262147:JFB262159 JFB196611:JFB196623 JFB131075:JFB131087 JFB65539:JFB65551 IVF983043:IVF983055 IVF917507:IVF917519 IVF851971:IVF851983 IVF786435:IVF786447 IVF720899:IVF720911 IVF655363:IVF655375 IVF589827:IVF589839 IVF524291:IVF524303 IVF458755:IVF458767 IVF393219:IVF393231 IVF327683:IVF327695 IVF262147:IVF262159 IVF196611:IVF196623 IVF131075:IVF131087 IVF65539:IVF65551 ILJ983043:ILJ983055 ILJ917507:ILJ917519 ILJ851971:ILJ851983 ILJ786435:ILJ786447 ILJ720899:ILJ720911 ILJ655363:ILJ655375 ILJ589827:ILJ589839 ILJ524291:ILJ524303 ILJ458755:ILJ458767 ILJ393219:ILJ393231 ILJ327683:ILJ327695 ILJ262147:ILJ262159 ILJ196611:ILJ196623 ILJ131075:ILJ131087 ILJ65539:ILJ65551 IBN983043:IBN983055 IBN917507:IBN917519 IBN851971:IBN851983 IBN786435:IBN786447 IBN720899:IBN720911 IBN655363:IBN655375 IBN589827:IBN589839 IBN524291:IBN524303 IBN458755:IBN458767 IBN393219:IBN393231 IBN327683:IBN327695 IBN262147:IBN262159 IBN196611:IBN196623 IBN131075:IBN131087 IBN65539:IBN65551 HRR983043:HRR983055 HRR917507:HRR917519 HRR851971:HRR851983 HRR786435:HRR786447 HRR720899:HRR720911 HRR655363:HRR655375 HRR589827:HRR589839 HRR524291:HRR524303 HRR458755:HRR458767 HRR393219:HRR393231 HRR327683:HRR327695 HRR262147:HRR262159 HRR196611:HRR196623 HRR131075:HRR131087 HRR65539:HRR65551 HHV983043:HHV983055 HHV917507:HHV917519 HHV851971:HHV851983 HHV786435:HHV786447 HHV720899:HHV720911 HHV655363:HHV655375 HHV589827:HHV589839 HHV524291:HHV524303 HHV458755:HHV458767 HHV393219:HHV393231 HHV327683:HHV327695 HHV262147:HHV262159 HHV196611:HHV196623 HHV131075:HHV131087 HHV65539:HHV65551 GXZ983043:GXZ983055 GXZ917507:GXZ917519 GXZ851971:GXZ851983 GXZ786435:GXZ786447 GXZ720899:GXZ720911 GXZ655363:GXZ655375 GXZ589827:GXZ589839 GXZ524291:GXZ524303 GXZ458755:GXZ458767 GXZ393219:GXZ393231 GXZ327683:GXZ327695 GXZ262147:GXZ262159 GXZ196611:GXZ196623 GXZ131075:GXZ131087 GXZ65539:GXZ65551 GOD983043:GOD983055 GOD917507:GOD917519 GOD851971:GOD851983 GOD786435:GOD786447 GOD720899:GOD720911 GOD655363:GOD655375 GOD589827:GOD589839 GOD524291:GOD524303 GOD458755:GOD458767 GOD393219:GOD393231 GOD327683:GOD327695 GOD262147:GOD262159 GOD196611:GOD196623 GOD131075:GOD131087 GOD65539:GOD65551 GEH983043:GEH983055 GEH917507:GEH917519 GEH851971:GEH851983 GEH786435:GEH786447 GEH720899:GEH720911 GEH655363:GEH655375 GEH589827:GEH589839 GEH524291:GEH524303 GEH458755:GEH458767 GEH393219:GEH393231 GEH327683:GEH327695 GEH262147:GEH262159 GEH196611:GEH196623 GEH131075:GEH131087 GEH65539:GEH65551 FUL983043:FUL983055 FUL917507:FUL917519 FUL851971:FUL851983 FUL786435:FUL786447 FUL720899:FUL720911 FUL655363:FUL655375 FUL589827:FUL589839 FUL524291:FUL524303 FUL458755:FUL458767 FUL393219:FUL393231 FUL327683:FUL327695 FUL262147:FUL262159 FUL196611:FUL196623 FUL131075:FUL131087 FUL65539:FUL65551 FKP983043:FKP983055 FKP917507:FKP917519 FKP851971:FKP851983 FKP786435:FKP786447 FKP720899:FKP720911 FKP655363:FKP655375 FKP589827:FKP589839 FKP524291:FKP524303 FKP458755:FKP458767 FKP393219:FKP393231 FKP327683:FKP327695 FKP262147:FKP262159 FKP196611:FKP196623 FKP131075:FKP131087 FKP65539:FKP65551 FAT983043:FAT983055 FAT917507:FAT917519 FAT851971:FAT851983 FAT786435:FAT786447 FAT720899:FAT720911 FAT655363:FAT655375 FAT589827:FAT589839 FAT524291:FAT524303 FAT458755:FAT458767 FAT393219:FAT393231 FAT327683:FAT327695 FAT262147:FAT262159 FAT196611:FAT196623 FAT131075:FAT131087 FAT65539:FAT65551 EQX983043:EQX983055 EQX917507:EQX917519 EQX851971:EQX851983 EQX786435:EQX786447 EQX720899:EQX720911 EQX655363:EQX655375 EQX589827:EQX589839 EQX524291:EQX524303 EQX458755:EQX458767 EQX393219:EQX393231 EQX327683:EQX327695 EQX262147:EQX262159 EQX196611:EQX196623 EQX131075:EQX131087 EQX65539:EQX65551 EHB983043:EHB983055 EHB917507:EHB917519 EHB851971:EHB851983 EHB786435:EHB786447 EHB720899:EHB720911 EHB655363:EHB655375 EHB589827:EHB589839 EHB524291:EHB524303 EHB458755:EHB458767 EHB393219:EHB393231 EHB327683:EHB327695 EHB262147:EHB262159 EHB196611:EHB196623 EHB131075:EHB131087 EHB65539:EHB65551 DXF983043:DXF983055 DXF917507:DXF917519 DXF851971:DXF851983 DXF786435:DXF786447 DXF720899:DXF720911 DXF655363:DXF655375 DXF589827:DXF589839 DXF524291:DXF524303 DXF458755:DXF458767 DXF393219:DXF393231 DXF327683:DXF327695 DXF262147:DXF262159 DXF196611:DXF196623 DXF131075:DXF131087 DXF65539:DXF65551 DNJ983043:DNJ983055 DNJ917507:DNJ917519 DNJ851971:DNJ851983 DNJ786435:DNJ786447 DNJ720899:DNJ720911 DNJ655363:DNJ655375 DNJ589827:DNJ589839 DNJ524291:DNJ524303 DNJ458755:DNJ458767 DNJ393219:DNJ393231 DNJ327683:DNJ327695 DNJ262147:DNJ262159 DNJ196611:DNJ196623 DNJ131075:DNJ131087 DNJ65539:DNJ65551 DDN983043:DDN983055 DDN917507:DDN917519 DDN851971:DDN851983 DDN786435:DDN786447 DDN720899:DDN720911 DDN655363:DDN655375 DDN589827:DDN589839 DDN524291:DDN524303 DDN458755:DDN458767 DDN393219:DDN393231 DDN327683:DDN327695 DDN262147:DDN262159 DDN196611:DDN196623 DDN131075:DDN131087 DDN65539:DDN65551 CTR983043:CTR983055 CTR917507:CTR917519 CTR851971:CTR851983 CTR786435:CTR786447 CTR720899:CTR720911 CTR655363:CTR655375 CTR589827:CTR589839 CTR524291:CTR524303 CTR458755:CTR458767 CTR393219:CTR393231 CTR327683:CTR327695 CTR262147:CTR262159 CTR196611:CTR196623 CTR131075:CTR131087 CTR65539:CTR65551 CJV983043:CJV983055 CJV917507:CJV917519 CJV851971:CJV851983 CJV786435:CJV786447 CJV720899:CJV720911 CJV655363:CJV655375 CJV589827:CJV589839 CJV524291:CJV524303 CJV458755:CJV458767 CJV393219:CJV393231 CJV327683:CJV327695 CJV262147:CJV262159 CJV196611:CJV196623 CJV131075:CJV131087 CJV65539:CJV65551 BZZ983043:BZZ983055 BZZ917507:BZZ917519 BZZ851971:BZZ851983 BZZ786435:BZZ786447 BZZ720899:BZZ720911 BZZ655363:BZZ655375 BZZ589827:BZZ589839 BZZ524291:BZZ524303 BZZ458755:BZZ458767 BZZ393219:BZZ393231 BZZ327683:BZZ327695 BZZ262147:BZZ262159 BZZ196611:BZZ196623 BZZ131075:BZZ131087 BZZ65539:BZZ65551 BQD983043:BQD983055 BQD917507:BQD917519 BQD851971:BQD851983 BQD786435:BQD786447 BQD720899:BQD720911 BQD655363:BQD655375 BQD589827:BQD589839 BQD524291:BQD524303 BQD458755:BQD458767 BQD393219:BQD393231 BQD327683:BQD327695 BQD262147:BQD262159 BQD196611:BQD196623 BQD131075:BQD131087 BQD65539:BQD65551 BGH983043:BGH983055 BGH917507:BGH917519 BGH851971:BGH851983 BGH786435:BGH786447 BGH720899:BGH720911 BGH655363:BGH655375 BGH589827:BGH589839 BGH524291:BGH524303 BGH458755:BGH458767 BGH393219:BGH393231 BGH327683:BGH327695 BGH262147:BGH262159 BGH196611:BGH196623 BGH131075:BGH131087 BGH65539:BGH65551 AWL983043:AWL983055 AWL917507:AWL917519 AWL851971:AWL851983 AWL786435:AWL786447 AWL720899:AWL720911 AWL655363:AWL655375 AWL589827:AWL589839 AWL524291:AWL524303 AWL458755:AWL458767 AWL393219:AWL393231 AWL327683:AWL327695 AWL262147:AWL262159 AWL196611:AWL196623 AWL131075:AWL131087 AWL65539:AWL65551 AMP983043:AMP983055 AMP917507:AMP917519 AMP851971:AMP851983 AMP786435:AMP786447 AMP720899:AMP720911 AMP655363:AMP655375 AMP589827:AMP589839 AMP524291:AMP524303 AMP458755:AMP458767 AMP393219:AMP393231 AMP327683:AMP327695 AMP262147:AMP262159 AMP196611:AMP196623 AMP131075:AMP131087 AMP65539:AMP65551 ACT983043:ACT983055 ACT917507:ACT917519 ACT851971:ACT851983 ACT786435:ACT786447 ACT720899:ACT720911 ACT655363:ACT655375 ACT589827:ACT589839 ACT524291:ACT524303 ACT458755:ACT458767 ACT393219:ACT393231 ACT327683:ACT327695 ACT262147:ACT262159 ACT196611:ACT196623 ACT131075:ACT131087 ACT65539:ACT65551 SX983043:SX983055 SX917507:SX917519 SX851971:SX851983 SX786435:SX786447 SX720899:SX720911 SX655363:SX655375 SX589827:SX589839 SX524291:SX524303 SX458755:SX458767 SX393219:SX393231 SX327683:SX327695 SX262147:SX262159 SX196611:SX196623 SX131075:SX131087 SX65539:SX65551 JB983043:JB983055 JB917507:JB917519 JB851971:JB851983 JB786435:JB786447 JB720899:JB720911 JB655363:JB655375 JB589827:JB589839 JB524291:JB524303 JB458755:JB458767 JB393219:JB393231 JB327683:JB327695 JB262147:JB262159 JB196611:JB196623 JB131075:JB131087 JB65539:JB65551 F983043:F983055 F917507:F917519 F851971:F851983 F786435:F786447 F720899:F720911 F655363:F655375 F589827:F589839 F524291:F524303 F458755:F458767 F393219:F393231 F327683:F327695 F262147:F262159 F196611:F196623 F131075:F131087 WVN4:WVN15 F4:F15 WLR4:WLR15 WBV4:WBV15 VRZ4:VRZ15 VID4:VID15 UYH4:UYH15 UOL4:UOL15 UEP4:UEP15 TUT4:TUT15 TKX4:TKX15 TBB4:TBB15 SRF4:SRF15 SHJ4:SHJ15 RXN4:RXN15 RNR4:RNR15 RDV4:RDV15 QTZ4:QTZ15 QKD4:QKD15 QAH4:QAH15 PQL4:PQL15 PGP4:PGP15 OWT4:OWT15 OMX4:OMX15 ODB4:ODB15 NTF4:NTF15 NJJ4:NJJ15 MZN4:MZN15 MPR4:MPR15 MFV4:MFV15 LVZ4:LVZ15 LMD4:LMD15 LCH4:LCH15 KSL4:KSL15 KIP4:KIP15 JYT4:JYT15 JOX4:JOX15 JFB4:JFB15 IVF4:IVF15 ILJ4:ILJ15 IBN4:IBN15 HRR4:HRR15 HHV4:HHV15 GXZ4:GXZ15 GOD4:GOD15 GEH4:GEH15 FUL4:FUL15 FKP4:FKP15 FAT4:FAT15 EQX4:EQX15 EHB4:EHB15 DXF4:DXF15 DNJ4:DNJ15 DDN4:DDN15 CTR4:CTR15 CJV4:CJV15 BZZ4:BZZ15 BQD4:BQD15 BGH4:BGH15 AWL4:AWL15 AMP4:AMP15 ACT4:ACT15 SX4:SX15 JB4:JB15">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 I7:I9">
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 I7:I12">
       <formula1>"开发环境,测试环境,生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7561,14 +7633,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -7579,7 +7651,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -7605,7 +7677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7615,7 +7687,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7625,7 +7697,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7635,7 +7707,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7645,7 +7717,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7655,7 +7727,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7665,7 +7737,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7675,7 +7747,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7685,7 +7757,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7695,7 +7767,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7705,7 +7777,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7715,7 +7787,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7725,7 +7797,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -7735,7 +7807,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -7745,7 +7817,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -7755,7 +7827,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -7765,7 +7837,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -7775,7 +7847,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -7797,14 +7869,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="32" customWidth="1"/>
@@ -7818,20 +7890,20 @@
     <col min="10" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
@@ -7860,8 +7932,8 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25">
-      <c r="A3" s="76">
+    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="79">
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
@@ -7881,8 +7953,8 @@
       <c r="H3" s="43"/>
       <c r="I3" s="44"/>
     </row>
-    <row r="4" spans="1:9" ht="17.25">
-      <c r="A4" s="77"/>
+    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="80"/>
       <c r="B4" s="43" t="s">
         <v>96</v>
       </c>
@@ -7900,8 +7972,8 @@
       <c r="H4" s="43"/>
       <c r="I4" s="44"/>
     </row>
-    <row r="5" spans="1:9" ht="17.25">
-      <c r="A5" s="78"/>
+    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="81"/>
       <c r="B5" s="43" t="s">
         <v>97</v>
       </c>
@@ -7919,14 +7991,14 @@
       <c r="H5" s="43"/>
       <c r="I5" s="44"/>
     </row>
-    <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="71">
+    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="74">
         <v>2</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="74" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="73" t="s">
+      <c r="C6" s="76" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -7940,10 +8012,10 @@
       <c r="H6" s="37"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="72"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="75"/>
+      <c r="B7" s="75"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="35" t="s">
         <v>75</v>
       </c>
@@ -7955,10 +8027,10 @@
       <c r="H7" s="37"/>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:9" ht="16.5">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73" t="s">
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="75"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="76" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="35" t="s">
@@ -7974,10 +8046,10 @@
       <c r="H8" s="37"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5">
-      <c r="A9" s="72"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
       <c r="D9" s="35" t="s">
         <v>101</v>
       </c>
@@ -7991,10 +8063,10 @@
       <c r="H9" s="37"/>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:9" ht="16.5">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="75"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="76"/>
       <c r="D10" s="35" t="s">
         <v>102</v>
       </c>
@@ -8008,10 +8080,10 @@
       <c r="H10" s="37"/>
       <c r="I10" s="35"/>
     </row>
-    <row r="11" spans="1:9" ht="16.5">
-      <c r="A11" s="72"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="76"/>
       <c r="D11" s="35" t="s">
         <v>103</v>
       </c>
@@ -8025,10 +8097,10 @@
       <c r="H11" s="37"/>
       <c r="I11" s="35"/>
     </row>
-    <row r="12" spans="1:9" ht="16.5">
-      <c r="A12" s="72"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="75"/>
+      <c r="B12" s="75"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="35" t="s">
         <v>103</v>
       </c>
@@ -8042,7 +8114,7 @@
       <c r="H12" s="37"/>
       <c r="I12" s="35"/>
     </row>
-    <row r="13" spans="1:9" ht="16.5">
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
       <c r="C13" s="37" t="s">
@@ -8059,7 +8131,7 @@
       <c r="H13" s="37"/>
       <c r="I13" s="35"/>
     </row>
-    <row r="14" spans="1:9" ht="16.5">
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="45"/>
       <c r="B14" s="45"/>
       <c r="C14" s="37" t="s">
@@ -8076,11 +8148,11 @@
       <c r="H14" s="37"/>
       <c r="I14" s="35"/>
     </row>
-    <row r="15" spans="1:9" ht="16.5">
-      <c r="A15" s="74">
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="77">
         <v>3</v>
       </c>
-      <c r="B15" s="75" t="s">
+      <c r="B15" s="78" t="s">
         <v>79</v>
       </c>
       <c r="C15" s="40" t="s">
@@ -8099,10 +8171,10 @@
       <c r="H15" s="40"/>
       <c r="I15" s="39"/>
     </row>
-    <row r="16" spans="1:9" ht="16.5">
-      <c r="A16" s="74"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="66" t="s">
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="77"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="69" t="s">
         <v>115</v>
       </c>
       <c r="D16" s="38" t="s">
@@ -8116,10 +8188,10 @@
       <c r="H16" s="40"/>
       <c r="I16" s="39"/>
     </row>
-    <row r="17" spans="1:9" ht="16.5">
-      <c r="A17" s="74"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="67"/>
+    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="77"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="39" t="s">
         <v>81</v>
       </c>
@@ -8131,10 +8203,10 @@
       <c r="H17" s="40"/>
       <c r="I17" s="39"/>
     </row>
-    <row r="18" spans="1:9" ht="16.5">
-      <c r="A18" s="74"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="68"/>
+    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="77"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="71"/>
       <c r="D18" s="39" t="s">
         <v>93</v>
       </c>
@@ -8146,9 +8218,9 @@
       <c r="H18" s="40"/>
       <c r="I18" s="39"/>
     </row>
-    <row r="19" spans="1:9" ht="16.5">
-      <c r="A19" s="74"/>
-      <c r="B19" s="75"/>
+    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="77"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="42" t="s">
         <v>76</v>
       </c>
@@ -8165,9 +8237,9 @@
       <c r="H19" s="37"/>
       <c r="I19" s="35"/>
     </row>
-    <row r="20" spans="1:9" ht="16.5">
-      <c r="A20" s="74"/>
-      <c r="B20" s="75"/>
+    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="77"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="40" t="s">
         <v>89</v>
       </c>
@@ -8182,9 +8254,9 @@
       <c r="H20" s="40"/>
       <c r="I20" s="39"/>
     </row>
-    <row r="21" spans="1:9" ht="16.5">
-      <c r="A21" s="74"/>
-      <c r="B21" s="75"/>
+    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
       <c r="C21" s="40" t="s">
         <v>83</v>
       </c>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -812,11 +812,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>#聚有财证书文件路径
-sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>用于JYC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -860,6 +855,12 @@
 sysconfig.LAKALA_URL=https://xd.lakala.com.cn:9001//CreditLoanGateWay/apply.do
 sysconfig.LAKALA_URL_UPLOAD=http://xd.lakala.com.cn:9002//CreditLoanGateWay/imgupload.do
 sysconfig.LAKALA_KEY=5502453538673A2399F9ADE1BA849558</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传证书jfdev.cer到“ /var/lib/docker/contract/template ”路径下
+#聚有财证书文件路径
+sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -6297,7 +6298,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7449,7 +7450,7 @@
       </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -7469,22 +7470,22 @@
         <v>195</v>
       </c>
       <c r="G10" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>209</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>171</v>
       </c>
       <c r="J10" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="5"/>
     </row>
@@ -7502,13 +7503,13 @@
         <v>201</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>195</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>197</v>
@@ -7517,13 +7518,13 @@
         <v>171</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -7547,7 +7548,7 @@
         <v>195</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>197</v>
@@ -7556,13 +7557,13 @@
         <v>171</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="M12" s="5"/>
     </row>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="239">
   <si>
     <t>No</t>
   </si>
@@ -287,10 +287,6 @@
   </si>
   <si>
     <t>配置文件</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈铖</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
@@ -395,10 +391,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>架构组配置文件</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>按照格式准备sheet“需要修改的配置文件”</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -635,10 +627,6 @@
   </si>
   <si>
     <t>闪电组</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS、renter、renterPC、lts</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -861,6 +849,99 @@
     <t>上传证书jfdev.cer到“ /var/lib/docker/contract/template ”路径下
 #聚有财证书文件路径
 sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎数据变更</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎数据结构变更，需重新同步</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需针对_from 3.0.0做分流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品/业务部门验收</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品验收-聚有财</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门验收-聚有财</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品验收-品牌店铺</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门验收-品牌店铺</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈蕴睿</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈立</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙东平</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖、雷传盛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵开明、金锴</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、renter、renterPC、lts</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#memcacahe effectiveTime 
+sysconfig.memcache.brand.time=300</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于品牌展示缓存</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +1107,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1072,6 +1153,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1240,7 +1327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,117 +1452,108 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1483,6 +1561,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1840,90 +1984,90 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="60" customWidth="1"/>
-    <col min="2" max="2" width="35.375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="15" style="60" customWidth="1"/>
-    <col min="4" max="4" width="18" style="60" customWidth="1"/>
-    <col min="5" max="5" width="9.75" style="60" customWidth="1"/>
-    <col min="6" max="6" width="12.25" style="61" customWidth="1"/>
-    <col min="7" max="7" width="9.75" style="60" customWidth="1"/>
-    <col min="8" max="8" width="12.375" style="61" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="61" customWidth="1"/>
-    <col min="10" max="10" width="11.875" style="60" customWidth="1"/>
-    <col min="11" max="11" width="15.875" style="60" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="60" customWidth="1"/>
-    <col min="13" max="14" width="10" style="61" customWidth="1"/>
-    <col min="15" max="15" width="7.75" style="61" customWidth="1"/>
-    <col min="16" max="16" width="12" style="59" customWidth="1"/>
-    <col min="17" max="17" width="17" style="59" customWidth="1"/>
-    <col min="18" max="18" width="14.125" style="59" customWidth="1"/>
-    <col min="19" max="19" width="16.75" style="61" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
+    <col min="2" max="2" width="35.375" style="60" customWidth="1"/>
+    <col min="3" max="3" width="15" style="59" customWidth="1"/>
+    <col min="4" max="4" width="18" style="59" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="59" customWidth="1"/>
+    <col min="6" max="6" width="12.25" style="60" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="59" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="60" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="60" customWidth="1"/>
+    <col min="10" max="10" width="11.875" style="59" customWidth="1"/>
+    <col min="11" max="11" width="15.875" style="59" customWidth="1"/>
+    <col min="12" max="12" width="11.375" style="59" customWidth="1"/>
+    <col min="13" max="14" width="10" style="60" customWidth="1"/>
+    <col min="15" max="15" width="7.75" style="60" customWidth="1"/>
+    <col min="16" max="16" width="12" style="58" customWidth="1"/>
+    <col min="17" max="17" width="17" style="58" customWidth="1"/>
+    <col min="18" max="18" width="14.125" style="58" customWidth="1"/>
+    <col min="19" max="19" width="16.75" style="60" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="8.875" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="58"/>
+    <col min="21" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="47" customFormat="1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:20" s="46" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="46" t="s">
+      <c r="K1" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="46" t="s">
+      <c r="L1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="46" t="s">
+      <c r="M1" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="46" t="s">
+      <c r="N1" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="46" t="s">
+      <c r="O1" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="45" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1932,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>40</v>
@@ -1960,7 +2104,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="16"/>
@@ -1982,7 +2126,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -1998,10 +2142,10 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>45</v>
@@ -2084,7 +2228,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>44</v>
@@ -2110,7 +2254,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -2171,7 +2315,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17"/>
@@ -2188,13 +2332,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -2210,7 +2354,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>44</v>
@@ -2230,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -2252,10 +2396,10 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="17" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="17"/>
@@ -2278,7 +2422,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -2297,7 +2441,7 @@
         <v>58</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="17"/>
@@ -2356,13 +2500,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -2378,13 +2522,13 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>134</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>136</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="16"/>
@@ -2400,13 +2544,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>41</v>
@@ -2422,13 +2566,13 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>139</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>141</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="16"/>
@@ -2444,13 +2588,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
@@ -2466,13 +2610,13 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="16"/>
@@ -2488,7 +2632,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>40</v>
@@ -2510,13 +2654,13 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="16"/>
@@ -2532,7 +2676,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
@@ -2554,13 +2698,13 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="17" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="16"/>
@@ -2576,7 +2720,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
@@ -2598,13 +2742,13 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="17" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="16"/>
@@ -2620,13 +2764,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
@@ -2642,43 +2786,43 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="M18" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>154</v>
       </c>
       <c r="N18" s="16">
         <v>42548</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
-      <c r="S18" s="48" t="s">
-        <v>156</v>
+      <c r="S18" s="47" t="s">
+        <v>154</v>
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="50" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="49" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>157</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>159</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
@@ -2694,30 +2838,30 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>160</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>162</v>
       </c>
       <c r="N19" s="16">
         <v>42548</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S19" s="17"/>
-      <c r="T19" s="49"/>
+      <c r="T19" s="48"/>
     </row>
     <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
@@ -3072,3219 +3216,3219 @@
       <c r="T35" s="20"/>
     </row>
     <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="51"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51"/>
-      <c r="N36" s="53"/>
-      <c r="O36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="53"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="51"/>
       <c r="P36" s="23"/>
       <c r="Q36" s="23"/>
       <c r="R36" s="23"/>
-      <c r="S36" s="52"/>
+      <c r="S36" s="51"/>
       <c r="T36" s="20"/>
     </row>
     <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="51"/>
+      <c r="A37" s="50"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="51"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="51"/>
-      <c r="K37" s="51"/>
-      <c r="L37" s="51"/>
-      <c r="M37" s="51"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="50"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="53"/>
+      <c r="J37" s="50"/>
+      <c r="K37" s="50"/>
+      <c r="L37" s="50"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="52"/>
+      <c r="O37" s="51"/>
       <c r="P37" s="23"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="23"/>
-      <c r="S37" s="52"/>
+      <c r="S37" s="51"/>
       <c r="T37" s="20"/>
     </row>
     <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
-      <c r="B38" s="55"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="23"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
-      <c r="F38" s="56"/>
+      <c r="F38" s="55"/>
       <c r="G38" s="23"/>
-      <c r="H38" s="56"/>
-      <c r="I38" s="57"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="56"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="23"/>
       <c r="M38" s="23"/>
-      <c r="N38" s="56"/>
-      <c r="O38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="54"/>
       <c r="P38" s="23"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="23"/>
-      <c r="S38" s="55"/>
+      <c r="S38" s="54"/>
     </row>
     <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
-      <c r="B39" s="55"/>
+      <c r="B39" s="54"/>
       <c r="C39" s="23"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
-      <c r="F39" s="56"/>
+      <c r="F39" s="55"/>
       <c r="G39" s="23"/>
-      <c r="H39" s="56"/>
-      <c r="I39" s="57"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="56"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="23"/>
       <c r="M39" s="23"/>
-      <c r="N39" s="56"/>
-      <c r="O39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="54"/>
       <c r="P39" s="23"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23"/>
-      <c r="S39" s="55"/>
+      <c r="S39" s="54"/>
     </row>
     <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
-      <c r="B40" s="55"/>
+      <c r="B40" s="54"/>
       <c r="C40" s="23"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
-      <c r="F40" s="56"/>
+      <c r="F40" s="55"/>
       <c r="G40" s="23"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="57"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="56"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="23"/>
       <c r="M40" s="23"/>
-      <c r="N40" s="56"/>
-      <c r="O40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="54"/>
       <c r="P40" s="23"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="23"/>
-      <c r="S40" s="55"/>
+      <c r="S40" s="54"/>
     </row>
     <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
-      <c r="B41" s="55"/>
+      <c r="B41" s="54"/>
       <c r="C41" s="23"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
-      <c r="F41" s="56"/>
+      <c r="F41" s="55"/>
       <c r="G41" s="23"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="57"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="56"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
-      <c r="N41" s="56"/>
-      <c r="O41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="54"/>
       <c r="P41" s="23"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="23"/>
-      <c r="S41" s="55"/>
+      <c r="S41" s="54"/>
     </row>
     <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
-      <c r="B42" s="55"/>
+      <c r="B42" s="54"/>
       <c r="C42" s="23"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
-      <c r="F42" s="56"/>
+      <c r="F42" s="55"/>
       <c r="G42" s="23"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="57"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="56"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="54"/>
       <c r="P42" s="23"/>
       <c r="Q42" s="23"/>
       <c r="R42" s="23"/>
-      <c r="S42" s="55"/>
+      <c r="S42" s="54"/>
     </row>
     <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
-      <c r="B43" s="55"/>
+      <c r="B43" s="54"/>
       <c r="C43" s="23"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
-      <c r="F43" s="56"/>
+      <c r="F43" s="55"/>
       <c r="G43" s="23"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="57"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="56"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="54"/>
       <c r="P43" s="23"/>
       <c r="Q43" s="23"/>
       <c r="R43" s="23"/>
-      <c r="S43" s="55"/>
+      <c r="S43" s="54"/>
     </row>
     <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
-      <c r="B44" s="55"/>
+      <c r="B44" s="54"/>
       <c r="C44" s="23"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
-      <c r="F44" s="56"/>
+      <c r="F44" s="55"/>
       <c r="G44" s="23"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="57"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="56"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="54"/>
       <c r="P44" s="23"/>
       <c r="Q44" s="23"/>
       <c r="R44" s="23"/>
-      <c r="S44" s="55"/>
+      <c r="S44" s="54"/>
     </row>
     <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
-      <c r="B45" s="55"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="23"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
-      <c r="F45" s="56"/>
+      <c r="F45" s="55"/>
       <c r="G45" s="23"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="57"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="56"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="23"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="54"/>
       <c r="P45" s="23"/>
       <c r="Q45" s="23"/>
       <c r="R45" s="23"/>
-      <c r="S45" s="55"/>
+      <c r="S45" s="54"/>
     </row>
     <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
-      <c r="B46" s="55"/>
+      <c r="B46" s="54"/>
       <c r="C46" s="23"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
-      <c r="F46" s="56"/>
+      <c r="F46" s="55"/>
       <c r="G46" s="23"/>
-      <c r="H46" s="56"/>
-      <c r="I46" s="57"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="56"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="23"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="54"/>
       <c r="P46" s="23"/>
       <c r="Q46" s="23"/>
       <c r="R46" s="23"/>
-      <c r="S46" s="55"/>
+      <c r="S46" s="54"/>
     </row>
     <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
-      <c r="B47" s="55"/>
+      <c r="B47" s="54"/>
       <c r="C47" s="23"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
-      <c r="F47" s="56"/>
+      <c r="F47" s="55"/>
       <c r="G47" s="23"/>
-      <c r="H47" s="56"/>
-      <c r="I47" s="57"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="56"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="23"/>
-      <c r="N47" s="56"/>
-      <c r="O47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="54"/>
       <c r="P47" s="23"/>
       <c r="Q47" s="23"/>
       <c r="R47" s="23"/>
-      <c r="S47" s="55"/>
+      <c r="S47" s="54"/>
     </row>
     <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
-      <c r="B48" s="55"/>
+      <c r="B48" s="54"/>
       <c r="C48" s="23"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
-      <c r="F48" s="56"/>
+      <c r="F48" s="55"/>
       <c r="G48" s="23"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="57"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="56"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="23"/>
-      <c r="N48" s="56"/>
-      <c r="O48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="54"/>
       <c r="P48" s="23"/>
       <c r="Q48" s="23"/>
       <c r="R48" s="23"/>
-      <c r="S48" s="55"/>
+      <c r="S48" s="54"/>
     </row>
     <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
-      <c r="B49" s="55"/>
+      <c r="B49" s="54"/>
       <c r="C49" s="23"/>
       <c r="D49" s="15"/>
       <c r="E49" s="15"/>
-      <c r="F49" s="56"/>
+      <c r="F49" s="55"/>
       <c r="G49" s="23"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="57"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="56"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
       <c r="M49" s="23"/>
-      <c r="N49" s="56"/>
-      <c r="O49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="54"/>
       <c r="P49" s="23"/>
       <c r="Q49" s="23"/>
       <c r="R49" s="23"/>
-      <c r="S49" s="55"/>
+      <c r="S49" s="54"/>
     </row>
     <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
-      <c r="B50" s="55"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="23"/>
       <c r="D50" s="15"/>
       <c r="E50" s="15"/>
-      <c r="F50" s="56"/>
+      <c r="F50" s="55"/>
       <c r="G50" s="23"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="57"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="56"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="23"/>
       <c r="M50" s="23"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="54"/>
       <c r="P50" s="23"/>
       <c r="Q50" s="23"/>
       <c r="R50" s="23"/>
-      <c r="S50" s="55"/>
+      <c r="S50" s="54"/>
     </row>
     <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="54"/>
       <c r="C51" s="23"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="56"/>
+      <c r="F51" s="55"/>
       <c r="G51" s="23"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="57"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="56"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
       <c r="M51" s="23"/>
-      <c r="N51" s="56"/>
-      <c r="O51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="54"/>
       <c r="P51" s="23"/>
       <c r="Q51" s="23"/>
       <c r="R51" s="23"/>
-      <c r="S51" s="55"/>
+      <c r="S51" s="54"/>
     </row>
     <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
-      <c r="B52" s="55"/>
+      <c r="B52" s="54"/>
       <c r="C52" s="23"/>
       <c r="D52" s="15"/>
       <c r="E52" s="15"/>
-      <c r="F52" s="56"/>
+      <c r="F52" s="55"/>
       <c r="G52" s="23"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="57"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="56"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="23"/>
       <c r="M52" s="23"/>
-      <c r="N52" s="56"/>
-      <c r="O52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="54"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
       <c r="R52" s="23"/>
-      <c r="S52" s="55"/>
+      <c r="S52" s="54"/>
     </row>
     <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
-      <c r="B53" s="55"/>
+      <c r="B53" s="54"/>
       <c r="C53" s="23"/>
       <c r="D53" s="15"/>
       <c r="E53" s="15"/>
-      <c r="F53" s="56"/>
+      <c r="F53" s="55"/>
       <c r="G53" s="23"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="57"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="56"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
       <c r="M53" s="23"/>
-      <c r="N53" s="56"/>
-      <c r="O53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="54"/>
       <c r="P53" s="23"/>
       <c r="Q53" s="23"/>
       <c r="R53" s="23"/>
-      <c r="S53" s="55"/>
+      <c r="S53" s="54"/>
     </row>
     <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
-      <c r="B54" s="55"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="23"/>
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
-      <c r="F54" s="56"/>
+      <c r="F54" s="55"/>
       <c r="G54" s="23"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="57"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="56"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="23"/>
       <c r="M54" s="23"/>
-      <c r="N54" s="56"/>
-      <c r="O54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="54"/>
       <c r="P54" s="23"/>
       <c r="Q54" s="23"/>
       <c r="R54" s="23"/>
-      <c r="S54" s="55"/>
+      <c r="S54" s="54"/>
     </row>
     <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
-      <c r="B55" s="55"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="23"/>
       <c r="D55" s="15"/>
       <c r="E55" s="15"/>
-      <c r="F55" s="56"/>
+      <c r="F55" s="55"/>
       <c r="G55" s="23"/>
-      <c r="H55" s="56"/>
-      <c r="I55" s="57"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="56"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
       <c r="M55" s="23"/>
-      <c r="N55" s="56"/>
-      <c r="O55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="54"/>
       <c r="P55" s="23"/>
       <c r="Q55" s="23"/>
       <c r="R55" s="23"/>
-      <c r="S55" s="55"/>
+      <c r="S55" s="54"/>
     </row>
     <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
-      <c r="B56" s="55"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="23"/>
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
-      <c r="F56" s="56"/>
+      <c r="F56" s="55"/>
       <c r="G56" s="23"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="57"/>
+      <c r="H56" s="55"/>
+      <c r="I56" s="56"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="23"/>
       <c r="M56" s="23"/>
-      <c r="N56" s="56"/>
-      <c r="O56" s="55"/>
+      <c r="N56" s="55"/>
+      <c r="O56" s="54"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
       <c r="R56" s="23"/>
-      <c r="S56" s="55"/>
+      <c r="S56" s="54"/>
     </row>
     <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
-      <c r="B57" s="55"/>
+      <c r="B57" s="54"/>
       <c r="C57" s="23"/>
       <c r="D57" s="15"/>
       <c r="E57" s="15"/>
-      <c r="F57" s="56"/>
+      <c r="F57" s="55"/>
       <c r="G57" s="23"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="57"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="56"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
       <c r="M57" s="23"/>
-      <c r="N57" s="56"/>
-      <c r="O57" s="55"/>
+      <c r="N57" s="55"/>
+      <c r="O57" s="54"/>
       <c r="P57" s="23"/>
       <c r="Q57" s="23"/>
       <c r="R57" s="23"/>
-      <c r="S57" s="55"/>
+      <c r="S57" s="54"/>
     </row>
     <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
-      <c r="B58" s="55"/>
+      <c r="B58" s="54"/>
       <c r="C58" s="23"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
-      <c r="F58" s="56"/>
+      <c r="F58" s="55"/>
       <c r="G58" s="23"/>
-      <c r="H58" s="56"/>
-      <c r="I58" s="57"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="56"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="23"/>
       <c r="M58" s="23"/>
-      <c r="N58" s="56"/>
-      <c r="O58" s="55"/>
+      <c r="N58" s="55"/>
+      <c r="O58" s="54"/>
       <c r="P58" s="23"/>
       <c r="Q58" s="23"/>
       <c r="R58" s="23"/>
-      <c r="S58" s="55"/>
+      <c r="S58" s="54"/>
     </row>
     <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
-      <c r="B59" s="55"/>
+      <c r="B59" s="54"/>
       <c r="C59" s="23"/>
       <c r="D59" s="15"/>
       <c r="E59" s="15"/>
-      <c r="F59" s="56"/>
+      <c r="F59" s="55"/>
       <c r="G59" s="23"/>
-      <c r="H59" s="56"/>
-      <c r="I59" s="57"/>
+      <c r="H59" s="55"/>
+      <c r="I59" s="56"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
       <c r="M59" s="23"/>
-      <c r="N59" s="56"/>
-      <c r="O59" s="55"/>
+      <c r="N59" s="55"/>
+      <c r="O59" s="54"/>
       <c r="P59" s="23"/>
       <c r="Q59" s="23"/>
       <c r="R59" s="23"/>
-      <c r="S59" s="55"/>
+      <c r="S59" s="54"/>
     </row>
     <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
-      <c r="B60" s="55"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="23"/>
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
-      <c r="F60" s="56"/>
+      <c r="F60" s="55"/>
       <c r="G60" s="23"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="57"/>
+      <c r="H60" s="55"/>
+      <c r="I60" s="56"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
       <c r="L60" s="23"/>
       <c r="M60" s="23"/>
-      <c r="N60" s="56"/>
-      <c r="O60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="54"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
       <c r="R60" s="23"/>
-      <c r="S60" s="55"/>
+      <c r="S60" s="54"/>
     </row>
     <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
-      <c r="B61" s="55"/>
+      <c r="B61" s="54"/>
       <c r="C61" s="23"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15"/>
-      <c r="F61" s="56"/>
+      <c r="F61" s="55"/>
       <c r="G61" s="23"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="57"/>
+      <c r="H61" s="55"/>
+      <c r="I61" s="56"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
       <c r="M61" s="23"/>
-      <c r="N61" s="56"/>
-      <c r="O61" s="55"/>
+      <c r="N61" s="55"/>
+      <c r="O61" s="54"/>
       <c r="P61" s="23"/>
       <c r="Q61" s="23"/>
       <c r="R61" s="23"/>
-      <c r="S61" s="55"/>
+      <c r="S61" s="54"/>
     </row>
     <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
-      <c r="B62" s="55"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="23"/>
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
-      <c r="F62" s="56"/>
+      <c r="F62" s="55"/>
       <c r="G62" s="23"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="57"/>
+      <c r="H62" s="55"/>
+      <c r="I62" s="56"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
       <c r="L62" s="23"/>
       <c r="M62" s="23"/>
-      <c r="N62" s="56"/>
-      <c r="O62" s="55"/>
+      <c r="N62" s="55"/>
+      <c r="O62" s="54"/>
       <c r="P62" s="23"/>
       <c r="Q62" s="23"/>
       <c r="R62" s="23"/>
-      <c r="S62" s="55"/>
+      <c r="S62" s="54"/>
     </row>
     <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
-      <c r="B63" s="55"/>
+      <c r="B63" s="54"/>
       <c r="C63" s="23"/>
       <c r="D63" s="15"/>
       <c r="E63" s="15"/>
-      <c r="F63" s="56"/>
+      <c r="F63" s="55"/>
       <c r="G63" s="23"/>
-      <c r="H63" s="56"/>
-      <c r="I63" s="57"/>
+      <c r="H63" s="55"/>
+      <c r="I63" s="56"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
       <c r="M63" s="23"/>
-      <c r="N63" s="56"/>
-      <c r="O63" s="55"/>
+      <c r="N63" s="55"/>
+      <c r="O63" s="54"/>
       <c r="P63" s="23"/>
       <c r="Q63" s="23"/>
       <c r="R63" s="23"/>
-      <c r="S63" s="55"/>
+      <c r="S63" s="54"/>
     </row>
     <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
-      <c r="B64" s="55"/>
+      <c r="B64" s="54"/>
       <c r="C64" s="23"/>
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
-      <c r="F64" s="56"/>
+      <c r="F64" s="55"/>
       <c r="G64" s="23"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="57"/>
+      <c r="H64" s="55"/>
+      <c r="I64" s="56"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
       <c r="L64" s="23"/>
       <c r="M64" s="23"/>
-      <c r="N64" s="56"/>
-      <c r="O64" s="55"/>
+      <c r="N64" s="55"/>
+      <c r="O64" s="54"/>
       <c r="P64" s="23"/>
       <c r="Q64" s="23"/>
       <c r="R64" s="23"/>
-      <c r="S64" s="55"/>
+      <c r="S64" s="54"/>
     </row>
     <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
-      <c r="B65" s="55"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="23"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15"/>
-      <c r="F65" s="56"/>
+      <c r="F65" s="55"/>
       <c r="G65" s="23"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="57"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="56"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
       <c r="M65" s="23"/>
-      <c r="N65" s="56"/>
-      <c r="O65" s="55"/>
+      <c r="N65" s="55"/>
+      <c r="O65" s="54"/>
       <c r="P65" s="23"/>
       <c r="Q65" s="23"/>
       <c r="R65" s="23"/>
-      <c r="S65" s="55"/>
+      <c r="S65" s="54"/>
     </row>
     <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
-      <c r="B66" s="55"/>
+      <c r="B66" s="54"/>
       <c r="C66" s="23"/>
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
-      <c r="F66" s="56"/>
+      <c r="F66" s="55"/>
       <c r="G66" s="23"/>
-      <c r="H66" s="56"/>
-      <c r="I66" s="57"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="56"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
       <c r="L66" s="23"/>
       <c r="M66" s="23"/>
-      <c r="N66" s="56"/>
-      <c r="O66" s="55"/>
+      <c r="N66" s="55"/>
+      <c r="O66" s="54"/>
       <c r="P66" s="23"/>
       <c r="Q66" s="23"/>
       <c r="R66" s="23"/>
-      <c r="S66" s="55"/>
+      <c r="S66" s="54"/>
     </row>
     <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
-      <c r="B67" s="55"/>
+      <c r="B67" s="54"/>
       <c r="C67" s="23"/>
       <c r="D67" s="15"/>
       <c r="E67" s="15"/>
-      <c r="F67" s="56"/>
+      <c r="F67" s="55"/>
       <c r="G67" s="23"/>
-      <c r="H67" s="56"/>
-      <c r="I67" s="57"/>
+      <c r="H67" s="55"/>
+      <c r="I67" s="56"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
       <c r="M67" s="23"/>
-      <c r="N67" s="56"/>
-      <c r="O67" s="55"/>
+      <c r="N67" s="55"/>
+      <c r="O67" s="54"/>
       <c r="P67" s="23"/>
       <c r="Q67" s="23"/>
       <c r="R67" s="23"/>
-      <c r="S67" s="55"/>
+      <c r="S67" s="54"/>
     </row>
     <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
-      <c r="B68" s="55"/>
+      <c r="B68" s="54"/>
       <c r="C68" s="23"/>
       <c r="D68" s="15"/>
       <c r="E68" s="15"/>
-      <c r="F68" s="56"/>
+      <c r="F68" s="55"/>
       <c r="G68" s="23"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="57"/>
+      <c r="H68" s="55"/>
+      <c r="I68" s="56"/>
       <c r="J68" s="23"/>
       <c r="K68" s="23"/>
       <c r="L68" s="23"/>
       <c r="M68" s="23"/>
-      <c r="N68" s="56"/>
-      <c r="O68" s="55"/>
+      <c r="N68" s="55"/>
+      <c r="O68" s="54"/>
       <c r="P68" s="23"/>
       <c r="Q68" s="23"/>
       <c r="R68" s="23"/>
-      <c r="S68" s="55"/>
+      <c r="S68" s="54"/>
     </row>
     <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
-      <c r="B69" s="55"/>
+      <c r="B69" s="54"/>
       <c r="C69" s="23"/>
       <c r="D69" s="15"/>
       <c r="E69" s="15"/>
-      <c r="F69" s="56"/>
+      <c r="F69" s="55"/>
       <c r="G69" s="23"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="57"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="56"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
       <c r="M69" s="23"/>
-      <c r="N69" s="56"/>
-      <c r="O69" s="55"/>
+      <c r="N69" s="55"/>
+      <c r="O69" s="54"/>
       <c r="P69" s="23"/>
       <c r="Q69" s="23"/>
       <c r="R69" s="23"/>
-      <c r="S69" s="55"/>
+      <c r="S69" s="54"/>
     </row>
     <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
-      <c r="B70" s="55"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="23"/>
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
-      <c r="F70" s="56"/>
+      <c r="F70" s="55"/>
       <c r="G70" s="23"/>
-      <c r="H70" s="56"/>
-      <c r="I70" s="57"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="56"/>
       <c r="J70" s="23"/>
       <c r="K70" s="23"/>
       <c r="L70" s="23"/>
       <c r="M70" s="23"/>
-      <c r="N70" s="56"/>
-      <c r="O70" s="55"/>
+      <c r="N70" s="55"/>
+      <c r="O70" s="54"/>
       <c r="P70" s="23"/>
       <c r="Q70" s="23"/>
       <c r="R70" s="23"/>
-      <c r="S70" s="55"/>
+      <c r="S70" s="54"/>
     </row>
     <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
-      <c r="B71" s="55"/>
+      <c r="B71" s="54"/>
       <c r="C71" s="23"/>
       <c r="D71" s="15"/>
       <c r="E71" s="15"/>
-      <c r="F71" s="56"/>
+      <c r="F71" s="55"/>
       <c r="G71" s="23"/>
-      <c r="H71" s="56"/>
-      <c r="I71" s="57"/>
+      <c r="H71" s="55"/>
+      <c r="I71" s="56"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
       <c r="M71" s="23"/>
-      <c r="N71" s="56"/>
-      <c r="O71" s="55"/>
+      <c r="N71" s="55"/>
+      <c r="O71" s="54"/>
       <c r="P71" s="23"/>
       <c r="Q71" s="23"/>
       <c r="R71" s="23"/>
-      <c r="S71" s="55"/>
+      <c r="S71" s="54"/>
     </row>
     <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
-      <c r="B72" s="55"/>
+      <c r="B72" s="54"/>
       <c r="C72" s="23"/>
       <c r="D72" s="15"/>
       <c r="E72" s="15"/>
-      <c r="F72" s="56"/>
+      <c r="F72" s="55"/>
       <c r="G72" s="23"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="57"/>
+      <c r="H72" s="55"/>
+      <c r="I72" s="56"/>
       <c r="J72" s="23"/>
       <c r="K72" s="23"/>
       <c r="L72" s="23"/>
       <c r="M72" s="23"/>
-      <c r="N72" s="56"/>
-      <c r="O72" s="55"/>
+      <c r="N72" s="55"/>
+      <c r="O72" s="54"/>
       <c r="P72" s="23"/>
       <c r="Q72" s="23"/>
       <c r="R72" s="23"/>
-      <c r="S72" s="55"/>
+      <c r="S72" s="54"/>
     </row>
     <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
-      <c r="B73" s="55"/>
+      <c r="B73" s="54"/>
       <c r="C73" s="23"/>
       <c r="D73" s="15"/>
       <c r="E73" s="15"/>
-      <c r="F73" s="56"/>
+      <c r="F73" s="55"/>
       <c r="G73" s="23"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="57"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="56"/>
       <c r="J73" s="23"/>
       <c r="K73" s="23"/>
       <c r="L73" s="23"/>
       <c r="M73" s="23"/>
-      <c r="N73" s="56"/>
-      <c r="O73" s="55"/>
+      <c r="N73" s="55"/>
+      <c r="O73" s="54"/>
       <c r="P73" s="23"/>
       <c r="Q73" s="23"/>
       <c r="R73" s="23"/>
-      <c r="S73" s="55"/>
+      <c r="S73" s="54"/>
     </row>
     <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
-      <c r="B74" s="55"/>
+      <c r="B74" s="54"/>
       <c r="C74" s="23"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
-      <c r="F74" s="56"/>
+      <c r="F74" s="55"/>
       <c r="G74" s="23"/>
-      <c r="H74" s="56"/>
-      <c r="I74" s="57"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="56"/>
       <c r="J74" s="23"/>
       <c r="K74" s="23"/>
       <c r="L74" s="23"/>
       <c r="M74" s="23"/>
-      <c r="N74" s="56"/>
-      <c r="O74" s="55"/>
+      <c r="N74" s="55"/>
+      <c r="O74" s="54"/>
       <c r="P74" s="23"/>
       <c r="Q74" s="23"/>
       <c r="R74" s="23"/>
-      <c r="S74" s="55"/>
+      <c r="S74" s="54"/>
     </row>
     <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
-      <c r="B75" s="55"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="23"/>
       <c r="D75" s="15"/>
       <c r="E75" s="15"/>
-      <c r="F75" s="56"/>
+      <c r="F75" s="55"/>
       <c r="G75" s="23"/>
-      <c r="H75" s="56"/>
-      <c r="I75" s="57"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="56"/>
       <c r="J75" s="23"/>
       <c r="K75" s="23"/>
       <c r="L75" s="23"/>
       <c r="M75" s="23"/>
-      <c r="N75" s="56"/>
-      <c r="O75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="54"/>
       <c r="P75" s="23"/>
       <c r="Q75" s="23"/>
       <c r="R75" s="23"/>
-      <c r="S75" s="55"/>
+      <c r="S75" s="54"/>
     </row>
     <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
-      <c r="B76" s="55"/>
+      <c r="B76" s="54"/>
       <c r="C76" s="23"/>
       <c r="D76" s="15"/>
       <c r="E76" s="15"/>
-      <c r="F76" s="56"/>
+      <c r="F76" s="55"/>
       <c r="G76" s="23"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="57"/>
+      <c r="H76" s="55"/>
+      <c r="I76" s="56"/>
       <c r="J76" s="23"/>
       <c r="K76" s="23"/>
       <c r="L76" s="23"/>
       <c r="M76" s="23"/>
-      <c r="N76" s="56"/>
-      <c r="O76" s="55"/>
+      <c r="N76" s="55"/>
+      <c r="O76" s="54"/>
       <c r="P76" s="23"/>
       <c r="Q76" s="23"/>
       <c r="R76" s="23"/>
-      <c r="S76" s="55"/>
+      <c r="S76" s="54"/>
     </row>
     <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
-      <c r="B77" s="55"/>
+      <c r="B77" s="54"/>
       <c r="C77" s="23"/>
       <c r="D77" s="15"/>
       <c r="E77" s="15"/>
-      <c r="F77" s="56"/>
+      <c r="F77" s="55"/>
       <c r="G77" s="23"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="57"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="56"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
       <c r="L77" s="23"/>
       <c r="M77" s="23"/>
-      <c r="N77" s="56"/>
-      <c r="O77" s="55"/>
+      <c r="N77" s="55"/>
+      <c r="O77" s="54"/>
       <c r="P77" s="23"/>
       <c r="Q77" s="23"/>
       <c r="R77" s="23"/>
-      <c r="S77" s="55"/>
+      <c r="S77" s="54"/>
     </row>
     <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
-      <c r="B78" s="55"/>
+      <c r="B78" s="54"/>
       <c r="C78" s="23"/>
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
-      <c r="F78" s="56"/>
+      <c r="F78" s="55"/>
       <c r="G78" s="23"/>
-      <c r="H78" s="56"/>
-      <c r="I78" s="57"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="56"/>
       <c r="J78" s="23"/>
       <c r="K78" s="23"/>
       <c r="L78" s="23"/>
       <c r="M78" s="23"/>
-      <c r="N78" s="56"/>
-      <c r="O78" s="55"/>
+      <c r="N78" s="55"/>
+      <c r="O78" s="54"/>
       <c r="P78" s="23"/>
       <c r="Q78" s="23"/>
       <c r="R78" s="23"/>
-      <c r="S78" s="55"/>
+      <c r="S78" s="54"/>
     </row>
     <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
-      <c r="B79" s="55"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="23"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15"/>
-      <c r="F79" s="56"/>
+      <c r="F79" s="55"/>
       <c r="G79" s="23"/>
-      <c r="H79" s="56"/>
-      <c r="I79" s="57"/>
+      <c r="H79" s="55"/>
+      <c r="I79" s="56"/>
       <c r="J79" s="23"/>
       <c r="K79" s="23"/>
       <c r="L79" s="23"/>
       <c r="M79" s="23"/>
-      <c r="N79" s="56"/>
-      <c r="O79" s="55"/>
+      <c r="N79" s="55"/>
+      <c r="O79" s="54"/>
       <c r="P79" s="23"/>
       <c r="Q79" s="23"/>
       <c r="R79" s="23"/>
-      <c r="S79" s="55"/>
+      <c r="S79" s="54"/>
     </row>
     <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="23"/>
-      <c r="B80" s="55"/>
+      <c r="B80" s="54"/>
       <c r="C80" s="23"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="56"/>
+      <c r="F80" s="55"/>
       <c r="G80" s="23"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="57"/>
+      <c r="H80" s="55"/>
+      <c r="I80" s="56"/>
       <c r="J80" s="23"/>
       <c r="K80" s="23"/>
       <c r="L80" s="23"/>
       <c r="M80" s="23"/>
-      <c r="N80" s="56"/>
-      <c r="O80" s="55"/>
+      <c r="N80" s="55"/>
+      <c r="O80" s="54"/>
       <c r="P80" s="23"/>
       <c r="Q80" s="23"/>
       <c r="R80" s="23"/>
-      <c r="S80" s="55"/>
+      <c r="S80" s="54"/>
     </row>
     <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="23"/>
-      <c r="B81" s="55"/>
+      <c r="B81" s="54"/>
       <c r="C81" s="23"/>
       <c r="D81" s="15"/>
       <c r="E81" s="15"/>
-      <c r="F81" s="56"/>
+      <c r="F81" s="55"/>
       <c r="G81" s="23"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="57"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="56"/>
       <c r="J81" s="23"/>
       <c r="K81" s="23"/>
       <c r="L81" s="23"/>
       <c r="M81" s="23"/>
-      <c r="N81" s="56"/>
-      <c r="O81" s="55"/>
+      <c r="N81" s="55"/>
+      <c r="O81" s="54"/>
       <c r="P81" s="23"/>
       <c r="Q81" s="23"/>
       <c r="R81" s="23"/>
-      <c r="S81" s="55"/>
+      <c r="S81" s="54"/>
     </row>
     <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
-      <c r="B82" s="55"/>
+      <c r="B82" s="54"/>
       <c r="C82" s="23"/>
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
-      <c r="F82" s="56"/>
+      <c r="F82" s="55"/>
       <c r="G82" s="23"/>
-      <c r="H82" s="56"/>
-      <c r="I82" s="57"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="56"/>
       <c r="J82" s="23"/>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
       <c r="M82" s="23"/>
-      <c r="N82" s="56"/>
-      <c r="O82" s="55"/>
+      <c r="N82" s="55"/>
+      <c r="O82" s="54"/>
       <c r="P82" s="23"/>
       <c r="Q82" s="23"/>
       <c r="R82" s="23"/>
-      <c r="S82" s="55"/>
+      <c r="S82" s="54"/>
     </row>
     <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
-      <c r="B83" s="55"/>
+      <c r="B83" s="54"/>
       <c r="C83" s="23"/>
       <c r="D83" s="15"/>
       <c r="E83" s="15"/>
-      <c r="F83" s="56"/>
+      <c r="F83" s="55"/>
       <c r="G83" s="23"/>
-      <c r="H83" s="56"/>
-      <c r="I83" s="57"/>
+      <c r="H83" s="55"/>
+      <c r="I83" s="56"/>
       <c r="J83" s="23"/>
       <c r="K83" s="23"/>
       <c r="L83" s="23"/>
       <c r="M83" s="23"/>
-      <c r="N83" s="56"/>
-      <c r="O83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="54"/>
       <c r="P83" s="23"/>
       <c r="Q83" s="23"/>
       <c r="R83" s="23"/>
-      <c r="S83" s="55"/>
+      <c r="S83" s="54"/>
     </row>
     <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
-      <c r="B84" s="55"/>
+      <c r="B84" s="54"/>
       <c r="C84" s="23"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15"/>
-      <c r="F84" s="56"/>
+      <c r="F84" s="55"/>
       <c r="G84" s="23"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="57"/>
+      <c r="H84" s="55"/>
+      <c r="I84" s="56"/>
       <c r="J84" s="23"/>
       <c r="K84" s="23"/>
       <c r="L84" s="23"/>
       <c r="M84" s="23"/>
-      <c r="N84" s="56"/>
-      <c r="O84" s="55"/>
+      <c r="N84" s="55"/>
+      <c r="O84" s="54"/>
       <c r="P84" s="23"/>
       <c r="Q84" s="23"/>
       <c r="R84" s="23"/>
-      <c r="S84" s="55"/>
+      <c r="S84" s="54"/>
     </row>
     <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
-      <c r="B85" s="55"/>
+      <c r="B85" s="54"/>
       <c r="C85" s="23"/>
       <c r="D85" s="15"/>
       <c r="E85" s="15"/>
-      <c r="F85" s="56"/>
+      <c r="F85" s="55"/>
       <c r="G85" s="23"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="57"/>
+      <c r="H85" s="55"/>
+      <c r="I85" s="56"/>
       <c r="J85" s="23"/>
       <c r="K85" s="23"/>
       <c r="L85" s="23"/>
       <c r="M85" s="23"/>
-      <c r="N85" s="56"/>
-      <c r="O85" s="55"/>
+      <c r="N85" s="55"/>
+      <c r="O85" s="54"/>
       <c r="P85" s="23"/>
       <c r="Q85" s="23"/>
       <c r="R85" s="23"/>
-      <c r="S85" s="55"/>
+      <c r="S85" s="54"/>
     </row>
     <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
-      <c r="B86" s="55"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="23"/>
       <c r="D86" s="15"/>
       <c r="E86" s="15"/>
-      <c r="F86" s="56"/>
+      <c r="F86" s="55"/>
       <c r="G86" s="23"/>
-      <c r="H86" s="56"/>
-      <c r="I86" s="57"/>
+      <c r="H86" s="55"/>
+      <c r="I86" s="56"/>
       <c r="J86" s="23"/>
       <c r="K86" s="23"/>
       <c r="L86" s="23"/>
       <c r="M86" s="23"/>
-      <c r="N86" s="56"/>
-      <c r="O86" s="55"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="54"/>
       <c r="P86" s="23"/>
       <c r="Q86" s="23"/>
       <c r="R86" s="23"/>
-      <c r="S86" s="55"/>
+      <c r="S86" s="54"/>
     </row>
     <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
-      <c r="B87" s="55"/>
+      <c r="B87" s="54"/>
       <c r="C87" s="23"/>
       <c r="D87" s="15"/>
       <c r="E87" s="15"/>
-      <c r="F87" s="56"/>
+      <c r="F87" s="55"/>
       <c r="G87" s="23"/>
-      <c r="H87" s="56"/>
-      <c r="I87" s="57"/>
+      <c r="H87" s="55"/>
+      <c r="I87" s="56"/>
       <c r="J87" s="23"/>
       <c r="K87" s="23"/>
       <c r="L87" s="23"/>
       <c r="M87" s="23"/>
-      <c r="N87" s="56"/>
-      <c r="O87" s="55"/>
+      <c r="N87" s="55"/>
+      <c r="O87" s="54"/>
       <c r="P87" s="23"/>
       <c r="Q87" s="23"/>
       <c r="R87" s="23"/>
-      <c r="S87" s="55"/>
+      <c r="S87" s="54"/>
     </row>
     <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
-      <c r="B88" s="55"/>
+      <c r="B88" s="54"/>
       <c r="C88" s="23"/>
       <c r="D88" s="15"/>
       <c r="E88" s="15"/>
-      <c r="F88" s="56"/>
+      <c r="F88" s="55"/>
       <c r="G88" s="23"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="57"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="56"/>
       <c r="J88" s="23"/>
       <c r="K88" s="23"/>
       <c r="L88" s="23"/>
       <c r="M88" s="23"/>
-      <c r="N88" s="56"/>
-      <c r="O88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="54"/>
       <c r="P88" s="23"/>
       <c r="Q88" s="23"/>
       <c r="R88" s="23"/>
-      <c r="S88" s="55"/>
+      <c r="S88" s="54"/>
     </row>
     <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="23"/>
-      <c r="B89" s="55"/>
+      <c r="B89" s="54"/>
       <c r="C89" s="23"/>
       <c r="D89" s="15"/>
       <c r="E89" s="15"/>
-      <c r="F89" s="56"/>
+      <c r="F89" s="55"/>
       <c r="G89" s="23"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="57"/>
+      <c r="H89" s="55"/>
+      <c r="I89" s="56"/>
       <c r="J89" s="23"/>
       <c r="K89" s="23"/>
       <c r="L89" s="23"/>
       <c r="M89" s="23"/>
-      <c r="N89" s="56"/>
-      <c r="O89" s="55"/>
+      <c r="N89" s="55"/>
+      <c r="O89" s="54"/>
       <c r="P89" s="23"/>
       <c r="Q89" s="23"/>
       <c r="R89" s="23"/>
-      <c r="S89" s="55"/>
+      <c r="S89" s="54"/>
     </row>
     <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
-      <c r="B90" s="55"/>
+      <c r="B90" s="54"/>
       <c r="C90" s="23"/>
       <c r="D90" s="15"/>
       <c r="E90" s="15"/>
-      <c r="F90" s="56"/>
+      <c r="F90" s="55"/>
       <c r="G90" s="23"/>
-      <c r="H90" s="56"/>
-      <c r="I90" s="57"/>
+      <c r="H90" s="55"/>
+      <c r="I90" s="56"/>
       <c r="J90" s="23"/>
       <c r="K90" s="23"/>
       <c r="L90" s="23"/>
       <c r="M90" s="23"/>
-      <c r="N90" s="56"/>
-      <c r="O90" s="55"/>
+      <c r="N90" s="55"/>
+      <c r="O90" s="54"/>
       <c r="P90" s="23"/>
       <c r="Q90" s="23"/>
       <c r="R90" s="23"/>
-      <c r="S90" s="55"/>
+      <c r="S90" s="54"/>
     </row>
     <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
-      <c r="B91" s="55"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="23"/>
       <c r="D91" s="15"/>
       <c r="E91" s="15"/>
-      <c r="F91" s="56"/>
+      <c r="F91" s="55"/>
       <c r="G91" s="23"/>
-      <c r="H91" s="56"/>
-      <c r="I91" s="57"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="56"/>
       <c r="J91" s="23"/>
       <c r="K91" s="23"/>
       <c r="L91" s="23"/>
       <c r="M91" s="23"/>
-      <c r="N91" s="56"/>
-      <c r="O91" s="55"/>
+      <c r="N91" s="55"/>
+      <c r="O91" s="54"/>
       <c r="P91" s="23"/>
       <c r="Q91" s="23"/>
       <c r="R91" s="23"/>
-      <c r="S91" s="55"/>
+      <c r="S91" s="54"/>
     </row>
     <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
-      <c r="B92" s="55"/>
+      <c r="B92" s="54"/>
       <c r="C92" s="23"/>
       <c r="D92" s="15"/>
       <c r="E92" s="15"/>
-      <c r="F92" s="56"/>
+      <c r="F92" s="55"/>
       <c r="G92" s="23"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="57"/>
+      <c r="H92" s="55"/>
+      <c r="I92" s="56"/>
       <c r="J92" s="23"/>
       <c r="K92" s="23"/>
       <c r="L92" s="23"/>
       <c r="M92" s="23"/>
-      <c r="N92" s="56"/>
-      <c r="O92" s="55"/>
+      <c r="N92" s="55"/>
+      <c r="O92" s="54"/>
       <c r="P92" s="23"/>
       <c r="Q92" s="23"/>
       <c r="R92" s="23"/>
-      <c r="S92" s="55"/>
+      <c r="S92" s="54"/>
     </row>
     <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
-      <c r="B93" s="55"/>
+      <c r="B93" s="54"/>
       <c r="C93" s="23"/>
       <c r="D93" s="15"/>
       <c r="E93" s="23"/>
-      <c r="F93" s="56"/>
+      <c r="F93" s="55"/>
       <c r="G93" s="23"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="57"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="56"/>
       <c r="J93" s="23"/>
       <c r="K93" s="23"/>
       <c r="L93" s="23"/>
       <c r="M93" s="23"/>
-      <c r="N93" s="56"/>
-      <c r="O93" s="55"/>
+      <c r="N93" s="55"/>
+      <c r="O93" s="54"/>
       <c r="P93" s="23"/>
       <c r="Q93" s="23"/>
       <c r="R93" s="23"/>
-      <c r="S93" s="55"/>
+      <c r="S93" s="54"/>
     </row>
     <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
-      <c r="B94" s="55"/>
+      <c r="B94" s="54"/>
       <c r="C94" s="23"/>
       <c r="D94" s="15"/>
       <c r="E94" s="23"/>
-      <c r="F94" s="56"/>
+      <c r="F94" s="55"/>
       <c r="G94" s="23"/>
-      <c r="H94" s="56"/>
-      <c r="I94" s="57"/>
+      <c r="H94" s="55"/>
+      <c r="I94" s="56"/>
       <c r="J94" s="23"/>
       <c r="K94" s="23"/>
       <c r="L94" s="23"/>
       <c r="M94" s="23"/>
-      <c r="N94" s="56"/>
-      <c r="O94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="54"/>
       <c r="P94" s="23"/>
       <c r="Q94" s="23"/>
       <c r="R94" s="23"/>
-      <c r="S94" s="55"/>
+      <c r="S94" s="54"/>
     </row>
     <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
-      <c r="B95" s="55"/>
+      <c r="B95" s="54"/>
       <c r="C95" s="23"/>
       <c r="D95" s="15"/>
       <c r="E95" s="23"/>
-      <c r="F95" s="56"/>
+      <c r="F95" s="55"/>
       <c r="G95" s="23"/>
-      <c r="H95" s="56"/>
-      <c r="I95" s="57"/>
+      <c r="H95" s="55"/>
+      <c r="I95" s="56"/>
       <c r="J95" s="23"/>
       <c r="K95" s="23"/>
       <c r="L95" s="23"/>
       <c r="M95" s="23"/>
-      <c r="N95" s="56"/>
-      <c r="O95" s="55"/>
+      <c r="N95" s="55"/>
+      <c r="O95" s="54"/>
       <c r="P95" s="23"/>
       <c r="Q95" s="23"/>
       <c r="R95" s="23"/>
-      <c r="S95" s="55"/>
+      <c r="S95" s="54"/>
     </row>
     <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="23"/>
-      <c r="B96" s="55"/>
+      <c r="B96" s="54"/>
       <c r="C96" s="23"/>
       <c r="D96" s="15"/>
       <c r="E96" s="23"/>
-      <c r="F96" s="56"/>
+      <c r="F96" s="55"/>
       <c r="G96" s="23"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="57"/>
+      <c r="H96" s="55"/>
+      <c r="I96" s="56"/>
       <c r="J96" s="23"/>
       <c r="K96" s="23"/>
       <c r="L96" s="23"/>
       <c r="M96" s="23"/>
-      <c r="N96" s="56"/>
-      <c r="O96" s="55"/>
+      <c r="N96" s="55"/>
+      <c r="O96" s="54"/>
       <c r="P96" s="23"/>
       <c r="Q96" s="23"/>
       <c r="R96" s="23"/>
-      <c r="S96" s="55"/>
+      <c r="S96" s="54"/>
     </row>
     <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="23"/>
-      <c r="B97" s="55"/>
+      <c r="B97" s="54"/>
       <c r="C97" s="23"/>
       <c r="D97" s="15"/>
       <c r="E97" s="23"/>
-      <c r="F97" s="56"/>
+      <c r="F97" s="55"/>
       <c r="G97" s="23"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="57"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="56"/>
       <c r="J97" s="23"/>
       <c r="K97" s="23"/>
       <c r="L97" s="23"/>
       <c r="M97" s="23"/>
-      <c r="N97" s="56"/>
-      <c r="O97" s="55"/>
+      <c r="N97" s="55"/>
+      <c r="O97" s="54"/>
       <c r="P97" s="23"/>
       <c r="Q97" s="23"/>
       <c r="R97" s="23"/>
-      <c r="S97" s="55"/>
+      <c r="S97" s="54"/>
     </row>
     <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
-      <c r="B98" s="55"/>
+      <c r="B98" s="54"/>
       <c r="C98" s="23"/>
       <c r="D98" s="15"/>
       <c r="E98" s="23"/>
-      <c r="F98" s="56"/>
+      <c r="F98" s="55"/>
       <c r="G98" s="23"/>
-      <c r="H98" s="56"/>
-      <c r="I98" s="57"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="56"/>
       <c r="J98" s="23"/>
       <c r="K98" s="23"/>
       <c r="L98" s="23"/>
       <c r="M98" s="23"/>
-      <c r="N98" s="56"/>
-      <c r="O98" s="55"/>
+      <c r="N98" s="55"/>
+      <c r="O98" s="54"/>
       <c r="P98" s="23"/>
       <c r="Q98" s="23"/>
       <c r="R98" s="23"/>
-      <c r="S98" s="55"/>
+      <c r="S98" s="54"/>
     </row>
     <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
-      <c r="B99" s="55"/>
+      <c r="B99" s="54"/>
       <c r="C99" s="23"/>
       <c r="D99" s="23"/>
       <c r="E99" s="23"/>
-      <c r="F99" s="56"/>
+      <c r="F99" s="55"/>
       <c r="G99" s="23"/>
-      <c r="H99" s="56"/>
-      <c r="I99" s="57"/>
+      <c r="H99" s="55"/>
+      <c r="I99" s="56"/>
       <c r="J99" s="23"/>
       <c r="K99" s="23"/>
       <c r="L99" s="23"/>
       <c r="M99" s="23"/>
-      <c r="N99" s="56"/>
-      <c r="O99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="54"/>
       <c r="P99" s="23"/>
       <c r="Q99" s="23"/>
       <c r="R99" s="23"/>
-      <c r="S99" s="55"/>
+      <c r="S99" s="54"/>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
-      <c r="B100" s="55"/>
+      <c r="B100" s="54"/>
       <c r="C100" s="23"/>
       <c r="D100" s="23"/>
       <c r="E100" s="23"/>
-      <c r="F100" s="56"/>
+      <c r="F100" s="55"/>
       <c r="G100" s="23"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="57"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="56"/>
       <c r="J100" s="23"/>
       <c r="K100" s="23"/>
       <c r="L100" s="23"/>
       <c r="M100" s="23"/>
-      <c r="N100" s="56"/>
-      <c r="O100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="54"/>
       <c r="P100" s="23"/>
       <c r="Q100" s="23"/>
       <c r="R100" s="23"/>
-      <c r="S100" s="55"/>
+      <c r="S100" s="54"/>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
-      <c r="B101" s="55"/>
+      <c r="B101" s="54"/>
       <c r="C101" s="23"/>
       <c r="D101" s="23"/>
       <c r="E101" s="23"/>
-      <c r="F101" s="56"/>
+      <c r="F101" s="55"/>
       <c r="G101" s="23"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="57"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="56"/>
       <c r="J101" s="23"/>
       <c r="K101" s="23"/>
       <c r="L101" s="23"/>
       <c r="M101" s="23"/>
-      <c r="N101" s="56"/>
-      <c r="O101" s="55"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="54"/>
       <c r="P101" s="23"/>
       <c r="Q101" s="23"/>
       <c r="R101" s="23"/>
-      <c r="S101" s="55"/>
+      <c r="S101" s="54"/>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
-      <c r="B102" s="55"/>
+      <c r="B102" s="54"/>
       <c r="C102" s="23"/>
       <c r="D102" s="23"/>
       <c r="E102" s="23"/>
-      <c r="F102" s="56"/>
+      <c r="F102" s="55"/>
       <c r="G102" s="23"/>
-      <c r="H102" s="56"/>
-      <c r="I102" s="57"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="56"/>
       <c r="J102" s="23"/>
       <c r="K102" s="23"/>
       <c r="L102" s="23"/>
       <c r="M102" s="23"/>
-      <c r="N102" s="56"/>
-      <c r="O102" s="55"/>
+      <c r="N102" s="55"/>
+      <c r="O102" s="54"/>
       <c r="P102" s="23"/>
       <c r="Q102" s="23"/>
       <c r="R102" s="23"/>
-      <c r="S102" s="55"/>
+      <c r="S102" s="54"/>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
-      <c r="B103" s="55"/>
+      <c r="B103" s="54"/>
       <c r="C103" s="23"/>
       <c r="D103" s="23"/>
       <c r="E103" s="23"/>
-      <c r="F103" s="56"/>
+      <c r="F103" s="55"/>
       <c r="G103" s="23"/>
-      <c r="H103" s="56"/>
-      <c r="I103" s="57"/>
+      <c r="H103" s="55"/>
+      <c r="I103" s="56"/>
       <c r="J103" s="23"/>
       <c r="K103" s="23"/>
       <c r="L103" s="23"/>
       <c r="M103" s="23"/>
-      <c r="N103" s="56"/>
-      <c r="O103" s="55"/>
+      <c r="N103" s="55"/>
+      <c r="O103" s="54"/>
       <c r="P103" s="23"/>
       <c r="Q103" s="23"/>
       <c r="R103" s="23"/>
-      <c r="S103" s="55"/>
+      <c r="S103" s="54"/>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="23"/>
-      <c r="B104" s="55"/>
+      <c r="B104" s="54"/>
       <c r="C104" s="23"/>
       <c r="D104" s="23"/>
       <c r="E104" s="23"/>
-      <c r="F104" s="56"/>
+      <c r="F104" s="55"/>
       <c r="G104" s="23"/>
-      <c r="H104" s="56"/>
-      <c r="I104" s="57"/>
+      <c r="H104" s="55"/>
+      <c r="I104" s="56"/>
       <c r="J104" s="23"/>
       <c r="K104" s="23"/>
       <c r="L104" s="23"/>
       <c r="M104" s="23"/>
-      <c r="N104" s="56"/>
-      <c r="O104" s="55"/>
+      <c r="N104" s="55"/>
+      <c r="O104" s="54"/>
       <c r="P104" s="23"/>
       <c r="Q104" s="23"/>
       <c r="R104" s="23"/>
-      <c r="S104" s="55"/>
+      <c r="S104" s="54"/>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="23"/>
-      <c r="B105" s="55"/>
+      <c r="B105" s="54"/>
       <c r="C105" s="23"/>
       <c r="D105" s="23"/>
       <c r="E105" s="23"/>
-      <c r="F105" s="56"/>
+      <c r="F105" s="55"/>
       <c r="G105" s="23"/>
-      <c r="H105" s="56"/>
-      <c r="I105" s="57"/>
+      <c r="H105" s="55"/>
+      <c r="I105" s="56"/>
       <c r="J105" s="23"/>
       <c r="K105" s="23"/>
       <c r="L105" s="23"/>
       <c r="M105" s="23"/>
-      <c r="N105" s="56"/>
-      <c r="O105" s="55"/>
+      <c r="N105" s="55"/>
+      <c r="O105" s="54"/>
       <c r="P105" s="23"/>
       <c r="Q105" s="23"/>
       <c r="R105" s="23"/>
-      <c r="S105" s="55"/>
+      <c r="S105" s="54"/>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
-      <c r="B106" s="55"/>
+      <c r="B106" s="54"/>
       <c r="C106" s="23"/>
       <c r="D106" s="23"/>
       <c r="E106" s="23"/>
-      <c r="F106" s="56"/>
+      <c r="F106" s="55"/>
       <c r="G106" s="23"/>
-      <c r="H106" s="56"/>
-      <c r="I106" s="57"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="56"/>
       <c r="J106" s="23"/>
       <c r="K106" s="23"/>
       <c r="L106" s="23"/>
       <c r="M106" s="23"/>
-      <c r="N106" s="56"/>
-      <c r="O106" s="55"/>
+      <c r="N106" s="55"/>
+      <c r="O106" s="54"/>
       <c r="P106" s="23"/>
       <c r="Q106" s="23"/>
       <c r="R106" s="23"/>
-      <c r="S106" s="55"/>
+      <c r="S106" s="54"/>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
-      <c r="B107" s="55"/>
+      <c r="B107" s="54"/>
       <c r="C107" s="23"/>
       <c r="D107" s="23"/>
       <c r="E107" s="23"/>
-      <c r="F107" s="56"/>
+      <c r="F107" s="55"/>
       <c r="G107" s="23"/>
-      <c r="H107" s="56"/>
-      <c r="I107" s="57"/>
+      <c r="H107" s="55"/>
+      <c r="I107" s="56"/>
       <c r="J107" s="23"/>
       <c r="K107" s="23"/>
       <c r="L107" s="23"/>
       <c r="M107" s="23"/>
-      <c r="N107" s="56"/>
-      <c r="O107" s="55"/>
+      <c r="N107" s="55"/>
+      <c r="O107" s="54"/>
       <c r="P107" s="23"/>
       <c r="Q107" s="23"/>
       <c r="R107" s="23"/>
-      <c r="S107" s="55"/>
+      <c r="S107" s="54"/>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
-      <c r="B108" s="55"/>
+      <c r="B108" s="54"/>
       <c r="C108" s="23"/>
       <c r="D108" s="23"/>
       <c r="E108" s="23"/>
-      <c r="F108" s="56"/>
+      <c r="F108" s="55"/>
       <c r="G108" s="23"/>
-      <c r="H108" s="56"/>
-      <c r="I108" s="57"/>
+      <c r="H108" s="55"/>
+      <c r="I108" s="56"/>
       <c r="J108" s="23"/>
       <c r="K108" s="23"/>
       <c r="L108" s="23"/>
       <c r="M108" s="23"/>
-      <c r="N108" s="56"/>
-      <c r="O108" s="55"/>
+      <c r="N108" s="55"/>
+      <c r="O108" s="54"/>
       <c r="P108" s="23"/>
       <c r="Q108" s="23"/>
       <c r="R108" s="23"/>
-      <c r="S108" s="55"/>
+      <c r="S108" s="54"/>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
-      <c r="B109" s="55"/>
+      <c r="B109" s="54"/>
       <c r="C109" s="23"/>
       <c r="D109" s="23"/>
       <c r="E109" s="23"/>
-      <c r="F109" s="56"/>
+      <c r="F109" s="55"/>
       <c r="G109" s="23"/>
-      <c r="H109" s="56"/>
-      <c r="I109" s="57"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="56"/>
       <c r="J109" s="23"/>
       <c r="K109" s="23"/>
       <c r="L109" s="23"/>
       <c r="M109" s="23"/>
-      <c r="N109" s="56"/>
-      <c r="O109" s="55"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="54"/>
       <c r="P109" s="23"/>
       <c r="Q109" s="23"/>
       <c r="R109" s="23"/>
-      <c r="S109" s="55"/>
+      <c r="S109" s="54"/>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
-      <c r="B110" s="55"/>
+      <c r="B110" s="54"/>
       <c r="C110" s="23"/>
       <c r="D110" s="23"/>
       <c r="E110" s="23"/>
-      <c r="F110" s="56"/>
+      <c r="F110" s="55"/>
       <c r="G110" s="23"/>
-      <c r="H110" s="56"/>
-      <c r="I110" s="57"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="56"/>
       <c r="J110" s="23"/>
       <c r="K110" s="23"/>
       <c r="L110" s="23"/>
       <c r="M110" s="23"/>
-      <c r="N110" s="56"/>
-      <c r="O110" s="55"/>
+      <c r="N110" s="55"/>
+      <c r="O110" s="54"/>
       <c r="P110" s="23"/>
       <c r="Q110" s="23"/>
       <c r="R110" s="23"/>
-      <c r="S110" s="55"/>
+      <c r="S110" s="54"/>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
-      <c r="B111" s="55"/>
+      <c r="B111" s="54"/>
       <c r="C111" s="23"/>
       <c r="D111" s="23"/>
       <c r="E111" s="23"/>
-      <c r="F111" s="56"/>
+      <c r="F111" s="55"/>
       <c r="G111" s="23"/>
-      <c r="H111" s="56"/>
-      <c r="I111" s="57"/>
+      <c r="H111" s="55"/>
+      <c r="I111" s="56"/>
       <c r="J111" s="23"/>
       <c r="K111" s="23"/>
       <c r="L111" s="23"/>
       <c r="M111" s="23"/>
-      <c r="N111" s="56"/>
-      <c r="O111" s="55"/>
+      <c r="N111" s="55"/>
+      <c r="O111" s="54"/>
       <c r="P111" s="23"/>
       <c r="Q111" s="23"/>
       <c r="R111" s="23"/>
-      <c r="S111" s="55"/>
+      <c r="S111" s="54"/>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="23"/>
-      <c r="B112" s="55"/>
+      <c r="B112" s="54"/>
       <c r="C112" s="23"/>
       <c r="D112" s="23"/>
       <c r="E112" s="23"/>
-      <c r="F112" s="56"/>
+      <c r="F112" s="55"/>
       <c r="G112" s="23"/>
-      <c r="H112" s="56"/>
-      <c r="I112" s="57"/>
+      <c r="H112" s="55"/>
+      <c r="I112" s="56"/>
       <c r="J112" s="23"/>
       <c r="K112" s="23"/>
       <c r="L112" s="23"/>
       <c r="M112" s="23"/>
-      <c r="N112" s="56"/>
-      <c r="O112" s="55"/>
+      <c r="N112" s="55"/>
+      <c r="O112" s="54"/>
       <c r="P112" s="23"/>
       <c r="Q112" s="23"/>
       <c r="R112" s="23"/>
-      <c r="S112" s="55"/>
+      <c r="S112" s="54"/>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
-      <c r="B113" s="55"/>
+      <c r="B113" s="54"/>
       <c r="C113" s="23"/>
       <c r="D113" s="23"/>
       <c r="E113" s="23"/>
-      <c r="F113" s="56"/>
+      <c r="F113" s="55"/>
       <c r="G113" s="23"/>
-      <c r="H113" s="56"/>
-      <c r="I113" s="57"/>
+      <c r="H113" s="55"/>
+      <c r="I113" s="56"/>
       <c r="J113" s="23"/>
       <c r="K113" s="23"/>
       <c r="L113" s="23"/>
       <c r="M113" s="23"/>
-      <c r="N113" s="56"/>
-      <c r="O113" s="55"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="54"/>
       <c r="P113" s="23"/>
       <c r="Q113" s="23"/>
       <c r="R113" s="23"/>
-      <c r="S113" s="55"/>
+      <c r="S113" s="54"/>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
-      <c r="B114" s="55"/>
+      <c r="B114" s="54"/>
       <c r="C114" s="23"/>
       <c r="D114" s="23"/>
       <c r="E114" s="23"/>
-      <c r="F114" s="56"/>
+      <c r="F114" s="55"/>
       <c r="G114" s="23"/>
-      <c r="H114" s="56"/>
-      <c r="I114" s="57"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="56"/>
       <c r="J114" s="23"/>
       <c r="K114" s="23"/>
       <c r="L114" s="23"/>
       <c r="M114" s="23"/>
-      <c r="N114" s="56"/>
-      <c r="O114" s="55"/>
+      <c r="N114" s="55"/>
+      <c r="O114" s="54"/>
       <c r="P114" s="23"/>
       <c r="Q114" s="23"/>
       <c r="R114" s="23"/>
-      <c r="S114" s="55"/>
+      <c r="S114" s="54"/>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
-      <c r="B115" s="55"/>
+      <c r="B115" s="54"/>
       <c r="C115" s="23"/>
       <c r="D115" s="23"/>
       <c r="E115" s="23"/>
-      <c r="F115" s="56"/>
+      <c r="F115" s="55"/>
       <c r="G115" s="23"/>
-      <c r="H115" s="56"/>
-      <c r="I115" s="57"/>
+      <c r="H115" s="55"/>
+      <c r="I115" s="56"/>
       <c r="J115" s="23"/>
       <c r="K115" s="23"/>
       <c r="L115" s="23"/>
       <c r="M115" s="23"/>
-      <c r="N115" s="56"/>
-      <c r="O115" s="55"/>
+      <c r="N115" s="55"/>
+      <c r="O115" s="54"/>
       <c r="P115" s="23"/>
       <c r="Q115" s="23"/>
       <c r="R115" s="23"/>
-      <c r="S115" s="55"/>
+      <c r="S115" s="54"/>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
-      <c r="B116" s="55"/>
+      <c r="B116" s="54"/>
       <c r="C116" s="23"/>
       <c r="D116" s="23"/>
       <c r="E116" s="23"/>
-      <c r="F116" s="56"/>
+      <c r="F116" s="55"/>
       <c r="G116" s="23"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="57"/>
+      <c r="H116" s="55"/>
+      <c r="I116" s="56"/>
       <c r="J116" s="23"/>
       <c r="K116" s="23"/>
       <c r="L116" s="23"/>
       <c r="M116" s="23"/>
-      <c r="N116" s="56"/>
-      <c r="O116" s="55"/>
+      <c r="N116" s="55"/>
+      <c r="O116" s="54"/>
       <c r="P116" s="23"/>
       <c r="Q116" s="23"/>
       <c r="R116" s="23"/>
-      <c r="S116" s="55"/>
+      <c r="S116" s="54"/>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
-      <c r="B117" s="55"/>
+      <c r="B117" s="54"/>
       <c r="C117" s="23"/>
       <c r="D117" s="23"/>
       <c r="E117" s="23"/>
-      <c r="F117" s="56"/>
+      <c r="F117" s="55"/>
       <c r="G117" s="23"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="57"/>
+      <c r="H117" s="55"/>
+      <c r="I117" s="56"/>
       <c r="J117" s="23"/>
       <c r="K117" s="23"/>
       <c r="L117" s="23"/>
       <c r="M117" s="23"/>
-      <c r="N117" s="56"/>
-      <c r="O117" s="55"/>
+      <c r="N117" s="55"/>
+      <c r="O117" s="54"/>
       <c r="P117" s="23"/>
       <c r="Q117" s="23"/>
       <c r="R117" s="23"/>
-      <c r="S117" s="55"/>
+      <c r="S117" s="54"/>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
-      <c r="B118" s="55"/>
+      <c r="B118" s="54"/>
       <c r="C118" s="23"/>
       <c r="D118" s="23"/>
       <c r="E118" s="23"/>
-      <c r="F118" s="56"/>
+      <c r="F118" s="55"/>
       <c r="G118" s="23"/>
-      <c r="H118" s="56"/>
-      <c r="I118" s="57"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="56"/>
       <c r="J118" s="23"/>
       <c r="K118" s="23"/>
       <c r="L118" s="23"/>
       <c r="M118" s="23"/>
-      <c r="N118" s="56"/>
-      <c r="O118" s="55"/>
+      <c r="N118" s="55"/>
+      <c r="O118" s="54"/>
       <c r="P118" s="23"/>
       <c r="Q118" s="23"/>
       <c r="R118" s="23"/>
-      <c r="S118" s="55"/>
+      <c r="S118" s="54"/>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
-      <c r="B119" s="55"/>
+      <c r="B119" s="54"/>
       <c r="C119" s="23"/>
       <c r="D119" s="23"/>
       <c r="E119" s="23"/>
-      <c r="F119" s="56"/>
+      <c r="F119" s="55"/>
       <c r="G119" s="23"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="57"/>
+      <c r="H119" s="55"/>
+      <c r="I119" s="56"/>
       <c r="J119" s="23"/>
       <c r="K119" s="23"/>
       <c r="L119" s="23"/>
       <c r="M119" s="23"/>
-      <c r="N119" s="56"/>
-      <c r="O119" s="55"/>
+      <c r="N119" s="55"/>
+      <c r="O119" s="54"/>
       <c r="P119" s="23"/>
       <c r="Q119" s="23"/>
       <c r="R119" s="23"/>
-      <c r="S119" s="55"/>
+      <c r="S119" s="54"/>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
-      <c r="B120" s="55"/>
+      <c r="B120" s="54"/>
       <c r="C120" s="23"/>
       <c r="D120" s="23"/>
       <c r="E120" s="23"/>
-      <c r="F120" s="56"/>
+      <c r="F120" s="55"/>
       <c r="G120" s="23"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="57"/>
+      <c r="H120" s="55"/>
+      <c r="I120" s="56"/>
       <c r="J120" s="23"/>
       <c r="K120" s="23"/>
       <c r="L120" s="23"/>
       <c r="M120" s="23"/>
-      <c r="N120" s="56"/>
-      <c r="O120" s="55"/>
+      <c r="N120" s="55"/>
+      <c r="O120" s="54"/>
       <c r="P120" s="23"/>
       <c r="Q120" s="23"/>
       <c r="R120" s="23"/>
-      <c r="S120" s="55"/>
+      <c r="S120" s="54"/>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="23"/>
-      <c r="B121" s="55"/>
+      <c r="B121" s="54"/>
       <c r="C121" s="23"/>
       <c r="D121" s="23"/>
       <c r="E121" s="23"/>
-      <c r="F121" s="56"/>
+      <c r="F121" s="55"/>
       <c r="G121" s="23"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="57"/>
+      <c r="H121" s="55"/>
+      <c r="I121" s="56"/>
       <c r="J121" s="23"/>
       <c r="K121" s="23"/>
       <c r="L121" s="23"/>
       <c r="M121" s="23"/>
-      <c r="N121" s="56"/>
-      <c r="O121" s="55"/>
+      <c r="N121" s="55"/>
+      <c r="O121" s="54"/>
       <c r="P121" s="23"/>
       <c r="Q121" s="23"/>
       <c r="R121" s="23"/>
-      <c r="S121" s="55"/>
+      <c r="S121" s="54"/>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
-      <c r="B122" s="55"/>
+      <c r="B122" s="54"/>
       <c r="C122" s="23"/>
       <c r="D122" s="23"/>
       <c r="E122" s="23"/>
-      <c r="F122" s="56"/>
+      <c r="F122" s="55"/>
       <c r="G122" s="23"/>
-      <c r="H122" s="56"/>
-      <c r="I122" s="57"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="56"/>
       <c r="J122" s="23"/>
       <c r="K122" s="23"/>
       <c r="L122" s="23"/>
       <c r="M122" s="23"/>
-      <c r="N122" s="56"/>
-      <c r="O122" s="55"/>
+      <c r="N122" s="55"/>
+      <c r="O122" s="54"/>
       <c r="P122" s="23"/>
       <c r="Q122" s="23"/>
       <c r="R122" s="23"/>
-      <c r="S122" s="55"/>
+      <c r="S122" s="54"/>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
-      <c r="B123" s="55"/>
+      <c r="B123" s="54"/>
       <c r="C123" s="23"/>
       <c r="D123" s="23"/>
       <c r="E123" s="23"/>
-      <c r="F123" s="56"/>
+      <c r="F123" s="55"/>
       <c r="G123" s="23"/>
-      <c r="H123" s="56"/>
-      <c r="I123" s="57"/>
+      <c r="H123" s="55"/>
+      <c r="I123" s="56"/>
       <c r="J123" s="23"/>
       <c r="K123" s="23"/>
       <c r="L123" s="23"/>
       <c r="M123" s="23"/>
-      <c r="N123" s="56"/>
-      <c r="O123" s="55"/>
+      <c r="N123" s="55"/>
+      <c r="O123" s="54"/>
       <c r="P123" s="23"/>
       <c r="Q123" s="23"/>
       <c r="R123" s="23"/>
-      <c r="S123" s="55"/>
+      <c r="S123" s="54"/>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
-      <c r="B124" s="55"/>
+      <c r="B124" s="54"/>
       <c r="C124" s="23"/>
       <c r="D124" s="23"/>
       <c r="E124" s="23"/>
-      <c r="F124" s="56"/>
+      <c r="F124" s="55"/>
       <c r="G124" s="23"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="57"/>
+      <c r="H124" s="55"/>
+      <c r="I124" s="56"/>
       <c r="J124" s="23"/>
       <c r="K124" s="23"/>
       <c r="L124" s="23"/>
       <c r="M124" s="23"/>
-      <c r="N124" s="56"/>
-      <c r="O124" s="55"/>
+      <c r="N124" s="55"/>
+      <c r="O124" s="54"/>
       <c r="P124" s="23"/>
       <c r="Q124" s="23"/>
       <c r="R124" s="23"/>
-      <c r="S124" s="55"/>
+      <c r="S124" s="54"/>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
-      <c r="B125" s="55"/>
+      <c r="B125" s="54"/>
       <c r="C125" s="23"/>
       <c r="D125" s="23"/>
       <c r="E125" s="23"/>
-      <c r="F125" s="56"/>
+      <c r="F125" s="55"/>
       <c r="G125" s="23"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="57"/>
+      <c r="H125" s="55"/>
+      <c r="I125" s="56"/>
       <c r="J125" s="23"/>
       <c r="K125" s="23"/>
       <c r="L125" s="23"/>
       <c r="M125" s="23"/>
-      <c r="N125" s="56"/>
-      <c r="O125" s="55"/>
+      <c r="N125" s="55"/>
+      <c r="O125" s="54"/>
       <c r="P125" s="23"/>
       <c r="Q125" s="23"/>
       <c r="R125" s="23"/>
-      <c r="S125" s="55"/>
+      <c r="S125" s="54"/>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
-      <c r="B126" s="55"/>
+      <c r="B126" s="54"/>
       <c r="C126" s="23"/>
       <c r="D126" s="23"/>
       <c r="E126" s="23"/>
-      <c r="F126" s="56"/>
+      <c r="F126" s="55"/>
       <c r="G126" s="23"/>
-      <c r="H126" s="56"/>
-      <c r="I126" s="57"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="56"/>
       <c r="J126" s="23"/>
       <c r="K126" s="23"/>
       <c r="L126" s="23"/>
       <c r="M126" s="23"/>
-      <c r="N126" s="56"/>
-      <c r="O126" s="55"/>
+      <c r="N126" s="55"/>
+      <c r="O126" s="54"/>
       <c r="P126" s="23"/>
       <c r="Q126" s="23"/>
       <c r="R126" s="23"/>
-      <c r="S126" s="55"/>
+      <c r="S126" s="54"/>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
-      <c r="B127" s="55"/>
+      <c r="B127" s="54"/>
       <c r="C127" s="23"/>
       <c r="D127" s="23"/>
       <c r="E127" s="23"/>
-      <c r="F127" s="56"/>
+      <c r="F127" s="55"/>
       <c r="G127" s="23"/>
-      <c r="H127" s="56"/>
-      <c r="I127" s="57"/>
+      <c r="H127" s="55"/>
+      <c r="I127" s="56"/>
       <c r="J127" s="23"/>
       <c r="K127" s="23"/>
       <c r="L127" s="23"/>
       <c r="M127" s="23"/>
-      <c r="N127" s="56"/>
-      <c r="O127" s="55"/>
+      <c r="N127" s="55"/>
+      <c r="O127" s="54"/>
       <c r="P127" s="23"/>
       <c r="Q127" s="23"/>
       <c r="R127" s="23"/>
-      <c r="S127" s="55"/>
+      <c r="S127" s="54"/>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
-      <c r="B128" s="55"/>
+      <c r="B128" s="54"/>
       <c r="C128" s="23"/>
       <c r="D128" s="23"/>
       <c r="E128" s="23"/>
-      <c r="F128" s="56"/>
+      <c r="F128" s="55"/>
       <c r="G128" s="23"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="57"/>
+      <c r="H128" s="55"/>
+      <c r="I128" s="56"/>
       <c r="J128" s="23"/>
       <c r="K128" s="23"/>
       <c r="L128" s="23"/>
       <c r="M128" s="23"/>
-      <c r="N128" s="56"/>
-      <c r="O128" s="55"/>
+      <c r="N128" s="55"/>
+      <c r="O128" s="54"/>
       <c r="P128" s="23"/>
       <c r="Q128" s="23"/>
       <c r="R128" s="23"/>
-      <c r="S128" s="55"/>
+      <c r="S128" s="54"/>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
-      <c r="B129" s="55"/>
+      <c r="B129" s="54"/>
       <c r="C129" s="23"/>
       <c r="D129" s="23"/>
       <c r="E129" s="23"/>
-      <c r="F129" s="56"/>
+      <c r="F129" s="55"/>
       <c r="G129" s="23"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="57"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="56"/>
       <c r="J129" s="23"/>
       <c r="K129" s="23"/>
       <c r="L129" s="23"/>
       <c r="M129" s="23"/>
-      <c r="N129" s="56"/>
-      <c r="O129" s="55"/>
+      <c r="N129" s="55"/>
+      <c r="O129" s="54"/>
       <c r="P129" s="23"/>
       <c r="Q129" s="23"/>
       <c r="R129" s="23"/>
-      <c r="S129" s="55"/>
+      <c r="S129" s="54"/>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
-      <c r="B130" s="55"/>
+      <c r="B130" s="54"/>
       <c r="C130" s="23"/>
       <c r="D130" s="23"/>
       <c r="E130" s="23"/>
-      <c r="F130" s="56"/>
+      <c r="F130" s="55"/>
       <c r="G130" s="23"/>
-      <c r="H130" s="56"/>
-      <c r="I130" s="57"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="56"/>
       <c r="J130" s="23"/>
       <c r="K130" s="23"/>
       <c r="L130" s="23"/>
       <c r="M130" s="23"/>
-      <c r="N130" s="56"/>
-      <c r="O130" s="55"/>
+      <c r="N130" s="55"/>
+      <c r="O130" s="54"/>
       <c r="P130" s="23"/>
       <c r="Q130" s="23"/>
       <c r="R130" s="23"/>
-      <c r="S130" s="55"/>
+      <c r="S130" s="54"/>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
-      <c r="B131" s="55"/>
+      <c r="B131" s="54"/>
       <c r="C131" s="23"/>
       <c r="D131" s="23"/>
       <c r="E131" s="23"/>
-      <c r="F131" s="56"/>
+      <c r="F131" s="55"/>
       <c r="G131" s="23"/>
-      <c r="H131" s="56"/>
-      <c r="I131" s="57"/>
+      <c r="H131" s="55"/>
+      <c r="I131" s="56"/>
       <c r="J131" s="23"/>
       <c r="K131" s="23"/>
       <c r="L131" s="23"/>
       <c r="M131" s="23"/>
-      <c r="N131" s="56"/>
-      <c r="O131" s="55"/>
+      <c r="N131" s="55"/>
+      <c r="O131" s="54"/>
       <c r="P131" s="23"/>
       <c r="Q131" s="23"/>
       <c r="R131" s="23"/>
-      <c r="S131" s="55"/>
+      <c r="S131" s="54"/>
     </row>
     <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
-      <c r="B132" s="55"/>
+      <c r="B132" s="54"/>
       <c r="C132" s="23"/>
       <c r="D132" s="23"/>
       <c r="E132" s="23"/>
-      <c r="F132" s="56"/>
+      <c r="F132" s="55"/>
       <c r="G132" s="23"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="57"/>
+      <c r="H132" s="55"/>
+      <c r="I132" s="56"/>
       <c r="J132" s="23"/>
       <c r="K132" s="23"/>
       <c r="L132" s="23"/>
       <c r="M132" s="23"/>
-      <c r="N132" s="56"/>
-      <c r="O132" s="55"/>
+      <c r="N132" s="55"/>
+      <c r="O132" s="54"/>
       <c r="P132" s="23"/>
       <c r="Q132" s="23"/>
       <c r="R132" s="23"/>
-      <c r="S132" s="55"/>
+      <c r="S132" s="54"/>
     </row>
     <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
-      <c r="B133" s="55"/>
+      <c r="B133" s="54"/>
       <c r="C133" s="23"/>
       <c r="D133" s="23"/>
       <c r="E133" s="23"/>
-      <c r="F133" s="56"/>
+      <c r="F133" s="55"/>
       <c r="G133" s="23"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="57"/>
+      <c r="H133" s="55"/>
+      <c r="I133" s="56"/>
       <c r="J133" s="23"/>
       <c r="K133" s="23"/>
       <c r="L133" s="23"/>
       <c r="M133" s="23"/>
-      <c r="N133" s="56"/>
-      <c r="O133" s="55"/>
+      <c r="N133" s="55"/>
+      <c r="O133" s="54"/>
       <c r="P133" s="23"/>
       <c r="Q133" s="23"/>
       <c r="R133" s="23"/>
-      <c r="S133" s="55"/>
+      <c r="S133" s="54"/>
     </row>
     <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
-      <c r="B134" s="55"/>
+      <c r="B134" s="54"/>
       <c r="C134" s="23"/>
       <c r="D134" s="23"/>
       <c r="E134" s="23"/>
-      <c r="F134" s="56"/>
+      <c r="F134" s="55"/>
       <c r="G134" s="23"/>
-      <c r="H134" s="56"/>
-      <c r="I134" s="57"/>
+      <c r="H134" s="55"/>
+      <c r="I134" s="56"/>
       <c r="J134" s="23"/>
       <c r="K134" s="23"/>
       <c r="L134" s="23"/>
       <c r="M134" s="23"/>
-      <c r="N134" s="56"/>
-      <c r="O134" s="55"/>
+      <c r="N134" s="55"/>
+      <c r="O134" s="54"/>
       <c r="P134" s="23"/>
       <c r="Q134" s="23"/>
       <c r="R134" s="23"/>
-      <c r="S134" s="55"/>
+      <c r="S134" s="54"/>
     </row>
     <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
-      <c r="B135" s="55"/>
+      <c r="B135" s="54"/>
       <c r="C135" s="23"/>
       <c r="D135" s="23"/>
       <c r="E135" s="23"/>
-      <c r="F135" s="56"/>
+      <c r="F135" s="55"/>
       <c r="G135" s="23"/>
-      <c r="H135" s="56"/>
-      <c r="I135" s="57"/>
+      <c r="H135" s="55"/>
+      <c r="I135" s="56"/>
       <c r="J135" s="23"/>
       <c r="K135" s="23"/>
       <c r="L135" s="23"/>
       <c r="M135" s="23"/>
-      <c r="N135" s="56"/>
-      <c r="O135" s="55"/>
+      <c r="N135" s="55"/>
+      <c r="O135" s="54"/>
       <c r="P135" s="23"/>
       <c r="Q135" s="23"/>
       <c r="R135" s="23"/>
-      <c r="S135" s="55"/>
+      <c r="S135" s="54"/>
     </row>
     <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
-      <c r="B136" s="55"/>
+      <c r="B136" s="54"/>
       <c r="C136" s="23"/>
       <c r="D136" s="23"/>
       <c r="E136" s="23"/>
-      <c r="F136" s="56"/>
+      <c r="F136" s="55"/>
       <c r="G136" s="23"/>
-      <c r="H136" s="56"/>
-      <c r="I136" s="57"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="56"/>
       <c r="J136" s="23"/>
       <c r="K136" s="23"/>
       <c r="L136" s="23"/>
       <c r="M136" s="23"/>
-      <c r="N136" s="56"/>
-      <c r="O136" s="55"/>
+      <c r="N136" s="55"/>
+      <c r="O136" s="54"/>
       <c r="P136" s="23"/>
       <c r="Q136" s="23"/>
       <c r="R136" s="23"/>
-      <c r="S136" s="55"/>
+      <c r="S136" s="54"/>
     </row>
     <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
-      <c r="B137" s="55"/>
+      <c r="B137" s="54"/>
       <c r="C137" s="23"/>
       <c r="D137" s="23"/>
       <c r="E137" s="23"/>
-      <c r="F137" s="56"/>
+      <c r="F137" s="55"/>
       <c r="G137" s="23"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="57"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="56"/>
       <c r="J137" s="23"/>
       <c r="K137" s="23"/>
       <c r="L137" s="23"/>
       <c r="M137" s="23"/>
-      <c r="N137" s="56"/>
-      <c r="O137" s="55"/>
+      <c r="N137" s="55"/>
+      <c r="O137" s="54"/>
       <c r="P137" s="23"/>
       <c r="Q137" s="23"/>
       <c r="R137" s="23"/>
-      <c r="S137" s="55"/>
+      <c r="S137" s="54"/>
     </row>
     <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
-      <c r="B138" s="55"/>
+      <c r="B138" s="54"/>
       <c r="C138" s="23"/>
       <c r="D138" s="23"/>
       <c r="E138" s="23"/>
-      <c r="F138" s="56"/>
+      <c r="F138" s="55"/>
       <c r="G138" s="23"/>
-      <c r="H138" s="56"/>
-      <c r="I138" s="57"/>
+      <c r="H138" s="55"/>
+      <c r="I138" s="56"/>
       <c r="J138" s="23"/>
       <c r="K138" s="23"/>
       <c r="L138" s="23"/>
       <c r="M138" s="23"/>
-      <c r="N138" s="56"/>
-      <c r="O138" s="55"/>
+      <c r="N138" s="55"/>
+      <c r="O138" s="54"/>
       <c r="P138" s="23"/>
       <c r="Q138" s="23"/>
       <c r="R138" s="23"/>
-      <c r="S138" s="55"/>
+      <c r="S138" s="54"/>
     </row>
     <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
-      <c r="B139" s="55"/>
+      <c r="B139" s="54"/>
       <c r="C139" s="23"/>
       <c r="D139" s="23"/>
       <c r="E139" s="23"/>
-      <c r="F139" s="56"/>
+      <c r="F139" s="55"/>
       <c r="G139" s="23"/>
-      <c r="H139" s="56"/>
-      <c r="I139" s="57"/>
+      <c r="H139" s="55"/>
+      <c r="I139" s="56"/>
       <c r="J139" s="23"/>
       <c r="K139" s="23"/>
       <c r="L139" s="23"/>
       <c r="M139" s="23"/>
-      <c r="N139" s="56"/>
-      <c r="O139" s="55"/>
+      <c r="N139" s="55"/>
+      <c r="O139" s="54"/>
       <c r="P139" s="23"/>
       <c r="Q139" s="23"/>
       <c r="R139" s="23"/>
-      <c r="S139" s="55"/>
+      <c r="S139" s="54"/>
     </row>
     <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
-      <c r="B140" s="55"/>
+      <c r="B140" s="54"/>
       <c r="C140" s="23"/>
       <c r="D140" s="23"/>
       <c r="E140" s="23"/>
-      <c r="F140" s="56"/>
+      <c r="F140" s="55"/>
       <c r="G140" s="23"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="57"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="56"/>
       <c r="J140" s="23"/>
       <c r="K140" s="23"/>
       <c r="L140" s="23"/>
       <c r="M140" s="23"/>
-      <c r="N140" s="56"/>
-      <c r="O140" s="55"/>
+      <c r="N140" s="55"/>
+      <c r="O140" s="54"/>
       <c r="P140" s="23"/>
       <c r="Q140" s="23"/>
       <c r="R140" s="23"/>
-      <c r="S140" s="55"/>
+      <c r="S140" s="54"/>
     </row>
     <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
-      <c r="B141" s="55"/>
+      <c r="B141" s="54"/>
       <c r="C141" s="23"/>
       <c r="D141" s="23"/>
       <c r="E141" s="23"/>
-      <c r="F141" s="56"/>
+      <c r="F141" s="55"/>
       <c r="G141" s="23"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="57"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="56"/>
       <c r="J141" s="23"/>
       <c r="K141" s="23"/>
       <c r="L141" s="23"/>
       <c r="M141" s="23"/>
-      <c r="N141" s="56"/>
-      <c r="O141" s="55"/>
+      <c r="N141" s="55"/>
+      <c r="O141" s="54"/>
       <c r="P141" s="23"/>
       <c r="Q141" s="23"/>
       <c r="R141" s="23"/>
-      <c r="S141" s="55"/>
+      <c r="S141" s="54"/>
     </row>
     <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
-      <c r="B142" s="55"/>
+      <c r="B142" s="54"/>
       <c r="C142" s="23"/>
       <c r="D142" s="23"/>
       <c r="E142" s="23"/>
-      <c r="F142" s="56"/>
+      <c r="F142" s="55"/>
       <c r="G142" s="23"/>
-      <c r="H142" s="56"/>
-      <c r="I142" s="57"/>
+      <c r="H142" s="55"/>
+      <c r="I142" s="56"/>
       <c r="J142" s="23"/>
       <c r="K142" s="23"/>
       <c r="L142" s="23"/>
       <c r="M142" s="23"/>
-      <c r="N142" s="56"/>
-      <c r="O142" s="55"/>
+      <c r="N142" s="55"/>
+      <c r="O142" s="54"/>
       <c r="P142" s="23"/>
       <c r="Q142" s="23"/>
       <c r="R142" s="23"/>
-      <c r="S142" s="55"/>
+      <c r="S142" s="54"/>
     </row>
     <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
-      <c r="B143" s="55"/>
+      <c r="B143" s="54"/>
       <c r="C143" s="23"/>
       <c r="D143" s="23"/>
       <c r="E143" s="23"/>
-      <c r="F143" s="56"/>
+      <c r="F143" s="55"/>
       <c r="G143" s="23"/>
-      <c r="H143" s="56"/>
-      <c r="I143" s="57"/>
+      <c r="H143" s="55"/>
+      <c r="I143" s="56"/>
       <c r="J143" s="23"/>
       <c r="K143" s="23"/>
       <c r="L143" s="23"/>
       <c r="M143" s="23"/>
-      <c r="N143" s="56"/>
-      <c r="O143" s="55"/>
+      <c r="N143" s="55"/>
+      <c r="O143" s="54"/>
       <c r="P143" s="23"/>
       <c r="Q143" s="23"/>
       <c r="R143" s="23"/>
-      <c r="S143" s="55"/>
+      <c r="S143" s="54"/>
     </row>
     <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="23"/>
-      <c r="B144" s="55"/>
+      <c r="B144" s="54"/>
       <c r="C144" s="23"/>
       <c r="D144" s="23"/>
       <c r="E144" s="23"/>
-      <c r="F144" s="56"/>
+      <c r="F144" s="55"/>
       <c r="G144" s="23"/>
-      <c r="H144" s="56"/>
-      <c r="I144" s="57"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="56"/>
       <c r="J144" s="23"/>
       <c r="K144" s="23"/>
       <c r="L144" s="23"/>
       <c r="M144" s="23"/>
-      <c r="N144" s="56"/>
-      <c r="O144" s="55"/>
+      <c r="N144" s="55"/>
+      <c r="O144" s="54"/>
       <c r="P144" s="23"/>
       <c r="Q144" s="23"/>
       <c r="R144" s="23"/>
-      <c r="S144" s="55"/>
+      <c r="S144" s="54"/>
     </row>
     <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="23"/>
-      <c r="B145" s="55"/>
+      <c r="B145" s="54"/>
       <c r="C145" s="23"/>
       <c r="D145" s="23"/>
       <c r="E145" s="23"/>
-      <c r="F145" s="56"/>
+      <c r="F145" s="55"/>
       <c r="G145" s="23"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="57"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="56"/>
       <c r="J145" s="23"/>
       <c r="K145" s="23"/>
       <c r="L145" s="23"/>
       <c r="M145" s="23"/>
-      <c r="N145" s="56"/>
-      <c r="O145" s="55"/>
+      <c r="N145" s="55"/>
+      <c r="O145" s="54"/>
       <c r="P145" s="23"/>
       <c r="Q145" s="23"/>
       <c r="R145" s="23"/>
-      <c r="S145" s="55"/>
+      <c r="S145" s="54"/>
     </row>
     <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
-      <c r="B146" s="55"/>
+      <c r="B146" s="54"/>
       <c r="C146" s="23"/>
       <c r="D146" s="23"/>
       <c r="E146" s="23"/>
-      <c r="F146" s="56"/>
+      <c r="F146" s="55"/>
       <c r="G146" s="23"/>
-      <c r="H146" s="56"/>
-      <c r="I146" s="57"/>
+      <c r="H146" s="55"/>
+      <c r="I146" s="56"/>
       <c r="J146" s="23"/>
       <c r="K146" s="23"/>
       <c r="L146" s="23"/>
       <c r="M146" s="23"/>
-      <c r="N146" s="56"/>
-      <c r="O146" s="55"/>
+      <c r="N146" s="55"/>
+      <c r="O146" s="54"/>
       <c r="P146" s="23"/>
       <c r="Q146" s="23"/>
       <c r="R146" s="23"/>
-      <c r="S146" s="55"/>
+      <c r="S146" s="54"/>
     </row>
     <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
-      <c r="B147" s="55"/>
+      <c r="B147" s="54"/>
       <c r="C147" s="23"/>
       <c r="D147" s="23"/>
       <c r="E147" s="23"/>
-      <c r="F147" s="56"/>
+      <c r="F147" s="55"/>
       <c r="G147" s="23"/>
-      <c r="H147" s="56"/>
-      <c r="I147" s="57"/>
+      <c r="H147" s="55"/>
+      <c r="I147" s="56"/>
       <c r="J147" s="23"/>
       <c r="K147" s="23"/>
       <c r="L147" s="23"/>
       <c r="M147" s="23"/>
-      <c r="N147" s="56"/>
-      <c r="O147" s="55"/>
+      <c r="N147" s="55"/>
+      <c r="O147" s="54"/>
       <c r="P147" s="23"/>
       <c r="Q147" s="23"/>
       <c r="R147" s="23"/>
-      <c r="S147" s="55"/>
+      <c r="S147" s="54"/>
     </row>
     <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
-      <c r="B148" s="55"/>
+      <c r="B148" s="54"/>
       <c r="C148" s="23"/>
       <c r="D148" s="23"/>
       <c r="E148" s="23"/>
-      <c r="F148" s="56"/>
+      <c r="F148" s="55"/>
       <c r="G148" s="23"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="57"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="56"/>
       <c r="J148" s="23"/>
       <c r="K148" s="23"/>
       <c r="L148" s="23"/>
       <c r="M148" s="23"/>
-      <c r="N148" s="56"/>
-      <c r="O148" s="55"/>
+      <c r="N148" s="55"/>
+      <c r="O148" s="54"/>
       <c r="P148" s="23"/>
       <c r="Q148" s="23"/>
       <c r="R148" s="23"/>
-      <c r="S148" s="55"/>
+      <c r="S148" s="54"/>
     </row>
     <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
-      <c r="B149" s="55"/>
+      <c r="B149" s="54"/>
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
       <c r="E149" s="23"/>
-      <c r="F149" s="56"/>
+      <c r="F149" s="55"/>
       <c r="G149" s="23"/>
-      <c r="H149" s="56"/>
-      <c r="I149" s="57"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="56"/>
       <c r="J149" s="23"/>
       <c r="K149" s="23"/>
       <c r="L149" s="23"/>
       <c r="M149" s="23"/>
-      <c r="N149" s="56"/>
-      <c r="O149" s="55"/>
+      <c r="N149" s="55"/>
+      <c r="O149" s="54"/>
       <c r="P149" s="23"/>
       <c r="Q149" s="23"/>
       <c r="R149" s="23"/>
-      <c r="S149" s="55"/>
+      <c r="S149" s="54"/>
     </row>
     <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
-      <c r="B150" s="55"/>
+      <c r="B150" s="54"/>
       <c r="C150" s="23"/>
       <c r="D150" s="23"/>
       <c r="E150" s="23"/>
-      <c r="F150" s="56"/>
+      <c r="F150" s="55"/>
       <c r="G150" s="23"/>
-      <c r="H150" s="56"/>
-      <c r="I150" s="57"/>
+      <c r="H150" s="55"/>
+      <c r="I150" s="56"/>
       <c r="J150" s="23"/>
       <c r="K150" s="23"/>
       <c r="L150" s="23"/>
       <c r="M150" s="23"/>
-      <c r="N150" s="56"/>
-      <c r="O150" s="55"/>
+      <c r="N150" s="55"/>
+      <c r="O150" s="54"/>
       <c r="P150" s="23"/>
       <c r="Q150" s="23"/>
       <c r="R150" s="23"/>
-      <c r="S150" s="55"/>
+      <c r="S150" s="54"/>
     </row>
     <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
-      <c r="B151" s="55"/>
+      <c r="B151" s="54"/>
       <c r="C151" s="23"/>
       <c r="D151" s="23"/>
       <c r="E151" s="23"/>
-      <c r="F151" s="56"/>
+      <c r="F151" s="55"/>
       <c r="G151" s="23"/>
-      <c r="H151" s="56"/>
-      <c r="I151" s="57"/>
+      <c r="H151" s="55"/>
+      <c r="I151" s="56"/>
       <c r="J151" s="23"/>
       <c r="K151" s="23"/>
       <c r="L151" s="23"/>
       <c r="M151" s="23"/>
-      <c r="N151" s="56"/>
-      <c r="O151" s="55"/>
+      <c r="N151" s="55"/>
+      <c r="O151" s="54"/>
       <c r="P151" s="23"/>
       <c r="Q151" s="23"/>
       <c r="R151" s="23"/>
-      <c r="S151" s="55"/>
+      <c r="S151" s="54"/>
     </row>
     <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
-      <c r="B152" s="55"/>
+      <c r="B152" s="54"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
       <c r="E152" s="23"/>
-      <c r="F152" s="56"/>
+      <c r="F152" s="55"/>
       <c r="G152" s="23"/>
-      <c r="H152" s="56"/>
-      <c r="I152" s="57"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="56"/>
       <c r="J152" s="23"/>
       <c r="K152" s="23"/>
       <c r="L152" s="23"/>
       <c r="M152" s="23"/>
-      <c r="N152" s="56"/>
-      <c r="O152" s="55"/>
+      <c r="N152" s="55"/>
+      <c r="O152" s="54"/>
       <c r="P152" s="23"/>
       <c r="Q152" s="23"/>
       <c r="R152" s="23"/>
-      <c r="S152" s="55"/>
+      <c r="S152" s="54"/>
     </row>
     <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="23"/>
-      <c r="B153" s="55"/>
+      <c r="B153" s="54"/>
       <c r="C153" s="23"/>
       <c r="D153" s="23"/>
       <c r="E153" s="23"/>
-      <c r="F153" s="56"/>
+      <c r="F153" s="55"/>
       <c r="G153" s="23"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="57"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="56"/>
       <c r="J153" s="23"/>
       <c r="K153" s="23"/>
       <c r="L153" s="23"/>
       <c r="M153" s="23"/>
-      <c r="N153" s="56"/>
-      <c r="O153" s="55"/>
+      <c r="N153" s="55"/>
+      <c r="O153" s="54"/>
       <c r="P153" s="23"/>
       <c r="Q153" s="23"/>
       <c r="R153" s="23"/>
-      <c r="S153" s="55"/>
+      <c r="S153" s="54"/>
     </row>
     <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
-      <c r="B154" s="55"/>
+      <c r="B154" s="54"/>
       <c r="C154" s="23"/>
       <c r="D154" s="23"/>
       <c r="E154" s="23"/>
-      <c r="F154" s="56"/>
+      <c r="F154" s="55"/>
       <c r="G154" s="23"/>
-      <c r="H154" s="56"/>
-      <c r="I154" s="57"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="56"/>
       <c r="J154" s="23"/>
       <c r="K154" s="23"/>
       <c r="L154" s="23"/>
       <c r="M154" s="23"/>
-      <c r="N154" s="56"/>
-      <c r="O154" s="55"/>
+      <c r="N154" s="55"/>
+      <c r="O154" s="54"/>
       <c r="P154" s="23"/>
       <c r="Q154" s="23"/>
       <c r="R154" s="23"/>
-      <c r="S154" s="55"/>
+      <c r="S154" s="54"/>
     </row>
     <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
-      <c r="B155" s="55"/>
+      <c r="B155" s="54"/>
       <c r="C155" s="23"/>
       <c r="D155" s="23"/>
       <c r="E155" s="23"/>
-      <c r="F155" s="56"/>
+      <c r="F155" s="55"/>
       <c r="G155" s="23"/>
-      <c r="H155" s="56"/>
-      <c r="I155" s="57"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="56"/>
       <c r="J155" s="23"/>
       <c r="K155" s="23"/>
       <c r="L155" s="23"/>
       <c r="M155" s="23"/>
-      <c r="N155" s="56"/>
-      <c r="O155" s="55"/>
+      <c r="N155" s="55"/>
+      <c r="O155" s="54"/>
       <c r="P155" s="23"/>
       <c r="Q155" s="23"/>
       <c r="R155" s="23"/>
-      <c r="S155" s="55"/>
+      <c r="S155" s="54"/>
     </row>
     <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
-      <c r="B156" s="55"/>
+      <c r="B156" s="54"/>
       <c r="C156" s="23"/>
       <c r="D156" s="23"/>
       <c r="E156" s="23"/>
-      <c r="F156" s="56"/>
+      <c r="F156" s="55"/>
       <c r="G156" s="23"/>
-      <c r="H156" s="56"/>
-      <c r="I156" s="57"/>
+      <c r="H156" s="55"/>
+      <c r="I156" s="56"/>
       <c r="J156" s="23"/>
       <c r="K156" s="23"/>
       <c r="L156" s="23"/>
       <c r="M156" s="23"/>
-      <c r="N156" s="56"/>
-      <c r="O156" s="55"/>
+      <c r="N156" s="55"/>
+      <c r="O156" s="54"/>
       <c r="P156" s="23"/>
       <c r="Q156" s="23"/>
       <c r="R156" s="23"/>
-      <c r="S156" s="55"/>
+      <c r="S156" s="54"/>
     </row>
     <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
-      <c r="B157" s="55"/>
+      <c r="B157" s="54"/>
       <c r="C157" s="23"/>
       <c r="D157" s="23"/>
       <c r="E157" s="23"/>
-      <c r="F157" s="56"/>
+      <c r="F157" s="55"/>
       <c r="G157" s="23"/>
-      <c r="H157" s="56"/>
-      <c r="I157" s="57"/>
+      <c r="H157" s="55"/>
+      <c r="I157" s="56"/>
       <c r="J157" s="23"/>
       <c r="K157" s="23"/>
       <c r="L157" s="23"/>
       <c r="M157" s="23"/>
-      <c r="N157" s="56"/>
-      <c r="O157" s="55"/>
+      <c r="N157" s="55"/>
+      <c r="O157" s="54"/>
       <c r="P157" s="23"/>
       <c r="Q157" s="23"/>
       <c r="R157" s="23"/>
-      <c r="S157" s="55"/>
+      <c r="S157" s="54"/>
     </row>
     <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
-      <c r="B158" s="55"/>
+      <c r="B158" s="54"/>
       <c r="C158" s="23"/>
       <c r="D158" s="23"/>
       <c r="E158" s="23"/>
-      <c r="F158" s="56"/>
+      <c r="F158" s="55"/>
       <c r="G158" s="23"/>
-      <c r="H158" s="56"/>
-      <c r="I158" s="57"/>
+      <c r="H158" s="55"/>
+      <c r="I158" s="56"/>
       <c r="J158" s="23"/>
       <c r="K158" s="23"/>
       <c r="L158" s="23"/>
       <c r="M158" s="23"/>
-      <c r="N158" s="56"/>
-      <c r="O158" s="55"/>
+      <c r="N158" s="55"/>
+      <c r="O158" s="54"/>
       <c r="P158" s="23"/>
       <c r="Q158" s="23"/>
       <c r="R158" s="23"/>
-      <c r="S158" s="55"/>
+      <c r="S158" s="54"/>
     </row>
     <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="23"/>
-      <c r="B159" s="55"/>
+      <c r="B159" s="54"/>
       <c r="C159" s="23"/>
       <c r="D159" s="23"/>
       <c r="E159" s="23"/>
-      <c r="F159" s="56"/>
+      <c r="F159" s="55"/>
       <c r="G159" s="23"/>
-      <c r="H159" s="56"/>
-      <c r="I159" s="57"/>
+      <c r="H159" s="55"/>
+      <c r="I159" s="56"/>
       <c r="J159" s="23"/>
       <c r="K159" s="23"/>
       <c r="L159" s="23"/>
       <c r="M159" s="23"/>
-      <c r="N159" s="56"/>
-      <c r="O159" s="55"/>
-      <c r="S159" s="55"/>
+      <c r="N159" s="55"/>
+      <c r="O159" s="54"/>
+      <c r="S159" s="54"/>
     </row>
     <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="23"/>
-      <c r="B160" s="55"/>
+      <c r="B160" s="54"/>
       <c r="C160" s="23"/>
       <c r="D160" s="23"/>
       <c r="E160" s="23"/>
-      <c r="F160" s="56"/>
+      <c r="F160" s="55"/>
       <c r="G160" s="23"/>
-      <c r="H160" s="56"/>
-      <c r="I160" s="57"/>
+      <c r="H160" s="55"/>
+      <c r="I160" s="56"/>
       <c r="J160" s="23"/>
       <c r="K160" s="23"/>
       <c r="L160" s="23"/>
       <c r="M160" s="23"/>
-      <c r="N160" s="56"/>
-      <c r="O160" s="55"/>
-      <c r="S160" s="55"/>
+      <c r="N160" s="55"/>
+      <c r="O160" s="54"/>
+      <c r="S160" s="54"/>
     </row>
     <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
-      <c r="B161" s="55"/>
+      <c r="B161" s="54"/>
       <c r="C161" s="23"/>
       <c r="D161" s="23"/>
       <c r="E161" s="23"/>
-      <c r="F161" s="56"/>
+      <c r="F161" s="55"/>
       <c r="G161" s="23"/>
-      <c r="H161" s="56"/>
-      <c r="I161" s="57"/>
+      <c r="H161" s="55"/>
+      <c r="I161" s="56"/>
       <c r="J161" s="23"/>
       <c r="K161" s="23"/>
       <c r="L161" s="23"/>
       <c r="M161" s="23"/>
-      <c r="N161" s="56"/>
-      <c r="O161" s="55"/>
-      <c r="S161" s="55"/>
+      <c r="N161" s="55"/>
+      <c r="O161" s="54"/>
+      <c r="S161" s="54"/>
     </row>
     <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
-      <c r="B162" s="55"/>
+      <c r="B162" s="54"/>
       <c r="C162" s="23"/>
       <c r="D162" s="23"/>
       <c r="E162" s="23"/>
-      <c r="F162" s="56"/>
+      <c r="F162" s="55"/>
       <c r="G162" s="23"/>
-      <c r="H162" s="56"/>
-      <c r="I162" s="57"/>
+      <c r="H162" s="55"/>
+      <c r="I162" s="56"/>
       <c r="J162" s="23"/>
       <c r="K162" s="23"/>
       <c r="L162" s="23"/>
       <c r="M162" s="23"/>
-      <c r="N162" s="56"/>
-      <c r="O162" s="55"/>
-      <c r="S162" s="55"/>
+      <c r="N162" s="55"/>
+      <c r="O162" s="54"/>
+      <c r="S162" s="54"/>
     </row>
     <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
-      <c r="B163" s="55"/>
+      <c r="B163" s="54"/>
       <c r="C163" s="23"/>
       <c r="D163" s="23"/>
       <c r="E163" s="23"/>
-      <c r="F163" s="56"/>
+      <c r="F163" s="55"/>
       <c r="G163" s="23"/>
-      <c r="H163" s="56"/>
-      <c r="I163" s="57"/>
+      <c r="H163" s="55"/>
+      <c r="I163" s="56"/>
       <c r="J163" s="23"/>
       <c r="K163" s="23"/>
       <c r="L163" s="23"/>
       <c r="M163" s="23"/>
-      <c r="N163" s="56"/>
-      <c r="O163" s="55"/>
-      <c r="S163" s="55"/>
+      <c r="N163" s="55"/>
+      <c r="O163" s="54"/>
+      <c r="S163" s="54"/>
     </row>
     <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
-      <c r="B164" s="55"/>
+      <c r="B164" s="54"/>
       <c r="C164" s="23"/>
       <c r="D164" s="23"/>
       <c r="E164" s="23"/>
-      <c r="F164" s="56"/>
+      <c r="F164" s="55"/>
       <c r="G164" s="23"/>
-      <c r="H164" s="56"/>
-      <c r="I164" s="57"/>
+      <c r="H164" s="55"/>
+      <c r="I164" s="56"/>
       <c r="J164" s="23"/>
       <c r="K164" s="23"/>
       <c r="L164" s="23"/>
       <c r="M164" s="23"/>
-      <c r="N164" s="56"/>
-      <c r="O164" s="55"/>
-      <c r="S164" s="55"/>
+      <c r="N164" s="55"/>
+      <c r="O164" s="54"/>
+      <c r="S164" s="54"/>
     </row>
     <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
-      <c r="B165" s="55"/>
+      <c r="B165" s="54"/>
       <c r="C165" s="23"/>
       <c r="D165" s="23"/>
       <c r="E165" s="23"/>
-      <c r="F165" s="56"/>
+      <c r="F165" s="55"/>
       <c r="G165" s="23"/>
-      <c r="H165" s="56"/>
-      <c r="I165" s="57"/>
+      <c r="H165" s="55"/>
+      <c r="I165" s="56"/>
       <c r="J165" s="23"/>
       <c r="K165" s="23"/>
       <c r="L165" s="23"/>
       <c r="M165" s="23"/>
-      <c r="N165" s="56"/>
-      <c r="O165" s="55"/>
-      <c r="S165" s="55"/>
+      <c r="N165" s="55"/>
+      <c r="O165" s="54"/>
+      <c r="S165" s="54"/>
     </row>
     <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
-      <c r="B166" s="55"/>
+      <c r="B166" s="54"/>
       <c r="C166" s="23"/>
       <c r="D166" s="23"/>
       <c r="E166" s="23"/>
-      <c r="F166" s="56"/>
+      <c r="F166" s="55"/>
       <c r="G166" s="23"/>
-      <c r="H166" s="56"/>
-      <c r="I166" s="57"/>
+      <c r="H166" s="55"/>
+      <c r="I166" s="56"/>
       <c r="J166" s="23"/>
       <c r="K166" s="23"/>
       <c r="L166" s="23"/>
       <c r="M166" s="23"/>
-      <c r="N166" s="56"/>
-      <c r="O166" s="55"/>
-      <c r="S166" s="55"/>
+      <c r="N166" s="55"/>
+      <c r="O166" s="54"/>
+      <c r="S166" s="54"/>
     </row>
     <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
-      <c r="B167" s="55"/>
+      <c r="B167" s="54"/>
       <c r="C167" s="23"/>
       <c r="D167" s="23"/>
       <c r="E167" s="23"/>
-      <c r="F167" s="56"/>
+      <c r="F167" s="55"/>
       <c r="G167" s="23"/>
-      <c r="H167" s="56"/>
-      <c r="I167" s="57"/>
+      <c r="H167" s="55"/>
+      <c r="I167" s="56"/>
       <c r="J167" s="23"/>
       <c r="K167" s="23"/>
       <c r="L167" s="23"/>
       <c r="M167" s="23"/>
-      <c r="N167" s="56"/>
-      <c r="O167" s="55"/>
-      <c r="S167" s="55"/>
+      <c r="N167" s="55"/>
+      <c r="O167" s="54"/>
+      <c r="S167" s="54"/>
     </row>
     <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
-      <c r="B168" s="55"/>
+      <c r="B168" s="54"/>
       <c r="C168" s="23"/>
       <c r="D168" s="23"/>
       <c r="E168" s="23"/>
-      <c r="F168" s="56"/>
+      <c r="F168" s="55"/>
       <c r="G168" s="23"/>
-      <c r="H168" s="56"/>
-      <c r="I168" s="57"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="56"/>
       <c r="J168" s="23"/>
       <c r="K168" s="23"/>
       <c r="L168" s="23"/>
       <c r="M168" s="23"/>
-      <c r="N168" s="56"/>
-      <c r="O168" s="55"/>
-      <c r="S168" s="55"/>
+      <c r="N168" s="55"/>
+      <c r="O168" s="54"/>
+      <c r="S168" s="54"/>
     </row>
     <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
-      <c r="B169" s="55"/>
+      <c r="B169" s="54"/>
       <c r="C169" s="23"/>
       <c r="D169" s="23"/>
       <c r="E169" s="23"/>
-      <c r="F169" s="56"/>
+      <c r="F169" s="55"/>
       <c r="G169" s="23"/>
-      <c r="H169" s="56"/>
-      <c r="I169" s="57"/>
+      <c r="H169" s="55"/>
+      <c r="I169" s="56"/>
       <c r="J169" s="23"/>
       <c r="K169" s="23"/>
       <c r="L169" s="23"/>
       <c r="M169" s="23"/>
-      <c r="N169" s="56"/>
-      <c r="O169" s="55"/>
-      <c r="S169" s="55"/>
+      <c r="N169" s="55"/>
+      <c r="O169" s="54"/>
+      <c r="S169" s="54"/>
     </row>
     <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
-      <c r="B170" s="55"/>
+      <c r="B170" s="54"/>
       <c r="C170" s="23"/>
       <c r="D170" s="23"/>
       <c r="E170" s="23"/>
-      <c r="F170" s="56"/>
+      <c r="F170" s="55"/>
       <c r="G170" s="23"/>
-      <c r="H170" s="56"/>
-      <c r="I170" s="57"/>
+      <c r="H170" s="55"/>
+      <c r="I170" s="56"/>
       <c r="J170" s="23"/>
       <c r="K170" s="23"/>
       <c r="L170" s="23"/>
       <c r="M170" s="23"/>
-      <c r="N170" s="56"/>
-      <c r="O170" s="55"/>
-      <c r="S170" s="55"/>
+      <c r="N170" s="55"/>
+      <c r="O170" s="54"/>
+      <c r="S170" s="54"/>
     </row>
     <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
-      <c r="B171" s="55"/>
+      <c r="B171" s="54"/>
       <c r="C171" s="23"/>
       <c r="D171" s="23"/>
       <c r="E171" s="23"/>
-      <c r="F171" s="56"/>
+      <c r="F171" s="55"/>
       <c r="G171" s="23"/>
-      <c r="H171" s="56"/>
-      <c r="I171" s="57"/>
+      <c r="H171" s="55"/>
+      <c r="I171" s="56"/>
       <c r="J171" s="23"/>
       <c r="K171" s="23"/>
       <c r="L171" s="23"/>
       <c r="M171" s="23"/>
-      <c r="N171" s="56"/>
-      <c r="O171" s="55"/>
-      <c r="S171" s="55"/>
+      <c r="N171" s="55"/>
+      <c r="O171" s="54"/>
+      <c r="S171" s="54"/>
     </row>
     <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
-      <c r="B172" s="55"/>
+      <c r="B172" s="54"/>
       <c r="C172" s="23"/>
       <c r="D172" s="23"/>
       <c r="E172" s="23"/>
-      <c r="F172" s="56"/>
+      <c r="F172" s="55"/>
       <c r="G172" s="23"/>
-      <c r="H172" s="56"/>
-      <c r="I172" s="57"/>
+      <c r="H172" s="55"/>
+      <c r="I172" s="56"/>
       <c r="J172" s="23"/>
       <c r="K172" s="23"/>
       <c r="L172" s="23"/>
       <c r="M172" s="23"/>
-      <c r="N172" s="56"/>
-      <c r="O172" s="55"/>
-      <c r="S172" s="55"/>
+      <c r="N172" s="55"/>
+      <c r="O172" s="54"/>
+      <c r="S172" s="54"/>
     </row>
     <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="23"/>
-      <c r="B173" s="55"/>
+      <c r="B173" s="54"/>
       <c r="C173" s="23"/>
       <c r="D173" s="23"/>
       <c r="E173" s="23"/>
-      <c r="F173" s="56"/>
+      <c r="F173" s="55"/>
       <c r="G173" s="23"/>
-      <c r="H173" s="56"/>
-      <c r="I173" s="57"/>
+      <c r="H173" s="55"/>
+      <c r="I173" s="56"/>
       <c r="J173" s="23"/>
       <c r="K173" s="23"/>
       <c r="L173" s="23"/>
       <c r="M173" s="23"/>
-      <c r="N173" s="56"/>
-      <c r="O173" s="55"/>
-      <c r="S173" s="55"/>
+      <c r="N173" s="55"/>
+      <c r="O173" s="54"/>
+      <c r="S173" s="54"/>
     </row>
     <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="23"/>
-      <c r="B174" s="55"/>
+      <c r="B174" s="54"/>
       <c r="C174" s="23"/>
       <c r="D174" s="23"/>
       <c r="E174" s="23"/>
-      <c r="F174" s="56"/>
+      <c r="F174" s="55"/>
       <c r="G174" s="23"/>
-      <c r="H174" s="56"/>
-      <c r="I174" s="57"/>
+      <c r="H174" s="55"/>
+      <c r="I174" s="56"/>
       <c r="J174" s="23"/>
       <c r="K174" s="23"/>
       <c r="L174" s="23"/>
       <c r="M174" s="23"/>
-      <c r="N174" s="56"/>
-      <c r="O174" s="55"/>
-      <c r="S174" s="55"/>
+      <c r="N174" s="55"/>
+      <c r="O174" s="54"/>
+      <c r="S174" s="54"/>
     </row>
     <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="23"/>
-      <c r="B175" s="55"/>
+      <c r="B175" s="54"/>
       <c r="C175" s="23"/>
       <c r="D175" s="23"/>
       <c r="E175" s="23"/>
-      <c r="F175" s="56"/>
+      <c r="F175" s="55"/>
       <c r="G175" s="23"/>
-      <c r="H175" s="56"/>
-      <c r="I175" s="57"/>
+      <c r="H175" s="55"/>
+      <c r="I175" s="56"/>
       <c r="J175" s="23"/>
       <c r="K175" s="23"/>
       <c r="L175" s="23"/>
       <c r="M175" s="23"/>
-      <c r="N175" s="56"/>
-      <c r="O175" s="55"/>
-      <c r="S175" s="55"/>
+      <c r="N175" s="55"/>
+      <c r="O175" s="54"/>
+      <c r="S175" s="54"/>
     </row>
     <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="23"/>
-      <c r="B176" s="55"/>
+      <c r="B176" s="54"/>
       <c r="C176" s="23"/>
       <c r="D176" s="23"/>
       <c r="E176" s="23"/>
-      <c r="F176" s="56"/>
+      <c r="F176" s="55"/>
       <c r="G176" s="23"/>
-      <c r="H176" s="56"/>
-      <c r="I176" s="57"/>
+      <c r="H176" s="55"/>
+      <c r="I176" s="56"/>
       <c r="J176" s="23"/>
       <c r="K176" s="23"/>
       <c r="L176" s="23"/>
       <c r="M176" s="23"/>
-      <c r="N176" s="56"/>
-      <c r="O176" s="55"/>
-      <c r="S176" s="55"/>
+      <c r="N176" s="55"/>
+      <c r="O176" s="54"/>
+      <c r="S176" s="54"/>
     </row>
     <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="23"/>
-      <c r="B177" s="55"/>
+      <c r="B177" s="54"/>
       <c r="C177" s="23"/>
       <c r="D177" s="23"/>
       <c r="E177" s="23"/>
-      <c r="F177" s="56"/>
+      <c r="F177" s="55"/>
       <c r="G177" s="23"/>
-      <c r="H177" s="56"/>
-      <c r="I177" s="57"/>
+      <c r="H177" s="55"/>
+      <c r="I177" s="56"/>
       <c r="J177" s="23"/>
       <c r="K177" s="23"/>
       <c r="L177" s="23"/>
       <c r="M177" s="23"/>
-      <c r="N177" s="56"/>
-      <c r="O177" s="55"/>
-      <c r="S177" s="55"/>
+      <c r="N177" s="55"/>
+      <c r="O177" s="54"/>
+      <c r="S177" s="54"/>
     </row>
     <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="23"/>
-      <c r="B178" s="55"/>
+      <c r="B178" s="54"/>
       <c r="C178" s="23"/>
       <c r="D178" s="23"/>
       <c r="E178" s="23"/>
-      <c r="F178" s="56"/>
+      <c r="F178" s="55"/>
       <c r="G178" s="23"/>
-      <c r="H178" s="56"/>
-      <c r="I178" s="57"/>
+      <c r="H178" s="55"/>
+      <c r="I178" s="56"/>
       <c r="J178" s="23"/>
       <c r="K178" s="23"/>
       <c r="L178" s="23"/>
       <c r="M178" s="23"/>
-      <c r="N178" s="56"/>
-      <c r="O178" s="55"/>
-      <c r="S178" s="55"/>
+      <c r="N178" s="55"/>
+      <c r="O178" s="54"/>
+      <c r="S178" s="54"/>
     </row>
     <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="23"/>
-      <c r="B179" s="55"/>
+      <c r="B179" s="54"/>
       <c r="C179" s="23"/>
       <c r="D179" s="23"/>
       <c r="E179" s="23"/>
-      <c r="F179" s="56"/>
+      <c r="F179" s="55"/>
       <c r="G179" s="23"/>
-      <c r="H179" s="56"/>
-      <c r="I179" s="57"/>
+      <c r="H179" s="55"/>
+      <c r="I179" s="56"/>
       <c r="J179" s="23"/>
       <c r="K179" s="23"/>
       <c r="L179" s="23"/>
       <c r="M179" s="23"/>
-      <c r="N179" s="56"/>
-      <c r="O179" s="55"/>
-      <c r="S179" s="55"/>
+      <c r="N179" s="55"/>
+      <c r="O179" s="54"/>
+      <c r="S179" s="54"/>
     </row>
     <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="23"/>
-      <c r="B180" s="55"/>
+      <c r="B180" s="54"/>
       <c r="C180" s="23"/>
       <c r="D180" s="23"/>
       <c r="E180" s="23"/>
-      <c r="F180" s="56"/>
+      <c r="F180" s="55"/>
       <c r="G180" s="23"/>
-      <c r="H180" s="56"/>
-      <c r="I180" s="57"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="56"/>
       <c r="J180" s="23"/>
       <c r="K180" s="23"/>
       <c r="L180" s="23"/>
       <c r="M180" s="23"/>
-      <c r="N180" s="56"/>
-      <c r="O180" s="55"/>
-      <c r="S180" s="55"/>
+      <c r="N180" s="55"/>
+      <c r="O180" s="54"/>
+      <c r="S180" s="54"/>
     </row>
     <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="23"/>
-      <c r="B181" s="55"/>
+      <c r="B181" s="54"/>
       <c r="C181" s="23"/>
       <c r="D181" s="23"/>
       <c r="E181" s="23"/>
-      <c r="F181" s="56"/>
+      <c r="F181" s="55"/>
       <c r="G181" s="23"/>
-      <c r="H181" s="56"/>
-      <c r="I181" s="57"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="56"/>
       <c r="J181" s="23"/>
       <c r="K181" s="23"/>
       <c r="L181" s="23"/>
       <c r="M181" s="23"/>
-      <c r="N181" s="56"/>
-      <c r="O181" s="55"/>
-      <c r="S181" s="55"/>
+      <c r="N181" s="55"/>
+      <c r="O181" s="54"/>
+      <c r="S181" s="54"/>
     </row>
     <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="23"/>
-      <c r="B182" s="55"/>
+      <c r="B182" s="54"/>
       <c r="C182" s="23"/>
       <c r="D182" s="23"/>
       <c r="E182" s="23"/>
-      <c r="F182" s="56"/>
+      <c r="F182" s="55"/>
       <c r="G182" s="23"/>
-      <c r="H182" s="56"/>
-      <c r="I182" s="57"/>
+      <c r="H182" s="55"/>
+      <c r="I182" s="56"/>
       <c r="J182" s="23"/>
       <c r="K182" s="23"/>
       <c r="L182" s="23"/>
       <c r="M182" s="23"/>
-      <c r="N182" s="56"/>
-      <c r="O182" s="55"/>
-      <c r="S182" s="55"/>
+      <c r="N182" s="55"/>
+      <c r="O182" s="54"/>
+      <c r="S182" s="54"/>
     </row>
     <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="23"/>
-      <c r="B183" s="55"/>
+      <c r="B183" s="54"/>
       <c r="C183" s="23"/>
       <c r="D183" s="23"/>
       <c r="E183" s="23"/>
-      <c r="F183" s="56"/>
+      <c r="F183" s="55"/>
       <c r="G183" s="23"/>
-      <c r="H183" s="56"/>
-      <c r="I183" s="57"/>
+      <c r="H183" s="55"/>
+      <c r="I183" s="56"/>
       <c r="J183" s="23"/>
       <c r="K183" s="23"/>
       <c r="L183" s="23"/>
       <c r="M183" s="23"/>
-      <c r="N183" s="56"/>
-      <c r="O183" s="55"/>
-      <c r="S183" s="55"/>
+      <c r="N183" s="55"/>
+      <c r="O183" s="54"/>
+      <c r="S183" s="54"/>
     </row>
     <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="23"/>
-      <c r="B184" s="55"/>
+      <c r="B184" s="54"/>
       <c r="C184" s="23"/>
       <c r="D184" s="23"/>
       <c r="E184" s="23"/>
-      <c r="F184" s="56"/>
+      <c r="F184" s="55"/>
       <c r="G184" s="23"/>
-      <c r="H184" s="56"/>
-      <c r="I184" s="57"/>
+      <c r="H184" s="55"/>
+      <c r="I184" s="56"/>
       <c r="J184" s="23"/>
       <c r="K184" s="23"/>
       <c r="L184" s="23"/>
       <c r="M184" s="23"/>
-      <c r="N184" s="56"/>
-      <c r="O184" s="55"/>
-      <c r="S184" s="55"/>
+      <c r="N184" s="55"/>
+      <c r="O184" s="54"/>
+      <c r="S184" s="54"/>
     </row>
     <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="23"/>
-      <c r="B185" s="55"/>
+      <c r="B185" s="54"/>
       <c r="C185" s="23"/>
       <c r="D185" s="23"/>
       <c r="E185" s="23"/>
-      <c r="F185" s="56"/>
+      <c r="F185" s="55"/>
       <c r="G185" s="23"/>
-      <c r="H185" s="56"/>
-      <c r="I185" s="57"/>
+      <c r="H185" s="55"/>
+      <c r="I185" s="56"/>
       <c r="J185" s="23"/>
       <c r="K185" s="23"/>
       <c r="L185" s="23"/>
       <c r="M185" s="23"/>
-      <c r="N185" s="56"/>
-      <c r="O185" s="55"/>
-      <c r="S185" s="55"/>
+      <c r="N185" s="55"/>
+      <c r="O185" s="54"/>
+      <c r="S185" s="54"/>
     </row>
     <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="23"/>
-      <c r="B186" s="55"/>
+      <c r="B186" s="54"/>
       <c r="C186" s="23"/>
       <c r="D186" s="23"/>
       <c r="E186" s="23"/>
-      <c r="F186" s="56"/>
+      <c r="F186" s="55"/>
       <c r="G186" s="23"/>
-      <c r="H186" s="56"/>
-      <c r="I186" s="57"/>
+      <c r="H186" s="55"/>
+      <c r="I186" s="56"/>
       <c r="J186" s="23"/>
       <c r="K186" s="23"/>
       <c r="L186" s="23"/>
       <c r="M186" s="23"/>
-      <c r="N186" s="56"/>
-      <c r="O186" s="55"/>
-      <c r="S186" s="55"/>
+      <c r="N186" s="55"/>
+      <c r="O186" s="54"/>
+      <c r="S186" s="54"/>
     </row>
     <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="23"/>
-      <c r="B187" s="55"/>
+      <c r="B187" s="54"/>
       <c r="C187" s="23"/>
       <c r="D187" s="23"/>
       <c r="E187" s="23"/>
-      <c r="F187" s="56"/>
+      <c r="F187" s="55"/>
       <c r="G187" s="23"/>
-      <c r="H187" s="56"/>
-      <c r="I187" s="57"/>
+      <c r="H187" s="55"/>
+      <c r="I187" s="56"/>
       <c r="J187" s="23"/>
       <c r="K187" s="23"/>
       <c r="L187" s="23"/>
       <c r="M187" s="23"/>
-      <c r="N187" s="56"/>
-      <c r="O187" s="55"/>
-      <c r="S187" s="55"/>
+      <c r="N187" s="55"/>
+      <c r="O187" s="54"/>
+      <c r="S187" s="54"/>
     </row>
     <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="23"/>
-      <c r="B188" s="55"/>
+      <c r="B188" s="54"/>
       <c r="C188" s="23"/>
       <c r="D188" s="23"/>
       <c r="E188" s="23"/>
-      <c r="F188" s="56"/>
+      <c r="F188" s="55"/>
       <c r="G188" s="23"/>
-      <c r="H188" s="56"/>
-      <c r="I188" s="57"/>
+      <c r="H188" s="55"/>
+      <c r="I188" s="56"/>
       <c r="J188" s="23"/>
       <c r="K188" s="23"/>
       <c r="L188" s="23"/>
       <c r="M188" s="23"/>
-      <c r="N188" s="56"/>
-      <c r="O188" s="55"/>
-      <c r="S188" s="55"/>
+      <c r="N188" s="55"/>
+      <c r="O188" s="54"/>
+      <c r="S188" s="54"/>
     </row>
     <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="23"/>
-      <c r="B189" s="55"/>
+      <c r="B189" s="54"/>
       <c r="C189" s="23"/>
       <c r="D189" s="23"/>
       <c r="E189" s="23"/>
-      <c r="F189" s="56"/>
+      <c r="F189" s="55"/>
       <c r="G189" s="23"/>
-      <c r="H189" s="56"/>
-      <c r="I189" s="57"/>
+      <c r="H189" s="55"/>
+      <c r="I189" s="56"/>
       <c r="J189" s="23"/>
       <c r="K189" s="23"/>
       <c r="L189" s="23"/>
       <c r="M189" s="23"/>
-      <c r="N189" s="56"/>
-      <c r="O189" s="55"/>
-      <c r="S189" s="55"/>
+      <c r="N189" s="55"/>
+      <c r="O189" s="54"/>
+      <c r="S189" s="54"/>
     </row>
     <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="23"/>
-      <c r="B190" s="55"/>
+      <c r="B190" s="54"/>
       <c r="C190" s="23"/>
       <c r="D190" s="23"/>
       <c r="E190" s="23"/>
-      <c r="F190" s="56"/>
+      <c r="F190" s="55"/>
       <c r="G190" s="23"/>
-      <c r="H190" s="56"/>
-      <c r="I190" s="57"/>
+      <c r="H190" s="55"/>
+      <c r="I190" s="56"/>
       <c r="J190" s="23"/>
       <c r="K190" s="23"/>
       <c r="L190" s="23"/>
       <c r="M190" s="23"/>
-      <c r="N190" s="56"/>
-      <c r="O190" s="55"/>
-      <c r="S190" s="55"/>
+      <c r="N190" s="55"/>
+      <c r="O190" s="54"/>
+      <c r="S190" s="54"/>
     </row>
     <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="23"/>
-      <c r="B191" s="55"/>
+      <c r="B191" s="54"/>
       <c r="C191" s="23"/>
       <c r="D191" s="23"/>
       <c r="E191" s="23"/>
-      <c r="F191" s="56"/>
+      <c r="F191" s="55"/>
       <c r="G191" s="23"/>
-      <c r="H191" s="56"/>
-      <c r="I191" s="57"/>
+      <c r="H191" s="55"/>
+      <c r="I191" s="56"/>
       <c r="J191" s="23"/>
       <c r="K191" s="23"/>
       <c r="L191" s="23"/>
       <c r="M191" s="23"/>
-      <c r="N191" s="56"/>
-      <c r="O191" s="55"/>
-      <c r="S191" s="55"/>
+      <c r="N191" s="55"/>
+      <c r="O191" s="54"/>
+      <c r="S191" s="54"/>
     </row>
     <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="23"/>
-      <c r="B192" s="55"/>
+      <c r="B192" s="54"/>
       <c r="C192" s="23"/>
       <c r="D192" s="23"/>
       <c r="E192" s="23"/>
-      <c r="F192" s="56"/>
+      <c r="F192" s="55"/>
       <c r="G192" s="23"/>
-      <c r="H192" s="56"/>
-      <c r="I192" s="57"/>
+      <c r="H192" s="55"/>
+      <c r="I192" s="56"/>
       <c r="J192" s="23"/>
       <c r="K192" s="23"/>
       <c r="L192" s="23"/>
       <c r="M192" s="23"/>
-      <c r="N192" s="56"/>
-      <c r="O192" s="55"/>
-      <c r="S192" s="55"/>
+      <c r="N192" s="55"/>
+      <c r="O192" s="54"/>
+      <c r="S192" s="54"/>
     </row>
     <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="23"/>
-      <c r="B193" s="55"/>
+      <c r="B193" s="54"/>
       <c r="C193" s="23"/>
       <c r="D193" s="23"/>
       <c r="E193" s="23"/>
-      <c r="F193" s="56"/>
+      <c r="F193" s="55"/>
       <c r="G193" s="23"/>
-      <c r="H193" s="56"/>
-      <c r="I193" s="57"/>
+      <c r="H193" s="55"/>
+      <c r="I193" s="56"/>
       <c r="J193" s="23"/>
       <c r="K193" s="23"/>
       <c r="L193" s="23"/>
       <c r="M193" s="23"/>
-      <c r="N193" s="56"/>
-      <c r="O193" s="55"/>
-      <c r="S193" s="55"/>
+      <c r="N193" s="55"/>
+      <c r="O193" s="54"/>
+      <c r="S193" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -6297,8 +6441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7138,36 +7282,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="67"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -7215,160 +7359,160 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="G4" s="61" t="s">
         <v>166</v>
       </c>
-      <c r="E4" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="H4" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="I4" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="J4" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="K4" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="M4" s="24" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="62">
+        <v>2</v>
+      </c>
+      <c r="B5" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="C5" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="L4" s="24" t="s">
+      <c r="E5" s="63" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="M4" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="63">
-        <v>2</v>
-      </c>
-      <c r="B5" s="64" t="s">
+      <c r="H5" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" s="64" t="s">
+      <c r="I5" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="E5" s="64" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G5" s="64" t="s">
+      <c r="J5" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="H5" s="64" t="s">
+      <c r="K5" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="L5" s="63" t="s">
         <v>177</v>
       </c>
-      <c r="I5" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="64" t="s">
+      <c r="M5" s="24" t="s">
         <v>179</v>
-      </c>
-      <c r="K5" s="64" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>3</v>
       </c>
-      <c r="B6" s="64" t="s">
-        <v>174</v>
+      <c r="B6" s="63" t="s">
+        <v>171</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="J6" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="K6" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A7" s="62">
+        <v>4</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="I6" s="64" t="s">
-        <v>178</v>
-      </c>
-      <c r="J6" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>187</v>
-      </c>
-      <c r="L6" s="64" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="24" t="s">
+      <c r="C7" s="24" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A7" s="63">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="s">
+      <c r="D7" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="G7" s="61" t="s">
+        <v>200</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="G7" s="62" t="s">
-        <v>203</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="J7" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -7377,76 +7521,76 @@
         <v>5</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="G8" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="E8" s="62" t="s">
+      <c r="H8" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="G8" s="62" t="s">
+      <c r="J8" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="K8" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A9" s="62">
+        <v>6</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="24" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="E9" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>199</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>200</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A9" s="63">
-        <v>6</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="C9" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="H9" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="G9" s="62" t="s">
-        <v>202</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>197</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>199</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>200</v>
       </c>
       <c r="M9" s="7"/>
     </row>
@@ -7455,76 +7599,76 @@
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="L10" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="A11" s="62">
+        <v>8</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F10" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L10" s="5" t="s">
+      <c r="I11" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A11" s="63">
-        <v>8</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="24" t="s">
+      <c r="K11" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="L11" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -7533,53 +7677,77 @@
         <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="G12" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>217</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>197</v>
-      </c>
       <c r="I12" s="24" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="A13" s="24">
+        <v>9</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>238</v>
+      </c>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -7618,13 +7786,13 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I4 JE5:JE1048576 WVQ5:WVQ1048576 WLU5:WLU1048576 WBY5:WBY1048576 VSC5:VSC1048576 VIG5:VIG1048576 UYK5:UYK1048576 UOO5:UOO1048576 UES5:UES1048576 TUW5:TUW1048576 TLA5:TLA1048576 TBE5:TBE1048576 SRI5:SRI1048576 SHM5:SHM1048576 RXQ5:RXQ1048576 RNU5:RNU1048576 RDY5:RDY1048576 QUC5:QUC1048576 QKG5:QKG1048576 QAK5:QAK1048576 PQO5:PQO1048576 PGS5:PGS1048576 OWW5:OWW1048576 ONA5:ONA1048576 ODE5:ODE1048576 NTI5:NTI1048576 NJM5:NJM1048576 MZQ5:MZQ1048576 MPU5:MPU1048576 MFY5:MFY1048576 LWC5:LWC1048576 LMG5:LMG1048576 LCK5:LCK1048576 KSO5:KSO1048576 KIS5:KIS1048576 JYW5:JYW1048576 JPA5:JPA1048576 JFE5:JFE1048576 IVI5:IVI1048576 ILM5:ILM1048576 IBQ5:IBQ1048576 HRU5:HRU1048576 HHY5:HHY1048576 GYC5:GYC1048576 GOG5:GOG1048576 GEK5:GEK1048576 FUO5:FUO1048576 FKS5:FKS1048576 FAW5:FAW1048576 ERA5:ERA1048576 EHE5:EHE1048576 DXI5:DXI1048576 DNM5:DNM1048576 DDQ5:DDQ1048576 CTU5:CTU1048576 CJY5:CJY1048576 CAC5:CAC1048576 BQG5:BQG1048576 BGK5:BGK1048576 AWO5:AWO1048576 AMS5:AMS1048576 ACW5:ACW1048576 TA5:TA1048576 I13:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I4 I14:I1048576 TA5:TA1048576 ACW5:ACW1048576 AMS5:AMS1048576 AWO5:AWO1048576 BGK5:BGK1048576 BQG5:BQG1048576 CAC5:CAC1048576 CJY5:CJY1048576 CTU5:CTU1048576 DDQ5:DDQ1048576 DNM5:DNM1048576 DXI5:DXI1048576 EHE5:EHE1048576 ERA5:ERA1048576 FAW5:FAW1048576 FKS5:FKS1048576 FUO5:FUO1048576 GEK5:GEK1048576 GOG5:GOG1048576 GYC5:GYC1048576 HHY5:HHY1048576 HRU5:HRU1048576 IBQ5:IBQ1048576 ILM5:ILM1048576 IVI5:IVI1048576 JFE5:JFE1048576 JPA5:JPA1048576 JYW5:JYW1048576 KIS5:KIS1048576 KSO5:KSO1048576 LCK5:LCK1048576 LMG5:LMG1048576 LWC5:LWC1048576 MFY5:MFY1048576 MPU5:MPU1048576 MZQ5:MZQ1048576 NJM5:NJM1048576 NTI5:NTI1048576 ODE5:ODE1048576 ONA5:ONA1048576 OWW5:OWW1048576 PGS5:PGS1048576 PQO5:PQO1048576 QAK5:QAK1048576 QKG5:QKG1048576 QUC5:QUC1048576 RDY5:RDY1048576 RNU5:RNU1048576 RXQ5:RXQ1048576 SHM5:SHM1048576 SRI5:SRI1048576 TBE5:TBE1048576 TLA5:TLA1048576 TUW5:TUW1048576 UES5:UES1048576 UOO5:UOO1048576 UYK5:UYK1048576 VIG5:VIG1048576 VSC5:VSC1048576 WBY5:WBY1048576 WLU5:WLU1048576 WVQ5:WVQ1048576 JE5:JE1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 WVN917507:WVN917519 WVN851971:WVN851983 WVN786435:WVN786447 WVN720899:WVN720911 WVN655363:WVN655375 WVN589827:WVN589839 WVN524291:WVN524303 WVN458755:WVN458767 WVN393219:WVN393231 WVN327683:WVN327695 WVN262147:WVN262159 WVN196611:WVN196623 WVN131075:WVN131087 WVN65539:WVN65551 WVN983043:WVN983055 WLR983043:WLR983055 WLR917507:WLR917519 WLR851971:WLR851983 WLR786435:WLR786447 WLR720899:WLR720911 WLR655363:WLR655375 WLR589827:WLR589839 WLR524291:WLR524303 WLR458755:WLR458767 WLR393219:WLR393231 WLR327683:WLR327695 WLR262147:WLR262159 WLR196611:WLR196623 WLR131075:WLR131087 WLR65539:WLR65551 WBV983043:WBV983055 WBV917507:WBV917519 WBV851971:WBV851983 WBV786435:WBV786447 WBV720899:WBV720911 WBV655363:WBV655375 WBV589827:WBV589839 WBV524291:WBV524303 WBV458755:WBV458767 WBV393219:WBV393231 WBV327683:WBV327695 WBV262147:WBV262159 WBV196611:WBV196623 WBV131075:WBV131087 WBV65539:WBV65551 VRZ983043:VRZ983055 VRZ917507:VRZ917519 VRZ851971:VRZ851983 VRZ786435:VRZ786447 VRZ720899:VRZ720911 VRZ655363:VRZ655375 VRZ589827:VRZ589839 VRZ524291:VRZ524303 VRZ458755:VRZ458767 VRZ393219:VRZ393231 VRZ327683:VRZ327695 VRZ262147:VRZ262159 VRZ196611:VRZ196623 VRZ131075:VRZ131087 VRZ65539:VRZ65551 VID983043:VID983055 VID917507:VID917519 VID851971:VID851983 VID786435:VID786447 VID720899:VID720911 VID655363:VID655375 VID589827:VID589839 VID524291:VID524303 VID458755:VID458767 VID393219:VID393231 VID327683:VID327695 VID262147:VID262159 VID196611:VID196623 VID131075:VID131087 VID65539:VID65551 UYH983043:UYH983055 UYH917507:UYH917519 UYH851971:UYH851983 UYH786435:UYH786447 UYH720899:UYH720911 UYH655363:UYH655375 UYH589827:UYH589839 UYH524291:UYH524303 UYH458755:UYH458767 UYH393219:UYH393231 UYH327683:UYH327695 UYH262147:UYH262159 UYH196611:UYH196623 UYH131075:UYH131087 UYH65539:UYH65551 UOL983043:UOL983055 UOL917507:UOL917519 UOL851971:UOL851983 UOL786435:UOL786447 UOL720899:UOL720911 UOL655363:UOL655375 UOL589827:UOL589839 UOL524291:UOL524303 UOL458755:UOL458767 UOL393219:UOL393231 UOL327683:UOL327695 UOL262147:UOL262159 UOL196611:UOL196623 UOL131075:UOL131087 UOL65539:UOL65551 UEP983043:UEP983055 UEP917507:UEP917519 UEP851971:UEP851983 UEP786435:UEP786447 UEP720899:UEP720911 UEP655363:UEP655375 UEP589827:UEP589839 UEP524291:UEP524303 UEP458755:UEP458767 UEP393219:UEP393231 UEP327683:UEP327695 UEP262147:UEP262159 UEP196611:UEP196623 UEP131075:UEP131087 UEP65539:UEP65551 TUT983043:TUT983055 TUT917507:TUT917519 TUT851971:TUT851983 TUT786435:TUT786447 TUT720899:TUT720911 TUT655363:TUT655375 TUT589827:TUT589839 TUT524291:TUT524303 TUT458755:TUT458767 TUT393219:TUT393231 TUT327683:TUT327695 TUT262147:TUT262159 TUT196611:TUT196623 TUT131075:TUT131087 TUT65539:TUT65551 TKX983043:TKX983055 TKX917507:TKX917519 TKX851971:TKX851983 TKX786435:TKX786447 TKX720899:TKX720911 TKX655363:TKX655375 TKX589827:TKX589839 TKX524291:TKX524303 TKX458755:TKX458767 TKX393219:TKX393231 TKX327683:TKX327695 TKX262147:TKX262159 TKX196611:TKX196623 TKX131075:TKX131087 TKX65539:TKX65551 TBB983043:TBB983055 TBB917507:TBB917519 TBB851971:TBB851983 TBB786435:TBB786447 TBB720899:TBB720911 TBB655363:TBB655375 TBB589827:TBB589839 TBB524291:TBB524303 TBB458755:TBB458767 TBB393219:TBB393231 TBB327683:TBB327695 TBB262147:TBB262159 TBB196611:TBB196623 TBB131075:TBB131087 TBB65539:TBB65551 SRF983043:SRF983055 SRF917507:SRF917519 SRF851971:SRF851983 SRF786435:SRF786447 SRF720899:SRF720911 SRF655363:SRF655375 SRF589827:SRF589839 SRF524291:SRF524303 SRF458755:SRF458767 SRF393219:SRF393231 SRF327683:SRF327695 SRF262147:SRF262159 SRF196611:SRF196623 SRF131075:SRF131087 SRF65539:SRF65551 SHJ983043:SHJ983055 SHJ917507:SHJ917519 SHJ851971:SHJ851983 SHJ786435:SHJ786447 SHJ720899:SHJ720911 SHJ655363:SHJ655375 SHJ589827:SHJ589839 SHJ524291:SHJ524303 SHJ458755:SHJ458767 SHJ393219:SHJ393231 SHJ327683:SHJ327695 SHJ262147:SHJ262159 SHJ196611:SHJ196623 SHJ131075:SHJ131087 SHJ65539:SHJ65551 RXN983043:RXN983055 RXN917507:RXN917519 RXN851971:RXN851983 RXN786435:RXN786447 RXN720899:RXN720911 RXN655363:RXN655375 RXN589827:RXN589839 RXN524291:RXN524303 RXN458755:RXN458767 RXN393219:RXN393231 RXN327683:RXN327695 RXN262147:RXN262159 RXN196611:RXN196623 RXN131075:RXN131087 RXN65539:RXN65551 RNR983043:RNR983055 RNR917507:RNR917519 RNR851971:RNR851983 RNR786435:RNR786447 RNR720899:RNR720911 RNR655363:RNR655375 RNR589827:RNR589839 RNR524291:RNR524303 RNR458755:RNR458767 RNR393219:RNR393231 RNR327683:RNR327695 RNR262147:RNR262159 RNR196611:RNR196623 RNR131075:RNR131087 RNR65539:RNR65551 RDV983043:RDV983055 RDV917507:RDV917519 RDV851971:RDV851983 RDV786435:RDV786447 RDV720899:RDV720911 RDV655363:RDV655375 RDV589827:RDV589839 RDV524291:RDV524303 RDV458755:RDV458767 RDV393219:RDV393231 RDV327683:RDV327695 RDV262147:RDV262159 RDV196611:RDV196623 RDV131075:RDV131087 RDV65539:RDV65551 QTZ983043:QTZ983055 QTZ917507:QTZ917519 QTZ851971:QTZ851983 QTZ786435:QTZ786447 QTZ720899:QTZ720911 QTZ655363:QTZ655375 QTZ589827:QTZ589839 QTZ524291:QTZ524303 QTZ458755:QTZ458767 QTZ393219:QTZ393231 QTZ327683:QTZ327695 QTZ262147:QTZ262159 QTZ196611:QTZ196623 QTZ131075:QTZ131087 QTZ65539:QTZ65551 QKD983043:QKD983055 QKD917507:QKD917519 QKD851971:QKD851983 QKD786435:QKD786447 QKD720899:QKD720911 QKD655363:QKD655375 QKD589827:QKD589839 QKD524291:QKD524303 QKD458755:QKD458767 QKD393219:QKD393231 QKD327683:QKD327695 QKD262147:QKD262159 QKD196611:QKD196623 QKD131075:QKD131087 QKD65539:QKD65551 QAH983043:QAH983055 QAH917507:QAH917519 QAH851971:QAH851983 QAH786435:QAH786447 QAH720899:QAH720911 QAH655363:QAH655375 QAH589827:QAH589839 QAH524291:QAH524303 QAH458755:QAH458767 QAH393219:QAH393231 QAH327683:QAH327695 QAH262147:QAH262159 QAH196611:QAH196623 QAH131075:QAH131087 QAH65539:QAH65551 PQL983043:PQL983055 PQL917507:PQL917519 PQL851971:PQL851983 PQL786435:PQL786447 PQL720899:PQL720911 PQL655363:PQL655375 PQL589827:PQL589839 PQL524291:PQL524303 PQL458755:PQL458767 PQL393219:PQL393231 PQL327683:PQL327695 PQL262147:PQL262159 PQL196611:PQL196623 PQL131075:PQL131087 PQL65539:PQL65551 PGP983043:PGP983055 PGP917507:PGP917519 PGP851971:PGP851983 PGP786435:PGP786447 PGP720899:PGP720911 PGP655363:PGP655375 PGP589827:PGP589839 PGP524291:PGP524303 PGP458755:PGP458767 PGP393219:PGP393231 PGP327683:PGP327695 PGP262147:PGP262159 PGP196611:PGP196623 PGP131075:PGP131087 PGP65539:PGP65551 OWT983043:OWT983055 OWT917507:OWT917519 OWT851971:OWT851983 OWT786435:OWT786447 OWT720899:OWT720911 OWT655363:OWT655375 OWT589827:OWT589839 OWT524291:OWT524303 OWT458755:OWT458767 OWT393219:OWT393231 OWT327683:OWT327695 OWT262147:OWT262159 OWT196611:OWT196623 OWT131075:OWT131087 OWT65539:OWT65551 OMX983043:OMX983055 OMX917507:OMX917519 OMX851971:OMX851983 OMX786435:OMX786447 OMX720899:OMX720911 OMX655363:OMX655375 OMX589827:OMX589839 OMX524291:OMX524303 OMX458755:OMX458767 OMX393219:OMX393231 OMX327683:OMX327695 OMX262147:OMX262159 OMX196611:OMX196623 OMX131075:OMX131087 OMX65539:OMX65551 ODB983043:ODB983055 ODB917507:ODB917519 ODB851971:ODB851983 ODB786435:ODB786447 ODB720899:ODB720911 ODB655363:ODB655375 ODB589827:ODB589839 ODB524291:ODB524303 ODB458755:ODB458767 ODB393219:ODB393231 ODB327683:ODB327695 ODB262147:ODB262159 ODB196611:ODB196623 ODB131075:ODB131087 ODB65539:ODB65551 NTF983043:NTF983055 NTF917507:NTF917519 NTF851971:NTF851983 NTF786435:NTF786447 NTF720899:NTF720911 NTF655363:NTF655375 NTF589827:NTF589839 NTF524291:NTF524303 NTF458755:NTF458767 NTF393219:NTF393231 NTF327683:NTF327695 NTF262147:NTF262159 NTF196611:NTF196623 NTF131075:NTF131087 NTF65539:NTF65551 NJJ983043:NJJ983055 NJJ917507:NJJ917519 NJJ851971:NJJ851983 NJJ786435:NJJ786447 NJJ720899:NJJ720911 NJJ655363:NJJ655375 NJJ589827:NJJ589839 NJJ524291:NJJ524303 NJJ458755:NJJ458767 NJJ393219:NJJ393231 NJJ327683:NJJ327695 NJJ262147:NJJ262159 NJJ196611:NJJ196623 NJJ131075:NJJ131087 NJJ65539:NJJ65551 MZN983043:MZN983055 MZN917507:MZN917519 MZN851971:MZN851983 MZN786435:MZN786447 MZN720899:MZN720911 MZN655363:MZN655375 MZN589827:MZN589839 MZN524291:MZN524303 MZN458755:MZN458767 MZN393219:MZN393231 MZN327683:MZN327695 MZN262147:MZN262159 MZN196611:MZN196623 MZN131075:MZN131087 MZN65539:MZN65551 MPR983043:MPR983055 MPR917507:MPR917519 MPR851971:MPR851983 MPR786435:MPR786447 MPR720899:MPR720911 MPR655363:MPR655375 MPR589827:MPR589839 MPR524291:MPR524303 MPR458755:MPR458767 MPR393219:MPR393231 MPR327683:MPR327695 MPR262147:MPR262159 MPR196611:MPR196623 MPR131075:MPR131087 MPR65539:MPR65551 MFV983043:MFV983055 MFV917507:MFV917519 MFV851971:MFV851983 MFV786435:MFV786447 MFV720899:MFV720911 MFV655363:MFV655375 MFV589827:MFV589839 MFV524291:MFV524303 MFV458755:MFV458767 MFV393219:MFV393231 MFV327683:MFV327695 MFV262147:MFV262159 MFV196611:MFV196623 MFV131075:MFV131087 MFV65539:MFV65551 LVZ983043:LVZ983055 LVZ917507:LVZ917519 LVZ851971:LVZ851983 LVZ786435:LVZ786447 LVZ720899:LVZ720911 LVZ655363:LVZ655375 LVZ589827:LVZ589839 LVZ524291:LVZ524303 LVZ458755:LVZ458767 LVZ393219:LVZ393231 LVZ327683:LVZ327695 LVZ262147:LVZ262159 LVZ196611:LVZ196623 LVZ131075:LVZ131087 LVZ65539:LVZ65551 LMD983043:LMD983055 LMD917507:LMD917519 LMD851971:LMD851983 LMD786435:LMD786447 LMD720899:LMD720911 LMD655363:LMD655375 LMD589827:LMD589839 LMD524291:LMD524303 LMD458755:LMD458767 LMD393219:LMD393231 LMD327683:LMD327695 LMD262147:LMD262159 LMD196611:LMD196623 LMD131075:LMD131087 LMD65539:LMD65551 LCH983043:LCH983055 LCH917507:LCH917519 LCH851971:LCH851983 LCH786435:LCH786447 LCH720899:LCH720911 LCH655363:LCH655375 LCH589827:LCH589839 LCH524291:LCH524303 LCH458755:LCH458767 LCH393219:LCH393231 LCH327683:LCH327695 LCH262147:LCH262159 LCH196611:LCH196623 LCH131075:LCH131087 LCH65539:LCH65551 KSL983043:KSL983055 KSL917507:KSL917519 KSL851971:KSL851983 KSL786435:KSL786447 KSL720899:KSL720911 KSL655363:KSL655375 KSL589827:KSL589839 KSL524291:KSL524303 KSL458755:KSL458767 KSL393219:KSL393231 KSL327683:KSL327695 KSL262147:KSL262159 KSL196611:KSL196623 KSL131075:KSL131087 KSL65539:KSL65551 KIP983043:KIP983055 KIP917507:KIP917519 KIP851971:KIP851983 KIP786435:KIP786447 KIP720899:KIP720911 KIP655363:KIP655375 KIP589827:KIP589839 KIP524291:KIP524303 KIP458755:KIP458767 KIP393219:KIP393231 KIP327683:KIP327695 KIP262147:KIP262159 KIP196611:KIP196623 KIP131075:KIP131087 KIP65539:KIP65551 JYT983043:JYT983055 JYT917507:JYT917519 JYT851971:JYT851983 JYT786435:JYT786447 JYT720899:JYT720911 JYT655363:JYT655375 JYT589827:JYT589839 JYT524291:JYT524303 JYT458755:JYT458767 JYT393219:JYT393231 JYT327683:JYT327695 JYT262147:JYT262159 JYT196611:JYT196623 JYT131075:JYT131087 JYT65539:JYT65551 JOX983043:JOX983055 JOX917507:JOX917519 JOX851971:JOX851983 JOX786435:JOX786447 JOX720899:JOX720911 JOX655363:JOX655375 JOX589827:JOX589839 JOX524291:JOX524303 JOX458755:JOX458767 JOX393219:JOX393231 JOX327683:JOX327695 JOX262147:JOX262159 JOX196611:JOX196623 JOX131075:JOX131087 JOX65539:JOX65551 JFB983043:JFB983055 JFB917507:JFB917519 JFB851971:JFB851983 JFB786435:JFB786447 JFB720899:JFB720911 JFB655363:JFB655375 JFB589827:JFB589839 JFB524291:JFB524303 JFB458755:JFB458767 JFB393219:JFB393231 JFB327683:JFB327695 JFB262147:JFB262159 JFB196611:JFB196623 JFB131075:JFB131087 JFB65539:JFB65551 IVF983043:IVF983055 IVF917507:IVF917519 IVF851971:IVF851983 IVF786435:IVF786447 IVF720899:IVF720911 IVF655363:IVF655375 IVF589827:IVF589839 IVF524291:IVF524303 IVF458755:IVF458767 IVF393219:IVF393231 IVF327683:IVF327695 IVF262147:IVF262159 IVF196611:IVF196623 IVF131075:IVF131087 IVF65539:IVF65551 ILJ983043:ILJ983055 ILJ917507:ILJ917519 ILJ851971:ILJ851983 ILJ786435:ILJ786447 ILJ720899:ILJ720911 ILJ655363:ILJ655375 ILJ589827:ILJ589839 ILJ524291:ILJ524303 ILJ458755:ILJ458767 ILJ393219:ILJ393231 ILJ327683:ILJ327695 ILJ262147:ILJ262159 ILJ196611:ILJ196623 ILJ131075:ILJ131087 ILJ65539:ILJ65551 IBN983043:IBN983055 IBN917507:IBN917519 IBN851971:IBN851983 IBN786435:IBN786447 IBN720899:IBN720911 IBN655363:IBN655375 IBN589827:IBN589839 IBN524291:IBN524303 IBN458755:IBN458767 IBN393219:IBN393231 IBN327683:IBN327695 IBN262147:IBN262159 IBN196611:IBN196623 IBN131075:IBN131087 IBN65539:IBN65551 HRR983043:HRR983055 HRR917507:HRR917519 HRR851971:HRR851983 HRR786435:HRR786447 HRR720899:HRR720911 HRR655363:HRR655375 HRR589827:HRR589839 HRR524291:HRR524303 HRR458755:HRR458767 HRR393219:HRR393231 HRR327683:HRR327695 HRR262147:HRR262159 HRR196611:HRR196623 HRR131075:HRR131087 HRR65539:HRR65551 HHV983043:HHV983055 HHV917507:HHV917519 HHV851971:HHV851983 HHV786435:HHV786447 HHV720899:HHV720911 HHV655363:HHV655375 HHV589827:HHV589839 HHV524291:HHV524303 HHV458755:HHV458767 HHV393219:HHV393231 HHV327683:HHV327695 HHV262147:HHV262159 HHV196611:HHV196623 HHV131075:HHV131087 HHV65539:HHV65551 GXZ983043:GXZ983055 GXZ917507:GXZ917519 GXZ851971:GXZ851983 GXZ786435:GXZ786447 GXZ720899:GXZ720911 GXZ655363:GXZ655375 GXZ589827:GXZ589839 GXZ524291:GXZ524303 GXZ458755:GXZ458767 GXZ393219:GXZ393231 GXZ327683:GXZ327695 GXZ262147:GXZ262159 GXZ196611:GXZ196623 GXZ131075:GXZ131087 GXZ65539:GXZ65551 GOD983043:GOD983055 GOD917507:GOD917519 GOD851971:GOD851983 GOD786435:GOD786447 GOD720899:GOD720911 GOD655363:GOD655375 GOD589827:GOD589839 GOD524291:GOD524303 GOD458755:GOD458767 GOD393219:GOD393231 GOD327683:GOD327695 GOD262147:GOD262159 GOD196611:GOD196623 GOD131075:GOD131087 GOD65539:GOD65551 GEH983043:GEH983055 GEH917507:GEH917519 GEH851971:GEH851983 GEH786435:GEH786447 GEH720899:GEH720911 GEH655363:GEH655375 GEH589827:GEH589839 GEH524291:GEH524303 GEH458755:GEH458767 GEH393219:GEH393231 GEH327683:GEH327695 GEH262147:GEH262159 GEH196611:GEH196623 GEH131075:GEH131087 GEH65539:GEH65551 FUL983043:FUL983055 FUL917507:FUL917519 FUL851971:FUL851983 FUL786435:FUL786447 FUL720899:FUL720911 FUL655363:FUL655375 FUL589827:FUL589839 FUL524291:FUL524303 FUL458755:FUL458767 FUL393219:FUL393231 FUL327683:FUL327695 FUL262147:FUL262159 FUL196611:FUL196623 FUL131075:FUL131087 FUL65539:FUL65551 FKP983043:FKP983055 FKP917507:FKP917519 FKP851971:FKP851983 FKP786435:FKP786447 FKP720899:FKP720911 FKP655363:FKP655375 FKP589827:FKP589839 FKP524291:FKP524303 FKP458755:FKP458767 FKP393219:FKP393231 FKP327683:FKP327695 FKP262147:FKP262159 FKP196611:FKP196623 FKP131075:FKP131087 FKP65539:FKP65551 FAT983043:FAT983055 FAT917507:FAT917519 FAT851971:FAT851983 FAT786435:FAT786447 FAT720899:FAT720911 FAT655363:FAT655375 FAT589827:FAT589839 FAT524291:FAT524303 FAT458755:FAT458767 FAT393219:FAT393231 FAT327683:FAT327695 FAT262147:FAT262159 FAT196611:FAT196623 FAT131075:FAT131087 FAT65539:FAT65551 EQX983043:EQX983055 EQX917507:EQX917519 EQX851971:EQX851983 EQX786435:EQX786447 EQX720899:EQX720911 EQX655363:EQX655375 EQX589827:EQX589839 EQX524291:EQX524303 EQX458755:EQX458767 EQX393219:EQX393231 EQX327683:EQX327695 EQX262147:EQX262159 EQX196611:EQX196623 EQX131075:EQX131087 EQX65539:EQX65551 EHB983043:EHB983055 EHB917507:EHB917519 EHB851971:EHB851983 EHB786435:EHB786447 EHB720899:EHB720911 EHB655363:EHB655375 EHB589827:EHB589839 EHB524291:EHB524303 EHB458755:EHB458767 EHB393219:EHB393231 EHB327683:EHB327695 EHB262147:EHB262159 EHB196611:EHB196623 EHB131075:EHB131087 EHB65539:EHB65551 DXF983043:DXF983055 DXF917507:DXF917519 DXF851971:DXF851983 DXF786435:DXF786447 DXF720899:DXF720911 DXF655363:DXF655375 DXF589827:DXF589839 DXF524291:DXF524303 DXF458755:DXF458767 DXF393219:DXF393231 DXF327683:DXF327695 DXF262147:DXF262159 DXF196611:DXF196623 DXF131075:DXF131087 DXF65539:DXF65551 DNJ983043:DNJ983055 DNJ917507:DNJ917519 DNJ851971:DNJ851983 DNJ786435:DNJ786447 DNJ720899:DNJ720911 DNJ655363:DNJ655375 DNJ589827:DNJ589839 DNJ524291:DNJ524303 DNJ458755:DNJ458767 DNJ393219:DNJ393231 DNJ327683:DNJ327695 DNJ262147:DNJ262159 DNJ196611:DNJ196623 DNJ131075:DNJ131087 DNJ65539:DNJ65551 DDN983043:DDN983055 DDN917507:DDN917519 DDN851971:DDN851983 DDN786435:DDN786447 DDN720899:DDN720911 DDN655363:DDN655375 DDN589827:DDN589839 DDN524291:DDN524303 DDN458755:DDN458767 DDN393219:DDN393231 DDN327683:DDN327695 DDN262147:DDN262159 DDN196611:DDN196623 DDN131075:DDN131087 DDN65539:DDN65551 CTR983043:CTR983055 CTR917507:CTR917519 CTR851971:CTR851983 CTR786435:CTR786447 CTR720899:CTR720911 CTR655363:CTR655375 CTR589827:CTR589839 CTR524291:CTR524303 CTR458755:CTR458767 CTR393219:CTR393231 CTR327683:CTR327695 CTR262147:CTR262159 CTR196611:CTR196623 CTR131075:CTR131087 CTR65539:CTR65551 CJV983043:CJV983055 CJV917507:CJV917519 CJV851971:CJV851983 CJV786435:CJV786447 CJV720899:CJV720911 CJV655363:CJV655375 CJV589827:CJV589839 CJV524291:CJV524303 CJV458755:CJV458767 CJV393219:CJV393231 CJV327683:CJV327695 CJV262147:CJV262159 CJV196611:CJV196623 CJV131075:CJV131087 CJV65539:CJV65551 BZZ983043:BZZ983055 BZZ917507:BZZ917519 BZZ851971:BZZ851983 BZZ786435:BZZ786447 BZZ720899:BZZ720911 BZZ655363:BZZ655375 BZZ589827:BZZ589839 BZZ524291:BZZ524303 BZZ458755:BZZ458767 BZZ393219:BZZ393231 BZZ327683:BZZ327695 BZZ262147:BZZ262159 BZZ196611:BZZ196623 BZZ131075:BZZ131087 BZZ65539:BZZ65551 BQD983043:BQD983055 BQD917507:BQD917519 BQD851971:BQD851983 BQD786435:BQD786447 BQD720899:BQD720911 BQD655363:BQD655375 BQD589827:BQD589839 BQD524291:BQD524303 BQD458755:BQD458767 BQD393219:BQD393231 BQD327683:BQD327695 BQD262147:BQD262159 BQD196611:BQD196623 BQD131075:BQD131087 BQD65539:BQD65551 BGH983043:BGH983055 BGH917507:BGH917519 BGH851971:BGH851983 BGH786435:BGH786447 BGH720899:BGH720911 BGH655363:BGH655375 BGH589827:BGH589839 BGH524291:BGH524303 BGH458755:BGH458767 BGH393219:BGH393231 BGH327683:BGH327695 BGH262147:BGH262159 BGH196611:BGH196623 BGH131075:BGH131087 BGH65539:BGH65551 AWL983043:AWL983055 AWL917507:AWL917519 AWL851971:AWL851983 AWL786435:AWL786447 AWL720899:AWL720911 AWL655363:AWL655375 AWL589827:AWL589839 AWL524291:AWL524303 AWL458755:AWL458767 AWL393219:AWL393231 AWL327683:AWL327695 AWL262147:AWL262159 AWL196611:AWL196623 AWL131075:AWL131087 AWL65539:AWL65551 AMP983043:AMP983055 AMP917507:AMP917519 AMP851971:AMP851983 AMP786435:AMP786447 AMP720899:AMP720911 AMP655363:AMP655375 AMP589827:AMP589839 AMP524291:AMP524303 AMP458755:AMP458767 AMP393219:AMP393231 AMP327683:AMP327695 AMP262147:AMP262159 AMP196611:AMP196623 AMP131075:AMP131087 AMP65539:AMP65551 ACT983043:ACT983055 ACT917507:ACT917519 ACT851971:ACT851983 ACT786435:ACT786447 ACT720899:ACT720911 ACT655363:ACT655375 ACT589827:ACT589839 ACT524291:ACT524303 ACT458755:ACT458767 ACT393219:ACT393231 ACT327683:ACT327695 ACT262147:ACT262159 ACT196611:ACT196623 ACT131075:ACT131087 ACT65539:ACT65551 SX983043:SX983055 SX917507:SX917519 SX851971:SX851983 SX786435:SX786447 SX720899:SX720911 SX655363:SX655375 SX589827:SX589839 SX524291:SX524303 SX458755:SX458767 SX393219:SX393231 SX327683:SX327695 SX262147:SX262159 SX196611:SX196623 SX131075:SX131087 SX65539:SX65551 JB983043:JB983055 JB917507:JB917519 JB851971:JB851983 JB786435:JB786447 JB720899:JB720911 JB655363:JB655375 JB589827:JB589839 JB524291:JB524303 JB458755:JB458767 JB393219:JB393231 JB327683:JB327695 JB262147:JB262159 JB196611:JB196623 JB131075:JB131087 JB65539:JB65551 F983043:F983055 F917507:F917519 F851971:F851983 F786435:F786447 F720899:F720911 F655363:F655375 F589827:F589839 F524291:F524303 F458755:F458767 F393219:F393231 F327683:F327695 F262147:F262159 F196611:F196623 F131075:F131087 WVN4:WVN15 F4:F15 WLR4:WLR15 WBV4:WBV15 VRZ4:VRZ15 VID4:VID15 UYH4:UYH15 UOL4:UOL15 UEP4:UEP15 TUT4:TUT15 TKX4:TKX15 TBB4:TBB15 SRF4:SRF15 SHJ4:SHJ15 RXN4:RXN15 RNR4:RNR15 RDV4:RDV15 QTZ4:QTZ15 QKD4:QKD15 QAH4:QAH15 PQL4:PQL15 PGP4:PGP15 OWT4:OWT15 OMX4:OMX15 ODB4:ODB15 NTF4:NTF15 NJJ4:NJJ15 MZN4:MZN15 MPR4:MPR15 MFV4:MFV15 LVZ4:LVZ15 LMD4:LMD15 LCH4:LCH15 KSL4:KSL15 KIP4:KIP15 JYT4:JYT15 JOX4:JOX15 JFB4:JFB15 IVF4:IVF15 ILJ4:ILJ15 IBN4:IBN15 HRR4:HRR15 HHV4:HHV15 GXZ4:GXZ15 GOD4:GOD15 GEH4:GEH15 FUL4:FUL15 FKP4:FKP15 FAT4:FAT15 EQX4:EQX15 EHB4:EHB15 DXF4:DXF15 DNJ4:DNJ15 DDN4:DDN15 CTR4:CTR15 CJV4:CJV15 BZZ4:BZZ15 BQD4:BQD15 BGH4:BGH15 AWL4:AWL15 AMP4:AMP15 ACT4:ACT15 SX4:SX15 JB4:JB15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 WVN917507:WVN917519 WVN851971:WVN851983 WVN786435:WVN786447 WVN720899:WVN720911 WVN655363:WVN655375 WVN589827:WVN589839 WVN524291:WVN524303 WVN458755:WVN458767 WVN393219:WVN393231 WVN327683:WVN327695 WVN262147:WVN262159 WVN196611:WVN196623 WVN131075:WVN131087 WVN65539:WVN65551 WVN983043:WVN983055 WLR983043:WLR983055 WLR917507:WLR917519 WLR851971:WLR851983 WLR786435:WLR786447 WLR720899:WLR720911 WLR655363:WLR655375 WLR589827:WLR589839 WLR524291:WLR524303 WLR458755:WLR458767 WLR393219:WLR393231 WLR327683:WLR327695 WLR262147:WLR262159 WLR196611:WLR196623 WLR131075:WLR131087 WLR65539:WLR65551 WBV983043:WBV983055 WBV917507:WBV917519 WBV851971:WBV851983 WBV786435:WBV786447 WBV720899:WBV720911 WBV655363:WBV655375 WBV589827:WBV589839 WBV524291:WBV524303 WBV458755:WBV458767 WBV393219:WBV393231 WBV327683:WBV327695 WBV262147:WBV262159 WBV196611:WBV196623 WBV131075:WBV131087 WBV65539:WBV65551 VRZ983043:VRZ983055 VRZ917507:VRZ917519 VRZ851971:VRZ851983 VRZ786435:VRZ786447 VRZ720899:VRZ720911 VRZ655363:VRZ655375 VRZ589827:VRZ589839 VRZ524291:VRZ524303 VRZ458755:VRZ458767 VRZ393219:VRZ393231 VRZ327683:VRZ327695 VRZ262147:VRZ262159 VRZ196611:VRZ196623 VRZ131075:VRZ131087 VRZ65539:VRZ65551 VID983043:VID983055 VID917507:VID917519 VID851971:VID851983 VID786435:VID786447 VID720899:VID720911 VID655363:VID655375 VID589827:VID589839 VID524291:VID524303 VID458755:VID458767 VID393219:VID393231 VID327683:VID327695 VID262147:VID262159 VID196611:VID196623 VID131075:VID131087 VID65539:VID65551 UYH983043:UYH983055 UYH917507:UYH917519 UYH851971:UYH851983 UYH786435:UYH786447 UYH720899:UYH720911 UYH655363:UYH655375 UYH589827:UYH589839 UYH524291:UYH524303 UYH458755:UYH458767 UYH393219:UYH393231 UYH327683:UYH327695 UYH262147:UYH262159 UYH196611:UYH196623 UYH131075:UYH131087 UYH65539:UYH65551 UOL983043:UOL983055 UOL917507:UOL917519 UOL851971:UOL851983 UOL786435:UOL786447 UOL720899:UOL720911 UOL655363:UOL655375 UOL589827:UOL589839 UOL524291:UOL524303 UOL458755:UOL458767 UOL393219:UOL393231 UOL327683:UOL327695 UOL262147:UOL262159 UOL196611:UOL196623 UOL131075:UOL131087 UOL65539:UOL65551 UEP983043:UEP983055 UEP917507:UEP917519 UEP851971:UEP851983 UEP786435:UEP786447 UEP720899:UEP720911 UEP655363:UEP655375 UEP589827:UEP589839 UEP524291:UEP524303 UEP458755:UEP458767 UEP393219:UEP393231 UEP327683:UEP327695 UEP262147:UEP262159 UEP196611:UEP196623 UEP131075:UEP131087 UEP65539:UEP65551 TUT983043:TUT983055 TUT917507:TUT917519 TUT851971:TUT851983 TUT786435:TUT786447 TUT720899:TUT720911 TUT655363:TUT655375 TUT589827:TUT589839 TUT524291:TUT524303 TUT458755:TUT458767 TUT393219:TUT393231 TUT327683:TUT327695 TUT262147:TUT262159 TUT196611:TUT196623 TUT131075:TUT131087 TUT65539:TUT65551 TKX983043:TKX983055 TKX917507:TKX917519 TKX851971:TKX851983 TKX786435:TKX786447 TKX720899:TKX720911 TKX655363:TKX655375 TKX589827:TKX589839 TKX524291:TKX524303 TKX458755:TKX458767 TKX393219:TKX393231 TKX327683:TKX327695 TKX262147:TKX262159 TKX196611:TKX196623 TKX131075:TKX131087 TKX65539:TKX65551 TBB983043:TBB983055 TBB917507:TBB917519 TBB851971:TBB851983 TBB786435:TBB786447 TBB720899:TBB720911 TBB655363:TBB655375 TBB589827:TBB589839 TBB524291:TBB524303 TBB458755:TBB458767 TBB393219:TBB393231 TBB327683:TBB327695 TBB262147:TBB262159 TBB196611:TBB196623 TBB131075:TBB131087 TBB65539:TBB65551 SRF983043:SRF983055 SRF917507:SRF917519 SRF851971:SRF851983 SRF786435:SRF786447 SRF720899:SRF720911 SRF655363:SRF655375 SRF589827:SRF589839 SRF524291:SRF524303 SRF458755:SRF458767 SRF393219:SRF393231 SRF327683:SRF327695 SRF262147:SRF262159 SRF196611:SRF196623 SRF131075:SRF131087 SRF65539:SRF65551 SHJ983043:SHJ983055 SHJ917507:SHJ917519 SHJ851971:SHJ851983 SHJ786435:SHJ786447 SHJ720899:SHJ720911 SHJ655363:SHJ655375 SHJ589827:SHJ589839 SHJ524291:SHJ524303 SHJ458755:SHJ458767 SHJ393219:SHJ393231 SHJ327683:SHJ327695 SHJ262147:SHJ262159 SHJ196611:SHJ196623 SHJ131075:SHJ131087 SHJ65539:SHJ65551 RXN983043:RXN983055 RXN917507:RXN917519 RXN851971:RXN851983 RXN786435:RXN786447 RXN720899:RXN720911 RXN655363:RXN655375 RXN589827:RXN589839 RXN524291:RXN524303 RXN458755:RXN458767 RXN393219:RXN393231 RXN327683:RXN327695 RXN262147:RXN262159 RXN196611:RXN196623 RXN131075:RXN131087 RXN65539:RXN65551 RNR983043:RNR983055 RNR917507:RNR917519 RNR851971:RNR851983 RNR786435:RNR786447 RNR720899:RNR720911 RNR655363:RNR655375 RNR589827:RNR589839 RNR524291:RNR524303 RNR458755:RNR458767 RNR393219:RNR393231 RNR327683:RNR327695 RNR262147:RNR262159 RNR196611:RNR196623 RNR131075:RNR131087 RNR65539:RNR65551 RDV983043:RDV983055 RDV917507:RDV917519 RDV851971:RDV851983 RDV786435:RDV786447 RDV720899:RDV720911 RDV655363:RDV655375 RDV589827:RDV589839 RDV524291:RDV524303 RDV458755:RDV458767 RDV393219:RDV393231 RDV327683:RDV327695 RDV262147:RDV262159 RDV196611:RDV196623 RDV131075:RDV131087 RDV65539:RDV65551 QTZ983043:QTZ983055 QTZ917507:QTZ917519 QTZ851971:QTZ851983 QTZ786435:QTZ786447 QTZ720899:QTZ720911 QTZ655363:QTZ655375 QTZ589827:QTZ589839 QTZ524291:QTZ524303 QTZ458755:QTZ458767 QTZ393219:QTZ393231 QTZ327683:QTZ327695 QTZ262147:QTZ262159 QTZ196611:QTZ196623 QTZ131075:QTZ131087 QTZ65539:QTZ65551 QKD983043:QKD983055 QKD917507:QKD917519 QKD851971:QKD851983 QKD786435:QKD786447 QKD720899:QKD720911 QKD655363:QKD655375 QKD589827:QKD589839 QKD524291:QKD524303 QKD458755:QKD458767 QKD393219:QKD393231 QKD327683:QKD327695 QKD262147:QKD262159 QKD196611:QKD196623 QKD131075:QKD131087 QKD65539:QKD65551 QAH983043:QAH983055 QAH917507:QAH917519 QAH851971:QAH851983 QAH786435:QAH786447 QAH720899:QAH720911 QAH655363:QAH655375 QAH589827:QAH589839 QAH524291:QAH524303 QAH458755:QAH458767 QAH393219:QAH393231 QAH327683:QAH327695 QAH262147:QAH262159 QAH196611:QAH196623 QAH131075:QAH131087 QAH65539:QAH65551 PQL983043:PQL983055 PQL917507:PQL917519 PQL851971:PQL851983 PQL786435:PQL786447 PQL720899:PQL720911 PQL655363:PQL655375 PQL589827:PQL589839 PQL524291:PQL524303 PQL458755:PQL458767 PQL393219:PQL393231 PQL327683:PQL327695 PQL262147:PQL262159 PQL196611:PQL196623 PQL131075:PQL131087 PQL65539:PQL65551 PGP983043:PGP983055 PGP917507:PGP917519 PGP851971:PGP851983 PGP786435:PGP786447 PGP720899:PGP720911 PGP655363:PGP655375 PGP589827:PGP589839 PGP524291:PGP524303 PGP458755:PGP458767 PGP393219:PGP393231 PGP327683:PGP327695 PGP262147:PGP262159 PGP196611:PGP196623 PGP131075:PGP131087 PGP65539:PGP65551 OWT983043:OWT983055 OWT917507:OWT917519 OWT851971:OWT851983 OWT786435:OWT786447 OWT720899:OWT720911 OWT655363:OWT655375 OWT589827:OWT589839 OWT524291:OWT524303 OWT458755:OWT458767 OWT393219:OWT393231 OWT327683:OWT327695 OWT262147:OWT262159 OWT196611:OWT196623 OWT131075:OWT131087 OWT65539:OWT65551 OMX983043:OMX983055 OMX917507:OMX917519 OMX851971:OMX851983 OMX786435:OMX786447 OMX720899:OMX720911 OMX655363:OMX655375 OMX589827:OMX589839 OMX524291:OMX524303 OMX458755:OMX458767 OMX393219:OMX393231 OMX327683:OMX327695 OMX262147:OMX262159 OMX196611:OMX196623 OMX131075:OMX131087 OMX65539:OMX65551 ODB983043:ODB983055 ODB917507:ODB917519 ODB851971:ODB851983 ODB786435:ODB786447 ODB720899:ODB720911 ODB655363:ODB655375 ODB589827:ODB589839 ODB524291:ODB524303 ODB458755:ODB458767 ODB393219:ODB393231 ODB327683:ODB327695 ODB262147:ODB262159 ODB196611:ODB196623 ODB131075:ODB131087 ODB65539:ODB65551 NTF983043:NTF983055 NTF917507:NTF917519 NTF851971:NTF851983 NTF786435:NTF786447 NTF720899:NTF720911 NTF655363:NTF655375 NTF589827:NTF589839 NTF524291:NTF524303 NTF458755:NTF458767 NTF393219:NTF393231 NTF327683:NTF327695 NTF262147:NTF262159 NTF196611:NTF196623 NTF131075:NTF131087 NTF65539:NTF65551 NJJ983043:NJJ983055 NJJ917507:NJJ917519 NJJ851971:NJJ851983 NJJ786435:NJJ786447 NJJ720899:NJJ720911 NJJ655363:NJJ655375 NJJ589827:NJJ589839 NJJ524291:NJJ524303 NJJ458755:NJJ458767 NJJ393219:NJJ393231 NJJ327683:NJJ327695 NJJ262147:NJJ262159 NJJ196611:NJJ196623 NJJ131075:NJJ131087 NJJ65539:NJJ65551 MZN983043:MZN983055 MZN917507:MZN917519 MZN851971:MZN851983 MZN786435:MZN786447 MZN720899:MZN720911 MZN655363:MZN655375 MZN589827:MZN589839 MZN524291:MZN524303 MZN458755:MZN458767 MZN393219:MZN393231 MZN327683:MZN327695 MZN262147:MZN262159 MZN196611:MZN196623 MZN131075:MZN131087 MZN65539:MZN65551 MPR983043:MPR983055 MPR917507:MPR917519 MPR851971:MPR851983 MPR786435:MPR786447 MPR720899:MPR720911 MPR655363:MPR655375 MPR589827:MPR589839 MPR524291:MPR524303 MPR458755:MPR458767 MPR393219:MPR393231 MPR327683:MPR327695 MPR262147:MPR262159 MPR196611:MPR196623 MPR131075:MPR131087 MPR65539:MPR65551 MFV983043:MFV983055 MFV917507:MFV917519 MFV851971:MFV851983 MFV786435:MFV786447 MFV720899:MFV720911 MFV655363:MFV655375 MFV589827:MFV589839 MFV524291:MFV524303 MFV458755:MFV458767 MFV393219:MFV393231 MFV327683:MFV327695 MFV262147:MFV262159 MFV196611:MFV196623 MFV131075:MFV131087 MFV65539:MFV65551 LVZ983043:LVZ983055 LVZ917507:LVZ917519 LVZ851971:LVZ851983 LVZ786435:LVZ786447 LVZ720899:LVZ720911 LVZ655363:LVZ655375 LVZ589827:LVZ589839 LVZ524291:LVZ524303 LVZ458755:LVZ458767 LVZ393219:LVZ393231 LVZ327683:LVZ327695 LVZ262147:LVZ262159 LVZ196611:LVZ196623 LVZ131075:LVZ131087 LVZ65539:LVZ65551 LMD983043:LMD983055 LMD917507:LMD917519 LMD851971:LMD851983 LMD786435:LMD786447 LMD720899:LMD720911 LMD655363:LMD655375 LMD589827:LMD589839 LMD524291:LMD524303 LMD458755:LMD458767 LMD393219:LMD393231 LMD327683:LMD327695 LMD262147:LMD262159 LMD196611:LMD196623 LMD131075:LMD131087 LMD65539:LMD65551 LCH983043:LCH983055 LCH917507:LCH917519 LCH851971:LCH851983 LCH786435:LCH786447 LCH720899:LCH720911 LCH655363:LCH655375 LCH589827:LCH589839 LCH524291:LCH524303 LCH458755:LCH458767 LCH393219:LCH393231 LCH327683:LCH327695 LCH262147:LCH262159 LCH196611:LCH196623 LCH131075:LCH131087 LCH65539:LCH65551 KSL983043:KSL983055 KSL917507:KSL917519 KSL851971:KSL851983 KSL786435:KSL786447 KSL720899:KSL720911 KSL655363:KSL655375 KSL589827:KSL589839 KSL524291:KSL524303 KSL458755:KSL458767 KSL393219:KSL393231 KSL327683:KSL327695 KSL262147:KSL262159 KSL196611:KSL196623 KSL131075:KSL131087 KSL65539:KSL65551 KIP983043:KIP983055 KIP917507:KIP917519 KIP851971:KIP851983 KIP786435:KIP786447 KIP720899:KIP720911 KIP655363:KIP655375 KIP589827:KIP589839 KIP524291:KIP524303 KIP458755:KIP458767 KIP393219:KIP393231 KIP327683:KIP327695 KIP262147:KIP262159 KIP196611:KIP196623 KIP131075:KIP131087 KIP65539:KIP65551 JYT983043:JYT983055 JYT917507:JYT917519 JYT851971:JYT851983 JYT786435:JYT786447 JYT720899:JYT720911 JYT655363:JYT655375 JYT589827:JYT589839 JYT524291:JYT524303 JYT458755:JYT458767 JYT393219:JYT393231 JYT327683:JYT327695 JYT262147:JYT262159 JYT196611:JYT196623 JYT131075:JYT131087 JYT65539:JYT65551 JOX983043:JOX983055 JOX917507:JOX917519 JOX851971:JOX851983 JOX786435:JOX786447 JOX720899:JOX720911 JOX655363:JOX655375 JOX589827:JOX589839 JOX524291:JOX524303 JOX458755:JOX458767 JOX393219:JOX393231 JOX327683:JOX327695 JOX262147:JOX262159 JOX196611:JOX196623 JOX131075:JOX131087 JOX65539:JOX65551 JFB983043:JFB983055 JFB917507:JFB917519 JFB851971:JFB851983 JFB786435:JFB786447 JFB720899:JFB720911 JFB655363:JFB655375 JFB589827:JFB589839 JFB524291:JFB524303 JFB458755:JFB458767 JFB393219:JFB393231 JFB327683:JFB327695 JFB262147:JFB262159 JFB196611:JFB196623 JFB131075:JFB131087 JFB65539:JFB65551 IVF983043:IVF983055 IVF917507:IVF917519 IVF851971:IVF851983 IVF786435:IVF786447 IVF720899:IVF720911 IVF655363:IVF655375 IVF589827:IVF589839 IVF524291:IVF524303 IVF458755:IVF458767 IVF393219:IVF393231 IVF327683:IVF327695 IVF262147:IVF262159 IVF196611:IVF196623 IVF131075:IVF131087 IVF65539:IVF65551 ILJ983043:ILJ983055 ILJ917507:ILJ917519 ILJ851971:ILJ851983 ILJ786435:ILJ786447 ILJ720899:ILJ720911 ILJ655363:ILJ655375 ILJ589827:ILJ589839 ILJ524291:ILJ524303 ILJ458755:ILJ458767 ILJ393219:ILJ393231 ILJ327683:ILJ327695 ILJ262147:ILJ262159 ILJ196611:ILJ196623 ILJ131075:ILJ131087 ILJ65539:ILJ65551 IBN983043:IBN983055 IBN917507:IBN917519 IBN851971:IBN851983 IBN786435:IBN786447 IBN720899:IBN720911 IBN655363:IBN655375 IBN589827:IBN589839 IBN524291:IBN524303 IBN458755:IBN458767 IBN393219:IBN393231 IBN327683:IBN327695 IBN262147:IBN262159 IBN196611:IBN196623 IBN131075:IBN131087 IBN65539:IBN65551 HRR983043:HRR983055 HRR917507:HRR917519 HRR851971:HRR851983 HRR786435:HRR786447 HRR720899:HRR720911 HRR655363:HRR655375 HRR589827:HRR589839 HRR524291:HRR524303 HRR458755:HRR458767 HRR393219:HRR393231 HRR327683:HRR327695 HRR262147:HRR262159 HRR196611:HRR196623 HRR131075:HRR131087 HRR65539:HRR65551 HHV983043:HHV983055 HHV917507:HHV917519 HHV851971:HHV851983 HHV786435:HHV786447 HHV720899:HHV720911 HHV655363:HHV655375 HHV589827:HHV589839 HHV524291:HHV524303 HHV458755:HHV458767 HHV393219:HHV393231 HHV327683:HHV327695 HHV262147:HHV262159 HHV196611:HHV196623 HHV131075:HHV131087 HHV65539:HHV65551 GXZ983043:GXZ983055 GXZ917507:GXZ917519 GXZ851971:GXZ851983 GXZ786435:GXZ786447 GXZ720899:GXZ720911 GXZ655363:GXZ655375 GXZ589827:GXZ589839 GXZ524291:GXZ524303 GXZ458755:GXZ458767 GXZ393219:GXZ393231 GXZ327683:GXZ327695 GXZ262147:GXZ262159 GXZ196611:GXZ196623 GXZ131075:GXZ131087 GXZ65539:GXZ65551 GOD983043:GOD983055 GOD917507:GOD917519 GOD851971:GOD851983 GOD786435:GOD786447 GOD720899:GOD720911 GOD655363:GOD655375 GOD589827:GOD589839 GOD524291:GOD524303 GOD458755:GOD458767 GOD393219:GOD393231 GOD327683:GOD327695 GOD262147:GOD262159 GOD196611:GOD196623 GOD131075:GOD131087 GOD65539:GOD65551 GEH983043:GEH983055 GEH917507:GEH917519 GEH851971:GEH851983 GEH786435:GEH786447 GEH720899:GEH720911 GEH655363:GEH655375 GEH589827:GEH589839 GEH524291:GEH524303 GEH458755:GEH458767 GEH393219:GEH393231 GEH327683:GEH327695 GEH262147:GEH262159 GEH196611:GEH196623 GEH131075:GEH131087 GEH65539:GEH65551 FUL983043:FUL983055 FUL917507:FUL917519 FUL851971:FUL851983 FUL786435:FUL786447 FUL720899:FUL720911 FUL655363:FUL655375 FUL589827:FUL589839 FUL524291:FUL524303 FUL458755:FUL458767 FUL393219:FUL393231 FUL327683:FUL327695 FUL262147:FUL262159 FUL196611:FUL196623 FUL131075:FUL131087 FUL65539:FUL65551 FKP983043:FKP983055 FKP917507:FKP917519 FKP851971:FKP851983 FKP786435:FKP786447 FKP720899:FKP720911 FKP655363:FKP655375 FKP589827:FKP589839 FKP524291:FKP524303 FKP458755:FKP458767 FKP393219:FKP393231 FKP327683:FKP327695 FKP262147:FKP262159 FKP196611:FKP196623 FKP131075:FKP131087 FKP65539:FKP65551 FAT983043:FAT983055 FAT917507:FAT917519 FAT851971:FAT851983 FAT786435:FAT786447 FAT720899:FAT720911 FAT655363:FAT655375 FAT589827:FAT589839 FAT524291:FAT524303 FAT458755:FAT458767 FAT393219:FAT393231 FAT327683:FAT327695 FAT262147:FAT262159 FAT196611:FAT196623 FAT131075:FAT131087 FAT65539:FAT65551 EQX983043:EQX983055 EQX917507:EQX917519 EQX851971:EQX851983 EQX786435:EQX786447 EQX720899:EQX720911 EQX655363:EQX655375 EQX589827:EQX589839 EQX524291:EQX524303 EQX458755:EQX458767 EQX393219:EQX393231 EQX327683:EQX327695 EQX262147:EQX262159 EQX196611:EQX196623 EQX131075:EQX131087 EQX65539:EQX65551 EHB983043:EHB983055 EHB917507:EHB917519 EHB851971:EHB851983 EHB786435:EHB786447 EHB720899:EHB720911 EHB655363:EHB655375 EHB589827:EHB589839 EHB524291:EHB524303 EHB458755:EHB458767 EHB393219:EHB393231 EHB327683:EHB327695 EHB262147:EHB262159 EHB196611:EHB196623 EHB131075:EHB131087 EHB65539:EHB65551 DXF983043:DXF983055 DXF917507:DXF917519 DXF851971:DXF851983 DXF786435:DXF786447 DXF720899:DXF720911 DXF655363:DXF655375 DXF589827:DXF589839 DXF524291:DXF524303 DXF458755:DXF458767 DXF393219:DXF393231 DXF327683:DXF327695 DXF262147:DXF262159 DXF196611:DXF196623 DXF131075:DXF131087 DXF65539:DXF65551 DNJ983043:DNJ983055 DNJ917507:DNJ917519 DNJ851971:DNJ851983 DNJ786435:DNJ786447 DNJ720899:DNJ720911 DNJ655363:DNJ655375 DNJ589827:DNJ589839 DNJ524291:DNJ524303 DNJ458755:DNJ458767 DNJ393219:DNJ393231 DNJ327683:DNJ327695 DNJ262147:DNJ262159 DNJ196611:DNJ196623 DNJ131075:DNJ131087 DNJ65539:DNJ65551 DDN983043:DDN983055 DDN917507:DDN917519 DDN851971:DDN851983 DDN786435:DDN786447 DDN720899:DDN720911 DDN655363:DDN655375 DDN589827:DDN589839 DDN524291:DDN524303 DDN458755:DDN458767 DDN393219:DDN393231 DDN327683:DDN327695 DDN262147:DDN262159 DDN196611:DDN196623 DDN131075:DDN131087 DDN65539:DDN65551 CTR983043:CTR983055 CTR917507:CTR917519 CTR851971:CTR851983 CTR786435:CTR786447 CTR720899:CTR720911 CTR655363:CTR655375 CTR589827:CTR589839 CTR524291:CTR524303 CTR458755:CTR458767 CTR393219:CTR393231 CTR327683:CTR327695 CTR262147:CTR262159 CTR196611:CTR196623 CTR131075:CTR131087 CTR65539:CTR65551 CJV983043:CJV983055 CJV917507:CJV917519 CJV851971:CJV851983 CJV786435:CJV786447 CJV720899:CJV720911 CJV655363:CJV655375 CJV589827:CJV589839 CJV524291:CJV524303 CJV458755:CJV458767 CJV393219:CJV393231 CJV327683:CJV327695 CJV262147:CJV262159 CJV196611:CJV196623 CJV131075:CJV131087 CJV65539:CJV65551 BZZ983043:BZZ983055 BZZ917507:BZZ917519 BZZ851971:BZZ851983 BZZ786435:BZZ786447 BZZ720899:BZZ720911 BZZ655363:BZZ655375 BZZ589827:BZZ589839 BZZ524291:BZZ524303 BZZ458755:BZZ458767 BZZ393219:BZZ393231 BZZ327683:BZZ327695 BZZ262147:BZZ262159 BZZ196611:BZZ196623 BZZ131075:BZZ131087 BZZ65539:BZZ65551 BQD983043:BQD983055 BQD917507:BQD917519 BQD851971:BQD851983 BQD786435:BQD786447 BQD720899:BQD720911 BQD655363:BQD655375 BQD589827:BQD589839 BQD524291:BQD524303 BQD458755:BQD458767 BQD393219:BQD393231 BQD327683:BQD327695 BQD262147:BQD262159 BQD196611:BQD196623 BQD131075:BQD131087 BQD65539:BQD65551 BGH983043:BGH983055 BGH917507:BGH917519 BGH851971:BGH851983 BGH786435:BGH786447 BGH720899:BGH720911 BGH655363:BGH655375 BGH589827:BGH589839 BGH524291:BGH524303 BGH458755:BGH458767 BGH393219:BGH393231 BGH327683:BGH327695 BGH262147:BGH262159 BGH196611:BGH196623 BGH131075:BGH131087 BGH65539:BGH65551 AWL983043:AWL983055 AWL917507:AWL917519 AWL851971:AWL851983 AWL786435:AWL786447 AWL720899:AWL720911 AWL655363:AWL655375 AWL589827:AWL589839 AWL524291:AWL524303 AWL458755:AWL458767 AWL393219:AWL393231 AWL327683:AWL327695 AWL262147:AWL262159 AWL196611:AWL196623 AWL131075:AWL131087 AWL65539:AWL65551 AMP983043:AMP983055 AMP917507:AMP917519 AMP851971:AMP851983 AMP786435:AMP786447 AMP720899:AMP720911 AMP655363:AMP655375 AMP589827:AMP589839 AMP524291:AMP524303 AMP458755:AMP458767 AMP393219:AMP393231 AMP327683:AMP327695 AMP262147:AMP262159 AMP196611:AMP196623 AMP131075:AMP131087 AMP65539:AMP65551 ACT983043:ACT983055 ACT917507:ACT917519 ACT851971:ACT851983 ACT786435:ACT786447 ACT720899:ACT720911 ACT655363:ACT655375 ACT589827:ACT589839 ACT524291:ACT524303 ACT458755:ACT458767 ACT393219:ACT393231 ACT327683:ACT327695 ACT262147:ACT262159 ACT196611:ACT196623 ACT131075:ACT131087 ACT65539:ACT65551 SX983043:SX983055 SX917507:SX917519 SX851971:SX851983 SX786435:SX786447 SX720899:SX720911 SX655363:SX655375 SX589827:SX589839 SX524291:SX524303 SX458755:SX458767 SX393219:SX393231 SX327683:SX327695 SX262147:SX262159 SX196611:SX196623 SX131075:SX131087 SX65539:SX65551 JB983043:JB983055 JB917507:JB917519 JB851971:JB851983 JB786435:JB786447 JB720899:JB720911 JB655363:JB655375 JB589827:JB589839 JB524291:JB524303 JB458755:JB458767 JB393219:JB393231 JB327683:JB327695 JB262147:JB262159 JB196611:JB196623 JB131075:JB131087 JB65539:JB65551 F983043:F983055 F917507:F917519 F851971:F851983 F786435:F786447 F720899:F720911 F655363:F655375 F589827:F589839 F524291:F524303 F458755:F458767 F393219:F393231 F327683:F327695 F262147:F262159 F196611:F196623 F131075:F131087 JB4:JB15 SX4:SX15 ACT4:ACT15 AMP4:AMP15 AWL4:AWL15 BGH4:BGH15 BQD4:BQD15 BZZ4:BZZ15 CJV4:CJV15 CTR4:CTR15 DDN4:DDN15 DNJ4:DNJ15 DXF4:DXF15 EHB4:EHB15 EQX4:EQX15 FAT4:FAT15 FKP4:FKP15 FUL4:FUL15 GEH4:GEH15 GOD4:GOD15 GXZ4:GXZ15 HHV4:HHV15 HRR4:HRR15 IBN4:IBN15 ILJ4:ILJ15 IVF4:IVF15 JFB4:JFB15 JOX4:JOX15 JYT4:JYT15 KIP4:KIP15 KSL4:KSL15 LCH4:LCH15 LMD4:LMD15 LVZ4:LVZ15 MFV4:MFV15 MPR4:MPR15 MZN4:MZN15 NJJ4:NJJ15 NTF4:NTF15 ODB4:ODB15 OMX4:OMX15 OWT4:OWT15 PGP4:PGP15 PQL4:PQL15 QAH4:QAH15 QKD4:QKD15 QTZ4:QTZ15 RDV4:RDV15 RNR4:RNR15 RXN4:RXN15 SHJ4:SHJ15 SRF4:SRF15 TBB4:TBB15 TKX4:TKX15 TUT4:TUT15 UEP4:UEP15 UOL4:UOL15 UYH4:UYH15 VID4:VID15 VRZ4:VRZ15 WBV4:WBV15 WLR4:WLR15 F4:F15 WVN4:WVN15">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 I7:I12">
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 I7:I13">
       <formula1>"开发环境,测试环境,生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7871,10 +8039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7882,29 +8050,30 @@
     <col min="1" max="1" width="10.25" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="32" customWidth="1"/>
     <col min="3" max="3" width="21.75" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.25" style="32" customWidth="1"/>
+    <col min="4" max="4" width="33.25" style="32" customWidth="1"/>
     <col min="5" max="5" width="38" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="32" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="32" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="32" customWidth="1"/>
-    <col min="9" max="9" width="53.625" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="32"/>
+    <col min="8" max="9" width="12.625" style="32" customWidth="1"/>
+    <col min="10" max="10" width="53.625" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="71" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+    </row>
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
@@ -7927,79 +8096,93 @@
         <v>67</v>
       </c>
       <c r="H2" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="I2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="J2" s="34" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="79">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="76">
         <v>1</v>
       </c>
-      <c r="B3" s="43" t="s">
-        <v>90</v>
+      <c r="B3" s="42" t="s">
+        <v>89</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="80"/>
-      <c r="B4" s="43" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="G3" s="40"/>
+      <c r="H3" s="100">
+        <v>42549</v>
+      </c>
+      <c r="I3" s="96">
+        <v>0.95</v>
+      </c>
+      <c r="J3" s="43"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="77"/>
+      <c r="B4" s="42" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
-    </row>
-    <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="81"/>
-      <c r="B5" s="43" t="s">
         <v>97</v>
       </c>
+      <c r="G4" s="40"/>
+      <c r="H4" s="100">
+        <v>42549</v>
+      </c>
+      <c r="I4" s="96">
+        <v>0.95</v>
+      </c>
+      <c r="J4" s="43"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="78"/>
+      <c r="B5" s="42" t="s">
+        <v>96</v>
+      </c>
       <c r="C5" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="74">
+        <v>98</v>
+      </c>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="43"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="73">
         <v>2</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -8009,14 +8192,21 @@
       <c r="F6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="35"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
-      <c r="C7" s="76"/>
+      <c r="G6" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" s="97">
+        <v>42548</v>
+      </c>
+      <c r="I6" s="95">
+        <v>1</v>
+      </c>
+      <c r="J6" s="35"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="74"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
       <c r="D7" s="35" t="s">
         <v>75</v>
       </c>
@@ -8024,265 +8214,388 @@
       <c r="F7" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="35"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="76" t="s">
+      <c r="G7" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H7" s="97">
+        <v>42548</v>
+      </c>
+      <c r="I7" s="95">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="74"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="75" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H8" s="97">
+        <v>42548</v>
+      </c>
+      <c r="I8" s="95">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="E9" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" s="97">
+        <v>42548</v>
+      </c>
+      <c r="I9" s="95">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="G10" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="97">
+        <v>42548</v>
+      </c>
+      <c r="I10" s="95">
+        <v>1</v>
+      </c>
+      <c r="J10" s="35"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>218</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="97">
+        <v>42548</v>
+      </c>
+      <c r="I11" s="95">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="44"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H12" s="97">
+        <v>42548</v>
+      </c>
+      <c r="I12" s="95">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="87">
+        <v>3</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>220</v>
+      </c>
+      <c r="D13" s="90"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="89" t="s">
+        <v>224</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="98">
+        <v>42548</v>
+      </c>
+      <c r="I13" s="99">
+        <v>1</v>
+      </c>
+      <c r="J13" s="91"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="92"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="91"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="G14" s="89"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="89"/>
+      <c r="J14" s="91"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="92"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="89" t="s">
+        <v>229</v>
+      </c>
+      <c r="G15" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="H15" s="98">
+        <v>42545</v>
+      </c>
+      <c r="I15" s="99">
+        <v>1</v>
+      </c>
+      <c r="J15" s="91"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="92"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="89" t="s">
+        <v>230</v>
+      </c>
+      <c r="H16" s="98">
+        <v>42548</v>
+      </c>
+      <c r="I16" s="99">
+        <v>1</v>
+      </c>
+      <c r="J16" s="91"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="82">
+        <v>4</v>
+      </c>
+      <c r="B17" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="35"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="35"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="75"/>
-      <c r="B11" s="75"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="35"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="75"/>
-      <c r="B12" s="75"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="45"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="36"/>
-      <c r="F13" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="45"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="37" t="s">
+      <c r="C17" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="35"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="77">
-        <v>3</v>
-      </c>
-      <c r="B15" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="40" t="s">
+      <c r="D17" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="E17" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="F17" s="40" t="s">
         <v>117</v>
-      </c>
-      <c r="E15" s="39" t="s">
-        <v>118</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="39"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D16" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="39"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="40" t="s">
-        <v>82</v>
       </c>
       <c r="G17" s="40"/>
       <c r="H17" s="40"/>
-      <c r="I17" s="39"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="39" t="s">
-        <v>93</v>
+      <c r="I17" s="40"/>
+      <c r="J17" s="39"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="83"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="E18" s="39"/>
       <c r="F18" s="40" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
-      <c r="I18" s="39"/>
-    </row>
-    <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="E19" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="35"/>
-    </row>
-    <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="38" t="s">
+      <c r="I18" s="40"/>
+      <c r="J18" s="39"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="83"/>
+      <c r="B19" s="80"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" s="39"/>
+      <c r="F19" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="39"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="83"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="38"/>
+      <c r="E20" s="39"/>
       <c r="F20" s="40" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
-      <c r="I20" s="39"/>
-    </row>
-    <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="40" t="s">
+      <c r="I20" s="40"/>
+      <c r="J20" s="39"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="83"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F21" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="35"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="83"/>
+      <c r="B22" s="80"/>
+      <c r="C22" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="38"/>
+      <c r="F22" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="83"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="38" t="s">
+      <c r="E23" s="38"/>
+      <c r="F23" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="E21" s="38"/>
-      <c r="F21" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="39"/>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="84"/>
+      <c r="B24" s="81"/>
+      <c r="C24" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E24" s="38"/>
+      <c r="F24" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="B6:B12"/>
+  <mergeCells count="11">
+    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C12"/>
-    <mergeCell ref="A15:A21"/>
-    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="A17:A24"/>
+    <mergeCell ref="B17:B24"/>
     <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="242">
   <si>
     <t>No</t>
   </si>
@@ -943,6 +943,18 @@
   <si>
     <t>史欣欣</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核环境项目包</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供可运行的租客APP审核后台包</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1327,7 +1339,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1524,6 +1536,42 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1539,6 +1587,12 @@
     <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1554,6 +1608,24 @@
     <xf numFmtId="0" fontId="19" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,70 +1635,16 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6441,7 +6459,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -7282,36 +7300,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="67"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="69"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+      <c r="L2" s="80"/>
+      <c r="M2" s="81"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -8039,10 +8057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8060,18 +8078,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
@@ -8106,7 +8124,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="76">
+      <c r="A3" s="96">
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -8123,16 +8141,16 @@
         <v>90</v>
       </c>
       <c r="G3" s="40"/>
-      <c r="H3" s="100">
+      <c r="H3" s="77">
         <v>42549</v>
       </c>
-      <c r="I3" s="96">
+      <c r="I3" s="73">
         <v>0.95</v>
       </c>
       <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="77"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="42" t="s">
         <v>95</v>
       </c>
@@ -8147,16 +8165,16 @@
         <v>97</v>
       </c>
       <c r="G4" s="40"/>
-      <c r="H4" s="100">
+      <c r="H4" s="77">
         <v>42549</v>
       </c>
-      <c r="I4" s="96">
+      <c r="I4" s="73">
         <v>0.95</v>
       </c>
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="78"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
         <v>96</v>
       </c>
@@ -8176,13 +8194,13 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="73">
+      <c r="A6" s="87">
         <v>2</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="89" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="35" t="s">
@@ -8195,18 +8213,18 @@
       <c r="G6" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="H6" s="97">
+      <c r="H6" s="74">
         <v>42548</v>
       </c>
-      <c r="I6" s="95">
+      <c r="I6" s="72">
         <v>1</v>
       </c>
       <c r="J6" s="35"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="89"/>
       <c r="D7" s="35" t="s">
         <v>75</v>
       </c>
@@ -8217,18 +8235,18 @@
       <c r="G7" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="H7" s="97">
+      <c r="H7" s="74">
         <v>42548</v>
       </c>
-      <c r="I7" s="95">
+      <c r="I7" s="72">
         <v>1</v>
       </c>
       <c r="J7" s="35"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="75" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="89" t="s">
         <v>76</v>
       </c>
       <c r="D8" s="35" t="s">
@@ -8243,18 +8261,18 @@
       <c r="G8" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="74">
         <v>42548</v>
       </c>
-      <c r="I8" s="95">
+      <c r="I8" s="72">
         <v>1</v>
       </c>
       <c r="J8" s="35"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
+      <c r="A9" s="88"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="35" t="s">
         <v>100</v>
       </c>
@@ -8267,18 +8285,18 @@
       <c r="G9" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="H9" s="97">
+      <c r="H9" s="74">
         <v>42548</v>
       </c>
-      <c r="I9" s="95">
+      <c r="I9" s="72">
         <v>1</v>
       </c>
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="35" t="s">
         <v>101</v>
       </c>
@@ -8291,10 +8309,10 @@
       <c r="G10" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="97">
+      <c r="H10" s="74">
         <v>42548</v>
       </c>
-      <c r="I10" s="95">
+      <c r="I10" s="72">
         <v>1</v>
       </c>
       <c r="J10" s="35"/>
@@ -8317,160 +8335,166 @@
       <c r="G11" s="65" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="97">
+      <c r="H11" s="74">
         <v>42548</v>
       </c>
-      <c r="I11" s="95">
+      <c r="I11" s="72">
         <v>1</v>
       </c>
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="44"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="37" t="s">
+      <c r="A12" s="66"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67" t="s">
         <v>109</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>110</v>
       </c>
       <c r="E12" s="36"/>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G12" s="67" t="s">
         <v>230</v>
       </c>
-      <c r="H12" s="97">
+      <c r="H12" s="74">
         <v>42548</v>
       </c>
-      <c r="I12" s="95">
+      <c r="I12" s="72">
         <v>1</v>
       </c>
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="87">
+      <c r="A13" s="44"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="74">
+        <v>42548</v>
+      </c>
+      <c r="I13" s="72">
+        <v>1</v>
+      </c>
+      <c r="J13" s="35"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="99">
         <v>3</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B14" s="101" t="s">
         <v>219</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C14" s="68" t="s">
         <v>220</v>
       </c>
-      <c r="D13" s="90"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="89" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="68" t="s">
         <v>224</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G14" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="H13" s="98">
+      <c r="H14" s="75">
         <v>42548</v>
       </c>
-      <c r="I13" s="99">
+      <c r="I14" s="76">
         <v>1</v>
       </c>
-      <c r="J13" s="91"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="92"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94" t="s">
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="100"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="71" t="s">
         <v>221</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="89" t="s">
+      <c r="D15" s="70"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="68" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="89"/>
-      <c r="H14" s="89"/>
-      <c r="I14" s="89"/>
-      <c r="J14" s="91"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="92"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="89" t="s">
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="100"/>
+      <c r="B16" s="102"/>
+      <c r="C16" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="89" t="s">
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="68" t="s">
         <v>229</v>
       </c>
-      <c r="G15" s="89" t="s">
+      <c r="G16" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="H15" s="98">
+      <c r="H16" s="75">
         <v>42545</v>
       </c>
-      <c r="I15" s="99">
+      <c r="I16" s="76">
         <v>1</v>
       </c>
-      <c r="J15" s="91"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A16" s="92"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="89" t="s">
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="100"/>
+      <c r="B17" s="102"/>
+      <c r="C17" s="68" t="s">
         <v>223</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="89" t="s">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="89" t="s">
+      <c r="G17" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="H16" s="98">
+      <c r="H17" s="75">
         <v>42548</v>
       </c>
-      <c r="I16" s="99">
+      <c r="I17" s="76">
         <v>1</v>
       </c>
-      <c r="J16" s="91"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="82">
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="90">
         <v>4</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B18" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C18" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D18" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E18" s="39" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="40" t="s">
+      <c r="F18" s="40" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="39"/>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="83"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E18" s="39"/>
-      <c r="F18" s="40" t="s">
-        <v>111</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
@@ -8478,15 +8502,17 @@
       <c r="J18" s="39"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="83"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="39" t="s">
-        <v>80</v>
+      <c r="A19" s="91"/>
+      <c r="B19" s="94"/>
+      <c r="C19" s="82" t="s">
+        <v>113</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>79</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="40" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
@@ -8494,11 +8520,11 @@
       <c r="J19" s="39"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="83"/>
-      <c r="B20" s="80"/>
-      <c r="C20" s="86"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="94"/>
+      <c r="C20" s="83"/>
       <c r="D20" s="39" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="E20" s="39"/>
       <c r="F20" s="40" t="s">
@@ -8510,51 +8536,49 @@
       <c r="J20" s="39"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="83"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="64" t="s">
+      <c r="A21" s="91"/>
+      <c r="B21" s="94"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="39"/>
+      <c r="F21" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="91"/>
+      <c r="B22" s="94"/>
+      <c r="C22" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="35" t="s">
+      <c r="D22" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="36" t="s">
+      <c r="E22" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F22" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="G21" s="65"/>
-      <c r="H21" s="65"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="35"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="83"/>
-      <c r="B22" s="80"/>
-      <c r="C22" s="40" t="s">
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="35"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="91"/>
+      <c r="B23" s="94"/>
+      <c r="C23" s="40" t="s">
         <v>88</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D23" s="38" t="s">
         <v>91</v>
-      </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="39"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="83"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>83</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="40" t="s">
@@ -8566,36 +8590,54 @@
       <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="84"/>
-      <c r="B24" s="81"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="94"/>
       <c r="C24" s="40" t="s">
-        <v>216</v>
+        <v>82</v>
       </c>
       <c r="D24" s="38" t="s">
-        <v>217</v>
+        <v>83</v>
       </c>
       <c r="E24" s="38"/>
       <c r="F24" s="40" t="s">
-        <v>228</v>
+        <v>84</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="39"/>
     </row>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="92"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>217</v>
+      </c>
+      <c r="E25" s="38"/>
+      <c r="F25" s="40" t="s">
+        <v>228</v>
+      </c>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="39"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C18:C20"/>
+    <mergeCell ref="C19:C21"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="B6:B10"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A17:A24"/>
-    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="B18:B25"/>
     <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="243">
   <si>
     <t>No</t>
   </si>
@@ -329,10 +329,6 @@
   <si>
     <t>参照sheet“需要修改的配置文件”</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>项目工程部署</t>
@@ -955,6 +951,14 @@
   <si>
     <t>史欣欣</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照sheet“需要修改的配置文件”</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维组</t>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2094,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>40</v>
@@ -2122,7 +2126,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="16"/>
@@ -2144,7 +2148,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -2160,10 +2164,10 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>121</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>122</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>45</v>
@@ -2246,7 +2250,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>44</v>
@@ -2272,7 +2276,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -2333,7 +2337,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17"/>
@@ -2350,13 +2354,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -2372,7 +2376,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>44</v>
@@ -2392,13 +2396,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -2414,10 +2418,10 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="17"/>
@@ -2440,7 +2444,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -2459,7 +2463,7 @@
         <v>58</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="17"/>
@@ -2518,13 +2522,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -2540,13 +2544,13 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="K12" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="L12" s="15" t="s">
         <v>133</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>134</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="16"/>
@@ -2562,13 +2566,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>41</v>
@@ -2584,13 +2588,13 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="L13" s="15" t="s">
         <v>138</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>139</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="16"/>
@@ -2606,13 +2610,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
@@ -2628,13 +2632,13 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="17" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="16"/>
@@ -2650,7 +2654,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>40</v>
@@ -2672,13 +2676,13 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="16"/>
@@ -2694,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
@@ -2716,13 +2720,13 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="16"/>
@@ -2738,7 +2742,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
@@ -2760,13 +2764,13 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="16"/>
@@ -2782,13 +2786,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
@@ -2804,28 +2808,28 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K18" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="L18" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="L18" s="15" t="s">
+      <c r="M18" s="17" t="s">
         <v>151</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>152</v>
       </c>
       <c r="N18" s="16">
         <v>42548</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="T18" s="20"/>
     </row>
@@ -2834,13 +2838,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="15" t="s">
         <v>156</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>157</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
@@ -2856,27 +2860,27 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="K19" s="15" t="s">
+      <c r="L19" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>159</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>160</v>
       </c>
       <c r="N19" s="16">
         <v>42548</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="48"/>
@@ -7377,40 +7381,40 @@
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F4" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G4" s="61" t="s">
         <v>165</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="H4" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="I4" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>168</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="K4" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>169</v>
       </c>
-      <c r="K4" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>170</v>
-      </c>
       <c r="M4" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -7418,40 +7422,40 @@
         <v>2</v>
       </c>
       <c r="B5" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="D5" s="63" t="s">
+      <c r="E5" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="63" t="s">
-        <v>164</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G5" s="63" t="s">
+      <c r="H5" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="I5" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="J5" s="63" t="s">
         <v>175</v>
       </c>
-      <c r="J5" s="63" t="s">
+      <c r="K5" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="L5" s="63" t="s">
         <v>176</v>
       </c>
-      <c r="K5" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>177</v>
-      </c>
       <c r="M5" s="24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
@@ -7459,40 +7463,40 @@
         <v>3</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G6" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6" s="27" t="s">
+      <c r="H6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="K6" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="L6" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="M6" s="24" t="s">
         <v>185</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="L6" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
@@ -7500,37 +7504,37 @@
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>189</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F7" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="F7" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="G7" s="61" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>201</v>
-      </c>
       <c r="J7" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="K7" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>197</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -7539,37 +7543,37 @@
         <v>5</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="D8" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="E8" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="F8" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="G8" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="H8" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>197</v>
       </c>
       <c r="M8" s="7"/>
     </row>
@@ -7578,37 +7582,37 @@
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>189</v>
-      </c>
       <c r="D9" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G9" s="61" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>199</v>
-      </c>
       <c r="H9" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>196</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>197</v>
       </c>
       <c r="M9" s="7"/>
     </row>
@@ -7617,37 +7621,37 @@
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>203</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="D10" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>215</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="I10" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>207</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>208</v>
       </c>
       <c r="M10" s="5"/>
     </row>
@@ -7656,37 +7660,37 @@
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E11" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="H11" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="K11" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -7695,37 +7699,37 @@
         <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E12" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="G12" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I12" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M12" s="5"/>
     </row>
@@ -7734,37 +7738,37 @@
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D13" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="27" t="s">
         <v>234</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="H13" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="I13" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="K13" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>238</v>
-      </c>
       <c r="L13" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -8060,7 +8064,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8114,7 +8118,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>68</v>
@@ -8128,17 +8132,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="40" t="s">
         <v>70</v>
       </c>
       <c r="E3" s="42"/>
       <c r="F3" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G3" s="40"/>
       <c r="H3" s="77">
@@ -8152,17 +8156,17 @@
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
       <c r="B4" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="40" t="s">
         <v>70</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="77">
@@ -8176,17 +8180,17 @@
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D5" s="40" t="s">
         <v>70</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="40"/>
@@ -8211,7 +8215,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H6" s="74">
         <v>42548</v>
@@ -8233,7 +8237,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H7" s="74">
         <v>42548</v>
@@ -8250,16 +8254,16 @@
         <v>76</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H8" s="74">
         <v>42548</v>
@@ -8274,16 +8278,16 @@
       <c r="B9" s="88"/>
       <c r="C9" s="89"/>
       <c r="D9" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H9" s="74">
         <v>42548</v>
@@ -8298,16 +8302,16 @@
       <c r="B10" s="88"/>
       <c r="C10" s="89"/>
       <c r="D10" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="36" t="s">
-        <v>102</v>
-      </c>
       <c r="F10" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H10" s="74">
         <v>42548</v>
@@ -8321,19 +8325,19 @@
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="E11" s="36" t="s">
+        <v>217</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="E11" s="36" t="s">
-        <v>218</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>108</v>
-      </c>
       <c r="G11" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H11" s="74">
         <v>42548</v>
@@ -8347,17 +8351,17 @@
       <c r="A12" s="66"/>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>109</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>110</v>
       </c>
       <c r="E12" s="36"/>
       <c r="F12" s="67" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H12" s="74">
         <v>42548</v>
@@ -8371,17 +8375,17 @@
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>239</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>240</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H13" s="74">
         <v>42548</v>
@@ -8396,18 +8400,18 @@
         <v>3</v>
       </c>
       <c r="B14" s="101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="68" t="s">
         <v>219</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>220</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="70"/>
       <c r="F14" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H14" s="75">
         <v>42548</v>
@@ -8421,12 +8425,12 @@
       <c r="A15" s="100"/>
       <c r="B15" s="102"/>
       <c r="C15" s="71" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="69"/>
       <c r="F15" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
@@ -8437,15 +8441,15 @@
       <c r="A16" s="100"/>
       <c r="B16" s="102"/>
       <c r="C16" s="68" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
       <c r="F16" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="G16" s="68" t="s">
         <v>229</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>230</v>
       </c>
       <c r="H16" s="75">
         <v>42545</v>
@@ -8459,15 +8463,15 @@
       <c r="A17" s="100"/>
       <c r="B17" s="102"/>
       <c r="C17" s="68" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
       <c r="F17" s="68" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H17" s="75">
         <v>42548</v>
@@ -8485,16 +8489,16 @@
         <v>78</v>
       </c>
       <c r="C18" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D18" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="E18" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E18" s="39" t="s">
+      <c r="F18" s="40" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>117</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40"/>
@@ -8505,14 +8509,14 @@
       <c r="A19" s="91"/>
       <c r="B19" s="94"/>
       <c r="C19" s="82" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D19" s="38" t="s">
         <v>79</v>
       </c>
       <c r="E19" s="39"/>
       <c r="F19" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="40"/>
@@ -8540,7 +8544,7 @@
       <c r="B21" s="94"/>
       <c r="C21" s="84"/>
       <c r="D21" s="39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="39"/>
       <c r="F21" s="40" t="s">
@@ -8557,28 +8561,28 @@
       <c r="C22" s="64" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="39" t="s">
+        <v>241</v>
+      </c>
+      <c r="E22" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="E22" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F22" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="35"/>
+      <c r="F22" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="91"/>
       <c r="B23" s="94"/>
       <c r="C23" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D23" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E23" s="38"/>
       <c r="F23" s="40" t="s">
@@ -8611,14 +8615,14 @@
       <c r="A25" s="92"/>
       <c r="B25" s="95"/>
       <c r="C25" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="38" t="s">
         <v>216</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>217</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -741,13 +736,6 @@
     <t>新增</t>
   </si>
   <si>
-    <t>#jyc
-sysconfig.jyc_merchantNumber=M107000001
-sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
-sysconfig.jyc_env=test</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>用于JYC</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -765,13 +753,6 @@
   </si>
   <si>
     <t>全部</t>
-  </si>
-  <si>
-    <t>#jyc
-sysconfig.jyc_merchantNumber=聚有财实际配置
-sysconfig.jyc_merchantName=聚有财实际配置
-sysconfig.jyc_env=pro</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>#jyc
@@ -960,12 +941,26 @@
     <t>运维组</t>
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
+  <si>
+    <t>#jyc
+sysconfig.jyc_merchantNumber=M107000001
+sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
+sysconfig.jyc_env=test</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#jyc
+sysconfig.jyc_merchantNumber=M107000001
+sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
+sysconfig.jyc_env=pro</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1664,6 +1659,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1683,7 +1746,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2003,14 +2066,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="60" customWidth="1"/>
@@ -2034,7 +2097,7 @@
     <col min="21" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="46" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="46" customFormat="1" ht="27">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2093,7 +2156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -2137,7 +2200,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -2181,7 +2244,7 @@
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -2223,7 +2286,7 @@
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -2265,7 +2328,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -2307,7 +2370,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -2349,7 +2412,7 @@
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -2391,7 +2454,7 @@
       <c r="S8" s="19"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -2433,7 +2496,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -2475,7 +2538,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -2517,7 +2580,7 @@
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -2561,7 +2624,7 @@
       <c r="S12" s="19"/>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A13" s="30">
         <v>12</v>
       </c>
@@ -2605,7 +2668,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A14" s="30">
         <v>13</v>
       </c>
@@ -2649,7 +2712,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A15" s="30">
         <v>14</v>
       </c>
@@ -2693,7 +2756,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -2737,7 +2800,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -2781,7 +2844,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="30">
         <v>17</v>
       </c>
@@ -2833,7 +2896,7 @@
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="49" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="49" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -2885,7 +2948,7 @@
       <c r="S19" s="17"/>
       <c r="T19" s="48"/>
     </row>
-    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="15"/>
@@ -2907,7 +2970,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="15"/>
@@ -2929,7 +2992,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="15"/>
@@ -2951,7 +3014,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="15"/>
@@ -2973,7 +3036,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="15"/>
@@ -2995,7 +3058,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="15"/>
@@ -3017,7 +3080,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="15"/>
@@ -3039,7 +3102,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="15"/>
@@ -3061,7 +3124,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="15"/>
@@ -3083,7 +3146,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="15"/>
@@ -3105,7 +3168,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="15"/>
@@ -3127,7 +3190,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="15"/>
@@ -3149,7 +3212,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="15"/>
@@ -3171,7 +3234,7 @@
       <c r="S32" s="19"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="15"/>
@@ -3193,7 +3256,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A34" s="30"/>
       <c r="B34" s="31"/>
       <c r="C34" s="15"/>
@@ -3215,7 +3278,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="15"/>
@@ -3237,7 +3300,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A36" s="50"/>
       <c r="B36" s="51"/>
       <c r="C36" s="50"/>
@@ -3259,7 +3322,7 @@
       <c r="S36" s="51"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="50"/>
@@ -3281,7 +3344,7 @@
       <c r="S37" s="51"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="23"/>
       <c r="B38" s="54"/>
       <c r="C38" s="23"/>
@@ -3302,7 +3365,7 @@
       <c r="R38" s="23"/>
       <c r="S38" s="54"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="23"/>
       <c r="B39" s="54"/>
       <c r="C39" s="23"/>
@@ -3323,7 +3386,7 @@
       <c r="R39" s="23"/>
       <c r="S39" s="54"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="23"/>
       <c r="B40" s="54"/>
       <c r="C40" s="23"/>
@@ -3344,7 +3407,7 @@
       <c r="R40" s="23"/>
       <c r="S40" s="54"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="23"/>
       <c r="B41" s="54"/>
       <c r="C41" s="23"/>
@@ -3365,7 +3428,7 @@
       <c r="R41" s="23"/>
       <c r="S41" s="54"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="23"/>
       <c r="B42" s="54"/>
       <c r="C42" s="23"/>
@@ -3386,7 +3449,7 @@
       <c r="R42" s="23"/>
       <c r="S42" s="54"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="23"/>
       <c r="B43" s="54"/>
       <c r="C43" s="23"/>
@@ -3407,7 +3470,7 @@
       <c r="R43" s="23"/>
       <c r="S43" s="54"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="23"/>
       <c r="B44" s="54"/>
       <c r="C44" s="23"/>
@@ -3428,7 +3491,7 @@
       <c r="R44" s="23"/>
       <c r="S44" s="54"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="23"/>
       <c r="B45" s="54"/>
       <c r="C45" s="23"/>
@@ -3449,7 +3512,7 @@
       <c r="R45" s="23"/>
       <c r="S45" s="54"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="23"/>
       <c r="B46" s="54"/>
       <c r="C46" s="23"/>
@@ -3470,7 +3533,7 @@
       <c r="R46" s="23"/>
       <c r="S46" s="54"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="23"/>
       <c r="B47" s="54"/>
       <c r="C47" s="23"/>
@@ -3491,7 +3554,7 @@
       <c r="R47" s="23"/>
       <c r="S47" s="54"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="23"/>
       <c r="B48" s="54"/>
       <c r="C48" s="23"/>
@@ -3512,7 +3575,7 @@
       <c r="R48" s="23"/>
       <c r="S48" s="54"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="23"/>
       <c r="B49" s="54"/>
       <c r="C49" s="23"/>
@@ -3533,7 +3596,7 @@
       <c r="R49" s="23"/>
       <c r="S49" s="54"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="23"/>
       <c r="B50" s="54"/>
       <c r="C50" s="23"/>
@@ -3554,7 +3617,7 @@
       <c r="R50" s="23"/>
       <c r="S50" s="54"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="23"/>
       <c r="B51" s="54"/>
       <c r="C51" s="23"/>
@@ -3575,7 +3638,7 @@
       <c r="R51" s="23"/>
       <c r="S51" s="54"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="23"/>
       <c r="B52" s="54"/>
       <c r="C52" s="23"/>
@@ -3596,7 +3659,7 @@
       <c r="R52" s="23"/>
       <c r="S52" s="54"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="23"/>
       <c r="B53" s="54"/>
       <c r="C53" s="23"/>
@@ -3617,7 +3680,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="54"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="23"/>
       <c r="B54" s="54"/>
       <c r="C54" s="23"/>
@@ -3638,7 +3701,7 @@
       <c r="R54" s="23"/>
       <c r="S54" s="54"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="23"/>
       <c r="B55" s="54"/>
       <c r="C55" s="23"/>
@@ -3659,7 +3722,7 @@
       <c r="R55" s="23"/>
       <c r="S55" s="54"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="23"/>
       <c r="B56" s="54"/>
       <c r="C56" s="23"/>
@@ -3680,7 +3743,7 @@
       <c r="R56" s="23"/>
       <c r="S56" s="54"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="23"/>
       <c r="B57" s="54"/>
       <c r="C57" s="23"/>
@@ -3701,7 +3764,7 @@
       <c r="R57" s="23"/>
       <c r="S57" s="54"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="23"/>
       <c r="B58" s="54"/>
       <c r="C58" s="23"/>
@@ -3722,7 +3785,7 @@
       <c r="R58" s="23"/>
       <c r="S58" s="54"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="23"/>
       <c r="B59" s="54"/>
       <c r="C59" s="23"/>
@@ -3743,7 +3806,7 @@
       <c r="R59" s="23"/>
       <c r="S59" s="54"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="23"/>
       <c r="B60" s="54"/>
       <c r="C60" s="23"/>
@@ -3764,7 +3827,7 @@
       <c r="R60" s="23"/>
       <c r="S60" s="54"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="23"/>
       <c r="B61" s="54"/>
       <c r="C61" s="23"/>
@@ -3785,7 +3848,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="54"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="23"/>
       <c r="B62" s="54"/>
       <c r="C62" s="23"/>
@@ -3806,7 +3869,7 @@
       <c r="R62" s="23"/>
       <c r="S62" s="54"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="23"/>
       <c r="B63" s="54"/>
       <c r="C63" s="23"/>
@@ -3827,7 +3890,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="54"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="23"/>
       <c r="B64" s="54"/>
       <c r="C64" s="23"/>
@@ -3848,7 +3911,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="54"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="23"/>
       <c r="B65" s="54"/>
       <c r="C65" s="23"/>
@@ -3869,7 +3932,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="54"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="23"/>
       <c r="B66" s="54"/>
       <c r="C66" s="23"/>
@@ -3890,7 +3953,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="54"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="23"/>
       <c r="B67" s="54"/>
       <c r="C67" s="23"/>
@@ -3911,7 +3974,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="54"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="23"/>
       <c r="B68" s="54"/>
       <c r="C68" s="23"/>
@@ -3932,7 +3995,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="54"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="23"/>
       <c r="B69" s="54"/>
       <c r="C69" s="23"/>
@@ -3953,7 +4016,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="54"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="23"/>
       <c r="B70" s="54"/>
       <c r="C70" s="23"/>
@@ -3974,7 +4037,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="54"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="23"/>
       <c r="B71" s="54"/>
       <c r="C71" s="23"/>
@@ -3995,7 +4058,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="54"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="23"/>
       <c r="B72" s="54"/>
       <c r="C72" s="23"/>
@@ -4016,7 +4079,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="54"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="23"/>
       <c r="B73" s="54"/>
       <c r="C73" s="23"/>
@@ -4037,7 +4100,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="54"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="23"/>
       <c r="B74" s="54"/>
       <c r="C74" s="23"/>
@@ -4058,7 +4121,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="54"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="23"/>
       <c r="B75" s="54"/>
       <c r="C75" s="23"/>
@@ -4079,7 +4142,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="54"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="23"/>
       <c r="B76" s="54"/>
       <c r="C76" s="23"/>
@@ -4100,7 +4163,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="54"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="23"/>
       <c r="B77" s="54"/>
       <c r="C77" s="23"/>
@@ -4121,7 +4184,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="54"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="23"/>
       <c r="B78" s="54"/>
       <c r="C78" s="23"/>
@@ -4142,7 +4205,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="54"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="23"/>
       <c r="B79" s="54"/>
       <c r="C79" s="23"/>
@@ -4163,7 +4226,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="54"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="23"/>
       <c r="B80" s="54"/>
       <c r="C80" s="23"/>
@@ -4184,7 +4247,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="54"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="23"/>
       <c r="B81" s="54"/>
       <c r="C81" s="23"/>
@@ -4205,7 +4268,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="54"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="23"/>
       <c r="B82" s="54"/>
       <c r="C82" s="23"/>
@@ -4226,7 +4289,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="54"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="23"/>
       <c r="B83" s="54"/>
       <c r="C83" s="23"/>
@@ -4247,7 +4310,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="54"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="23"/>
       <c r="B84" s="54"/>
       <c r="C84" s="23"/>
@@ -4268,7 +4331,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="54"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="23"/>
       <c r="B85" s="54"/>
       <c r="C85" s="23"/>
@@ -4289,7 +4352,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="54"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="23"/>
       <c r="B86" s="54"/>
       <c r="C86" s="23"/>
@@ -4310,7 +4373,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="54"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="23"/>
       <c r="B87" s="54"/>
       <c r="C87" s="23"/>
@@ -4331,7 +4394,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="54"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="23"/>
       <c r="B88" s="54"/>
       <c r="C88" s="23"/>
@@ -4352,7 +4415,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="54"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="23"/>
       <c r="B89" s="54"/>
       <c r="C89" s="23"/>
@@ -4373,7 +4436,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="54"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="23"/>
       <c r="B90" s="54"/>
       <c r="C90" s="23"/>
@@ -4394,7 +4457,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="54"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="23"/>
       <c r="B91" s="54"/>
       <c r="C91" s="23"/>
@@ -4415,7 +4478,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="54"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="23"/>
       <c r="B92" s="54"/>
       <c r="C92" s="23"/>
@@ -4436,7 +4499,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="54"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="23"/>
       <c r="B93" s="54"/>
       <c r="C93" s="23"/>
@@ -4457,7 +4520,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="54"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="23"/>
       <c r="B94" s="54"/>
       <c r="C94" s="23"/>
@@ -4478,7 +4541,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="54"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="23"/>
       <c r="B95" s="54"/>
       <c r="C95" s="23"/>
@@ -4499,7 +4562,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="54"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="23"/>
       <c r="B96" s="54"/>
       <c r="C96" s="23"/>
@@ -4520,7 +4583,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="54"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="23"/>
       <c r="B97" s="54"/>
       <c r="C97" s="23"/>
@@ -4541,7 +4604,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="54"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="23"/>
       <c r="B98" s="54"/>
       <c r="C98" s="23"/>
@@ -4562,7 +4625,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="54"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="23"/>
       <c r="B99" s="54"/>
       <c r="C99" s="23"/>
@@ -4583,7 +4646,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="54"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="23"/>
       <c r="B100" s="54"/>
       <c r="C100" s="23"/>
@@ -4604,7 +4667,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="54"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="23"/>
       <c r="B101" s="54"/>
       <c r="C101" s="23"/>
@@ -4625,7 +4688,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="54"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="23"/>
       <c r="B102" s="54"/>
       <c r="C102" s="23"/>
@@ -4646,7 +4709,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="54"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="23"/>
       <c r="B103" s="54"/>
       <c r="C103" s="23"/>
@@ -4667,7 +4730,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="54"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="23"/>
       <c r="B104" s="54"/>
       <c r="C104" s="23"/>
@@ -4688,7 +4751,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="54"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="23"/>
       <c r="B105" s="54"/>
       <c r="C105" s="23"/>
@@ -4709,7 +4772,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="54"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="23"/>
       <c r="B106" s="54"/>
       <c r="C106" s="23"/>
@@ -4730,7 +4793,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="54"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="23"/>
       <c r="B107" s="54"/>
       <c r="C107" s="23"/>
@@ -4751,7 +4814,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="54"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="23"/>
       <c r="B108" s="54"/>
       <c r="C108" s="23"/>
@@ -4772,7 +4835,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="54"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="23"/>
       <c r="B109" s="54"/>
       <c r="C109" s="23"/>
@@ -4793,7 +4856,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="54"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="23"/>
       <c r="B110" s="54"/>
       <c r="C110" s="23"/>
@@ -4814,7 +4877,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="54"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="23"/>
       <c r="B111" s="54"/>
       <c r="C111" s="23"/>
@@ -4835,7 +4898,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="54"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="23"/>
       <c r="B112" s="54"/>
       <c r="C112" s="23"/>
@@ -4856,7 +4919,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="54"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="23"/>
       <c r="B113" s="54"/>
       <c r="C113" s="23"/>
@@ -4877,7 +4940,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="54"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="23"/>
       <c r="B114" s="54"/>
       <c r="C114" s="23"/>
@@ -4898,7 +4961,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="54"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="23"/>
       <c r="B115" s="54"/>
       <c r="C115" s="23"/>
@@ -4919,7 +4982,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="54"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="23"/>
       <c r="B116" s="54"/>
       <c r="C116" s="23"/>
@@ -4940,7 +5003,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="54"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="23"/>
       <c r="B117" s="54"/>
       <c r="C117" s="23"/>
@@ -4961,7 +5024,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="54"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="23"/>
       <c r="B118" s="54"/>
       <c r="C118" s="23"/>
@@ -4982,7 +5045,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="54"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="23"/>
       <c r="B119" s="54"/>
       <c r="C119" s="23"/>
@@ -5003,7 +5066,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="54"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="23"/>
       <c r="B120" s="54"/>
       <c r="C120" s="23"/>
@@ -5024,7 +5087,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="54"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="23"/>
       <c r="B121" s="54"/>
       <c r="C121" s="23"/>
@@ -5045,7 +5108,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="54"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="23"/>
       <c r="B122" s="54"/>
       <c r="C122" s="23"/>
@@ -5066,7 +5129,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="54"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="23"/>
       <c r="B123" s="54"/>
       <c r="C123" s="23"/>
@@ -5087,7 +5150,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="54"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="23"/>
       <c r="B124" s="54"/>
       <c r="C124" s="23"/>
@@ -5108,7 +5171,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="54"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="23"/>
       <c r="B125" s="54"/>
       <c r="C125" s="23"/>
@@ -5129,7 +5192,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="54"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="23"/>
       <c r="B126" s="54"/>
       <c r="C126" s="23"/>
@@ -5150,7 +5213,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="54"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="23"/>
       <c r="B127" s="54"/>
       <c r="C127" s="23"/>
@@ -5171,7 +5234,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="54"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="23"/>
       <c r="B128" s="54"/>
       <c r="C128" s="23"/>
@@ -5192,7 +5255,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="54"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="23"/>
       <c r="B129" s="54"/>
       <c r="C129" s="23"/>
@@ -5213,7 +5276,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="54"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="23"/>
       <c r="B130" s="54"/>
       <c r="C130" s="23"/>
@@ -5234,7 +5297,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="54"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="23"/>
       <c r="B131" s="54"/>
       <c r="C131" s="23"/>
@@ -5255,7 +5318,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="54"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="23"/>
       <c r="B132" s="54"/>
       <c r="C132" s="23"/>
@@ -5276,7 +5339,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="54"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="23"/>
       <c r="B133" s="54"/>
       <c r="C133" s="23"/>
@@ -5297,7 +5360,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="54"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="23"/>
       <c r="B134" s="54"/>
       <c r="C134" s="23"/>
@@ -5318,7 +5381,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="54"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="23"/>
       <c r="B135" s="54"/>
       <c r="C135" s="23"/>
@@ -5339,7 +5402,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="54"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="23"/>
       <c r="B136" s="54"/>
       <c r="C136" s="23"/>
@@ -5360,7 +5423,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="54"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="23"/>
       <c r="B137" s="54"/>
       <c r="C137" s="23"/>
@@ -5381,7 +5444,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="54"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="23"/>
       <c r="B138" s="54"/>
       <c r="C138" s="23"/>
@@ -5402,7 +5465,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="54"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="23"/>
       <c r="B139" s="54"/>
       <c r="C139" s="23"/>
@@ -5423,7 +5486,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="54"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="23"/>
       <c r="B140" s="54"/>
       <c r="C140" s="23"/>
@@ -5444,7 +5507,7 @@
       <c r="R140" s="23"/>
       <c r="S140" s="54"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="23"/>
       <c r="B141" s="54"/>
       <c r="C141" s="23"/>
@@ -5465,7 +5528,7 @@
       <c r="R141" s="23"/>
       <c r="S141" s="54"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="23"/>
       <c r="B142" s="54"/>
       <c r="C142" s="23"/>
@@ -5486,7 +5549,7 @@
       <c r="R142" s="23"/>
       <c r="S142" s="54"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="23"/>
       <c r="B143" s="54"/>
       <c r="C143" s="23"/>
@@ -5507,7 +5570,7 @@
       <c r="R143" s="23"/>
       <c r="S143" s="54"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="23"/>
       <c r="B144" s="54"/>
       <c r="C144" s="23"/>
@@ -5528,7 +5591,7 @@
       <c r="R144" s="23"/>
       <c r="S144" s="54"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="23"/>
       <c r="B145" s="54"/>
       <c r="C145" s="23"/>
@@ -5549,7 +5612,7 @@
       <c r="R145" s="23"/>
       <c r="S145" s="54"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="23"/>
       <c r="B146" s="54"/>
       <c r="C146" s="23"/>
@@ -5570,7 +5633,7 @@
       <c r="R146" s="23"/>
       <c r="S146" s="54"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="23"/>
       <c r="B147" s="54"/>
       <c r="C147" s="23"/>
@@ -5591,7 +5654,7 @@
       <c r="R147" s="23"/>
       <c r="S147" s="54"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="23"/>
       <c r="B148" s="54"/>
       <c r="C148" s="23"/>
@@ -5612,7 +5675,7 @@
       <c r="R148" s="23"/>
       <c r="S148" s="54"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="23"/>
       <c r="B149" s="54"/>
       <c r="C149" s="23"/>
@@ -5633,7 +5696,7 @@
       <c r="R149" s="23"/>
       <c r="S149" s="54"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="23"/>
       <c r="B150" s="54"/>
       <c r="C150" s="23"/>
@@ -5654,7 +5717,7 @@
       <c r="R150" s="23"/>
       <c r="S150" s="54"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="23"/>
       <c r="B151" s="54"/>
       <c r="C151" s="23"/>
@@ -5675,7 +5738,7 @@
       <c r="R151" s="23"/>
       <c r="S151" s="54"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="23"/>
       <c r="B152" s="54"/>
       <c r="C152" s="23"/>
@@ -5696,7 +5759,7 @@
       <c r="R152" s="23"/>
       <c r="S152" s="54"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="23"/>
       <c r="B153" s="54"/>
       <c r="C153" s="23"/>
@@ -5717,7 +5780,7 @@
       <c r="R153" s="23"/>
       <c r="S153" s="54"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="23"/>
       <c r="B154" s="54"/>
       <c r="C154" s="23"/>
@@ -5738,7 +5801,7 @@
       <c r="R154" s="23"/>
       <c r="S154" s="54"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="23"/>
       <c r="B155" s="54"/>
       <c r="C155" s="23"/>
@@ -5759,7 +5822,7 @@
       <c r="R155" s="23"/>
       <c r="S155" s="54"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="23"/>
       <c r="B156" s="54"/>
       <c r="C156" s="23"/>
@@ -5780,7 +5843,7 @@
       <c r="R156" s="23"/>
       <c r="S156" s="54"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="23"/>
       <c r="B157" s="54"/>
       <c r="C157" s="23"/>
@@ -5801,7 +5864,7 @@
       <c r="R157" s="23"/>
       <c r="S157" s="54"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="23"/>
       <c r="B158" s="54"/>
       <c r="C158" s="23"/>
@@ -5822,7 +5885,7 @@
       <c r="R158" s="23"/>
       <c r="S158" s="54"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="23"/>
       <c r="B159" s="54"/>
       <c r="C159" s="23"/>
@@ -5840,7 +5903,7 @@
       <c r="O159" s="54"/>
       <c r="S159" s="54"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="23"/>
       <c r="B160" s="54"/>
       <c r="C160" s="23"/>
@@ -5858,7 +5921,7 @@
       <c r="O160" s="54"/>
       <c r="S160" s="54"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="23"/>
       <c r="B161" s="54"/>
       <c r="C161" s="23"/>
@@ -5876,7 +5939,7 @@
       <c r="O161" s="54"/>
       <c r="S161" s="54"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="23"/>
       <c r="B162" s="54"/>
       <c r="C162" s="23"/>
@@ -5894,7 +5957,7 @@
       <c r="O162" s="54"/>
       <c r="S162" s="54"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="23"/>
       <c r="B163" s="54"/>
       <c r="C163" s="23"/>
@@ -5912,7 +5975,7 @@
       <c r="O163" s="54"/>
       <c r="S163" s="54"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="23"/>
       <c r="B164" s="54"/>
       <c r="C164" s="23"/>
@@ -5930,7 +5993,7 @@
       <c r="O164" s="54"/>
       <c r="S164" s="54"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="23"/>
       <c r="B165" s="54"/>
       <c r="C165" s="23"/>
@@ -5948,7 +6011,7 @@
       <c r="O165" s="54"/>
       <c r="S165" s="54"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="23"/>
       <c r="B166" s="54"/>
       <c r="C166" s="23"/>
@@ -5966,7 +6029,7 @@
       <c r="O166" s="54"/>
       <c r="S166" s="54"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="23"/>
       <c r="B167" s="54"/>
       <c r="C167" s="23"/>
@@ -5984,7 +6047,7 @@
       <c r="O167" s="54"/>
       <c r="S167" s="54"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="23"/>
       <c r="B168" s="54"/>
       <c r="C168" s="23"/>
@@ -6002,7 +6065,7 @@
       <c r="O168" s="54"/>
       <c r="S168" s="54"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="23"/>
       <c r="B169" s="54"/>
       <c r="C169" s="23"/>
@@ -6020,7 +6083,7 @@
       <c r="O169" s="54"/>
       <c r="S169" s="54"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="23"/>
       <c r="B170" s="54"/>
       <c r="C170" s="23"/>
@@ -6038,7 +6101,7 @@
       <c r="O170" s="54"/>
       <c r="S170" s="54"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="23"/>
       <c r="B171" s="54"/>
       <c r="C171" s="23"/>
@@ -6056,7 +6119,7 @@
       <c r="O171" s="54"/>
       <c r="S171" s="54"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="23"/>
       <c r="B172" s="54"/>
       <c r="C172" s="23"/>
@@ -6074,7 +6137,7 @@
       <c r="O172" s="54"/>
       <c r="S172" s="54"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="23"/>
       <c r="B173" s="54"/>
       <c r="C173" s="23"/>
@@ -6092,7 +6155,7 @@
       <c r="O173" s="54"/>
       <c r="S173" s="54"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="23"/>
       <c r="B174" s="54"/>
       <c r="C174" s="23"/>
@@ -6110,7 +6173,7 @@
       <c r="O174" s="54"/>
       <c r="S174" s="54"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="23"/>
       <c r="B175" s="54"/>
       <c r="C175" s="23"/>
@@ -6128,7 +6191,7 @@
       <c r="O175" s="54"/>
       <c r="S175" s="54"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="23"/>
       <c r="B176" s="54"/>
       <c r="C176" s="23"/>
@@ -6146,7 +6209,7 @@
       <c r="O176" s="54"/>
       <c r="S176" s="54"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="23"/>
       <c r="B177" s="54"/>
       <c r="C177" s="23"/>
@@ -6164,7 +6227,7 @@
       <c r="O177" s="54"/>
       <c r="S177" s="54"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="23"/>
       <c r="B178" s="54"/>
       <c r="C178" s="23"/>
@@ -6182,7 +6245,7 @@
       <c r="O178" s="54"/>
       <c r="S178" s="54"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="23"/>
       <c r="B179" s="54"/>
       <c r="C179" s="23"/>
@@ -6200,7 +6263,7 @@
       <c r="O179" s="54"/>
       <c r="S179" s="54"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="23"/>
       <c r="B180" s="54"/>
       <c r="C180" s="23"/>
@@ -6218,7 +6281,7 @@
       <c r="O180" s="54"/>
       <c r="S180" s="54"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="23"/>
       <c r="B181" s="54"/>
       <c r="C181" s="23"/>
@@ -6236,7 +6299,7 @@
       <c r="O181" s="54"/>
       <c r="S181" s="54"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="23"/>
       <c r="B182" s="54"/>
       <c r="C182" s="23"/>
@@ -6254,7 +6317,7 @@
       <c r="O182" s="54"/>
       <c r="S182" s="54"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="23"/>
       <c r="B183" s="54"/>
       <c r="C183" s="23"/>
@@ -6272,7 +6335,7 @@
       <c r="O183" s="54"/>
       <c r="S183" s="54"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="23"/>
       <c r="B184" s="54"/>
       <c r="C184" s="23"/>
@@ -6290,7 +6353,7 @@
       <c r="O184" s="54"/>
       <c r="S184" s="54"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="23"/>
       <c r="B185" s="54"/>
       <c r="C185" s="23"/>
@@ -6308,7 +6371,7 @@
       <c r="O185" s="54"/>
       <c r="S185" s="54"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="23"/>
       <c r="B186" s="54"/>
       <c r="C186" s="23"/>
@@ -6326,7 +6389,7 @@
       <c r="O186" s="54"/>
       <c r="S186" s="54"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="23"/>
       <c r="B187" s="54"/>
       <c r="C187" s="23"/>
@@ -6344,7 +6407,7 @@
       <c r="O187" s="54"/>
       <c r="S187" s="54"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="23"/>
       <c r="B188" s="54"/>
       <c r="C188" s="23"/>
@@ -6362,7 +6425,7 @@
       <c r="O188" s="54"/>
       <c r="S188" s="54"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="23"/>
       <c r="B189" s="54"/>
       <c r="C189" s="23"/>
@@ -6380,7 +6443,7 @@
       <c r="O189" s="54"/>
       <c r="S189" s="54"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="23"/>
       <c r="B190" s="54"/>
       <c r="C190" s="23"/>
@@ -6398,7 +6461,7 @@
       <c r="O190" s="54"/>
       <c r="S190" s="54"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="23"/>
       <c r="B191" s="54"/>
       <c r="C191" s="23"/>
@@ -6416,7 +6479,7 @@
       <c r="O191" s="54"/>
       <c r="S191" s="54"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="23"/>
       <c r="B192" s="54"/>
       <c r="C192" s="23"/>
@@ -6434,7 +6497,7 @@
       <c r="O192" s="54"/>
       <c r="S192" s="54"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="23"/>
       <c r="B193" s="54"/>
       <c r="C193" s="23"/>
@@ -6460,14 +6523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
@@ -7303,7 +7366,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
@@ -7320,7 +7383,7 @@
       <c r="L1" s="78"/>
       <c r="M1" s="79"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="80"/>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -7335,7 +7398,7 @@
       <c r="L2" s="80"/>
       <c r="M2" s="81"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7376,7 +7439,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -7387,7 +7450,7 @@
         <v>180</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>186</v>
@@ -7417,7 +7480,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="62">
         <v>2</v>
       </c>
@@ -7458,7 +7521,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -7466,7 +7529,7 @@
         <v>170</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>179</v>
@@ -7499,7 +7562,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A7" s="62">
         <v>4</v>
       </c>
@@ -7510,7 +7573,7 @@
         <v>188</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="24" t="s">
         <v>190</v>
@@ -7519,26 +7582,26 @@
         <v>191</v>
       </c>
       <c r="G7" s="61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H7" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="J7" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L7" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="L7" s="24" t="s">
-        <v>196</v>
-      </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A8" s="24">
         <v>5</v>
       </c>
@@ -7558,26 +7621,26 @@
         <v>191</v>
       </c>
       <c r="G8" s="61" t="s">
+        <v>241</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="K8" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>196</v>
-      </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A9" s="62">
         <v>6</v>
       </c>
@@ -7588,7 +7651,7 @@
         <v>188</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>190</v>
@@ -7597,37 +7660,37 @@
         <v>191</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>198</v>
+        <v>242</v>
       </c>
       <c r="H9" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I9" s="24" t="s">
         <v>167</v>
       </c>
       <c r="J9" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="K9" s="24" t="s">
-        <v>195</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>196</v>
-      </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5">
       <c r="A10" s="24">
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>190</v>
@@ -7636,76 +7699,76 @@
         <v>191</v>
       </c>
       <c r="G10" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>167</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A11" s="62">
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F11" s="24" t="s">
         <v>191</v>
       </c>
       <c r="G11" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>167</v>
       </c>
       <c r="J11" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="L11" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>212</v>
-      </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="132">
       <c r="A12" s="24">
         <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>188</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>190</v>
@@ -7714,37 +7777,37 @@
         <v>191</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H12" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>167</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A13" s="24">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>180</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>190</v>
@@ -7753,26 +7816,26 @@
         <v>191</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>167</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7787,7 +7850,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7824,14 +7887,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -7842,7 +7905,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -7868,7 +7931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="8" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7878,7 +7941,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7888,7 +7951,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7898,7 +7961,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7908,7 +7971,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7918,7 +7981,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7928,7 +7991,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -7938,7 +8001,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -7948,7 +8011,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -7958,7 +8021,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -7968,7 +8031,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -7978,7 +8041,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -7988,7 +8051,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -7998,7 +8061,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -8008,7 +8071,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -8018,7 +8081,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -8028,7 +8091,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -8038,7 +8101,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -8060,14 +8123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="32" customWidth="1"/>
@@ -8081,7 +8144,7 @@
     <col min="11" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="85" t="s">
         <v>85</v>
       </c>
@@ -8095,7 +8158,7 @@
       <c r="I1" s="86"/>
       <c r="J1" s="86"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
@@ -8118,7 +8181,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>68</v>
@@ -8127,7 +8190,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="96">
         <v>1</v>
       </c>
@@ -8153,7 +8216,7 @@
       </c>
       <c r="J3" s="43"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="97"/>
       <c r="B4" s="42" t="s">
         <v>94</v>
@@ -8177,7 +8240,7 @@
       </c>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
         <v>95</v>
@@ -8197,7 +8260,7 @@
       <c r="I5" s="40"/>
       <c r="J5" s="43"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="16.5">
       <c r="A6" s="87">
         <v>2</v>
       </c>
@@ -8215,7 +8278,7 @@
         <v>74</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H6" s="74">
         <v>42548</v>
@@ -8225,7 +8288,7 @@
       </c>
       <c r="J6" s="35"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="16.5">
       <c r="A7" s="88"/>
       <c r="B7" s="88"/>
       <c r="C7" s="89"/>
@@ -8237,7 +8300,7 @@
         <v>74</v>
       </c>
       <c r="G7" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H7" s="74">
         <v>42548</v>
@@ -8247,7 +8310,7 @@
       </c>
       <c r="J7" s="35"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="16.5">
       <c r="A8" s="88"/>
       <c r="B8" s="88"/>
       <c r="C8" s="89" t="s">
@@ -8263,7 +8326,7 @@
         <v>77</v>
       </c>
       <c r="G8" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H8" s="74">
         <v>42548</v>
@@ -8273,7 +8336,7 @@
       </c>
       <c r="J8" s="35"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="88"/>
       <c r="B9" s="88"/>
       <c r="C9" s="89"/>
@@ -8287,7 +8350,7 @@
         <v>103</v>
       </c>
       <c r="G9" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H9" s="74">
         <v>42548</v>
@@ -8297,7 +8360,7 @@
       </c>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="88"/>
       <c r="B10" s="88"/>
       <c r="C10" s="89"/>
@@ -8311,7 +8374,7 @@
         <v>104</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H10" s="74">
         <v>42548</v>
@@ -8321,7 +8384,7 @@
       </c>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="44"/>
       <c r="B11" s="44"/>
       <c r="C11" s="37" t="s">
@@ -8331,13 +8394,13 @@
         <v>106</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>107</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H11" s="74">
         <v>42548</v>
@@ -8347,7 +8410,7 @@
       </c>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="66"/>
       <c r="B12" s="66"/>
       <c r="C12" s="67" t="s">
@@ -8361,7 +8424,7 @@
         <v>111</v>
       </c>
       <c r="G12" s="67" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H12" s="74">
         <v>42548</v>
@@ -8371,21 +8434,21 @@
       </c>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="44"/>
       <c r="B13" s="44"/>
       <c r="C13" s="37" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D13" s="35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E13" s="36"/>
       <c r="F13" s="37" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H13" s="74">
         <v>42548</v>
@@ -8395,23 +8458,23 @@
       </c>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="99">
         <v>3</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="70"/>
       <c r="F14" s="68" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G14" s="68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H14" s="75">
         <v>42548</v>
@@ -8421,35 +8484,35 @@
       </c>
       <c r="J14" s="70"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="100"/>
       <c r="B15" s="102"/>
       <c r="C15" s="71" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D15" s="70"/>
       <c r="E15" s="69"/>
       <c r="F15" s="68" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="70"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="100"/>
       <c r="B16" s="102"/>
       <c r="C16" s="68" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
       <c r="F16" s="68" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H16" s="75">
         <v>42545</v>
@@ -8459,19 +8522,19 @@
       </c>
       <c r="J16" s="70"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="100"/>
       <c r="B17" s="102"/>
       <c r="C17" s="68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
       <c r="F17" s="68" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H17" s="75">
         <v>42548</v>
@@ -8481,7 +8544,7 @@
       </c>
       <c r="J17" s="70"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="16.5">
       <c r="A18" s="90">
         <v>4</v>
       </c>
@@ -8505,7 +8568,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="39"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="91"/>
       <c r="B19" s="94"/>
       <c r="C19" s="82" t="s">
@@ -8523,7 +8586,7 @@
       <c r="I19" s="40"/>
       <c r="J19" s="39"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="16.5">
       <c r="A20" s="91"/>
       <c r="B20" s="94"/>
       <c r="C20" s="83"/>
@@ -8539,7 +8602,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="39"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="91"/>
       <c r="B21" s="94"/>
       <c r="C21" s="84"/>
@@ -8555,27 +8618,27 @@
       <c r="I21" s="40"/>
       <c r="J21" s="39"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="91"/>
       <c r="B22" s="94"/>
       <c r="C22" s="64" t="s">
         <v>76</v>
       </c>
       <c r="D22" s="39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E22" s="39" t="s">
         <v>86</v>
       </c>
       <c r="F22" s="40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="91"/>
       <c r="B23" s="94"/>
       <c r="C23" s="40" t="s">
@@ -8593,7 +8656,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="39"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="91"/>
       <c r="B24" s="94"/>
       <c r="C24" s="40" t="s">
@@ -8611,18 +8674,18 @@
       <c r="I24" s="40"/>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="92"/>
       <c r="B25" s="95"/>
       <c r="C25" s="40" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E25" s="38"/>
       <c r="F25" s="40" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="253">
   <si>
     <t>No</t>
   </si>
@@ -350,16 +355,8 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>验证测试结果</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>聚有财测试</t>
     <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它各组功能测试</t>
-    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>黄展明</t>
@@ -955,12 +952,60 @@
 sysconfig.jyc_env=pro</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证测试结果、负责的主功能业务回归</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证测试结果、负责的主功能业务回归</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量报告</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1659,74 +1704,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1746,7 +1723,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2066,14 +2043,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="60" customWidth="1"/>
@@ -2097,7 +2074,7 @@
     <col min="21" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="46" customFormat="1" ht="27">
+    <row r="1" spans="1:20" s="46" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2156,12 +2133,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1">
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30">
         <v>1</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>40</v>
@@ -2189,7 +2166,7 @@
         <v>44</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="M2" s="17"/>
       <c r="N2" s="16"/>
@@ -2200,7 +2177,7 @@
       <c r="S2" s="19"/>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -2211,7 +2188,7 @@
         <v>40</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>41</v>
@@ -2227,10 +2204,10 @@
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>45</v>
@@ -2244,7 +2221,7 @@
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -2286,7 +2263,7 @@
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -2313,7 +2290,7 @@
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>44</v>
@@ -2328,7 +2305,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -2339,7 +2316,7 @@
         <v>40</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>41</v>
@@ -2370,7 +2347,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="7" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -2400,7 +2377,7 @@
         <v>55</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="17"/>
@@ -2412,18 +2389,18 @@
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A8" s="30">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>41</v>
@@ -2439,7 +2416,7 @@
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>44</v>
@@ -2454,18 +2431,18 @@
       <c r="S8" s="19"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A9" s="30">
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>41</v>
@@ -2481,10 +2458,10 @@
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L9" s="15"/>
       <c r="M9" s="17"/>
@@ -2496,7 +2473,7 @@
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -2507,7 +2484,7 @@
         <v>57</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>41</v>
@@ -2526,7 +2503,7 @@
         <v>58</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L10" s="15"/>
       <c r="M10" s="17"/>
@@ -2538,7 +2515,7 @@
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="33">
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -2580,18 +2557,18 @@
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="30">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>41</v>
@@ -2607,13 +2584,13 @@
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L12" s="15" t="s">
         <v>131</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="L12" s="15" t="s">
-        <v>133</v>
       </c>
       <c r="M12" s="17"/>
       <c r="N12" s="16"/>
@@ -2624,18 +2601,18 @@
       <c r="S12" s="19"/>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="30">
         <v>12</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>41</v>
@@ -2651,13 +2628,13 @@
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="K13" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="L13" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="M13" s="17"/>
       <c r="N13" s="16"/>
@@ -2668,18 +2645,18 @@
       <c r="S13" s="19"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="30">
         <v>13</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>41</v>
@@ -2695,13 +2672,13 @@
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M14" s="17"/>
       <c r="N14" s="16"/>
@@ -2712,12 +2689,12 @@
       <c r="S14" s="19"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="30">
         <v>14</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>40</v>
@@ -2739,13 +2716,13 @@
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" s="17"/>
       <c r="N15" s="16"/>
@@ -2756,12 +2733,12 @@
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="30">
         <v>15</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>40</v>
@@ -2783,13 +2760,13 @@
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="17" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="16"/>
@@ -2800,12 +2777,12 @@
       <c r="S16" s="19"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
+    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="30">
         <v>16</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>40</v>
@@ -2827,13 +2804,13 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="17" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M17" s="17"/>
       <c r="N17" s="16"/>
@@ -2844,18 +2821,18 @@
       <c r="S17" s="19"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1">
+    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="30">
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>57</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>41</v>
@@ -2871,43 +2848,43 @@
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="K18" s="15" t="s">
+      <c r="M18" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="L18" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>151</v>
       </c>
       <c r="N18" s="16">
         <v>42548</v>
       </c>
       <c r="O18" s="17" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P18" s="18"/>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
       <c r="S18" s="47" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="49" customFormat="1" ht="23.25" customHeight="1">
+    <row r="19" spans="1:20" s="49" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="30">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>156</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>41</v>
@@ -2923,32 +2900,32 @@
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>157</v>
-      </c>
-      <c r="K19" s="15" t="s">
-        <v>158</v>
-      </c>
-      <c r="L19" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>159</v>
       </c>
       <c r="N19" s="16">
         <v>42548</v>
       </c>
       <c r="O19" s="17" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="S19" s="17"/>
       <c r="T19" s="48"/>
     </row>
-    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="30"/>
       <c r="B20" s="31"/>
       <c r="C20" s="15"/>
@@ -2970,7 +2947,7 @@
       <c r="S20" s="19"/>
       <c r="T20" s="20"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="15"/>
@@ -2992,7 +2969,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="15"/>
@@ -3014,7 +2991,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="15"/>
@@ -3036,7 +3013,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="15"/>
@@ -3058,7 +3035,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="15"/>
@@ -3080,7 +3057,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="15"/>
@@ -3102,7 +3079,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="15"/>
@@ -3124,7 +3101,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="15"/>
@@ -3146,7 +3123,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="15"/>
@@ -3168,7 +3145,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="15"/>
@@ -3190,7 +3167,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="15"/>
@@ -3212,7 +3189,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="15"/>
@@ -3234,7 +3211,7 @@
       <c r="S32" s="19"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="15"/>
@@ -3256,7 +3233,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="30"/>
       <c r="B34" s="31"/>
       <c r="C34" s="15"/>
@@ -3278,7 +3255,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="15"/>
@@ -3300,7 +3277,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="50"/>
       <c r="B36" s="51"/>
       <c r="C36" s="50"/>
@@ -3322,7 +3299,7 @@
       <c r="S36" s="51"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="50"/>
@@ -3344,7 +3321,7 @@
       <c r="S37" s="51"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5">
+    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="23"/>
       <c r="B38" s="54"/>
       <c r="C38" s="23"/>
@@ -3365,7 +3342,7 @@
       <c r="R38" s="23"/>
       <c r="S38" s="54"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5">
+    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="23"/>
       <c r="B39" s="54"/>
       <c r="C39" s="23"/>
@@ -3386,7 +3363,7 @@
       <c r="R39" s="23"/>
       <c r="S39" s="54"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5">
+    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="23"/>
       <c r="B40" s="54"/>
       <c r="C40" s="23"/>
@@ -3407,7 +3384,7 @@
       <c r="R40" s="23"/>
       <c r="S40" s="54"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5">
+    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="23"/>
       <c r="B41" s="54"/>
       <c r="C41" s="23"/>
@@ -3428,7 +3405,7 @@
       <c r="R41" s="23"/>
       <c r="S41" s="54"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5">
+    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="23"/>
       <c r="B42" s="54"/>
       <c r="C42" s="23"/>
@@ -3449,7 +3426,7 @@
       <c r="R42" s="23"/>
       <c r="S42" s="54"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5">
+    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="23"/>
       <c r="B43" s="54"/>
       <c r="C43" s="23"/>
@@ -3470,7 +3447,7 @@
       <c r="R43" s="23"/>
       <c r="S43" s="54"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5">
+    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="23"/>
       <c r="B44" s="54"/>
       <c r="C44" s="23"/>
@@ -3491,7 +3468,7 @@
       <c r="R44" s="23"/>
       <c r="S44" s="54"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5">
+    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="23"/>
       <c r="B45" s="54"/>
       <c r="C45" s="23"/>
@@ -3512,7 +3489,7 @@
       <c r="R45" s="23"/>
       <c r="S45" s="54"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5">
+    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="23"/>
       <c r="B46" s="54"/>
       <c r="C46" s="23"/>
@@ -3533,7 +3510,7 @@
       <c r="R46" s="23"/>
       <c r="S46" s="54"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5">
+    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="23"/>
       <c r="B47" s="54"/>
       <c r="C47" s="23"/>
@@ -3554,7 +3531,7 @@
       <c r="R47" s="23"/>
       <c r="S47" s="54"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5">
+    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="23"/>
       <c r="B48" s="54"/>
       <c r="C48" s="23"/>
@@ -3575,7 +3552,7 @@
       <c r="R48" s="23"/>
       <c r="S48" s="54"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5">
+    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="23"/>
       <c r="B49" s="54"/>
       <c r="C49" s="23"/>
@@ -3596,7 +3573,7 @@
       <c r="R49" s="23"/>
       <c r="S49" s="54"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5">
+    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="23"/>
       <c r="B50" s="54"/>
       <c r="C50" s="23"/>
@@ -3617,7 +3594,7 @@
       <c r="R50" s="23"/>
       <c r="S50" s="54"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5">
+    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="23"/>
       <c r="B51" s="54"/>
       <c r="C51" s="23"/>
@@ -3638,7 +3615,7 @@
       <c r="R51" s="23"/>
       <c r="S51" s="54"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5">
+    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="23"/>
       <c r="B52" s="54"/>
       <c r="C52" s="23"/>
@@ -3659,7 +3636,7 @@
       <c r="R52" s="23"/>
       <c r="S52" s="54"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5">
+    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="23"/>
       <c r="B53" s="54"/>
       <c r="C53" s="23"/>
@@ -3680,7 +3657,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="54"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5">
+    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="23"/>
       <c r="B54" s="54"/>
       <c r="C54" s="23"/>
@@ -3701,7 +3678,7 @@
       <c r="R54" s="23"/>
       <c r="S54" s="54"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5">
+    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="23"/>
       <c r="B55" s="54"/>
       <c r="C55" s="23"/>
@@ -3722,7 +3699,7 @@
       <c r="R55" s="23"/>
       <c r="S55" s="54"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5">
+    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="23"/>
       <c r="B56" s="54"/>
       <c r="C56" s="23"/>
@@ -3743,7 +3720,7 @@
       <c r="R56" s="23"/>
       <c r="S56" s="54"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5">
+    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="23"/>
       <c r="B57" s="54"/>
       <c r="C57" s="23"/>
@@ -3764,7 +3741,7 @@
       <c r="R57" s="23"/>
       <c r="S57" s="54"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5">
+    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="23"/>
       <c r="B58" s="54"/>
       <c r="C58" s="23"/>
@@ -3785,7 +3762,7 @@
       <c r="R58" s="23"/>
       <c r="S58" s="54"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5">
+    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="23"/>
       <c r="B59" s="54"/>
       <c r="C59" s="23"/>
@@ -3806,7 +3783,7 @@
       <c r="R59" s="23"/>
       <c r="S59" s="54"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5">
+    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="23"/>
       <c r="B60" s="54"/>
       <c r="C60" s="23"/>
@@ -3827,7 +3804,7 @@
       <c r="R60" s="23"/>
       <c r="S60" s="54"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5">
+    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="23"/>
       <c r="B61" s="54"/>
       <c r="C61" s="23"/>
@@ -3848,7 +3825,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="54"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5">
+    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="23"/>
       <c r="B62" s="54"/>
       <c r="C62" s="23"/>
@@ -3869,7 +3846,7 @@
       <c r="R62" s="23"/>
       <c r="S62" s="54"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5">
+    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="23"/>
       <c r="B63" s="54"/>
       <c r="C63" s="23"/>
@@ -3890,7 +3867,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="54"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5">
+    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="23"/>
       <c r="B64" s="54"/>
       <c r="C64" s="23"/>
@@ -3911,7 +3888,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="54"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="23"/>
       <c r="B65" s="54"/>
       <c r="C65" s="23"/>
@@ -3932,7 +3909,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="54"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="23"/>
       <c r="B66" s="54"/>
       <c r="C66" s="23"/>
@@ -3953,7 +3930,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="54"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="23"/>
       <c r="B67" s="54"/>
       <c r="C67" s="23"/>
@@ -3974,7 +3951,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="54"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="23"/>
       <c r="B68" s="54"/>
       <c r="C68" s="23"/>
@@ -3995,7 +3972,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="54"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="23"/>
       <c r="B69" s="54"/>
       <c r="C69" s="23"/>
@@ -4016,7 +3993,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="54"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="23"/>
       <c r="B70" s="54"/>
       <c r="C70" s="23"/>
@@ -4037,7 +4014,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="54"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="23"/>
       <c r="B71" s="54"/>
       <c r="C71" s="23"/>
@@ -4058,7 +4035,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="54"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="23"/>
       <c r="B72" s="54"/>
       <c r="C72" s="23"/>
@@ -4079,7 +4056,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="54"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="23"/>
       <c r="B73" s="54"/>
       <c r="C73" s="23"/>
@@ -4100,7 +4077,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="54"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="23"/>
       <c r="B74" s="54"/>
       <c r="C74" s="23"/>
@@ -4121,7 +4098,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="54"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="23"/>
       <c r="B75" s="54"/>
       <c r="C75" s="23"/>
@@ -4142,7 +4119,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="54"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="23"/>
       <c r="B76" s="54"/>
       <c r="C76" s="23"/>
@@ -4163,7 +4140,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="54"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="23"/>
       <c r="B77" s="54"/>
       <c r="C77" s="23"/>
@@ -4184,7 +4161,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="54"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="23"/>
       <c r="B78" s="54"/>
       <c r="C78" s="23"/>
@@ -4205,7 +4182,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="54"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="23"/>
       <c r="B79" s="54"/>
       <c r="C79" s="23"/>
@@ -4226,7 +4203,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="54"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="23"/>
       <c r="B80" s="54"/>
       <c r="C80" s="23"/>
@@ -4247,7 +4224,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="54"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="23"/>
       <c r="B81" s="54"/>
       <c r="C81" s="23"/>
@@ -4268,7 +4245,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="54"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="23"/>
       <c r="B82" s="54"/>
       <c r="C82" s="23"/>
@@ -4289,7 +4266,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="54"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="23"/>
       <c r="B83" s="54"/>
       <c r="C83" s="23"/>
@@ -4310,7 +4287,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="54"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="23"/>
       <c r="B84" s="54"/>
       <c r="C84" s="23"/>
@@ -4331,7 +4308,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="54"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="23"/>
       <c r="B85" s="54"/>
       <c r="C85" s="23"/>
@@ -4352,7 +4329,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="54"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="23"/>
       <c r="B86" s="54"/>
       <c r="C86" s="23"/>
@@ -4373,7 +4350,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="54"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="23"/>
       <c r="B87" s="54"/>
       <c r="C87" s="23"/>
@@ -4394,7 +4371,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="54"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="23"/>
       <c r="B88" s="54"/>
       <c r="C88" s="23"/>
@@ -4415,7 +4392,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="54"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="23"/>
       <c r="B89" s="54"/>
       <c r="C89" s="23"/>
@@ -4436,7 +4413,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="54"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="23"/>
       <c r="B90" s="54"/>
       <c r="C90" s="23"/>
@@ -4457,7 +4434,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="54"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="23"/>
       <c r="B91" s="54"/>
       <c r="C91" s="23"/>
@@ -4478,7 +4455,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="54"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="23"/>
       <c r="B92" s="54"/>
       <c r="C92" s="23"/>
@@ -4499,7 +4476,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="54"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="23"/>
       <c r="B93" s="54"/>
       <c r="C93" s="23"/>
@@ -4520,7 +4497,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="54"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="23"/>
       <c r="B94" s="54"/>
       <c r="C94" s="23"/>
@@ -4541,7 +4518,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="54"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="23"/>
       <c r="B95" s="54"/>
       <c r="C95" s="23"/>
@@ -4562,7 +4539,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="54"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="23"/>
       <c r="B96" s="54"/>
       <c r="C96" s="23"/>
@@ -4583,7 +4560,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="54"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="23"/>
       <c r="B97" s="54"/>
       <c r="C97" s="23"/>
@@ -4604,7 +4581,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="54"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="23"/>
       <c r="B98" s="54"/>
       <c r="C98" s="23"/>
@@ -4625,7 +4602,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="54"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A99" s="23"/>
       <c r="B99" s="54"/>
       <c r="C99" s="23"/>
@@ -4646,7 +4623,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="54"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A100" s="23"/>
       <c r="B100" s="54"/>
       <c r="C100" s="23"/>
@@ -4667,7 +4644,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="54"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A101" s="23"/>
       <c r="B101" s="54"/>
       <c r="C101" s="23"/>
@@ -4688,7 +4665,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="54"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A102" s="23"/>
       <c r="B102" s="54"/>
       <c r="C102" s="23"/>
@@ -4709,7 +4686,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="54"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A103" s="23"/>
       <c r="B103" s="54"/>
       <c r="C103" s="23"/>
@@ -4730,7 +4707,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="54"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A104" s="23"/>
       <c r="B104" s="54"/>
       <c r="C104" s="23"/>
@@ -4751,7 +4728,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="54"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A105" s="23"/>
       <c r="B105" s="54"/>
       <c r="C105" s="23"/>
@@ -4772,7 +4749,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="54"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A106" s="23"/>
       <c r="B106" s="54"/>
       <c r="C106" s="23"/>
@@ -4793,7 +4770,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="54"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A107" s="23"/>
       <c r="B107" s="54"/>
       <c r="C107" s="23"/>
@@ -4814,7 +4791,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="54"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A108" s="23"/>
       <c r="B108" s="54"/>
       <c r="C108" s="23"/>
@@ -4835,7 +4812,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="54"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A109" s="23"/>
       <c r="B109" s="54"/>
       <c r="C109" s="23"/>
@@ -4856,7 +4833,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="54"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A110" s="23"/>
       <c r="B110" s="54"/>
       <c r="C110" s="23"/>
@@ -4877,7 +4854,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="54"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A111" s="23"/>
       <c r="B111" s="54"/>
       <c r="C111" s="23"/>
@@ -4898,7 +4875,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="54"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A112" s="23"/>
       <c r="B112" s="54"/>
       <c r="C112" s="23"/>
@@ -4919,7 +4896,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="54"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="23"/>
       <c r="B113" s="54"/>
       <c r="C113" s="23"/>
@@ -4940,7 +4917,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="54"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="23"/>
       <c r="B114" s="54"/>
       <c r="C114" s="23"/>
@@ -4961,7 +4938,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="54"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="23"/>
       <c r="B115" s="54"/>
       <c r="C115" s="23"/>
@@ -4982,7 +4959,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="54"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="23"/>
       <c r="B116" s="54"/>
       <c r="C116" s="23"/>
@@ -5003,7 +4980,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="54"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="23"/>
       <c r="B117" s="54"/>
       <c r="C117" s="23"/>
@@ -5024,7 +5001,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="54"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="23"/>
       <c r="B118" s="54"/>
       <c r="C118" s="23"/>
@@ -5045,7 +5022,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="54"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="23"/>
       <c r="B119" s="54"/>
       <c r="C119" s="23"/>
@@ -5066,7 +5043,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="54"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="23"/>
       <c r="B120" s="54"/>
       <c r="C120" s="23"/>
@@ -5087,7 +5064,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="54"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="23"/>
       <c r="B121" s="54"/>
       <c r="C121" s="23"/>
@@ -5108,7 +5085,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="54"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="23"/>
       <c r="B122" s="54"/>
       <c r="C122" s="23"/>
@@ -5129,7 +5106,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="54"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="23"/>
       <c r="B123" s="54"/>
       <c r="C123" s="23"/>
@@ -5150,7 +5127,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="54"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="23"/>
       <c r="B124" s="54"/>
       <c r="C124" s="23"/>
@@ -5171,7 +5148,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="54"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="23"/>
       <c r="B125" s="54"/>
       <c r="C125" s="23"/>
@@ -5192,7 +5169,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="54"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="23"/>
       <c r="B126" s="54"/>
       <c r="C126" s="23"/>
@@ -5213,7 +5190,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="54"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="23"/>
       <c r="B127" s="54"/>
       <c r="C127" s="23"/>
@@ -5234,7 +5211,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="54"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="23"/>
       <c r="B128" s="54"/>
       <c r="C128" s="23"/>
@@ -5255,7 +5232,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="54"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="23"/>
       <c r="B129" s="54"/>
       <c r="C129" s="23"/>
@@ -5276,7 +5253,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="54"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="23"/>
       <c r="B130" s="54"/>
       <c r="C130" s="23"/>
@@ -5297,7 +5274,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="54"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="23"/>
       <c r="B131" s="54"/>
       <c r="C131" s="23"/>
@@ -5318,7 +5295,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="54"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="23"/>
       <c r="B132" s="54"/>
       <c r="C132" s="23"/>
@@ -5339,7 +5316,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="54"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="23"/>
       <c r="B133" s="54"/>
       <c r="C133" s="23"/>
@@ -5360,7 +5337,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="54"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="23"/>
       <c r="B134" s="54"/>
       <c r="C134" s="23"/>
@@ -5381,7 +5358,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="54"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="23"/>
       <c r="B135" s="54"/>
       <c r="C135" s="23"/>
@@ -5402,7 +5379,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="54"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="23"/>
       <c r="B136" s="54"/>
       <c r="C136" s="23"/>
@@ -5423,7 +5400,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="54"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="23"/>
       <c r="B137" s="54"/>
       <c r="C137" s="23"/>
@@ -5444,7 +5421,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="54"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="23"/>
       <c r="B138" s="54"/>
       <c r="C138" s="23"/>
@@ -5465,7 +5442,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="54"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="23"/>
       <c r="B139" s="54"/>
       <c r="C139" s="23"/>
@@ -5486,7 +5463,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="54"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="23"/>
       <c r="B140" s="54"/>
       <c r="C140" s="23"/>
@@ -5507,7 +5484,7 @@
       <c r="R140" s="23"/>
       <c r="S140" s="54"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="23"/>
       <c r="B141" s="54"/>
       <c r="C141" s="23"/>
@@ -5528,7 +5505,7 @@
       <c r="R141" s="23"/>
       <c r="S141" s="54"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="23"/>
       <c r="B142" s="54"/>
       <c r="C142" s="23"/>
@@ -5549,7 +5526,7 @@
       <c r="R142" s="23"/>
       <c r="S142" s="54"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="23"/>
       <c r="B143" s="54"/>
       <c r="C143" s="23"/>
@@ -5570,7 +5547,7 @@
       <c r="R143" s="23"/>
       <c r="S143" s="54"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="23"/>
       <c r="B144" s="54"/>
       <c r="C144" s="23"/>
@@ -5591,7 +5568,7 @@
       <c r="R144" s="23"/>
       <c r="S144" s="54"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="23"/>
       <c r="B145" s="54"/>
       <c r="C145" s="23"/>
@@ -5612,7 +5589,7 @@
       <c r="R145" s="23"/>
       <c r="S145" s="54"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="23"/>
       <c r="B146" s="54"/>
       <c r="C146" s="23"/>
@@ -5633,7 +5610,7 @@
       <c r="R146" s="23"/>
       <c r="S146" s="54"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="23"/>
       <c r="B147" s="54"/>
       <c r="C147" s="23"/>
@@ -5654,7 +5631,7 @@
       <c r="R147" s="23"/>
       <c r="S147" s="54"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="23"/>
       <c r="B148" s="54"/>
       <c r="C148" s="23"/>
@@ -5675,7 +5652,7 @@
       <c r="R148" s="23"/>
       <c r="S148" s="54"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="23"/>
       <c r="B149" s="54"/>
       <c r="C149" s="23"/>
@@ -5696,7 +5673,7 @@
       <c r="R149" s="23"/>
       <c r="S149" s="54"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="23"/>
       <c r="B150" s="54"/>
       <c r="C150" s="23"/>
@@ -5717,7 +5694,7 @@
       <c r="R150" s="23"/>
       <c r="S150" s="54"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="23"/>
       <c r="B151" s="54"/>
       <c r="C151" s="23"/>
@@ -5738,7 +5715,7 @@
       <c r="R151" s="23"/>
       <c r="S151" s="54"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="23"/>
       <c r="B152" s="54"/>
       <c r="C152" s="23"/>
@@ -5759,7 +5736,7 @@
       <c r="R152" s="23"/>
       <c r="S152" s="54"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="23"/>
       <c r="B153" s="54"/>
       <c r="C153" s="23"/>
@@ -5780,7 +5757,7 @@
       <c r="R153" s="23"/>
       <c r="S153" s="54"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="23"/>
       <c r="B154" s="54"/>
       <c r="C154" s="23"/>
@@ -5801,7 +5778,7 @@
       <c r="R154" s="23"/>
       <c r="S154" s="54"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="23"/>
       <c r="B155" s="54"/>
       <c r="C155" s="23"/>
@@ -5822,7 +5799,7 @@
       <c r="R155" s="23"/>
       <c r="S155" s="54"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="23"/>
       <c r="B156" s="54"/>
       <c r="C156" s="23"/>
@@ -5843,7 +5820,7 @@
       <c r="R156" s="23"/>
       <c r="S156" s="54"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="23"/>
       <c r="B157" s="54"/>
       <c r="C157" s="23"/>
@@ -5864,7 +5841,7 @@
       <c r="R157" s="23"/>
       <c r="S157" s="54"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="23"/>
       <c r="B158" s="54"/>
       <c r="C158" s="23"/>
@@ -5885,7 +5862,7 @@
       <c r="R158" s="23"/>
       <c r="S158" s="54"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="23"/>
       <c r="B159" s="54"/>
       <c r="C159" s="23"/>
@@ -5903,7 +5880,7 @@
       <c r="O159" s="54"/>
       <c r="S159" s="54"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="23"/>
       <c r="B160" s="54"/>
       <c r="C160" s="23"/>
@@ -5921,7 +5898,7 @@
       <c r="O160" s="54"/>
       <c r="S160" s="54"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="23"/>
       <c r="B161" s="54"/>
       <c r="C161" s="23"/>
@@ -5939,7 +5916,7 @@
       <c r="O161" s="54"/>
       <c r="S161" s="54"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="23"/>
       <c r="B162" s="54"/>
       <c r="C162" s="23"/>
@@ -5957,7 +5934,7 @@
       <c r="O162" s="54"/>
       <c r="S162" s="54"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="23"/>
       <c r="B163" s="54"/>
       <c r="C163" s="23"/>
@@ -5975,7 +5952,7 @@
       <c r="O163" s="54"/>
       <c r="S163" s="54"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="23"/>
       <c r="B164" s="54"/>
       <c r="C164" s="23"/>
@@ -5993,7 +5970,7 @@
       <c r="O164" s="54"/>
       <c r="S164" s="54"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="23"/>
       <c r="B165" s="54"/>
       <c r="C165" s="23"/>
@@ -6011,7 +5988,7 @@
       <c r="O165" s="54"/>
       <c r="S165" s="54"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="23"/>
       <c r="B166" s="54"/>
       <c r="C166" s="23"/>
@@ -6029,7 +6006,7 @@
       <c r="O166" s="54"/>
       <c r="S166" s="54"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="23"/>
       <c r="B167" s="54"/>
       <c r="C167" s="23"/>
@@ -6047,7 +6024,7 @@
       <c r="O167" s="54"/>
       <c r="S167" s="54"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="23"/>
       <c r="B168" s="54"/>
       <c r="C168" s="23"/>
@@ -6065,7 +6042,7 @@
       <c r="O168" s="54"/>
       <c r="S168" s="54"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="23"/>
       <c r="B169" s="54"/>
       <c r="C169" s="23"/>
@@ -6083,7 +6060,7 @@
       <c r="O169" s="54"/>
       <c r="S169" s="54"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="23"/>
       <c r="B170" s="54"/>
       <c r="C170" s="23"/>
@@ -6101,7 +6078,7 @@
       <c r="O170" s="54"/>
       <c r="S170" s="54"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="23"/>
       <c r="B171" s="54"/>
       <c r="C171" s="23"/>
@@ -6119,7 +6096,7 @@
       <c r="O171" s="54"/>
       <c r="S171" s="54"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="23"/>
       <c r="B172" s="54"/>
       <c r="C172" s="23"/>
@@ -6137,7 +6114,7 @@
       <c r="O172" s="54"/>
       <c r="S172" s="54"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="23"/>
       <c r="B173" s="54"/>
       <c r="C173" s="23"/>
@@ -6155,7 +6132,7 @@
       <c r="O173" s="54"/>
       <c r="S173" s="54"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="23"/>
       <c r="B174" s="54"/>
       <c r="C174" s="23"/>
@@ -6173,7 +6150,7 @@
       <c r="O174" s="54"/>
       <c r="S174" s="54"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="23"/>
       <c r="B175" s="54"/>
       <c r="C175" s="23"/>
@@ -6191,7 +6168,7 @@
       <c r="O175" s="54"/>
       <c r="S175" s="54"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="23"/>
       <c r="B176" s="54"/>
       <c r="C176" s="23"/>
@@ -6209,7 +6186,7 @@
       <c r="O176" s="54"/>
       <c r="S176" s="54"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="23"/>
       <c r="B177" s="54"/>
       <c r="C177" s="23"/>
@@ -6227,7 +6204,7 @@
       <c r="O177" s="54"/>
       <c r="S177" s="54"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="23"/>
       <c r="B178" s="54"/>
       <c r="C178" s="23"/>
@@ -6245,7 +6222,7 @@
       <c r="O178" s="54"/>
       <c r="S178" s="54"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="23"/>
       <c r="B179" s="54"/>
       <c r="C179" s="23"/>
@@ -6263,7 +6240,7 @@
       <c r="O179" s="54"/>
       <c r="S179" s="54"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="23"/>
       <c r="B180" s="54"/>
       <c r="C180" s="23"/>
@@ -6281,7 +6258,7 @@
       <c r="O180" s="54"/>
       <c r="S180" s="54"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="23"/>
       <c r="B181" s="54"/>
       <c r="C181" s="23"/>
@@ -6299,7 +6276,7 @@
       <c r="O181" s="54"/>
       <c r="S181" s="54"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="23"/>
       <c r="B182" s="54"/>
       <c r="C182" s="23"/>
@@ -6317,7 +6294,7 @@
       <c r="O182" s="54"/>
       <c r="S182" s="54"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="23"/>
       <c r="B183" s="54"/>
       <c r="C183" s="23"/>
@@ -6335,7 +6312,7 @@
       <c r="O183" s="54"/>
       <c r="S183" s="54"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="23"/>
       <c r="B184" s="54"/>
       <c r="C184" s="23"/>
@@ -6353,7 +6330,7 @@
       <c r="O184" s="54"/>
       <c r="S184" s="54"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="23"/>
       <c r="B185" s="54"/>
       <c r="C185" s="23"/>
@@ -6371,7 +6348,7 @@
       <c r="O185" s="54"/>
       <c r="S185" s="54"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="23"/>
       <c r="B186" s="54"/>
       <c r="C186" s="23"/>
@@ -6389,7 +6366,7 @@
       <c r="O186" s="54"/>
       <c r="S186" s="54"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="23"/>
       <c r="B187" s="54"/>
       <c r="C187" s="23"/>
@@ -6407,7 +6384,7 @@
       <c r="O187" s="54"/>
       <c r="S187" s="54"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="23"/>
       <c r="B188" s="54"/>
       <c r="C188" s="23"/>
@@ -6425,7 +6402,7 @@
       <c r="O188" s="54"/>
       <c r="S188" s="54"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="23"/>
       <c r="B189" s="54"/>
       <c r="C189" s="23"/>
@@ -6443,7 +6420,7 @@
       <c r="O189" s="54"/>
       <c r="S189" s="54"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="23"/>
       <c r="B190" s="54"/>
       <c r="C190" s="23"/>
@@ -6461,7 +6438,7 @@
       <c r="O190" s="54"/>
       <c r="S190" s="54"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="23"/>
       <c r="B191" s="54"/>
       <c r="C191" s="23"/>
@@ -6479,7 +6456,7 @@
       <c r="O191" s="54"/>
       <c r="S191" s="54"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="23"/>
       <c r="B192" s="54"/>
       <c r="C192" s="23"/>
@@ -6497,7 +6474,7 @@
       <c r="O192" s="54"/>
       <c r="S192" s="54"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="23"/>
       <c r="B193" s="54"/>
       <c r="C193" s="23"/>
@@ -6523,14 +6500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
@@ -7366,7 +7343,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
@@ -7383,7 +7360,7 @@
       <c r="L1" s="78"/>
       <c r="M1" s="79"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" s="80"/>
       <c r="B2" s="80"/>
       <c r="C2" s="80"/>
@@ -7398,7 +7375,7 @@
       <c r="L2" s="80"/>
       <c r="M2" s="81"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7439,403 +7416,403 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1">
+    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="24">
         <v>1</v>
       </c>
       <c r="B4" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="61" t="s">
+        <v>163</v>
+      </c>
+      <c r="H4" s="24" t="s">
         <v>164</v>
       </c>
-      <c r="G4" s="61" t="s">
+      <c r="I4" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="H4" s="24" t="s">
+      <c r="J4" s="24" t="s">
         <v>166</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="K4" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L4" s="24" t="s">
         <v>167</v>
       </c>
-      <c r="J4" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="K4" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="L4" s="24" t="s">
-        <v>169</v>
-      </c>
       <c r="M4" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="62">
         <v>2</v>
       </c>
       <c r="B5" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>169</v>
+      </c>
+      <c r="E5" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="63" t="s">
         <v>170</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>180</v>
-      </c>
-      <c r="D5" s="63" t="s">
+      <c r="H5" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="E5" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G5" s="63" t="s">
+      <c r="I5" s="63" t="s">
         <v>172</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="J5" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="I5" s="63" t="s">
+      <c r="K5" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="L5" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="J5" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="K5" s="63" t="s">
-        <v>175</v>
-      </c>
-      <c r="L5" s="63" t="s">
+      <c r="M5" s="24" t="s">
         <v>176</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5">
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>3</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>164</v>
-      </c>
-      <c r="G6" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="I6" s="63" t="s">
+      <c r="K6" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="L6" s="63" t="s">
         <v>174</v>
       </c>
-      <c r="J6" s="63" t="s">
+      <c r="M6" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="K6" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="L6" s="63" t="s">
-        <v>176</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="66">
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A7" s="62">
         <v>4</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="F7" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="H7" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I7" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="E7" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="H7" s="24" t="s">
+      <c r="J7" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I7" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="J7" s="24" t="s">
-        <v>194</v>
-      </c>
       <c r="K7" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="66">
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A8" s="24">
         <v>5</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="E8" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="F8" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="G8" s="61" t="s">
+        <v>239</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="I8" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="61" t="s">
-        <v>241</v>
-      </c>
-      <c r="H8" s="24" t="s">
+      <c r="J8" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I8" s="24" t="s">
+      <c r="K8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="J8" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>195</v>
-      </c>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="66">
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A9" s="62">
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C9" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E9" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="F9" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G9" s="61" t="s">
+        <v>240</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G9" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="H9" s="24" t="s">
+      <c r="I9" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>194</v>
-      </c>
       <c r="K9" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="L9" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="27" t="s">
+        <v>210</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="I10" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G10" s="27" t="s">
-        <v>212</v>
-      </c>
-      <c r="H10" s="24" t="s">
-        <v>202</v>
-      </c>
-      <c r="I10" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="L10" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>205</v>
-      </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="66">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
       <c r="A11" s="62">
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E11" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="H11" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="F11" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G11" s="27" t="s">
+      <c r="K11" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="H11" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="J11" s="5" t="s">
+      <c r="L11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>210</v>
-      </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="132">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="E12" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="24" t="s">
+      <c r="F12" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>211</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>192</v>
-      </c>
       <c r="I12" s="24" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="33">
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A13" s="24">
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D13" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G13" s="27" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>231</v>
       </c>
-      <c r="E13" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="F13" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="G13" s="27" t="s">
+      <c r="I13" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="K13" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I13" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="L13" s="5" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -7850,7 +7827,7 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -7887,14 +7864,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -7905,7 +7882,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -7931,7 +7908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -7941,7 +7918,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -7951,7 +7928,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -7961,7 +7938,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -7971,7 +7948,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -7981,7 +7958,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -7991,7 +7968,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8001,7 +7978,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -8011,7 +7988,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -8021,7 +7998,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -8031,7 +8008,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -8041,7 +8018,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -8051,7 +8028,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -8061,7 +8038,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -8071,7 +8048,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -8081,7 +8058,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -8091,7 +8068,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -8101,7 +8078,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -8123,18 +8100,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="32" customWidth="1"/>
-    <col min="3" max="3" width="21.75" style="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32" style="32" customWidth="1"/>
     <col min="4" max="4" width="33.25" style="32" customWidth="1"/>
     <col min="5" max="5" width="38" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="32" bestFit="1" customWidth="1"/>
@@ -8144,7 +8121,7 @@
     <col min="11" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="85" t="s">
         <v>85</v>
       </c>
@@ -8158,7 +8135,7 @@
       <c r="I1" s="86"/>
       <c r="J1" s="86"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25">
+    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
@@ -8181,7 +8158,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>68</v>
@@ -8190,7 +8167,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25">
+    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A3" s="96">
         <v>1</v>
       </c>
@@ -8216,20 +8193,20 @@
       </c>
       <c r="J3" s="43"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25">
+    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A4" s="97"/>
       <c r="B4" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="40" t="s">
         <v>92</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="40" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="77">
@@ -8240,117 +8217,105 @@
       </c>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25">
-      <c r="A5" s="98"/>
+    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="97"/>
       <c r="B5" s="42" t="s">
-        <v>95</v>
+        <v>241</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>70</v>
+        <v>247</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="40" t="s">
-        <v>97</v>
+        <v>249</v>
       </c>
       <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="73"/>
       <c r="J5" s="43"/>
     </row>
-    <row r="6" spans="1:10" ht="16.5">
-      <c r="A6" s="87">
+    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="97"/>
+      <c r="B6" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="40" t="s">
+        <v>250</v>
+      </c>
+      <c r="G6" s="40"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="43"/>
+    </row>
+    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="97"/>
+      <c r="B7" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="98"/>
+      <c r="B8" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="43"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="87">
         <v>2</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B9" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="C6" s="89" t="s">
+      <c r="C9" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D9" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="37" t="s">
+      <c r="E9" s="36"/>
+      <c r="F9" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="H6" s="74">
-        <v>42548</v>
-      </c>
-      <c r="I6" s="72">
-        <v>1</v>
-      </c>
-      <c r="J6" s="35"/>
-    </row>
-    <row r="7" spans="1:10" ht="16.5">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="H7" s="74">
-        <v>42548</v>
-      </c>
-      <c r="I7" s="72">
-        <v>1</v>
-      </c>
-      <c r="J7" s="35"/>
-    </row>
-    <row r="8" spans="1:10" ht="16.5">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="89" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="G8" s="65" t="s">
-        <v>227</v>
-      </c>
-      <c r="H8" s="74">
-        <v>42548</v>
-      </c>
-      <c r="I8" s="72">
-        <v>1</v>
-      </c>
-      <c r="J8" s="35"/>
-    </row>
-    <row r="9" spans="1:10" ht="16.5">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G9" s="65" t="s">
-        <v>227</v>
+      <c r="G9" s="37" t="s">
+        <v>225</v>
       </c>
       <c r="H9" s="74">
         <v>42548</v>
@@ -8360,21 +8325,19 @@
       </c>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5">
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="88"/>
       <c r="B10" s="88"/>
       <c r="C10" s="89"/>
       <c r="D10" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="36" t="s">
-        <v>101</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="E10" s="36"/>
       <c r="F10" s="37" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H10" s="74">
         <v>42548</v>
@@ -8384,23 +8347,23 @@
       </c>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5">
-      <c r="A11" s="44"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="37" t="s">
-        <v>105</v>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89" t="s">
+        <v>76</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>215</v>
+        <v>100</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H11" s="74">
         <v>42548</v>
@@ -8410,21 +8373,21 @@
       </c>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5">
-      <c r="A12" s="66"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="67" t="s">
-        <v>108</v>
-      </c>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="67" t="s">
-        <v>227</v>
+        <v>97</v>
+      </c>
+      <c r="E12" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>225</v>
       </c>
       <c r="H12" s="74">
         <v>42548</v>
@@ -8434,21 +8397,21 @@
       </c>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5">
-      <c r="A13" s="44"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="37" t="s">
-        <v>236</v>
-      </c>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="35" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="36"/>
+        <v>98</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>99</v>
+      </c>
       <c r="F13" s="37" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H13" s="74">
         <v>42548</v>
@@ -8458,83 +8421,97 @@
       </c>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5">
-      <c r="A14" s="99">
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>213</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="H14" s="74">
+        <v>42548</v>
+      </c>
+      <c r="I14" s="72">
+        <v>1</v>
+      </c>
+      <c r="J14" s="35"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="66"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="67" t="s">
+        <v>225</v>
+      </c>
+      <c r="H15" s="74">
+        <v>42548</v>
+      </c>
+      <c r="I15" s="72">
+        <v>1</v>
+      </c>
+      <c r="J15" s="35"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="G16" s="65" t="s">
+        <v>225</v>
+      </c>
+      <c r="H16" s="74">
+        <v>42548</v>
+      </c>
+      <c r="I16" s="72">
+        <v>1</v>
+      </c>
+      <c r="J16" s="35"/>
+    </row>
+    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="99">
         <v>3</v>
       </c>
-      <c r="B14" s="101" t="s">
-        <v>216</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="H14" s="75">
-        <v>42548</v>
-      </c>
-      <c r="I14" s="76">
-        <v>1</v>
-      </c>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5">
-      <c r="A15" s="100"/>
-      <c r="B15" s="102"/>
-      <c r="C15" s="71" t="s">
-        <v>218</v>
-      </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5">
-      <c r="A16" s="100"/>
-      <c r="B16" s="102"/>
-      <c r="C16" s="68" t="s">
+      <c r="B17" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="68" t="s">
-        <v>226</v>
-      </c>
-      <c r="G16" s="68" t="s">
-        <v>227</v>
-      </c>
-      <c r="H16" s="75">
-        <v>42545</v>
-      </c>
-      <c r="I16" s="76">
-        <v>1</v>
-      </c>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5">
-      <c r="A17" s="100"/>
-      <c r="B17" s="102"/>
-      <c r="C17" s="68" t="s">
-        <v>220</v>
-      </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="68" t="s">
-        <v>223</v>
-      </c>
       <c r="G17" s="68" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H17" s="75">
         <v>42548</v>
@@ -8544,167 +8521,227 @@
       </c>
       <c r="J17" s="70"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5">
-      <c r="A18" s="90">
+    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="100"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" s="70"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="100"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="G19" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="75">
+        <v>42545</v>
+      </c>
+      <c r="I19" s="76">
+        <v>1</v>
+      </c>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="100"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="G20" s="68" t="s">
+        <v>225</v>
+      </c>
+      <c r="H20" s="75">
+        <v>42548</v>
+      </c>
+      <c r="I20" s="76">
+        <v>1</v>
+      </c>
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="90">
         <v>4</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B21" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C21" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="E21" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="F21" s="40" t="s">
         <v>114</v>
-      </c>
-      <c r="E18" s="39" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="19" spans="1:10" ht="16.5">
-      <c r="A19" s="91"/>
-      <c r="B19" s="94"/>
-      <c r="C19" s="82" t="s">
-        <v>112</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19" s="39"/>
-      <c r="F19" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="39"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5">
-      <c r="A20" s="91"/>
-      <c r="B20" s="94"/>
-      <c r="C20" s="83"/>
-      <c r="D20" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" spans="1:10" ht="16.5">
-      <c r="A21" s="91"/>
-      <c r="B21" s="94"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="39"/>
-      <c r="F21" s="40" t="s">
-        <v>81</v>
       </c>
       <c r="G21" s="40"/>
       <c r="H21" s="40"/>
       <c r="I21" s="40"/>
       <c r="J21" s="39"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5">
+    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="91"/>
       <c r="B22" s="94"/>
-      <c r="C22" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="39" t="s">
-        <v>239</v>
-      </c>
-      <c r="E22" s="39" t="s">
-        <v>86</v>
-      </c>
+      <c r="C22" s="82" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="39"/>
       <c r="F22" s="40" t="s">
-        <v>240</v>
+        <v>108</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-    </row>
-    <row r="23" spans="1:10" ht="16.5">
+      <c r="J22" s="39"/>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="91"/>
       <c r="B23" s="94"/>
-      <c r="C23" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" s="38"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="39"/>
       <c r="F23" s="40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="39"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5">
+    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="91"/>
       <c r="B24" s="94"/>
-      <c r="C24" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="38"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="39"/>
       <c r="F24" s="40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5">
-      <c r="A25" s="92"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="E25" s="38"/>
+    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="91"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="64" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>86</v>
+      </c>
       <c r="F25" s="40" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="39"/>
+      <c r="J25" s="40"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="91"/>
+      <c r="B26" s="94"/>
+      <c r="C26" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="38"/>
+      <c r="F26" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="39"/>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A27" s="91"/>
+      <c r="B27" s="94"/>
+      <c r="C27" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="39"/>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A28" s="92"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="E28" s="38"/>
+      <c r="F28" s="40" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="C22:C24"/>
     <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="B6:B10"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="B21:B28"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -820,12 +820,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>上传证书jfdev.cer到“ /var/lib/docker/contract/template ”路径下
-#聚有财证书文件路径
-sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>搜索引擎数据变更</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
@@ -999,6 +993,24 @@
   <si>
     <t>王岩</t>
     <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>上传证书openapi.juxiangfen.com.cer到“ /var/lib/docker/contract/template ”路径下
+#聚有财证书文件路径
+sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/openapi.juxiangfen.com.cer</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1383,7 +1395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1690,6 +1702,9 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6503,8 +6518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7427,7 +7442,7 @@
         <v>178</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>184</v>
@@ -7506,7 +7521,7 @@
         <v>168</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>177</v>
@@ -7598,7 +7613,7 @@
         <v>189</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>190</v>
@@ -7637,7 +7652,7 @@
         <v>189</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>190</v>
@@ -7656,7 +7671,7 @@
       </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -7675,8 +7690,8 @@
       <c r="F10" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="27" t="s">
-        <v>210</v>
+      <c r="G10" s="103" t="s">
+        <v>252</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>200</v>
@@ -7778,13 +7793,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>178</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>188</v>
@@ -7793,22 +7808,22 @@
         <v>189</v>
       </c>
       <c r="G13" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>230</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>231</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>165</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="L13" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -8103,7 +8118,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -8158,7 +8173,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>68</v>
@@ -8202,7 +8217,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="40" t="s">
@@ -8220,17 +8235,17 @@
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="97"/>
       <c r="B5" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>242</v>
-      </c>
       <c r="D5" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="77"/>
@@ -8240,17 +8255,17 @@
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="97"/>
       <c r="B6" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="40" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="77"/>
@@ -8260,17 +8275,17 @@
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="97"/>
       <c r="B7" s="42" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" s="40"/>
       <c r="H7" s="77"/>
@@ -8280,10 +8295,10 @@
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="98"/>
       <c r="B8" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>243</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>244</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>70</v>
@@ -8315,7 +8330,7 @@
         <v>74</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H9" s="74">
         <v>42548</v>
@@ -8337,7 +8352,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H10" s="74">
         <v>42548</v>
@@ -8363,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H11" s="74">
         <v>42548</v>
@@ -8387,7 +8402,7 @@
         <v>101</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H12" s="74">
         <v>42548</v>
@@ -8411,7 +8426,7 @@
         <v>102</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H13" s="74">
         <v>42548</v>
@@ -8431,13 +8446,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H14" s="74">
         <v>42548</v>
@@ -8461,7 +8476,7 @@
         <v>109</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H15" s="74">
         <v>42548</v>
@@ -8475,17 +8490,17 @@
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>234</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>235</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H16" s="74">
         <v>42548</v>
@@ -8500,18 +8515,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="101" t="s">
+        <v>213</v>
+      </c>
+      <c r="C17" s="68" t="s">
         <v>214</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>215</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="70"/>
       <c r="F17" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H17" s="75">
         <v>42548</v>
@@ -8525,12 +8540,12 @@
       <c r="A18" s="100"/>
       <c r="B18" s="102"/>
       <c r="C18" s="71" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="69"/>
       <c r="F18" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G18" s="68"/>
       <c r="H18" s="68"/>
@@ -8541,15 +8556,15 @@
       <c r="A19" s="100"/>
       <c r="B19" s="102"/>
       <c r="C19" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
       <c r="F19" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="68" t="s">
         <v>224</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>225</v>
       </c>
       <c r="H19" s="75">
         <v>42545</v>
@@ -8563,15 +8578,15 @@
       <c r="A20" s="100"/>
       <c r="B20" s="102"/>
       <c r="C20" s="68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
       <c r="F20" s="68" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H20" s="75">
         <v>42548</v>
@@ -8662,13 +8677,13 @@
         <v>76</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -8715,14 +8730,14 @@
       <c r="A28" s="92"/>
       <c r="B28" s="95"/>
       <c r="C28" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>211</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>212</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="40" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -1628,6 +1628,9 @@
     <xf numFmtId="58" fontId="19" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1702,9 +1705,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -6519,7 +6519,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6530,7 +6530,7 @@
     <col min="4" max="4" width="22.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="35" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="59.875" style="29" customWidth="1"/>
+    <col min="7" max="7" width="74.75" style="29" customWidth="1"/>
     <col min="8" max="8" width="25.75" customWidth="1"/>
     <col min="9" max="9" width="13.625" customWidth="1"/>
     <col min="10" max="10" width="9.875" style="3" customWidth="1"/>
@@ -7359,36 +7359,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="81"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
     </row>
     <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -7671,7 +7671,7 @@
       </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -7690,7 +7690,7 @@
       <c r="F10" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="78" t="s">
         <v>252</v>
       </c>
       <c r="H10" s="24" t="s">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A11" s="62">
         <v>8</v>
       </c>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>9</v>
       </c>
@@ -8137,18 +8137,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="33" t="s">
@@ -8183,7 +8183,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="96">
+      <c r="A3" s="97">
         <v>1</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -8209,7 +8209,7 @@
       <c r="J3" s="43"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="97"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="42" t="s">
         <v>93</v>
       </c>
@@ -8233,7 +8233,7 @@
       <c r="J4" s="43"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="97"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
         <v>240</v>
       </c>
@@ -8253,7 +8253,7 @@
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="97"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="42" t="s">
         <v>244</v>
       </c>
@@ -8273,7 +8273,7 @@
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="97"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="42" t="s">
         <v>250</v>
       </c>
@@ -8293,7 +8293,7 @@
       <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="98"/>
+      <c r="A8" s="99"/>
       <c r="B8" s="42" t="s">
         <v>242</v>
       </c>
@@ -8313,13 +8313,13 @@
       <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="87">
+      <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="87" t="s">
+      <c r="B9" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" s="90" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="35" t="s">
@@ -8341,9 +8341,9 @@
       <c r="J9" s="35"/>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
       <c r="D10" s="35" t="s">
         <v>75</v>
       </c>
@@ -8363,9 +8363,9 @@
       <c r="J10" s="35"/>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89" t="s">
+      <c r="A11" s="89"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90" t="s">
         <v>76</v>
       </c>
       <c r="D11" s="35" t="s">
@@ -8389,9 +8389,9 @@
       <c r="J11" s="35"/>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
+      <c r="A12" s="89"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
       <c r="D12" s="35" t="s">
         <v>97</v>
       </c>
@@ -8413,9 +8413,9 @@
       <c r="J12" s="35"/>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="35" t="s">
         <v>98</v>
       </c>
@@ -8511,10 +8511,10 @@
       <c r="J16" s="35"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A17" s="99">
+      <c r="A17" s="100">
         <v>3</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="102" t="s">
         <v>213</v>
       </c>
       <c r="C17" s="68" t="s">
@@ -8537,8 +8537,8 @@
       <c r="J17" s="70"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A18" s="100"/>
-      <c r="B18" s="102"/>
+      <c r="A18" s="101"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="71" t="s">
         <v>215</v>
       </c>
@@ -8553,8 +8553,8 @@
       <c r="J18" s="70"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="100"/>
-      <c r="B19" s="102"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="68" t="s">
         <v>216</v>
       </c>
@@ -8575,8 +8575,8 @@
       <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="100"/>
-      <c r="B20" s="102"/>
+      <c r="A20" s="101"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="68" t="s">
         <v>217</v>
       </c>
@@ -8597,10 +8597,10 @@
       <c r="J20" s="70"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A21" s="90">
+      <c r="A21" s="91">
         <v>4</v>
       </c>
-      <c r="B21" s="93" t="s">
+      <c r="B21" s="94" t="s">
         <v>78</v>
       </c>
       <c r="C21" s="40" t="s">
@@ -8621,9 +8621,9 @@
       <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A22" s="91"/>
-      <c r="B22" s="94"/>
-      <c r="C22" s="82" t="s">
+      <c r="A22" s="92"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="83" t="s">
         <v>110</v>
       </c>
       <c r="D22" s="38" t="s">
@@ -8639,9 +8639,9 @@
       <c r="J22" s="39"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A23" s="91"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="83"/>
+      <c r="A23" s="92"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="84"/>
       <c r="D23" s="39" t="s">
         <v>80</v>
       </c>
@@ -8655,9 +8655,9 @@
       <c r="J23" s="39"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A24" s="91"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="84"/>
+      <c r="A24" s="92"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="85"/>
       <c r="D24" s="39" t="s">
         <v>91</v>
       </c>
@@ -8671,8 +8671,8 @@
       <c r="J24" s="39"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A25" s="91"/>
-      <c r="B25" s="94"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="64" t="s">
         <v>76</v>
       </c>
@@ -8691,8 +8691,8 @@
       <c r="J25" s="40"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A26" s="91"/>
-      <c r="B26" s="94"/>
+      <c r="A26" s="92"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="40" t="s">
         <v>87</v>
       </c>
@@ -8709,8 +8709,8 @@
       <c r="J26" s="39"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A27" s="91"/>
-      <c r="B27" s="94"/>
+      <c r="A27" s="92"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="40" t="s">
         <v>82</v>
       </c>
@@ -8727,8 +8727,8 @@
       <c r="J27" s="39"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A28" s="92"/>
-      <c r="B28" s="95"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="96"/>
       <c r="C28" s="40" t="s">
         <v>210</v>
       </c>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="255">
   <si>
     <t>No</t>
   </si>
@@ -1011,6 +1011,14 @@
       <t>/openapi.juxiangfen.com.cer</t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6518,7 +6526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -7513,7 +7521,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.15">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -8118,8 +8126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8199,12 +8207,14 @@
       <c r="F3" s="40" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="40"/>
+      <c r="G3" s="40" t="s">
+        <v>253</v>
+      </c>
       <c r="H3" s="77">
         <v>42549</v>
       </c>
       <c r="I3" s="73">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="J3" s="43"/>
     </row>
@@ -8247,9 +8257,15 @@
       <c r="F5" s="40" t="s">
         <v>248</v>
       </c>
-      <c r="G5" s="40"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="73"/>
+      <c r="G5" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H5" s="77">
+        <v>42549</v>
+      </c>
+      <c r="I5" s="73">
+        <v>1</v>
+      </c>
       <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -8267,9 +8283,15 @@
       <c r="F6" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="73"/>
+      <c r="G6" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H6" s="77">
+        <v>42549</v>
+      </c>
+      <c r="I6" s="73">
+        <v>1</v>
+      </c>
       <c r="J6" s="43"/>
     </row>
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -8287,9 +8309,15 @@
       <c r="F7" s="40" t="s">
         <v>251</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="73"/>
+      <c r="G7" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H7" s="77">
+        <v>42549</v>
+      </c>
+      <c r="I7" s="73">
+        <v>1</v>
+      </c>
       <c r="J7" s="43"/>
     </row>
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
@@ -8307,9 +8335,15 @@
       <c r="F8" s="40" t="s">
         <v>95</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H8" s="77">
+        <v>42549</v>
+      </c>
+      <c r="I8" s="73">
+        <v>1</v>
+      </c>
       <c r="J8" s="43"/>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -8547,9 +8581,15 @@
       <c r="F18" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
+      <c r="G18" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="75">
+        <v>42549</v>
+      </c>
+      <c r="I18" s="76">
+        <v>1</v>
+      </c>
       <c r="J18" s="70"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
@@ -8615,9 +8655,15 @@
       <c r="F21" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="G21" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="H21" s="77">
+        <v>42549</v>
+      </c>
+      <c r="I21" s="73">
+        <v>1</v>
+      </c>
       <c r="J21" s="39"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="260">
   <si>
     <t>No</t>
   </si>
@@ -1018,6 +1018,26 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP录入报修、投诉，【租客APP】【房东APP】【房东PC】【后台BS】均不显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，房东APP，租客APP，后台BS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2069,8 +2089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2948,27 +2968,57 @@
       <c r="S19" s="17"/>
       <c r="T19" s="48"/>
     </row>
-    <row r="20" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
+    <row r="20" spans="1:20" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="30">
+        <v>19</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="16">
+        <v>42548</v>
+      </c>
+      <c r="G20" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="16">
+        <v>42548</v>
+      </c>
       <c r="I20" s="15"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="20"/>
+      <c r="J20" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="N20" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O20" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="S20" s="17"/>
+      <c r="T20" s="48"/>
     </row>
     <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="30"/>
@@ -8126,7 +8176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="268">
   <si>
     <t>No</t>
   </si>
@@ -1038,6 +1038,38 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2089,8 +2121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2211,12 +2243,20 @@
       <c r="L2" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="17"/>
+      <c r="M2" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N2" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
+      <c r="R2" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S2" s="19"/>
       <c r="T2" s="20"/>
     </row>
@@ -2255,12 +2295,20 @@
       <c r="L3" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="17"/>
+      <c r="M3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="N3" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
+      <c r="R3" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
     </row>
@@ -2296,13 +2344,23 @@
       <c r="K4" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="17"/>
+      <c r="L4" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N4" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
+      <c r="R4" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
     </row>
@@ -2338,13 +2396,23 @@
       <c r="K5" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="17"/>
+      <c r="L5" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N5" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O5" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
+      <c r="R5" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S5" s="19"/>
       <c r="T5" s="20"/>
     </row>
@@ -2380,13 +2448,23 @@
       <c r="K6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="15"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="17"/>
+      <c r="L6" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N6" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
+      <c r="R6" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S6" s="19"/>
       <c r="T6" s="20"/>
     </row>
@@ -2422,13 +2500,23 @@
       <c r="K7" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="L7" s="15"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="17"/>
+      <c r="L7" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N7" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O7" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
+      <c r="R7" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
     </row>
@@ -2464,13 +2552,23 @@
       <c r="K8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L8" s="15"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="17"/>
+      <c r="L8" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="M8" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N8" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O8" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
+      <c r="R8" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S8" s="19"/>
       <c r="T8" s="20"/>
     </row>
@@ -2506,13 +2604,23 @@
       <c r="K9" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="L9" s="15"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="17"/>
+      <c r="L9" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="N9" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
+      <c r="R9" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
     </row>
@@ -2548,13 +2656,23 @@
       <c r="K10" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="L10" s="15"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="17"/>
+      <c r="L10" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N10" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O10" s="17" t="s">
+        <v>266</v>
+      </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
+      <c r="R10" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
     </row>
@@ -2590,13 +2708,23 @@
       <c r="K11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="15"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="17"/>
+      <c r="L11" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N11" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
+      <c r="R11" s="18" t="s">
+        <v>267</v>
+      </c>
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
     </row>
@@ -6568,7 +6696,7 @@
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="271">
   <si>
     <t>No</t>
   </si>
@@ -1070,6 +1070,19 @@
   </si>
   <si>
     <t>否</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.短信部分未完成验证，待上线后测试，如有问题补丁上线
+2.定时器异常，正在分析处理中，先用脚本实现定时器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -2122,7 +2135,7 @@
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2763,13 +2776,21 @@
       <c r="L12" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N12" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O12" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P12" s="18"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
-      <c r="S12" s="19"/>
+      <c r="S12" s="47" t="s">
+        <v>268</v>
+      </c>
       <c r="T12" s="20"/>
     </row>
     <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2807,9 +2828,15 @@
       <c r="L13" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
@@ -2851,9 +2878,15 @@
       <c r="L14" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N14" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O14" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
       <c r="R14" s="18"/>
@@ -2895,9 +2928,15 @@
       <c r="L15" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="M15" s="17"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N15" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O15" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
@@ -2939,9 +2978,15 @@
       <c r="L16" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="16"/>
-      <c r="O16" s="17"/>
+      <c r="M16" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="N16" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O16" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P16" s="18"/>
       <c r="Q16" s="18"/>
       <c r="R16" s="18"/>
@@ -2983,9 +3028,15 @@
       <c r="L17" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="M17" s="17"/>
-      <c r="N17" s="16"/>
-      <c r="O17" s="17"/>
+      <c r="M17" s="17" t="s">
+        <v>270</v>
+      </c>
+      <c r="N17" s="16">
+        <v>42549</v>
+      </c>
+      <c r="O17" s="17" t="s">
+        <v>150</v>
+      </c>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DataStar\DataCode\GitDoc\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.2.0 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -811,279 +811,277 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>搜索引擎数据变更</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索引擎数据结构变更，需重新同步</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>需针对_from 3.0.0做分流</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品/业务部门验收</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品验收-聚有财</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门验收-聚有财</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品验收-品牌店铺</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务部门验收-品牌店铺</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈蕴睿</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈立</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙东平</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>沈铖、雷传盛</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵开明、金锴</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>EQ组</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2.0</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS、renter、renterPC、lts</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>renter、renterpc</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#memcacahe effectiveTime 
+sysconfig.memcache.brand.time=300</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于品牌展示缓存</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核环境项目包</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供可运行的租客APP审核后台包</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>史欣欣</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>参照sheet“需要修改的配置文件”</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>运维组</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>#jyc
+sysconfig.jyc_merchantNumber=M107000001
+sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
+sysconfig.jyc_env=test</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>#jyc
+sysconfig.jyc_merchantNumber=M107000001
+sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
+sysconfig.jyc_env=pro</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>马丁组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证测试结果、负责的主功能业务回归</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>捷豹组</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证测试结果、负责的主功能业务回归</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>质量报告</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>田东兴</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵良智</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>租客APP录入报修、投诉，【租客APP】【房东APP】【房东PC】【后台BS】均不显示</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>房东PC，房东APP，租客APP，后台BS</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑良杰</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>邵明基</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>周蓉</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴永余</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.短信部分未完成验证，待上线后测试，如有问题补丁上线
+2.定时器异常，正在分析处理中，先用脚本实现定时器</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>#房东App正式环境配置增加
 正式环境配置
 sysconfig.LAKALA_MERNO=SL2015070100001
 sysconfig.LAKALA_URL=https://xd.lakala.com.cn:9001//CreditLoanGateWay/apply.do
 sysconfig.LAKALA_URL_UPLOAD=http://xd.lakala.com.cn:9002//CreditLoanGateWay/imgupload.do
-sysconfig.LAKALA_KEY=5502453538673A2399F9ADE1BA849558</t>
+sysconfig.LAKALA_KEY=5502453538673A2399F9ADE1BA849558
+测试环境配置
+filter.sysconfig.LAKALA_MERNO=SL2015070100001
+filter.sysconfig.LAKALA_URL=https://121.14.103.74:9001//gateway/apply.do
+filter.sysconfig.LAKALA_URL_UPLOAD=http://121.14.103.74:9002//gateway/imgupload.do
+filter.sysconfig.LAKALA_KEY=5502453538673A2399F9ADE1BA849558</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>搜索引擎数据变更</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索引擎数据结构变更，需重新同步</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>需针对_from 3.0.0做分流</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品/业务部门验收</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品验收-聚有财</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务部门验收-聚有财</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品验收-品牌店铺</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>业务部门验收-品牌店铺</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈蕴睿</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈立</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙东平</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>沈铖、雷传盛</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵开明、金锴</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>EQ组</t>
+    <t>正式环境
+上传证书openapi.juxiangfen.com.cer到“ /var/lib/docker/contract/template ”路径下
+#聚有财证书文件路径
+sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template/openapi.juxiangfen.com.cer
+测试环境
+上传证书 jfdev.cer到“ /var/lib/docker/contract/template ”路径下
+#聚有财证书文件路径
+sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template/jfdev.cer</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.2.0</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS、renter、renterPC、lts</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>renter、renterpc</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#memcacahe effectiveTime 
-sysconfig.memcache.brand.time=300</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于品牌展示缓存</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核环境项目包</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>提供可运行的租客APP审核后台包</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>史欣欣</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>参照sheet“需要修改的配置文件”</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>运维组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>#jyc
-sysconfig.jyc_merchantNumber=M107000001
-sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
-sysconfig.jyc_env=test</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>#jyc
-sysconfig.jyc_merchantNumber=M107000001
-sysconfig.jyc_merchantName=\u8611\u83C7\u516C\u5BD3
-sysconfig.jyc_env=pro</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>马丁组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证测试结果、负责的主功能业务回归</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>捷豹组</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证测试结果、负责的主功能业务回归</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>质量报告</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>报告</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>田东兴</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵良智</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>磐石组</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>王岩</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上传证书openapi.juxiangfen.com.cer到“ /var/lib/docker/contract/template ”路径下
-#聚有财证书文件路径
-sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>/openapi.juxiangfen.com.cer</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>租客APP录入报修、投诉，【租客APP】【房东APP】【房东PC】【后台BS】均不显示</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>房东PC，房东APP，租客APP，后台BS</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>郑良杰</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>邵明基</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pass</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>周蓉</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴永余</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>能</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.短信部分未完成验证，待上线后测试，如有问题补丁上线
-2.定时器异常，正在分析处理中，先用脚本实现定时器</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2134,7 +2132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -2257,7 +2255,7 @@
         <v>116</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N2" s="16">
         <v>42549</v>
@@ -2268,7 +2266,7 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="20"/>
@@ -2309,7 +2307,7 @@
         <v>45</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="N3" s="16">
         <v>42549</v>
@@ -2320,7 +2318,7 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
@@ -2358,10 +2356,10 @@
         <v>44</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N4" s="16">
         <v>42549</v>
@@ -2372,7 +2370,7 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
@@ -2413,7 +2411,7 @@
         <v>148</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N5" s="16">
         <v>42549</v>
@@ -2424,7 +2422,7 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="20"/>
@@ -2462,10 +2460,10 @@
         <v>44</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N6" s="16">
         <v>42549</v>
@@ -2476,7 +2474,7 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="20"/>
@@ -2514,10 +2512,10 @@
         <v>119</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N7" s="16">
         <v>42549</v>
@@ -2528,7 +2526,7 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
@@ -2566,10 +2564,10 @@
         <v>44</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N8" s="16">
         <v>42549</v>
@@ -2580,7 +2578,7 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S8" s="19"/>
       <c r="T8" s="20"/>
@@ -2618,10 +2616,10 @@
         <v>119</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N9" s="16">
         <v>42549</v>
@@ -2632,7 +2630,7 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
@@ -2670,21 +2668,21 @@
         <v>119</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N10" s="16">
         <v>42549</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
@@ -2725,7 +2723,7 @@
         <v>148</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="N11" s="16">
         <v>42549</v>
@@ -2736,7 +2734,7 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
@@ -2789,7 +2787,7 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="T12" s="20"/>
     </row>
@@ -2879,7 +2877,7 @@
         <v>136</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="N14" s="16">
         <v>42549</v>
@@ -2979,7 +2977,7 @@
         <v>136</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N16" s="16">
         <v>42549</v>
@@ -3029,7 +3027,7 @@
         <v>136</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="N17" s="16">
         <v>42549</v>
@@ -3152,13 +3150,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>41</v>
@@ -3174,16 +3172,16 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="L20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>257</v>
-      </c>
-      <c r="K20" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="L20" s="15" t="s">
-        <v>258</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="N20" s="16">
         <v>42549</v>
@@ -6755,8 +6753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="H7:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7679,7 +7677,7 @@
         <v>178</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E4" s="24" t="s">
         <v>184</v>
@@ -7758,7 +7756,7 @@
         <v>168</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>177</v>
@@ -7850,7 +7848,7 @@
         <v>189</v>
       </c>
       <c r="G8" s="61" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>190</v>
@@ -7889,7 +7887,7 @@
         <v>189</v>
       </c>
       <c r="G9" s="61" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>190</v>
@@ -7908,7 +7906,7 @@
       </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
       <c r="A10" s="24">
         <v>7</v>
       </c>
@@ -7928,7 +7926,7 @@
         <v>189</v>
       </c>
       <c r="G10" s="78" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="H10" s="24" t="s">
         <v>200</v>
@@ -7986,7 +7984,7 @@
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="115.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
       <c r="A12" s="24">
         <v>9</v>
       </c>
@@ -8006,7 +8004,7 @@
         <v>189</v>
       </c>
       <c r="G12" s="27" t="s">
-        <v>209</v>
+        <v>269</v>
       </c>
       <c r="H12" s="24" t="s">
         <v>190</v>
@@ -8030,13 +8028,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>178</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>188</v>
@@ -8045,22 +8043,22 @@
         <v>189</v>
       </c>
       <c r="G13" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>229</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>230</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>165</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="L13" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M13" s="5"/>
     </row>
@@ -8410,7 +8408,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>68</v>
@@ -8437,7 +8435,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H3" s="77">
         <v>42549</v>
@@ -8456,7 +8454,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="40" t="s">
@@ -8474,20 +8472,20 @@
     <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>240</v>
       </c>
-      <c r="C5" s="40" t="s">
-        <v>241</v>
-      </c>
       <c r="D5" s="40" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H5" s="77">
         <v>42549</v>
@@ -8500,20 +8498,20 @@
     <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="98"/>
       <c r="B6" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H6" s="77">
         <v>42549</v>
@@ -8526,20 +8524,20 @@
     <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="98"/>
       <c r="B7" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H7" s="77">
         <v>42549</v>
@@ -8552,10 +8550,10 @@
     <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A8" s="99"/>
       <c r="B8" s="42" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="40" t="s">
         <v>242</v>
-      </c>
-      <c r="C8" s="40" t="s">
-        <v>243</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>70</v>
@@ -8565,7 +8563,7 @@
         <v>95</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H8" s="77">
         <v>42549</v>
@@ -8593,7 +8591,7 @@
         <v>74</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H9" s="74">
         <v>42548</v>
@@ -8615,7 +8613,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H10" s="74">
         <v>42548</v>
@@ -8641,7 +8639,7 @@
         <v>77</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H11" s="74">
         <v>42548</v>
@@ -8665,7 +8663,7 @@
         <v>101</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H12" s="74">
         <v>42548</v>
@@ -8689,7 +8687,7 @@
         <v>102</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H13" s="74">
         <v>42548</v>
@@ -8709,13 +8707,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H14" s="74">
         <v>42548</v>
@@ -8739,7 +8737,7 @@
         <v>109</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H15" s="74">
         <v>42548</v>
@@ -8753,17 +8751,17 @@
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="35" t="s">
         <v>233</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>234</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H16" s="74">
         <v>42548</v>
@@ -8778,18 +8776,18 @@
         <v>3</v>
       </c>
       <c r="B17" s="102" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17" s="68" t="s">
         <v>213</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>214</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="70"/>
       <c r="F17" s="68" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H17" s="75">
         <v>42548</v>
@@ -8803,15 +8801,15 @@
       <c r="A18" s="101"/>
       <c r="B18" s="103"/>
       <c r="C18" s="71" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="69"/>
       <c r="F18" s="68" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="75">
         <v>42549</v>
@@ -8825,15 +8823,15 @@
       <c r="A19" s="101"/>
       <c r="B19" s="103"/>
       <c r="C19" s="68" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
       <c r="F19" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="G19" s="68" t="s">
         <v>223</v>
-      </c>
-      <c r="G19" s="68" t="s">
-        <v>224</v>
       </c>
       <c r="H19" s="75">
         <v>42545</v>
@@ -8847,15 +8845,15 @@
       <c r="A20" s="101"/>
       <c r="B20" s="103"/>
       <c r="C20" s="68" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
       <c r="F20" s="68" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G20" s="68" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H20" s="75">
         <v>42548</v>
@@ -8885,7 +8883,7 @@
         <v>114</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H21" s="77">
         <v>42549</v>
@@ -8952,13 +8950,13 @@
         <v>76</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
@@ -9005,14 +9003,14 @@
       <c r="A28" s="93"/>
       <c r="B28" s="96"/>
       <c r="C28" s="40" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="38" t="s">
         <v>210</v>
-      </c>
-      <c r="D28" s="38" t="s">
-        <v>211</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="40" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>

--- a/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
+++ b/VersionRecords/Version 3.2.0/版本Bug和特性计划及评审表v3.2.0.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\worktools\GitRepository_bak\Mogo_Doc\VersionRecords\Version 3.2.0\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19065" windowHeight="7830" activeTab="1"/>
   </bookViews>
@@ -22,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="270">
   <si>
     <t>No</t>
   </si>
@@ -661,18 +656,6 @@
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
-    <t>生产环境</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>雷传盛</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
-    <t>杨斌</t>
-    <phoneticPr fontId="22" type="noConversion"/>
-  </si>
-  <si>
     <t>“配置文件\systemconfig_bs_renter_renterpc.properties”</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -696,10 +679,6 @@
     <t>sysconfig.dingtalk_corpid =838AA5611960DDC3AED16D6470A4B21BB321400DFF1FD3ED39377504D1D80206
 sysconfig.dingtalk_corpsecret =43CD8EBBF4F75696CB5F15E8CD51F105380ABD0DCB2E0B604AD495E0329E400CA8B3D1EE4B981255AFB829614032F214178474C80FD7C0251C15FD97FA6B071E4788530961C1743A441BD5B44098A04F</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>张飞</t>
-    <phoneticPr fontId="22" type="noConversion"/>
   </si>
   <si>
     <t>调用钉钉的接口需要配置的参数</t>
@@ -1083,12 +1062,25 @@
 sysconfig.jyc_cer_filepath=/var/lib/docker/contract/template/jfdev.cer</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>sysconfig.dingtalk_corpid=BC349BE40FAB767D8C9FE9719BBCDE88EDC6846DE8753B9345AEF752AE154FE0
+sysconfig.dingtalk_corpsecret=FAB0874282D2E40AF9379A8ECA456F329046ACD3920FB4CDCF9CEF4476B3EE68B7541B0D5DEF4917D3C157508467E92D23A9AC6C7BC4B3551DA56C50CE62ACF04788530961C1743A441BD5B44098A04F</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>张飞</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1790,6 +1782,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1809,7 +1869,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2129,14 +2189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T193"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="59" customWidth="1"/>
     <col min="2" max="2" width="35.375" style="60" customWidth="1"/>
@@ -2160,7 +2220,7 @@
     <col min="21" max="16384" width="9" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="46" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:20" s="46" customFormat="1" ht="27">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2219,7 +2279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="21" customFormat="1" ht="23.25" customHeight="1">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -2255,7 +2315,7 @@
         <v>116</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N2" s="16">
         <v>42549</v>
@@ -2266,12 +2326,12 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S2" s="19"/>
       <c r="T2" s="20"/>
     </row>
-    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -2307,7 +2367,7 @@
         <v>45</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="N3" s="16">
         <v>42549</v>
@@ -2318,12 +2378,12 @@
       <c r="P3" s="18"/>
       <c r="Q3" s="18"/>
       <c r="R3" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S3" s="19"/>
       <c r="T3" s="20"/>
     </row>
-    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="30">
         <v>3</v>
       </c>
@@ -2356,10 +2416,10 @@
         <v>44</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N4" s="16">
         <v>42549</v>
@@ -2370,12 +2430,12 @@
       <c r="P4" s="18"/>
       <c r="Q4" s="18"/>
       <c r="R4" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S4" s="19"/>
       <c r="T4" s="20"/>
     </row>
-    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="30">
         <v>4</v>
       </c>
@@ -2411,7 +2471,7 @@
         <v>148</v>
       </c>
       <c r="M5" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N5" s="16">
         <v>42549</v>
@@ -2422,12 +2482,12 @@
       <c r="P5" s="18"/>
       <c r="Q5" s="18"/>
       <c r="R5" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S5" s="19"/>
       <c r="T5" s="20"/>
     </row>
-    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="21" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="30">
         <v>5</v>
       </c>
@@ -2460,10 +2520,10 @@
         <v>44</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M6" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N6" s="16">
         <v>42549</v>
@@ -2474,12 +2534,12 @@
       <c r="P6" s="18"/>
       <c r="Q6" s="18"/>
       <c r="R6" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S6" s="19"/>
       <c r="T6" s="20"/>
     </row>
-    <row r="7" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A7" s="30">
         <v>6</v>
       </c>
@@ -2512,10 +2572,10 @@
         <v>119</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M7" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N7" s="16">
         <v>42549</v>
@@ -2526,12 +2586,12 @@
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S7" s="19"/>
       <c r="T7" s="20"/>
     </row>
-    <row r="8" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A8" s="30">
         <v>7</v>
       </c>
@@ -2564,10 +2624,10 @@
         <v>44</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M8" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N8" s="16">
         <v>42549</v>
@@ -2578,12 +2638,12 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
       <c r="R8" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S8" s="19"/>
       <c r="T8" s="20"/>
     </row>
-    <row r="9" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A9" s="30">
         <v>8</v>
       </c>
@@ -2616,10 +2676,10 @@
         <v>119</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M9" s="17" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="N9" s="16">
         <v>42549</v>
@@ -2630,12 +2690,12 @@
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S9" s="19"/>
       <c r="T9" s="20"/>
     </row>
-    <row r="10" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A10" s="30">
         <v>9</v>
       </c>
@@ -2668,26 +2728,26 @@
         <v>119</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N10" s="16">
         <v>42549</v>
       </c>
       <c r="O10" s="17" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
       <c r="R10" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S10" s="19"/>
       <c r="T10" s="20"/>
     </row>
-    <row r="11" spans="1:20" s="21" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="21" customFormat="1" ht="33">
       <c r="A11" s="30">
         <v>10</v>
       </c>
@@ -2723,7 +2783,7 @@
         <v>148</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="N11" s="16">
         <v>42549</v>
@@ -2734,12 +2794,12 @@
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="S11" s="19"/>
       <c r="T11" s="20"/>
     </row>
-    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A12" s="30">
         <v>11</v>
       </c>
@@ -2787,11 +2847,11 @@
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="47" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="T12" s="20"/>
     </row>
-    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A13" s="30">
         <v>12</v>
       </c>
@@ -2841,7 +2901,7 @@
       <c r="S13" s="19"/>
       <c r="T13" s="20"/>
     </row>
-    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A14" s="30">
         <v>13</v>
       </c>
@@ -2877,7 +2937,7 @@
         <v>136</v>
       </c>
       <c r="M14" s="17" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="N14" s="16">
         <v>42549</v>
@@ -2891,7 +2951,7 @@
       <c r="S14" s="19"/>
       <c r="T14" s="20"/>
     </row>
-    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A15" s="30">
         <v>14</v>
       </c>
@@ -2941,7 +3001,7 @@
       <c r="S15" s="19"/>
       <c r="T15" s="20"/>
     </row>
-    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="30">
         <v>15</v>
       </c>
@@ -2977,7 +3037,7 @@
         <v>136</v>
       </c>
       <c r="M16" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N16" s="16">
         <v>42549</v>
@@ -2991,7 +3051,7 @@
       <c r="S16" s="19"/>
       <c r="T16" s="20"/>
     </row>
-    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="21" customFormat="1" ht="36.75" customHeight="1">
       <c r="A17" s="30">
         <v>16</v>
       </c>
@@ -3027,7 +3087,7 @@
         <v>136</v>
       </c>
       <c r="M17" s="17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="N17" s="16">
         <v>42549</v>
@@ -3041,7 +3101,7 @@
       <c r="S17" s="19"/>
       <c r="T17" s="20"/>
     </row>
-    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="21" customFormat="1" ht="42" customHeight="1">
       <c r="A18" s="30">
         <v>17</v>
       </c>
@@ -3093,7 +3153,7 @@
       </c>
       <c r="T18" s="20"/>
     </row>
-    <row r="19" spans="1:20" s="49" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="49" customFormat="1" ht="23.25" customHeight="1">
       <c r="A19" s="30">
         <v>18</v>
       </c>
@@ -3145,18 +3205,18 @@
       <c r="S19" s="17"/>
       <c r="T19" s="48"/>
     </row>
-    <row r="20" spans="1:20" s="49" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="49" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="30">
         <v>19</v>
       </c>
       <c r="B20" s="22" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>153</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>41</v>
@@ -3172,16 +3232,16 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="17" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M20" s="17" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N20" s="16">
         <v>42549</v>
@@ -3197,7 +3257,7 @@
       <c r="S20" s="17"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A21" s="30"/>
       <c r="B21" s="31"/>
       <c r="C21" s="15"/>
@@ -3219,7 +3279,7 @@
       <c r="S21" s="19"/>
       <c r="T21" s="20"/>
     </row>
-    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A22" s="30"/>
       <c r="B22" s="31"/>
       <c r="C22" s="15"/>
@@ -3241,7 +3301,7 @@
       <c r="S22" s="19"/>
       <c r="T22" s="20"/>
     </row>
-    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A23" s="30"/>
       <c r="B23" s="31"/>
       <c r="C23" s="15"/>
@@ -3263,7 +3323,7 @@
       <c r="S23" s="19"/>
       <c r="T23" s="20"/>
     </row>
-    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A24" s="30"/>
       <c r="B24" s="31"/>
       <c r="C24" s="15"/>
@@ -3285,7 +3345,7 @@
       <c r="S24" s="19"/>
       <c r="T24" s="20"/>
     </row>
-    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A25" s="30"/>
       <c r="B25" s="31"/>
       <c r="C25" s="15"/>
@@ -3307,7 +3367,7 @@
       <c r="S25" s="19"/>
       <c r="T25" s="20"/>
     </row>
-    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A26" s="30"/>
       <c r="B26" s="31"/>
       <c r="C26" s="15"/>
@@ -3329,7 +3389,7 @@
       <c r="S26" s="19"/>
       <c r="T26" s="20"/>
     </row>
-    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A27" s="30"/>
       <c r="B27" s="31"/>
       <c r="C27" s="15"/>
@@ -3351,7 +3411,7 @@
       <c r="S27" s="19"/>
       <c r="T27" s="20"/>
     </row>
-    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A28" s="30"/>
       <c r="B28" s="31"/>
       <c r="C28" s="15"/>
@@ -3373,7 +3433,7 @@
       <c r="S28" s="19"/>
       <c r="T28" s="20"/>
     </row>
-    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A29" s="30"/>
       <c r="B29" s="31"/>
       <c r="C29" s="15"/>
@@ -3395,7 +3455,7 @@
       <c r="S29" s="19"/>
       <c r="T29" s="20"/>
     </row>
-    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A30" s="30"/>
       <c r="B30" s="31"/>
       <c r="C30" s="15"/>
@@ -3417,7 +3477,7 @@
       <c r="S30" s="19"/>
       <c r="T30" s="20"/>
     </row>
-    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="15"/>
@@ -3439,7 +3499,7 @@
       <c r="S31" s="19"/>
       <c r="T31" s="20"/>
     </row>
-    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A32" s="30"/>
       <c r="B32" s="31"/>
       <c r="C32" s="15"/>
@@ -3461,7 +3521,7 @@
       <c r="S32" s="19"/>
       <c r="T32" s="20"/>
     </row>
-    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A33" s="30"/>
       <c r="B33" s="31"/>
       <c r="C33" s="15"/>
@@ -3483,7 +3543,7 @@
       <c r="S33" s="19"/>
       <c r="T33" s="20"/>
     </row>
-    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A34" s="30"/>
       <c r="B34" s="31"/>
       <c r="C34" s="15"/>
@@ -3505,7 +3565,7 @@
       <c r="S34" s="19"/>
       <c r="T34" s="20"/>
     </row>
-    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A35" s="30"/>
       <c r="B35" s="31"/>
       <c r="C35" s="15"/>
@@ -3527,7 +3587,7 @@
       <c r="S35" s="19"/>
       <c r="T35" s="20"/>
     </row>
-    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A36" s="50"/>
       <c r="B36" s="51"/>
       <c r="C36" s="50"/>
@@ -3549,7 +3609,7 @@
       <c r="S36" s="51"/>
       <c r="T36" s="20"/>
     </row>
-    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="21" customFormat="1" ht="16.5">
       <c r="A37" s="50"/>
       <c r="B37" s="51"/>
       <c r="C37" s="50"/>
@@ -3571,7 +3631,7 @@
       <c r="S37" s="51"/>
       <c r="T37" s="20"/>
     </row>
-    <row r="38" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" ht="16.5">
       <c r="A38" s="23"/>
       <c r="B38" s="54"/>
       <c r="C38" s="23"/>
@@ -3592,7 +3652,7 @@
       <c r="R38" s="23"/>
       <c r="S38" s="54"/>
     </row>
-    <row r="39" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" ht="16.5">
       <c r="A39" s="23"/>
       <c r="B39" s="54"/>
       <c r="C39" s="23"/>
@@ -3613,7 +3673,7 @@
       <c r="R39" s="23"/>
       <c r="S39" s="54"/>
     </row>
-    <row r="40" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" ht="16.5">
       <c r="A40" s="23"/>
       <c r="B40" s="54"/>
       <c r="C40" s="23"/>
@@ -3634,7 +3694,7 @@
       <c r="R40" s="23"/>
       <c r="S40" s="54"/>
     </row>
-    <row r="41" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" ht="16.5">
       <c r="A41" s="23"/>
       <c r="B41" s="54"/>
       <c r="C41" s="23"/>
@@ -3655,7 +3715,7 @@
       <c r="R41" s="23"/>
       <c r="S41" s="54"/>
     </row>
-    <row r="42" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" ht="16.5">
       <c r="A42" s="23"/>
       <c r="B42" s="54"/>
       <c r="C42" s="23"/>
@@ -3676,7 +3736,7 @@
       <c r="R42" s="23"/>
       <c r="S42" s="54"/>
     </row>
-    <row r="43" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" ht="16.5">
       <c r="A43" s="23"/>
       <c r="B43" s="54"/>
       <c r="C43" s="23"/>
@@ -3697,7 +3757,7 @@
       <c r="R43" s="23"/>
       <c r="S43" s="54"/>
     </row>
-    <row r="44" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" ht="16.5">
       <c r="A44" s="23"/>
       <c r="B44" s="54"/>
       <c r="C44" s="23"/>
@@ -3718,7 +3778,7 @@
       <c r="R44" s="23"/>
       <c r="S44" s="54"/>
     </row>
-    <row r="45" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" ht="16.5">
       <c r="A45" s="23"/>
       <c r="B45" s="54"/>
       <c r="C45" s="23"/>
@@ -3739,7 +3799,7 @@
       <c r="R45" s="23"/>
       <c r="S45" s="54"/>
     </row>
-    <row r="46" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" ht="16.5">
       <c r="A46" s="23"/>
       <c r="B46" s="54"/>
       <c r="C46" s="23"/>
@@ -3760,7 +3820,7 @@
       <c r="R46" s="23"/>
       <c r="S46" s="54"/>
     </row>
-    <row r="47" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" ht="16.5">
       <c r="A47" s="23"/>
       <c r="B47" s="54"/>
       <c r="C47" s="23"/>
@@ -3781,7 +3841,7 @@
       <c r="R47" s="23"/>
       <c r="S47" s="54"/>
     </row>
-    <row r="48" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" ht="16.5">
       <c r="A48" s="23"/>
       <c r="B48" s="54"/>
       <c r="C48" s="23"/>
@@ -3802,7 +3862,7 @@
       <c r="R48" s="23"/>
       <c r="S48" s="54"/>
     </row>
-    <row r="49" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:19" ht="16.5">
       <c r="A49" s="23"/>
       <c r="B49" s="54"/>
       <c r="C49" s="23"/>
@@ -3823,7 +3883,7 @@
       <c r="R49" s="23"/>
       <c r="S49" s="54"/>
     </row>
-    <row r="50" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:19" ht="16.5">
       <c r="A50" s="23"/>
       <c r="B50" s="54"/>
       <c r="C50" s="23"/>
@@ -3844,7 +3904,7 @@
       <c r="R50" s="23"/>
       <c r="S50" s="54"/>
     </row>
-    <row r="51" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:19" ht="16.5">
       <c r="A51" s="23"/>
       <c r="B51" s="54"/>
       <c r="C51" s="23"/>
@@ -3865,7 +3925,7 @@
       <c r="R51" s="23"/>
       <c r="S51" s="54"/>
     </row>
-    <row r="52" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:19" ht="16.5">
       <c r="A52" s="23"/>
       <c r="B52" s="54"/>
       <c r="C52" s="23"/>
@@ -3886,7 +3946,7 @@
       <c r="R52" s="23"/>
       <c r="S52" s="54"/>
     </row>
-    <row r="53" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:19" ht="16.5">
       <c r="A53" s="23"/>
       <c r="B53" s="54"/>
       <c r="C53" s="23"/>
@@ -3907,7 +3967,7 @@
       <c r="R53" s="23"/>
       <c r="S53" s="54"/>
     </row>
-    <row r="54" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:19" ht="16.5">
       <c r="A54" s="23"/>
       <c r="B54" s="54"/>
       <c r="C54" s="23"/>
@@ -3928,7 +3988,7 @@
       <c r="R54" s="23"/>
       <c r="S54" s="54"/>
     </row>
-    <row r="55" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:19" ht="16.5">
       <c r="A55" s="23"/>
       <c r="B55" s="54"/>
       <c r="C55" s="23"/>
@@ -3949,7 +4009,7 @@
       <c r="R55" s="23"/>
       <c r="S55" s="54"/>
     </row>
-    <row r="56" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:19" ht="16.5">
       <c r="A56" s="23"/>
       <c r="B56" s="54"/>
       <c r="C56" s="23"/>
@@ -3970,7 +4030,7 @@
       <c r="R56" s="23"/>
       <c r="S56" s="54"/>
     </row>
-    <row r="57" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:19" ht="16.5">
       <c r="A57" s="23"/>
       <c r="B57" s="54"/>
       <c r="C57" s="23"/>
@@ -3991,7 +4051,7 @@
       <c r="R57" s="23"/>
       <c r="S57" s="54"/>
     </row>
-    <row r="58" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:19" ht="16.5">
       <c r="A58" s="23"/>
       <c r="B58" s="54"/>
       <c r="C58" s="23"/>
@@ -4012,7 +4072,7 @@
       <c r="R58" s="23"/>
       <c r="S58" s="54"/>
     </row>
-    <row r="59" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:19" ht="16.5">
       <c r="A59" s="23"/>
       <c r="B59" s="54"/>
       <c r="C59" s="23"/>
@@ -4033,7 +4093,7 @@
       <c r="R59" s="23"/>
       <c r="S59" s="54"/>
     </row>
-    <row r="60" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:19" ht="16.5">
       <c r="A60" s="23"/>
       <c r="B60" s="54"/>
       <c r="C60" s="23"/>
@@ -4054,7 +4114,7 @@
       <c r="R60" s="23"/>
       <c r="S60" s="54"/>
     </row>
-    <row r="61" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:19" ht="16.5">
       <c r="A61" s="23"/>
       <c r="B61" s="54"/>
       <c r="C61" s="23"/>
@@ -4075,7 +4135,7 @@
       <c r="R61" s="23"/>
       <c r="S61" s="54"/>
     </row>
-    <row r="62" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:19" ht="16.5">
       <c r="A62" s="23"/>
       <c r="B62" s="54"/>
       <c r="C62" s="23"/>
@@ -4096,7 +4156,7 @@
       <c r="R62" s="23"/>
       <c r="S62" s="54"/>
     </row>
-    <row r="63" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:19" ht="16.5">
       <c r="A63" s="23"/>
       <c r="B63" s="54"/>
       <c r="C63" s="23"/>
@@ -4117,7 +4177,7 @@
       <c r="R63" s="23"/>
       <c r="S63" s="54"/>
     </row>
-    <row r="64" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:19" ht="16.5">
       <c r="A64" s="23"/>
       <c r="B64" s="54"/>
       <c r="C64" s="23"/>
@@ -4138,7 +4198,7 @@
       <c r="R64" s="23"/>
       <c r="S64" s="54"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="23"/>
       <c r="B65" s="54"/>
       <c r="C65" s="23"/>
@@ -4159,7 +4219,7 @@
       <c r="R65" s="23"/>
       <c r="S65" s="54"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="23"/>
       <c r="B66" s="54"/>
       <c r="C66" s="23"/>
@@ -4180,7 +4240,7 @@
       <c r="R66" s="23"/>
       <c r="S66" s="54"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="23"/>
       <c r="B67" s="54"/>
       <c r="C67" s="23"/>
@@ -4201,7 +4261,7 @@
       <c r="R67" s="23"/>
       <c r="S67" s="54"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="23"/>
       <c r="B68" s="54"/>
       <c r="C68" s="23"/>
@@ -4222,7 +4282,7 @@
       <c r="R68" s="23"/>
       <c r="S68" s="54"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="23"/>
       <c r="B69" s="54"/>
       <c r="C69" s="23"/>
@@ -4243,7 +4303,7 @@
       <c r="R69" s="23"/>
       <c r="S69" s="54"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="23"/>
       <c r="B70" s="54"/>
       <c r="C70" s="23"/>
@@ -4264,7 +4324,7 @@
       <c r="R70" s="23"/>
       <c r="S70" s="54"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="23"/>
       <c r="B71" s="54"/>
       <c r="C71" s="23"/>
@@ -4285,7 +4345,7 @@
       <c r="R71" s="23"/>
       <c r="S71" s="54"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="23"/>
       <c r="B72" s="54"/>
       <c r="C72" s="23"/>
@@ -4306,7 +4366,7 @@
       <c r="R72" s="23"/>
       <c r="S72" s="54"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="23"/>
       <c r="B73" s="54"/>
       <c r="C73" s="23"/>
@@ -4327,7 +4387,7 @@
       <c r="R73" s="23"/>
       <c r="S73" s="54"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="23"/>
       <c r="B74" s="54"/>
       <c r="C74" s="23"/>
@@ -4348,7 +4408,7 @@
       <c r="R74" s="23"/>
       <c r="S74" s="54"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="23"/>
       <c r="B75" s="54"/>
       <c r="C75" s="23"/>
@@ -4369,7 +4429,7 @@
       <c r="R75" s="23"/>
       <c r="S75" s="54"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="23"/>
       <c r="B76" s="54"/>
       <c r="C76" s="23"/>
@@ -4390,7 +4450,7 @@
       <c r="R76" s="23"/>
       <c r="S76" s="54"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="23"/>
       <c r="B77" s="54"/>
       <c r="C77" s="23"/>
@@ -4411,7 +4471,7 @@
       <c r="R77" s="23"/>
       <c r="S77" s="54"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="23"/>
       <c r="B78" s="54"/>
       <c r="C78" s="23"/>
@@ -4432,7 +4492,7 @@
       <c r="R78" s="23"/>
       <c r="S78" s="54"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="23"/>
       <c r="B79" s="54"/>
       <c r="C79" s="23"/>
@@ -4453,7 +4513,7 @@
       <c r="R79" s="23"/>
       <c r="S79" s="54"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="23"/>
       <c r="B80" s="54"/>
       <c r="C80" s="23"/>
@@ -4474,7 +4534,7 @@
       <c r="R80" s="23"/>
       <c r="S80" s="54"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="23"/>
       <c r="B81" s="54"/>
       <c r="C81" s="23"/>
@@ -4495,7 +4555,7 @@
       <c r="R81" s="23"/>
       <c r="S81" s="54"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="23"/>
       <c r="B82" s="54"/>
       <c r="C82" s="23"/>
@@ -4516,7 +4576,7 @@
       <c r="R82" s="23"/>
       <c r="S82" s="54"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="23"/>
       <c r="B83" s="54"/>
       <c r="C83" s="23"/>
@@ -4537,7 +4597,7 @@
       <c r="R83" s="23"/>
       <c r="S83" s="54"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="23"/>
       <c r="B84" s="54"/>
       <c r="C84" s="23"/>
@@ -4558,7 +4618,7 @@
       <c r="R84" s="23"/>
       <c r="S84" s="54"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="23"/>
       <c r="B85" s="54"/>
       <c r="C85" s="23"/>
@@ -4579,7 +4639,7 @@
       <c r="R85" s="23"/>
       <c r="S85" s="54"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="23"/>
       <c r="B86" s="54"/>
       <c r="C86" s="23"/>
@@ -4600,7 +4660,7 @@
       <c r="R86" s="23"/>
       <c r="S86" s="54"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="23"/>
       <c r="B87" s="54"/>
       <c r="C87" s="23"/>
@@ -4621,7 +4681,7 @@
       <c r="R87" s="23"/>
       <c r="S87" s="54"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="23"/>
       <c r="B88" s="54"/>
       <c r="C88" s="23"/>
@@ -4642,7 +4702,7 @@
       <c r="R88" s="23"/>
       <c r="S88" s="54"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="23"/>
       <c r="B89" s="54"/>
       <c r="C89" s="23"/>
@@ -4663,7 +4723,7 @@
       <c r="R89" s="23"/>
       <c r="S89" s="54"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="23"/>
       <c r="B90" s="54"/>
       <c r="C90" s="23"/>
@@ -4684,7 +4744,7 @@
       <c r="R90" s="23"/>
       <c r="S90" s="54"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="23"/>
       <c r="B91" s="54"/>
       <c r="C91" s="23"/>
@@ -4705,7 +4765,7 @@
       <c r="R91" s="23"/>
       <c r="S91" s="54"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="23"/>
       <c r="B92" s="54"/>
       <c r="C92" s="23"/>
@@ -4726,7 +4786,7 @@
       <c r="R92" s="23"/>
       <c r="S92" s="54"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="23"/>
       <c r="B93" s="54"/>
       <c r="C93" s="23"/>
@@ -4747,7 +4807,7 @@
       <c r="R93" s="23"/>
       <c r="S93" s="54"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="23"/>
       <c r="B94" s="54"/>
       <c r="C94" s="23"/>
@@ -4768,7 +4828,7 @@
       <c r="R94" s="23"/>
       <c r="S94" s="54"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="23"/>
       <c r="B95" s="54"/>
       <c r="C95" s="23"/>
@@ -4789,7 +4849,7 @@
       <c r="R95" s="23"/>
       <c r="S95" s="54"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="23"/>
       <c r="B96" s="54"/>
       <c r="C96" s="23"/>
@@ -4810,7 +4870,7 @@
       <c r="R96" s="23"/>
       <c r="S96" s="54"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="23"/>
       <c r="B97" s="54"/>
       <c r="C97" s="23"/>
@@ -4831,7 +4891,7 @@
       <c r="R97" s="23"/>
       <c r="S97" s="54"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="23"/>
       <c r="B98" s="54"/>
       <c r="C98" s="23"/>
@@ -4852,7 +4912,7 @@
       <c r="R98" s="23"/>
       <c r="S98" s="54"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19">
       <c r="A99" s="23"/>
       <c r="B99" s="54"/>
       <c r="C99" s="23"/>
@@ -4873,7 +4933,7 @@
       <c r="R99" s="23"/>
       <c r="S99" s="54"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19">
       <c r="A100" s="23"/>
       <c r="B100" s="54"/>
       <c r="C100" s="23"/>
@@ -4894,7 +4954,7 @@
       <c r="R100" s="23"/>
       <c r="S100" s="54"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19">
       <c r="A101" s="23"/>
       <c r="B101" s="54"/>
       <c r="C101" s="23"/>
@@ -4915,7 +4975,7 @@
       <c r="R101" s="23"/>
       <c r="S101" s="54"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19">
       <c r="A102" s="23"/>
       <c r="B102" s="54"/>
       <c r="C102" s="23"/>
@@ -4936,7 +4996,7 @@
       <c r="R102" s="23"/>
       <c r="S102" s="54"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19">
       <c r="A103" s="23"/>
       <c r="B103" s="54"/>
       <c r="C103" s="23"/>
@@ -4957,7 +5017,7 @@
       <c r="R103" s="23"/>
       <c r="S103" s="54"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19">
       <c r="A104" s="23"/>
       <c r="B104" s="54"/>
       <c r="C104" s="23"/>
@@ -4978,7 +5038,7 @@
       <c r="R104" s="23"/>
       <c r="S104" s="54"/>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19">
       <c r="A105" s="23"/>
       <c r="B105" s="54"/>
       <c r="C105" s="23"/>
@@ -4999,7 +5059,7 @@
       <c r="R105" s="23"/>
       <c r="S105" s="54"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19">
       <c r="A106" s="23"/>
       <c r="B106" s="54"/>
       <c r="C106" s="23"/>
@@ -5020,7 +5080,7 @@
       <c r="R106" s="23"/>
       <c r="S106" s="54"/>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19">
       <c r="A107" s="23"/>
       <c r="B107" s="54"/>
       <c r="C107" s="23"/>
@@ -5041,7 +5101,7 @@
       <c r="R107" s="23"/>
       <c r="S107" s="54"/>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19">
       <c r="A108" s="23"/>
       <c r="B108" s="54"/>
       <c r="C108" s="23"/>
@@ -5062,7 +5122,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="54"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19">
       <c r="A109" s="23"/>
       <c r="B109" s="54"/>
       <c r="C109" s="23"/>
@@ -5083,7 +5143,7 @@
       <c r="R109" s="23"/>
       <c r="S109" s="54"/>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19">
       <c r="A110" s="23"/>
       <c r="B110" s="54"/>
       <c r="C110" s="23"/>
@@ -5104,7 +5164,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="54"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19">
       <c r="A111" s="23"/>
       <c r="B111" s="54"/>
       <c r="C111" s="23"/>
@@ -5125,7 +5185,7 @@
       <c r="R111" s="23"/>
       <c r="S111" s="54"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19">
       <c r="A112" s="23"/>
       <c r="B112" s="54"/>
       <c r="C112" s="23"/>
@@ -5146,7 +5206,7 @@
       <c r="R112" s="23"/>
       <c r="S112" s="54"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="23"/>
       <c r="B113" s="54"/>
       <c r="C113" s="23"/>
@@ -5167,7 +5227,7 @@
       <c r="R113" s="23"/>
       <c r="S113" s="54"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="23"/>
       <c r="B114" s="54"/>
       <c r="C114" s="23"/>
@@ -5188,7 +5248,7 @@
       <c r="R114" s="23"/>
       <c r="S114" s="54"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="23"/>
       <c r="B115" s="54"/>
       <c r="C115" s="23"/>
@@ -5209,7 +5269,7 @@
       <c r="R115" s="23"/>
       <c r="S115" s="54"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="23"/>
       <c r="B116" s="54"/>
       <c r="C116" s="23"/>
@@ -5230,7 +5290,7 @@
       <c r="R116" s="23"/>
       <c r="S116" s="54"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="23"/>
       <c r="B117" s="54"/>
       <c r="C117" s="23"/>
@@ -5251,7 +5311,7 @@
       <c r="R117" s="23"/>
       <c r="S117" s="54"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="23"/>
       <c r="B118" s="54"/>
       <c r="C118" s="23"/>
@@ -5272,7 +5332,7 @@
       <c r="R118" s="23"/>
       <c r="S118" s="54"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="23"/>
       <c r="B119" s="54"/>
       <c r="C119" s="23"/>
@@ -5293,7 +5353,7 @@
       <c r="R119" s="23"/>
       <c r="S119" s="54"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="23"/>
       <c r="B120" s="54"/>
       <c r="C120" s="23"/>
@@ -5314,7 +5374,7 @@
       <c r="R120" s="23"/>
       <c r="S120" s="54"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="23"/>
       <c r="B121" s="54"/>
       <c r="C121" s="23"/>
@@ -5335,7 +5395,7 @@
       <c r="R121" s="23"/>
       <c r="S121" s="54"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="23"/>
       <c r="B122" s="54"/>
       <c r="C122" s="23"/>
@@ -5356,7 +5416,7 @@
       <c r="R122" s="23"/>
       <c r="S122" s="54"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="23"/>
       <c r="B123" s="54"/>
       <c r="C123" s="23"/>
@@ -5377,7 +5437,7 @@
       <c r="R123" s="23"/>
       <c r="S123" s="54"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="23"/>
       <c r="B124" s="54"/>
       <c r="C124" s="23"/>
@@ -5398,7 +5458,7 @@
       <c r="R124" s="23"/>
       <c r="S124" s="54"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="23"/>
       <c r="B125" s="54"/>
       <c r="C125" s="23"/>
@@ -5419,7 +5479,7 @@
       <c r="R125" s="23"/>
       <c r="S125" s="54"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="23"/>
       <c r="B126" s="54"/>
       <c r="C126" s="23"/>
@@ -5440,7 +5500,7 @@
       <c r="R126" s="23"/>
       <c r="S126" s="54"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="23"/>
       <c r="B127" s="54"/>
       <c r="C127" s="23"/>
@@ -5461,7 +5521,7 @@
       <c r="R127" s="23"/>
       <c r="S127" s="54"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="23"/>
       <c r="B128" s="54"/>
       <c r="C128" s="23"/>
@@ -5482,7 +5542,7 @@
       <c r="R128" s="23"/>
       <c r="S128" s="54"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="23"/>
       <c r="B129" s="54"/>
       <c r="C129" s="23"/>
@@ -5503,7 +5563,7 @@
       <c r="R129" s="23"/>
       <c r="S129" s="54"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="23"/>
       <c r="B130" s="54"/>
       <c r="C130" s="23"/>
@@ -5524,7 +5584,7 @@
       <c r="R130" s="23"/>
       <c r="S130" s="54"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="23"/>
       <c r="B131" s="54"/>
       <c r="C131" s="23"/>
@@ -5545,7 +5605,7 @@
       <c r="R131" s="23"/>
       <c r="S131" s="54"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="23"/>
       <c r="B132" s="54"/>
       <c r="C132" s="23"/>
@@ -5566,7 +5626,7 @@
       <c r="R132" s="23"/>
       <c r="S132" s="54"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="23"/>
       <c r="B133" s="54"/>
       <c r="C133" s="23"/>
@@ -5587,7 +5647,7 @@
       <c r="R133" s="23"/>
       <c r="S133" s="54"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="23"/>
       <c r="B134" s="54"/>
       <c r="C134" s="23"/>
@@ -5608,7 +5668,7 @@
       <c r="R134" s="23"/>
       <c r="S134" s="54"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="23"/>
       <c r="B135" s="54"/>
       <c r="C135" s="23"/>
@@ -5629,7 +5689,7 @@
       <c r="R135" s="23"/>
       <c r="S135" s="54"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="23"/>
       <c r="B136" s="54"/>
       <c r="C136" s="23"/>
@@ -5650,7 +5710,7 @@
       <c r="R136" s="23"/>
       <c r="S136" s="54"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="23"/>
       <c r="B137" s="54"/>
       <c r="C137" s="23"/>
@@ -5671,7 +5731,7 @@
       <c r="R137" s="23"/>
       <c r="S137" s="54"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="23"/>
       <c r="B138" s="54"/>
       <c r="C138" s="23"/>
@@ -5692,7 +5752,7 @@
       <c r="R138" s="23"/>
       <c r="S138" s="54"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="23"/>
       <c r="B139" s="54"/>
       <c r="C139" s="23"/>
@@ -5713,7 +5773,7 @@
       <c r="R139" s="23"/>
       <c r="S139" s="54"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="23"/>
       <c r="B140" s="54"/>
       <c r="C140" s="23"/>
@@ -5734,7 +5794,7 @@
       <c r="R140" s="23"/>
       <c r="S140" s="54"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="23"/>
       <c r="B141" s="54"/>
       <c r="C141" s="23"/>
@@ -5755,7 +5815,7 @@
       <c r="R141" s="23"/>
       <c r="S141" s="54"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="23"/>
       <c r="B142" s="54"/>
       <c r="C142" s="23"/>
@@ -5776,7 +5836,7 @@
       <c r="R142" s="23"/>
       <c r="S142" s="54"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="23"/>
       <c r="B143" s="54"/>
       <c r="C143" s="23"/>
@@ -5797,7 +5857,7 @@
       <c r="R143" s="23"/>
       <c r="S143" s="54"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="23"/>
       <c r="B144" s="54"/>
       <c r="C144" s="23"/>
@@ -5818,7 +5878,7 @@
       <c r="R144" s="23"/>
       <c r="S144" s="54"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="23"/>
       <c r="B145" s="54"/>
       <c r="C145" s="23"/>
@@ -5839,7 +5899,7 @@
       <c r="R145" s="23"/>
       <c r="S145" s="54"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="23"/>
       <c r="B146" s="54"/>
       <c r="C146" s="23"/>
@@ -5860,7 +5920,7 @@
       <c r="R146" s="23"/>
       <c r="S146" s="54"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="23"/>
       <c r="B147" s="54"/>
       <c r="C147" s="23"/>
@@ -5881,7 +5941,7 @@
       <c r="R147" s="23"/>
       <c r="S147" s="54"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="23"/>
       <c r="B148" s="54"/>
       <c r="C148" s="23"/>
@@ -5902,7 +5962,7 @@
       <c r="R148" s="23"/>
       <c r="S148" s="54"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="23"/>
       <c r="B149" s="54"/>
       <c r="C149" s="23"/>
@@ -5923,7 +5983,7 @@
       <c r="R149" s="23"/>
       <c r="S149" s="54"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="23"/>
       <c r="B150" s="54"/>
       <c r="C150" s="23"/>
@@ -5944,7 +6004,7 @@
       <c r="R150" s="23"/>
       <c r="S150" s="54"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="23"/>
       <c r="B151" s="54"/>
       <c r="C151" s="23"/>
@@ -5965,7 +6025,7 @@
       <c r="R151" s="23"/>
       <c r="S151" s="54"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="23"/>
       <c r="B152" s="54"/>
       <c r="C152" s="23"/>
@@ -5986,7 +6046,7 @@
       <c r="R152" s="23"/>
       <c r="S152" s="54"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="23"/>
       <c r="B153" s="54"/>
       <c r="C153" s="23"/>
@@ -6007,7 +6067,7 @@
       <c r="R153" s="23"/>
       <c r="S153" s="54"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="23"/>
       <c r="B154" s="54"/>
       <c r="C154" s="23"/>
@@ -6028,7 +6088,7 @@
       <c r="R154" s="23"/>
       <c r="S154" s="54"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="23"/>
       <c r="B155" s="54"/>
       <c r="C155" s="23"/>
@@ -6049,7 +6109,7 @@
       <c r="R155" s="23"/>
       <c r="S155" s="54"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="23"/>
       <c r="B156" s="54"/>
       <c r="C156" s="23"/>
@@ -6070,7 +6130,7 @@
       <c r="R156" s="23"/>
       <c r="S156" s="54"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="23"/>
       <c r="B157" s="54"/>
       <c r="C157" s="23"/>
@@ -6091,7 +6151,7 @@
       <c r="R157" s="23"/>
       <c r="S157" s="54"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="23"/>
       <c r="B158" s="54"/>
       <c r="C158" s="23"/>
@@ -6112,7 +6172,7 @@
       <c r="R158" s="23"/>
       <c r="S158" s="54"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="23"/>
       <c r="B159" s="54"/>
       <c r="C159" s="23"/>
@@ -6130,7 +6190,7 @@
       <c r="O159" s="54"/>
       <c r="S159" s="54"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="23"/>
       <c r="B160" s="54"/>
       <c r="C160" s="23"/>
@@ -6148,7 +6208,7 @@
       <c r="O160" s="54"/>
       <c r="S160" s="54"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="23"/>
       <c r="B161" s="54"/>
       <c r="C161" s="23"/>
@@ -6166,7 +6226,7 @@
       <c r="O161" s="54"/>
       <c r="S161" s="54"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="23"/>
       <c r="B162" s="54"/>
       <c r="C162" s="23"/>
@@ -6184,7 +6244,7 @@
       <c r="O162" s="54"/>
       <c r="S162" s="54"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="23"/>
       <c r="B163" s="54"/>
       <c r="C163" s="23"/>
@@ -6202,7 +6262,7 @@
       <c r="O163" s="54"/>
       <c r="S163" s="54"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="23"/>
       <c r="B164" s="54"/>
       <c r="C164" s="23"/>
@@ -6220,7 +6280,7 @@
       <c r="O164" s="54"/>
       <c r="S164" s="54"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="23"/>
       <c r="B165" s="54"/>
       <c r="C165" s="23"/>
@@ -6238,7 +6298,7 @@
       <c r="O165" s="54"/>
       <c r="S165" s="54"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="23"/>
       <c r="B166" s="54"/>
       <c r="C166" s="23"/>
@@ -6256,7 +6316,7 @@
       <c r="O166" s="54"/>
       <c r="S166" s="54"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="23"/>
       <c r="B167" s="54"/>
       <c r="C167" s="23"/>
@@ -6274,7 +6334,7 @@
       <c r="O167" s="54"/>
       <c r="S167" s="54"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="23"/>
       <c r="B168" s="54"/>
       <c r="C168" s="23"/>
@@ -6292,7 +6352,7 @@
       <c r="O168" s="54"/>
       <c r="S168" s="54"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="23"/>
       <c r="B169" s="54"/>
       <c r="C169" s="23"/>
@@ -6310,7 +6370,7 @@
       <c r="O169" s="54"/>
       <c r="S169" s="54"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="23"/>
       <c r="B170" s="54"/>
       <c r="C170" s="23"/>
@@ -6328,7 +6388,7 @@
       <c r="O170" s="54"/>
       <c r="S170" s="54"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="23"/>
       <c r="B171" s="54"/>
       <c r="C171" s="23"/>
@@ -6346,7 +6406,7 @@
       <c r="O171" s="54"/>
       <c r="S171" s="54"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="23"/>
       <c r="B172" s="54"/>
       <c r="C172" s="23"/>
@@ -6364,7 +6424,7 @@
       <c r="O172" s="54"/>
       <c r="S172" s="54"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="23"/>
       <c r="B173" s="54"/>
       <c r="C173" s="23"/>
@@ -6382,7 +6442,7 @@
       <c r="O173" s="54"/>
       <c r="S173" s="54"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="23"/>
       <c r="B174" s="54"/>
       <c r="C174" s="23"/>
@@ -6400,7 +6460,7 @@
       <c r="O174" s="54"/>
       <c r="S174" s="54"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="23"/>
       <c r="B175" s="54"/>
       <c r="C175" s="23"/>
@@ -6418,7 +6478,7 @@
       <c r="O175" s="54"/>
       <c r="S175" s="54"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="23"/>
       <c r="B176" s="54"/>
       <c r="C176" s="23"/>
@@ -6436,7 +6496,7 @@
       <c r="O176" s="54"/>
       <c r="S176" s="54"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="23"/>
       <c r="B177" s="54"/>
       <c r="C177" s="23"/>
@@ -6454,7 +6514,7 @@
       <c r="O177" s="54"/>
       <c r="S177" s="54"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="23"/>
       <c r="B178" s="54"/>
       <c r="C178" s="23"/>
@@ -6472,7 +6532,7 @@
       <c r="O178" s="54"/>
       <c r="S178" s="54"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="23"/>
       <c r="B179" s="54"/>
       <c r="C179" s="23"/>
@@ -6490,7 +6550,7 @@
       <c r="O179" s="54"/>
       <c r="S179" s="54"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="23"/>
       <c r="B180" s="54"/>
       <c r="C180" s="23"/>
@@ -6508,7 +6568,7 @@
       <c r="O180" s="54"/>
       <c r="S180" s="54"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="23"/>
       <c r="B181" s="54"/>
       <c r="C181" s="23"/>
@@ -6526,7 +6586,7 @@
       <c r="O181" s="54"/>
       <c r="S181" s="54"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="23"/>
       <c r="B182" s="54"/>
       <c r="C182" s="23"/>
@@ -6544,7 +6604,7 @@
       <c r="O182" s="54"/>
       <c r="S182" s="54"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="23"/>
       <c r="B183" s="54"/>
       <c r="C183" s="23"/>
@@ -6562,7 +6622,7 @@
       <c r="O183" s="54"/>
       <c r="S183" s="54"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="23"/>
       <c r="B184" s="54"/>
       <c r="C184" s="23"/>
@@ -6580,7 +6640,7 @@
       <c r="O184" s="54"/>
       <c r="S184" s="54"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="23"/>
       <c r="B185" s="54"/>
       <c r="C185" s="23"/>
@@ -6598,7 +6658,7 @@
       <c r="O185" s="54"/>
       <c r="S185" s="54"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="23"/>
       <c r="B186" s="54"/>
       <c r="C186" s="23"/>
@@ -6616,7 +6676,7 @@
       <c r="O186" s="54"/>
       <c r="S186" s="54"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="23"/>
       <c r="B187" s="54"/>
       <c r="C187" s="23"/>
@@ -6634,7 +6694,7 @@
       <c r="O187" s="54"/>
       <c r="S187" s="54"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="23"/>
       <c r="B188" s="54"/>
       <c r="C188" s="23"/>
@@ -6652,7 +6712,7 @@
       <c r="O188" s="54"/>
       <c r="S188" s="54"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="23"/>
       <c r="B189" s="54"/>
       <c r="C189" s="23"/>
@@ -6670,7 +6730,7 @@
       <c r="O189" s="54"/>
       <c r="S189" s="54"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="23"/>
       <c r="B190" s="54"/>
       <c r="C190" s="23"/>
@@ -6688,7 +6748,7 @@
       <c r="O190" s="54"/>
       <c r="S190" s="54"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="23"/>
       <c r="B191" s="54"/>
       <c r="C191" s="23"/>
@@ -6706,7 +6766,7 @@
       <c r="O191" s="54"/>
       <c r="S191" s="54"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="23"/>
       <c r="B192" s="54"/>
       <c r="C192" s="23"/>
@@ -6724,7 +6784,7 @@
       <c r="O192" s="54"/>
       <c r="S192" s="54"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="23"/>
       <c r="B193" s="54"/>
       <c r="C193" s="23"/>
@@ -6750,14 +6810,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="H7:I9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="2" customWidth="1"/>
@@ -7593,7 +7653,7 @@
     <col min="16141" max="16141" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="79" t="s">
         <v>27</v>
       </c>
@@ -7610,7 +7670,7 @@
       <c r="L1" s="79"/>
       <c r="M1" s="80"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
       <c r="C2" s="81"/>
@@ -7625,7 +7685,7 @@
       <c r="L2" s="81"/>
       <c r="M2" s="82"/>
     </row>
-    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
@@ -7666,7 +7726,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="25" customFormat="1" ht="24.95" customHeight="1">
       <c r="A4" s="24">
         <v>1</v>
       </c>
@@ -7674,13 +7734,13 @@
         <v>160</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F4" s="24" t="s">
         <v>162</v>
@@ -7692,7 +7752,7 @@
         <v>164</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>166</v>
@@ -7704,10 +7764,10 @@
         <v>167</v>
       </c>
       <c r="M4" s="24" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="1" customFormat="1" ht="25.5" customHeight="1">
       <c r="A5" s="62">
         <v>2</v>
       </c>
@@ -7715,7 +7775,7 @@
         <v>168</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D5" s="63" t="s">
         <v>169</v>
@@ -7732,23 +7792,23 @@
       <c r="H5" s="63" t="s">
         <v>171</v>
       </c>
-      <c r="I5" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="J5" s="63" t="s">
+      <c r="I5" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L5" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="M5" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="K5" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="L5" s="63" t="s">
-        <v>174</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" s="1" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:13" s="1" customFormat="1" ht="109.5" customHeight="1">
       <c r="A6" s="24">
         <v>3</v>
       </c>
@@ -7756,328 +7816,354 @@
         <v>168</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F6" s="24" t="s">
         <v>162</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I6" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="K6" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="L6" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" ht="94.5" customHeight="1">
+      <c r="A7" s="24">
+        <v>4</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="M6" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
-      <c r="A7" s="62">
-        <v>4</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>188</v>
+      <c r="E7" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="H7" s="24" t="s">
-        <v>190</v>
+        <v>162</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="J7" s="24" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="L7" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+        <v>167</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A8" s="24">
         <v>5</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F8" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="G8" s="61" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D8" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" s="61" t="s">
+      <c r="I8" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="J8" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="K8" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L8" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G8" s="61" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>191</v>
-      </c>
-      <c r="J8" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:13" s="1" customFormat="1" ht="66" x14ac:dyDescent="0.15">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A9" s="62">
         <v>6</v>
       </c>
       <c r="B9" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>184</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="G9" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="H9" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="24" t="s">
+      <c r="I9" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="J9" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="K9" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L9" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="G9" s="61" t="s">
-        <v>238</v>
-      </c>
-      <c r="H9" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="I9" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="J9" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="K9" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="24" t="s">
-        <v>193</v>
-      </c>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:13" s="1" customFormat="1" ht="148.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="1" customFormat="1" ht="66">
       <c r="A10" s="24">
         <v>7</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G10" s="78" t="s">
-        <v>270</v>
+        <v>185</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>234</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="I10" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="M10" s="5"/>
-    </row>
-    <row r="11" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A11" s="62">
+      <c r="J10" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="K10" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L10" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" ht="148.5">
+      <c r="A11" s="24">
         <v>8</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>205</v>
+        <v>185</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>266</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="I11" s="24" t="s">
         <v>165</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" spans="1:13" s="1" customFormat="1" ht="214.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" s="1" customFormat="1" ht="33">
       <c r="A12" s="24">
         <v>9</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C12" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G12" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>186</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E12" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="G12" s="27" t="s">
-        <v>269</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>190</v>
       </c>
       <c r="I12" s="24" t="s">
         <v>165</v>
       </c>
       <c r="J12" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="L12" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" s="1" customFormat="1" ht="33" x14ac:dyDescent="0.15">
-      <c r="A13" s="24">
-        <v>9</v>
+    <row r="13" spans="1:13" s="1" customFormat="1" ht="214.5">
+      <c r="A13" s="62">
+        <v>10</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>227</v>
+        <v>190</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>228</v>
+        <v>265</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="I13" s="24" t="s">
         <v>165</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="L13" s="5" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
+    <row r="14" spans="1:13" s="1" customFormat="1" ht="33">
+      <c r="A14" s="24">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="27" t="s">
+        <v>224</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>227</v>
+      </c>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" s="1" customFormat="1" ht="16.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -8092,19 +8178,34 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
+    <row r="16" spans="1:13" s="1" customFormat="1" ht="16.5">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I4 I14:I1048576 TA5:TA1048576 ACW5:ACW1048576 AMS5:AMS1048576 AWO5:AWO1048576 BGK5:BGK1048576 BQG5:BQG1048576 CAC5:CAC1048576 CJY5:CJY1048576 CTU5:CTU1048576 DDQ5:DDQ1048576 DNM5:DNM1048576 DXI5:DXI1048576 EHE5:EHE1048576 ERA5:ERA1048576 FAW5:FAW1048576 FKS5:FKS1048576 FUO5:FUO1048576 GEK5:GEK1048576 GOG5:GOG1048576 GYC5:GYC1048576 HHY5:HHY1048576 HRU5:HRU1048576 IBQ5:IBQ1048576 ILM5:ILM1048576 IVI5:IVI1048576 JFE5:JFE1048576 JPA5:JPA1048576 JYW5:JYW1048576 KIS5:KIS1048576 KSO5:KSO1048576 LCK5:LCK1048576 LMG5:LMG1048576 LWC5:LWC1048576 MFY5:MFY1048576 MPU5:MPU1048576 MZQ5:MZQ1048576 NJM5:NJM1048576 NTI5:NTI1048576 ODE5:ODE1048576 ONA5:ONA1048576 OWW5:OWW1048576 PGS5:PGS1048576 PQO5:PQO1048576 QAK5:QAK1048576 QKG5:QKG1048576 QUC5:QUC1048576 RDY5:RDY1048576 RNU5:RNU1048576 RXQ5:RXQ1048576 SHM5:SHM1048576 SRI5:SRI1048576 TBE5:TBE1048576 TLA5:TLA1048576 TUW5:TUW1048576 UES5:UES1048576 UOO5:UOO1048576 UYK5:UYK1048576 VIG5:VIG1048576 VSC5:VSC1048576 WBY5:WBY1048576 WLU5:WLU1048576 WVQ5:WVQ1048576 JE5:JE1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ1:WVQ3 WLU1:WLU3 WBY1:WBY3 VSC1:VSC3 VIG1:VIG3 UYK1:UYK3 UOO1:UOO3 UES1:UES3 TUW1:TUW3 TLA1:TLA3 TBE1:TBE3 SRI1:SRI3 SHM1:SHM3 RXQ1:RXQ3 RNU1:RNU3 RDY1:RDY3 QUC1:QUC3 QKG1:QKG3 QAK1:QAK3 PQO1:PQO3 PGS1:PGS3 OWW1:OWW3 ONA1:ONA3 ODE1:ODE3 NTI1:NTI3 NJM1:NJM3 MZQ1:MZQ3 MPU1:MPU3 MFY1:MFY3 LWC1:LWC3 LMG1:LMG3 LCK1:LCK3 KSO1:KSO3 KIS1:KIS3 JYW1:JYW3 JPA1:JPA3 JFE1:JFE3 IVI1:IVI3 ILM1:ILM3 IBQ1:IBQ3 HRU1:HRU3 HHY1:HHY3 GYC1:GYC3 GOG1:GOG3 GEK1:GEK3 FUO1:FUO3 FKS1:FKS3 FAW1:FAW3 ERA1:ERA3 EHE1:EHE3 DXI1:DXI3 DNM1:DNM3 DDQ1:DDQ3 CTU1:CTU3 CJY1:CJY3 CAC1:CAC3 BQG1:BQG3 BGK1:BGK3 AWO1:AWO3 AMS1:AMS3 ACW1:ACW3 TA1:TA3 JE1:JE3 I1:I4 I15:I1048576 JE5:JE1048576 WVQ5:WVQ1048576 WLU5:WLU1048576 WBY5:WBY1048576 VSC5:VSC1048576 VIG5:VIG1048576 UYK5:UYK1048576 UOO5:UOO1048576 UES5:UES1048576 TUW5:TUW1048576 TLA5:TLA1048576 TBE5:TBE1048576 SRI5:SRI1048576 SHM5:SHM1048576 RXQ5:RXQ1048576 RNU5:RNU1048576 RDY5:RDY1048576 QUC5:QUC1048576 QKG5:QKG1048576 QAK5:QAK1048576 PQO5:PQO1048576 PGS5:PGS1048576 OWW5:OWW1048576 ONA5:ONA1048576 ODE5:ODE1048576 NTI5:NTI1048576 NJM5:NJM1048576 MZQ5:MZQ1048576 MPU5:MPU1048576 MFY5:MFY1048576 LWC5:LWC1048576 LMG5:LMG1048576 LCK5:LCK1048576 KSO5:KSO1048576 KIS5:KIS1048576 JYW5:JYW1048576 JPA5:JPA1048576 JFE5:JFE1048576 IVI5:IVI1048576 ILM5:ILM1048576 IBQ5:IBQ1048576 HRU5:HRU1048576 HHY5:HHY1048576 GYC5:GYC1048576 GOG5:GOG1048576 GEK5:GEK1048576 FUO5:FUO1048576 FKS5:FKS1048576 FAW5:FAW1048576 ERA5:ERA1048576 EHE5:EHE1048576 DXI5:DXI1048576 DNM5:DNM1048576 DDQ5:DDQ1048576 CTU5:CTU1048576 CJY5:CJY1048576 CAC5:CAC1048576 BQG5:BQG1048576 BGK5:BGK1048576 AWO5:AWO1048576 AMS5:AMS1048576 ACW5:ACW1048576 TA5:TA1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65539:F65551 WVN917507:WVN917519 WVN851971:WVN851983 WVN786435:WVN786447 WVN720899:WVN720911 WVN655363:WVN655375 WVN589827:WVN589839 WVN524291:WVN524303 WVN458755:WVN458767 WVN393219:WVN393231 WVN327683:WVN327695 WVN262147:WVN262159 WVN196611:WVN196623 WVN131075:WVN131087 WVN65539:WVN65551 WVN983043:WVN983055 WLR983043:WLR983055 WLR917507:WLR917519 WLR851971:WLR851983 WLR786435:WLR786447 WLR720899:WLR720911 WLR655363:WLR655375 WLR589827:WLR589839 WLR524291:WLR524303 WLR458755:WLR458767 WLR393219:WLR393231 WLR327683:WLR327695 WLR262147:WLR262159 WLR196611:WLR196623 WLR131075:WLR131087 WLR65539:WLR65551 WBV983043:WBV983055 WBV917507:WBV917519 WBV851971:WBV851983 WBV786435:WBV786447 WBV720899:WBV720911 WBV655363:WBV655375 WBV589827:WBV589839 WBV524291:WBV524303 WBV458755:WBV458767 WBV393219:WBV393231 WBV327683:WBV327695 WBV262147:WBV262159 WBV196611:WBV196623 WBV131075:WBV131087 WBV65539:WBV65551 VRZ983043:VRZ983055 VRZ917507:VRZ917519 VRZ851971:VRZ851983 VRZ786435:VRZ786447 VRZ720899:VRZ720911 VRZ655363:VRZ655375 VRZ589827:VRZ589839 VRZ524291:VRZ524303 VRZ458755:VRZ458767 VRZ393219:VRZ393231 VRZ327683:VRZ327695 VRZ262147:VRZ262159 VRZ196611:VRZ196623 VRZ131075:VRZ131087 VRZ65539:VRZ65551 VID983043:VID983055 VID917507:VID917519 VID851971:VID851983 VID786435:VID786447 VID720899:VID720911 VID655363:VID655375 VID589827:VID589839 VID524291:VID524303 VID458755:VID458767 VID393219:VID393231 VID327683:VID327695 VID262147:VID262159 VID196611:VID196623 VID131075:VID131087 VID65539:VID65551 UYH983043:UYH983055 UYH917507:UYH917519 UYH851971:UYH851983 UYH786435:UYH786447 UYH720899:UYH720911 UYH655363:UYH655375 UYH589827:UYH589839 UYH524291:UYH524303 UYH458755:UYH458767 UYH393219:UYH393231 UYH327683:UYH327695 UYH262147:UYH262159 UYH196611:UYH196623 UYH131075:UYH131087 UYH65539:UYH65551 UOL983043:UOL983055 UOL917507:UOL917519 UOL851971:UOL851983 UOL786435:UOL786447 UOL720899:UOL720911 UOL655363:UOL655375 UOL589827:UOL589839 UOL524291:UOL524303 UOL458755:UOL458767 UOL393219:UOL393231 UOL327683:UOL327695 UOL262147:UOL262159 UOL196611:UOL196623 UOL131075:UOL131087 UOL65539:UOL65551 UEP983043:UEP983055 UEP917507:UEP917519 UEP851971:UEP851983 UEP786435:UEP786447 UEP720899:UEP720911 UEP655363:UEP655375 UEP589827:UEP589839 UEP524291:UEP524303 UEP458755:UEP458767 UEP393219:UEP393231 UEP327683:UEP327695 UEP262147:UEP262159 UEP196611:UEP196623 UEP131075:UEP131087 UEP65539:UEP65551 TUT983043:TUT983055 TUT917507:TUT917519 TUT851971:TUT851983 TUT786435:TUT786447 TUT720899:TUT720911 TUT655363:TUT655375 TUT589827:TUT589839 TUT524291:TUT524303 TUT458755:TUT458767 TUT393219:TUT393231 TUT327683:TUT327695 TUT262147:TUT262159 TUT196611:TUT196623 TUT131075:TUT131087 TUT65539:TUT65551 TKX983043:TKX983055 TKX917507:TKX917519 TKX851971:TKX851983 TKX786435:TKX786447 TKX720899:TKX720911 TKX655363:TKX655375 TKX589827:TKX589839 TKX524291:TKX524303 TKX458755:TKX458767 TKX393219:TKX393231 TKX327683:TKX327695 TKX262147:TKX262159 TKX196611:TKX196623 TKX131075:TKX131087 TKX65539:TKX65551 TBB983043:TBB983055 TBB917507:TBB917519 TBB851971:TBB851983 TBB786435:TBB786447 TBB720899:TBB720911 TBB655363:TBB655375 TBB589827:TBB589839 TBB524291:TBB524303 TBB458755:TBB458767 TBB393219:TBB393231 TBB327683:TBB327695 TBB262147:TBB262159 TBB196611:TBB196623 TBB131075:TBB131087 TBB65539:TBB65551 SRF983043:SRF983055 SRF917507:SRF917519 SRF851971:SRF851983 SRF786435:SRF786447 SRF720899:SRF720911 SRF655363:SRF655375 SRF589827:SRF589839 SRF524291:SRF524303 SRF458755:SRF458767 SRF393219:SRF393231 SRF327683:SRF327695 SRF262147:SRF262159 SRF196611:SRF196623 SRF131075:SRF131087 SRF65539:SRF65551 SHJ983043:SHJ983055 SHJ917507:SHJ917519 SHJ851971:SHJ851983 SHJ786435:SHJ786447 SHJ720899:SHJ720911 SHJ655363:SHJ655375 SHJ589827:SHJ589839 SHJ524291:SHJ524303 SHJ458755:SHJ458767 SHJ393219:SHJ393231 SHJ327683:SHJ327695 SHJ262147:SHJ262159 SHJ196611:SHJ196623 SHJ131075:SHJ131087 SHJ65539:SHJ65551 RXN983043:RXN983055 RXN917507:RXN917519 RXN851971:RXN851983 RXN786435:RXN786447 RXN720899:RXN720911 RXN655363:RXN655375 RXN589827:RXN589839 RXN524291:RXN524303 RXN458755:RXN458767 RXN393219:RXN393231 RXN327683:RXN327695 RXN262147:RXN262159 RXN196611:RXN196623 RXN131075:RXN131087 RXN65539:RXN65551 RNR983043:RNR983055 RNR917507:RNR917519 RNR851971:RNR851983 RNR786435:RNR786447 RNR720899:RNR720911 RNR655363:RNR655375 RNR589827:RNR589839 RNR524291:RNR524303 RNR458755:RNR458767 RNR393219:RNR393231 RNR327683:RNR327695 RNR262147:RNR262159 RNR196611:RNR196623 RNR131075:RNR131087 RNR65539:RNR65551 RDV983043:RDV983055 RDV917507:RDV917519 RDV851971:RDV851983 RDV786435:RDV786447 RDV720899:RDV720911 RDV655363:RDV655375 RDV589827:RDV589839 RDV524291:RDV524303 RDV458755:RDV458767 RDV393219:RDV393231 RDV327683:RDV327695 RDV262147:RDV262159 RDV196611:RDV196623 RDV131075:RDV131087 RDV65539:RDV65551 QTZ983043:QTZ983055 QTZ917507:QTZ917519 QTZ851971:QTZ851983 QTZ786435:QTZ786447 QTZ720899:QTZ720911 QTZ655363:QTZ655375 QTZ589827:QTZ589839 QTZ524291:QTZ524303 QTZ458755:QTZ458767 QTZ393219:QTZ393231 QTZ327683:QTZ327695 QTZ262147:QTZ262159 QTZ196611:QTZ196623 QTZ131075:QTZ131087 QTZ65539:QTZ65551 QKD983043:QKD983055 QKD917507:QKD917519 QKD851971:QKD851983 QKD786435:QKD786447 QKD720899:QKD720911 QKD655363:QKD655375 QKD589827:QKD589839 QKD524291:QKD524303 QKD458755:QKD458767 QKD393219:QKD393231 QKD327683:QKD327695 QKD262147:QKD262159 QKD196611:QKD196623 QKD131075:QKD131087 QKD65539:QKD65551 QAH983043:QAH983055 QAH917507:QAH917519 QAH851971:QAH851983 QAH786435:QAH786447 QAH720899:QAH720911 QAH655363:QAH655375 QAH589827:QAH589839 QAH524291:QAH524303 QAH458755:QAH458767 QAH393219:QAH393231 QAH327683:QAH327695 QAH262147:QAH262159 QAH196611:QAH196623 QAH131075:QAH131087 QAH65539:QAH65551 PQL983043:PQL983055 PQL917507:PQL917519 PQL851971:PQL851983 PQL786435:PQL786447 PQL720899:PQL720911 PQL655363:PQL655375 PQL589827:PQL589839 PQL524291:PQL524303 PQL458755:PQL458767 PQL393219:PQL393231 PQL327683:PQL327695 PQL262147:PQL262159 PQL196611:PQL196623 PQL131075:PQL131087 PQL65539:PQL65551 PGP983043:PGP983055 PGP917507:PGP917519 PGP851971:PGP851983 PGP786435:PGP786447 PGP720899:PGP720911 PGP655363:PGP655375 PGP589827:PGP589839 PGP524291:PGP524303 PGP458755:PGP458767 PGP393219:PGP393231 PGP327683:PGP327695 PGP262147:PGP262159 PGP196611:PGP196623 PGP131075:PGP131087 PGP65539:PGP65551 OWT983043:OWT983055 OWT917507:OWT917519 OWT851971:OWT851983 OWT786435:OWT786447 OWT720899:OWT720911 OWT655363:OWT655375 OWT589827:OWT589839 OWT524291:OWT524303 OWT458755:OWT458767 OWT393219:OWT393231 OWT327683:OWT327695 OWT262147:OWT262159 OWT196611:OWT196623 OWT131075:OWT131087 OWT65539:OWT65551 OMX983043:OMX983055 OMX917507:OMX917519 OMX851971:OMX851983 OMX786435:OMX786447 OMX720899:OMX720911 OMX655363:OMX655375 OMX589827:OMX589839 OMX524291:OMX524303 OMX458755:OMX458767 OMX393219:OMX393231 OMX327683:OMX327695 OMX262147:OMX262159 OMX196611:OMX196623 OMX131075:OMX131087 OMX65539:OMX65551 ODB983043:ODB983055 ODB917507:ODB917519 ODB851971:ODB851983 ODB786435:ODB786447 ODB720899:ODB720911 ODB655363:ODB655375 ODB589827:ODB589839 ODB524291:ODB524303 ODB458755:ODB458767 ODB393219:ODB393231 ODB327683:ODB327695 ODB262147:ODB262159 ODB196611:ODB196623 ODB131075:ODB131087 ODB65539:ODB65551 NTF983043:NTF983055 NTF917507:NTF917519 NTF851971:NTF851983 NTF786435:NTF786447 NTF720899:NTF720911 NTF655363:NTF655375 NTF589827:NTF589839 NTF524291:NTF524303 NTF458755:NTF458767 NTF393219:NTF393231 NTF327683:NTF327695 NTF262147:NTF262159 NTF196611:NTF196623 NTF131075:NTF131087 NTF65539:NTF65551 NJJ983043:NJJ983055 NJJ917507:NJJ917519 NJJ851971:NJJ851983 NJJ786435:NJJ786447 NJJ720899:NJJ720911 NJJ655363:NJJ655375 NJJ589827:NJJ589839 NJJ524291:NJJ524303 NJJ458755:NJJ458767 NJJ393219:NJJ393231 NJJ327683:NJJ327695 NJJ262147:NJJ262159 NJJ196611:NJJ196623 NJJ131075:NJJ131087 NJJ65539:NJJ65551 MZN983043:MZN983055 MZN917507:MZN917519 MZN851971:MZN851983 MZN786435:MZN786447 MZN720899:MZN720911 MZN655363:MZN655375 MZN589827:MZN589839 MZN524291:MZN524303 MZN458755:MZN458767 MZN393219:MZN393231 MZN327683:MZN327695 MZN262147:MZN262159 MZN196611:MZN196623 MZN131075:MZN131087 MZN65539:MZN65551 MPR983043:MPR983055 MPR917507:MPR917519 MPR851971:MPR851983 MPR786435:MPR786447 MPR720899:MPR720911 MPR655363:MPR655375 MPR589827:MPR589839 MPR524291:MPR524303 MPR458755:MPR458767 MPR393219:MPR393231 MPR327683:MPR327695 MPR262147:MPR262159 MPR196611:MPR196623 MPR131075:MPR131087 MPR65539:MPR65551 MFV983043:MFV983055 MFV917507:MFV917519 MFV851971:MFV851983 MFV786435:MFV786447 MFV720899:MFV720911 MFV655363:MFV655375 MFV589827:MFV589839 MFV524291:MFV524303 MFV458755:MFV458767 MFV393219:MFV393231 MFV327683:MFV327695 MFV262147:MFV262159 MFV196611:MFV196623 MFV131075:MFV131087 MFV65539:MFV65551 LVZ983043:LVZ983055 LVZ917507:LVZ917519 LVZ851971:LVZ851983 LVZ786435:LVZ786447 LVZ720899:LVZ720911 LVZ655363:LVZ655375 LVZ589827:LVZ589839 LVZ524291:LVZ524303 LVZ458755:LVZ458767 LVZ393219:LVZ393231 LVZ327683:LVZ327695 LVZ262147:LVZ262159 LVZ196611:LVZ196623 LVZ131075:LVZ131087 LVZ65539:LVZ65551 LMD983043:LMD983055 LMD917507:LMD917519 LMD851971:LMD851983 LMD786435:LMD786447 LMD720899:LMD720911 LMD655363:LMD655375 LMD589827:LMD589839 LMD524291:LMD524303 LMD458755:LMD458767 LMD393219:LMD393231 LMD327683:LMD327695 LMD262147:LMD262159 LMD196611:LMD196623 LMD131075:LMD131087 LMD65539:LMD65551 LCH983043:LCH983055 LCH917507:LCH917519 LCH851971:LCH851983 LCH786435:LCH786447 LCH720899:LCH720911 LCH655363:LCH655375 LCH589827:LCH589839 LCH524291:LCH524303 LCH458755:LCH458767 LCH393219:LCH393231 LCH327683:LCH327695 LCH262147:LCH262159 LCH196611:LCH196623 LCH131075:LCH131087 LCH65539:LCH65551 KSL983043:KSL983055 KSL917507:KSL917519 KSL851971:KSL851983 KSL786435:KSL786447 KSL720899:KSL720911 KSL655363:KSL655375 KSL589827:KSL589839 KSL524291:KSL524303 KSL458755:KSL458767 KSL393219:KSL393231 KSL327683:KSL327695 KSL262147:KSL262159 KSL196611:KSL196623 KSL131075:KSL131087 KSL65539:KSL65551 KIP983043:KIP983055 KIP917507:KIP917519 KIP851971:KIP851983 KIP786435:KIP786447 KIP720899:KIP720911 KIP655363:KIP655375 KIP589827:KIP589839 KIP524291:KIP524303 KIP458755:KIP458767 KIP393219:KIP393231 KIP327683:KIP327695 KIP262147:KIP262159 KIP196611:KIP196623 KIP131075:KIP131087 KIP65539:KIP65551 JYT983043:JYT983055 JYT917507:JYT917519 JYT851971:JYT851983 JYT786435:JYT786447 JYT720899:JYT720911 JYT655363:JYT655375 JYT589827:JYT589839 JYT524291:JYT524303 JYT458755:JYT458767 JYT393219:JYT393231 JYT327683:JYT327695 JYT262147:JYT262159 JYT196611:JYT196623 JYT131075:JYT131087 JYT65539:JYT65551 JOX983043:JOX983055 JOX917507:JOX917519 JOX851971:JOX851983 JOX786435:JOX786447 JOX720899:JOX720911 JOX655363:JOX655375 JOX589827:JOX589839 JOX524291:JOX524303 JOX458755:JOX458767 JOX393219:JOX393231 JOX327683:JOX327695 JOX262147:JOX262159 JOX196611:JOX196623 JOX131075:JOX131087 JOX65539:JOX65551 JFB983043:JFB983055 JFB917507:JFB917519 JFB851971:JFB851983 JFB786435:JFB786447 JFB720899:JFB720911 JFB655363:JFB655375 JFB589827:JFB589839 JFB524291:JFB524303 JFB458755:JFB458767 JFB393219:JFB393231 JFB327683:JFB327695 JFB262147:JFB262159 JFB196611:JFB196623 JFB131075:JFB131087 JFB65539:JFB65551 IVF983043:IVF983055 IVF917507:IVF917519 IVF851971:IVF851983 IVF786435:IVF786447 IVF720899:IVF720911 IVF655363:IVF655375 IVF589827:IVF589839 IVF524291:IVF524303 IVF458755:IVF458767 IVF393219:IVF393231 IVF327683:IVF327695 IVF262147:IVF262159 IVF196611:IVF196623 IVF131075:IVF131087 IVF65539:IVF65551 ILJ983043:ILJ983055 ILJ917507:ILJ917519 ILJ851971:ILJ851983 ILJ786435:ILJ786447 ILJ720899:ILJ720911 ILJ655363:ILJ655375 ILJ589827:ILJ589839 ILJ524291:ILJ524303 ILJ458755:ILJ458767 ILJ393219:ILJ393231 ILJ327683:ILJ327695 ILJ262147:ILJ262159 ILJ196611:ILJ196623 ILJ131075:ILJ131087 ILJ65539:ILJ65551 IBN983043:IBN983055 IBN917507:IBN917519 IBN851971:IBN851983 IBN786435:IBN786447 IBN720899:IBN720911 IBN655363:IBN655375 IBN589827:IBN589839 IBN524291:IBN524303 IBN458755:IBN458767 IBN393219:IBN393231 IBN327683:IBN327695 IBN262147:IBN262159 IBN196611:IBN196623 IBN131075:IBN131087 IBN65539:IBN65551 HRR983043:HRR983055 HRR917507:HRR917519 HRR851971:HRR851983 HRR786435:HRR786447 HRR720899:HRR720911 HRR655363:HRR655375 HRR589827:HRR589839 HRR524291:HRR524303 HRR458755:HRR458767 HRR393219:HRR393231 HRR327683:HRR327695 HRR262147:HRR262159 HRR196611:HRR196623 HRR131075:HRR131087 HRR65539:HRR65551 HHV983043:HHV983055 HHV917507:HHV917519 HHV851971:HHV851983 HHV786435:HHV786447 HHV720899:HHV720911 HHV655363:HHV655375 HHV589827:HHV589839 HHV524291:HHV524303 HHV458755:HHV458767 HHV393219:HHV393231 HHV327683:HHV327695 HHV262147:HHV262159 HHV196611:HHV196623 HHV131075:HHV131087 HHV65539:HHV65551 GXZ983043:GXZ983055 GXZ917507:GXZ917519 GXZ851971:GXZ851983 GXZ786435:GXZ786447 GXZ720899:GXZ720911 GXZ655363:GXZ655375 GXZ589827:GXZ589839 GXZ524291:GXZ524303 GXZ458755:GXZ458767 GXZ393219:GXZ393231 GXZ327683:GXZ327695 GXZ262147:GXZ262159 GXZ196611:GXZ196623 GXZ131075:GXZ131087 GXZ65539:GXZ65551 GOD983043:GOD983055 GOD917507:GOD917519 GOD851971:GOD851983 GOD786435:GOD786447 GOD720899:GOD720911 GOD655363:GOD655375 GOD589827:GOD589839 GOD524291:GOD524303 GOD458755:GOD458767 GOD393219:GOD393231 GOD327683:GOD327695 GOD262147:GOD262159 GOD196611:GOD196623 GOD131075:GOD131087 GOD65539:GOD65551 GEH983043:GEH983055 GEH917507:GEH917519 GEH851971:GEH851983 GEH786435:GEH786447 GEH720899:GEH720911 GEH655363:GEH655375 GEH589827:GEH589839 GEH524291:GEH524303 GEH458755:GEH458767 GEH393219:GEH393231 GEH327683:GEH327695 GEH262147:GEH262159 GEH196611:GEH196623 GEH131075:GEH131087 GEH65539:GEH65551 FUL983043:FUL983055 FUL917507:FUL917519 FUL851971:FUL851983 FUL786435:FUL786447 FUL720899:FUL720911 FUL655363:FUL655375 FUL589827:FUL589839 FUL524291:FUL524303 FUL458755:FUL458767 FUL393219:FUL393231 FUL327683:FUL327695 FUL262147:FUL262159 FUL196611:FUL196623 FUL131075:FUL131087 FUL65539:FUL65551 FKP983043:FKP983055 FKP917507:FKP917519 FKP851971:FKP851983 FKP786435:FKP786447 FKP720899:FKP720911 FKP655363:FKP655375 FKP589827:FKP589839 FKP524291:FKP524303 FKP458755:FKP458767 FKP393219:FKP393231 FKP327683:FKP327695 FKP262147:FKP262159 FKP196611:FKP196623 FKP131075:FKP131087 FKP65539:FKP65551 FAT983043:FAT983055 FAT917507:FAT917519 FAT851971:FAT851983 FAT786435:FAT786447 FAT720899:FAT720911 FAT655363:FAT655375 FAT589827:FAT589839 FAT524291:FAT524303 FAT458755:FAT458767 FAT393219:FAT393231 FAT327683:FAT327695 FAT262147:FAT262159 FAT196611:FAT196623 FAT131075:FAT131087 FAT65539:FAT65551 EQX983043:EQX983055 EQX917507:EQX917519 EQX851971:EQX851983 EQX786435:EQX786447 EQX720899:EQX720911 EQX655363:EQX655375 EQX589827:EQX589839 EQX524291:EQX524303 EQX458755:EQX458767 EQX393219:EQX393231 EQX327683:EQX327695 EQX262147:EQX262159 EQX196611:EQX196623 EQX131075:EQX131087 EQX65539:EQX65551 EHB983043:EHB983055 EHB917507:EHB917519 EHB851971:EHB851983 EHB786435:EHB786447 EHB720899:EHB720911 EHB655363:EHB655375 EHB589827:EHB589839 EHB524291:EHB524303 EHB458755:EHB458767 EHB393219:EHB393231 EHB327683:EHB327695 EHB262147:EHB262159 EHB196611:EHB196623 EHB131075:EHB131087 EHB65539:EHB65551 DXF983043:DXF983055 DXF917507:DXF917519 DXF851971:DXF851983 DXF786435:DXF786447 DXF720899:DXF720911 DXF655363:DXF655375 DXF589827:DXF589839 DXF524291:DXF524303 DXF458755:DXF458767 DXF393219:DXF393231 DXF327683:DXF327695 DXF262147:DXF262159 DXF196611:DXF196623 DXF131075:DXF131087 DXF65539:DXF65551 DNJ983043:DNJ983055 DNJ917507:DNJ917519 DNJ851971:DNJ851983 DNJ786435:DNJ786447 DNJ720899:DNJ720911 DNJ655363:DNJ655375 DNJ589827:DNJ589839 DNJ524291:DNJ524303 DNJ458755:DNJ458767 DNJ393219:DNJ393231 DNJ327683:DNJ327695 DNJ262147:DNJ262159 DNJ196611:DNJ196623 DNJ131075:DNJ131087 DNJ65539:DNJ65551 DDN983043:DDN983055 DDN917507:DDN917519 DDN851971:DDN851983 DDN786435:DDN786447 DDN720899:DDN720911 DDN655363:DDN655375 DDN589827:DDN589839 DDN524291:DDN524303 DDN458755:DDN458767 DDN393219:DDN393231 DDN327683:DDN327695 DDN262147:DDN262159 DDN196611:DDN196623 DDN131075:DDN131087 DDN65539:DDN65551 CTR983043:CTR983055 CTR917507:CTR917519 CTR851971:CTR851983 CTR786435:CTR786447 CTR720899:CTR720911 CTR655363:CTR655375 CTR589827:CTR589839 CTR524291:CTR524303 CTR458755:CTR458767 CTR393219:CTR393231 CTR327683:CTR327695 CTR262147:CTR262159 CTR196611:CTR196623 CTR131075:CTR131087 CTR65539:CTR65551 CJV983043:CJV983055 CJV917507:CJV917519 CJV851971:CJV851983 CJV786435:CJV786447 CJV720899:CJV720911 CJV655363:CJV655375 CJV589827:CJV589839 CJV524291:CJV524303 CJV458755:CJV458767 CJV393219:CJV393231 CJV327683:CJV327695 CJV262147:CJV262159 CJV196611:CJV196623 CJV131075:CJV131087 CJV65539:CJV65551 BZZ983043:BZZ983055 BZZ917507:BZZ917519 BZZ851971:BZZ851983 BZZ786435:BZZ786447 BZZ720899:BZZ720911 BZZ655363:BZZ655375 BZZ589827:BZZ589839 BZZ524291:BZZ524303 BZZ458755:BZZ458767 BZZ393219:BZZ393231 BZZ327683:BZZ327695 BZZ262147:BZZ262159 BZZ196611:BZZ196623 BZZ131075:BZZ131087 BZZ65539:BZZ65551 BQD983043:BQD983055 BQD917507:BQD917519 BQD851971:BQD851983 BQD786435:BQD786447 BQD720899:BQD720911 BQD655363:BQD655375 BQD589827:BQD589839 BQD524291:BQD524303 BQD458755:BQD458767 BQD393219:BQD393231 BQD327683:BQD327695 BQD262147:BQD262159 BQD196611:BQD196623 BQD131075:BQD131087 BQD65539:BQD65551 BGH983043:BGH983055 BGH917507:BGH917519 BGH851971:BGH851983 BGH786435:BGH786447 BGH720899:BGH720911 BGH655363:BGH655375 BGH589827:BGH589839 BGH524291:BGH524303 BGH458755:BGH458767 BGH393219:BGH393231 BGH327683:BGH327695 BGH262147:BGH262159 BGH196611:BGH196623 BGH131075:BGH131087 BGH65539:BGH65551 AWL983043:AWL983055 AWL917507:AWL917519 AWL851971:AWL851983 AWL786435:AWL786447 AWL720899:AWL720911 AWL655363:AWL655375 AWL589827:AWL589839 AWL524291:AWL524303 AWL458755:AWL458767 AWL393219:AWL393231 AWL327683:AWL327695 AWL262147:AWL262159 AWL196611:AWL196623 AWL131075:AWL131087 AWL65539:AWL65551 AMP983043:AMP983055 AMP917507:AMP917519 AMP851971:AMP851983 AMP786435:AMP786447 AMP720899:AMP720911 AMP655363:AMP655375 AMP589827:AMP589839 AMP524291:AMP524303 AMP458755:AMP458767 AMP393219:AMP393231 AMP327683:AMP327695 AMP262147:AMP262159 AMP196611:AMP196623 AMP131075:AMP131087 AMP65539:AMP65551 ACT983043:ACT983055 ACT917507:ACT917519 ACT851971:ACT851983 ACT786435:ACT786447 ACT720899:ACT720911 ACT655363:ACT655375 ACT589827:ACT589839 ACT524291:ACT524303 ACT458755:ACT458767 ACT393219:ACT393231 ACT327683:ACT327695 ACT262147:ACT262159 ACT196611:ACT196623 ACT131075:ACT131087 ACT65539:ACT65551 SX983043:SX983055 SX917507:SX917519 SX851971:SX851983 SX786435:SX786447 SX720899:SX720911 SX655363:SX655375 SX589827:SX589839 SX524291:SX524303 SX458755:SX458767 SX393219:SX393231 SX327683:SX327695 SX262147:SX262159 SX196611:SX196623 SX131075:SX131087 SX65539:SX65551 JB983043:JB983055 JB917507:JB917519 JB851971:JB851983 JB786435:JB786447 JB720899:JB720911 JB655363:JB655375 JB589827:JB589839 JB524291:JB524303 JB458755:JB458767 JB393219:JB393231 JB327683:JB327695 JB262147:JB262159 JB196611:JB196623 JB131075:JB131087 JB65539:JB65551 F983043:F983055 F917507:F917519 F851971:F851983 F786435:F786447 F720899:F720911 F655363:F655375 F589827:F589839 F524291:F524303 F458755:F458767 F393219:F393231 F327683:F327695 F262147:F262159 F196611:F196623 F131075:F131087 JB4:JB15 SX4:SX15 ACT4:ACT15 AMP4:AMP15 AWL4:AWL15 BGH4:BGH15 BQD4:BQD15 BZZ4:BZZ15 CJV4:CJV15 CTR4:CTR15 DDN4:DDN15 DNJ4:DNJ15 DXF4:DXF15 EHB4:EHB15 EQX4:EQX15 FAT4:FAT15 FKP4:FKP15 FUL4:FUL15 GEH4:GEH15 GOD4:GOD15 GXZ4:GXZ15 HHV4:HHV15 HRR4:HRR15 IBN4:IBN15 ILJ4:ILJ15 IVF4:IVF15 JFB4:JFB15 JOX4:JOX15 JYT4:JYT15 KIP4:KIP15 KSL4:KSL15 LCH4:LCH15 LMD4:LMD15 LVZ4:LVZ15 MFV4:MFV15 MPR4:MPR15 MZN4:MZN15 NJJ4:NJJ15 NTF4:NTF15 ODB4:ODB15 OMX4:OMX15 OWT4:OWT15 PGP4:PGP15 PQL4:PQL15 QAH4:QAH15 QKD4:QKD15 QTZ4:QTZ15 RDV4:RDV15 RNR4:RNR15 RXN4:RXN15 SHJ4:SHJ15 SRF4:SRF15 TBB4:TBB15 TKX4:TKX15 TUT4:TUT15 UEP4:UEP15 UOL4:UOL15 UYH4:UYH15 VID4:VID15 VRZ4:VRZ15 WBV4:WBV15 WLR4:WLR15 F4:F15 WVN4:WVN15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65540:F65552 WVN917508:WVN917520 WVN851972:WVN851984 WVN786436:WVN786448 WVN720900:WVN720912 WVN655364:WVN655376 WVN589828:WVN589840 WVN524292:WVN524304 WVN458756:WVN458768 WVN393220:WVN393232 WVN327684:WVN327696 WVN262148:WVN262160 WVN196612:WVN196624 WVN131076:WVN131088 WVN65540:WVN65552 WVN983044:WVN983056 WLR983044:WLR983056 WLR917508:WLR917520 WLR851972:WLR851984 WLR786436:WLR786448 WLR720900:WLR720912 WLR655364:WLR655376 WLR589828:WLR589840 WLR524292:WLR524304 WLR458756:WLR458768 WLR393220:WLR393232 WLR327684:WLR327696 WLR262148:WLR262160 WLR196612:WLR196624 WLR131076:WLR131088 WLR65540:WLR65552 WBV983044:WBV983056 WBV917508:WBV917520 WBV851972:WBV851984 WBV786436:WBV786448 WBV720900:WBV720912 WBV655364:WBV655376 WBV589828:WBV589840 WBV524292:WBV524304 WBV458756:WBV458768 WBV393220:WBV393232 WBV327684:WBV327696 WBV262148:WBV262160 WBV196612:WBV196624 WBV131076:WBV131088 WBV65540:WBV65552 VRZ983044:VRZ983056 VRZ917508:VRZ917520 VRZ851972:VRZ851984 VRZ786436:VRZ786448 VRZ720900:VRZ720912 VRZ655364:VRZ655376 VRZ589828:VRZ589840 VRZ524292:VRZ524304 VRZ458756:VRZ458768 VRZ393220:VRZ393232 VRZ327684:VRZ327696 VRZ262148:VRZ262160 VRZ196612:VRZ196624 VRZ131076:VRZ131088 VRZ65540:VRZ65552 VID983044:VID983056 VID917508:VID917520 VID851972:VID851984 VID786436:VID786448 VID720900:VID720912 VID655364:VID655376 VID589828:VID589840 VID524292:VID524304 VID458756:VID458768 VID393220:VID393232 VID327684:VID327696 VID262148:VID262160 VID196612:VID196624 VID131076:VID131088 VID65540:VID65552 UYH983044:UYH983056 UYH917508:UYH917520 UYH851972:UYH851984 UYH786436:UYH786448 UYH720900:UYH720912 UYH655364:UYH655376 UYH589828:UYH589840 UYH524292:UYH524304 UYH458756:UYH458768 UYH393220:UYH393232 UYH327684:UYH327696 UYH262148:UYH262160 UYH196612:UYH196624 UYH131076:UYH131088 UYH65540:UYH65552 UOL983044:UOL983056 UOL917508:UOL917520 UOL851972:UOL851984 UOL786436:UOL786448 UOL720900:UOL720912 UOL655364:UOL655376 UOL589828:UOL589840 UOL524292:UOL524304 UOL458756:UOL458768 UOL393220:UOL393232 UOL327684:UOL327696 UOL262148:UOL262160 UOL196612:UOL196624 UOL131076:UOL131088 UOL65540:UOL65552 UEP983044:UEP983056 UEP917508:UEP917520 UEP851972:UEP851984 UEP786436:UEP786448 UEP720900:UEP720912 UEP655364:UEP655376 UEP589828:UEP589840 UEP524292:UEP524304 UEP458756:UEP458768 UEP393220:UEP393232 UEP327684:UEP327696 UEP262148:UEP262160 UEP196612:UEP196624 UEP131076:UEP131088 UEP65540:UEP65552 TUT983044:TUT983056 TUT917508:TUT917520 TUT851972:TUT851984 TUT786436:TUT786448 TUT720900:TUT720912 TUT655364:TUT655376 TUT589828:TUT589840 TUT524292:TUT524304 TUT458756:TUT458768 TUT393220:TUT393232 TUT327684:TUT327696 TUT262148:TUT262160 TUT196612:TUT196624 TUT131076:TUT131088 TUT65540:TUT65552 TKX983044:TKX983056 TKX917508:TKX917520 TKX851972:TKX851984 TKX786436:TKX786448 TKX720900:TKX720912 TKX655364:TKX655376 TKX589828:TKX589840 TKX524292:TKX524304 TKX458756:TKX458768 TKX393220:TKX393232 TKX327684:TKX327696 TKX262148:TKX262160 TKX196612:TKX196624 TKX131076:TKX131088 TKX65540:TKX65552 TBB983044:TBB983056 TBB917508:TBB917520 TBB851972:TBB851984 TBB786436:TBB786448 TBB720900:TBB720912 TBB655364:TBB655376 TBB589828:TBB589840 TBB524292:TBB524304 TBB458756:TBB458768 TBB393220:TBB393232 TBB327684:TBB327696 TBB262148:TBB262160 TBB196612:TBB196624 TBB131076:TBB131088 TBB65540:TBB65552 SRF983044:SRF983056 SRF917508:SRF917520 SRF851972:SRF851984 SRF786436:SRF786448 SRF720900:SRF720912 SRF655364:SRF655376 SRF589828:SRF589840 SRF524292:SRF524304 SRF458756:SRF458768 SRF393220:SRF393232 SRF327684:SRF327696 SRF262148:SRF262160 SRF196612:SRF196624 SRF131076:SRF131088 SRF65540:SRF65552 SHJ983044:SHJ983056 SHJ917508:SHJ917520 SHJ851972:SHJ851984 SHJ786436:SHJ786448 SHJ720900:SHJ720912 SHJ655364:SHJ655376 SHJ589828:SHJ589840 SHJ524292:SHJ524304 SHJ458756:SHJ458768 SHJ393220:SHJ393232 SHJ327684:SHJ327696 SHJ262148:SHJ262160 SHJ196612:SHJ196624 SHJ131076:SHJ131088 SHJ65540:SHJ65552 RXN983044:RXN983056 RXN917508:RXN917520 RXN851972:RXN851984 RXN786436:RXN786448 RXN720900:RXN720912 RXN655364:RXN655376 RXN589828:RXN589840 RXN524292:RXN524304 RXN458756:RXN458768 RXN393220:RXN393232 RXN327684:RXN327696 RXN262148:RXN262160 RXN196612:RXN196624 RXN131076:RXN131088 RXN65540:RXN65552 RNR983044:RNR983056 RNR917508:RNR917520 RNR851972:RNR851984 RNR786436:RNR786448 RNR720900:RNR720912 RNR655364:RNR655376 RNR589828:RNR589840 RNR524292:RNR524304 RNR458756:RNR458768 RNR393220:RNR393232 RNR327684:RNR327696 RNR262148:RNR262160 RNR196612:RNR196624 RNR131076:RNR131088 RNR65540:RNR65552 RDV983044:RDV983056 RDV917508:RDV917520 RDV851972:RDV851984 RDV786436:RDV786448 RDV720900:RDV720912 RDV655364:RDV655376 RDV589828:RDV589840 RDV524292:RDV524304 RDV458756:RDV458768 RDV393220:RDV393232 RDV327684:RDV327696 RDV262148:RDV262160 RDV196612:RDV196624 RDV131076:RDV131088 RDV65540:RDV65552 QTZ983044:QTZ983056 QTZ917508:QTZ917520 QTZ851972:QTZ851984 QTZ786436:QTZ786448 QTZ720900:QTZ720912 QTZ655364:QTZ655376 QTZ589828:QTZ589840 QTZ524292:QTZ524304 QTZ458756:QTZ458768 QTZ393220:QTZ393232 QTZ327684:QTZ327696 QTZ262148:QTZ262160 QTZ196612:QTZ196624 QTZ131076:QTZ131088 QTZ65540:QTZ65552 QKD983044:QKD983056 QKD917508:QKD917520 QKD851972:QKD851984 QKD786436:QKD786448 QKD720900:QKD720912 QKD655364:QKD655376 QKD589828:QKD589840 QKD524292:QKD524304 QKD458756:QKD458768 QKD393220:QKD393232 QKD327684:QKD327696 QKD262148:QKD262160 QKD196612:QKD196624 QKD131076:QKD131088 QKD65540:QKD65552 QAH983044:QAH983056 QAH917508:QAH917520 QAH851972:QAH851984 QAH786436:QAH786448 QAH720900:QAH720912 QAH655364:QAH655376 QAH589828:QAH589840 QAH524292:QAH524304 QAH458756:QAH458768 QAH393220:QAH393232 QAH327684:QAH327696 QAH262148:QAH262160 QAH196612:QAH196624 QAH131076:QAH131088 QAH65540:QAH65552 PQL983044:PQL983056 PQL917508:PQL917520 PQL851972:PQL851984 PQL786436:PQL786448 PQL720900:PQL720912 PQL655364:PQL655376 PQL589828:PQL589840 PQL524292:PQL524304 PQL458756:PQL458768 PQL393220:PQL393232 PQL327684:PQL327696 PQL262148:PQL262160 PQL196612:PQL196624 PQL131076:PQL131088 PQL65540:PQL65552 PGP983044:PGP983056 PGP917508:PGP917520 PGP851972:PGP851984 PGP786436:PGP786448 PGP720900:PGP720912 PGP655364:PGP655376 PGP589828:PGP589840 PGP524292:PGP524304 PGP458756:PGP458768 PGP393220:PGP393232 PGP327684:PGP327696 PGP262148:PGP262160 PGP196612:PGP196624 PGP131076:PGP131088 PGP65540:PGP65552 OWT983044:OWT983056 OWT917508:OWT917520 OWT851972:OWT851984 OWT786436:OWT786448 OWT720900:OWT720912 OWT655364:OWT655376 OWT589828:OWT589840 OWT524292:OWT524304 OWT458756:OWT458768 OWT393220:OWT393232 OWT327684:OWT327696 OWT262148:OWT262160 OWT196612:OWT196624 OWT131076:OWT131088 OWT65540:OWT65552 OMX983044:OMX983056 OMX917508:OMX917520 OMX851972:OMX851984 OMX786436:OMX786448 OMX720900:OMX720912 OMX655364:OMX655376 OMX589828:OMX589840 OMX524292:OMX524304 OMX458756:OMX458768 OMX393220:OMX393232 OMX327684:OMX327696 OMX262148:OMX262160 OMX196612:OMX196624 OMX131076:OMX131088 OMX65540:OMX65552 ODB983044:ODB983056 ODB917508:ODB917520 ODB851972:ODB851984 ODB786436:ODB786448 ODB720900:ODB720912 ODB655364:ODB655376 ODB589828:ODB589840 ODB524292:ODB524304 ODB458756:ODB458768 ODB393220:ODB393232 ODB327684:ODB327696 ODB262148:ODB262160 ODB196612:ODB196624 ODB131076:ODB131088 ODB65540:ODB65552 NTF983044:NTF983056 NTF917508:NTF917520 NTF851972:NTF851984 NTF786436:NTF786448 NTF720900:NTF720912 NTF655364:NTF655376 NTF589828:NTF589840 NTF524292:NTF524304 NTF458756:NTF458768 NTF393220:NTF393232 NTF327684:NTF327696 NTF262148:NTF262160 NTF196612:NTF196624 NTF131076:NTF131088 NTF65540:NTF65552 NJJ983044:NJJ983056 NJJ917508:NJJ917520 NJJ851972:NJJ851984 NJJ786436:NJJ786448 NJJ720900:NJJ720912 NJJ655364:NJJ655376 NJJ589828:NJJ589840 NJJ524292:NJJ524304 NJJ458756:NJJ458768 NJJ393220:NJJ393232 NJJ327684:NJJ327696 NJJ262148:NJJ262160 NJJ196612:NJJ196624 NJJ131076:NJJ131088 NJJ65540:NJJ65552 MZN983044:MZN983056 MZN917508:MZN917520 MZN851972:MZN851984 MZN786436:MZN786448 MZN720900:MZN720912 MZN655364:MZN655376 MZN589828:MZN589840 MZN524292:MZN524304 MZN458756:MZN458768 MZN393220:MZN393232 MZN327684:MZN327696 MZN262148:MZN262160 MZN196612:MZN196624 MZN131076:MZN131088 MZN65540:MZN65552 MPR983044:MPR983056 MPR917508:MPR917520 MPR851972:MPR851984 MPR786436:MPR786448 MPR720900:MPR720912 MPR655364:MPR655376 MPR589828:MPR589840 MPR524292:MPR524304 MPR458756:MPR458768 MPR393220:MPR393232 MPR327684:MPR327696 MPR262148:MPR262160 MPR196612:MPR196624 MPR131076:MPR131088 MPR65540:MPR65552 MFV983044:MFV983056 MFV917508:MFV917520 MFV851972:MFV851984 MFV786436:MFV786448 MFV720900:MFV720912 MFV655364:MFV655376 MFV589828:MFV589840 MFV524292:MFV524304 MFV458756:MFV458768 MFV393220:MFV393232 MFV327684:MFV327696 MFV262148:MFV262160 MFV196612:MFV196624 MFV131076:MFV131088 MFV65540:MFV65552 LVZ983044:LVZ983056 LVZ917508:LVZ917520 LVZ851972:LVZ851984 LVZ786436:LVZ786448 LVZ720900:LVZ720912 LVZ655364:LVZ655376 LVZ589828:LVZ589840 LVZ524292:LVZ524304 LVZ458756:LVZ458768 LVZ393220:LVZ393232 LVZ327684:LVZ327696 LVZ262148:LVZ262160 LVZ196612:LVZ196624 LVZ131076:LVZ131088 LVZ65540:LVZ65552 LMD983044:LMD983056 LMD917508:LMD917520 LMD851972:LMD851984 LMD786436:LMD786448 LMD720900:LMD720912 LMD655364:LMD655376 LMD589828:LMD589840 LMD524292:LMD524304 LMD458756:LMD458768 LMD393220:LMD393232 LMD327684:LMD327696 LMD262148:LMD262160 LMD196612:LMD196624 LMD131076:LMD131088 LMD65540:LMD65552 LCH983044:LCH983056 LCH917508:LCH917520 LCH851972:LCH851984 LCH786436:LCH786448 LCH720900:LCH720912 LCH655364:LCH655376 LCH589828:LCH589840 LCH524292:LCH524304 LCH458756:LCH458768 LCH393220:LCH393232 LCH327684:LCH327696 LCH262148:LCH262160 LCH196612:LCH196624 LCH131076:LCH131088 LCH65540:LCH65552 KSL983044:KSL983056 KSL917508:KSL917520 KSL851972:KSL851984 KSL786436:KSL786448 KSL720900:KSL720912 KSL655364:KSL655376 KSL589828:KSL589840 KSL524292:KSL524304 KSL458756:KSL458768 KSL393220:KSL393232 KSL327684:KSL327696 KSL262148:KSL262160 KSL196612:KSL196624 KSL131076:KSL131088 KSL65540:KSL65552 KIP983044:KIP983056 KIP917508:KIP917520 KIP851972:KIP851984 KIP786436:KIP786448 KIP720900:KIP720912 KIP655364:KIP655376 KIP589828:KIP589840 KIP524292:KIP524304 KIP458756:KIP458768 KIP393220:KIP393232 KIP327684:KIP327696 KIP262148:KIP262160 KIP196612:KIP196624 KIP131076:KIP131088 KIP65540:KIP65552 JYT983044:JYT983056 JYT917508:JYT917520 JYT851972:JYT851984 JYT786436:JYT786448 JYT720900:JYT720912 JYT655364:JYT655376 JYT589828:JYT589840 JYT524292:JYT524304 JYT458756:JYT458768 JYT393220:JYT393232 JYT327684:JYT327696 JYT262148:JYT262160 JYT196612:JYT196624 JYT131076:JYT131088 JYT65540:JYT65552 JOX983044:JOX983056 JOX917508:JOX917520 JOX851972:JOX851984 JOX786436:JOX786448 JOX720900:JOX720912 JOX655364:JOX655376 JOX589828:JOX589840 JOX524292:JOX524304 JOX458756:JOX458768 JOX393220:JOX393232 JOX327684:JOX327696 JOX262148:JOX262160 JOX196612:JOX196624 JOX131076:JOX131088 JOX65540:JOX65552 JFB983044:JFB983056 JFB917508:JFB917520 JFB851972:JFB851984 JFB786436:JFB786448 JFB720900:JFB720912 JFB655364:JFB655376 JFB589828:JFB589840 JFB524292:JFB524304 JFB458756:JFB458768 JFB393220:JFB393232 JFB327684:JFB327696 JFB262148:JFB262160 JFB196612:JFB196624 JFB131076:JFB131088 JFB65540:JFB65552 IVF983044:IVF983056 IVF917508:IVF917520 IVF851972:IVF851984 IVF786436:IVF786448 IVF720900:IVF720912 IVF655364:IVF655376 IVF589828:IVF589840 IVF524292:IVF524304 IVF458756:IVF458768 IVF393220:IVF393232 IVF327684:IVF327696 IVF262148:IVF262160 IVF196612:IVF196624 IVF131076:IVF131088 IVF65540:IVF65552 ILJ983044:ILJ983056 ILJ917508:ILJ917520 ILJ851972:ILJ851984 ILJ786436:ILJ786448 ILJ720900:ILJ720912 ILJ655364:ILJ655376 ILJ589828:ILJ589840 ILJ524292:ILJ524304 ILJ458756:ILJ458768 ILJ393220:ILJ393232 ILJ327684:ILJ327696 ILJ262148:ILJ262160 ILJ196612:ILJ196624 ILJ131076:ILJ131088 ILJ65540:ILJ65552 IBN983044:IBN983056 IBN917508:IBN917520 IBN851972:IBN851984 IBN786436:IBN786448 IBN720900:IBN720912 IBN655364:IBN655376 IBN589828:IBN589840 IBN524292:IBN524304 IBN458756:IBN458768 IBN393220:IBN393232 IBN327684:IBN327696 IBN262148:IBN262160 IBN196612:IBN196624 IBN131076:IBN131088 IBN65540:IBN65552 HRR983044:HRR983056 HRR917508:HRR917520 HRR851972:HRR851984 HRR786436:HRR786448 HRR720900:HRR720912 HRR655364:HRR655376 HRR589828:HRR589840 HRR524292:HRR524304 HRR458756:HRR458768 HRR393220:HRR393232 HRR327684:HRR327696 HRR262148:HRR262160 HRR196612:HRR196624 HRR131076:HRR131088 HRR65540:HRR65552 HHV983044:HHV983056 HHV917508:HHV917520 HHV851972:HHV851984 HHV786436:HHV786448 HHV720900:HHV720912 HHV655364:HHV655376 HHV589828:HHV589840 HHV524292:HHV524304 HHV458756:HHV458768 HHV393220:HHV393232 HHV327684:HHV327696 HHV262148:HHV262160 HHV196612:HHV196624 HHV131076:HHV131088 HHV65540:HHV65552 GXZ983044:GXZ983056 GXZ917508:GXZ917520 GXZ851972:GXZ851984 GXZ786436:GXZ786448 GXZ720900:GXZ720912 GXZ655364:GXZ655376 GXZ589828:GXZ589840 GXZ524292:GXZ524304 GXZ458756:GXZ458768 GXZ393220:GXZ393232 GXZ327684:GXZ327696 GXZ262148:GXZ262160 GXZ196612:GXZ196624 GXZ131076:GXZ131088 GXZ65540:GXZ65552 GOD983044:GOD983056 GOD917508:GOD917520 GOD851972:GOD851984 GOD786436:GOD786448 GOD720900:GOD720912 GOD655364:GOD655376 GOD589828:GOD589840 GOD524292:GOD524304 GOD458756:GOD458768 GOD393220:GOD393232 GOD327684:GOD327696 GOD262148:GOD262160 GOD196612:GOD196624 GOD131076:GOD131088 GOD65540:GOD65552 GEH983044:GEH983056 GEH917508:GEH917520 GEH851972:GEH851984 GEH786436:GEH786448 GEH720900:GEH720912 GEH655364:GEH655376 GEH589828:GEH589840 GEH524292:GEH524304 GEH458756:GEH458768 GEH393220:GEH393232 GEH327684:GEH327696 GEH262148:GEH262160 GEH196612:GEH196624 GEH131076:GEH131088 GEH65540:GEH65552 FUL983044:FUL983056 FUL917508:FUL917520 FUL851972:FUL851984 FUL786436:FUL786448 FUL720900:FUL720912 FUL655364:FUL655376 FUL589828:FUL589840 FUL524292:FUL524304 FUL458756:FUL458768 FUL393220:FUL393232 FUL327684:FUL327696 FUL262148:FUL262160 FUL196612:FUL196624 FUL131076:FUL131088 FUL65540:FUL65552 FKP983044:FKP983056 FKP917508:FKP917520 FKP851972:FKP851984 FKP786436:FKP786448 FKP720900:FKP720912 FKP655364:FKP655376 FKP589828:FKP589840 FKP524292:FKP524304 FKP458756:FKP458768 FKP393220:FKP393232 FKP327684:FKP327696 FKP262148:FKP262160 FKP196612:FKP196624 FKP131076:FKP131088 FKP65540:FKP65552 FAT983044:FAT983056 FAT917508:FAT917520 FAT851972:FAT851984 FAT786436:FAT786448 FAT720900:FAT720912 FAT655364:FAT655376 FAT589828:FAT589840 FAT524292:FAT524304 FAT458756:FAT458768 FAT393220:FAT393232 FAT327684:FAT327696 FAT262148:FAT262160 FAT196612:FAT196624 FAT131076:FAT131088 FAT65540:FAT65552 EQX983044:EQX983056 EQX917508:EQX917520 EQX851972:EQX851984 EQX786436:EQX786448 EQX720900:EQX720912 EQX655364:EQX655376 EQX589828:EQX589840 EQX524292:EQX524304 EQX458756:EQX458768 EQX393220:EQX393232 EQX327684:EQX327696 EQX262148:EQX262160 EQX196612:EQX196624 EQX131076:EQX131088 EQX65540:EQX65552 EHB983044:EHB983056 EHB917508:EHB917520 EHB851972:EHB851984 EHB786436:EHB786448 EHB720900:EHB720912 EHB655364:EHB655376 EHB589828:EHB589840 EHB524292:EHB524304 EHB458756:EHB458768 EHB393220:EHB393232 EHB327684:EHB327696 EHB262148:EHB262160 EHB196612:EHB196624 EHB131076:EHB131088 EHB65540:EHB65552 DXF983044:DXF983056 DXF917508:DXF917520 DXF851972:DXF851984 DXF786436:DXF786448 DXF720900:DXF720912 DXF655364:DXF655376 DXF589828:DXF589840 DXF524292:DXF524304 DXF458756:DXF458768 DXF393220:DXF393232 DXF327684:DXF327696 DXF262148:DXF262160 DXF196612:DXF196624 DXF131076:DXF131088 DXF65540:DXF65552 DNJ983044:DNJ983056 DNJ917508:DNJ917520 DNJ851972:DNJ851984 DNJ786436:DNJ786448 DNJ720900:DNJ720912 DNJ655364:DNJ655376 DNJ589828:DNJ589840 DNJ524292:DNJ524304 DNJ458756:DNJ458768 DNJ393220:DNJ393232 DNJ327684:DNJ327696 DNJ262148:DNJ262160 DNJ196612:DNJ196624 DNJ131076:DNJ131088 DNJ65540:DNJ65552 DDN983044:DDN983056 DDN917508:DDN917520 DDN851972:DDN851984 DDN786436:DDN786448 DDN720900:DDN720912 DDN655364:DDN655376 DDN589828:DDN589840 DDN524292:DDN524304 DDN458756:DDN458768 DDN393220:DDN393232 DDN327684:DDN327696 DDN262148:DDN262160 DDN196612:DDN196624 DDN131076:DDN131088 DDN65540:DDN65552 CTR983044:CTR983056 CTR917508:CTR917520 CTR851972:CTR851984 CTR786436:CTR786448 CTR720900:CTR720912 CTR655364:CTR655376 CTR589828:CTR589840 CTR524292:CTR524304 CTR458756:CTR458768 CTR393220:CTR393232 CTR327684:CTR327696 CTR262148:CTR262160 CTR196612:CTR196624 CTR131076:CTR131088 CTR65540:CTR65552 CJV983044:CJV983056 CJV917508:CJV917520 CJV851972:CJV851984 CJV786436:CJV786448 CJV720900:CJV720912 CJV655364:CJV655376 CJV589828:CJV589840 CJV524292:CJV524304 CJV458756:CJV458768 CJV393220:CJV393232 CJV327684:CJV327696 CJV262148:CJV262160 CJV196612:CJV196624 CJV131076:CJV131088 CJV65540:CJV65552 BZZ983044:BZZ983056 BZZ917508:BZZ917520 BZZ851972:BZZ851984 BZZ786436:BZZ786448 BZZ720900:BZZ720912 BZZ655364:BZZ655376 BZZ589828:BZZ589840 BZZ524292:BZZ524304 BZZ458756:BZZ458768 BZZ393220:BZZ393232 BZZ327684:BZZ327696 BZZ262148:BZZ262160 BZZ196612:BZZ196624 BZZ131076:BZZ131088 BZZ65540:BZZ65552 BQD983044:BQD983056 BQD917508:BQD917520 BQD851972:BQD851984 BQD786436:BQD786448 BQD720900:BQD720912 BQD655364:BQD655376 BQD589828:BQD589840 BQD524292:BQD524304 BQD458756:BQD458768 BQD393220:BQD393232 BQD327684:BQD327696 BQD262148:BQD262160 BQD196612:BQD196624 BQD131076:BQD131088 BQD65540:BQD65552 BGH983044:BGH983056 BGH917508:BGH917520 BGH851972:BGH851984 BGH786436:BGH786448 BGH720900:BGH720912 BGH655364:BGH655376 BGH589828:BGH589840 BGH524292:BGH524304 BGH458756:BGH458768 BGH393220:BGH393232 BGH327684:BGH327696 BGH262148:BGH262160 BGH196612:BGH196624 BGH131076:BGH131088 BGH65540:BGH65552 AWL983044:AWL983056 AWL917508:AWL917520 AWL851972:AWL851984 AWL786436:AWL786448 AWL720900:AWL720912 AWL655364:AWL655376 AWL589828:AWL589840 AWL524292:AWL524304 AWL458756:AWL458768 AWL393220:AWL393232 AWL327684:AWL327696 AWL262148:AWL262160 AWL196612:AWL196624 AWL131076:AWL131088 AWL65540:AWL65552 AMP983044:AMP983056 AMP917508:AMP917520 AMP851972:AMP851984 AMP786436:AMP786448 AMP720900:AMP720912 AMP655364:AMP655376 AMP589828:AMP589840 AMP524292:AMP524304 AMP458756:AMP458768 AMP393220:AMP393232 AMP327684:AMP327696 AMP262148:AMP262160 AMP196612:AMP196624 AMP131076:AMP131088 AMP65540:AMP65552 ACT983044:ACT983056 ACT917508:ACT917520 ACT851972:ACT851984 ACT786436:ACT786448 ACT720900:ACT720912 ACT655364:ACT655376 ACT589828:ACT589840 ACT524292:ACT524304 ACT458756:ACT458768 ACT393220:ACT393232 ACT327684:ACT327696 ACT262148:ACT262160 ACT196612:ACT196624 ACT131076:ACT131088 ACT65540:ACT65552 SX983044:SX983056 SX917508:SX917520 SX851972:SX851984 SX786436:SX786448 SX720900:SX720912 SX655364:SX655376 SX589828:SX589840 SX524292:SX524304 SX458756:SX458768 SX393220:SX393232 SX327684:SX327696 SX262148:SX262160 SX196612:SX196624 SX131076:SX131088 SX65540:SX65552 JB983044:JB983056 JB917508:JB917520 JB851972:JB851984 JB786436:JB786448 JB720900:JB720912 JB655364:JB655376 JB589828:JB589840 JB524292:JB524304 JB458756:JB458768 JB393220:JB393232 JB327684:JB327696 JB262148:JB262160 JB196612:JB196624 JB131076:JB131088 JB65540:JB65552 F983044:F983056 F917508:F917520 F851972:F851984 F786436:F786448 F720900:F720912 F655364:F655376 F589828:F589840 F524292:F524304 F458756:F458768 F393220:F393232 F327684:F327696 F262148:F262160 F196612:F196624 F131076:F131088 WVN4:WVN16 F4:F16 WLR4:WLR16 WBV4:WBV16 VRZ4:VRZ16 VID4:VID16 UYH4:UYH16 UOL4:UOL16 UEP4:UEP16 TUT4:TUT16 TKX4:TKX16 TBB4:TBB16 SRF4:SRF16 SHJ4:SHJ16 RXN4:RXN16 RNR4:RNR16 RDV4:RDV16 QTZ4:QTZ16 QKD4:QKD16 QAH4:QAH16 PQL4:PQL16 PGP4:PGP16 OWT4:OWT16 OMX4:OMX16 ODB4:ODB16 NTF4:NTF16 NJJ4:NJJ16 MZN4:MZN16 MPR4:MPR16 MFV4:MFV16 LVZ4:LVZ16 LMD4:LMD16 LCH4:LCH16 KSL4:KSL16 KIP4:KIP16 JYT4:JYT16 JOX4:JOX16 JFB4:JFB16 IVF4:IVF16 ILJ4:ILJ16 IBN4:IBN16 HRR4:HRR16 HHV4:HHV16 GXZ4:GXZ16 GOD4:GOD16 GEH4:GEH16 FUL4:FUL16 FKP4:FKP16 FAT4:FAT16 EQX4:EQX16 EHB4:EHB16 DXF4:DXF16 DNJ4:DNJ16 DDN4:DDN16 CTR4:CTR16 CJV4:CJV16 BZZ4:BZZ16 BQD4:BQD16 BGH4:BGH16 AWL4:AWL16 AMP4:AMP16 ACT4:ACT16 SX4:SX16 JB4:JB16">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 I7:I13">
+    <dataValidation type="list" imeMode="off" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="WVQ4 JE4 TA4 ACW4 AMS4 AWO4 BGK4 BQG4 CAC4 CJY4 CTU4 DDQ4 DNM4 DXI4 EHE4 ERA4 FAW4 FKS4 FUO4 GEK4 GOG4 GYC4 HHY4 HRU4 IBQ4 ILM4 IVI4 JFE4 JPA4 JYW4 KIS4 KSO4 LCK4 LMG4 LWC4 MFY4 MPU4 MZQ4 NJM4 NTI4 ODE4 ONA4 OWW4 PGS4 PQO4 QAK4 QKG4 QUC4 RDY4 RNU4 RXQ4 SHM4 SRI4 TBE4 TLA4 TUW4 UES4 UOO4 UYK4 VIG4 VSC4 WBY4 WLU4 I7:I14">
       <formula1>"开发环境,测试环境,生产环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8114,14 +8215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -8132,7 +8233,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="9" t="s">
         <v>19</v>
       </c>
@@ -8158,7 +8259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="8" customFormat="1">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -8168,7 +8269,7 @@
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -8178,7 +8279,7 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -8188,7 +8289,7 @@
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -8198,7 +8299,7 @@
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -8208,7 +8309,7 @@
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -8218,7 +8319,7 @@
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="12"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -8228,7 +8329,7 @@
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="12"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -8238,7 +8339,7 @@
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="12"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -8248,7 +8349,7 @@
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="12"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -8258,7 +8359,7 @@
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="12"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -8268,7 +8369,7 @@
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -8278,7 +8379,7 @@
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -8288,7 +8389,7 @@
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="12"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -8298,7 +8399,7 @@
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -8308,7 +8409,7 @@
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -8318,7 +8419,7 @@
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -8328,7 +8429,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -8350,14 +8451,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.25" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.25" style="32" customWidth="1"/>
@@ -8371,7 +8472,7 @@
     <col min="11" max="16384" width="9" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="20.25">
       <c r="A1" s="86" t="s">
         <v>85</v>
       </c>
@@ -8385,7 +8486,7 @@
       <c r="I1" s="87"/>
       <c r="J1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="17.25">
       <c r="A2" s="33" t="s">
         <v>61</v>
       </c>
@@ -8408,7 +8509,7 @@
         <v>67</v>
       </c>
       <c r="H2" s="33" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="I2" s="33" t="s">
         <v>68</v>
@@ -8417,7 +8518,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="17.25">
       <c r="A3" s="97">
         <v>1</v>
       </c>
@@ -8435,7 +8536,7 @@
         <v>89</v>
       </c>
       <c r="G3" s="40" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H3" s="77">
         <v>42549</v>
@@ -8445,7 +8546,7 @@
       </c>
       <c r="J3" s="43"/>
     </row>
-    <row r="4" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="17.25">
       <c r="A4" s="98"/>
       <c r="B4" s="42" t="s">
         <v>93</v>
@@ -8454,7 +8555,7 @@
         <v>92</v>
       </c>
       <c r="D4" s="40" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E4" s="42"/>
       <c r="F4" s="40" t="s">
@@ -8469,23 +8570,23 @@
       </c>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="17.25">
       <c r="A5" s="98"/>
       <c r="B5" s="42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C5" s="40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D5" s="40" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E5" s="42"/>
       <c r="F5" s="40" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G5" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H5" s="77">
         <v>42549</v>
@@ -8495,23 +8596,23 @@
       </c>
       <c r="J5" s="43"/>
     </row>
-    <row r="6" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="17.25">
       <c r="A6" s="98"/>
       <c r="B6" s="42" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C6" s="40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D6" s="40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E6" s="42"/>
       <c r="F6" s="40" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="40" t="s">
         <v>248</v>
-      </c>
-      <c r="G6" s="40" t="s">
-        <v>252</v>
       </c>
       <c r="H6" s="77">
         <v>42549</v>
@@ -8521,23 +8622,23 @@
       </c>
       <c r="J6" s="43"/>
     </row>
-    <row r="7" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="17.25">
       <c r="A7" s="98"/>
       <c r="B7" s="42" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C7" s="40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E7" s="42"/>
       <c r="F7" s="40" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H7" s="77">
         <v>42549</v>
@@ -8547,13 +8648,13 @@
       </c>
       <c r="J7" s="43"/>
     </row>
-    <row r="8" spans="1:10" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="17.25">
       <c r="A8" s="99"/>
       <c r="B8" s="42" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D8" s="40" t="s">
         <v>70</v>
@@ -8563,7 +8664,7 @@
         <v>95</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H8" s="77">
         <v>42549</v>
@@ -8573,7 +8674,7 @@
       </c>
       <c r="J8" s="43"/>
     </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="16.5">
       <c r="A9" s="88">
         <v>2</v>
       </c>
@@ -8591,7 +8692,7 @@
         <v>74</v>
       </c>
       <c r="G9" s="37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H9" s="74">
         <v>42548</v>
@@ -8601,7 +8702,7 @@
       </c>
       <c r="J9" s="35"/>
     </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="16.5">
       <c r="A10" s="89"/>
       <c r="B10" s="89"/>
       <c r="C10" s="90"/>
@@ -8613,7 +8714,7 @@
         <v>74</v>
       </c>
       <c r="G10" s="65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H10" s="74">
         <v>42548</v>
@@ -8623,7 +8724,7 @@
       </c>
       <c r="J10" s="35"/>
     </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="16.5">
       <c r="A11" s="89"/>
       <c r="B11" s="89"/>
       <c r="C11" s="90" t="s">
@@ -8639,7 +8740,7 @@
         <v>77</v>
       </c>
       <c r="G11" s="65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H11" s="74">
         <v>42548</v>
@@ -8649,7 +8750,7 @@
       </c>
       <c r="J11" s="35"/>
     </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="16.5">
       <c r="A12" s="89"/>
       <c r="B12" s="89"/>
       <c r="C12" s="90"/>
@@ -8663,7 +8764,7 @@
         <v>101</v>
       </c>
       <c r="G12" s="65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H12" s="74">
         <v>42548</v>
@@ -8673,7 +8774,7 @@
       </c>
       <c r="J12" s="35"/>
     </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="16.5">
       <c r="A13" s="89"/>
       <c r="B13" s="89"/>
       <c r="C13" s="90"/>
@@ -8687,7 +8788,7 @@
         <v>102</v>
       </c>
       <c r="G13" s="65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="74">
         <v>42548</v>
@@ -8697,7 +8798,7 @@
       </c>
       <c r="J13" s="35"/>
     </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="16.5">
       <c r="A14" s="44"/>
       <c r="B14" s="44"/>
       <c r="C14" s="37" t="s">
@@ -8707,13 +8808,13 @@
         <v>104</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>105</v>
       </c>
       <c r="G14" s="65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H14" s="74">
         <v>42548</v>
@@ -8723,7 +8824,7 @@
       </c>
       <c r="J14" s="35"/>
     </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="16.5">
       <c r="A15" s="66"/>
       <c r="B15" s="66"/>
       <c r="C15" s="67" t="s">
@@ -8737,7 +8838,7 @@
         <v>109</v>
       </c>
       <c r="G15" s="67" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H15" s="74">
         <v>42548</v>
@@ -8747,21 +8848,21 @@
       </c>
       <c r="J15" s="35"/>
     </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="16.5">
       <c r="A16" s="44"/>
       <c r="B16" s="44"/>
       <c r="C16" s="37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E16" s="36"/>
       <c r="F16" s="37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G16" s="65" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H16" s="74">
         <v>42548</v>
@@ -8771,23 +8872,23 @@
       </c>
       <c r="J16" s="35"/>
     </row>
-    <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="16.5">
       <c r="A17" s="100">
         <v>3</v>
       </c>
       <c r="B17" s="102" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C17" s="68" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="70"/>
       <c r="F17" s="68" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G17" s="68" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H17" s="75">
         <v>42548</v>
@@ -8797,19 +8898,19 @@
       </c>
       <c r="J17" s="70"/>
     </row>
-    <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="16.5">
       <c r="A18" s="101"/>
       <c r="B18" s="103"/>
       <c r="C18" s="71" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D18" s="70"/>
       <c r="E18" s="69"/>
       <c r="F18" s="68" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G18" s="68" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H18" s="75">
         <v>42549</v>
@@ -8819,19 +8920,19 @@
       </c>
       <c r="J18" s="70"/>
     </row>
-    <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="16.5">
       <c r="A19" s="101"/>
       <c r="B19" s="103"/>
       <c r="C19" s="68" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
       <c r="F19" s="68" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G19" s="68" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H19" s="75">
         <v>42545</v>
@@ -8841,19 +8942,19 @@
       </c>
       <c r="J19" s="70"/>
     </row>
-    <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="16.5">
       <c r="A20" s="101"/>
       <c r="B20" s="103"/>
       <c r="C20" s="68" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
       <c r="F20" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="G20" s="68" t="s">
         <v>219</v>
-      </c>
-      <c r="G20" s="68" t="s">
-        <v>223</v>
       </c>
       <c r="H20" s="75">
         <v>42548</v>
@@ -8863,7 +8964,7 @@
       </c>
       <c r="J20" s="70"/>
     </row>
-    <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="16.5">
       <c r="A21" s="91">
         <v>4</v>
       </c>
@@ -8883,7 +8984,7 @@
         <v>114</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="H21" s="77">
         <v>42549</v>
@@ -8893,7 +8994,7 @@
       </c>
       <c r="J21" s="39"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="16.5">
       <c r="A22" s="92"/>
       <c r="B22" s="95"/>
       <c r="C22" s="83" t="s">
@@ -8911,7 +9012,7 @@
       <c r="I22" s="40"/>
       <c r="J22" s="39"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="16.5">
       <c r="A23" s="92"/>
       <c r="B23" s="95"/>
       <c r="C23" s="84"/>
@@ -8927,7 +9028,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="39"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="16.5">
       <c r="A24" s="92"/>
       <c r="B24" s="95"/>
       <c r="C24" s="85"/>
@@ -8943,27 +9044,27 @@
       <c r="I24" s="40"/>
       <c r="J24" s="39"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="16.5">
       <c r="A25" s="92"/>
       <c r="B25" s="95"/>
       <c r="C25" s="64" t="s">
         <v>76</v>
       </c>
       <c r="D25" s="39" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>86</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="40"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="16.5">
       <c r="A26" s="92"/>
       <c r="B26" s="95"/>
       <c r="C26" s="40" t="s">
@@ -8981,7 +9082,7 @@
       <c r="I26" s="40"/>
       <c r="J26" s="39"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="16.5">
       <c r="A27" s="92"/>
       <c r="B27" s="95"/>
       <c r="C27" s="40" t="s">
@@ -8999,18 +9100,18 @@
       <c r="I27" s="40"/>
       <c r="J27" s="39"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="16.5">
       <c r="A28" s="93"/>
       <c r="B28" s="96"/>
       <c r="C28" s="40" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E28" s="38"/>
       <c r="F28" s="40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
